--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -59,7 +59,7 @@
     <t>floating_skull</t>
   </si>
   <si>
-    <t>死霊</t>
+    <t>ドクロ</t>
   </si>
   <si>
     <t>ghost</t>
@@ -95,67 +95,133 @@
     <t>liche</t>
   </si>
   <si>
+    <t>リッチ</t>
+  </si>
+  <si>
     <t>mummy</t>
   </si>
   <si>
+    <t>マミー</t>
+  </si>
+  <si>
     <t>ghoul</t>
   </si>
   <si>
+    <t>グール</t>
+  </si>
+  <si>
     <t>vampire</t>
   </si>
   <si>
+    <t>バンパイア</t>
+  </si>
+  <si>
     <t>wraith</t>
   </si>
   <si>
+    <t>レイス</t>
+  </si>
+  <si>
     <t>specter</t>
   </si>
   <si>
+    <t>亡霊</t>
+  </si>
+  <si>
     <t>wight</t>
   </si>
   <si>
+    <t>ワイト</t>
+  </si>
+  <si>
     <t>gnole1</t>
   </si>
   <si>
+    <t>ノール</t>
+  </si>
+  <si>
     <t>gnole2</t>
   </si>
   <si>
+    <t>ノール戦士</t>
+  </si>
+  <si>
     <t>ogre1</t>
   </si>
   <si>
+    <t>オーガ</t>
+  </si>
+  <si>
     <t>ogre2</t>
   </si>
   <si>
+    <t>トロル</t>
+  </si>
+  <si>
     <t>orc1</t>
   </si>
   <si>
+    <t>オーク</t>
+  </si>
+  <si>
     <t>orc2</t>
   </si>
   <si>
+    <t>オーク戦士</t>
+  </si>
+  <si>
     <t>ratman1</t>
   </si>
   <si>
+    <t>ラットマン</t>
+  </si>
+  <si>
     <t>ratman2</t>
   </si>
   <si>
+    <t>ラットマン戦士</t>
+  </si>
+  <si>
     <t>harpy_fly</t>
   </si>
   <si>
+    <t>ハーピー</t>
+  </si>
+  <si>
     <t>harpy_walk</t>
   </si>
   <si>
+    <t>ハルピュイア</t>
+  </si>
+  <si>
     <t>fairy</t>
   </si>
   <si>
+    <t>妖精</t>
+  </si>
+  <si>
     <t>snake_man</t>
   </si>
   <si>
+    <t>蛇男</t>
+  </si>
+  <si>
     <t>lizardman1</t>
   </si>
   <si>
+    <t>リザードマン</t>
+  </si>
+  <si>
     <t>lizardman2</t>
   </si>
   <si>
+    <t>リザードマン戦士</t>
+  </si>
+  <si>
     <t>goblin1</t>
+  </si>
+  <si>
+    <t>ゴブリン</t>
   </si>
   <si>
     <t>goblin2</t>
@@ -2120,7 +2186,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5">
         <v>100</v>
@@ -2136,10 +2202,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s" s="5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5">
         <v>100</v>
@@ -2155,10 +2221,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" s="5">
         <v>100</v>
@@ -2174,10 +2240,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5">
         <v>100</v>
@@ -2193,10 +2259,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5">
         <v>100</v>
@@ -2212,10 +2278,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5">
         <v>100</v>
@@ -2231,10 +2297,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19" s="5">
         <v>100</v>
@@ -2250,10 +2316,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D20" s="5">
         <v>100</v>
@@ -2269,10 +2335,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5">
         <v>100</v>
@@ -2288,10 +2354,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5">
         <v>100</v>
@@ -2307,10 +2373,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D23" s="5">
         <v>100</v>
@@ -2326,10 +2392,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5">
         <v>100</v>
@@ -2345,10 +2411,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D25" s="5">
         <v>100</v>
@@ -2364,10 +2430,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5">
         <v>100</v>
@@ -2383,10 +2449,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D27" s="5">
         <v>100</v>
@@ -2402,10 +2468,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D28" s="5">
         <v>100</v>
@@ -2421,10 +2487,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D29" s="5">
         <v>100</v>
@@ -2440,10 +2506,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D30" s="5">
         <v>100</v>
@@ -2459,10 +2525,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D31" s="5">
         <v>100</v>
@@ -2478,10 +2544,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5">
         <v>100</v>
@@ -2497,10 +2563,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D33" s="5">
         <v>100</v>
@@ -2516,10 +2582,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D34" s="5">
         <v>100</v>
@@ -2535,10 +2601,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D35" s="5">
         <v>100</v>
@@ -2554,10 +2620,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D36" s="5">
         <v>100</v>
@@ -2573,10 +2639,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D37" s="5">
         <v>100</v>
@@ -2592,10 +2658,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D38" s="5">
         <v>100</v>
@@ -2611,10 +2677,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D39" s="5">
         <v>100</v>
@@ -2630,10 +2696,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D40" s="5">
         <v>100</v>
@@ -2649,10 +2715,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D41" s="5">
         <v>100</v>
@@ -2668,10 +2734,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D42" s="5">
         <v>100</v>
@@ -2687,10 +2753,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D43" s="5">
         <v>100</v>
@@ -2706,10 +2772,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D44" s="5">
         <v>100</v>
@@ -2725,10 +2791,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D45" s="5">
         <v>100</v>
@@ -2744,10 +2810,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D46" s="5">
         <v>100</v>
@@ -2763,10 +2829,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D47" s="5">
         <v>100</v>
@@ -2782,10 +2848,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D48" s="5">
         <v>100</v>
@@ -2801,10 +2867,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D49" s="5">
         <v>100</v>
@@ -2820,10 +2886,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D50" s="5">
         <v>100</v>
@@ -2839,10 +2905,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D51" s="5">
         <v>100</v>
@@ -2858,10 +2924,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D52" s="5">
         <v>100</v>
@@ -2877,10 +2943,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D53" s="5">
         <v>100</v>
@@ -2896,10 +2962,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D54" s="5">
         <v>100</v>
@@ -2915,10 +2981,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D55" s="5">
         <v>100</v>
@@ -2934,10 +3000,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D56" s="5">
         <v>100</v>
@@ -2953,10 +3019,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D57" s="5">
         <v>100</v>
@@ -2972,10 +3038,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D58" s="5">
         <v>100</v>
@@ -2991,10 +3057,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D59" s="5">
         <v>100</v>
@@ -3010,10 +3076,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D60" s="5">
         <v>100</v>
@@ -3029,10 +3095,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D61" s="5">
         <v>100</v>
@@ -3048,10 +3114,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D62" s="5">
         <v>100</v>
@@ -3067,10 +3133,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D63" s="5">
         <v>100</v>
@@ -3086,10 +3152,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D64" s="5">
         <v>100</v>
@@ -3105,10 +3171,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D65" s="5">
         <v>100</v>
@@ -3124,10 +3190,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D66" s="5">
         <v>100</v>
@@ -3143,10 +3209,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D67" s="5">
         <v>100</v>
@@ -3162,10 +3228,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D68" s="5">
         <v>100</v>
@@ -3181,10 +3247,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D69" s="5">
         <v>100</v>
@@ -3200,10 +3266,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D70" s="5">
         <v>100</v>
@@ -3219,10 +3285,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D71" s="5">
         <v>100</v>
@@ -3238,10 +3304,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D72" s="5">
         <v>100</v>
@@ -3257,10 +3323,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D73" s="5">
         <v>100</v>
@@ -3276,10 +3342,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D74" s="5">
         <v>100</v>
@@ -3295,10 +3361,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D75" s="5">
         <v>100</v>
@@ -3314,10 +3380,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D76" s="5">
         <v>100</v>
@@ -3333,10 +3399,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D77" s="5">
         <v>100</v>
@@ -3352,10 +3418,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D78" s="5">
         <v>100</v>
@@ -3371,10 +3437,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D79" s="5">
         <v>100</v>
@@ -3390,10 +3456,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D80" s="5">
         <v>100</v>
@@ -3409,10 +3475,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D81" s="5">
         <v>100</v>
@@ -3428,10 +3494,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D82" s="5">
         <v>100</v>
@@ -3447,10 +3513,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D83" s="5">
         <v>100</v>
@@ -3466,10 +3532,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D84" s="5">
         <v>100</v>
@@ -3485,10 +3551,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D85" s="5">
         <v>100</v>
@@ -3504,10 +3570,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D86" s="5">
         <v>100</v>
@@ -3523,10 +3589,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D87" s="5">
         <v>100</v>
@@ -3542,10 +3608,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D88" s="5">
         <v>100</v>
@@ -3561,10 +3627,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D89" s="5">
         <v>100</v>
@@ -3580,10 +3646,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D90" s="5">
         <v>100</v>
@@ -3599,10 +3665,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D91" s="5">
         <v>100</v>
@@ -3618,10 +3684,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D92" s="5">
         <v>100</v>
@@ -3637,10 +3703,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D93" s="5">
         <v>100</v>
@@ -3656,10 +3722,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D94" s="5">
         <v>100</v>
@@ -3675,10 +3741,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D95" s="5">
         <v>100</v>
@@ -3694,10 +3760,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D96" s="5">
         <v>100</v>
@@ -3713,10 +3779,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D97" s="5">
         <v>100</v>
@@ -3732,10 +3798,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D98" s="5">
         <v>100</v>
@@ -3751,10 +3817,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D99" s="5">
         <v>100</v>
@@ -3770,10 +3836,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D100" s="5">
         <v>100</v>
@@ -3789,10 +3855,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D101" s="5">
         <v>100</v>
@@ -3808,10 +3874,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D102" s="5">
         <v>100</v>
@@ -3827,10 +3893,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D103" s="5">
         <v>100</v>
@@ -3846,10 +3912,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D104" s="5">
         <v>100</v>
@@ -3865,10 +3931,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D105" s="5">
         <v>100</v>
@@ -3884,10 +3950,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D106" s="5">
         <v>100</v>
@@ -3903,10 +3969,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D107" s="5">
         <v>100</v>
@@ -3922,10 +3988,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D108" s="5">
         <v>100</v>
@@ -3941,10 +4007,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D109" s="5">
         <v>100</v>
@@ -3960,10 +4026,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D110" s="5">
         <v>100</v>
@@ -3979,10 +4045,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D111" s="5">
         <v>100</v>
@@ -3998,10 +4064,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D112" s="5">
         <v>100</v>
@@ -4017,10 +4083,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D113" s="5">
         <v>100</v>
@@ -4036,10 +4102,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D114" s="5">
         <v>100</v>
@@ -4055,10 +4121,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D115" s="5">
         <v>100</v>
@@ -4074,10 +4140,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D116" s="5">
         <v>100</v>
@@ -4093,10 +4159,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D117" s="5">
         <v>100</v>
@@ -4112,10 +4178,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D118" s="5">
         <v>100</v>
@@ -4131,10 +4197,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D119" s="5">
         <v>100</v>
@@ -4150,10 +4216,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D120" s="5">
         <v>100</v>
@@ -4169,10 +4235,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D121" s="5">
         <v>100</v>
@@ -4188,10 +4254,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D122" s="5">
         <v>100</v>
@@ -4207,10 +4273,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D123" s="5">
         <v>100</v>
@@ -4226,10 +4292,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D124" s="5">
         <v>100</v>
@@ -4245,10 +4311,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D125" s="5">
         <v>100</v>
@@ -4264,10 +4330,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D126" s="5">
         <v>100</v>
@@ -4283,10 +4349,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D127" s="5">
         <v>100</v>
@@ -4302,10 +4368,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D128" s="5">
         <v>100</v>
@@ -4321,10 +4387,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D129" s="5">
         <v>100</v>
@@ -4340,10 +4406,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D130" s="5">
         <v>100</v>
@@ -4359,10 +4425,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D131" s="5">
         <v>100</v>
@@ -4378,10 +4444,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D132" s="5">
         <v>100</v>
@@ -4397,10 +4463,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D133" s="5">
         <v>100</v>
@@ -4416,10 +4482,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D134" s="5">
         <v>100</v>
@@ -4435,10 +4501,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D135" s="5">
         <v>100</v>
@@ -4454,10 +4520,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D136" s="5">
         <v>100</v>
@@ -4473,10 +4539,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D137" s="5">
         <v>100</v>
@@ -4492,10 +4558,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D138" s="5">
         <v>100</v>
@@ -4511,10 +4577,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D139" s="5">
         <v>100</v>
@@ -4530,10 +4596,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D140" s="5">
         <v>100</v>
@@ -4549,10 +4615,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D141" s="5">
         <v>100</v>
@@ -4568,10 +4634,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D142" s="5">
         <v>100</v>
@@ -4587,10 +4653,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D143" s="5">
         <v>100</v>
@@ -4606,10 +4672,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D144" s="5">
         <v>100</v>
@@ -4625,10 +4691,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D145" s="5">
         <v>100</v>
@@ -4644,10 +4710,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D146" s="5">
         <v>100</v>
@@ -4663,10 +4729,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D147" s="5">
         <v>100</v>
@@ -4682,10 +4748,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D148" s="5">
         <v>100</v>
@@ -4701,10 +4767,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D149" s="5">
         <v>100</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -197,7 +197,7 @@
     <t>fairy</t>
   </si>
   <si>
-    <t>妖精</t>
+    <t>フェアリー</t>
   </si>
   <si>
     <t>snake_man</t>
@@ -227,85 +227,169 @@
     <t>goblin2</t>
   </si>
   <si>
+    <t>ゴブリン戦士</t>
+  </si>
+  <si>
     <t>goblin3</t>
   </si>
   <si>
+    <t>ゴブリンファイター</t>
+  </si>
+  <si>
     <t>goblin4</t>
   </si>
   <si>
+    <t>ダークゴブリン</t>
+  </si>
+  <si>
     <t>minotaur1</t>
   </si>
   <si>
+    <t>ミノタウロス</t>
+  </si>
+  <si>
     <t>minotaur2</t>
   </si>
   <si>
+    <t>メガタウロス</t>
+  </si>
+  <si>
     <t>yeti</t>
   </si>
   <si>
+    <t>イエティ</t>
+  </si>
+  <si>
     <t>werewolf</t>
   </si>
   <si>
+    <t>ワーウルフ</t>
+  </si>
+  <si>
     <t>arachne</t>
   </si>
   <si>
+    <t>アラクネ</t>
+  </si>
+  <si>
     <t>mindflayer</t>
   </si>
   <si>
+    <t>イリシッド</t>
+  </si>
+  <si>
     <t>medousa</t>
   </si>
   <si>
+    <t>メドゥーサ</t>
+  </si>
+  <si>
     <t>homunculus</t>
   </si>
   <si>
+    <t>ホムンクルス</t>
+  </si>
+  <si>
     <t>invader</t>
   </si>
   <si>
-    <t>dard_elf1</t>
-  </si>
-  <si>
-    <t>dard_elf2</t>
-  </si>
-  <si>
-    <t>dard_elf3</t>
-  </si>
-  <si>
-    <t>dard_elf4</t>
+    <t>宇宙からの使者</t>
+  </si>
+  <si>
+    <t>dark_elf1</t>
+  </si>
+  <si>
+    <t>ダークエルフ</t>
+  </si>
+  <si>
+    <t>dark_elf2</t>
+  </si>
+  <si>
+    <t>地下エルフ</t>
+  </si>
+  <si>
+    <t>dark_elf3</t>
+  </si>
+  <si>
+    <t>ブラックエルフ</t>
+  </si>
+  <si>
+    <t>dark_elf4</t>
+  </si>
+  <si>
+    <t>暗黒エルフ</t>
   </si>
   <si>
     <t>golem</t>
   </si>
   <si>
+    <t>ゴーレム</t>
+  </si>
+  <si>
     <t>crystal_golem</t>
   </si>
   <si>
+    <t>水晶ゴーレム</t>
+  </si>
+  <si>
     <t>iron_golem</t>
   </si>
   <si>
+    <t>鉄のゴーレム</t>
+  </si>
+  <si>
     <t>cat1</t>
   </si>
   <si>
+    <t>猫</t>
+  </si>
+  <si>
     <t>cat2</t>
   </si>
   <si>
+    <t>黒猫</t>
+  </si>
+  <si>
     <t>rat</t>
   </si>
   <si>
+    <t>ラット</t>
+  </si>
+  <si>
     <t>dog1</t>
   </si>
   <si>
+    <t>レッドドッグ</t>
+  </si>
+  <si>
     <t>dog2</t>
   </si>
   <si>
+    <t>狂犬</t>
+  </si>
+  <si>
     <t>wolf</t>
   </si>
   <si>
+    <t>ウルフ</t>
+  </si>
+  <si>
     <t>snow_wolf</t>
   </si>
   <si>
+    <t>スノーウルフ</t>
+  </si>
+  <si>
     <t>pig</t>
   </si>
   <si>
-    <t>doer</t>
+    <t>ピッグ</t>
+  </si>
+  <si>
+    <t>boar</t>
+  </si>
+  <si>
+    <t>イノシシ</t>
   </si>
   <si>
     <t>bear</t>
@@ -2604,7 +2688,7 @@
         <v>70</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="5">
         <v>100</v>
@@ -2620,10 +2704,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D36" s="5">
         <v>100</v>
@@ -2639,10 +2723,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D37" s="5">
         <v>100</v>
@@ -2658,10 +2742,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D38" s="5">
         <v>100</v>
@@ -2677,10 +2761,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D39" s="5">
         <v>100</v>
@@ -2696,10 +2780,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D40" s="5">
         <v>100</v>
@@ -2715,10 +2799,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D41" s="5">
         <v>100</v>
@@ -2734,10 +2818,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D42" s="5">
         <v>100</v>
@@ -2753,10 +2837,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D43" s="5">
         <v>100</v>
@@ -2772,10 +2856,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D44" s="5">
         <v>100</v>
@@ -2791,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D45" s="5">
         <v>100</v>
@@ -2810,10 +2894,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D46" s="5">
         <v>100</v>
@@ -2829,10 +2913,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5">
         <v>100</v>
@@ -2848,10 +2932,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D48" s="5">
         <v>100</v>
@@ -2867,10 +2951,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D49" s="5">
         <v>100</v>
@@ -2886,10 +2970,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D50" s="5">
         <v>100</v>
@@ -2905,10 +2989,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D51" s="5">
         <v>100</v>
@@ -2924,10 +3008,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D52" s="5">
         <v>100</v>
@@ -2943,10 +3027,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D53" s="5">
         <v>100</v>
@@ -2962,10 +3046,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D54" s="5">
         <v>100</v>
@@ -2981,10 +3065,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D55" s="5">
         <v>100</v>
@@ -3000,10 +3084,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D56" s="5">
         <v>100</v>
@@ -3019,10 +3103,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D57" s="5">
         <v>100</v>
@@ -3038,10 +3122,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D58" s="5">
         <v>100</v>
@@ -3057,10 +3141,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D59" s="5">
         <v>100</v>
@@ -3076,10 +3160,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D60" s="5">
         <v>100</v>
@@ -3095,10 +3179,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D61" s="5">
         <v>100</v>
@@ -3114,10 +3198,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D62" s="5">
         <v>100</v>
@@ -3133,10 +3217,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D63" s="5">
         <v>100</v>
@@ -3152,10 +3236,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D64" s="5">
         <v>100</v>
@@ -3171,10 +3255,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D65" s="5">
         <v>100</v>
@@ -3190,10 +3274,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D66" s="5">
         <v>100</v>
@@ -3209,10 +3293,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D67" s="5">
         <v>100</v>
@@ -3228,10 +3312,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D68" s="5">
         <v>100</v>
@@ -3247,10 +3331,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D69" s="5">
         <v>100</v>
@@ -3266,10 +3350,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D70" s="5">
         <v>100</v>
@@ -3285,10 +3369,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D71" s="5">
         <v>100</v>
@@ -3304,10 +3388,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D72" s="5">
         <v>100</v>
@@ -3323,10 +3407,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D73" s="5">
         <v>100</v>
@@ -3342,10 +3426,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D74" s="5">
         <v>100</v>
@@ -3361,10 +3445,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D75" s="5">
         <v>100</v>
@@ -3380,10 +3464,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D76" s="5">
         <v>100</v>
@@ -3399,10 +3483,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D77" s="5">
         <v>100</v>
@@ -3418,10 +3502,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D78" s="5">
         <v>100</v>
@@ -3437,10 +3521,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D79" s="5">
         <v>100</v>
@@ -3456,10 +3540,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D80" s="5">
         <v>100</v>
@@ -3475,10 +3559,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D81" s="5">
         <v>100</v>
@@ -3494,10 +3578,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D82" s="5">
         <v>100</v>
@@ -3513,10 +3597,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D83" s="5">
         <v>100</v>
@@ -3532,10 +3616,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D84" s="5">
         <v>100</v>
@@ -3551,10 +3635,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="D85" s="5">
         <v>100</v>
@@ -3570,10 +3654,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D86" s="5">
         <v>100</v>
@@ -3589,10 +3673,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D87" s="5">
         <v>100</v>
@@ -3608,10 +3692,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D88" s="5">
         <v>100</v>
@@ -3627,10 +3711,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D89" s="5">
         <v>100</v>
@@ -3646,10 +3730,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D90" s="5">
         <v>100</v>
@@ -3665,10 +3749,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D91" s="5">
         <v>100</v>
@@ -3684,10 +3768,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D92" s="5">
         <v>100</v>
@@ -3703,10 +3787,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D93" s="5">
         <v>100</v>
@@ -3722,10 +3806,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D94" s="5">
         <v>100</v>
@@ -3741,10 +3825,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D95" s="5">
         <v>100</v>
@@ -3760,10 +3844,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D96" s="5">
         <v>100</v>
@@ -3779,10 +3863,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="D97" s="5">
         <v>100</v>
@@ -3798,10 +3882,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D98" s="5">
         <v>100</v>
@@ -3817,10 +3901,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D99" s="5">
         <v>100</v>
@@ -3836,10 +3920,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D100" s="5">
         <v>100</v>
@@ -3855,10 +3939,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D101" s="5">
         <v>100</v>
@@ -3874,10 +3958,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D102" s="5">
         <v>100</v>
@@ -3893,10 +3977,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D103" s="5">
         <v>100</v>
@@ -3912,10 +3996,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D104" s="5">
         <v>100</v>
@@ -3931,10 +4015,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D105" s="5">
         <v>100</v>
@@ -3950,10 +4034,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D106" s="5">
         <v>100</v>
@@ -3969,10 +4053,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D107" s="5">
         <v>100</v>
@@ -3988,10 +4072,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D108" s="5">
         <v>100</v>
@@ -4007,10 +4091,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D109" s="5">
         <v>100</v>
@@ -4026,10 +4110,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D110" s="5">
         <v>100</v>
@@ -4045,10 +4129,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D111" s="5">
         <v>100</v>
@@ -4064,10 +4148,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="D112" s="5">
         <v>100</v>
@@ -4083,10 +4167,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D113" s="5">
         <v>100</v>
@@ -4102,10 +4186,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="D114" s="5">
         <v>100</v>
@@ -4121,10 +4205,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="D115" s="5">
         <v>100</v>
@@ -4140,10 +4224,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="D116" s="5">
         <v>100</v>
@@ -4159,10 +4243,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D117" s="5">
         <v>100</v>
@@ -4178,10 +4262,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="D118" s="5">
         <v>100</v>
@@ -4197,10 +4281,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="D119" s="5">
         <v>100</v>
@@ -4216,10 +4300,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D120" s="5">
         <v>100</v>
@@ -4235,10 +4319,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D121" s="5">
         <v>100</v>
@@ -4254,10 +4338,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="D122" s="5">
         <v>100</v>
@@ -4273,10 +4357,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D123" s="5">
         <v>100</v>
@@ -4292,10 +4376,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="D124" s="5">
         <v>100</v>
@@ -4311,10 +4395,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="D125" s="5">
         <v>100</v>
@@ -4330,10 +4414,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D126" s="5">
         <v>100</v>
@@ -4349,10 +4433,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="D127" s="5">
         <v>100</v>
@@ -4368,10 +4452,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="D128" s="5">
         <v>100</v>
@@ -4387,10 +4471,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D129" s="5">
         <v>100</v>
@@ -4406,10 +4490,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D130" s="5">
         <v>100</v>
@@ -4425,10 +4509,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="D131" s="5">
         <v>100</v>
@@ -4444,10 +4528,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="D132" s="5">
         <v>100</v>
@@ -4463,10 +4547,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="D133" s="5">
         <v>100</v>
@@ -4482,10 +4566,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="D134" s="5">
         <v>100</v>
@@ -4501,10 +4585,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="D135" s="5">
         <v>100</v>
@@ -4520,10 +4604,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="D136" s="5">
         <v>100</v>
@@ -4539,10 +4623,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="D137" s="5">
         <v>100</v>
@@ -4558,10 +4642,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="D138" s="5">
         <v>100</v>
@@ -4577,10 +4661,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D139" s="5">
         <v>100</v>
@@ -4596,10 +4680,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="D140" s="5">
         <v>100</v>
@@ -4615,10 +4699,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="D141" s="5">
         <v>100</v>
@@ -4634,10 +4718,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D142" s="5">
         <v>100</v>
@@ -4653,10 +4737,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="D143" s="5">
         <v>100</v>
@@ -4672,10 +4756,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="D144" s="5">
         <v>100</v>
@@ -4691,10 +4775,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="D145" s="5">
         <v>100</v>
@@ -4710,10 +4794,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D146" s="5">
         <v>100</v>
@@ -4729,10 +4813,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="D147" s="5">
         <v>100</v>
@@ -4748,10 +4832,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D148" s="5">
         <v>100</v>
@@ -4767,10 +4851,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="D149" s="5">
         <v>100</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
   <si>
     <t>id</t>
   </si>
@@ -191,7 +191,7 @@
     <t>harpy_walk</t>
   </si>
   <si>
-    <t>ハルピュイア</t>
+    <t>グラウンドハーピー</t>
   </si>
   <si>
     <t>fairy</t>
@@ -353,13 +353,13 @@
     <t>rat</t>
   </si>
   <si>
-    <t>ラット</t>
+    <t>針ネズミ</t>
   </si>
   <si>
     <t>dog1</t>
   </si>
   <si>
-    <t>レッドドッグ</t>
+    <t>赤い犬</t>
   </si>
   <si>
     <t>dog2</t>
@@ -395,262 +395,523 @@
     <t>bear</t>
   </si>
   <si>
+    <t>ベア</t>
+  </si>
+  <si>
     <t>polar_bear</t>
   </si>
   <si>
+    <t>シロクマ</t>
+  </si>
+  <si>
     <t>grizzy_bear</t>
   </si>
   <si>
+    <t>グリズリー</t>
+  </si>
+  <si>
     <t>stag</t>
   </si>
   <si>
+    <t>シカ</t>
+  </si>
+  <si>
     <t>doe</t>
   </si>
   <si>
+    <t>牝鹿</t>
+  </si>
+  <si>
     <t>panther</t>
   </si>
   <si>
+    <t>ヒョウ</t>
+  </si>
+  <si>
     <t>snow_panther</t>
   </si>
   <si>
+    <t>白ヒョウ</t>
+  </si>
+  <si>
     <t>saber_tiger</t>
   </si>
   <si>
+    <t>サーベルタイガー</t>
+  </si>
+  <si>
     <t>tiger</t>
   </si>
   <si>
+    <t>タイガー</t>
+  </si>
+  <si>
     <t>gorilla</t>
   </si>
   <si>
+    <t>ゴリラ</t>
+  </si>
+  <si>
     <t>horse1</t>
   </si>
   <si>
+    <t>マダーホース</t>
+  </si>
+  <si>
     <t>horse2</t>
   </si>
   <si>
+    <t>クリムゾンホース</t>
+  </si>
+  <si>
     <t>horse3</t>
   </si>
   <si>
+    <t>アイアンホース</t>
+  </si>
+  <si>
     <t>horse4</t>
   </si>
   <si>
+    <t>ブラックホース</t>
+  </si>
+  <si>
     <t>goat</t>
   </si>
   <si>
+    <t>ヤギ</t>
+  </si>
+  <si>
     <t>sheep</t>
   </si>
   <si>
+    <t>ヒツジ</t>
+  </si>
+  <si>
     <t>bull</t>
   </si>
   <si>
+    <t>雌牛</t>
+  </si>
+  <si>
     <t>cow</t>
   </si>
   <si>
+    <t>雄牛</t>
+  </si>
+  <si>
     <t>lizard</t>
   </si>
   <si>
+    <t>リザード</t>
+  </si>
+  <si>
     <t>snake</t>
   </si>
   <si>
+    <t>ヘビ</t>
+  </si>
+  <si>
     <t>frog</t>
   </si>
   <si>
+    <t>カエル</t>
+  </si>
+  <si>
     <t>toad</t>
   </si>
   <si>
+    <t>ヒキガエル</t>
+  </si>
+  <si>
     <t>wyvern</t>
   </si>
   <si>
+    <t>ワイバーン</t>
+  </si>
+  <si>
     <t>bird</t>
   </si>
   <si>
+    <t>鳥</t>
+  </si>
+  <si>
     <t>chicken</t>
   </si>
   <si>
+    <t>ニワトリ</t>
+  </si>
+  <si>
     <t>bat</t>
   </si>
   <si>
+    <t>コウモリ</t>
+  </si>
+  <si>
     <t>jelly</t>
   </si>
   <si>
+    <t>スライム</t>
+  </si>
+  <si>
     <t>slime</t>
   </si>
   <si>
+    <t>毒スライム</t>
+  </si>
+  <si>
     <t>slug</t>
   </si>
   <si>
+    <t>なめくじ</t>
+  </si>
+  <si>
     <t>snail</t>
   </si>
   <si>
+    <t>カタツムリ</t>
+  </si>
+  <si>
     <t>tentacle</t>
   </si>
   <si>
+    <t>触手</t>
+  </si>
+  <si>
     <t>gelatinous_cube</t>
   </si>
   <si>
+    <t>ゼラチン状立方体</t>
+  </si>
+  <si>
     <t>worm</t>
   </si>
   <si>
+    <t>ワーム</t>
+  </si>
+  <si>
     <t>magot</t>
   </si>
   <si>
+    <t>ウジ虫</t>
+  </si>
+  <si>
     <t>sea_serpent</t>
   </si>
   <si>
+    <t>サーペント</t>
+  </si>
+  <si>
     <t>octopus_ground</t>
   </si>
   <si>
+    <t>オクトパス</t>
+  </si>
+  <si>
     <t>octopus_water</t>
   </si>
   <si>
+    <t>オクトパス（水中）</t>
+  </si>
+  <si>
     <t>jellyfish</t>
   </si>
   <si>
-    <t>ell_ground</t>
-  </si>
-  <si>
-    <t>ell_water</t>
+    <t>ジェリーフィッシュ</t>
+  </si>
+  <si>
+    <t>eel_ground</t>
+  </si>
+  <si>
+    <t>電気ウナギ</t>
+  </si>
+  <si>
+    <t>eel_water</t>
+  </si>
+  <si>
+    <t>電気ウナギ（水中）</t>
   </si>
   <si>
     <t>crab_ground</t>
   </si>
   <si>
+    <t>シザースクラブ</t>
+  </si>
+  <si>
     <t>crab_water</t>
   </si>
   <si>
+    <t>シザースクラブ（水中）</t>
+  </si>
+  <si>
     <t>gillman_ground</t>
   </si>
   <si>
+    <t>ギルマン</t>
+  </si>
+  <si>
     <t>gillman_water</t>
   </si>
   <si>
+    <t>ギルマン（水中）</t>
+  </si>
+  <si>
     <t>shellfish</t>
   </si>
   <si>
+    <t>人喰い貝</t>
+  </si>
+  <si>
     <t>fly</t>
   </si>
   <si>
+    <t>寄生ハエ</t>
+  </si>
+  <si>
     <t>mosquito</t>
   </si>
   <si>
+    <t>モスキート</t>
+  </si>
+  <si>
     <t>scorpion</t>
   </si>
   <si>
+    <t>スコーピオン</t>
+  </si>
+  <si>
     <t>spider</t>
   </si>
   <si>
+    <t>スパイダー</t>
+  </si>
+  <si>
     <t>bee</t>
   </si>
   <si>
+    <t>キラービー</t>
+  </si>
+  <si>
     <t>worker_ant</t>
   </si>
   <si>
+    <t>アント</t>
+  </si>
+  <si>
     <t>soldier_ant</t>
   </si>
   <si>
+    <t>キラーアント</t>
+  </si>
+  <si>
     <t>cockroach</t>
   </si>
   <si>
+    <t>コックローチ</t>
+  </si>
+  <si>
     <t>tick</t>
   </si>
   <si>
+    <t>マダニ</t>
+  </si>
+  <si>
     <t>centipede</t>
   </si>
   <si>
+    <t>ムカデ</t>
+  </si>
+  <si>
     <t>pillbug</t>
   </si>
   <si>
+    <t>ダンゴムシ</t>
+  </si>
+  <si>
     <t>mantis</t>
   </si>
   <si>
+    <t>カマキリ</t>
+  </si>
+  <si>
     <t>reaper</t>
   </si>
   <si>
+    <t>刈り取るもの</t>
+  </si>
+  <si>
     <t>vine</t>
   </si>
   <si>
+    <t>奇妙なツル</t>
+  </si>
+  <si>
     <t>fungus</t>
   </si>
   <si>
+    <t>危険な菌類</t>
+  </si>
+  <si>
     <t>myconid</t>
   </si>
   <si>
+    <t>人面キノコ</t>
+  </si>
+  <si>
     <t>shrieker</t>
   </si>
   <si>
+    <t>紫のキノコ</t>
+  </si>
+  <si>
     <t>gas_spore</t>
   </si>
   <si>
+    <t>キノコの胞子ガス</t>
+  </si>
+  <si>
     <t>insectivorous_plant</t>
   </si>
   <si>
+    <t>食虫植物</t>
+  </si>
+  <si>
     <t>mandragora</t>
   </si>
   <si>
+    <t>マンドラゴラ</t>
+  </si>
+  <si>
     <t>beetle</t>
   </si>
   <si>
+    <t>ビートル</t>
+  </si>
+  <si>
     <t>evil_eye</t>
   </si>
   <si>
+    <t>イーヴィルアイ</t>
+  </si>
+  <si>
     <t>imp</t>
   </si>
   <si>
+    <t>インプ</t>
+  </si>
+  <si>
     <t>goatman1</t>
   </si>
   <si>
+    <t>羊男</t>
+  </si>
+  <si>
     <t>goatman2</t>
   </si>
   <si>
+    <t>羊戦士</t>
+  </si>
+  <si>
     <t>lesser_fiend1</t>
   </si>
   <si>
+    <t>レッサーデーモン</t>
+  </si>
+  <si>
     <t>lesser_fiend2</t>
   </si>
   <si>
+    <t>マッドストーカー</t>
+  </si>
+  <si>
     <t>gargoyle_walk</t>
   </si>
   <si>
+    <t>ガーゴイル</t>
+  </si>
+  <si>
     <t>gargoyle_fly</t>
   </si>
   <si>
-    <t>vultunre_demon</t>
+    <t>スターガーゴイル</t>
+  </si>
+  <si>
+    <t>vulture_demon</t>
+  </si>
+  <si>
+    <t>ハゲタカの悪魔</t>
   </si>
   <si>
     <t>succubus</t>
   </si>
   <si>
+    <t>サキュバス</t>
+  </si>
+  <si>
     <t>nightmare</t>
   </si>
   <si>
+    <t>ナイトメア</t>
+  </si>
+  <si>
     <t>insect_demon</t>
   </si>
   <si>
+    <t>昆虫デーモン</t>
+  </si>
+  <si>
     <t>empusa</t>
   </si>
   <si>
+    <t>エンプーサ</t>
+  </si>
+  <si>
     <t>hairy_demon</t>
   </si>
   <si>
+    <t>毛むくじゃらの悪魔</t>
+  </si>
+  <si>
     <t>fire_demon</t>
   </si>
   <si>
+    <t>炎の悪魔</t>
+  </si>
+  <si>
     <t>water_demon</t>
   </si>
   <si>
+    <t>水の悪魔</t>
+  </si>
+  <si>
     <t>earth_demon</t>
   </si>
   <si>
+    <t>土の悪魔</t>
+  </si>
+  <si>
     <t>wind_demon</t>
   </si>
   <si>
+    <t>風の悪魔</t>
+  </si>
+  <si>
     <t>poison_demon</t>
   </si>
   <si>
+    <t>毒の悪魔</t>
+  </si>
+  <si>
     <t>shadow_demon</t>
   </si>
   <si>
+    <t>影の悪魔</t>
+  </si>
+  <si>
     <t>ice_demon</t>
+  </si>
+  <si>
+    <t>氷の悪魔</t>
   </si>
 </sst>
 </file>
@@ -3220,7 +3481,7 @@
         <v>126</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D63" s="5">
         <v>100</v>
@@ -3236,10 +3497,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D64" s="5">
         <v>100</v>
@@ -3255,10 +3516,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D65" s="5">
         <v>100</v>
@@ -3274,10 +3535,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D66" s="5">
         <v>100</v>
@@ -3293,10 +3554,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D67" s="5">
         <v>100</v>
@@ -3312,10 +3573,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D68" s="5">
         <v>100</v>
@@ -3331,10 +3592,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D69" s="5">
         <v>100</v>
@@ -3350,10 +3611,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D70" s="5">
         <v>100</v>
@@ -3369,10 +3630,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D71" s="5">
         <v>100</v>
@@ -3388,10 +3649,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D72" s="5">
         <v>100</v>
@@ -3407,10 +3668,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D73" s="5">
         <v>100</v>
@@ -3426,10 +3687,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D74" s="5">
         <v>100</v>
@@ -3445,10 +3706,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D75" s="5">
         <v>100</v>
@@ -3464,10 +3725,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D76" s="5">
         <v>100</v>
@@ -3483,10 +3744,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D77" s="5">
         <v>100</v>
@@ -3502,10 +3763,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D78" s="5">
         <v>100</v>
@@ -3521,10 +3782,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D79" s="5">
         <v>100</v>
@@ -3540,10 +3801,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="D80" s="5">
         <v>100</v>
@@ -3559,10 +3820,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D81" s="5">
         <v>100</v>
@@ -3578,10 +3839,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D82" s="5">
         <v>100</v>
@@ -3597,10 +3858,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D83" s="5">
         <v>100</v>
@@ -3616,10 +3877,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D84" s="5">
         <v>100</v>
@@ -3635,10 +3896,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D85" s="5">
         <v>100</v>
@@ -3654,10 +3915,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D86" s="5">
         <v>100</v>
@@ -3673,10 +3934,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D87" s="5">
         <v>100</v>
@@ -3692,10 +3953,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="D88" s="5">
         <v>100</v>
@@ -3711,10 +3972,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="D89" s="5">
         <v>100</v>
@@ -3730,10 +3991,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="D90" s="5">
         <v>100</v>
@@ -3749,10 +4010,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="D91" s="5">
         <v>100</v>
@@ -3768,10 +4029,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D92" s="5">
         <v>100</v>
@@ -3787,10 +4048,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D93" s="5">
         <v>100</v>
@@ -3806,10 +4067,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D94" s="5">
         <v>100</v>
@@ -3825,10 +4086,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D95" s="5">
         <v>100</v>
@@ -3844,10 +4105,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D96" s="5">
         <v>100</v>
@@ -3863,10 +4124,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="D97" s="5">
         <v>100</v>
@@ -3882,10 +4143,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="D98" s="5">
         <v>100</v>
@@ -3901,10 +4162,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="D99" s="5">
         <v>100</v>
@@ -3920,10 +4181,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D100" s="5">
         <v>100</v>
@@ -3939,10 +4200,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="D101" s="5">
         <v>100</v>
@@ -3958,10 +4219,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="D102" s="5">
         <v>100</v>
@@ -3977,10 +4238,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="D103" s="5">
         <v>100</v>
@@ -3996,10 +4257,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="D104" s="5">
         <v>100</v>
@@ -4015,10 +4276,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="D105" s="5">
         <v>100</v>
@@ -4034,10 +4295,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="D106" s="5">
         <v>100</v>
@@ -4053,10 +4314,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="D107" s="5">
         <v>100</v>
@@ -4072,10 +4333,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D108" s="5">
         <v>100</v>
@@ -4091,10 +4352,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="D109" s="5">
         <v>100</v>
@@ -4110,10 +4371,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="D110" s="5">
         <v>100</v>
@@ -4129,10 +4390,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="D111" s="5">
         <v>100</v>
@@ -4148,10 +4409,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="D112" s="5">
         <v>100</v>
@@ -4167,10 +4428,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="D113" s="5">
         <v>100</v>
@@ -4186,10 +4447,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="D114" s="5">
         <v>100</v>
@@ -4205,10 +4466,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="D115" s="5">
         <v>100</v>
@@ -4224,10 +4485,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D116" s="5">
         <v>100</v>
@@ -4243,10 +4504,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="D117" s="5">
         <v>100</v>
@@ -4262,10 +4523,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="D118" s="5">
         <v>100</v>
@@ -4281,10 +4542,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="D119" s="5">
         <v>100</v>
@@ -4300,10 +4561,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="D120" s="5">
         <v>100</v>
@@ -4319,10 +4580,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="D121" s="5">
         <v>100</v>
@@ -4338,10 +4599,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="D122" s="5">
         <v>100</v>
@@ -4357,10 +4618,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="D123" s="5">
         <v>100</v>
@@ -4376,10 +4637,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="D124" s="5">
         <v>100</v>
@@ -4395,10 +4656,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="D125" s="5">
         <v>100</v>
@@ -4414,10 +4675,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="D126" s="5">
         <v>100</v>
@@ -4433,10 +4694,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="D127" s="5">
         <v>100</v>
@@ -4452,10 +4713,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="D128" s="5">
         <v>100</v>
@@ -4471,10 +4732,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="D129" s="5">
         <v>100</v>
@@ -4490,10 +4751,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="D130" s="5">
         <v>100</v>
@@ -4509,10 +4770,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="D131" s="5">
         <v>100</v>
@@ -4528,10 +4789,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="D132" s="5">
         <v>100</v>
@@ -4547,10 +4808,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="D133" s="5">
         <v>100</v>
@@ -4566,10 +4827,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="D134" s="5">
         <v>100</v>
@@ -4585,10 +4846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="D135" s="5">
         <v>100</v>
@@ -4604,10 +4865,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="D136" s="5">
         <v>100</v>
@@ -4623,10 +4884,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="D137" s="5">
         <v>100</v>
@@ -4642,10 +4903,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="D138" s="5">
         <v>100</v>
@@ -4661,10 +4922,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="D139" s="5">
         <v>100</v>
@@ -4680,10 +4941,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="D140" s="5">
         <v>100</v>
@@ -4699,10 +4960,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="D141" s="5">
         <v>100</v>
@@ -4718,10 +4979,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="D142" s="5">
         <v>100</v>
@@ -4737,10 +4998,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="D143" s="5">
         <v>100</v>
@@ -4756,10 +5017,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="D144" s="5">
         <v>100</v>
@@ -4775,10 +5036,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="D145" s="5">
         <v>100</v>
@@ -4794,10 +5055,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="D146" s="5">
         <v>100</v>
@@ -4813,10 +5074,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="D147" s="5">
         <v>100</v>
@@ -4832,10 +5093,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="D148" s="5">
         <v>100</v>
@@ -4851,10 +5112,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="D149" s="5">
         <v>100</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>hp</t>
+  </si>
+  <si>
+    <t>xp</t>
   </si>
   <si>
     <t>int</t>
@@ -2283,11 +2286,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.64062" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
@@ -2295,7 +2298,7 @@
     <col min="10" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.55" customHeight="1">
+    <row r="1" ht="20" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -2308,2825 +2311,3123 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="23.55" customHeight="1">
+    <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" ht="23.35" customHeight="1">
+    <row r="3" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" ht="23.35" customHeight="1">
+    <row r="4" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>100</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6">
+        <v>20</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" ht="23.35" customHeight="1">
+    <row r="5" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6">
+        <v>30</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" ht="23.35" customHeight="1">
+    <row r="6" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5">
         <v>100</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6">
+        <v>40</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" ht="23.35" customHeight="1">
+    <row r="7" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5">
         <v>100</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" ht="23.35" customHeight="1">
+    <row r="8" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6">
+        <v>60</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" ht="23.35" customHeight="1">
+    <row r="9" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5">
         <v>100</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>70</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" ht="23.35" customHeight="1">
+    <row r="10" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5">
         <v>100</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>80</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" ht="23.35" customHeight="1">
+    <row r="11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5">
         <v>100</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6">
+        <v>90</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" ht="23.35" customHeight="1">
+    <row r="12" ht="20" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5">
         <v>100</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6">
+        <v>100</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" ht="23.35" customHeight="1">
+    <row r="13" ht="20" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5">
         <v>100</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6">
+        <v>110</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" ht="23.35" customHeight="1">
+    <row r="14" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5">
         <v>100</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6">
+        <v>120</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" ht="23.35" customHeight="1">
+    <row r="15" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5">
         <v>100</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6">
+        <v>130</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" ht="23.35" customHeight="1">
+    <row r="16" ht="20" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5">
         <v>100</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6">
+        <v>140</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" ht="23.35" customHeight="1">
+    <row r="17" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5">
         <v>100</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6">
+        <v>150</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" ht="23.35" customHeight="1">
+    <row r="18" ht="20" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5">
         <v>100</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6">
+        <v>160</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" ht="23.35" customHeight="1">
+    <row r="19" ht="20" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5">
         <v>100</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>170</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" ht="23.35" customHeight="1">
+    <row r="20" ht="20" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="5">
         <v>100</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>180</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" ht="23.35" customHeight="1">
+    <row r="21" ht="20" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5">
         <v>100</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6">
+        <v>190</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" ht="23.35" customHeight="1">
+    <row r="22" ht="20" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5">
         <v>100</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6">
+        <v>200</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" ht="23.35" customHeight="1">
+    <row r="23" ht="20" customHeight="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5">
         <v>100</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6">
+        <v>210</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" ht="23.35" customHeight="1">
+    <row r="24" ht="20" customHeight="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5">
         <v>100</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6">
+        <v>220</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" ht="23.35" customHeight="1">
+    <row r="25" ht="20" customHeight="1">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" s="5">
         <v>100</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6">
+        <v>230</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" ht="23.35" customHeight="1">
+    <row r="26" ht="20" customHeight="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="5">
         <v>100</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6">
+        <v>240</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" ht="23.35" customHeight="1">
+    <row r="27" ht="20" customHeight="1">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="5">
         <v>100</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6">
+        <v>250</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" ht="23.35" customHeight="1">
+    <row r="28" ht="20" customHeight="1">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="5">
         <v>100</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6">
+        <v>260</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" ht="23.35" customHeight="1">
+    <row r="29" ht="20" customHeight="1">
       <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="5">
         <v>100</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6">
+        <v>270</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" ht="23.35" customHeight="1">
+    <row r="30" ht="20" customHeight="1">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" s="5">
         <v>100</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6">
+        <v>280</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" ht="23.35" customHeight="1">
+    <row r="31" ht="20" customHeight="1">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="5">
         <v>100</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6">
+        <v>290</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" ht="23.35" customHeight="1">
+    <row r="32" ht="20" customHeight="1">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" s="5">
         <v>100</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="6">
+        <v>300</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" ht="23.35" customHeight="1">
+    <row r="33" ht="20" customHeight="1">
       <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33" s="5">
         <v>100</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6">
+        <v>310</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" ht="23.35" customHeight="1">
+    <row r="34" ht="20" customHeight="1">
       <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" s="5">
         <v>100</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="6">
+        <v>320</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" ht="23.35" customHeight="1">
+    <row r="35" ht="20" customHeight="1">
       <c r="A35" s="4">
         <v>33</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35" s="5">
         <v>100</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6">
+        <v>330</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" ht="23.35" customHeight="1">
+    <row r="36" ht="20" customHeight="1">
       <c r="A36" s="4">
         <v>34</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="5">
         <v>100</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6">
+        <v>340</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" ht="23.35" customHeight="1">
+    <row r="37" ht="20" customHeight="1">
       <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="5">
         <v>100</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="6">
+        <v>350</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" ht="23.35" customHeight="1">
+    <row r="38" ht="20" customHeight="1">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="5">
         <v>100</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="6">
+        <v>360</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" ht="23.35" customHeight="1">
+    <row r="39" ht="20" customHeight="1">
       <c r="A39" s="4">
         <v>37</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" s="5">
         <v>100</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6">
+        <v>370</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" ht="23.35" customHeight="1">
+    <row r="40" ht="20" customHeight="1">
       <c r="A40" s="4">
         <v>38</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="5">
         <v>100</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="6">
+        <v>380</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" ht="23.35" customHeight="1">
+    <row r="41" ht="20" customHeight="1">
       <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41" s="5">
         <v>100</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="6">
+        <v>390</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" ht="23.35" customHeight="1">
+    <row r="42" ht="20" customHeight="1">
       <c r="A42" s="4">
         <v>40</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" s="5">
         <v>100</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="6">
+        <v>400</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" ht="23.35" customHeight="1">
+    <row r="43" ht="20" customHeight="1">
       <c r="A43" s="4">
         <v>41</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" s="5">
         <v>100</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6">
+        <v>410</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" ht="23.35" customHeight="1">
+    <row r="44" ht="20" customHeight="1">
       <c r="A44" s="4">
         <v>42</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="5">
         <v>100</v>
       </c>
-      <c r="E44" s="6"/>
+      <c r="E44" s="6">
+        <v>420</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" ht="23.35" customHeight="1">
+    <row r="45" ht="20" customHeight="1">
       <c r="A45" s="4">
         <v>43</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D45" s="5">
         <v>100</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="6">
+        <v>430</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" ht="23.35" customHeight="1">
+    <row r="46" ht="20" customHeight="1">
       <c r="A46" s="4">
         <v>44</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="5">
         <v>100</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="6">
+        <v>440</v>
+      </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" ht="23.35" customHeight="1">
+    <row r="47" ht="20" customHeight="1">
       <c r="A47" s="4">
         <v>45</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47" s="5">
         <v>100</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="6">
+        <v>450</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" ht="23.35" customHeight="1">
+    <row r="48" ht="20" customHeight="1">
       <c r="A48" s="4">
         <v>46</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48" s="5">
         <v>100</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="6">
+        <v>460</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" ht="23.35" customHeight="1">
+    <row r="49" ht="20" customHeight="1">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D49" s="5">
         <v>100</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="6">
+        <v>470</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" ht="23.35" customHeight="1">
+    <row r="50" ht="20" customHeight="1">
       <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D50" s="5">
         <v>100</v>
       </c>
-      <c r="E50" s="6"/>
+      <c r="E50" s="6">
+        <v>480</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" ht="23.35" customHeight="1">
+    <row r="51" ht="20" customHeight="1">
       <c r="A51" s="4">
         <v>49</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D51" s="5">
         <v>100</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="E51" s="6">
+        <v>490</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" ht="23.35" customHeight="1">
+    <row r="52" ht="20" customHeight="1">
       <c r="A52" s="4">
         <v>50</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D52" s="5">
         <v>100</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="6">
+        <v>500</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" ht="23.35" customHeight="1">
+    <row r="53" ht="20" customHeight="1">
       <c r="A53" s="4">
         <v>51</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D53" s="5">
         <v>100</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="6">
+        <v>510</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" ht="23.35" customHeight="1">
+    <row r="54" ht="20" customHeight="1">
       <c r="A54" s="4">
         <v>52</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D54" s="5">
         <v>100</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="6">
+        <v>520</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" ht="23.35" customHeight="1">
+    <row r="55" ht="20" customHeight="1">
       <c r="A55" s="4">
         <v>53</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D55" s="5">
         <v>100</v>
       </c>
-      <c r="E55" s="6"/>
+      <c r="E55" s="6">
+        <v>530</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" ht="23.35" customHeight="1">
+    <row r="56" ht="20" customHeight="1">
       <c r="A56" s="4">
         <v>54</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D56" s="5">
         <v>100</v>
       </c>
-      <c r="E56" s="6"/>
+      <c r="E56" s="6">
+        <v>540</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" ht="23.35" customHeight="1">
+    <row r="57" ht="20" customHeight="1">
       <c r="A57" s="4">
         <v>55</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D57" s="5">
         <v>100</v>
       </c>
-      <c r="E57" s="6"/>
+      <c r="E57" s="6">
+        <v>550</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" ht="23.35" customHeight="1">
+    <row r="58" ht="20" customHeight="1">
       <c r="A58" s="4">
         <v>56</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D58" s="5">
         <v>100</v>
       </c>
-      <c r="E58" s="6"/>
+      <c r="E58" s="6">
+        <v>560</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" ht="23.35" customHeight="1">
+    <row r="59" ht="20" customHeight="1">
       <c r="A59" s="4">
         <v>57</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D59" s="5">
         <v>100</v>
       </c>
-      <c r="E59" s="6"/>
+      <c r="E59" s="6">
+        <v>570</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" ht="23.35" customHeight="1">
+    <row r="60" ht="20" customHeight="1">
       <c r="A60" s="4">
         <v>58</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D60" s="5">
         <v>100</v>
       </c>
-      <c r="E60" s="6"/>
+      <c r="E60" s="6">
+        <v>580</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" ht="23.35" customHeight="1">
+    <row r="61" ht="20" customHeight="1">
       <c r="A61" s="4">
         <v>59</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D61" s="5">
         <v>100</v>
       </c>
-      <c r="E61" s="6"/>
+      <c r="E61" s="6">
+        <v>590</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" ht="23.35" customHeight="1">
+    <row r="62" ht="20" customHeight="1">
       <c r="A62" s="4">
         <v>60</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D62" s="5">
         <v>100</v>
       </c>
-      <c r="E62" s="6"/>
+      <c r="E62" s="6">
+        <v>600</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" ht="23.35" customHeight="1">
+    <row r="63" ht="20" customHeight="1">
       <c r="A63" s="4">
         <v>61</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D63" s="5">
         <v>100</v>
       </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="6">
+        <v>610</v>
+      </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" ht="23.35" customHeight="1">
+    <row r="64" ht="20" customHeight="1">
       <c r="A64" s="4">
         <v>62</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D64" s="5">
         <v>100</v>
       </c>
-      <c r="E64" s="6"/>
+      <c r="E64" s="6">
+        <v>620</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" ht="23.35" customHeight="1">
+    <row r="65" ht="20" customHeight="1">
       <c r="A65" s="4">
         <v>63</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D65" s="5">
         <v>100</v>
       </c>
-      <c r="E65" s="6"/>
+      <c r="E65" s="6">
+        <v>630</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" ht="23.35" customHeight="1">
+    <row r="66" ht="20" customHeight="1">
       <c r="A66" s="4">
         <v>64</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D66" s="5">
         <v>100</v>
       </c>
-      <c r="E66" s="6"/>
+      <c r="E66" s="6">
+        <v>640</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" ht="23.35" customHeight="1">
+    <row r="67" ht="20" customHeight="1">
       <c r="A67" s="4">
         <v>65</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D67" s="5">
         <v>100</v>
       </c>
-      <c r="E67" s="6"/>
+      <c r="E67" s="6">
+        <v>650</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" ht="23.35" customHeight="1">
+    <row r="68" ht="20" customHeight="1">
       <c r="A68" s="4">
         <v>66</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" s="5">
         <v>100</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="6">
+        <v>660</v>
+      </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" ht="23.35" customHeight="1">
+    <row r="69" ht="20" customHeight="1">
       <c r="A69" s="4">
         <v>67</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D69" s="5">
         <v>100</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="6">
+        <v>670</v>
+      </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" ht="23.35" customHeight="1">
+    <row r="70" ht="20" customHeight="1">
       <c r="A70" s="4">
         <v>68</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D70" s="5">
         <v>100</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="6">
+        <v>680</v>
+      </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" ht="23.35" customHeight="1">
+    <row r="71" ht="20" customHeight="1">
       <c r="A71" s="4">
         <v>69</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D71" s="5">
         <v>100</v>
       </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="6">
+        <v>690</v>
+      </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" ht="23.35" customHeight="1">
+    <row r="72" ht="20" customHeight="1">
       <c r="A72" s="4">
         <v>70</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D72" s="5">
         <v>100</v>
       </c>
-      <c r="E72" s="6"/>
+      <c r="E72" s="6">
+        <v>700</v>
+      </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" ht="23.35" customHeight="1">
+    <row r="73" ht="20" customHeight="1">
       <c r="A73" s="4">
         <v>71</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D73" s="5">
         <v>100</v>
       </c>
-      <c r="E73" s="6"/>
+      <c r="E73" s="6">
+        <v>710</v>
+      </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" ht="23.35" customHeight="1">
+    <row r="74" ht="20" customHeight="1">
       <c r="A74" s="4">
         <v>72</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D74" s="5">
         <v>100</v>
       </c>
-      <c r="E74" s="6"/>
+      <c r="E74" s="6">
+        <v>720</v>
+      </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" ht="23.35" customHeight="1">
+    <row r="75" ht="20" customHeight="1">
       <c r="A75" s="4">
         <v>73</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D75" s="5">
         <v>100</v>
       </c>
-      <c r="E75" s="6"/>
+      <c r="E75" s="6">
+        <v>730</v>
+      </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" ht="23.35" customHeight="1">
+    <row r="76" ht="20" customHeight="1">
       <c r="A76" s="4">
         <v>74</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D76" s="5">
         <v>100</v>
       </c>
-      <c r="E76" s="6"/>
+      <c r="E76" s="6">
+        <v>740</v>
+      </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" ht="23.35" customHeight="1">
+    <row r="77" ht="20" customHeight="1">
       <c r="A77" s="4">
         <v>75</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D77" s="5">
         <v>100</v>
       </c>
-      <c r="E77" s="6"/>
+      <c r="E77" s="6">
+        <v>750</v>
+      </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" ht="23.35" customHeight="1">
+    <row r="78" ht="20" customHeight="1">
       <c r="A78" s="4">
         <v>76</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D78" s="5">
         <v>100</v>
       </c>
-      <c r="E78" s="6"/>
+      <c r="E78" s="6">
+        <v>760</v>
+      </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" ht="23.35" customHeight="1">
+    <row r="79" ht="20" customHeight="1">
       <c r="A79" s="4">
         <v>77</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D79" s="5">
         <v>100</v>
       </c>
-      <c r="E79" s="6"/>
+      <c r="E79" s="6">
+        <v>770</v>
+      </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" ht="23.35" customHeight="1">
+    <row r="80" ht="20" customHeight="1">
       <c r="A80" s="4">
         <v>78</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D80" s="5">
         <v>100</v>
       </c>
-      <c r="E80" s="6"/>
+      <c r="E80" s="6">
+        <v>780</v>
+      </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" ht="23.35" customHeight="1">
+    <row r="81" ht="20" customHeight="1">
       <c r="A81" s="4">
         <v>79</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D81" s="5">
         <v>100</v>
       </c>
-      <c r="E81" s="6"/>
+      <c r="E81" s="6">
+        <v>790</v>
+      </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" ht="23.35" customHeight="1">
+    <row r="82" ht="20" customHeight="1">
       <c r="A82" s="4">
         <v>80</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D82" s="5">
         <v>100</v>
       </c>
-      <c r="E82" s="6"/>
+      <c r="E82" s="6">
+        <v>800</v>
+      </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" ht="23.35" customHeight="1">
+    <row r="83" ht="20" customHeight="1">
       <c r="A83" s="4">
         <v>81</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D83" s="5">
         <v>100</v>
       </c>
-      <c r="E83" s="6"/>
+      <c r="E83" s="6">
+        <v>810</v>
+      </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" ht="23.35" customHeight="1">
+    <row r="84" ht="20" customHeight="1">
       <c r="A84" s="4">
         <v>82</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D84" s="5">
         <v>100</v>
       </c>
-      <c r="E84" s="6"/>
+      <c r="E84" s="6">
+        <v>820</v>
+      </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" ht="23.35" customHeight="1">
+    <row r="85" ht="20" customHeight="1">
       <c r="A85" s="4">
         <v>83</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D85" s="5">
         <v>100</v>
       </c>
-      <c r="E85" s="6"/>
+      <c r="E85" s="6">
+        <v>830</v>
+      </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" ht="23.35" customHeight="1">
+    <row r="86" ht="20" customHeight="1">
       <c r="A86" s="4">
         <v>84</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D86" s="5">
         <v>100</v>
       </c>
-      <c r="E86" s="6"/>
+      <c r="E86" s="6">
+        <v>840</v>
+      </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" ht="23.35" customHeight="1">
+    <row r="87" ht="20" customHeight="1">
       <c r="A87" s="4">
         <v>85</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D87" s="5">
         <v>100</v>
       </c>
-      <c r="E87" s="6"/>
+      <c r="E87" s="6">
+        <v>850</v>
+      </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" ht="23.35" customHeight="1">
+    <row r="88" ht="20" customHeight="1">
       <c r="A88" s="4">
         <v>86</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D88" s="5">
         <v>100</v>
       </c>
-      <c r="E88" s="6"/>
+      <c r="E88" s="6">
+        <v>860</v>
+      </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" ht="23.35" customHeight="1">
+    <row r="89" ht="20" customHeight="1">
       <c r="A89" s="4">
         <v>87</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D89" s="5">
         <v>100</v>
       </c>
-      <c r="E89" s="6"/>
+      <c r="E89" s="6">
+        <v>870</v>
+      </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" ht="23.35" customHeight="1">
+    <row r="90" ht="20" customHeight="1">
       <c r="A90" s="4">
         <v>88</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90" s="5">
         <v>100</v>
       </c>
-      <c r="E90" s="6"/>
+      <c r="E90" s="6">
+        <v>880</v>
+      </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" ht="23.35" customHeight="1">
+    <row r="91" ht="20" customHeight="1">
       <c r="A91" s="4">
         <v>89</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D91" s="5">
         <v>100</v>
       </c>
-      <c r="E91" s="6"/>
+      <c r="E91" s="6">
+        <v>890</v>
+      </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" ht="23.35" customHeight="1">
+    <row r="92" ht="20" customHeight="1">
       <c r="A92" s="4">
         <v>90</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D92" s="5">
         <v>100</v>
       </c>
-      <c r="E92" s="6"/>
+      <c r="E92" s="6">
+        <v>900</v>
+      </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" ht="23.35" customHeight="1">
+    <row r="93" ht="20" customHeight="1">
       <c r="A93" s="4">
         <v>91</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D93" s="5">
         <v>100</v>
       </c>
-      <c r="E93" s="6"/>
+      <c r="E93" s="6">
+        <v>910</v>
+      </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" ht="23.35" customHeight="1">
+    <row r="94" ht="20" customHeight="1">
       <c r="A94" s="4">
         <v>92</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D94" s="5">
         <v>100</v>
       </c>
-      <c r="E94" s="6"/>
+      <c r="E94" s="6">
+        <v>920</v>
+      </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" ht="23.35" customHeight="1">
+    <row r="95" ht="20" customHeight="1">
       <c r="A95" s="4">
         <v>93</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D95" s="5">
         <v>100</v>
       </c>
-      <c r="E95" s="6"/>
+      <c r="E95" s="6">
+        <v>930</v>
+      </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" ht="23.35" customHeight="1">
+    <row r="96" ht="20" customHeight="1">
       <c r="A96" s="4">
         <v>94</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D96" s="5">
         <v>100</v>
       </c>
-      <c r="E96" s="6"/>
+      <c r="E96" s="6">
+        <v>940</v>
+      </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" ht="23.35" customHeight="1">
+    <row r="97" ht="20" customHeight="1">
       <c r="A97" s="4">
         <v>95</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D97" s="5">
         <v>100</v>
       </c>
-      <c r="E97" s="6"/>
+      <c r="E97" s="6">
+        <v>950</v>
+      </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" ht="23.35" customHeight="1">
+    <row r="98" ht="20" customHeight="1">
       <c r="A98" s="4">
         <v>96</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D98" s="5">
         <v>100</v>
       </c>
-      <c r="E98" s="6"/>
+      <c r="E98" s="6">
+        <v>960</v>
+      </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" ht="23.35" customHeight="1">
+    <row r="99" ht="20" customHeight="1">
       <c r="A99" s="4">
         <v>97</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D99" s="5">
         <v>100</v>
       </c>
-      <c r="E99" s="6"/>
+      <c r="E99" s="6">
+        <v>970</v>
+      </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" ht="23.35" customHeight="1">
+    <row r="100" ht="20" customHeight="1">
       <c r="A100" s="4">
         <v>98</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D100" s="5">
         <v>100</v>
       </c>
-      <c r="E100" s="6"/>
+      <c r="E100" s="6">
+        <v>980</v>
+      </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" ht="23.35" customHeight="1">
+    <row r="101" ht="20" customHeight="1">
       <c r="A101" s="4">
         <v>99</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D101" s="5">
         <v>100</v>
       </c>
-      <c r="E101" s="6"/>
+      <c r="E101" s="6">
+        <v>990</v>
+      </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" ht="23.35" customHeight="1">
+    <row r="102" ht="20" customHeight="1">
       <c r="A102" s="4">
         <v>100</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D102" s="5">
         <v>100</v>
       </c>
-      <c r="E102" s="6"/>
+      <c r="E102" s="6">
+        <v>1000</v>
+      </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" ht="23.35" customHeight="1">
+    <row r="103" ht="20" customHeight="1">
       <c r="A103" s="4">
         <v>101</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D103" s="5">
         <v>100</v>
       </c>
-      <c r="E103" s="6"/>
+      <c r="E103" s="6">
+        <v>1010</v>
+      </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" ht="23.35" customHeight="1">
+    <row r="104" ht="20" customHeight="1">
       <c r="A104" s="4">
         <v>102</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D104" s="5">
         <v>100</v>
       </c>
-      <c r="E104" s="6"/>
+      <c r="E104" s="6">
+        <v>1020</v>
+      </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" ht="23.35" customHeight="1">
+    <row r="105" ht="20" customHeight="1">
       <c r="A105" s="4">
         <v>103</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D105" s="5">
         <v>100</v>
       </c>
-      <c r="E105" s="6"/>
+      <c r="E105" s="6">
+        <v>1030</v>
+      </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" ht="23.35" customHeight="1">
+    <row r="106" ht="20" customHeight="1">
       <c r="A106" s="4">
         <v>104</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D106" s="5">
         <v>100</v>
       </c>
-      <c r="E106" s="6"/>
+      <c r="E106" s="6">
+        <v>1040</v>
+      </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" ht="23.35" customHeight="1">
+    <row r="107" ht="20" customHeight="1">
       <c r="A107" s="4">
         <v>105</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D107" s="5">
         <v>100</v>
       </c>
-      <c r="E107" s="6"/>
+      <c r="E107" s="6">
+        <v>1050</v>
+      </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" ht="23.35" customHeight="1">
+    <row r="108" ht="20" customHeight="1">
       <c r="A108" s="4">
         <v>106</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D108" s="5">
         <v>100</v>
       </c>
-      <c r="E108" s="6"/>
+      <c r="E108" s="6">
+        <v>1060</v>
+      </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" ht="23.35" customHeight="1">
+    <row r="109" ht="20" customHeight="1">
       <c r="A109" s="4">
         <v>107</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D109" s="5">
         <v>100</v>
       </c>
-      <c r="E109" s="6"/>
+      <c r="E109" s="6">
+        <v>1070</v>
+      </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" ht="23.35" customHeight="1">
+    <row r="110" ht="20" customHeight="1">
       <c r="A110" s="4">
         <v>108</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D110" s="5">
         <v>100</v>
       </c>
-      <c r="E110" s="6"/>
+      <c r="E110" s="6">
+        <v>1080</v>
+      </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" ht="23.35" customHeight="1">
+    <row r="111" ht="20" customHeight="1">
       <c r="A111" s="4">
         <v>109</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D111" s="5">
         <v>100</v>
       </c>
-      <c r="E111" s="6"/>
+      <c r="E111" s="6">
+        <v>1090</v>
+      </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" ht="23.35" customHeight="1">
+    <row r="112" ht="20" customHeight="1">
       <c r="A112" s="4">
         <v>110</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D112" s="5">
         <v>100</v>
       </c>
-      <c r="E112" s="6"/>
+      <c r="E112" s="6">
+        <v>1100</v>
+      </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" ht="23.35" customHeight="1">
+    <row r="113" ht="20" customHeight="1">
       <c r="A113" s="4">
         <v>111</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D113" s="5">
         <v>100</v>
       </c>
-      <c r="E113" s="6"/>
+      <c r="E113" s="6">
+        <v>1110</v>
+      </c>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" ht="23.35" customHeight="1">
+    <row r="114" ht="20" customHeight="1">
       <c r="A114" s="4">
         <v>112</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D114" s="5">
         <v>100</v>
       </c>
-      <c r="E114" s="6"/>
+      <c r="E114" s="6">
+        <v>1120</v>
+      </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" ht="23.35" customHeight="1">
+    <row r="115" ht="20" customHeight="1">
       <c r="A115" s="4">
         <v>113</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D115" s="5">
         <v>100</v>
       </c>
-      <c r="E115" s="6"/>
+      <c r="E115" s="6">
+        <v>1130</v>
+      </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" ht="23.35" customHeight="1">
+    <row r="116" ht="20" customHeight="1">
       <c r="A116" s="4">
         <v>114</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D116" s="5">
         <v>100</v>
       </c>
-      <c r="E116" s="6"/>
+      <c r="E116" s="6">
+        <v>1140</v>
+      </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" ht="23.35" customHeight="1">
+    <row r="117" ht="20" customHeight="1">
       <c r="A117" s="4">
         <v>115</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D117" s="5">
         <v>100</v>
       </c>
-      <c r="E117" s="6"/>
+      <c r="E117" s="6">
+        <v>1150</v>
+      </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" ht="23.35" customHeight="1">
+    <row r="118" ht="20" customHeight="1">
       <c r="A118" s="4">
         <v>116</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D118" s="5">
         <v>100</v>
       </c>
-      <c r="E118" s="6"/>
+      <c r="E118" s="6">
+        <v>1160</v>
+      </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" ht="23.35" customHeight="1">
+    <row r="119" ht="20" customHeight="1">
       <c r="A119" s="4">
         <v>117</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D119" s="5">
         <v>100</v>
       </c>
-      <c r="E119" s="6"/>
+      <c r="E119" s="6">
+        <v>1170</v>
+      </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" ht="23.35" customHeight="1">
+    <row r="120" ht="20" customHeight="1">
       <c r="A120" s="4">
         <v>118</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D120" s="5">
         <v>100</v>
       </c>
-      <c r="E120" s="6"/>
+      <c r="E120" s="6">
+        <v>1180</v>
+      </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" ht="23.35" customHeight="1">
+    <row r="121" ht="20" customHeight="1">
       <c r="A121" s="4">
         <v>119</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D121" s="5">
         <v>100</v>
       </c>
-      <c r="E121" s="6"/>
+      <c r="E121" s="6">
+        <v>1190</v>
+      </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" ht="23.35" customHeight="1">
+    <row r="122" ht="20" customHeight="1">
       <c r="A122" s="4">
         <v>120</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D122" s="5">
         <v>100</v>
       </c>
-      <c r="E122" s="6"/>
+      <c r="E122" s="6">
+        <v>1200</v>
+      </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" ht="23.35" customHeight="1">
+    <row r="123" ht="20" customHeight="1">
       <c r="A123" s="4">
         <v>121</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D123" s="5">
         <v>100</v>
       </c>
-      <c r="E123" s="6"/>
+      <c r="E123" s="6">
+        <v>1210</v>
+      </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" ht="23.35" customHeight="1">
+    <row r="124" ht="20" customHeight="1">
       <c r="A124" s="4">
         <v>122</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D124" s="5">
         <v>100</v>
       </c>
-      <c r="E124" s="6"/>
+      <c r="E124" s="6">
+        <v>1220</v>
+      </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" ht="23.35" customHeight="1">
+    <row r="125" ht="20" customHeight="1">
       <c r="A125" s="4">
         <v>123</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D125" s="5">
         <v>100</v>
       </c>
-      <c r="E125" s="6"/>
+      <c r="E125" s="6">
+        <v>1230</v>
+      </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" ht="23.35" customHeight="1">
+    <row r="126" ht="20" customHeight="1">
       <c r="A126" s="4">
         <v>124</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D126" s="5">
         <v>100</v>
       </c>
-      <c r="E126" s="6"/>
+      <c r="E126" s="6">
+        <v>1240</v>
+      </c>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" ht="23.35" customHeight="1">
+    <row r="127" ht="20" customHeight="1">
       <c r="A127" s="4">
         <v>125</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D127" s="5">
         <v>100</v>
       </c>
-      <c r="E127" s="6"/>
+      <c r="E127" s="6">
+        <v>1250</v>
+      </c>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" ht="23.35" customHeight="1">
+    <row r="128" ht="20" customHeight="1">
       <c r="A128" s="4">
         <v>126</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D128" s="5">
         <v>100</v>
       </c>
-      <c r="E128" s="6"/>
+      <c r="E128" s="6">
+        <v>1260</v>
+      </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" ht="23.35" customHeight="1">
+    <row r="129" ht="20" customHeight="1">
       <c r="A129" s="4">
         <v>127</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D129" s="5">
         <v>100</v>
       </c>
-      <c r="E129" s="6"/>
+      <c r="E129" s="6">
+        <v>1270</v>
+      </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" ht="23.35" customHeight="1">
+    <row r="130" ht="20" customHeight="1">
       <c r="A130" s="4">
         <v>128</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D130" s="5">
         <v>100</v>
       </c>
-      <c r="E130" s="6"/>
+      <c r="E130" s="6">
+        <v>1280</v>
+      </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" ht="23.35" customHeight="1">
+    <row r="131" ht="20" customHeight="1">
       <c r="A131" s="4">
         <v>129</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D131" s="5">
         <v>100</v>
       </c>
-      <c r="E131" s="6"/>
+      <c r="E131" s="6">
+        <v>1290</v>
+      </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" ht="23.35" customHeight="1">
+    <row r="132" ht="20" customHeight="1">
       <c r="A132" s="4">
         <v>130</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D132" s="5">
         <v>100</v>
       </c>
-      <c r="E132" s="6"/>
+      <c r="E132" s="6">
+        <v>1300</v>
+      </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" ht="23.35" customHeight="1">
+    <row r="133" ht="20" customHeight="1">
       <c r="A133" s="4">
         <v>131</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D133" s="5">
         <v>100</v>
       </c>
-      <c r="E133" s="6"/>
+      <c r="E133" s="6">
+        <v>1310</v>
+      </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" ht="23.35" customHeight="1">
+    <row r="134" ht="20" customHeight="1">
       <c r="A134" s="4">
         <v>132</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D134" s="5">
         <v>100</v>
       </c>
-      <c r="E134" s="6"/>
+      <c r="E134" s="6">
+        <v>1320</v>
+      </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" ht="23.35" customHeight="1">
+    <row r="135" ht="20" customHeight="1">
       <c r="A135" s="4">
         <v>133</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D135" s="5">
         <v>100</v>
       </c>
-      <c r="E135" s="6"/>
+      <c r="E135" s="6">
+        <v>1330</v>
+      </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" ht="23.35" customHeight="1">
+    <row r="136" ht="20" customHeight="1">
       <c r="A136" s="4">
         <v>134</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D136" s="5">
         <v>100</v>
       </c>
-      <c r="E136" s="6"/>
+      <c r="E136" s="6">
+        <v>1340</v>
+      </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" ht="23.35" customHeight="1">
+    <row r="137" ht="20" customHeight="1">
       <c r="A137" s="4">
         <v>135</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D137" s="5">
         <v>100</v>
       </c>
-      <c r="E137" s="6"/>
+      <c r="E137" s="6">
+        <v>1350</v>
+      </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" ht="23.35" customHeight="1">
+    <row r="138" ht="20" customHeight="1">
       <c r="A138" s="4">
         <v>136</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D138" s="5">
         <v>100</v>
       </c>
-      <c r="E138" s="6"/>
+      <c r="E138" s="6">
+        <v>1360</v>
+      </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" ht="23.35" customHeight="1">
+    <row r="139" ht="20" customHeight="1">
       <c r="A139" s="4">
         <v>137</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D139" s="5">
         <v>100</v>
       </c>
-      <c r="E139" s="6"/>
+      <c r="E139" s="6">
+        <v>1370</v>
+      </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" ht="23.35" customHeight="1">
+    <row r="140" ht="20" customHeight="1">
       <c r="A140" s="4">
         <v>138</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D140" s="5">
         <v>100</v>
       </c>
-      <c r="E140" s="6"/>
+      <c r="E140" s="6">
+        <v>1380</v>
+      </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" ht="23.35" customHeight="1">
+    <row r="141" ht="20" customHeight="1">
       <c r="A141" s="4">
         <v>139</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D141" s="5">
         <v>100</v>
       </c>
-      <c r="E141" s="6"/>
+      <c r="E141" s="6">
+        <v>1390</v>
+      </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" ht="23.35" customHeight="1">
+    <row r="142" ht="20" customHeight="1">
       <c r="A142" s="4">
         <v>140</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D142" s="5">
         <v>100</v>
       </c>
-      <c r="E142" s="6"/>
+      <c r="E142" s="6">
+        <v>1400</v>
+      </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" ht="23.35" customHeight="1">
+    <row r="143" ht="20" customHeight="1">
       <c r="A143" s="4">
         <v>141</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D143" s="5">
         <v>100</v>
       </c>
-      <c r="E143" s="6"/>
+      <c r="E143" s="6">
+        <v>1410</v>
+      </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" ht="23.35" customHeight="1">
+    <row r="144" ht="20" customHeight="1">
       <c r="A144" s="4">
         <v>142</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D144" s="5">
         <v>100</v>
       </c>
-      <c r="E144" s="6"/>
+      <c r="E144" s="6">
+        <v>1420</v>
+      </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" ht="23.35" customHeight="1">
+    <row r="145" ht="20" customHeight="1">
       <c r="A145" s="4">
         <v>143</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D145" s="5">
         <v>100</v>
       </c>
-      <c r="E145" s="6"/>
+      <c r="E145" s="6">
+        <v>1430</v>
+      </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" ht="23.35" customHeight="1">
+    <row r="146" ht="20" customHeight="1">
       <c r="A146" s="4">
         <v>144</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D146" s="5">
         <v>100</v>
       </c>
-      <c r="E146" s="6"/>
+      <c r="E146" s="6">
+        <v>1440</v>
+      </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" ht="23.35" customHeight="1">
+    <row r="147" ht="20" customHeight="1">
       <c r="A147" s="4">
         <v>145</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D147" s="5">
         <v>100</v>
       </c>
-      <c r="E147" s="6"/>
+      <c r="E147" s="6">
+        <v>1450</v>
+      </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" ht="23.35" customHeight="1">
+    <row r="148" ht="20" customHeight="1">
       <c r="A148" s="4">
         <v>146</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D148" s="5">
         <v>100</v>
       </c>
-      <c r="E148" s="6"/>
+      <c r="E148" s="6">
+        <v>1460</v>
+      </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" ht="23.35" customHeight="1">
+    <row r="149" ht="20" customHeight="1">
       <c r="A149" s="4">
         <v>147</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D149" s="5">
         <v>100</v>
       </c>
-      <c r="E149" s="6"/>
+      <c r="E149" s="6">
+        <v>1470</v>
+      </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" ht="23.35" customHeight="1">
+    <row r="150" ht="20" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>id</t>
   </si>
@@ -29,10 +29,13 @@
     <t>xp</t>
   </si>
   <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>str</t>
   </si>
   <si>
     <t>legion</t>
@@ -2314,29 +2317,37 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="5">
-        <v>6</v>
-      </c>
       <c r="C2" t="s" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>7</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
@@ -2345,10 +2356,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
@@ -2356,8 +2367,12 @@
       <c r="E3" s="6">
         <v>10</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
@@ -2366,10 +2381,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5">
         <v>100</v>
@@ -2377,8 +2392,12 @@
       <c r="E4" s="6">
         <v>20</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
@@ -2387,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
@@ -2398,8 +2417,12 @@
       <c r="E5" s="6">
         <v>30</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="6">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
@@ -2408,10 +2431,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5">
         <v>100</v>
@@ -2419,8 +2442,12 @@
       <c r="E6" s="6">
         <v>40</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
@@ -2429,10 +2456,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5">
         <v>100</v>
@@ -2440,8 +2467,12 @@
       <c r="E7" s="6">
         <v>50</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="6">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
@@ -2450,10 +2481,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5">
         <v>100</v>
@@ -2461,8 +2492,12 @@
       <c r="E8" s="6">
         <v>60</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
@@ -2471,10 +2506,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5">
         <v>100</v>
@@ -2482,8 +2517,12 @@
       <c r="E9" s="6">
         <v>70</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
@@ -2492,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5">
         <v>100</v>
@@ -2503,8 +2542,12 @@
       <c r="E10" s="6">
         <v>80</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
@@ -2513,10 +2556,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5">
         <v>100</v>
@@ -2524,8 +2567,12 @@
       <c r="E11" s="6">
         <v>90</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
@@ -2534,10 +2581,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5">
         <v>100</v>
@@ -2545,8 +2592,12 @@
       <c r="E12" s="6">
         <v>100</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
@@ -2555,10 +2606,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5">
         <v>100</v>
@@ -2566,8 +2617,12 @@
       <c r="E13" s="6">
         <v>110</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
@@ -2576,10 +2631,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5">
         <v>100</v>
@@ -2587,8 +2642,12 @@
       <c r="E14" s="6">
         <v>120</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
@@ -2597,10 +2656,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5">
         <v>100</v>
@@ -2608,8 +2667,12 @@
       <c r="E15" s="6">
         <v>130</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
@@ -2618,10 +2681,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5">
         <v>100</v>
@@ -2629,8 +2692,12 @@
       <c r="E16" s="6">
         <v>140</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
@@ -2639,10 +2706,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5">
         <v>100</v>
@@ -2650,8 +2717,12 @@
       <c r="E17" s="6">
         <v>150</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
@@ -2660,10 +2731,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5">
         <v>100</v>
@@ -2671,8 +2742,12 @@
       <c r="E18" s="6">
         <v>160</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
@@ -2681,10 +2756,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="5">
         <v>100</v>
@@ -2692,8 +2767,12 @@
       <c r="E19" s="6">
         <v>170</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
@@ -2702,10 +2781,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" s="5">
         <v>100</v>
@@ -2713,8 +2792,12 @@
       <c r="E20" s="6">
         <v>180</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
@@ -2723,10 +2806,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="5">
         <v>100</v>
@@ -2734,8 +2817,12 @@
       <c r="E21" s="6">
         <v>190</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
@@ -2744,10 +2831,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="5">
         <v>100</v>
@@ -2755,8 +2842,12 @@
       <c r="E22" s="6">
         <v>200</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
@@ -2765,10 +2856,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="5">
         <v>100</v>
@@ -2776,8 +2867,12 @@
       <c r="E23" s="6">
         <v>210</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
@@ -2786,10 +2881,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="5">
         <v>100</v>
@@ -2797,8 +2892,12 @@
       <c r="E24" s="6">
         <v>220</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
@@ -2807,10 +2906,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5">
         <v>100</v>
@@ -2818,8 +2917,12 @@
       <c r="E25" s="6">
         <v>230</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
@@ -2828,10 +2931,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="5">
         <v>100</v>
@@ -2839,8 +2942,12 @@
       <c r="E26" s="6">
         <v>240</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
@@ -2849,10 +2956,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" s="5">
         <v>100</v>
@@ -2860,8 +2967,12 @@
       <c r="E27" s="6">
         <v>250</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
@@ -2870,10 +2981,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="5">
         <v>100</v>
@@ -2881,8 +2992,12 @@
       <c r="E28" s="6">
         <v>260</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
@@ -2891,10 +3006,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="5">
         <v>100</v>
@@ -2902,8 +3017,12 @@
       <c r="E29" s="6">
         <v>270</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
@@ -2912,10 +3031,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" s="5">
         <v>100</v>
@@ -2923,8 +3042,12 @@
       <c r="E30" s="6">
         <v>280</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
@@ -2933,10 +3056,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="5">
         <v>100</v>
@@ -2944,8 +3067,12 @@
       <c r="E31" s="6">
         <v>290</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
@@ -2954,10 +3081,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" s="5">
         <v>100</v>
@@ -2965,8 +3092,12 @@
       <c r="E32" s="6">
         <v>300</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
@@ -2975,10 +3106,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" s="5">
         <v>100</v>
@@ -2986,8 +3117,12 @@
       <c r="E33" s="6">
         <v>310</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
@@ -2996,10 +3131,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" s="5">
         <v>100</v>
@@ -3007,8 +3142,12 @@
       <c r="E34" s="6">
         <v>320</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
@@ -3017,10 +3156,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" s="5">
         <v>100</v>
@@ -3028,8 +3167,12 @@
       <c r="E35" s="6">
         <v>330</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
@@ -3038,10 +3181,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="5">
         <v>100</v>
@@ -3049,8 +3192,12 @@
       <c r="E36" s="6">
         <v>340</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
@@ -3059,10 +3206,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="5">
         <v>100</v>
@@ -3070,8 +3217,12 @@
       <c r="E37" s="6">
         <v>350</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
@@ -3080,10 +3231,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="5">
         <v>100</v>
@@ -3091,8 +3242,12 @@
       <c r="E38" s="6">
         <v>360</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
@@ -3101,10 +3256,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" s="5">
         <v>100</v>
@@ -3112,8 +3267,12 @@
       <c r="E39" s="6">
         <v>370</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
@@ -3122,10 +3281,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="5">
         <v>100</v>
@@ -3133,8 +3292,12 @@
       <c r="E40" s="6">
         <v>380</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
@@ -3143,10 +3306,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41" s="5">
         <v>100</v>
@@ -3154,8 +3317,12 @@
       <c r="E41" s="6">
         <v>390</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
@@ -3164,10 +3331,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" s="5">
         <v>100</v>
@@ -3175,8 +3342,12 @@
       <c r="E42" s="6">
         <v>400</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
@@ -3185,10 +3356,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D43" s="5">
         <v>100</v>
@@ -3196,8 +3367,12 @@
       <c r="E43" s="6">
         <v>410</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
@@ -3206,10 +3381,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D44" s="5">
         <v>100</v>
@@ -3217,8 +3392,12 @@
       <c r="E44" s="6">
         <v>420</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
@@ -3227,10 +3406,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D45" s="5">
         <v>100</v>
@@ -3238,8 +3417,12 @@
       <c r="E45" s="6">
         <v>430</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
@@ -3248,10 +3431,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" s="5">
         <v>100</v>
@@ -3259,8 +3442,12 @@
       <c r="E46" s="6">
         <v>440</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
@@ -3269,10 +3456,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D47" s="5">
         <v>100</v>
@@ -3280,8 +3467,12 @@
       <c r="E47" s="6">
         <v>450</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
@@ -3290,10 +3481,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D48" s="5">
         <v>100</v>
@@ -3301,8 +3492,12 @@
       <c r="E48" s="6">
         <v>460</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
@@ -3311,10 +3506,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D49" s="5">
         <v>100</v>
@@ -3322,8 +3517,12 @@
       <c r="E49" s="6">
         <v>470</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
@@ -3332,10 +3531,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D50" s="5">
         <v>100</v>
@@ -3343,8 +3542,12 @@
       <c r="E50" s="6">
         <v>480</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
@@ -3353,10 +3556,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D51" s="5">
         <v>100</v>
@@ -3364,8 +3567,12 @@
       <c r="E51" s="6">
         <v>490</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
@@ -3374,10 +3581,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" s="5">
         <v>100</v>
@@ -3385,8 +3592,12 @@
       <c r="E52" s="6">
         <v>500</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
@@ -3395,10 +3606,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D53" s="5">
         <v>100</v>
@@ -3406,8 +3617,12 @@
       <c r="E53" s="6">
         <v>510</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
@@ -3416,10 +3631,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D54" s="5">
         <v>100</v>
@@ -3427,8 +3642,12 @@
       <c r="E54" s="6">
         <v>520</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
@@ -3437,10 +3656,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D55" s="5">
         <v>100</v>
@@ -3448,8 +3667,12 @@
       <c r="E55" s="6">
         <v>530</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
@@ -3458,10 +3681,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D56" s="5">
         <v>100</v>
@@ -3469,8 +3692,12 @@
       <c r="E56" s="6">
         <v>540</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
@@ -3479,10 +3706,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D57" s="5">
         <v>100</v>
@@ -3490,8 +3717,12 @@
       <c r="E57" s="6">
         <v>550</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
@@ -3500,10 +3731,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D58" s="5">
         <v>100</v>
@@ -3511,8 +3742,12 @@
       <c r="E58" s="6">
         <v>560</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
@@ -3521,10 +3756,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D59" s="5">
         <v>100</v>
@@ -3532,8 +3767,12 @@
       <c r="E59" s="6">
         <v>570</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
@@ -3542,10 +3781,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D60" s="5">
         <v>100</v>
@@ -3553,8 +3792,12 @@
       <c r="E60" s="6">
         <v>580</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="F60" s="6">
+        <v>1</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
@@ -3563,10 +3806,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D61" s="5">
         <v>100</v>
@@ -3574,8 +3817,12 @@
       <c r="E61" s="6">
         <v>590</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
@@ -3584,10 +3831,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D62" s="5">
         <v>100</v>
@@ -3595,8 +3842,12 @@
       <c r="E62" s="6">
         <v>600</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
@@ -3605,10 +3856,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D63" s="5">
         <v>100</v>
@@ -3616,8 +3867,12 @@
       <c r="E63" s="6">
         <v>610</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
@@ -3626,10 +3881,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D64" s="5">
         <v>100</v>
@@ -3637,8 +3892,12 @@
       <c r="E64" s="6">
         <v>620</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
@@ -3647,10 +3906,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D65" s="5">
         <v>100</v>
@@ -3658,8 +3917,12 @@
       <c r="E65" s="6">
         <v>630</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
@@ -3668,10 +3931,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D66" s="5">
         <v>100</v>
@@ -3679,8 +3942,12 @@
       <c r="E66" s="6">
         <v>640</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
@@ -3689,10 +3956,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D67" s="5">
         <v>100</v>
@@ -3700,8 +3967,12 @@
       <c r="E67" s="6">
         <v>650</v>
       </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
@@ -3710,10 +3981,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D68" s="5">
         <v>100</v>
@@ -3721,8 +3992,12 @@
       <c r="E68" s="6">
         <v>660</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
@@ -3731,10 +4006,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D69" s="5">
         <v>100</v>
@@ -3742,8 +4017,12 @@
       <c r="E69" s="6">
         <v>670</v>
       </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
@@ -3752,10 +4031,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D70" s="5">
         <v>100</v>
@@ -3763,8 +4042,12 @@
       <c r="E70" s="6">
         <v>680</v>
       </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="F70" s="6">
+        <v>1</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
@@ -3773,10 +4056,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D71" s="5">
         <v>100</v>
@@ -3784,8 +4067,12 @@
       <c r="E71" s="6">
         <v>690</v>
       </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
@@ -3794,10 +4081,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D72" s="5">
         <v>100</v>
@@ -3805,8 +4092,12 @@
       <c r="E72" s="6">
         <v>700</v>
       </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="F72" s="6">
+        <v>1</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
@@ -3815,10 +4106,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D73" s="5">
         <v>100</v>
@@ -3826,8 +4117,12 @@
       <c r="E73" s="6">
         <v>710</v>
       </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
@@ -3836,10 +4131,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D74" s="5">
         <v>100</v>
@@ -3847,8 +4142,12 @@
       <c r="E74" s="6">
         <v>720</v>
       </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
@@ -3857,10 +4156,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D75" s="5">
         <v>100</v>
@@ -3868,8 +4167,12 @@
       <c r="E75" s="6">
         <v>730</v>
       </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
@@ -3878,10 +4181,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D76" s="5">
         <v>100</v>
@@ -3889,8 +4192,12 @@
       <c r="E76" s="6">
         <v>740</v>
       </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="F76" s="6">
+        <v>1</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
@@ -3899,10 +4206,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D77" s="5">
         <v>100</v>
@@ -3910,8 +4217,12 @@
       <c r="E77" s="6">
         <v>750</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
@@ -3920,10 +4231,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D78" s="5">
         <v>100</v>
@@ -3931,8 +4242,12 @@
       <c r="E78" s="6">
         <v>760</v>
       </c>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="F78" s="6">
+        <v>1</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
@@ -3941,10 +4256,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D79" s="5">
         <v>100</v>
@@ -3952,8 +4267,12 @@
       <c r="E79" s="6">
         <v>770</v>
       </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="F79" s="6">
+        <v>1</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
@@ -3962,10 +4281,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D80" s="5">
         <v>100</v>
@@ -3973,8 +4292,12 @@
       <c r="E80" s="6">
         <v>780</v>
       </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="F80" s="6">
+        <v>1</v>
+      </c>
+      <c r="G80" s="6">
+        <v>1</v>
+      </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
@@ -3983,10 +4306,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D81" s="5">
         <v>100</v>
@@ -3994,8 +4317,12 @@
       <c r="E81" s="6">
         <v>790</v>
       </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="F81" s="6">
+        <v>1</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
@@ -4004,10 +4331,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D82" s="5">
         <v>100</v>
@@ -4015,8 +4342,12 @@
       <c r="E82" s="6">
         <v>800</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="F82" s="6">
+        <v>1</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
@@ -4025,10 +4356,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D83" s="5">
         <v>100</v>
@@ -4036,8 +4367,12 @@
       <c r="E83" s="6">
         <v>810</v>
       </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
@@ -4046,10 +4381,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D84" s="5">
         <v>100</v>
@@ -4057,8 +4392,12 @@
       <c r="E84" s="6">
         <v>820</v>
       </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="F84" s="6">
+        <v>1</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1</v>
+      </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
@@ -4067,10 +4406,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D85" s="5">
         <v>100</v>
@@ -4078,8 +4417,12 @@
       <c r="E85" s="6">
         <v>830</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="F85" s="6">
+        <v>1</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1</v>
+      </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
@@ -4088,10 +4431,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D86" s="5">
         <v>100</v>
@@ -4099,8 +4442,12 @@
       <c r="E86" s="6">
         <v>840</v>
       </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="F86" s="6">
+        <v>1</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1</v>
+      </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
@@ -4109,10 +4456,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D87" s="5">
         <v>100</v>
@@ -4120,8 +4467,12 @@
       <c r="E87" s="6">
         <v>850</v>
       </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="F87" s="6">
+        <v>1</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
@@ -4130,10 +4481,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D88" s="5">
         <v>100</v>
@@ -4141,8 +4492,12 @@
       <c r="E88" s="6">
         <v>860</v>
       </c>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
+      <c r="F88" s="6">
+        <v>1</v>
+      </c>
+      <c r="G88" s="6">
+        <v>1</v>
+      </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
@@ -4151,10 +4506,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D89" s="5">
         <v>100</v>
@@ -4162,8 +4517,12 @@
       <c r="E89" s="6">
         <v>870</v>
       </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1</v>
+      </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
@@ -4172,10 +4531,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D90" s="5">
         <v>100</v>
@@ -4183,8 +4542,12 @@
       <c r="E90" s="6">
         <v>880</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1</v>
+      </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
@@ -4193,10 +4556,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D91" s="5">
         <v>100</v>
@@ -4204,8 +4567,12 @@
       <c r="E91" s="6">
         <v>890</v>
       </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="F91" s="6">
+        <v>1</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1</v>
+      </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
@@ -4214,10 +4581,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D92" s="5">
         <v>100</v>
@@ -4225,8 +4592,12 @@
       <c r="E92" s="6">
         <v>900</v>
       </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1</v>
+      </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
@@ -4235,10 +4606,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D93" s="5">
         <v>100</v>
@@ -4246,8 +4617,12 @@
       <c r="E93" s="6">
         <v>910</v>
       </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
+      <c r="F93" s="6">
+        <v>1</v>
+      </c>
+      <c r="G93" s="6">
+        <v>1</v>
+      </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
@@ -4256,10 +4631,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D94" s="5">
         <v>100</v>
@@ -4267,8 +4642,12 @@
       <c r="E94" s="6">
         <v>920</v>
       </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+      <c r="F94" s="6">
+        <v>1</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1</v>
+      </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
@@ -4277,10 +4656,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D95" s="5">
         <v>100</v>
@@ -4288,8 +4667,12 @@
       <c r="E95" s="6">
         <v>930</v>
       </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
+      <c r="F95" s="6">
+        <v>1</v>
+      </c>
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
@@ -4298,10 +4681,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D96" s="5">
         <v>100</v>
@@ -4309,8 +4692,12 @@
       <c r="E96" s="6">
         <v>940</v>
       </c>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
+      <c r="F96" s="6">
+        <v>1</v>
+      </c>
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
@@ -4319,10 +4706,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D97" s="5">
         <v>100</v>
@@ -4330,8 +4717,12 @@
       <c r="E97" s="6">
         <v>950</v>
       </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+      <c r="F97" s="6">
+        <v>1</v>
+      </c>
+      <c r="G97" s="6">
+        <v>1</v>
+      </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
@@ -4340,10 +4731,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D98" s="5">
         <v>100</v>
@@ -4351,8 +4742,12 @@
       <c r="E98" s="6">
         <v>960</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="F98" s="6">
+        <v>1</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
@@ -4361,10 +4756,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D99" s="5">
         <v>100</v>
@@ -4372,8 +4767,12 @@
       <c r="E99" s="6">
         <v>970</v>
       </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
+      <c r="F99" s="6">
+        <v>1</v>
+      </c>
+      <c r="G99" s="6">
+        <v>1</v>
+      </c>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
@@ -4382,10 +4781,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D100" s="5">
         <v>100</v>
@@ -4393,8 +4792,12 @@
       <c r="E100" s="6">
         <v>980</v>
       </c>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
+      <c r="F100" s="6">
+        <v>1</v>
+      </c>
+      <c r="G100" s="6">
+        <v>1</v>
+      </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
@@ -4403,10 +4806,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D101" s="5">
         <v>100</v>
@@ -4414,8 +4817,12 @@
       <c r="E101" s="6">
         <v>990</v>
       </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="F101" s="6">
+        <v>1</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1</v>
+      </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
@@ -4424,10 +4831,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D102" s="5">
         <v>100</v>
@@ -4435,8 +4842,12 @@
       <c r="E102" s="6">
         <v>1000</v>
       </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+      <c r="F102" s="6">
+        <v>1</v>
+      </c>
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
@@ -4445,10 +4856,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D103" s="5">
         <v>100</v>
@@ -4456,8 +4867,12 @@
       <c r="E103" s="6">
         <v>1010</v>
       </c>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="F103" s="6">
+        <v>1</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
@@ -4466,10 +4881,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D104" s="5">
         <v>100</v>
@@ -4477,8 +4892,12 @@
       <c r="E104" s="6">
         <v>1020</v>
       </c>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="F104" s="6">
+        <v>1</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
@@ -4487,10 +4906,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D105" s="5">
         <v>100</v>
@@ -4498,8 +4917,12 @@
       <c r="E105" s="6">
         <v>1030</v>
       </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+      <c r="F105" s="6">
+        <v>1</v>
+      </c>
+      <c r="G105" s="6">
+        <v>1</v>
+      </c>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
@@ -4508,10 +4931,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D106" s="5">
         <v>100</v>
@@ -4519,8 +4942,12 @@
       <c r="E106" s="6">
         <v>1040</v>
       </c>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
+      <c r="F106" s="6">
+        <v>1</v>
+      </c>
+      <c r="G106" s="6">
+        <v>1</v>
+      </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
@@ -4529,10 +4956,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D107" s="5">
         <v>100</v>
@@ -4540,8 +4967,12 @@
       <c r="E107" s="6">
         <v>1050</v>
       </c>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+      <c r="F107" s="6">
+        <v>1</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
@@ -4550,10 +4981,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D108" s="5">
         <v>100</v>
@@ -4561,8 +4992,12 @@
       <c r="E108" s="6">
         <v>1060</v>
       </c>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+      <c r="F108" s="6">
+        <v>1</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
@@ -4571,10 +5006,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D109" s="5">
         <v>100</v>
@@ -4582,8 +5017,12 @@
       <c r="E109" s="6">
         <v>1070</v>
       </c>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+      <c r="F109" s="6">
+        <v>1</v>
+      </c>
+      <c r="G109" s="6">
+        <v>1</v>
+      </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
@@ -4592,10 +5031,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D110" s="5">
         <v>100</v>
@@ -4603,8 +5042,12 @@
       <c r="E110" s="6">
         <v>1080</v>
       </c>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+      <c r="F110" s="6">
+        <v>1</v>
+      </c>
+      <c r="G110" s="6">
+        <v>1</v>
+      </c>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
@@ -4613,10 +5056,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D111" s="5">
         <v>100</v>
@@ -4624,8 +5067,12 @@
       <c r="E111" s="6">
         <v>1090</v>
       </c>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
+      <c r="F111" s="6">
+        <v>1</v>
+      </c>
+      <c r="G111" s="6">
+        <v>1</v>
+      </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
@@ -4634,10 +5081,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D112" s="5">
         <v>100</v>
@@ -4645,8 +5092,12 @@
       <c r="E112" s="6">
         <v>1100</v>
       </c>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
+      <c r="F112" s="6">
+        <v>1</v>
+      </c>
+      <c r="G112" s="6">
+        <v>1</v>
+      </c>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
@@ -4655,10 +5106,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D113" s="5">
         <v>100</v>
@@ -4666,8 +5117,12 @@
       <c r="E113" s="6">
         <v>1110</v>
       </c>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+      <c r="F113" s="6">
+        <v>1</v>
+      </c>
+      <c r="G113" s="6">
+        <v>1</v>
+      </c>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
@@ -4676,10 +5131,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D114" s="5">
         <v>100</v>
@@ -4687,8 +5142,12 @@
       <c r="E114" s="6">
         <v>1120</v>
       </c>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
+      <c r="F114" s="6">
+        <v>1</v>
+      </c>
+      <c r="G114" s="6">
+        <v>1</v>
+      </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
@@ -4697,10 +5156,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D115" s="5">
         <v>100</v>
@@ -4708,8 +5167,12 @@
       <c r="E115" s="6">
         <v>1130</v>
       </c>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="F115" s="6">
+        <v>1</v>
+      </c>
+      <c r="G115" s="6">
+        <v>1</v>
+      </c>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
@@ -4718,10 +5181,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D116" s="5">
         <v>100</v>
@@ -4729,8 +5192,12 @@
       <c r="E116" s="6">
         <v>1140</v>
       </c>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
+      <c r="F116" s="6">
+        <v>1</v>
+      </c>
+      <c r="G116" s="6">
+        <v>1</v>
+      </c>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
@@ -4739,10 +5206,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D117" s="5">
         <v>100</v>
@@ -4750,8 +5217,12 @@
       <c r="E117" s="6">
         <v>1150</v>
       </c>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
+      <c r="F117" s="6">
+        <v>1</v>
+      </c>
+      <c r="G117" s="6">
+        <v>1</v>
+      </c>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
@@ -4760,10 +5231,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D118" s="5">
         <v>100</v>
@@ -4771,8 +5242,12 @@
       <c r="E118" s="6">
         <v>1160</v>
       </c>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
+      <c r="F118" s="6">
+        <v>1</v>
+      </c>
+      <c r="G118" s="6">
+        <v>1</v>
+      </c>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
@@ -4781,10 +5256,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D119" s="5">
         <v>100</v>
@@ -4792,8 +5267,12 @@
       <c r="E119" s="6">
         <v>1170</v>
       </c>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
+      <c r="F119" s="6">
+        <v>1</v>
+      </c>
+      <c r="G119" s="6">
+        <v>1</v>
+      </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
@@ -4802,10 +5281,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D120" s="5">
         <v>100</v>
@@ -4813,8 +5292,12 @@
       <c r="E120" s="6">
         <v>1180</v>
       </c>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="F120" s="6">
+        <v>1</v>
+      </c>
+      <c r="G120" s="6">
+        <v>1</v>
+      </c>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
@@ -4823,10 +5306,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D121" s="5">
         <v>100</v>
@@ -4834,8 +5317,12 @@
       <c r="E121" s="6">
         <v>1190</v>
       </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
+      <c r="F121" s="6">
+        <v>1</v>
+      </c>
+      <c r="G121" s="6">
+        <v>1</v>
+      </c>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
@@ -4844,10 +5331,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D122" s="5">
         <v>100</v>
@@ -4855,8 +5342,12 @@
       <c r="E122" s="6">
         <v>1200</v>
       </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
+      <c r="F122" s="6">
+        <v>1</v>
+      </c>
+      <c r="G122" s="6">
+        <v>1</v>
+      </c>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
@@ -4865,10 +5356,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D123" s="5">
         <v>100</v>
@@ -4876,8 +5367,12 @@
       <c r="E123" s="6">
         <v>1210</v>
       </c>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
+      <c r="F123" s="6">
+        <v>1</v>
+      </c>
+      <c r="G123" s="6">
+        <v>1</v>
+      </c>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
@@ -4886,10 +5381,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D124" s="5">
         <v>100</v>
@@ -4897,8 +5392,12 @@
       <c r="E124" s="6">
         <v>1220</v>
       </c>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
+      <c r="F124" s="6">
+        <v>1</v>
+      </c>
+      <c r="G124" s="6">
+        <v>1</v>
+      </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
@@ -4907,10 +5406,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D125" s="5">
         <v>100</v>
@@ -4918,8 +5417,12 @@
       <c r="E125" s="6">
         <v>1230</v>
       </c>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
+      <c r="F125" s="6">
+        <v>1</v>
+      </c>
+      <c r="G125" s="6">
+        <v>1</v>
+      </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
@@ -4928,10 +5431,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D126" s="5">
         <v>100</v>
@@ -4939,8 +5442,12 @@
       <c r="E126" s="6">
         <v>1240</v>
       </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+      <c r="F126" s="6">
+        <v>1</v>
+      </c>
+      <c r="G126" s="6">
+        <v>1</v>
+      </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
@@ -4949,10 +5456,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D127" s="5">
         <v>100</v>
@@ -4960,8 +5467,12 @@
       <c r="E127" s="6">
         <v>1250</v>
       </c>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
+      <c r="F127" s="6">
+        <v>1</v>
+      </c>
+      <c r="G127" s="6">
+        <v>1</v>
+      </c>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
@@ -4970,10 +5481,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D128" s="5">
         <v>100</v>
@@ -4981,8 +5492,12 @@
       <c r="E128" s="6">
         <v>1260</v>
       </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
+      <c r="F128" s="6">
+        <v>1</v>
+      </c>
+      <c r="G128" s="6">
+        <v>1</v>
+      </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
@@ -4991,10 +5506,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D129" s="5">
         <v>100</v>
@@ -5002,8 +5517,12 @@
       <c r="E129" s="6">
         <v>1270</v>
       </c>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
+      <c r="F129" s="6">
+        <v>1</v>
+      </c>
+      <c r="G129" s="6">
+        <v>1</v>
+      </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
@@ -5012,10 +5531,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D130" s="5">
         <v>100</v>
@@ -5023,8 +5542,12 @@
       <c r="E130" s="6">
         <v>1280</v>
       </c>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
+      <c r="F130" s="6">
+        <v>1</v>
+      </c>
+      <c r="G130" s="6">
+        <v>1</v>
+      </c>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
     </row>
@@ -5033,10 +5556,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D131" s="5">
         <v>100</v>
@@ -5044,8 +5567,12 @@
       <c r="E131" s="6">
         <v>1290</v>
       </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
+      <c r="F131" s="6">
+        <v>1</v>
+      </c>
+      <c r="G131" s="6">
+        <v>1</v>
+      </c>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
@@ -5054,10 +5581,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D132" s="5">
         <v>100</v>
@@ -5065,8 +5592,12 @@
       <c r="E132" s="6">
         <v>1300</v>
       </c>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+      <c r="F132" s="6">
+        <v>1</v>
+      </c>
+      <c r="G132" s="6">
+        <v>1</v>
+      </c>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
     </row>
@@ -5075,10 +5606,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D133" s="5">
         <v>100</v>
@@ -5086,8 +5617,12 @@
       <c r="E133" s="6">
         <v>1310</v>
       </c>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
+      <c r="F133" s="6">
+        <v>1</v>
+      </c>
+      <c r="G133" s="6">
+        <v>1</v>
+      </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
     </row>
@@ -5096,10 +5631,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D134" s="5">
         <v>100</v>
@@ -5107,8 +5642,12 @@
       <c r="E134" s="6">
         <v>1320</v>
       </c>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
+      <c r="F134" s="6">
+        <v>1</v>
+      </c>
+      <c r="G134" s="6">
+        <v>1</v>
+      </c>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
@@ -5117,10 +5656,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D135" s="5">
         <v>100</v>
@@ -5128,8 +5667,12 @@
       <c r="E135" s="6">
         <v>1330</v>
       </c>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
+      <c r="F135" s="6">
+        <v>1</v>
+      </c>
+      <c r="G135" s="6">
+        <v>1</v>
+      </c>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
@@ -5138,10 +5681,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D136" s="5">
         <v>100</v>
@@ -5149,8 +5692,12 @@
       <c r="E136" s="6">
         <v>1340</v>
       </c>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
+      <c r="F136" s="6">
+        <v>1</v>
+      </c>
+      <c r="G136" s="6">
+        <v>1</v>
+      </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
@@ -5159,10 +5706,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D137" s="5">
         <v>100</v>
@@ -5170,8 +5717,12 @@
       <c r="E137" s="6">
         <v>1350</v>
       </c>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
+      <c r="F137" s="6">
+        <v>1</v>
+      </c>
+      <c r="G137" s="6">
+        <v>1</v>
+      </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
@@ -5180,10 +5731,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D138" s="5">
         <v>100</v>
@@ -5191,8 +5742,12 @@
       <c r="E138" s="6">
         <v>1360</v>
       </c>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
+      <c r="F138" s="6">
+        <v>1</v>
+      </c>
+      <c r="G138" s="6">
+        <v>1</v>
+      </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
@@ -5201,10 +5756,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D139" s="5">
         <v>100</v>
@@ -5212,8 +5767,12 @@
       <c r="E139" s="6">
         <v>1370</v>
       </c>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+      <c r="F139" s="6">
+        <v>1</v>
+      </c>
+      <c r="G139" s="6">
+        <v>1</v>
+      </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
@@ -5222,10 +5781,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D140" s="5">
         <v>100</v>
@@ -5233,8 +5792,12 @@
       <c r="E140" s="6">
         <v>1380</v>
       </c>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+      <c r="F140" s="6">
+        <v>1</v>
+      </c>
+      <c r="G140" s="6">
+        <v>1</v>
+      </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
@@ -5243,10 +5806,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D141" s="5">
         <v>100</v>
@@ -5254,8 +5817,12 @@
       <c r="E141" s="6">
         <v>1390</v>
       </c>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
+      <c r="F141" s="6">
+        <v>1</v>
+      </c>
+      <c r="G141" s="6">
+        <v>1</v>
+      </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
@@ -5264,10 +5831,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D142" s="5">
         <v>100</v>
@@ -5275,8 +5842,12 @@
       <c r="E142" s="6">
         <v>1400</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
+      <c r="F142" s="6">
+        <v>1</v>
+      </c>
+      <c r="G142" s="6">
+        <v>1</v>
+      </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
     </row>
@@ -5285,10 +5856,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D143" s="5">
         <v>100</v>
@@ -5296,8 +5867,12 @@
       <c r="E143" s="6">
         <v>1410</v>
       </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
+      <c r="F143" s="6">
+        <v>1</v>
+      </c>
+      <c r="G143" s="6">
+        <v>1</v>
+      </c>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
@@ -5306,10 +5881,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D144" s="5">
         <v>100</v>
@@ -5317,8 +5892,12 @@
       <c r="E144" s="6">
         <v>1420</v>
       </c>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
+      <c r="F144" s="6">
+        <v>1</v>
+      </c>
+      <c r="G144" s="6">
+        <v>1</v>
+      </c>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
@@ -5327,10 +5906,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D145" s="5">
         <v>100</v>
@@ -5338,8 +5917,12 @@
       <c r="E145" s="6">
         <v>1430</v>
       </c>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
+      <c r="F145" s="6">
+        <v>1</v>
+      </c>
+      <c r="G145" s="6">
+        <v>1</v>
+      </c>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
@@ -5348,10 +5931,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D146" s="5">
         <v>100</v>
@@ -5359,8 +5942,12 @@
       <c r="E146" s="6">
         <v>1440</v>
       </c>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
+      <c r="F146" s="6">
+        <v>1</v>
+      </c>
+      <c r="G146" s="6">
+        <v>1</v>
+      </c>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
@@ -5369,10 +5956,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D147" s="5">
         <v>100</v>
@@ -5380,8 +5967,12 @@
       <c r="E147" s="6">
         <v>1450</v>
       </c>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
+      <c r="F147" s="6">
+        <v>1</v>
+      </c>
+      <c r="G147" s="6">
+        <v>1</v>
+      </c>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
@@ -5390,10 +5981,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D148" s="5">
         <v>100</v>
@@ -5401,8 +5992,12 @@
       <c r="E148" s="6">
         <v>1460</v>
       </c>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
+      <c r="F148" s="6">
+        <v>1</v>
+      </c>
+      <c r="G148" s="6">
+        <v>1</v>
+      </c>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
@@ -5411,10 +6006,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D149" s="5">
         <v>100</v>
@@ -5422,8 +6017,12 @@
       <c r="E149" s="6">
         <v>1470</v>
       </c>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+      <c r="F149" s="6">
+        <v>1</v>
+      </c>
+      <c r="G149" s="6">
+        <v>1</v>
+      </c>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
@@ -5433,8 +6032,12 @@
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
+      <c r="F150" s="6">
+        <v>1</v>
+      </c>
+      <c r="G150" s="6">
+        <v>1</v>
+      </c>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
     </row>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
   <si>
     <t>id</t>
   </si>
@@ -20,9 +20,21 @@
     <t>image</t>
   </si>
   <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>name_old</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
     <t>hp</t>
   </si>
   <si>
@@ -41,6 +53,9 @@
     <t>legion</t>
   </si>
   <si>
+    <t>悪霊</t>
+  </si>
+  <si>
     <t>レギオン</t>
   </si>
   <si>
@@ -59,13 +74,19 @@
     <t>skeleton_dog</t>
   </si>
   <si>
+    <t>がいこつ犬</t>
+  </si>
+  <si>
     <t>ほねほねドック</t>
   </si>
   <si>
     <t>floating_skull</t>
   </si>
   <si>
-    <t>ドクロ</t>
+    <t>浮遊する骸骨</t>
+  </si>
+  <si>
+    <t>空飛ぶドクロ</t>
   </si>
   <si>
     <t>ghost</t>
@@ -83,18 +104,27 @@
     <t>skeleton1</t>
   </si>
   <si>
+    <t>スケルトン1</t>
+  </si>
+  <si>
     <t>スケルトン</t>
   </si>
   <si>
     <t>skeleton2</t>
   </si>
   <si>
+    <t>スケルトン2</t>
+  </si>
+  <si>
     <t>がいこつ剣士</t>
   </si>
   <si>
     <t>skeleton3</t>
   </si>
   <si>
+    <t>スケルトン3</t>
+  </si>
+  <si>
     <t>がいこつ弓使い</t>
   </si>
   <si>
@@ -143,18 +173,27 @@
     <t>gnole1</t>
   </si>
   <si>
+    <t>ノール1</t>
+  </si>
+  <si>
     <t>ノール</t>
   </si>
   <si>
     <t>gnole2</t>
   </si>
   <si>
+    <t>ノール2</t>
+  </si>
+  <si>
     <t>ノール戦士</t>
   </si>
   <si>
     <t>ogre1</t>
   </si>
   <si>
+    <t>亜人</t>
+  </si>
+  <si>
     <t>オーガ</t>
   </si>
   <si>
@@ -167,36 +206,54 @@
     <t>orc1</t>
   </si>
   <si>
+    <t>オーク1</t>
+  </si>
+  <si>
     <t>オーク</t>
   </si>
   <si>
     <t>orc2</t>
   </si>
   <si>
+    <t>オーク2</t>
+  </si>
+  <si>
     <t>オーク戦士</t>
   </si>
   <si>
     <t>ratman1</t>
   </si>
   <si>
+    <t>ラットマン1</t>
+  </si>
+  <si>
     <t>ラットマン</t>
   </si>
   <si>
     <t>ratman2</t>
   </si>
   <si>
+    <t>ラットマン2</t>
+  </si>
+  <si>
     <t>ラットマン戦士</t>
   </si>
   <si>
     <t>harpy_fly</t>
   </si>
   <si>
+    <t>ハーピー(空)</t>
+  </si>
+  <si>
     <t>ハーピー</t>
   </si>
   <si>
     <t>harpy_walk</t>
   </si>
   <si>
+    <t>ハーピー(地面)</t>
+  </si>
+  <si>
     <t>グラウンドハーピー</t>
   </si>
   <si>
@@ -206,57 +263,87 @@
     <t>フェアリー</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>snake_man</t>
   </si>
   <si>
+    <t>スネークマン</t>
+  </si>
+  <si>
     <t>蛇男</t>
   </si>
   <si>
     <t>lizardman1</t>
   </si>
   <si>
+    <t>リザードマン1</t>
+  </si>
+  <si>
     <t>リザードマン</t>
   </si>
   <si>
     <t>lizardman2</t>
   </si>
   <si>
+    <t>リザードマン2</t>
+  </si>
+  <si>
     <t>リザードマン戦士</t>
   </si>
   <si>
     <t>goblin1</t>
   </si>
   <si>
+    <t>ゴブリン1</t>
+  </si>
+  <si>
     <t>ゴブリン</t>
   </si>
   <si>
     <t>goblin2</t>
   </si>
   <si>
+    <t>ゴブリン2</t>
+  </si>
+  <si>
     <t>ゴブリン戦士</t>
   </si>
   <si>
     <t>goblin3</t>
   </si>
   <si>
+    <t>ゴブリン3</t>
+  </si>
+  <si>
     <t>ゴブリンファイター</t>
   </si>
   <si>
     <t>goblin4</t>
   </si>
   <si>
+    <t>ゴブリン4</t>
+  </si>
+  <si>
     <t>ダークゴブリン</t>
   </si>
   <si>
     <t>minotaur1</t>
   </si>
   <si>
+    <t>ミノタウロス1</t>
+  </si>
+  <si>
     <t>ミノタウロス</t>
   </si>
   <si>
     <t>minotaur2</t>
   </si>
   <si>
+    <t>ミノタウロス2</t>
+  </si>
+  <si>
     <t>メガタウロス</t>
   </si>
   <si>
@@ -281,6 +368,12 @@
     <t>mindflayer</t>
   </si>
   <si>
+    <t>悪魔</t>
+  </si>
+  <si>
+    <t>マインドフレイヤー</t>
+  </si>
+  <si>
     <t>イリシッド</t>
   </si>
   <si>
@@ -299,30 +392,45 @@
     <t>invader</t>
   </si>
   <si>
+    <t>インベーダー</t>
+  </si>
+  <si>
     <t>宇宙からの使者</t>
   </si>
   <si>
     <t>dark_elf1</t>
   </si>
   <si>
+    <t>ダークエルフ1</t>
+  </si>
+  <si>
     <t>ダークエルフ</t>
   </si>
   <si>
     <t>dark_elf2</t>
   </si>
   <si>
+    <t>ダークエルフ2</t>
+  </si>
+  <si>
     <t>地下エルフ</t>
   </si>
   <si>
     <t>dark_elf3</t>
   </si>
   <si>
+    <t>ダークエルフ3</t>
+  </si>
+  <si>
     <t>ブラックエルフ</t>
   </si>
   <si>
     <t>dark_elf4</t>
   </si>
   <si>
+    <t>ダークエルフ4</t>
+  </si>
+  <si>
     <t>暗黒エルフ</t>
   </si>
   <si>
@@ -347,30 +455,48 @@
     <t>cat1</t>
   </si>
   <si>
+    <t>動物</t>
+  </si>
+  <si>
+    <t>猫1</t>
+  </si>
+  <si>
     <t>猫</t>
   </si>
   <si>
     <t>cat2</t>
   </si>
   <si>
+    <t>猫2</t>
+  </si>
+  <si>
     <t>黒猫</t>
   </si>
   <si>
     <t>rat</t>
   </si>
   <si>
+    <t>ネズミ</t>
+  </si>
+  <si>
     <t>針ネズミ</t>
   </si>
   <si>
     <t>dog1</t>
   </si>
   <si>
+    <t>犬1</t>
+  </si>
+  <si>
     <t>赤い犬</t>
   </si>
   <si>
     <t>dog2</t>
   </si>
   <si>
+    <t>犬2</t>
+  </si>
+  <si>
     <t>狂犬</t>
   </si>
   <si>
@@ -389,6 +515,9 @@
     <t>pig</t>
   </si>
   <si>
+    <t>豚</t>
+  </si>
+  <si>
     <t>ピッグ</t>
   </si>
   <si>
@@ -461,24 +590,36 @@
     <t>horse1</t>
   </si>
   <si>
+    <t>馬1</t>
+  </si>
+  <si>
     <t>マダーホース</t>
   </si>
   <si>
     <t>horse2</t>
   </si>
   <si>
+    <t>馬2</t>
+  </si>
+  <si>
     <t>クリムゾンホース</t>
   </si>
   <si>
     <t>horse3</t>
   </si>
   <si>
+    <t>馬3</t>
+  </si>
+  <si>
     <t>アイアンホース</t>
   </si>
   <si>
     <t>horse4</t>
   </si>
   <si>
+    <t>馬4</t>
+  </si>
+  <si>
     <t>ブラックホース</t>
   </si>
   <si>
@@ -557,6 +698,12 @@
     <t>jelly</t>
   </si>
   <si>
+    <t>軟体生物</t>
+  </si>
+  <si>
+    <t>ジェリー</t>
+  </si>
+  <si>
     <t>スライム</t>
   </si>
   <si>
@@ -593,6 +740,9 @@
     <t>worm</t>
   </si>
   <si>
+    <t>虫</t>
+  </si>
+  <si>
     <t>ワーム</t>
   </si>
   <si>
@@ -605,6 +755,9 @@
     <t>sea_serpent</t>
   </si>
   <si>
+    <t>海洋生物</t>
+  </si>
+  <si>
     <t>サーペント</t>
   </si>
   <si>
@@ -641,12 +794,18 @@
     <t>crab_ground</t>
   </si>
   <si>
+    <t>クラブ</t>
+  </si>
+  <si>
     <t>シザースクラブ</t>
   </si>
   <si>
     <t>crab_water</t>
   </si>
   <si>
+    <t>クラブ（水中）</t>
+  </si>
+  <si>
     <t>シザースクラブ（水中）</t>
   </si>
   <si>
@@ -665,12 +824,18 @@
     <t>shellfish</t>
   </si>
   <si>
-    <t>人喰い貝</t>
+    <t>ヤドカリ</t>
   </si>
   <si>
     <t>fly</t>
   </si>
   <si>
+    <t>昆虫</t>
+  </si>
+  <si>
+    <t>ハエ</t>
+  </si>
+  <si>
     <t>寄生ハエ</t>
   </si>
   <si>
@@ -713,6 +878,9 @@
     <t>cockroach</t>
   </si>
   <si>
+    <t>ゴキブリ</t>
+  </si>
+  <si>
     <t>コックローチ</t>
   </si>
   <si>
@@ -743,18 +911,30 @@
     <t>reaper</t>
   </si>
   <si>
+    <t>死神</t>
+  </si>
+  <si>
     <t>刈り取るもの</t>
   </si>
   <si>
     <t>vine</t>
   </si>
   <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>ツル</t>
+  </si>
+  <si>
     <t>奇妙なツル</t>
   </si>
   <si>
     <t>fungus</t>
   </si>
   <si>
+    <t>菌類</t>
+  </si>
+  <si>
     <t>危険な菌類</t>
   </si>
   <si>
@@ -809,22 +989,34 @@
     <t>goatman1</t>
   </si>
   <si>
+    <t>羊男1</t>
+  </si>
+  <si>
     <t>羊男</t>
   </si>
   <si>
     <t>goatman2</t>
   </si>
   <si>
+    <t>羊男2</t>
+  </si>
+  <si>
     <t>羊戦士</t>
   </si>
   <si>
     <t>lesser_fiend1</t>
   </si>
   <si>
+    <t>レッサーデーモン1</t>
+  </si>
+  <si>
     <t>レッサーデーモン</t>
   </si>
   <si>
     <t>lesser_fiend2</t>
+  </si>
+  <si>
+    <t>レッサーデーモン2</t>
   </si>
   <si>
     <t>マッドストーカー</t>
@@ -1008,7 +1200,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1028,6 +1220,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2283,7 +2478,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2291,14 +2486,18 @@
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.64062" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.35938" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.64062" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.64062" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
+    <col min="14" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -2323,3723 +2522,5217 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="H2" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>100</v>
-      </c>
-      <c r="E3" s="6">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>100</v>
+      </c>
+      <c r="I3" s="6">
         <v>10</v>
       </c>
-      <c r="F3" s="6">
+      <c r="J3" s="6">
         <v>5</v>
       </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5">
-        <v>100</v>
-      </c>
-      <c r="E4" s="6">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>100</v>
+      </c>
+      <c r="I4" s="6">
         <v>20</v>
       </c>
-      <c r="F4" s="6">
+      <c r="J4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="K4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="D5" s="5">
-        <v>100</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>100</v>
+      </c>
+      <c r="I5" s="6">
         <v>30</v>
       </c>
-      <c r="F5" s="6">
+      <c r="J5" s="6">
         <v>7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="K5" s="6">
         <v>2</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>100</v>
+      </c>
+      <c r="I6" s="6">
         <v>40</v>
       </c>
-      <c r="F6" s="6">
+      <c r="J6" s="6">
         <v>5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="K6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5">
-        <v>100</v>
-      </c>
-      <c r="E7" s="6">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>100</v>
+      </c>
+      <c r="I7" s="6">
         <v>50</v>
       </c>
-      <c r="F7" s="6">
+      <c r="J7" s="6">
         <v>20</v>
       </c>
-      <c r="G7" s="6">
+      <c r="K7" s="6">
         <v>5</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
-      <c r="E8" s="6">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>100</v>
+      </c>
+      <c r="I8" s="6">
         <v>60</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5">
-        <v>100</v>
-      </c>
-      <c r="E9" s="6">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="6">
         <v>70</v>
       </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5">
-        <v>100</v>
-      </c>
-      <c r="E10" s="6">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6">
         <v>80</v>
       </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5">
-        <v>100</v>
-      </c>
-      <c r="E11" s="6">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>100</v>
+      </c>
+      <c r="I11" s="6">
         <v>90</v>
       </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5">
-        <v>100</v>
-      </c>
-      <c r="E12" s="6">
-        <v>100</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>100</v>
+      </c>
+      <c r="I12" s="6">
+        <v>100</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5">
-        <v>100</v>
-      </c>
-      <c r="E13" s="6">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>100</v>
+      </c>
+      <c r="I13" s="6">
         <v>110</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5">
-        <v>100</v>
-      </c>
-      <c r="E14" s="6">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>100</v>
+      </c>
+      <c r="I14" s="6">
         <v>120</v>
       </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5">
-        <v>100</v>
-      </c>
-      <c r="E15" s="6">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6">
         <v>130</v>
       </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5">
-        <v>100</v>
-      </c>
-      <c r="E16" s="6">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>100</v>
+      </c>
+      <c r="I16" s="6">
         <v>140</v>
       </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="D17" s="5">
-        <v>100</v>
-      </c>
-      <c r="E17" s="6">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>100</v>
+      </c>
+      <c r="I17" s="6">
         <v>150</v>
       </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="D18" s="5">
-        <v>100</v>
-      </c>
-      <c r="E18" s="6">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>100</v>
+      </c>
+      <c r="I18" s="6">
         <v>160</v>
       </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="D19" s="5">
-        <v>100</v>
-      </c>
-      <c r="E19" s="6">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>100</v>
+      </c>
+      <c r="I19" s="6">
         <v>170</v>
       </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5">
-        <v>100</v>
-      </c>
-      <c r="E20" s="6">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>100</v>
+      </c>
+      <c r="I20" s="6">
         <v>180</v>
       </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="D21" s="5">
-        <v>100</v>
-      </c>
-      <c r="E21" s="6">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s" s="5">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>100</v>
+      </c>
+      <c r="I21" s="6">
         <v>190</v>
       </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="D22" s="5">
-        <v>100</v>
-      </c>
-      <c r="E22" s="6">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>100</v>
+      </c>
+      <c r="I22" s="6">
         <v>200</v>
       </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="D23" s="5">
-        <v>100</v>
-      </c>
-      <c r="E23" s="6">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>100</v>
+      </c>
+      <c r="I23" s="6">
         <v>210</v>
       </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="D24" s="5">
-        <v>100</v>
-      </c>
-      <c r="E24" s="6">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>100</v>
+      </c>
+      <c r="I24" s="6">
         <v>220</v>
       </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="D25" s="5">
-        <v>100</v>
-      </c>
-      <c r="E25" s="6">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s" s="5">
+        <v>68</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5">
+        <v>100</v>
+      </c>
+      <c r="I25" s="6">
         <v>230</v>
       </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="D26" s="5">
-        <v>100</v>
-      </c>
-      <c r="E26" s="6">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s" s="5">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s" s="5">
+        <v>71</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>100</v>
+      </c>
+      <c r="I26" s="6">
         <v>240</v>
       </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="D27" s="5">
-        <v>100</v>
-      </c>
-      <c r="E27" s="6">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s" s="5">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s" s="5">
+        <v>74</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>100</v>
+      </c>
+      <c r="I27" s="6">
         <v>250</v>
       </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="D28" s="5">
-        <v>100</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D28" t="s" s="5">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s" s="5">
+        <v>77</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5">
+        <v>100</v>
+      </c>
+      <c r="I28" s="6">
         <v>260</v>
       </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D29" s="5">
-        <v>100</v>
-      </c>
-      <c r="E29" s="6">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s" s="5">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s" s="5">
+        <v>80</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5">
+        <v>4</v>
+      </c>
+      <c r="H29" s="5">
+        <v>100</v>
+      </c>
+      <c r="I29" s="6">
         <v>270</v>
       </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="D30" s="5">
-        <v>100</v>
-      </c>
-      <c r="E30" s="6">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H30" s="5">
+        <v>100</v>
+      </c>
+      <c r="I30" s="6">
         <v>280</v>
       </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>1</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D31" s="5">
-        <v>100</v>
-      </c>
-      <c r="E31" s="6">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s" s="5">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s" s="5">
+        <v>86</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="5">
+        <v>3</v>
+      </c>
+      <c r="H31" s="5">
+        <v>100</v>
+      </c>
+      <c r="I31" s="6">
         <v>290</v>
       </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D32" s="5">
-        <v>100</v>
-      </c>
-      <c r="E32" s="6">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5">
+        <v>100</v>
+      </c>
+      <c r="I32" s="6">
         <v>300</v>
       </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
-        <v>1</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="J32" s="6">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D33" s="5">
-        <v>100</v>
-      </c>
-      <c r="E33" s="6">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s" s="5">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s" s="5">
+        <v>92</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="5">
+        <v>3</v>
+      </c>
+      <c r="H33" s="5">
+        <v>100</v>
+      </c>
+      <c r="I33" s="6">
         <v>310</v>
       </c>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="J33" s="6">
+        <v>1</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="D34" s="5">
-        <v>100</v>
-      </c>
-      <c r="E34" s="6">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s" s="5">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s" s="5">
+        <v>95</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>100</v>
+      </c>
+      <c r="I34" s="6">
         <v>320</v>
       </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <v>1</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="J34" s="6">
+        <v>1</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="4">
         <v>33</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>73</v>
-      </c>
-      <c r="D35" s="5">
-        <v>100</v>
-      </c>
-      <c r="E35" s="6">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s" s="5">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s" s="5">
+        <v>98</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5">
+        <v>100</v>
+      </c>
+      <c r="I35" s="6">
         <v>330</v>
       </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="J35" s="6">
+        <v>1</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="4">
         <v>34</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="D36" s="5">
-        <v>100</v>
-      </c>
-      <c r="E36" s="6">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s" s="5">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s" s="5">
+        <v>101</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="5">
+        <v>3</v>
+      </c>
+      <c r="H36" s="5">
+        <v>100</v>
+      </c>
+      <c r="I36" s="6">
         <v>340</v>
       </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" s="6">
-        <v>1</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="D37" s="5">
-        <v>100</v>
-      </c>
-      <c r="E37" s="6">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s" s="5">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s" s="5">
+        <v>104</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="5">
+        <v>4</v>
+      </c>
+      <c r="H37" s="5">
+        <v>100</v>
+      </c>
+      <c r="I37" s="6">
         <v>350</v>
       </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6">
-        <v>1</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="J37" s="6">
+        <v>1</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="D38" s="5">
-        <v>100</v>
-      </c>
-      <c r="E38" s="6">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s" s="5">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s" s="5">
+        <v>107</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5">
+        <v>3</v>
+      </c>
+      <c r="H38" s="5">
+        <v>100</v>
+      </c>
+      <c r="I38" s="6">
         <v>360</v>
       </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6">
-        <v>1</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="4">
         <v>37</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="D39" s="5">
-        <v>100</v>
-      </c>
-      <c r="E39" s="6">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s" s="5">
+        <v>109</v>
+      </c>
+      <c r="E39" t="s" s="5">
+        <v>110</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="5">
+        <v>4</v>
+      </c>
+      <c r="H39" s="5">
+        <v>100</v>
+      </c>
+      <c r="I39" s="6">
         <v>370</v>
       </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-      <c r="G39" s="6">
-        <v>1</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="J39" s="6">
+        <v>1</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="4">
         <v>38</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="D40" s="5">
-        <v>100</v>
-      </c>
-      <c r="E40" s="6">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s" s="5">
+        <v>112</v>
+      </c>
+      <c r="E40" t="s" s="5">
+        <v>112</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="5">
+        <v>4</v>
+      </c>
+      <c r="H40" s="5">
+        <v>100</v>
+      </c>
+      <c r="I40" s="6">
         <v>380</v>
       </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
-        <v>1</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="J40" s="6">
+        <v>1</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>85</v>
-      </c>
-      <c r="D41" s="5">
-        <v>100</v>
-      </c>
-      <c r="E41" s="6">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s" s="5">
+        <v>114</v>
+      </c>
+      <c r="E41" t="s" s="5">
+        <v>114</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="5">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5">
+        <v>100</v>
+      </c>
+      <c r="I41" s="6">
         <v>390</v>
       </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="J41" s="6">
+        <v>1</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="4">
         <v>40</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>87</v>
-      </c>
-      <c r="D42" s="5">
-        <v>100</v>
-      </c>
-      <c r="E42" s="6">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s" s="5">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s" s="5">
+        <v>116</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="5">
+        <v>3</v>
+      </c>
+      <c r="H42" s="5">
+        <v>100</v>
+      </c>
+      <c r="I42" s="6">
         <v>400</v>
       </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6">
-        <v>1</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="J42" s="6">
+        <v>1</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="4">
         <v>41</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="D43" s="5">
-        <v>100</v>
-      </c>
-      <c r="E43" s="6">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s" s="5">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s" s="5">
+        <v>120</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="5">
+        <v>5</v>
+      </c>
+      <c r="H43" s="5">
+        <v>100</v>
+      </c>
+      <c r="I43" s="6">
         <v>410</v>
       </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="6">
-        <v>1</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="J43" s="6">
+        <v>1</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="4">
         <v>42</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>91</v>
-      </c>
-      <c r="D44" s="5">
-        <v>100</v>
-      </c>
-      <c r="E44" s="6">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s" s="5">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s" s="5">
+        <v>122</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="5">
+        <v>3</v>
+      </c>
+      <c r="H44" s="5">
+        <v>100</v>
+      </c>
+      <c r="I44" s="6">
         <v>420</v>
       </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6">
-        <v>1</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="J44" s="6">
+        <v>1</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="4">
         <v>43</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>93</v>
-      </c>
-      <c r="D45" s="5">
-        <v>100</v>
-      </c>
-      <c r="E45" s="6">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s" s="5">
+        <v>124</v>
+      </c>
+      <c r="E45" t="s" s="5">
+        <v>124</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="5">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5">
+        <v>100</v>
+      </c>
+      <c r="I45" s="6">
         <v>430</v>
       </c>
-      <c r="F45" s="6">
-        <v>1</v>
-      </c>
-      <c r="G45" s="6">
-        <v>1</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="J45" s="6">
+        <v>1</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="4">
         <v>44</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>95</v>
-      </c>
-      <c r="D46" s="5">
-        <v>100</v>
-      </c>
-      <c r="E46" s="6">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s" s="5">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s" s="5">
+        <v>127</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="5">
+        <v>3</v>
+      </c>
+      <c r="H46" s="5">
+        <v>100</v>
+      </c>
+      <c r="I46" s="6">
         <v>440</v>
       </c>
-      <c r="F46" s="6">
-        <v>1</v>
-      </c>
-      <c r="G46" s="6">
-        <v>1</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="J46" s="6">
+        <v>1</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="4">
         <v>45</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>97</v>
-      </c>
-      <c r="D47" s="5">
-        <v>100</v>
-      </c>
-      <c r="E47" s="6">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s" s="5">
+        <v>129</v>
+      </c>
+      <c r="E47" t="s" s="5">
+        <v>130</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="5">
+        <v>3</v>
+      </c>
+      <c r="H47" s="5">
+        <v>100</v>
+      </c>
+      <c r="I47" s="6">
         <v>450</v>
       </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="J47" s="6">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="4">
         <v>46</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="D48" s="5">
-        <v>100</v>
-      </c>
-      <c r="E48" s="6">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s" s="5">
+        <v>133</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="5">
+        <v>3</v>
+      </c>
+      <c r="H48" s="5">
+        <v>100</v>
+      </c>
+      <c r="I48" s="6">
         <v>460</v>
       </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="6">
-        <v>1</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="J48" s="6">
+        <v>1</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="D49" s="5">
-        <v>100</v>
-      </c>
-      <c r="E49" s="6">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s" s="5">
+        <v>135</v>
+      </c>
+      <c r="E49" t="s" s="5">
+        <v>136</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="5">
+        <v>4</v>
+      </c>
+      <c r="H49" s="5">
+        <v>100</v>
+      </c>
+      <c r="I49" s="6">
         <v>470</v>
       </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6">
-        <v>1</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="J49" s="6">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>103</v>
-      </c>
-      <c r="D50" s="5">
-        <v>100</v>
-      </c>
-      <c r="E50" s="6">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s" s="5">
+        <v>138</v>
+      </c>
+      <c r="E50" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="5">
+        <v>4</v>
+      </c>
+      <c r="H50" s="5">
+        <v>100</v>
+      </c>
+      <c r="I50" s="6">
         <v>480</v>
       </c>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" s="6">
-        <v>1</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="J50" s="6">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="4">
         <v>49</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>105</v>
-      </c>
-      <c r="D51" s="5">
-        <v>100</v>
-      </c>
-      <c r="E51" s="6">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="5">
+        <v>5</v>
+      </c>
+      <c r="H51" s="5">
+        <v>100</v>
+      </c>
+      <c r="I51" s="6">
         <v>490</v>
       </c>
-      <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="6">
-        <v>1</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="J51" s="6">
+        <v>1</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="4">
         <v>50</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="D52" s="5">
-        <v>100</v>
-      </c>
-      <c r="E52" s="6">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s" s="5">
+        <v>143</v>
+      </c>
+      <c r="E52" t="s" s="5">
+        <v>143</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="5">
+        <v>5</v>
+      </c>
+      <c r="H52" s="5">
+        <v>100</v>
+      </c>
+      <c r="I52" s="6">
         <v>500</v>
       </c>
-      <c r="F52" s="6">
-        <v>1</v>
-      </c>
-      <c r="G52" s="6">
-        <v>1</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="J52" s="6">
+        <v>1</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="4">
         <v>51</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="D53" s="5">
-        <v>100</v>
-      </c>
-      <c r="E53" s="6">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="E53" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="5">
+        <v>5</v>
+      </c>
+      <c r="H53" s="5">
+        <v>100</v>
+      </c>
+      <c r="I53" s="6">
         <v>510</v>
       </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6">
-        <v>1</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="J53" s="6">
+        <v>1</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" s="4">
         <v>52</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>111</v>
-      </c>
-      <c r="D54" s="5">
-        <v>100</v>
-      </c>
-      <c r="E54" s="6">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s" s="5">
+        <v>148</v>
+      </c>
+      <c r="E54" t="s" s="5">
+        <v>149</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H54" s="5">
+        <v>100</v>
+      </c>
+      <c r="I54" s="6">
         <v>520</v>
       </c>
-      <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="G54" s="6">
-        <v>1</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="J54" s="6">
+        <v>1</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1</v>
+      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" s="4">
         <v>53</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>113</v>
-      </c>
-      <c r="D55" s="5">
-        <v>100</v>
-      </c>
-      <c r="E55" s="6">
+        <v>147</v>
+      </c>
+      <c r="D55" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="E55" t="s" s="5">
+        <v>152</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H55" s="5">
+        <v>100</v>
+      </c>
+      <c r="I55" s="6">
         <v>530</v>
       </c>
-      <c r="F55" s="6">
-        <v>1</v>
-      </c>
-      <c r="G55" s="6">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="J55" s="6">
+        <v>1</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" s="4">
         <v>54</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>115</v>
-      </c>
-      <c r="D56" s="5">
-        <v>100</v>
-      </c>
-      <c r="E56" s="6">
+        <v>147</v>
+      </c>
+      <c r="D56" t="s" s="5">
+        <v>154</v>
+      </c>
+      <c r="E56" t="s" s="5">
+        <v>155</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H56" s="5">
+        <v>100</v>
+      </c>
+      <c r="I56" s="6">
         <v>540</v>
       </c>
-      <c r="F56" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" s="6">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="J56" s="6">
+        <v>1</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" s="4">
         <v>55</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>117</v>
-      </c>
-      <c r="D57" s="5">
-        <v>100</v>
-      </c>
-      <c r="E57" s="6">
+        <v>147</v>
+      </c>
+      <c r="D57" t="s" s="5">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s" s="5">
+        <v>158</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H57" s="5">
+        <v>100</v>
+      </c>
+      <c r="I57" s="6">
         <v>550</v>
       </c>
-      <c r="F57" s="6">
-        <v>1</v>
-      </c>
-      <c r="G57" s="6">
-        <v>1</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="J57" s="6">
+        <v>1</v>
+      </c>
+      <c r="K57" s="6">
+        <v>1</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" s="4">
         <v>56</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>119</v>
-      </c>
-      <c r="D58" s="5">
-        <v>100</v>
-      </c>
-      <c r="E58" s="6">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s" s="5">
+        <v>160</v>
+      </c>
+      <c r="E58" t="s" s="5">
+        <v>161</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H58" s="5">
+        <v>100</v>
+      </c>
+      <c r="I58" s="6">
         <v>560</v>
       </c>
-      <c r="F58" s="6">
-        <v>1</v>
-      </c>
-      <c r="G58" s="6">
-        <v>1</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="J58" s="6">
+        <v>1</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1</v>
+      </c>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" s="4">
         <v>57</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>121</v>
-      </c>
-      <c r="D59" s="5">
-        <v>100</v>
-      </c>
-      <c r="E59" s="6">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s" s="5">
+        <v>163</v>
+      </c>
+      <c r="E59" t="s" s="5">
+        <v>163</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H59" s="5">
+        <v>100</v>
+      </c>
+      <c r="I59" s="6">
         <v>570</v>
       </c>
-      <c r="F59" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" s="6">
-        <v>1</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" s="4">
         <v>58</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>123</v>
-      </c>
-      <c r="D60" s="5">
-        <v>100</v>
-      </c>
-      <c r="E60" s="6">
+        <v>147</v>
+      </c>
+      <c r="D60" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="E60" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H60" s="5">
+        <v>100</v>
+      </c>
+      <c r="I60" s="6">
         <v>580</v>
       </c>
-      <c r="F60" s="6">
-        <v>1</v>
-      </c>
-      <c r="G60" s="6">
-        <v>1</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="J60" s="6">
+        <v>1</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" s="4">
         <v>59</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>125</v>
-      </c>
-      <c r="D61" s="5">
-        <v>100</v>
-      </c>
-      <c r="E61" s="6">
+        <v>147</v>
+      </c>
+      <c r="D61" t="s" s="5">
+        <v>167</v>
+      </c>
+      <c r="E61" t="s" s="5">
+        <v>168</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H61" s="5">
+        <v>100</v>
+      </c>
+      <c r="I61" s="6">
         <v>590</v>
       </c>
-      <c r="F61" s="6">
-        <v>1</v>
-      </c>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="J61" s="6">
+        <v>1</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" s="4">
         <v>60</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="D62" s="5">
-        <v>100</v>
-      </c>
-      <c r="E62" s="6">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s" s="5">
+        <v>170</v>
+      </c>
+      <c r="E62" t="s" s="5">
+        <v>170</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H62" s="5">
+        <v>100</v>
+      </c>
+      <c r="I62" s="6">
         <v>600</v>
       </c>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="6">
-        <v>1</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="J62" s="6">
+        <v>1</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1</v>
+      </c>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" s="4">
         <v>61</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>129</v>
-      </c>
-      <c r="D63" s="5">
-        <v>100</v>
-      </c>
-      <c r="E63" s="6">
+        <v>147</v>
+      </c>
+      <c r="D63" t="s" s="5">
+        <v>172</v>
+      </c>
+      <c r="E63" t="s" s="5">
+        <v>172</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="5">
+        <v>3</v>
+      </c>
+      <c r="H63" s="5">
+        <v>100</v>
+      </c>
+      <c r="I63" s="6">
         <v>610</v>
       </c>
-      <c r="F63" s="6">
-        <v>1</v>
-      </c>
-      <c r="G63" s="6">
-        <v>1</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="J63" s="6">
+        <v>1</v>
+      </c>
+      <c r="K63" s="6">
+        <v>1</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" s="4">
         <v>62</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>131</v>
-      </c>
-      <c r="D64" s="5">
-        <v>100</v>
-      </c>
-      <c r="E64" s="6">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="E64" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="5">
+        <v>3</v>
+      </c>
+      <c r="H64" s="5">
+        <v>100</v>
+      </c>
+      <c r="I64" s="6">
         <v>620</v>
       </c>
-      <c r="F64" s="6">
-        <v>1</v>
-      </c>
-      <c r="G64" s="6">
-        <v>1</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="J64" s="6">
+        <v>1</v>
+      </c>
+      <c r="K64" s="6">
+        <v>1</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" s="4">
         <v>63</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>133</v>
-      </c>
-      <c r="D65" s="5">
-        <v>100</v>
-      </c>
-      <c r="E65" s="6">
+        <v>147</v>
+      </c>
+      <c r="D65" t="s" s="5">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s" s="5">
+        <v>176</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="5">
+        <v>4</v>
+      </c>
+      <c r="H65" s="5">
+        <v>100</v>
+      </c>
+      <c r="I65" s="6">
         <v>630</v>
       </c>
-      <c r="F65" s="6">
-        <v>1</v>
-      </c>
-      <c r="G65" s="6">
-        <v>1</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1</v>
+      </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" s="4">
         <v>64</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>135</v>
-      </c>
-      <c r="D66" s="5">
-        <v>100</v>
-      </c>
-      <c r="E66" s="6">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s" s="5">
+        <v>178</v>
+      </c>
+      <c r="E66" t="s" s="5">
+        <v>178</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="5">
+        <v>2</v>
+      </c>
+      <c r="H66" s="5">
+        <v>100</v>
+      </c>
+      <c r="I66" s="6">
         <v>640</v>
       </c>
-      <c r="F66" s="6">
-        <v>1</v>
-      </c>
-      <c r="G66" s="6">
-        <v>1</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="J66" s="6">
+        <v>1</v>
+      </c>
+      <c r="K66" s="6">
+        <v>1</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" s="4">
         <v>65</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>137</v>
-      </c>
-      <c r="D67" s="5">
-        <v>100</v>
-      </c>
-      <c r="E67" s="6">
+        <v>147</v>
+      </c>
+      <c r="D67" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="E67" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="5">
+        <v>2</v>
+      </c>
+      <c r="H67" s="5">
+        <v>100</v>
+      </c>
+      <c r="I67" s="6">
         <v>650</v>
       </c>
-      <c r="F67" s="6">
-        <v>1</v>
-      </c>
-      <c r="G67" s="6">
-        <v>1</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="J67" s="6">
+        <v>1</v>
+      </c>
+      <c r="K67" s="6">
+        <v>1</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" s="4">
         <v>66</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="D68" s="5">
-        <v>100</v>
-      </c>
-      <c r="E68" s="6">
+        <v>147</v>
+      </c>
+      <c r="D68" t="s" s="5">
+        <v>182</v>
+      </c>
+      <c r="E68" t="s" s="5">
+        <v>182</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="5">
+        <v>2</v>
+      </c>
+      <c r="H68" s="5">
+        <v>100</v>
+      </c>
+      <c r="I68" s="6">
         <v>660</v>
       </c>
-      <c r="F68" s="6">
-        <v>1</v>
-      </c>
-      <c r="G68" s="6">
-        <v>1</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="J68" s="6">
+        <v>1</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1</v>
+      </c>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" s="4">
         <v>67</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>141</v>
-      </c>
-      <c r="D69" s="5">
-        <v>100</v>
-      </c>
-      <c r="E69" s="6">
+        <v>147</v>
+      </c>
+      <c r="D69" t="s" s="5">
+        <v>184</v>
+      </c>
+      <c r="E69" t="s" s="5">
+        <v>184</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="5">
+        <v>3</v>
+      </c>
+      <c r="H69" s="5">
+        <v>100</v>
+      </c>
+      <c r="I69" s="6">
         <v>670</v>
       </c>
-      <c r="F69" s="6">
-        <v>1</v>
-      </c>
-      <c r="G69" s="6">
-        <v>1</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="J69" s="6">
+        <v>1</v>
+      </c>
+      <c r="K69" s="6">
+        <v>1</v>
+      </c>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" s="4">
         <v>68</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>143</v>
-      </c>
-      <c r="D70" s="5">
-        <v>100</v>
-      </c>
-      <c r="E70" s="6">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s" s="5">
+        <v>186</v>
+      </c>
+      <c r="E70" t="s" s="5">
+        <v>186</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="5">
+        <v>3</v>
+      </c>
+      <c r="H70" s="5">
+        <v>100</v>
+      </c>
+      <c r="I70" s="6">
         <v>680</v>
       </c>
-      <c r="F70" s="6">
-        <v>1</v>
-      </c>
-      <c r="G70" s="6">
-        <v>1</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="J70" s="6">
+        <v>1</v>
+      </c>
+      <c r="K70" s="6">
+        <v>1</v>
+      </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" s="4">
         <v>69</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>145</v>
-      </c>
-      <c r="D71" s="5">
-        <v>100</v>
-      </c>
-      <c r="E71" s="6">
+        <v>147</v>
+      </c>
+      <c r="D71" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="E71" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="5">
+        <v>3</v>
+      </c>
+      <c r="H71" s="5">
+        <v>100</v>
+      </c>
+      <c r="I71" s="6">
         <v>690</v>
       </c>
-      <c r="F71" s="6">
-        <v>1</v>
-      </c>
-      <c r="G71" s="6">
-        <v>1</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="J71" s="6">
+        <v>1</v>
+      </c>
+      <c r="K71" s="6">
+        <v>1</v>
+      </c>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" s="4">
         <v>70</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s" s="5">
         <v>147</v>
       </c>
-      <c r="D72" s="5">
-        <v>100</v>
-      </c>
-      <c r="E72" s="6">
+      <c r="D72" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="E72" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="5">
+        <v>3</v>
+      </c>
+      <c r="H72" s="5">
+        <v>100</v>
+      </c>
+      <c r="I72" s="6">
         <v>700</v>
       </c>
-      <c r="F72" s="6">
-        <v>1</v>
-      </c>
-      <c r="G72" s="6">
-        <v>1</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="J72" s="6">
+        <v>1</v>
+      </c>
+      <c r="K72" s="6">
+        <v>1</v>
+      </c>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" s="4">
         <v>71</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="D73" s="5">
-        <v>100</v>
-      </c>
-      <c r="E73" s="6">
+        <v>147</v>
+      </c>
+      <c r="D73" t="s" s="5">
+        <v>192</v>
+      </c>
+      <c r="E73" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H73" s="5">
+        <v>100</v>
+      </c>
+      <c r="I73" s="6">
         <v>710</v>
       </c>
-      <c r="F73" s="6">
-        <v>1</v>
-      </c>
-      <c r="G73" s="6">
-        <v>1</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="J73" s="6">
+        <v>1</v>
+      </c>
+      <c r="K73" s="6">
+        <v>1</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" s="4">
         <v>72</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>151</v>
-      </c>
-      <c r="D74" s="5">
-        <v>100</v>
-      </c>
-      <c r="E74" s="6">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="E74" t="s" s="5">
+        <v>196</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H74" s="5">
+        <v>100</v>
+      </c>
+      <c r="I74" s="6">
         <v>720</v>
       </c>
-      <c r="F74" s="6">
-        <v>1</v>
-      </c>
-      <c r="G74" s="6">
-        <v>1</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="J74" s="6">
+        <v>1</v>
+      </c>
+      <c r="K74" s="6">
+        <v>1</v>
+      </c>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" s="4">
         <v>73</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>153</v>
-      </c>
-      <c r="D75" s="5">
-        <v>100</v>
-      </c>
-      <c r="E75" s="6">
+        <v>147</v>
+      </c>
+      <c r="D75" t="s" s="5">
+        <v>198</v>
+      </c>
+      <c r="E75" t="s" s="5">
+        <v>199</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H75" s="5">
+        <v>100</v>
+      </c>
+      <c r="I75" s="6">
         <v>730</v>
       </c>
-      <c r="F75" s="6">
-        <v>1</v>
-      </c>
-      <c r="G75" s="6">
-        <v>1</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+      <c r="J75" s="6">
+        <v>1</v>
+      </c>
+      <c r="K75" s="6">
+        <v>1</v>
+      </c>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" s="4">
         <v>74</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>155</v>
-      </c>
-      <c r="D76" s="5">
-        <v>100</v>
-      </c>
-      <c r="E76" s="6">
+        <v>147</v>
+      </c>
+      <c r="D76" t="s" s="5">
+        <v>201</v>
+      </c>
+      <c r="E76" t="s" s="5">
+        <v>202</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H76" s="5">
+        <v>100</v>
+      </c>
+      <c r="I76" s="6">
         <v>740</v>
       </c>
-      <c r="F76" s="6">
-        <v>1</v>
-      </c>
-      <c r="G76" s="6">
-        <v>1</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
+      <c r="J76" s="6">
+        <v>1</v>
+      </c>
+      <c r="K76" s="6">
+        <v>1</v>
+      </c>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" s="4">
         <v>75</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>157</v>
-      </c>
-      <c r="D77" s="5">
-        <v>100</v>
-      </c>
-      <c r="E77" s="6">
+        <v>147</v>
+      </c>
+      <c r="D77" t="s" s="5">
+        <v>204</v>
+      </c>
+      <c r="E77" t="s" s="5">
+        <v>204</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H77" s="5">
+        <v>100</v>
+      </c>
+      <c r="I77" s="6">
         <v>750</v>
       </c>
-      <c r="F77" s="6">
-        <v>1</v>
-      </c>
-      <c r="G77" s="6">
-        <v>1</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
+      <c r="J77" s="6">
+        <v>1</v>
+      </c>
+      <c r="K77" s="6">
+        <v>1</v>
+      </c>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" s="4">
         <v>76</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>159</v>
-      </c>
-      <c r="D78" s="5">
-        <v>100</v>
-      </c>
-      <c r="E78" s="6">
+        <v>147</v>
+      </c>
+      <c r="D78" t="s" s="5">
+        <v>206</v>
+      </c>
+      <c r="E78" t="s" s="5">
+        <v>206</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H78" s="5">
+        <v>100</v>
+      </c>
+      <c r="I78" s="6">
         <v>760</v>
       </c>
-      <c r="F78" s="6">
-        <v>1</v>
-      </c>
-      <c r="G78" s="6">
-        <v>1</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
+      <c r="J78" s="6">
+        <v>1</v>
+      </c>
+      <c r="K78" s="6">
+        <v>1</v>
+      </c>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" s="4">
         <v>77</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>161</v>
-      </c>
-      <c r="D79" s="5">
-        <v>100</v>
-      </c>
-      <c r="E79" s="6">
+        <v>147</v>
+      </c>
+      <c r="D79" t="s" s="5">
+        <v>208</v>
+      </c>
+      <c r="E79" t="s" s="5">
+        <v>208</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H79" s="5">
+        <v>100</v>
+      </c>
+      <c r="I79" s="6">
         <v>770</v>
       </c>
-      <c r="F79" s="6">
-        <v>1</v>
-      </c>
-      <c r="G79" s="6">
-        <v>1</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="J79" s="6">
+        <v>1</v>
+      </c>
+      <c r="K79" s="6">
+        <v>1</v>
+      </c>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" s="4">
         <v>78</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>163</v>
-      </c>
-      <c r="D80" s="5">
-        <v>100</v>
-      </c>
-      <c r="E80" s="6">
+        <v>147</v>
+      </c>
+      <c r="D80" t="s" s="5">
+        <v>210</v>
+      </c>
+      <c r="E80" t="s" s="5">
+        <v>210</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H80" s="5">
+        <v>100</v>
+      </c>
+      <c r="I80" s="6">
         <v>780</v>
       </c>
-      <c r="F80" s="6">
-        <v>1</v>
-      </c>
-      <c r="G80" s="6">
-        <v>1</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+      <c r="J80" s="6">
+        <v>1</v>
+      </c>
+      <c r="K80" s="6">
+        <v>1</v>
+      </c>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" s="4">
         <v>79</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>165</v>
-      </c>
-      <c r="D81" s="5">
-        <v>100</v>
-      </c>
-      <c r="E81" s="6">
+        <v>147</v>
+      </c>
+      <c r="D81" t="s" s="5">
+        <v>212</v>
+      </c>
+      <c r="E81" t="s" s="5">
+        <v>212</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="5">
+        <v>2</v>
+      </c>
+      <c r="H81" s="5">
+        <v>100</v>
+      </c>
+      <c r="I81" s="6">
         <v>790</v>
       </c>
-      <c r="F81" s="6">
-        <v>1</v>
-      </c>
-      <c r="G81" s="6">
-        <v>1</v>
-      </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
+      <c r="J81" s="6">
+        <v>1</v>
+      </c>
+      <c r="K81" s="6">
+        <v>1</v>
+      </c>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" s="4">
         <v>80</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>167</v>
-      </c>
-      <c r="D82" s="5">
-        <v>100</v>
-      </c>
-      <c r="E82" s="6">
+        <v>147</v>
+      </c>
+      <c r="D82" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="E82" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="5">
+        <v>1</v>
+      </c>
+      <c r="H82" s="5">
+        <v>100</v>
+      </c>
+      <c r="I82" s="6">
         <v>800</v>
       </c>
-      <c r="F82" s="6">
-        <v>1</v>
-      </c>
-      <c r="G82" s="6">
-        <v>1</v>
-      </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
+      <c r="J82" s="6">
+        <v>1</v>
+      </c>
+      <c r="K82" s="6">
+        <v>1</v>
+      </c>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" s="4">
         <v>81</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>169</v>
-      </c>
-      <c r="D83" s="5">
-        <v>100</v>
-      </c>
-      <c r="E83" s="6">
+        <v>147</v>
+      </c>
+      <c r="D83" t="s" s="5">
+        <v>216</v>
+      </c>
+      <c r="E83" t="s" s="5">
+        <v>216</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="5">
+        <v>2</v>
+      </c>
+      <c r="H83" s="5">
+        <v>100</v>
+      </c>
+      <c r="I83" s="6">
         <v>810</v>
       </c>
-      <c r="F83" s="6">
-        <v>1</v>
-      </c>
-      <c r="G83" s="6">
-        <v>1</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+      <c r="J83" s="6">
+        <v>1</v>
+      </c>
+      <c r="K83" s="6">
+        <v>1</v>
+      </c>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" s="4">
         <v>82</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>171</v>
-      </c>
-      <c r="D84" s="5">
-        <v>100</v>
-      </c>
-      <c r="E84" s="6">
+        <v>147</v>
+      </c>
+      <c r="D84" t="s" s="5">
+        <v>218</v>
+      </c>
+      <c r="E84" t="s" s="5">
+        <v>218</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="5">
+        <v>2</v>
+      </c>
+      <c r="H84" s="5">
+        <v>100</v>
+      </c>
+      <c r="I84" s="6">
         <v>820</v>
       </c>
-      <c r="F84" s="6">
-        <v>1</v>
-      </c>
-      <c r="G84" s="6">
-        <v>1</v>
-      </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
+      <c r="J84" s="6">
+        <v>1</v>
+      </c>
+      <c r="K84" s="6">
+        <v>1</v>
+      </c>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" s="4">
         <v>83</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>173</v>
-      </c>
-      <c r="D85" s="5">
-        <v>100</v>
-      </c>
-      <c r="E85" s="6">
+        <v>147</v>
+      </c>
+      <c r="D85" t="s" s="5">
+        <v>220</v>
+      </c>
+      <c r="E85" t="s" s="5">
+        <v>220</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="5">
+        <v>3</v>
+      </c>
+      <c r="H85" s="5">
+        <v>100</v>
+      </c>
+      <c r="I85" s="6">
         <v>830</v>
       </c>
-      <c r="F85" s="6">
-        <v>1</v>
-      </c>
-      <c r="G85" s="6">
-        <v>1</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+      <c r="J85" s="6">
+        <v>1</v>
+      </c>
+      <c r="K85" s="6">
+        <v>1</v>
+      </c>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" s="4">
         <v>84</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>175</v>
-      </c>
-      <c r="D86" s="5">
-        <v>100</v>
-      </c>
-      <c r="E86" s="6">
+        <v>147</v>
+      </c>
+      <c r="D86" t="s" s="5">
+        <v>222</v>
+      </c>
+      <c r="E86" t="s" s="5">
+        <v>222</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H86" s="5">
+        <v>100</v>
+      </c>
+      <c r="I86" s="6">
         <v>840</v>
       </c>
-      <c r="F86" s="6">
-        <v>1</v>
-      </c>
-      <c r="G86" s="6">
-        <v>1</v>
-      </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
+      <c r="J86" s="6">
+        <v>1</v>
+      </c>
+      <c r="K86" s="6">
+        <v>1</v>
+      </c>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" s="4">
         <v>85</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="D87" s="5">
-        <v>100</v>
-      </c>
-      <c r="E87" s="6">
+        <v>147</v>
+      </c>
+      <c r="D87" t="s" s="5">
+        <v>224</v>
+      </c>
+      <c r="E87" t="s" s="5">
+        <v>224</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H87" s="5">
+        <v>100</v>
+      </c>
+      <c r="I87" s="6">
         <v>850</v>
       </c>
-      <c r="F87" s="6">
-        <v>1</v>
-      </c>
-      <c r="G87" s="6">
-        <v>1</v>
-      </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
+      <c r="J87" s="6">
+        <v>1</v>
+      </c>
+      <c r="K87" s="6">
+        <v>1</v>
+      </c>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" s="4">
         <v>86</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>179</v>
-      </c>
-      <c r="D88" s="5">
-        <v>100</v>
-      </c>
-      <c r="E88" s="6">
+        <v>147</v>
+      </c>
+      <c r="D88" t="s" s="5">
+        <v>226</v>
+      </c>
+      <c r="E88" t="s" s="5">
+        <v>226</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="5">
+        <v>1</v>
+      </c>
+      <c r="H88" s="5">
+        <v>100</v>
+      </c>
+      <c r="I88" s="6">
         <v>860</v>
       </c>
-      <c r="F88" s="6">
-        <v>1</v>
-      </c>
-      <c r="G88" s="6">
-        <v>1</v>
-      </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
+      <c r="J88" s="6">
+        <v>1</v>
+      </c>
+      <c r="K88" s="6">
+        <v>1</v>
+      </c>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" s="4">
         <v>87</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>181</v>
-      </c>
-      <c r="D89" s="5">
-        <v>100</v>
-      </c>
-      <c r="E89" s="6">
+        <v>228</v>
+      </c>
+      <c r="D89" t="s" s="5">
+        <v>229</v>
+      </c>
+      <c r="E89" t="s" s="5">
+        <v>230</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="5">
+        <v>2</v>
+      </c>
+      <c r="H89" s="5">
+        <v>100</v>
+      </c>
+      <c r="I89" s="6">
         <v>870</v>
       </c>
-      <c r="F89" s="6">
-        <v>1</v>
-      </c>
-      <c r="G89" s="6">
-        <v>1</v>
-      </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+      <c r="J89" s="6">
+        <v>1</v>
+      </c>
+      <c r="K89" s="6">
+        <v>1</v>
+      </c>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" s="4">
         <v>88</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>183</v>
-      </c>
-      <c r="D90" s="5">
-        <v>100</v>
-      </c>
-      <c r="E90" s="6">
+        <v>228</v>
+      </c>
+      <c r="D90" t="s" s="5">
+        <v>230</v>
+      </c>
+      <c r="E90" t="s" s="5">
+        <v>232</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="5">
+        <v>2</v>
+      </c>
+      <c r="H90" s="5">
+        <v>100</v>
+      </c>
+      <c r="I90" s="6">
         <v>880</v>
       </c>
-      <c r="F90" s="6">
-        <v>1</v>
-      </c>
-      <c r="G90" s="6">
-        <v>1</v>
-      </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
+      <c r="J90" s="6">
+        <v>1</v>
+      </c>
+      <c r="K90" s="6">
+        <v>1</v>
+      </c>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" s="4">
         <v>89</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>185</v>
-      </c>
-      <c r="D91" s="5">
-        <v>100</v>
-      </c>
-      <c r="E91" s="6">
+        <v>228</v>
+      </c>
+      <c r="D91" t="s" s="5">
+        <v>234</v>
+      </c>
+      <c r="E91" t="s" s="5">
+        <v>234</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H91" s="5">
+        <v>100</v>
+      </c>
+      <c r="I91" s="6">
         <v>890</v>
       </c>
-      <c r="F91" s="6">
-        <v>1</v>
-      </c>
-      <c r="G91" s="6">
-        <v>1</v>
-      </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
+      <c r="J91" s="6">
+        <v>1</v>
+      </c>
+      <c r="K91" s="6">
+        <v>1</v>
+      </c>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" s="4">
         <v>90</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>187</v>
-      </c>
-      <c r="D92" s="5">
-        <v>100</v>
-      </c>
-      <c r="E92" s="6">
+        <v>228</v>
+      </c>
+      <c r="D92" t="s" s="5">
+        <v>236</v>
+      </c>
+      <c r="E92" t="s" s="5">
+        <v>236</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H92" s="5">
+        <v>100</v>
+      </c>
+      <c r="I92" s="6">
         <v>900</v>
       </c>
-      <c r="F92" s="6">
-        <v>1</v>
-      </c>
-      <c r="G92" s="6">
-        <v>1</v>
-      </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
+      <c r="J92" s="6">
+        <v>1</v>
+      </c>
+      <c r="K92" s="6">
+        <v>1</v>
+      </c>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" s="4">
         <v>91</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="D93" s="5">
-        <v>100</v>
-      </c>
-      <c r="E93" s="6">
+        <v>228</v>
+      </c>
+      <c r="D93" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="E93" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="5">
+        <v>4</v>
+      </c>
+      <c r="H93" s="5">
+        <v>100</v>
+      </c>
+      <c r="I93" s="6">
         <v>910</v>
       </c>
-      <c r="F93" s="6">
-        <v>1</v>
-      </c>
-      <c r="G93" s="6">
-        <v>1</v>
-      </c>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
+      <c r="J93" s="6">
+        <v>1</v>
+      </c>
+      <c r="K93" s="6">
+        <v>1</v>
+      </c>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" s="4">
         <v>92</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>191</v>
-      </c>
-      <c r="D94" s="5">
-        <v>100</v>
-      </c>
-      <c r="E94" s="6">
+        <v>228</v>
+      </c>
+      <c r="D94" t="s" s="5">
+        <v>240</v>
+      </c>
+      <c r="E94" t="s" s="5">
+        <v>240</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="5">
+        <v>3</v>
+      </c>
+      <c r="H94" s="5">
+        <v>100</v>
+      </c>
+      <c r="I94" s="6">
         <v>920</v>
       </c>
-      <c r="F94" s="6">
-        <v>1</v>
-      </c>
-      <c r="G94" s="6">
-        <v>1</v>
-      </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+      <c r="J94" s="6">
+        <v>1</v>
+      </c>
+      <c r="K94" s="6">
+        <v>1</v>
+      </c>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" s="4">
         <v>93</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>193</v>
-      </c>
-      <c r="D95" s="5">
-        <v>100</v>
-      </c>
-      <c r="E95" s="6">
+        <v>242</v>
+      </c>
+      <c r="D95" t="s" s="5">
+        <v>243</v>
+      </c>
+      <c r="E95" t="s" s="5">
+        <v>243</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="5">
+        <v>2</v>
+      </c>
+      <c r="H95" s="5">
+        <v>100</v>
+      </c>
+      <c r="I95" s="6">
         <v>930</v>
       </c>
-      <c r="F95" s="6">
-        <v>1</v>
-      </c>
-      <c r="G95" s="6">
-        <v>1</v>
-      </c>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
+      <c r="J95" s="6">
+        <v>1</v>
+      </c>
+      <c r="K95" s="6">
+        <v>1</v>
+      </c>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" s="4">
         <v>94</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>195</v>
-      </c>
-      <c r="D96" s="5">
-        <v>100</v>
-      </c>
-      <c r="E96" s="6">
+        <v>242</v>
+      </c>
+      <c r="D96" t="s" s="5">
+        <v>245</v>
+      </c>
+      <c r="E96" t="s" s="5">
+        <v>245</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H96" s="5">
+        <v>100</v>
+      </c>
+      <c r="I96" s="6">
         <v>940</v>
       </c>
-      <c r="F96" s="6">
-        <v>1</v>
-      </c>
-      <c r="G96" s="6">
-        <v>1</v>
-      </c>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
+      <c r="J96" s="6">
+        <v>1</v>
+      </c>
+      <c r="K96" s="6">
+        <v>1</v>
+      </c>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" s="4">
         <v>95</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>197</v>
-      </c>
-      <c r="D97" s="5">
-        <v>100</v>
-      </c>
-      <c r="E97" s="6">
+        <v>247</v>
+      </c>
+      <c r="D97" t="s" s="5">
+        <v>248</v>
+      </c>
+      <c r="E97" t="s" s="5">
+        <v>248</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="5">
+        <v>3</v>
+      </c>
+      <c r="H97" s="5">
+        <v>100</v>
+      </c>
+      <c r="I97" s="6">
         <v>950</v>
       </c>
-      <c r="F97" s="6">
-        <v>1</v>
-      </c>
-      <c r="G97" s="6">
-        <v>1</v>
-      </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
+      <c r="J97" s="6">
+        <v>1</v>
+      </c>
+      <c r="K97" s="6">
+        <v>1</v>
+      </c>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98" s="4">
         <v>96</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>199</v>
-      </c>
-      <c r="D98" s="5">
-        <v>100</v>
-      </c>
-      <c r="E98" s="6">
+        <v>247</v>
+      </c>
+      <c r="D98" t="s" s="5">
+        <v>250</v>
+      </c>
+      <c r="E98" t="s" s="5">
+        <v>250</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="5">
+        <v>4</v>
+      </c>
+      <c r="H98" s="5">
+        <v>100</v>
+      </c>
+      <c r="I98" s="6">
         <v>960</v>
       </c>
-      <c r="F98" s="6">
-        <v>1</v>
-      </c>
-      <c r="G98" s="6">
-        <v>1</v>
-      </c>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
+      <c r="J98" s="6">
+        <v>1</v>
+      </c>
+      <c r="K98" s="6">
+        <v>1</v>
+      </c>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99" s="4">
         <v>97</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>201</v>
-      </c>
-      <c r="D99" s="5">
-        <v>100</v>
-      </c>
-      <c r="E99" s="6">
+        <v>247</v>
+      </c>
+      <c r="D99" t="s" s="5">
+        <v>252</v>
+      </c>
+      <c r="E99" t="s" s="5">
+        <v>252</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="5">
+        <v>4</v>
+      </c>
+      <c r="H99" s="5">
+        <v>100</v>
+      </c>
+      <c r="I99" s="6">
         <v>970</v>
       </c>
-      <c r="F99" s="6">
-        <v>1</v>
-      </c>
-      <c r="G99" s="6">
-        <v>1</v>
-      </c>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
+      <c r="J99" s="6">
+        <v>1</v>
+      </c>
+      <c r="K99" s="6">
+        <v>1</v>
+      </c>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
     </row>
     <row r="100" ht="20" customHeight="1">
       <c r="A100" s="4">
         <v>98</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>203</v>
-      </c>
-      <c r="D100" s="5">
-        <v>100</v>
-      </c>
-      <c r="E100" s="6">
+        <v>247</v>
+      </c>
+      <c r="D100" t="s" s="5">
+        <v>254</v>
+      </c>
+      <c r="E100" t="s" s="5">
+        <v>254</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="5">
+        <v>2</v>
+      </c>
+      <c r="H100" s="5">
+        <v>100</v>
+      </c>
+      <c r="I100" s="6">
         <v>980</v>
       </c>
-      <c r="F100" s="6">
-        <v>1</v>
-      </c>
-      <c r="G100" s="6">
-        <v>1</v>
-      </c>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
+      <c r="J100" s="6">
+        <v>1</v>
+      </c>
+      <c r="K100" s="6">
+        <v>1</v>
+      </c>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
     </row>
     <row r="101" ht="20" customHeight="1">
       <c r="A101" s="4">
         <v>99</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>205</v>
-      </c>
-      <c r="D101" s="5">
-        <v>100</v>
-      </c>
-      <c r="E101" s="6">
+        <v>247</v>
+      </c>
+      <c r="D101" t="s" s="5">
+        <v>256</v>
+      </c>
+      <c r="E101" t="s" s="5">
+        <v>256</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="5">
+        <v>3</v>
+      </c>
+      <c r="H101" s="5">
+        <v>100</v>
+      </c>
+      <c r="I101" s="6">
         <v>990</v>
       </c>
-      <c r="F101" s="6">
-        <v>1</v>
-      </c>
-      <c r="G101" s="6">
-        <v>1</v>
-      </c>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
+      <c r="J101" s="6">
+        <v>1</v>
+      </c>
+      <c r="K101" s="6">
+        <v>1</v>
+      </c>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
     </row>
     <row r="102" ht="20" customHeight="1">
       <c r="A102" s="4">
         <v>100</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>207</v>
-      </c>
-      <c r="D102" s="5">
-        <v>100</v>
-      </c>
-      <c r="E102" s="6">
+        <v>247</v>
+      </c>
+      <c r="D102" t="s" s="5">
+        <v>258</v>
+      </c>
+      <c r="E102" t="s" s="5">
+        <v>258</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="5">
+        <v>3</v>
+      </c>
+      <c r="H102" s="5">
+        <v>100</v>
+      </c>
+      <c r="I102" s="6">
         <v>1000</v>
       </c>
-      <c r="F102" s="6">
-        <v>1</v>
-      </c>
-      <c r="G102" s="6">
-        <v>1</v>
-      </c>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
+      <c r="J102" s="6">
+        <v>1</v>
+      </c>
+      <c r="K102" s="6">
+        <v>1</v>
+      </c>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
     </row>
     <row r="103" ht="20" customHeight="1">
       <c r="A103" s="4">
         <v>101</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>209</v>
-      </c>
-      <c r="D103" s="5">
-        <v>100</v>
-      </c>
-      <c r="E103" s="6">
+        <v>247</v>
+      </c>
+      <c r="D103" t="s" s="5">
+        <v>260</v>
+      </c>
+      <c r="E103" t="s" s="5">
+        <v>261</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="5">
+        <v>4</v>
+      </c>
+      <c r="H103" s="5">
+        <v>100</v>
+      </c>
+      <c r="I103" s="6">
         <v>1010</v>
       </c>
-      <c r="F103" s="6">
-        <v>1</v>
-      </c>
-      <c r="G103" s="6">
-        <v>1</v>
-      </c>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
+      <c r="J103" s="6">
+        <v>1</v>
+      </c>
+      <c r="K103" s="6">
+        <v>1</v>
+      </c>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
     </row>
     <row r="104" ht="20" customHeight="1">
       <c r="A104" s="4">
         <v>102</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>211</v>
-      </c>
-      <c r="D104" s="5">
-        <v>100</v>
-      </c>
-      <c r="E104" s="6">
+        <v>247</v>
+      </c>
+      <c r="D104" t="s" s="5">
+        <v>263</v>
+      </c>
+      <c r="E104" t="s" s="5">
+        <v>264</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="5">
+        <v>4</v>
+      </c>
+      <c r="H104" s="5">
+        <v>100</v>
+      </c>
+      <c r="I104" s="6">
         <v>1020</v>
       </c>
-      <c r="F104" s="6">
-        <v>1</v>
-      </c>
-      <c r="G104" s="6">
-        <v>1</v>
-      </c>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
+      <c r="J104" s="6">
+        <v>1</v>
+      </c>
+      <c r="K104" s="6">
+        <v>1</v>
+      </c>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
     </row>
     <row r="105" ht="20" customHeight="1">
       <c r="A105" s="4">
         <v>103</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>213</v>
-      </c>
-      <c r="D105" s="5">
-        <v>100</v>
-      </c>
-      <c r="E105" s="6">
+        <v>247</v>
+      </c>
+      <c r="D105" t="s" s="5">
+        <v>266</v>
+      </c>
+      <c r="E105" t="s" s="5">
+        <v>266</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="5">
+        <v>2</v>
+      </c>
+      <c r="H105" s="5">
+        <v>100</v>
+      </c>
+      <c r="I105" s="6">
         <v>1030</v>
       </c>
-      <c r="F105" s="6">
-        <v>1</v>
-      </c>
-      <c r="G105" s="6">
-        <v>1</v>
-      </c>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
+      <c r="J105" s="6">
+        <v>1</v>
+      </c>
+      <c r="K105" s="6">
+        <v>1</v>
+      </c>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
     </row>
     <row r="106" ht="20" customHeight="1">
       <c r="A106" s="4">
         <v>104</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>215</v>
-      </c>
-      <c r="D106" s="5">
-        <v>100</v>
-      </c>
-      <c r="E106" s="6">
+        <v>247</v>
+      </c>
+      <c r="D106" t="s" s="5">
+        <v>268</v>
+      </c>
+      <c r="E106" t="s" s="5">
+        <v>268</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="5">
+        <v>2</v>
+      </c>
+      <c r="H106" s="5">
+        <v>100</v>
+      </c>
+      <c r="I106" s="6">
         <v>1040</v>
       </c>
-      <c r="F106" s="6">
-        <v>1</v>
-      </c>
-      <c r="G106" s="6">
-        <v>1</v>
-      </c>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
+      <c r="J106" s="6">
+        <v>1</v>
+      </c>
+      <c r="K106" s="6">
+        <v>1</v>
+      </c>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
     </row>
     <row r="107" ht="20" customHeight="1">
       <c r="A107" s="4">
         <v>105</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>217</v>
-      </c>
-      <c r="D107" s="5">
-        <v>100</v>
-      </c>
-      <c r="E107" s="6">
+        <v>247</v>
+      </c>
+      <c r="D107" t="s" s="5">
+        <v>270</v>
+      </c>
+      <c r="E107" t="s" s="5">
+        <v>270</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H107" s="5">
+        <v>100</v>
+      </c>
+      <c r="I107" s="6">
         <v>1050</v>
       </c>
-      <c r="F107" s="6">
-        <v>1</v>
-      </c>
-      <c r="G107" s="6">
-        <v>1</v>
-      </c>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
+      <c r="J107" s="6">
+        <v>1</v>
+      </c>
+      <c r="K107" s="6">
+        <v>1</v>
+      </c>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
     </row>
     <row r="108" ht="20" customHeight="1">
       <c r="A108" s="4">
         <v>106</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>219</v>
-      </c>
-      <c r="D108" s="5">
-        <v>100</v>
-      </c>
-      <c r="E108" s="6">
+        <v>272</v>
+      </c>
+      <c r="D108" t="s" s="5">
+        <v>273</v>
+      </c>
+      <c r="E108" t="s" s="5">
+        <v>274</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H108" s="5">
+        <v>100</v>
+      </c>
+      <c r="I108" s="6">
         <v>1060</v>
       </c>
-      <c r="F108" s="6">
-        <v>1</v>
-      </c>
-      <c r="G108" s="6">
-        <v>1</v>
-      </c>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
+      <c r="J108" s="6">
+        <v>1</v>
+      </c>
+      <c r="K108" s="6">
+        <v>1</v>
+      </c>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109" s="4">
         <v>107</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>221</v>
-      </c>
-      <c r="D109" s="5">
-        <v>100</v>
-      </c>
-      <c r="E109" s="6">
+        <v>272</v>
+      </c>
+      <c r="D109" t="s" s="5">
+        <v>276</v>
+      </c>
+      <c r="E109" t="s" s="5">
+        <v>276</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="5">
+        <v>2</v>
+      </c>
+      <c r="H109" s="5">
+        <v>100</v>
+      </c>
+      <c r="I109" s="6">
         <v>1070</v>
       </c>
-      <c r="F109" s="6">
-        <v>1</v>
-      </c>
-      <c r="G109" s="6">
-        <v>1</v>
-      </c>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
+      <c r="J109" s="6">
+        <v>1</v>
+      </c>
+      <c r="K109" s="6">
+        <v>1</v>
+      </c>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" s="4">
         <v>108</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>223</v>
-      </c>
-      <c r="D110" s="5">
-        <v>100</v>
-      </c>
-      <c r="E110" s="6">
+        <v>272</v>
+      </c>
+      <c r="D110" t="s" s="5">
+        <v>278</v>
+      </c>
+      <c r="E110" t="s" s="5">
+        <v>278</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="5">
+        <v>2</v>
+      </c>
+      <c r="H110" s="5">
+        <v>100</v>
+      </c>
+      <c r="I110" s="6">
         <v>1080</v>
       </c>
-      <c r="F110" s="6">
-        <v>1</v>
-      </c>
-      <c r="G110" s="6">
-        <v>1</v>
-      </c>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
+      <c r="J110" s="6">
+        <v>1</v>
+      </c>
+      <c r="K110" s="6">
+        <v>1</v>
+      </c>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111" s="4">
         <v>109</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>225</v>
-      </c>
-      <c r="D111" s="5">
-        <v>100</v>
-      </c>
-      <c r="E111" s="6">
+        <v>272</v>
+      </c>
+      <c r="D111" t="s" s="5">
+        <v>280</v>
+      </c>
+      <c r="E111" t="s" s="5">
+        <v>280</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="5">
+        <v>2</v>
+      </c>
+      <c r="H111" s="5">
+        <v>100</v>
+      </c>
+      <c r="I111" s="6">
         <v>1090</v>
       </c>
-      <c r="F111" s="6">
-        <v>1</v>
-      </c>
-      <c r="G111" s="6">
-        <v>1</v>
-      </c>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
+      <c r="J111" s="6">
+        <v>1</v>
+      </c>
+      <c r="K111" s="6">
+        <v>1</v>
+      </c>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112" s="4">
         <v>110</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>227</v>
-      </c>
-      <c r="D112" s="5">
-        <v>100</v>
-      </c>
-      <c r="E112" s="6">
+        <v>272</v>
+      </c>
+      <c r="D112" t="s" s="5">
+        <v>282</v>
+      </c>
+      <c r="E112" t="s" s="5">
+        <v>282</v>
+      </c>
+      <c r="F112" s="7"/>
+      <c r="G112" s="5">
+        <v>1</v>
+      </c>
+      <c r="H112" s="5">
+        <v>100</v>
+      </c>
+      <c r="I112" s="6">
         <v>1100</v>
       </c>
-      <c r="F112" s="6">
-        <v>1</v>
-      </c>
-      <c r="G112" s="6">
-        <v>1</v>
-      </c>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
+      <c r="J112" s="6">
+        <v>1</v>
+      </c>
+      <c r="K112" s="6">
+        <v>1</v>
+      </c>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113" s="4">
         <v>111</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>229</v>
-      </c>
-      <c r="D113" s="5">
-        <v>100</v>
-      </c>
-      <c r="E113" s="6">
+        <v>272</v>
+      </c>
+      <c r="D113" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="E113" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="F113" s="7"/>
+      <c r="G113" s="5">
+        <v>1</v>
+      </c>
+      <c r="H113" s="5">
+        <v>100</v>
+      </c>
+      <c r="I113" s="6">
         <v>1110</v>
       </c>
-      <c r="F113" s="6">
-        <v>1</v>
-      </c>
-      <c r="G113" s="6">
-        <v>1</v>
-      </c>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
+      <c r="J113" s="6">
+        <v>1</v>
+      </c>
+      <c r="K113" s="6">
+        <v>1</v>
+      </c>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
     </row>
     <row r="114" ht="20" customHeight="1">
       <c r="A114" s="4">
         <v>112</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>231</v>
-      </c>
-      <c r="D114" s="5">
-        <v>100</v>
-      </c>
-      <c r="E114" s="6">
+        <v>272</v>
+      </c>
+      <c r="D114" t="s" s="5">
+        <v>286</v>
+      </c>
+      <c r="E114" t="s" s="5">
+        <v>286</v>
+      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="5">
+        <v>2</v>
+      </c>
+      <c r="H114" s="5">
+        <v>100</v>
+      </c>
+      <c r="I114" s="6">
         <v>1120</v>
       </c>
-      <c r="F114" s="6">
-        <v>1</v>
-      </c>
-      <c r="G114" s="6">
-        <v>1</v>
-      </c>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
+      <c r="J114" s="6">
+        <v>1</v>
+      </c>
+      <c r="K114" s="6">
+        <v>1</v>
+      </c>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
     </row>
     <row r="115" ht="20" customHeight="1">
       <c r="A115" s="4">
         <v>113</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>233</v>
-      </c>
-      <c r="D115" s="5">
-        <v>100</v>
-      </c>
-      <c r="E115" s="6">
+        <v>272</v>
+      </c>
+      <c r="D115" t="s" s="5">
+        <v>288</v>
+      </c>
+      <c r="E115" t="s" s="5">
+        <v>289</v>
+      </c>
+      <c r="F115" s="7"/>
+      <c r="G115" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H115" s="5">
+        <v>100</v>
+      </c>
+      <c r="I115" s="6">
         <v>1130</v>
       </c>
-      <c r="F115" s="6">
-        <v>1</v>
-      </c>
-      <c r="G115" s="6">
-        <v>1</v>
-      </c>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
+      <c r="J115" s="6">
+        <v>1</v>
+      </c>
+      <c r="K115" s="6">
+        <v>1</v>
+      </c>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
     </row>
     <row r="116" ht="20" customHeight="1">
       <c r="A116" s="4">
         <v>114</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>235</v>
-      </c>
-      <c r="D116" s="5">
-        <v>100</v>
-      </c>
-      <c r="E116" s="6">
+        <v>272</v>
+      </c>
+      <c r="D116" t="s" s="5">
+        <v>291</v>
+      </c>
+      <c r="E116" t="s" s="5">
+        <v>291</v>
+      </c>
+      <c r="F116" s="7"/>
+      <c r="G116" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="H116" s="5">
+        <v>100</v>
+      </c>
+      <c r="I116" s="6">
         <v>1140</v>
       </c>
-      <c r="F116" s="6">
-        <v>1</v>
-      </c>
-      <c r="G116" s="6">
-        <v>1</v>
-      </c>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
+      <c r="J116" s="6">
+        <v>1</v>
+      </c>
+      <c r="K116" s="6">
+        <v>1</v>
+      </c>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
     </row>
     <row r="117" ht="20" customHeight="1">
       <c r="A117" s="4">
         <v>115</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>237</v>
-      </c>
-      <c r="D117" s="5">
-        <v>100</v>
-      </c>
-      <c r="E117" s="6">
+        <v>272</v>
+      </c>
+      <c r="D117" t="s" s="5">
+        <v>293</v>
+      </c>
+      <c r="E117" t="s" s="5">
+        <v>293</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="5">
+        <v>1</v>
+      </c>
+      <c r="H117" s="5">
+        <v>100</v>
+      </c>
+      <c r="I117" s="6">
         <v>1150</v>
       </c>
-      <c r="F117" s="6">
-        <v>1</v>
-      </c>
-      <c r="G117" s="6">
-        <v>1</v>
-      </c>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
+      <c r="J117" s="6">
+        <v>1</v>
+      </c>
+      <c r="K117" s="6">
+        <v>1</v>
+      </c>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
     </row>
     <row r="118" ht="20" customHeight="1">
       <c r="A118" s="4">
         <v>116</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>239</v>
-      </c>
-      <c r="D118" s="5">
-        <v>100</v>
-      </c>
-      <c r="E118" s="6">
+        <v>272</v>
+      </c>
+      <c r="D118" t="s" s="5">
+        <v>295</v>
+      </c>
+      <c r="E118" t="s" s="5">
+        <v>295</v>
+      </c>
+      <c r="F118" s="7"/>
+      <c r="G118" s="5">
+        <v>2</v>
+      </c>
+      <c r="H118" s="5">
+        <v>100</v>
+      </c>
+      <c r="I118" s="6">
         <v>1160</v>
       </c>
-      <c r="F118" s="6">
-        <v>1</v>
-      </c>
-      <c r="G118" s="6">
-        <v>1</v>
-      </c>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
+      <c r="J118" s="6">
+        <v>1</v>
+      </c>
+      <c r="K118" s="6">
+        <v>1</v>
+      </c>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" s="4">
         <v>117</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>241</v>
-      </c>
-      <c r="D119" s="5">
-        <v>100</v>
-      </c>
-      <c r="E119" s="6">
+        <v>272</v>
+      </c>
+      <c r="D119" t="s" s="5">
+        <v>297</v>
+      </c>
+      <c r="E119" t="s" s="5">
+        <v>297</v>
+      </c>
+      <c r="F119" s="7"/>
+      <c r="G119" s="5">
+        <v>3</v>
+      </c>
+      <c r="H119" s="5">
+        <v>100</v>
+      </c>
+      <c r="I119" s="6">
         <v>1170</v>
       </c>
-      <c r="F119" s="6">
-        <v>1</v>
-      </c>
-      <c r="G119" s="6">
-        <v>1</v>
-      </c>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
+      <c r="J119" s="6">
+        <v>1</v>
+      </c>
+      <c r="K119" s="6">
+        <v>1</v>
+      </c>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
     </row>
     <row r="120" ht="20" customHeight="1">
       <c r="A120" s="4">
         <v>118</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>243</v>
-      </c>
-      <c r="D120" s="5">
-        <v>100</v>
-      </c>
-      <c r="E120" s="6">
+        <v>118</v>
+      </c>
+      <c r="D120" t="s" s="5">
+        <v>299</v>
+      </c>
+      <c r="E120" t="s" s="5">
+        <v>300</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="5">
+        <v>4</v>
+      </c>
+      <c r="H120" s="5">
+        <v>100</v>
+      </c>
+      <c r="I120" s="6">
         <v>1180</v>
       </c>
-      <c r="F120" s="6">
-        <v>1</v>
-      </c>
-      <c r="G120" s="6">
-        <v>1</v>
-      </c>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
+      <c r="J120" s="6">
+        <v>1</v>
+      </c>
+      <c r="K120" s="6">
+        <v>1</v>
+      </c>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
     </row>
     <row r="121" ht="20" customHeight="1">
       <c r="A121" s="4">
         <v>119</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>245</v>
-      </c>
-      <c r="D121" s="5">
-        <v>100</v>
-      </c>
-      <c r="E121" s="6">
+        <v>302</v>
+      </c>
+      <c r="D121" t="s" s="5">
+        <v>303</v>
+      </c>
+      <c r="E121" t="s" s="5">
+        <v>304</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="5">
+        <v>3</v>
+      </c>
+      <c r="H121" s="5">
+        <v>100</v>
+      </c>
+      <c r="I121" s="6">
         <v>1190</v>
       </c>
-      <c r="F121" s="6">
-        <v>1</v>
-      </c>
-      <c r="G121" s="6">
-        <v>1</v>
-      </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
+      <c r="J121" s="6">
+        <v>1</v>
+      </c>
+      <c r="K121" s="6">
+        <v>1</v>
+      </c>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
     </row>
     <row r="122" ht="20" customHeight="1">
       <c r="A122" s="4">
         <v>120</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D122" s="5">
-        <v>100</v>
-      </c>
-      <c r="E122" s="6">
+        <v>302</v>
+      </c>
+      <c r="D122" t="s" s="5">
+        <v>306</v>
+      </c>
+      <c r="E122" t="s" s="5">
+        <v>307</v>
+      </c>
+      <c r="F122" s="7"/>
+      <c r="G122" s="5">
+        <v>2</v>
+      </c>
+      <c r="H122" s="5">
+        <v>100</v>
+      </c>
+      <c r="I122" s="6">
         <v>1200</v>
       </c>
-      <c r="F122" s="6">
-        <v>1</v>
-      </c>
-      <c r="G122" s="6">
-        <v>1</v>
-      </c>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
+      <c r="J122" s="6">
+        <v>1</v>
+      </c>
+      <c r="K122" s="6">
+        <v>1</v>
+      </c>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
     </row>
     <row r="123" ht="20" customHeight="1">
       <c r="A123" s="4">
         <v>121</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>249</v>
-      </c>
-      <c r="D123" s="5">
-        <v>100</v>
-      </c>
-      <c r="E123" s="6">
+        <v>302</v>
+      </c>
+      <c r="D123" t="s" s="5">
+        <v>309</v>
+      </c>
+      <c r="E123" t="s" s="5">
+        <v>309</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="5">
+        <v>2</v>
+      </c>
+      <c r="H123" s="5">
+        <v>100</v>
+      </c>
+      <c r="I123" s="6">
         <v>1210</v>
       </c>
-      <c r="F123" s="6">
-        <v>1</v>
-      </c>
-      <c r="G123" s="6">
-        <v>1</v>
-      </c>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
+      <c r="J123" s="6">
+        <v>1</v>
+      </c>
+      <c r="K123" s="6">
+        <v>1</v>
+      </c>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
     </row>
     <row r="124" ht="20" customHeight="1">
       <c r="A124" s="4">
         <v>122</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>251</v>
-      </c>
-      <c r="D124" s="5">
-        <v>100</v>
-      </c>
-      <c r="E124" s="6">
+        <v>302</v>
+      </c>
+      <c r="D124" t="s" s="5">
+        <v>311</v>
+      </c>
+      <c r="E124" t="s" s="5">
+        <v>311</v>
+      </c>
+      <c r="F124" s="7"/>
+      <c r="G124" s="5">
+        <v>3</v>
+      </c>
+      <c r="H124" s="5">
+        <v>100</v>
+      </c>
+      <c r="I124" s="6">
         <v>1220</v>
       </c>
-      <c r="F124" s="6">
-        <v>1</v>
-      </c>
-      <c r="G124" s="6">
-        <v>1</v>
-      </c>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
+      <c r="J124" s="6">
+        <v>1</v>
+      </c>
+      <c r="K124" s="6">
+        <v>1</v>
+      </c>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
     </row>
     <row r="125" ht="20" customHeight="1">
       <c r="A125" s="4">
         <v>123</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>253</v>
-      </c>
-      <c r="D125" s="5">
-        <v>100</v>
-      </c>
-      <c r="E125" s="6">
+        <v>302</v>
+      </c>
+      <c r="D125" t="s" s="5">
+        <v>313</v>
+      </c>
+      <c r="E125" t="s" s="5">
+        <v>313</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="5">
+        <v>2</v>
+      </c>
+      <c r="H125" s="5">
+        <v>100</v>
+      </c>
+      <c r="I125" s="6">
         <v>1230</v>
       </c>
-      <c r="F125" s="6">
-        <v>1</v>
-      </c>
-      <c r="G125" s="6">
-        <v>1</v>
-      </c>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
+      <c r="J125" s="6">
+        <v>1</v>
+      </c>
+      <c r="K125" s="6">
+        <v>1</v>
+      </c>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
     </row>
     <row r="126" ht="20" customHeight="1">
       <c r="A126" s="4">
         <v>124</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>255</v>
-      </c>
-      <c r="D126" s="5">
-        <v>100</v>
-      </c>
-      <c r="E126" s="6">
+        <v>302</v>
+      </c>
+      <c r="D126" t="s" s="5">
+        <v>315</v>
+      </c>
+      <c r="E126" t="s" s="5">
+        <v>315</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="5">
+        <v>3</v>
+      </c>
+      <c r="H126" s="5">
+        <v>100</v>
+      </c>
+      <c r="I126" s="6">
         <v>1240</v>
       </c>
-      <c r="F126" s="6">
-        <v>1</v>
-      </c>
-      <c r="G126" s="6">
-        <v>1</v>
-      </c>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
+      <c r="J126" s="6">
+        <v>1</v>
+      </c>
+      <c r="K126" s="6">
+        <v>1</v>
+      </c>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
     </row>
     <row r="127" ht="20" customHeight="1">
       <c r="A127" s="4">
         <v>125</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>257</v>
-      </c>
-      <c r="D127" s="5">
-        <v>100</v>
-      </c>
-      <c r="E127" s="6">
+        <v>302</v>
+      </c>
+      <c r="D127" t="s" s="5">
+        <v>317</v>
+      </c>
+      <c r="E127" t="s" s="5">
+        <v>317</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="5">
+        <v>2</v>
+      </c>
+      <c r="H127" s="5">
+        <v>100</v>
+      </c>
+      <c r="I127" s="6">
         <v>1250</v>
       </c>
-      <c r="F127" s="6">
-        <v>1</v>
-      </c>
-      <c r="G127" s="6">
-        <v>1</v>
-      </c>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
+      <c r="J127" s="6">
+        <v>1</v>
+      </c>
+      <c r="K127" s="6">
+        <v>1</v>
+      </c>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
     </row>
     <row r="128" ht="20" customHeight="1">
       <c r="A128" s="4">
         <v>126</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>259</v>
-      </c>
-      <c r="D128" s="5">
-        <v>100</v>
-      </c>
-      <c r="E128" s="6">
+        <v>272</v>
+      </c>
+      <c r="D128" t="s" s="5">
+        <v>319</v>
+      </c>
+      <c r="E128" t="s" s="5">
+        <v>319</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="5">
+        <v>2</v>
+      </c>
+      <c r="H128" s="5">
+        <v>100</v>
+      </c>
+      <c r="I128" s="6">
         <v>1260</v>
       </c>
-      <c r="F128" s="6">
-        <v>1</v>
-      </c>
-      <c r="G128" s="6">
-        <v>1</v>
-      </c>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
+      <c r="J128" s="6">
+        <v>1</v>
+      </c>
+      <c r="K128" s="6">
+        <v>1</v>
+      </c>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" s="4">
         <v>127</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>261</v>
-      </c>
-      <c r="D129" s="5">
-        <v>100</v>
-      </c>
-      <c r="E129" s="6">
+        <v>118</v>
+      </c>
+      <c r="D129" t="s" s="5">
+        <v>321</v>
+      </c>
+      <c r="E129" t="s" s="5">
+        <v>321</v>
+      </c>
+      <c r="F129" s="7"/>
+      <c r="G129" s="5">
+        <v>3</v>
+      </c>
+      <c r="H129" s="5">
+        <v>100</v>
+      </c>
+      <c r="I129" s="6">
         <v>1270</v>
       </c>
-      <c r="F129" s="6">
-        <v>1</v>
-      </c>
-      <c r="G129" s="6">
-        <v>1</v>
-      </c>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
+      <c r="J129" s="6">
+        <v>1</v>
+      </c>
+      <c r="K129" s="6">
+        <v>1</v>
+      </c>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
     </row>
     <row r="130" ht="20" customHeight="1">
       <c r="A130" s="4">
         <v>128</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>263</v>
-      </c>
-      <c r="D130" s="5">
-        <v>100</v>
-      </c>
-      <c r="E130" s="6">
+        <v>118</v>
+      </c>
+      <c r="D130" t="s" s="5">
+        <v>323</v>
+      </c>
+      <c r="E130" t="s" s="5">
+        <v>323</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="5">
+        <v>3</v>
+      </c>
+      <c r="H130" s="5">
+        <v>100</v>
+      </c>
+      <c r="I130" s="6">
         <v>1280</v>
       </c>
-      <c r="F130" s="6">
-        <v>1</v>
-      </c>
-      <c r="G130" s="6">
-        <v>1</v>
-      </c>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
+      <c r="J130" s="6">
+        <v>1</v>
+      </c>
+      <c r="K130" s="6">
+        <v>1</v>
+      </c>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
     </row>
     <row r="131" ht="20" customHeight="1">
       <c r="A131" s="4">
         <v>129</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>265</v>
-      </c>
-      <c r="D131" s="5">
-        <v>100</v>
-      </c>
-      <c r="E131" s="6">
+        <v>59</v>
+      </c>
+      <c r="D131" t="s" s="5">
+        <v>325</v>
+      </c>
+      <c r="E131" t="s" s="5">
+        <v>326</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="5">
+        <v>3</v>
+      </c>
+      <c r="H131" s="5">
+        <v>100</v>
+      </c>
+      <c r="I131" s="6">
         <v>1290</v>
       </c>
-      <c r="F131" s="6">
-        <v>1</v>
-      </c>
-      <c r="G131" s="6">
-        <v>1</v>
-      </c>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
+      <c r="J131" s="6">
+        <v>1</v>
+      </c>
+      <c r="K131" s="6">
+        <v>1</v>
+      </c>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
     </row>
     <row r="132" ht="20" customHeight="1">
       <c r="A132" s="4">
         <v>130</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>267</v>
-      </c>
-      <c r="D132" s="5">
-        <v>100</v>
-      </c>
-      <c r="E132" s="6">
+        <v>59</v>
+      </c>
+      <c r="D132" t="s" s="5">
+        <v>328</v>
+      </c>
+      <c r="E132" t="s" s="5">
+        <v>329</v>
+      </c>
+      <c r="F132" s="7"/>
+      <c r="G132" s="5">
+        <v>3</v>
+      </c>
+      <c r="H132" s="5">
+        <v>100</v>
+      </c>
+      <c r="I132" s="6">
         <v>1300</v>
       </c>
-      <c r="F132" s="6">
-        <v>1</v>
-      </c>
-      <c r="G132" s="6">
-        <v>1</v>
-      </c>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
+      <c r="J132" s="6">
+        <v>1</v>
+      </c>
+      <c r="K132" s="6">
+        <v>1</v>
+      </c>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
     </row>
     <row r="133" ht="20" customHeight="1">
       <c r="A133" s="4">
         <v>131</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>269</v>
-      </c>
-      <c r="D133" s="5">
-        <v>100</v>
-      </c>
-      <c r="E133" s="6">
+        <v>118</v>
+      </c>
+      <c r="D133" t="s" s="5">
+        <v>331</v>
+      </c>
+      <c r="E133" t="s" s="5">
+        <v>332</v>
+      </c>
+      <c r="F133" s="7"/>
+      <c r="G133" s="5">
+        <v>4</v>
+      </c>
+      <c r="H133" s="5">
+        <v>100</v>
+      </c>
+      <c r="I133" s="6">
         <v>1310</v>
       </c>
-      <c r="F133" s="6">
-        <v>1</v>
-      </c>
-      <c r="G133" s="6">
-        <v>1</v>
-      </c>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
+      <c r="J133" s="6">
+        <v>1</v>
+      </c>
+      <c r="K133" s="6">
+        <v>1</v>
+      </c>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
     </row>
     <row r="134" ht="20" customHeight="1">
       <c r="A134" s="4">
         <v>132</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>271</v>
-      </c>
-      <c r="D134" s="5">
-        <v>100</v>
-      </c>
-      <c r="E134" s="6">
+        <v>118</v>
+      </c>
+      <c r="D134" t="s" s="5">
+        <v>334</v>
+      </c>
+      <c r="E134" t="s" s="5">
+        <v>335</v>
+      </c>
+      <c r="F134" s="7"/>
+      <c r="G134" s="5">
+        <v>5</v>
+      </c>
+      <c r="H134" s="5">
+        <v>100</v>
+      </c>
+      <c r="I134" s="6">
         <v>1320</v>
       </c>
-      <c r="F134" s="6">
-        <v>1</v>
-      </c>
-      <c r="G134" s="6">
-        <v>1</v>
-      </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+      <c r="J134" s="6">
+        <v>1</v>
+      </c>
+      <c r="K134" s="6">
+        <v>1</v>
+      </c>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
     </row>
     <row r="135" ht="20" customHeight="1">
       <c r="A135" s="4">
         <v>133</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>273</v>
-      </c>
-      <c r="D135" s="5">
-        <v>100</v>
-      </c>
-      <c r="E135" s="6">
+        <v>118</v>
+      </c>
+      <c r="D135" t="s" s="5">
+        <v>337</v>
+      </c>
+      <c r="E135" t="s" s="5">
+        <v>337</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="5">
+        <v>4</v>
+      </c>
+      <c r="H135" s="5">
+        <v>100</v>
+      </c>
+      <c r="I135" s="6">
         <v>1330</v>
       </c>
-      <c r="F135" s="6">
-        <v>1</v>
-      </c>
-      <c r="G135" s="6">
-        <v>1</v>
-      </c>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
+      <c r="J135" s="6">
+        <v>1</v>
+      </c>
+      <c r="K135" s="6">
+        <v>1</v>
+      </c>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
     </row>
     <row r="136" ht="20" customHeight="1">
       <c r="A136" s="4">
         <v>134</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>275</v>
-      </c>
-      <c r="D136" s="5">
-        <v>100</v>
-      </c>
-      <c r="E136" s="6">
+        <v>118</v>
+      </c>
+      <c r="D136" t="s" s="5">
+        <v>339</v>
+      </c>
+      <c r="E136" t="s" s="5">
+        <v>339</v>
+      </c>
+      <c r="F136" s="7"/>
+      <c r="G136" s="5">
+        <v>5</v>
+      </c>
+      <c r="H136" s="5">
+        <v>100</v>
+      </c>
+      <c r="I136" s="6">
         <v>1340</v>
       </c>
-      <c r="F136" s="6">
-        <v>1</v>
-      </c>
-      <c r="G136" s="6">
-        <v>1</v>
-      </c>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
+      <c r="J136" s="6">
+        <v>1</v>
+      </c>
+      <c r="K136" s="6">
+        <v>1</v>
+      </c>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
     </row>
     <row r="137" ht="20" customHeight="1">
       <c r="A137" s="4">
         <v>135</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>277</v>
-      </c>
-      <c r="D137" s="5">
-        <v>100</v>
-      </c>
-      <c r="E137" s="6">
+        <v>118</v>
+      </c>
+      <c r="D137" t="s" s="5">
+        <v>341</v>
+      </c>
+      <c r="E137" t="s" s="5">
+        <v>341</v>
+      </c>
+      <c r="F137" s="7"/>
+      <c r="G137" s="5">
+        <v>3</v>
+      </c>
+      <c r="H137" s="5">
+        <v>100</v>
+      </c>
+      <c r="I137" s="6">
         <v>1350</v>
       </c>
-      <c r="F137" s="6">
-        <v>1</v>
-      </c>
-      <c r="G137" s="6">
-        <v>1</v>
-      </c>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
+      <c r="J137" s="6">
+        <v>1</v>
+      </c>
+      <c r="K137" s="6">
+        <v>1</v>
+      </c>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
     </row>
     <row r="138" ht="20" customHeight="1">
       <c r="A138" s="4">
         <v>136</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>279</v>
-      </c>
-      <c r="D138" s="5">
-        <v>100</v>
-      </c>
-      <c r="E138" s="6">
+        <v>118</v>
+      </c>
+      <c r="D138" t="s" s="5">
+        <v>343</v>
+      </c>
+      <c r="E138" t="s" s="5">
+        <v>343</v>
+      </c>
+      <c r="F138" s="7"/>
+      <c r="G138" s="5">
+        <v>4</v>
+      </c>
+      <c r="H138" s="5">
+        <v>100</v>
+      </c>
+      <c r="I138" s="6">
         <v>1360</v>
       </c>
-      <c r="F138" s="6">
-        <v>1</v>
-      </c>
-      <c r="G138" s="6">
-        <v>1</v>
-      </c>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
+      <c r="J138" s="6">
+        <v>1</v>
+      </c>
+      <c r="K138" s="6">
+        <v>1</v>
+      </c>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
     </row>
     <row r="139" ht="20" customHeight="1">
       <c r="A139" s="4">
         <v>137</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>281</v>
-      </c>
-      <c r="D139" s="5">
-        <v>100</v>
-      </c>
-      <c r="E139" s="6">
+        <v>118</v>
+      </c>
+      <c r="D139" t="s" s="5">
+        <v>345</v>
+      </c>
+      <c r="E139" t="s" s="5">
+        <v>345</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="5">
+        <v>4</v>
+      </c>
+      <c r="H139" s="5">
+        <v>100</v>
+      </c>
+      <c r="I139" s="6">
         <v>1370</v>
       </c>
-      <c r="F139" s="6">
-        <v>1</v>
-      </c>
-      <c r="G139" s="6">
-        <v>1</v>
-      </c>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
+      <c r="J139" s="6">
+        <v>1</v>
+      </c>
+      <c r="K139" s="6">
+        <v>1</v>
+      </c>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
     </row>
     <row r="140" ht="20" customHeight="1">
       <c r="A140" s="4">
         <v>138</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>283</v>
-      </c>
-      <c r="D140" s="5">
-        <v>100</v>
-      </c>
-      <c r="E140" s="6">
+        <v>118</v>
+      </c>
+      <c r="D140" t="s" s="5">
+        <v>347</v>
+      </c>
+      <c r="E140" t="s" s="5">
+        <v>347</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="5">
+        <v>3</v>
+      </c>
+      <c r="H140" s="5">
+        <v>100</v>
+      </c>
+      <c r="I140" s="6">
         <v>1380</v>
       </c>
-      <c r="F140" s="6">
-        <v>1</v>
-      </c>
-      <c r="G140" s="6">
-        <v>1</v>
-      </c>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
+      <c r="J140" s="6">
+        <v>1</v>
+      </c>
+      <c r="K140" s="6">
+        <v>1</v>
+      </c>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
     </row>
     <row r="141" ht="20" customHeight="1">
       <c r="A141" s="4">
         <v>139</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>285</v>
-      </c>
-      <c r="D141" s="5">
-        <v>100</v>
-      </c>
-      <c r="E141" s="6">
+        <v>118</v>
+      </c>
+      <c r="D141" t="s" s="5">
+        <v>349</v>
+      </c>
+      <c r="E141" t="s" s="5">
+        <v>349</v>
+      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="5">
+        <v>3</v>
+      </c>
+      <c r="H141" s="5">
+        <v>100</v>
+      </c>
+      <c r="I141" s="6">
         <v>1390</v>
       </c>
-      <c r="F141" s="6">
-        <v>1</v>
-      </c>
-      <c r="G141" s="6">
-        <v>1</v>
-      </c>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
+      <c r="J141" s="6">
+        <v>1</v>
+      </c>
+      <c r="K141" s="6">
+        <v>1</v>
+      </c>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
     </row>
     <row r="142" ht="20" customHeight="1">
       <c r="A142" s="4">
         <v>140</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>286</v>
+        <v>350</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>287</v>
-      </c>
-      <c r="D142" s="5">
-        <v>100</v>
-      </c>
-      <c r="E142" s="6">
+        <v>118</v>
+      </c>
+      <c r="D142" t="s" s="5">
+        <v>351</v>
+      </c>
+      <c r="E142" t="s" s="5">
+        <v>351</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="5">
+        <v>4</v>
+      </c>
+      <c r="H142" s="5">
+        <v>100</v>
+      </c>
+      <c r="I142" s="6">
         <v>1400</v>
       </c>
-      <c r="F142" s="6">
-        <v>1</v>
-      </c>
-      <c r="G142" s="6">
-        <v>1</v>
-      </c>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
+      <c r="J142" s="6">
+        <v>1</v>
+      </c>
+      <c r="K142" s="6">
+        <v>1</v>
+      </c>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
     </row>
     <row r="143" ht="20" customHeight="1">
       <c r="A143" s="4">
         <v>141</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>289</v>
-      </c>
-      <c r="D143" s="5">
-        <v>100</v>
-      </c>
-      <c r="E143" s="6">
+        <v>118</v>
+      </c>
+      <c r="D143" t="s" s="5">
+        <v>353</v>
+      </c>
+      <c r="E143" t="s" s="5">
+        <v>353</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="5">
+        <v>5</v>
+      </c>
+      <c r="H143" s="5">
+        <v>100</v>
+      </c>
+      <c r="I143" s="6">
         <v>1410</v>
       </c>
-      <c r="F143" s="6">
-        <v>1</v>
-      </c>
-      <c r="G143" s="6">
-        <v>1</v>
-      </c>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
+      <c r="J143" s="6">
+        <v>1</v>
+      </c>
+      <c r="K143" s="6">
+        <v>1</v>
+      </c>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
     </row>
     <row r="144" ht="20" customHeight="1">
       <c r="A144" s="4">
         <v>142</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>291</v>
-      </c>
-      <c r="D144" s="5">
-        <v>100</v>
-      </c>
-      <c r="E144" s="6">
+        <v>118</v>
+      </c>
+      <c r="D144" t="s" s="5">
+        <v>355</v>
+      </c>
+      <c r="E144" t="s" s="5">
+        <v>355</v>
+      </c>
+      <c r="F144" s="7"/>
+      <c r="G144" s="5">
+        <v>5</v>
+      </c>
+      <c r="H144" s="5">
+        <v>100</v>
+      </c>
+      <c r="I144" s="6">
         <v>1420</v>
       </c>
-      <c r="F144" s="6">
-        <v>1</v>
-      </c>
-      <c r="G144" s="6">
-        <v>1</v>
-      </c>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
+      <c r="J144" s="6">
+        <v>1</v>
+      </c>
+      <c r="K144" s="6">
+        <v>1</v>
+      </c>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
     </row>
     <row r="145" ht="20" customHeight="1">
       <c r="A145" s="4">
         <v>143</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>293</v>
-      </c>
-      <c r="D145" s="5">
-        <v>100</v>
-      </c>
-      <c r="E145" s="6">
+        <v>118</v>
+      </c>
+      <c r="D145" t="s" s="5">
+        <v>357</v>
+      </c>
+      <c r="E145" t="s" s="5">
+        <v>357</v>
+      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="5">
+        <v>5</v>
+      </c>
+      <c r="H145" s="5">
+        <v>100</v>
+      </c>
+      <c r="I145" s="6">
         <v>1430</v>
       </c>
-      <c r="F145" s="6">
-        <v>1</v>
-      </c>
-      <c r="G145" s="6">
-        <v>1</v>
-      </c>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
+      <c r="J145" s="6">
+        <v>1</v>
+      </c>
+      <c r="K145" s="6">
+        <v>1</v>
+      </c>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
     </row>
     <row r="146" ht="20" customHeight="1">
       <c r="A146" s="4">
         <v>144</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>295</v>
-      </c>
-      <c r="D146" s="5">
-        <v>100</v>
-      </c>
-      <c r="E146" s="6">
+        <v>118</v>
+      </c>
+      <c r="D146" t="s" s="5">
+        <v>359</v>
+      </c>
+      <c r="E146" t="s" s="5">
+        <v>359</v>
+      </c>
+      <c r="F146" s="7"/>
+      <c r="G146" s="5">
+        <v>5</v>
+      </c>
+      <c r="H146" s="5">
+        <v>100</v>
+      </c>
+      <c r="I146" s="6">
         <v>1440</v>
       </c>
-      <c r="F146" s="6">
-        <v>1</v>
-      </c>
-      <c r="G146" s="6">
-        <v>1</v>
-      </c>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
+      <c r="J146" s="6">
+        <v>1</v>
+      </c>
+      <c r="K146" s="6">
+        <v>1</v>
+      </c>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
     </row>
     <row r="147" ht="20" customHeight="1">
       <c r="A147" s="4">
         <v>145</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>296</v>
+        <v>360</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>297</v>
-      </c>
-      <c r="D147" s="5">
-        <v>100</v>
-      </c>
-      <c r="E147" s="6">
+        <v>118</v>
+      </c>
+      <c r="D147" t="s" s="5">
+        <v>361</v>
+      </c>
+      <c r="E147" t="s" s="5">
+        <v>361</v>
+      </c>
+      <c r="F147" s="7"/>
+      <c r="G147" s="5">
+        <v>5</v>
+      </c>
+      <c r="H147" s="5">
+        <v>100</v>
+      </c>
+      <c r="I147" s="6">
         <v>1450</v>
       </c>
-      <c r="F147" s="6">
-        <v>1</v>
-      </c>
-      <c r="G147" s="6">
-        <v>1</v>
-      </c>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
+      <c r="J147" s="6">
+        <v>1</v>
+      </c>
+      <c r="K147" s="6">
+        <v>1</v>
+      </c>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
     </row>
     <row r="148" ht="20" customHeight="1">
       <c r="A148" s="4">
         <v>146</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>299</v>
-      </c>
-      <c r="D148" s="5">
-        <v>100</v>
-      </c>
-      <c r="E148" s="6">
+        <v>118</v>
+      </c>
+      <c r="D148" t="s" s="5">
+        <v>363</v>
+      </c>
+      <c r="E148" t="s" s="5">
+        <v>363</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="5">
+        <v>5</v>
+      </c>
+      <c r="H148" s="5">
+        <v>100</v>
+      </c>
+      <c r="I148" s="6">
         <v>1460</v>
       </c>
-      <c r="F148" s="6">
-        <v>1</v>
-      </c>
-      <c r="G148" s="6">
-        <v>1</v>
-      </c>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
+      <c r="J148" s="6">
+        <v>1</v>
+      </c>
+      <c r="K148" s="6">
+        <v>1</v>
+      </c>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
     </row>
     <row r="149" ht="20" customHeight="1">
       <c r="A149" s="4">
         <v>147</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>301</v>
-      </c>
-      <c r="D149" s="5">
-        <v>100</v>
-      </c>
-      <c r="E149" s="6">
+        <v>118</v>
+      </c>
+      <c r="D149" t="s" s="5">
+        <v>365</v>
+      </c>
+      <c r="E149" t="s" s="5">
+        <v>365</v>
+      </c>
+      <c r="F149" s="7"/>
+      <c r="G149" s="5">
+        <v>5</v>
+      </c>
+      <c r="H149" s="5">
+        <v>100</v>
+      </c>
+      <c r="I149" s="6">
         <v>1470</v>
       </c>
-      <c r="F149" s="6">
-        <v>1</v>
-      </c>
-      <c r="G149" s="6">
-        <v>1</v>
-      </c>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
+      <c r="J149" s="6">
+        <v>1</v>
+      </c>
+      <c r="K149" s="6">
+        <v>1</v>
+      </c>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
     </row>
     <row r="150" ht="20" customHeight="1">
-      <c r="A150" s="7"/>
+      <c r="A150" s="8"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
-      <c r="F150" s="6">
-        <v>1</v>
-      </c>
-      <c r="G150" s="6">
-        <v>1</v>
-      </c>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId4"/>
+    <sheet name="enemy" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="enemy" sheetId="1" r:id="rId4"/>
+    <sheet name="enemy_appear" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
   <si>
     <t>id</t>
   </si>
@@ -29,9 +30,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>rank</t>
   </si>
   <si>
@@ -1110,6 +1108,54 @@
   </si>
   <si>
     <t>氷の悪魔</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>cnt</t>
+  </si>
+  <si>
+    <t>e0</t>
+  </si>
+  <si>
+    <t>e0_r</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e1_r</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e2_r</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e3_r</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e4_r</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>WORKER_ANT</t>
+  </si>
+  <si>
+    <t>BEE</t>
   </si>
 </sst>
 </file>
@@ -1222,10 +1268,10 @@
     <xf numFmtId="1" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2478,7 +2524,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2486,18 +2532,17 @@
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.35938" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.64062" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.64062" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
-    <col min="14" max="256" width="9" style="1" customWidth="1"/>
+    <col min="13" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -2531,5196 +2576,5043 @@
       <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
-        <v>10</v>
-      </c>
+      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s" s="5">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="D3" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="5">
-        <v>14</v>
-      </c>
       <c r="E3" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
       <c r="G3" s="5">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H3" s="6">
+        <v>10</v>
       </c>
       <c r="I3" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3" s="6">
-        <v>5</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="5">
-        <v>16</v>
-      </c>
       <c r="E4" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
       <c r="G4" s="5">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H4" s="6">
+        <v>20</v>
       </c>
       <c r="I4" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J4" s="6">
         <v>3</v>
       </c>
-      <c r="K4" s="6">
-        <v>3</v>
-      </c>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="5">
-        <v>18</v>
-      </c>
       <c r="E5" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
       <c r="G5" s="5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="6">
+        <v>30</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6">
         <v>2</v>
       </c>
-      <c r="H5" s="5">
-        <v>100</v>
-      </c>
-      <c r="I5" s="6">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6">
-        <v>7</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="5">
+      <c r="E6" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="E6" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
       <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H6" s="6">
+        <v>40</v>
       </c>
       <c r="I6" s="6">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J6" s="6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="6">
         <v>2</v>
       </c>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="C7" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="5">
+      <c r="E7" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E7" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
       <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H7" s="6">
+        <v>50</v>
       </c>
       <c r="I7" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J7" s="6">
-        <v>20</v>
-      </c>
-      <c r="K7" s="6">
         <v>5</v>
       </c>
+      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="C8" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s" s="5">
-        <v>26</v>
-      </c>
       <c r="E8" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
       <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H8" s="6">
+        <v>60</v>
       </c>
       <c r="I8" s="6">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
+      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="C9" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s" s="5">
-        <v>28</v>
-      </c>
       <c r="E9" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
       <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H9" s="6">
+        <v>70</v>
       </c>
       <c r="I9" s="6">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
+      <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="5">
+      <c r="E10" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="E10" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
       <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H10" s="6">
+        <v>80</v>
       </c>
       <c r="I10" s="6">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="C11" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s" s="5">
+      <c r="E11" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="E11" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
       <c r="G11" s="5">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H11" s="6">
+        <v>90</v>
       </c>
       <c r="I11" s="6">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="C12" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="5">
+      <c r="E12" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="E12" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
       <c r="G12" s="5">
-        <v>3</v>
-      </c>
-      <c r="H12" s="5">
+        <v>100</v>
+      </c>
+      <c r="H12" s="6">
         <v>100</v>
       </c>
       <c r="I12" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="C13" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s" s="5">
-        <v>39</v>
-      </c>
       <c r="E13" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
       <c r="G13" s="5">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H13" s="6">
+        <v>110</v>
       </c>
       <c r="I13" s="6">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="J13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="C14" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>41</v>
-      </c>
       <c r="E14" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
       <c r="G14" s="5">
-        <v>3</v>
-      </c>
-      <c r="H14" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H14" s="6">
+        <v>120</v>
       </c>
       <c r="I14" s="6">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="J14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="C15" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="5">
-        <v>43</v>
-      </c>
       <c r="E15" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
       <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H15" s="6">
+        <v>130</v>
       </c>
       <c r="I15" s="6">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="J15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="C16" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="5">
-        <v>45</v>
-      </c>
       <c r="E16" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5</v>
+      </c>
       <c r="G16" s="5">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H16" s="6">
+        <v>140</v>
       </c>
       <c r="I16" s="6">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="J16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="C17" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s" s="5">
-        <v>47</v>
-      </c>
       <c r="E17" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
       <c r="G17" s="5">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H17" s="6">
+        <v>150</v>
       </c>
       <c r="I17" s="6">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="J17" s="6">
         <v>1</v>
       </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="C18" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s" s="5">
-        <v>49</v>
-      </c>
       <c r="E18" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
       <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H18" s="6">
+        <v>160</v>
       </c>
       <c r="I18" s="6">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="J18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="C19" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s" s="5">
-        <v>51</v>
-      </c>
       <c r="E19" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
       <c r="G19" s="5">
-        <v>2</v>
-      </c>
-      <c r="H19" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H19" s="6">
+        <v>170</v>
       </c>
       <c r="I19" s="6">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="J19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="C20" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s" s="5">
+      <c r="E20" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="E20" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
       <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H20" s="6">
+        <v>180</v>
       </c>
       <c r="I20" s="6">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J20" s="6">
         <v>1</v>
       </c>
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s" s="5">
         <v>55</v>
       </c>
-      <c r="C21" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s" s="5">
+      <c r="E21" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="E21" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
       <c r="G21" s="5">
-        <v>2</v>
-      </c>
-      <c r="H21" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H21" s="6">
+        <v>190</v>
       </c>
       <c r="I21" s="6">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="J21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="6">
-        <v>1</v>
-      </c>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" t="s" s="5">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="C22" t="s" s="5">
+      <c r="D22" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="D22" t="s" s="5">
-        <v>60</v>
-      </c>
       <c r="E22" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
       <c r="G22" s="5">
-        <v>2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H22" s="6">
+        <v>200</v>
       </c>
       <c r="I22" s="6">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="6">
-        <v>1</v>
-      </c>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s" s="5">
         <v>61</v>
       </c>
-      <c r="C23" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s" s="5">
-        <v>62</v>
-      </c>
       <c r="E23" t="s" s="5">
-        <v>62</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3</v>
+      </c>
       <c r="G23" s="5">
-        <v>3</v>
-      </c>
-      <c r="H23" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H23" s="6">
+        <v>210</v>
       </c>
       <c r="I23" s="6">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="6">
-        <v>1</v>
-      </c>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="C24" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s" s="5">
+      <c r="E24" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="E24" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
       <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H24" s="6">
+        <v>220</v>
       </c>
       <c r="I24" s="6">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="J24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="6">
-        <v>1</v>
-      </c>
+      <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="C25" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s" s="5">
+      <c r="E25" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="E25" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
       <c r="G25" s="5">
-        <v>2</v>
-      </c>
-      <c r="H25" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H25" s="6">
+        <v>230</v>
       </c>
       <c r="I25" s="6">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="6">
-        <v>1</v>
-      </c>
+      <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" t="s" s="5">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="C26" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s" s="5">
+      <c r="E26" t="s" s="5">
         <v>70</v>
       </c>
-      <c r="E26" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
       <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H26" s="6">
+        <v>240</v>
       </c>
       <c r="I26" s="6">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="6">
-        <v>1</v>
-      </c>
+      <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" t="s" s="5">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="C27" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s" s="5">
+      <c r="E27" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="E27" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
       <c r="G27" s="5">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H27" s="6">
+        <v>250</v>
       </c>
       <c r="I27" s="6">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="J27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
+      <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" t="s" s="5">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="C28" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s" s="5">
+      <c r="E28" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="E28" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="5">
+        <v>3</v>
+      </c>
       <c r="G28" s="5">
-        <v>3</v>
-      </c>
-      <c r="H28" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H28" s="6">
+        <v>260</v>
       </c>
       <c r="I28" s="6">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="J28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="6">
-        <v>1</v>
-      </c>
+      <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" t="s" s="5">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="C29" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s" s="5">
+      <c r="E29" t="s" s="5">
         <v>79</v>
       </c>
-      <c r="E29" t="s" s="5">
-        <v>80</v>
-      </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="5">
+        <v>4</v>
+      </c>
       <c r="G29" s="5">
-        <v>4</v>
-      </c>
-      <c r="H29" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H29" s="6">
+        <v>270</v>
       </c>
       <c r="I29" s="6">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="J29" s="6">
         <v>1</v>
       </c>
-      <c r="K29" s="6">
-        <v>1</v>
-      </c>
+      <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" t="s" s="5">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="C30" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D30" t="s" s="5">
+      <c r="E30" t="s" s="5">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="E30" t="s" s="5">
-        <v>82</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H30" s="5">
-        <v>100</v>
+      <c r="G30" s="5">
+        <v>100</v>
+      </c>
+      <c r="H30" s="6">
+        <v>280</v>
       </c>
       <c r="I30" s="6">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="J30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="6">
-        <v>1</v>
-      </c>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="C31" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D31" t="s" s="5">
+      <c r="E31" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="E31" t="s" s="5">
-        <v>86</v>
-      </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="5">
+        <v>3</v>
+      </c>
       <c r="G31" s="5">
-        <v>3</v>
-      </c>
-      <c r="H31" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H31" s="6">
+        <v>290</v>
       </c>
       <c r="I31" s="6">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="J31" s="6">
         <v>1</v>
       </c>
-      <c r="K31" s="6">
-        <v>1</v>
-      </c>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" t="s" s="5">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="C32" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s" s="5">
+      <c r="E32" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="E32" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
       <c r="G32" s="5">
-        <v>2</v>
-      </c>
-      <c r="H32" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H32" s="6">
+        <v>300</v>
       </c>
       <c r="I32" s="6">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="J32" s="6">
         <v>1</v>
       </c>
-      <c r="K32" s="6">
-        <v>1</v>
-      </c>
+      <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="B33" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="C33" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D33" t="s" s="5">
+      <c r="E33" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="E33" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="5">
+        <v>3</v>
+      </c>
       <c r="G33" s="5">
-        <v>3</v>
-      </c>
-      <c r="H33" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H33" s="6">
+        <v>310</v>
       </c>
       <c r="I33" s="6">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="J33" s="6">
         <v>1</v>
       </c>
-      <c r="K33" s="6">
-        <v>1</v>
-      </c>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="B34" t="s" s="5">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="C34" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D34" t="s" s="5">
+      <c r="E34" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="E34" t="s" s="5">
-        <v>95</v>
-      </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
       <c r="G34" s="5">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H34" s="6">
+        <v>320</v>
       </c>
       <c r="I34" s="6">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="J34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="6">
-        <v>1</v>
-      </c>
+      <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="4">
         <v>33</v>
       </c>
       <c r="B35" t="s" s="5">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="C35" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D35" t="s" s="5">
+      <c r="E35" t="s" s="5">
         <v>97</v>
       </c>
-      <c r="E35" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
       <c r="G35" s="5">
-        <v>2</v>
-      </c>
-      <c r="H35" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H35" s="6">
+        <v>330</v>
       </c>
       <c r="I35" s="6">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="J35" s="6">
         <v>1</v>
       </c>
-      <c r="K35" s="6">
-        <v>1</v>
-      </c>
+      <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="4">
         <v>34</v>
       </c>
       <c r="B36" t="s" s="5">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s" s="5">
         <v>99</v>
       </c>
-      <c r="C36" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s" s="5">
-        <v>100</v>
-      </c>
       <c r="E36" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="F36" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3</v>
+      </c>
       <c r="G36" s="5">
-        <v>3</v>
-      </c>
-      <c r="H36" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H36" s="6">
+        <v>340</v>
       </c>
       <c r="I36" s="6">
-        <v>340</v>
+        <v>1</v>
       </c>
       <c r="J36" s="6">
         <v>1</v>
       </c>
-      <c r="K36" s="6">
-        <v>1</v>
-      </c>
+      <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="B37" t="s" s="5">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="C37" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s" s="5">
+      <c r="E37" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="E37" t="s" s="5">
-        <v>104</v>
-      </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="5">
+        <v>4</v>
+      </c>
       <c r="G37" s="5">
-        <v>4</v>
-      </c>
-      <c r="H37" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H37" s="6">
+        <v>350</v>
       </c>
       <c r="I37" s="6">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="J37" s="6">
         <v>1</v>
       </c>
-      <c r="K37" s="6">
-        <v>1</v>
-      </c>
+      <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" t="s" s="5">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s" s="5">
         <v>105</v>
       </c>
-      <c r="C38" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D38" t="s" s="5">
+      <c r="E38" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="E38" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="5">
+        <v>3</v>
+      </c>
       <c r="G38" s="5">
-        <v>3</v>
-      </c>
-      <c r="H38" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H38" s="6">
+        <v>360</v>
       </c>
       <c r="I38" s="6">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="J38" s="6">
         <v>1</v>
       </c>
-      <c r="K38" s="6">
-        <v>1</v>
-      </c>
+      <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="4">
         <v>37</v>
       </c>
       <c r="B39" t="s" s="5">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s" s="5">
         <v>108</v>
       </c>
-      <c r="C39" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D39" t="s" s="5">
+      <c r="E39" t="s" s="5">
         <v>109</v>
       </c>
-      <c r="E39" t="s" s="5">
-        <v>110</v>
-      </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="5">
+        <v>4</v>
+      </c>
       <c r="G39" s="5">
-        <v>4</v>
-      </c>
-      <c r="H39" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H39" s="6">
+        <v>370</v>
       </c>
       <c r="I39" s="6">
-        <v>370</v>
+        <v>1</v>
       </c>
       <c r="J39" s="6">
         <v>1</v>
       </c>
-      <c r="K39" s="6">
-        <v>1</v>
-      </c>
+      <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="4">
         <v>38</v>
       </c>
       <c r="B40" t="s" s="5">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s" s="5">
         <v>111</v>
       </c>
-      <c r="C40" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D40" t="s" s="5">
-        <v>112</v>
-      </c>
       <c r="E40" t="s" s="5">
-        <v>112</v>
-      </c>
-      <c r="F40" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="F40" s="5">
+        <v>4</v>
+      </c>
       <c r="G40" s="5">
-        <v>4</v>
-      </c>
-      <c r="H40" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H40" s="6">
+        <v>380</v>
       </c>
       <c r="I40" s="6">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="J40" s="6">
         <v>1</v>
       </c>
-      <c r="K40" s="6">
-        <v>1</v>
-      </c>
+      <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="B41" t="s" s="5">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s" s="5">
         <v>113</v>
       </c>
-      <c r="C41" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D41" t="s" s="5">
-        <v>114</v>
-      </c>
       <c r="E41" t="s" s="5">
-        <v>114</v>
-      </c>
-      <c r="F41" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2</v>
+      </c>
       <c r="G41" s="5">
-        <v>2</v>
-      </c>
-      <c r="H41" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H41" s="6">
+        <v>390</v>
       </c>
       <c r="I41" s="6">
-        <v>390</v>
+        <v>1</v>
       </c>
       <c r="J41" s="6">
         <v>1</v>
       </c>
-      <c r="K41" s="6">
-        <v>1</v>
-      </c>
+      <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="4">
         <v>40</v>
       </c>
       <c r="B42" t="s" s="5">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s" s="5">
         <v>115</v>
       </c>
-      <c r="C42" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D42" t="s" s="5">
-        <v>116</v>
-      </c>
       <c r="E42" t="s" s="5">
-        <v>116</v>
-      </c>
-      <c r="F42" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3</v>
+      </c>
       <c r="G42" s="5">
-        <v>3</v>
-      </c>
-      <c r="H42" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H42" s="6">
+        <v>400</v>
       </c>
       <c r="I42" s="6">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="6">
-        <v>1</v>
-      </c>
+      <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="4">
         <v>41</v>
       </c>
       <c r="B43" t="s" s="5">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s" s="5">
         <v>117</v>
       </c>
-      <c r="C43" t="s" s="5">
+      <c r="D43" t="s" s="5">
         <v>118</v>
       </c>
-      <c r="D43" t="s" s="5">
+      <c r="E43" t="s" s="5">
         <v>119</v>
       </c>
-      <c r="E43" t="s" s="5">
-        <v>120</v>
-      </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="5">
+        <v>5</v>
+      </c>
       <c r="G43" s="5">
-        <v>5</v>
-      </c>
-      <c r="H43" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H43" s="6">
+        <v>410</v>
       </c>
       <c r="I43" s="6">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="6">
-        <v>1</v>
-      </c>
+      <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="4">
         <v>42</v>
       </c>
       <c r="B44" t="s" s="5">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s" s="5">
         <v>121</v>
       </c>
-      <c r="C44" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D44" t="s" s="5">
-        <v>122</v>
-      </c>
       <c r="E44" t="s" s="5">
-        <v>122</v>
-      </c>
-      <c r="F44" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3</v>
+      </c>
       <c r="G44" s="5">
-        <v>3</v>
-      </c>
-      <c r="H44" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H44" s="6">
+        <v>420</v>
       </c>
       <c r="I44" s="6">
-        <v>420</v>
+        <v>1</v>
       </c>
       <c r="J44" s="6">
         <v>1</v>
       </c>
-      <c r="K44" s="6">
-        <v>1</v>
-      </c>
+      <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="4">
         <v>43</v>
       </c>
       <c r="B45" t="s" s="5">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s" s="5">
         <v>123</v>
       </c>
-      <c r="C45" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D45" t="s" s="5">
-        <v>124</v>
-      </c>
       <c r="E45" t="s" s="5">
-        <v>124</v>
-      </c>
-      <c r="F45" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2</v>
+      </c>
       <c r="G45" s="5">
-        <v>2</v>
-      </c>
-      <c r="H45" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H45" s="6">
+        <v>430</v>
       </c>
       <c r="I45" s="6">
-        <v>430</v>
+        <v>1</v>
       </c>
       <c r="J45" s="6">
         <v>1</v>
       </c>
-      <c r="K45" s="6">
-        <v>1</v>
-      </c>
+      <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="4">
         <v>44</v>
       </c>
       <c r="B46" t="s" s="5">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s" s="5">
         <v>125</v>
       </c>
-      <c r="C46" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D46" t="s" s="5">
+      <c r="E46" t="s" s="5">
         <v>126</v>
       </c>
-      <c r="E46" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="5">
+        <v>3</v>
+      </c>
       <c r="G46" s="5">
-        <v>3</v>
-      </c>
-      <c r="H46" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H46" s="6">
+        <v>440</v>
       </c>
       <c r="I46" s="6">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="6">
-        <v>1</v>
-      </c>
+      <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="4">
         <v>45</v>
       </c>
       <c r="B47" t="s" s="5">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s" s="5">
         <v>128</v>
       </c>
-      <c r="C47" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D47" t="s" s="5">
+      <c r="E47" t="s" s="5">
         <v>129</v>
       </c>
-      <c r="E47" t="s" s="5">
-        <v>130</v>
-      </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="5">
+        <v>3</v>
+      </c>
       <c r="G47" s="5">
-        <v>3</v>
-      </c>
-      <c r="H47" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H47" s="6">
+        <v>450</v>
       </c>
       <c r="I47" s="6">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="6">
-        <v>1</v>
-      </c>
+      <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="4">
         <v>46</v>
       </c>
       <c r="B48" t="s" s="5">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s" s="5">
         <v>131</v>
       </c>
-      <c r="C48" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D48" t="s" s="5">
+      <c r="E48" t="s" s="5">
         <v>132</v>
       </c>
-      <c r="E48" t="s" s="5">
-        <v>133</v>
-      </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="5">
+        <v>3</v>
+      </c>
       <c r="G48" s="5">
-        <v>3</v>
-      </c>
-      <c r="H48" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H48" s="6">
+        <v>460</v>
       </c>
       <c r="I48" s="6">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="J48" s="6">
         <v>1</v>
       </c>
-      <c r="K48" s="6">
-        <v>1</v>
-      </c>
+      <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" t="s" s="5">
+        <v>133</v>
+      </c>
+      <c r="C49" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s" s="5">
         <v>134</v>
       </c>
-      <c r="C49" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D49" t="s" s="5">
+      <c r="E49" t="s" s="5">
         <v>135</v>
       </c>
-      <c r="E49" t="s" s="5">
-        <v>136</v>
-      </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="5">
+        <v>4</v>
+      </c>
       <c r="G49" s="5">
-        <v>4</v>
-      </c>
-      <c r="H49" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H49" s="6">
+        <v>470</v>
       </c>
       <c r="I49" s="6">
-        <v>470</v>
+        <v>1</v>
       </c>
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="6">
-        <v>1</v>
-      </c>
+      <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="B50" t="s" s="5">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D50" t="s" s="5">
         <v>137</v>
       </c>
-      <c r="C50" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D50" t="s" s="5">
+      <c r="E50" t="s" s="5">
         <v>138</v>
       </c>
-      <c r="E50" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="5">
+        <v>4</v>
+      </c>
       <c r="G50" s="5">
-        <v>4</v>
-      </c>
-      <c r="H50" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H50" s="6">
+        <v>480</v>
       </c>
       <c r="I50" s="6">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="J50" s="6">
         <v>1</v>
       </c>
-      <c r="K50" s="6">
-        <v>1</v>
-      </c>
+      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="4">
         <v>49</v>
       </c>
       <c r="B51" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="C51" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s" s="5">
         <v>140</v>
       </c>
-      <c r="C51" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D51" t="s" s="5">
-        <v>141</v>
-      </c>
       <c r="E51" t="s" s="5">
-        <v>141</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="F51" s="5">
+        <v>5</v>
+      </c>
       <c r="G51" s="5">
-        <v>5</v>
-      </c>
-      <c r="H51" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H51" s="6">
+        <v>490</v>
       </c>
       <c r="I51" s="6">
-        <v>490</v>
+        <v>1</v>
       </c>
       <c r="J51" s="6">
         <v>1</v>
       </c>
-      <c r="K51" s="6">
-        <v>1</v>
-      </c>
+      <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="4">
         <v>50</v>
       </c>
       <c r="B52" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s" s="5">
         <v>142</v>
       </c>
-      <c r="C52" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D52" t="s" s="5">
-        <v>143</v>
-      </c>
       <c r="E52" t="s" s="5">
-        <v>143</v>
-      </c>
-      <c r="F52" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="F52" s="5">
+        <v>5</v>
+      </c>
       <c r="G52" s="5">
-        <v>5</v>
-      </c>
-      <c r="H52" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H52" s="6">
+        <v>500</v>
       </c>
       <c r="I52" s="6">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J52" s="6">
         <v>1</v>
       </c>
-      <c r="K52" s="6">
-        <v>1</v>
-      </c>
+      <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="4">
         <v>51</v>
       </c>
       <c r="B53" t="s" s="5">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s" s="5">
         <v>144</v>
       </c>
-      <c r="C53" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D53" t="s" s="5">
-        <v>145</v>
-      </c>
       <c r="E53" t="s" s="5">
-        <v>145</v>
-      </c>
-      <c r="F53" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="F53" s="5">
+        <v>5</v>
+      </c>
       <c r="G53" s="5">
-        <v>5</v>
-      </c>
-      <c r="H53" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H53" s="6">
+        <v>510</v>
       </c>
       <c r="I53" s="6">
-        <v>510</v>
+        <v>1</v>
       </c>
       <c r="J53" s="6">
         <v>1</v>
       </c>
-      <c r="K53" s="6">
-        <v>1</v>
-      </c>
+      <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" s="4">
         <v>52</v>
       </c>
       <c r="B54" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="C54" t="s" s="5">
         <v>146</v>
       </c>
-      <c r="C54" t="s" s="5">
+      <c r="D54" t="s" s="5">
         <v>147</v>
       </c>
-      <c r="D54" t="s" s="5">
+      <c r="E54" t="s" s="5">
         <v>148</v>
       </c>
-      <c r="E54" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H54" s="5">
-        <v>100</v>
+      <c r="F54" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G54" s="5">
+        <v>100</v>
+      </c>
+      <c r="H54" s="6">
+        <v>520</v>
       </c>
       <c r="I54" s="6">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="J54" s="6">
         <v>1</v>
       </c>
-      <c r="K54" s="6">
-        <v>1</v>
-      </c>
+      <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" s="4">
         <v>53</v>
       </c>
       <c r="B55" t="s" s="5">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D55" t="s" s="5">
         <v>150</v>
       </c>
-      <c r="C55" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D55" t="s" s="5">
+      <c r="E55" t="s" s="5">
         <v>151</v>
       </c>
-      <c r="E55" t="s" s="5">
-        <v>152</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H55" s="5">
-        <v>100</v>
+      <c r="F55" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G55" s="5">
+        <v>100</v>
+      </c>
+      <c r="H55" s="6">
+        <v>530</v>
       </c>
       <c r="I55" s="6">
-        <v>530</v>
+        <v>1</v>
       </c>
       <c r="J55" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="6">
-        <v>1</v>
-      </c>
+      <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" s="4">
         <v>54</v>
       </c>
       <c r="B56" t="s" s="5">
+        <v>152</v>
+      </c>
+      <c r="C56" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D56" t="s" s="5">
         <v>153</v>
       </c>
-      <c r="C56" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D56" t="s" s="5">
+      <c r="E56" t="s" s="5">
         <v>154</v>
       </c>
-      <c r="E56" t="s" s="5">
-        <v>155</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H56" s="5">
-        <v>100</v>
+      <c r="F56" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G56" s="5">
+        <v>100</v>
+      </c>
+      <c r="H56" s="6">
+        <v>540</v>
       </c>
       <c r="I56" s="6">
-        <v>540</v>
+        <v>1</v>
       </c>
       <c r="J56" s="6">
         <v>1</v>
       </c>
-      <c r="K56" s="6">
-        <v>1</v>
-      </c>
+      <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" s="4">
         <v>55</v>
       </c>
       <c r="B57" t="s" s="5">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D57" t="s" s="5">
         <v>156</v>
       </c>
-      <c r="C57" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D57" t="s" s="5">
+      <c r="E57" t="s" s="5">
         <v>157</v>
       </c>
-      <c r="E57" t="s" s="5">
-        <v>158</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H57" s="5">
-        <v>100</v>
+      <c r="F57" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G57" s="5">
+        <v>100</v>
+      </c>
+      <c r="H57" s="6">
+        <v>550</v>
       </c>
       <c r="I57" s="6">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="J57" s="6">
         <v>1</v>
       </c>
-      <c r="K57" s="6">
-        <v>1</v>
-      </c>
+      <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" s="4">
         <v>56</v>
       </c>
       <c r="B58" t="s" s="5">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D58" t="s" s="5">
         <v>159</v>
       </c>
-      <c r="C58" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D58" t="s" s="5">
+      <c r="E58" t="s" s="5">
         <v>160</v>
       </c>
-      <c r="E58" t="s" s="5">
-        <v>161</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H58" s="5">
-        <v>100</v>
+      <c r="F58" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G58" s="5">
+        <v>100</v>
+      </c>
+      <c r="H58" s="6">
+        <v>560</v>
       </c>
       <c r="I58" s="6">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="J58" s="6">
         <v>1</v>
       </c>
-      <c r="K58" s="6">
-        <v>1</v>
-      </c>
+      <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" s="4">
         <v>57</v>
       </c>
       <c r="B59" t="s" s="5">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D59" t="s" s="5">
         <v>162</v>
       </c>
-      <c r="C59" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D59" t="s" s="5">
-        <v>163</v>
-      </c>
       <c r="E59" t="s" s="5">
-        <v>163</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H59" s="5">
-        <v>100</v>
+        <v>162</v>
+      </c>
+      <c r="F59" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G59" s="5">
+        <v>100</v>
+      </c>
+      <c r="H59" s="6">
+        <v>570</v>
       </c>
       <c r="I59" s="6">
-        <v>570</v>
+        <v>1</v>
       </c>
       <c r="J59" s="6">
         <v>1</v>
       </c>
-      <c r="K59" s="6">
-        <v>1</v>
-      </c>
+      <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" s="4">
         <v>58</v>
       </c>
       <c r="B60" t="s" s="5">
+        <v>163</v>
+      </c>
+      <c r="C60" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D60" t="s" s="5">
         <v>164</v>
       </c>
-      <c r="C60" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D60" t="s" s="5">
-        <v>165</v>
-      </c>
       <c r="E60" t="s" s="5">
-        <v>165</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H60" s="5">
-        <v>100</v>
+        <v>164</v>
+      </c>
+      <c r="F60" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G60" s="5">
+        <v>100</v>
+      </c>
+      <c r="H60" s="6">
+        <v>580</v>
       </c>
       <c r="I60" s="6">
-        <v>580</v>
+        <v>1</v>
       </c>
       <c r="J60" s="6">
         <v>1</v>
       </c>
-      <c r="K60" s="6">
-        <v>1</v>
-      </c>
+      <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" s="4">
         <v>59</v>
       </c>
       <c r="B61" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="C61" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s" s="5">
         <v>166</v>
       </c>
-      <c r="C61" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D61" t="s" s="5">
+      <c r="E61" t="s" s="5">
         <v>167</v>
       </c>
-      <c r="E61" t="s" s="5">
-        <v>168</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H61" s="5">
-        <v>100</v>
+      <c r="F61" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G61" s="5">
+        <v>100</v>
+      </c>
+      <c r="H61" s="6">
+        <v>590</v>
       </c>
       <c r="I61" s="6">
-        <v>590</v>
+        <v>1</v>
       </c>
       <c r="J61" s="6">
         <v>1</v>
       </c>
-      <c r="K61" s="6">
-        <v>1</v>
-      </c>
+      <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" s="4">
         <v>60</v>
       </c>
       <c r="B62" t="s" s="5">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D62" t="s" s="5">
         <v>169</v>
       </c>
-      <c r="C62" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D62" t="s" s="5">
-        <v>170</v>
-      </c>
       <c r="E62" t="s" s="5">
-        <v>170</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H62" s="5">
-        <v>100</v>
+        <v>169</v>
+      </c>
+      <c r="F62" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G62" s="5">
+        <v>100</v>
+      </c>
+      <c r="H62" s="6">
+        <v>600</v>
       </c>
       <c r="I62" s="6">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="J62" s="6">
         <v>1</v>
       </c>
-      <c r="K62" s="6">
-        <v>1</v>
-      </c>
+      <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" s="4">
         <v>61</v>
       </c>
       <c r="B63" t="s" s="5">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D63" t="s" s="5">
         <v>171</v>
       </c>
-      <c r="C63" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D63" t="s" s="5">
-        <v>172</v>
-      </c>
       <c r="E63" t="s" s="5">
-        <v>172</v>
-      </c>
-      <c r="F63" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="F63" s="5">
+        <v>3</v>
+      </c>
       <c r="G63" s="5">
-        <v>3</v>
-      </c>
-      <c r="H63" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H63" s="6">
+        <v>610</v>
       </c>
       <c r="I63" s="6">
-        <v>610</v>
+        <v>1</v>
       </c>
       <c r="J63" s="6">
         <v>1</v>
       </c>
-      <c r="K63" s="6">
-        <v>1</v>
-      </c>
+      <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" s="4">
         <v>62</v>
       </c>
       <c r="B64" t="s" s="5">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D64" t="s" s="5">
         <v>173</v>
       </c>
-      <c r="C64" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D64" t="s" s="5">
-        <v>174</v>
-      </c>
       <c r="E64" t="s" s="5">
-        <v>174</v>
-      </c>
-      <c r="F64" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
       <c r="G64" s="5">
-        <v>3</v>
-      </c>
-      <c r="H64" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H64" s="6">
+        <v>620</v>
       </c>
       <c r="I64" s="6">
-        <v>620</v>
+        <v>1</v>
       </c>
       <c r="J64" s="6">
         <v>1</v>
       </c>
-      <c r="K64" s="6">
-        <v>1</v>
-      </c>
+      <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" s="4">
         <v>63</v>
       </c>
       <c r="B65" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="C65" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D65" t="s" s="5">
         <v>175</v>
       </c>
-      <c r="C65" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D65" t="s" s="5">
-        <v>176</v>
-      </c>
       <c r="E65" t="s" s="5">
-        <v>176</v>
-      </c>
-      <c r="F65" s="7"/>
+        <v>175</v>
+      </c>
+      <c r="F65" s="5">
+        <v>4</v>
+      </c>
       <c r="G65" s="5">
-        <v>4</v>
-      </c>
-      <c r="H65" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H65" s="6">
+        <v>630</v>
       </c>
       <c r="I65" s="6">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="J65" s="6">
         <v>1</v>
       </c>
-      <c r="K65" s="6">
-        <v>1</v>
-      </c>
+      <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" s="4">
         <v>64</v>
       </c>
       <c r="B66" t="s" s="5">
+        <v>176</v>
+      </c>
+      <c r="C66" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D66" t="s" s="5">
         <v>177</v>
       </c>
-      <c r="C66" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D66" t="s" s="5">
-        <v>178</v>
-      </c>
       <c r="E66" t="s" s="5">
-        <v>178</v>
-      </c>
-      <c r="F66" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="F66" s="5">
+        <v>2</v>
+      </c>
       <c r="G66" s="5">
-        <v>2</v>
-      </c>
-      <c r="H66" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H66" s="6">
+        <v>640</v>
       </c>
       <c r="I66" s="6">
-        <v>640</v>
+        <v>1</v>
       </c>
       <c r="J66" s="6">
         <v>1</v>
       </c>
-      <c r="K66" s="6">
-        <v>1</v>
-      </c>
+      <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" s="4">
         <v>65</v>
       </c>
       <c r="B67" t="s" s="5">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D67" t="s" s="5">
         <v>179</v>
       </c>
-      <c r="C67" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D67" t="s" s="5">
-        <v>180</v>
-      </c>
       <c r="E67" t="s" s="5">
-        <v>180</v>
-      </c>
-      <c r="F67" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2</v>
+      </c>
       <c r="G67" s="5">
-        <v>2</v>
-      </c>
-      <c r="H67" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H67" s="6">
+        <v>650</v>
       </c>
       <c r="I67" s="6">
-        <v>650</v>
+        <v>1</v>
       </c>
       <c r="J67" s="6">
         <v>1</v>
       </c>
-      <c r="K67" s="6">
-        <v>1</v>
-      </c>
+      <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" s="4">
         <v>66</v>
       </c>
       <c r="B68" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="C68" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D68" t="s" s="5">
         <v>181</v>
       </c>
-      <c r="C68" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D68" t="s" s="5">
-        <v>182</v>
-      </c>
       <c r="E68" t="s" s="5">
-        <v>182</v>
-      </c>
-      <c r="F68" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="F68" s="5">
+        <v>2</v>
+      </c>
       <c r="G68" s="5">
-        <v>2</v>
-      </c>
-      <c r="H68" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H68" s="6">
+        <v>660</v>
       </c>
       <c r="I68" s="6">
-        <v>660</v>
+        <v>1</v>
       </c>
       <c r="J68" s="6">
         <v>1</v>
       </c>
-      <c r="K68" s="6">
-        <v>1</v>
-      </c>
+      <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" s="4">
         <v>67</v>
       </c>
       <c r="B69" t="s" s="5">
+        <v>182</v>
+      </c>
+      <c r="C69" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D69" t="s" s="5">
         <v>183</v>
       </c>
-      <c r="C69" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D69" t="s" s="5">
-        <v>184</v>
-      </c>
       <c r="E69" t="s" s="5">
-        <v>184</v>
-      </c>
-      <c r="F69" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="F69" s="5">
+        <v>3</v>
+      </c>
       <c r="G69" s="5">
-        <v>3</v>
-      </c>
-      <c r="H69" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H69" s="6">
+        <v>670</v>
       </c>
       <c r="I69" s="6">
-        <v>670</v>
+        <v>1</v>
       </c>
       <c r="J69" s="6">
         <v>1</v>
       </c>
-      <c r="K69" s="6">
-        <v>1</v>
-      </c>
+      <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" s="4">
         <v>68</v>
       </c>
       <c r="B70" t="s" s="5">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D70" t="s" s="5">
         <v>185</v>
       </c>
-      <c r="C70" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D70" t="s" s="5">
-        <v>186</v>
-      </c>
       <c r="E70" t="s" s="5">
-        <v>186</v>
-      </c>
-      <c r="F70" s="7"/>
+        <v>185</v>
+      </c>
+      <c r="F70" s="5">
+        <v>3</v>
+      </c>
       <c r="G70" s="5">
-        <v>3</v>
-      </c>
-      <c r="H70" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H70" s="6">
+        <v>680</v>
       </c>
       <c r="I70" s="6">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="J70" s="6">
         <v>1</v>
       </c>
-      <c r="K70" s="6">
-        <v>1</v>
-      </c>
+      <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" s="4">
         <v>69</v>
       </c>
       <c r="B71" t="s" s="5">
+        <v>186</v>
+      </c>
+      <c r="C71" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s" s="5">
         <v>187</v>
       </c>
-      <c r="C71" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D71" t="s" s="5">
-        <v>188</v>
-      </c>
       <c r="E71" t="s" s="5">
-        <v>188</v>
-      </c>
-      <c r="F71" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="F71" s="5">
+        <v>3</v>
+      </c>
       <c r="G71" s="5">
-        <v>3</v>
-      </c>
-      <c r="H71" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H71" s="6">
+        <v>690</v>
       </c>
       <c r="I71" s="6">
-        <v>690</v>
+        <v>1</v>
       </c>
       <c r="J71" s="6">
         <v>1</v>
       </c>
-      <c r="K71" s="6">
-        <v>1</v>
-      </c>
+      <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" s="4">
         <v>70</v>
       </c>
       <c r="B72" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="C72" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D72" t="s" s="5">
         <v>189</v>
       </c>
-      <c r="C72" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D72" t="s" s="5">
-        <v>190</v>
-      </c>
       <c r="E72" t="s" s="5">
-        <v>190</v>
-      </c>
-      <c r="F72" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="F72" s="5">
+        <v>3</v>
+      </c>
       <c r="G72" s="5">
-        <v>3</v>
-      </c>
-      <c r="H72" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H72" s="6">
+        <v>700</v>
       </c>
       <c r="I72" s="6">
-        <v>700</v>
+        <v>1</v>
       </c>
       <c r="J72" s="6">
         <v>1</v>
       </c>
-      <c r="K72" s="6">
-        <v>1</v>
-      </c>
+      <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" s="4">
         <v>71</v>
       </c>
       <c r="B73" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="C73" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D73" t="s" s="5">
         <v>191</v>
       </c>
-      <c r="C73" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D73" t="s" s="5">
+      <c r="E73" t="s" s="5">
         <v>192</v>
       </c>
-      <c r="E73" t="s" s="5">
-        <v>193</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H73" s="5">
-        <v>100</v>
+      <c r="F73" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G73" s="5">
+        <v>100</v>
+      </c>
+      <c r="H73" s="6">
+        <v>710</v>
       </c>
       <c r="I73" s="6">
-        <v>710</v>
+        <v>1</v>
       </c>
       <c r="J73" s="6">
         <v>1</v>
       </c>
-      <c r="K73" s="6">
-        <v>1</v>
-      </c>
+      <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" s="4">
         <v>72</v>
       </c>
       <c r="B74" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="C74" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s" s="5">
         <v>194</v>
       </c>
-      <c r="C74" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D74" t="s" s="5">
+      <c r="E74" t="s" s="5">
         <v>195</v>
       </c>
-      <c r="E74" t="s" s="5">
-        <v>196</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H74" s="5">
-        <v>100</v>
+      <c r="F74" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G74" s="5">
+        <v>100</v>
+      </c>
+      <c r="H74" s="6">
+        <v>720</v>
       </c>
       <c r="I74" s="6">
-        <v>720</v>
+        <v>1</v>
       </c>
       <c r="J74" s="6">
         <v>1</v>
       </c>
-      <c r="K74" s="6">
-        <v>1</v>
-      </c>
+      <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" s="4">
         <v>73</v>
       </c>
       <c r="B75" t="s" s="5">
+        <v>196</v>
+      </c>
+      <c r="C75" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D75" t="s" s="5">
         <v>197</v>
       </c>
-      <c r="C75" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D75" t="s" s="5">
+      <c r="E75" t="s" s="5">
         <v>198</v>
       </c>
-      <c r="E75" t="s" s="5">
-        <v>199</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H75" s="5">
-        <v>100</v>
+      <c r="F75" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G75" s="5">
+        <v>100</v>
+      </c>
+      <c r="H75" s="6">
+        <v>730</v>
       </c>
       <c r="I75" s="6">
-        <v>730</v>
+        <v>1</v>
       </c>
       <c r="J75" s="6">
         <v>1</v>
       </c>
-      <c r="K75" s="6">
-        <v>1</v>
-      </c>
+      <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" s="4">
         <v>74</v>
       </c>
       <c r="B76" t="s" s="5">
+        <v>199</v>
+      </c>
+      <c r="C76" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D76" t="s" s="5">
         <v>200</v>
       </c>
-      <c r="C76" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D76" t="s" s="5">
+      <c r="E76" t="s" s="5">
         <v>201</v>
       </c>
-      <c r="E76" t="s" s="5">
-        <v>202</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H76" s="5">
-        <v>100</v>
+      <c r="F76" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G76" s="5">
+        <v>100</v>
+      </c>
+      <c r="H76" s="6">
+        <v>740</v>
       </c>
       <c r="I76" s="6">
-        <v>740</v>
+        <v>1</v>
       </c>
       <c r="J76" s="6">
         <v>1</v>
       </c>
-      <c r="K76" s="6">
-        <v>1</v>
-      </c>
+      <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" s="4">
         <v>75</v>
       </c>
       <c r="B77" t="s" s="5">
+        <v>202</v>
+      </c>
+      <c r="C77" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D77" t="s" s="5">
         <v>203</v>
       </c>
-      <c r="C77" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D77" t="s" s="5">
-        <v>204</v>
-      </c>
       <c r="E77" t="s" s="5">
-        <v>204</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H77" s="5">
-        <v>100</v>
+        <v>203</v>
+      </c>
+      <c r="F77" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G77" s="5">
+        <v>100</v>
+      </c>
+      <c r="H77" s="6">
+        <v>750</v>
       </c>
       <c r="I77" s="6">
-        <v>750</v>
+        <v>1</v>
       </c>
       <c r="J77" s="6">
         <v>1</v>
       </c>
-      <c r="K77" s="6">
-        <v>1</v>
-      </c>
+      <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" s="4">
         <v>76</v>
       </c>
       <c r="B78" t="s" s="5">
+        <v>204</v>
+      </c>
+      <c r="C78" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D78" t="s" s="5">
         <v>205</v>
       </c>
-      <c r="C78" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D78" t="s" s="5">
-        <v>206</v>
-      </c>
       <c r="E78" t="s" s="5">
-        <v>206</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H78" s="5">
-        <v>100</v>
+        <v>205</v>
+      </c>
+      <c r="F78" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G78" s="5">
+        <v>100</v>
+      </c>
+      <c r="H78" s="6">
+        <v>760</v>
       </c>
       <c r="I78" s="6">
-        <v>760</v>
+        <v>1</v>
       </c>
       <c r="J78" s="6">
         <v>1</v>
       </c>
-      <c r="K78" s="6">
-        <v>1</v>
-      </c>
+      <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" s="4">
         <v>77</v>
       </c>
       <c r="B79" t="s" s="5">
+        <v>206</v>
+      </c>
+      <c r="C79" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D79" t="s" s="5">
         <v>207</v>
       </c>
-      <c r="C79" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D79" t="s" s="5">
-        <v>208</v>
-      </c>
       <c r="E79" t="s" s="5">
-        <v>208</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H79" s="5">
-        <v>100</v>
+        <v>207</v>
+      </c>
+      <c r="F79" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G79" s="5">
+        <v>100</v>
+      </c>
+      <c r="H79" s="6">
+        <v>770</v>
       </c>
       <c r="I79" s="6">
-        <v>770</v>
+        <v>1</v>
       </c>
       <c r="J79" s="6">
         <v>1</v>
       </c>
-      <c r="K79" s="6">
-        <v>1</v>
-      </c>
+      <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" s="4">
         <v>78</v>
       </c>
       <c r="B80" t="s" s="5">
+        <v>208</v>
+      </c>
+      <c r="C80" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D80" t="s" s="5">
         <v>209</v>
       </c>
-      <c r="C80" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D80" t="s" s="5">
-        <v>210</v>
-      </c>
       <c r="E80" t="s" s="5">
-        <v>210</v>
-      </c>
-      <c r="F80" s="7"/>
-      <c r="G80" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H80" s="5">
-        <v>100</v>
+        <v>209</v>
+      </c>
+      <c r="F80" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G80" s="5">
+        <v>100</v>
+      </c>
+      <c r="H80" s="6">
+        <v>780</v>
       </c>
       <c r="I80" s="6">
-        <v>780</v>
+        <v>1</v>
       </c>
       <c r="J80" s="6">
         <v>1</v>
       </c>
-      <c r="K80" s="6">
-        <v>1</v>
-      </c>
+      <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" s="4">
         <v>79</v>
       </c>
       <c r="B81" t="s" s="5">
+        <v>210</v>
+      </c>
+      <c r="C81" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D81" t="s" s="5">
         <v>211</v>
       </c>
-      <c r="C81" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D81" t="s" s="5">
-        <v>212</v>
-      </c>
       <c r="E81" t="s" s="5">
-        <v>212</v>
-      </c>
-      <c r="F81" s="7"/>
+        <v>211</v>
+      </c>
+      <c r="F81" s="5">
+        <v>2</v>
+      </c>
       <c r="G81" s="5">
-        <v>2</v>
-      </c>
-      <c r="H81" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H81" s="6">
+        <v>790</v>
       </c>
       <c r="I81" s="6">
-        <v>790</v>
+        <v>1</v>
       </c>
       <c r="J81" s="6">
         <v>1</v>
       </c>
-      <c r="K81" s="6">
-        <v>1</v>
-      </c>
+      <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" s="4">
         <v>80</v>
       </c>
       <c r="B82" t="s" s="5">
+        <v>212</v>
+      </c>
+      <c r="C82" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D82" t="s" s="5">
         <v>213</v>
       </c>
-      <c r="C82" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D82" t="s" s="5">
-        <v>214</v>
-      </c>
       <c r="E82" t="s" s="5">
-        <v>214</v>
-      </c>
-      <c r="F82" s="7"/>
+        <v>213</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1</v>
+      </c>
       <c r="G82" s="5">
-        <v>1</v>
-      </c>
-      <c r="H82" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H82" s="6">
+        <v>800</v>
       </c>
       <c r="I82" s="6">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="J82" s="6">
         <v>1</v>
       </c>
-      <c r="K82" s="6">
-        <v>1</v>
-      </c>
+      <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" s="4">
         <v>81</v>
       </c>
       <c r="B83" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="C83" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D83" t="s" s="5">
         <v>215</v>
       </c>
-      <c r="C83" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D83" t="s" s="5">
-        <v>216</v>
-      </c>
       <c r="E83" t="s" s="5">
-        <v>216</v>
-      </c>
-      <c r="F83" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="F83" s="5">
+        <v>2</v>
+      </c>
       <c r="G83" s="5">
-        <v>2</v>
-      </c>
-      <c r="H83" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H83" s="6">
+        <v>810</v>
       </c>
       <c r="I83" s="6">
-        <v>810</v>
+        <v>1</v>
       </c>
       <c r="J83" s="6">
         <v>1</v>
       </c>
-      <c r="K83" s="6">
-        <v>1</v>
-      </c>
+      <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" s="4">
         <v>82</v>
       </c>
       <c r="B84" t="s" s="5">
+        <v>216</v>
+      </c>
+      <c r="C84" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D84" t="s" s="5">
         <v>217</v>
       </c>
-      <c r="C84" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D84" t="s" s="5">
-        <v>218</v>
-      </c>
       <c r="E84" t="s" s="5">
-        <v>218</v>
-      </c>
-      <c r="F84" s="7"/>
+        <v>217</v>
+      </c>
+      <c r="F84" s="5">
+        <v>2</v>
+      </c>
       <c r="G84" s="5">
-        <v>2</v>
-      </c>
-      <c r="H84" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H84" s="6">
+        <v>820</v>
       </c>
       <c r="I84" s="6">
-        <v>820</v>
+        <v>1</v>
       </c>
       <c r="J84" s="6">
         <v>1</v>
       </c>
-      <c r="K84" s="6">
-        <v>1</v>
-      </c>
+      <c r="K84" s="6"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" s="4">
         <v>83</v>
       </c>
       <c r="B85" t="s" s="5">
+        <v>218</v>
+      </c>
+      <c r="C85" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D85" t="s" s="5">
         <v>219</v>
       </c>
-      <c r="C85" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D85" t="s" s="5">
-        <v>220</v>
-      </c>
       <c r="E85" t="s" s="5">
-        <v>220</v>
-      </c>
-      <c r="F85" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="F85" s="5">
+        <v>3</v>
+      </c>
       <c r="G85" s="5">
-        <v>3</v>
-      </c>
-      <c r="H85" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H85" s="6">
+        <v>830</v>
       </c>
       <c r="I85" s="6">
-        <v>830</v>
+        <v>1</v>
       </c>
       <c r="J85" s="6">
         <v>1</v>
       </c>
-      <c r="K85" s="6">
-        <v>1</v>
-      </c>
+      <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" s="4">
         <v>84</v>
       </c>
       <c r="B86" t="s" s="5">
+        <v>220</v>
+      </c>
+      <c r="C86" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D86" t="s" s="5">
         <v>221</v>
       </c>
-      <c r="C86" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D86" t="s" s="5">
-        <v>222</v>
-      </c>
       <c r="E86" t="s" s="5">
-        <v>222</v>
-      </c>
-      <c r="F86" s="7"/>
-      <c r="G86" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H86" s="5">
-        <v>100</v>
+        <v>221</v>
+      </c>
+      <c r="F86" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G86" s="5">
+        <v>100</v>
+      </c>
+      <c r="H86" s="6">
+        <v>840</v>
       </c>
       <c r="I86" s="6">
-        <v>840</v>
+        <v>1</v>
       </c>
       <c r="J86" s="6">
         <v>1</v>
       </c>
-      <c r="K86" s="6">
-        <v>1</v>
-      </c>
+      <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" s="4">
         <v>85</v>
       </c>
       <c r="B87" t="s" s="5">
+        <v>222</v>
+      </c>
+      <c r="C87" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D87" t="s" s="5">
         <v>223</v>
       </c>
-      <c r="C87" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D87" t="s" s="5">
-        <v>224</v>
-      </c>
       <c r="E87" t="s" s="5">
-        <v>224</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H87" s="5">
-        <v>100</v>
+        <v>223</v>
+      </c>
+      <c r="F87" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G87" s="5">
+        <v>100</v>
+      </c>
+      <c r="H87" s="6">
+        <v>850</v>
       </c>
       <c r="I87" s="6">
-        <v>850</v>
+        <v>1</v>
       </c>
       <c r="J87" s="6">
         <v>1</v>
       </c>
-      <c r="K87" s="6">
-        <v>1</v>
-      </c>
+      <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" s="4">
         <v>86</v>
       </c>
       <c r="B88" t="s" s="5">
+        <v>224</v>
+      </c>
+      <c r="C88" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D88" t="s" s="5">
         <v>225</v>
       </c>
-      <c r="C88" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="D88" t="s" s="5">
-        <v>226</v>
-      </c>
       <c r="E88" t="s" s="5">
-        <v>226</v>
-      </c>
-      <c r="F88" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="F88" s="5">
+        <v>1</v>
+      </c>
       <c r="G88" s="5">
-        <v>1</v>
-      </c>
-      <c r="H88" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H88" s="6">
+        <v>860</v>
       </c>
       <c r="I88" s="6">
-        <v>860</v>
+        <v>1</v>
       </c>
       <c r="J88" s="6">
         <v>1</v>
       </c>
-      <c r="K88" s="6">
-        <v>1</v>
-      </c>
+      <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" s="4">
         <v>87</v>
       </c>
       <c r="B89" t="s" s="5">
+        <v>226</v>
+      </c>
+      <c r="C89" t="s" s="5">
         <v>227</v>
       </c>
-      <c r="C89" t="s" s="5">
+      <c r="D89" t="s" s="5">
         <v>228</v>
       </c>
-      <c r="D89" t="s" s="5">
+      <c r="E89" t="s" s="5">
         <v>229</v>
       </c>
-      <c r="E89" t="s" s="5">
-        <v>230</v>
-      </c>
-      <c r="F89" s="7"/>
+      <c r="F89" s="5">
+        <v>2</v>
+      </c>
       <c r="G89" s="5">
-        <v>2</v>
-      </c>
-      <c r="H89" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H89" s="6">
+        <v>870</v>
       </c>
       <c r="I89" s="6">
-        <v>870</v>
+        <v>1</v>
       </c>
       <c r="J89" s="6">
         <v>1</v>
       </c>
-      <c r="K89" s="6">
-        <v>1</v>
-      </c>
+      <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" s="4">
         <v>88</v>
       </c>
       <c r="B90" t="s" s="5">
+        <v>230</v>
+      </c>
+      <c r="C90" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="D90" t="s" s="5">
+        <v>229</v>
+      </c>
+      <c r="E90" t="s" s="5">
         <v>231</v>
       </c>
-      <c r="C90" t="s" s="5">
-        <v>228</v>
-      </c>
-      <c r="D90" t="s" s="5">
-        <v>230</v>
-      </c>
-      <c r="E90" t="s" s="5">
-        <v>232</v>
-      </c>
-      <c r="F90" s="7"/>
+      <c r="F90" s="5">
+        <v>2</v>
+      </c>
       <c r="G90" s="5">
-        <v>2</v>
-      </c>
-      <c r="H90" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H90" s="6">
+        <v>880</v>
       </c>
       <c r="I90" s="6">
-        <v>880</v>
+        <v>1</v>
       </c>
       <c r="J90" s="6">
         <v>1</v>
       </c>
-      <c r="K90" s="6">
-        <v>1</v>
-      </c>
+      <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" s="4">
         <v>89</v>
       </c>
       <c r="B91" t="s" s="5">
+        <v>232</v>
+      </c>
+      <c r="C91" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="D91" t="s" s="5">
         <v>233</v>
       </c>
-      <c r="C91" t="s" s="5">
-        <v>228</v>
-      </c>
-      <c r="D91" t="s" s="5">
-        <v>234</v>
-      </c>
       <c r="E91" t="s" s="5">
-        <v>234</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H91" s="5">
-        <v>100</v>
+        <v>233</v>
+      </c>
+      <c r="F91" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G91" s="5">
+        <v>100</v>
+      </c>
+      <c r="H91" s="6">
+        <v>890</v>
       </c>
       <c r="I91" s="6">
-        <v>890</v>
+        <v>1</v>
       </c>
       <c r="J91" s="6">
         <v>1</v>
       </c>
-      <c r="K91" s="6">
-        <v>1</v>
-      </c>
+      <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" s="4">
         <v>90</v>
       </c>
       <c r="B92" t="s" s="5">
+        <v>234</v>
+      </c>
+      <c r="C92" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="D92" t="s" s="5">
         <v>235</v>
       </c>
-      <c r="C92" t="s" s="5">
-        <v>228</v>
-      </c>
-      <c r="D92" t="s" s="5">
-        <v>236</v>
-      </c>
       <c r="E92" t="s" s="5">
-        <v>236</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H92" s="5">
-        <v>100</v>
+        <v>235</v>
+      </c>
+      <c r="F92" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G92" s="5">
+        <v>100</v>
+      </c>
+      <c r="H92" s="6">
+        <v>900</v>
       </c>
       <c r="I92" s="6">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="J92" s="6">
         <v>1</v>
       </c>
-      <c r="K92" s="6">
-        <v>1</v>
-      </c>
+      <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" s="4">
         <v>91</v>
       </c>
       <c r="B93" t="s" s="5">
+        <v>236</v>
+      </c>
+      <c r="C93" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="D93" t="s" s="5">
         <v>237</v>
       </c>
-      <c r="C93" t="s" s="5">
-        <v>228</v>
-      </c>
-      <c r="D93" t="s" s="5">
-        <v>238</v>
-      </c>
       <c r="E93" t="s" s="5">
-        <v>238</v>
-      </c>
-      <c r="F93" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="F93" s="5">
+        <v>4</v>
+      </c>
       <c r="G93" s="5">
-        <v>4</v>
-      </c>
-      <c r="H93" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H93" s="6">
+        <v>910</v>
       </c>
       <c r="I93" s="6">
-        <v>910</v>
+        <v>1</v>
       </c>
       <c r="J93" s="6">
         <v>1</v>
       </c>
-      <c r="K93" s="6">
-        <v>1</v>
-      </c>
+      <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" s="4">
         <v>92</v>
       </c>
       <c r="B94" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="C94" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="D94" t="s" s="5">
         <v>239</v>
       </c>
-      <c r="C94" t="s" s="5">
-        <v>228</v>
-      </c>
-      <c r="D94" t="s" s="5">
-        <v>240</v>
-      </c>
       <c r="E94" t="s" s="5">
-        <v>240</v>
-      </c>
-      <c r="F94" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="F94" s="5">
+        <v>3</v>
+      </c>
       <c r="G94" s="5">
-        <v>3</v>
-      </c>
-      <c r="H94" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H94" s="6">
+        <v>920</v>
       </c>
       <c r="I94" s="6">
-        <v>920</v>
+        <v>1</v>
       </c>
       <c r="J94" s="6">
         <v>1</v>
       </c>
-      <c r="K94" s="6">
-        <v>1</v>
-      </c>
+      <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" s="4">
         <v>93</v>
       </c>
       <c r="B95" t="s" s="5">
+        <v>240</v>
+      </c>
+      <c r="C95" t="s" s="5">
         <v>241</v>
       </c>
-      <c r="C95" t="s" s="5">
+      <c r="D95" t="s" s="5">
         <v>242</v>
       </c>
-      <c r="D95" t="s" s="5">
-        <v>243</v>
-      </c>
       <c r="E95" t="s" s="5">
-        <v>243</v>
-      </c>
-      <c r="F95" s="7"/>
+        <v>242</v>
+      </c>
+      <c r="F95" s="5">
+        <v>2</v>
+      </c>
       <c r="G95" s="5">
-        <v>2</v>
-      </c>
-      <c r="H95" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H95" s="6">
+        <v>930</v>
       </c>
       <c r="I95" s="6">
-        <v>930</v>
+        <v>1</v>
       </c>
       <c r="J95" s="6">
         <v>1</v>
       </c>
-      <c r="K95" s="6">
-        <v>1</v>
-      </c>
+      <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" s="4">
         <v>94</v>
       </c>
       <c r="B96" t="s" s="5">
+        <v>243</v>
+      </c>
+      <c r="C96" t="s" s="5">
+        <v>241</v>
+      </c>
+      <c r="D96" t="s" s="5">
         <v>244</v>
       </c>
-      <c r="C96" t="s" s="5">
-        <v>242</v>
-      </c>
-      <c r="D96" t="s" s="5">
-        <v>245</v>
-      </c>
       <c r="E96" t="s" s="5">
-        <v>245</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H96" s="5">
-        <v>100</v>
+        <v>244</v>
+      </c>
+      <c r="F96" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G96" s="5">
+        <v>100</v>
+      </c>
+      <c r="H96" s="6">
+        <v>940</v>
       </c>
       <c r="I96" s="6">
-        <v>940</v>
+        <v>1</v>
       </c>
       <c r="J96" s="6">
         <v>1</v>
       </c>
-      <c r="K96" s="6">
-        <v>1</v>
-      </c>
+      <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" s="4">
         <v>95</v>
       </c>
       <c r="B97" t="s" s="5">
+        <v>245</v>
+      </c>
+      <c r="C97" t="s" s="5">
         <v>246</v>
       </c>
-      <c r="C97" t="s" s="5">
+      <c r="D97" t="s" s="5">
         <v>247</v>
       </c>
-      <c r="D97" t="s" s="5">
-        <v>248</v>
-      </c>
       <c r="E97" t="s" s="5">
-        <v>248</v>
-      </c>
-      <c r="F97" s="7"/>
+        <v>247</v>
+      </c>
+      <c r="F97" s="5">
+        <v>3</v>
+      </c>
       <c r="G97" s="5">
-        <v>3</v>
-      </c>
-      <c r="H97" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H97" s="6">
+        <v>950</v>
       </c>
       <c r="I97" s="6">
-        <v>950</v>
+        <v>1</v>
       </c>
       <c r="J97" s="6">
         <v>1</v>
       </c>
-      <c r="K97" s="6">
-        <v>1</v>
-      </c>
+      <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98" s="4">
         <v>96</v>
       </c>
       <c r="B98" t="s" s="5">
+        <v>248</v>
+      </c>
+      <c r="C98" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D98" t="s" s="5">
         <v>249</v>
       </c>
-      <c r="C98" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D98" t="s" s="5">
-        <v>250</v>
-      </c>
       <c r="E98" t="s" s="5">
-        <v>250</v>
-      </c>
-      <c r="F98" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="F98" s="5">
+        <v>4</v>
+      </c>
       <c r="G98" s="5">
-        <v>4</v>
-      </c>
-      <c r="H98" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H98" s="6">
+        <v>960</v>
       </c>
       <c r="I98" s="6">
-        <v>960</v>
+        <v>1</v>
       </c>
       <c r="J98" s="6">
         <v>1</v>
       </c>
-      <c r="K98" s="6">
-        <v>1</v>
-      </c>
+      <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99" s="4">
         <v>97</v>
       </c>
       <c r="B99" t="s" s="5">
+        <v>250</v>
+      </c>
+      <c r="C99" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D99" t="s" s="5">
         <v>251</v>
       </c>
-      <c r="C99" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D99" t="s" s="5">
-        <v>252</v>
-      </c>
       <c r="E99" t="s" s="5">
-        <v>252</v>
-      </c>
-      <c r="F99" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="F99" s="5">
+        <v>4</v>
+      </c>
       <c r="G99" s="5">
-        <v>4</v>
-      </c>
-      <c r="H99" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H99" s="6">
+        <v>970</v>
       </c>
       <c r="I99" s="6">
-        <v>970</v>
+        <v>1</v>
       </c>
       <c r="J99" s="6">
         <v>1</v>
       </c>
-      <c r="K99" s="6">
-        <v>1</v>
-      </c>
+      <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
     </row>
     <row r="100" ht="20" customHeight="1">
       <c r="A100" s="4">
         <v>98</v>
       </c>
       <c r="B100" t="s" s="5">
+        <v>252</v>
+      </c>
+      <c r="C100" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D100" t="s" s="5">
         <v>253</v>
       </c>
-      <c r="C100" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D100" t="s" s="5">
-        <v>254</v>
-      </c>
       <c r="E100" t="s" s="5">
-        <v>254</v>
-      </c>
-      <c r="F100" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="F100" s="5">
+        <v>2</v>
+      </c>
       <c r="G100" s="5">
-        <v>2</v>
-      </c>
-      <c r="H100" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H100" s="6">
+        <v>980</v>
       </c>
       <c r="I100" s="6">
-        <v>980</v>
+        <v>1</v>
       </c>
       <c r="J100" s="6">
         <v>1</v>
       </c>
-      <c r="K100" s="6">
-        <v>1</v>
-      </c>
+      <c r="K100" s="6"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
     </row>
     <row r="101" ht="20" customHeight="1">
       <c r="A101" s="4">
         <v>99</v>
       </c>
       <c r="B101" t="s" s="5">
+        <v>254</v>
+      </c>
+      <c r="C101" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D101" t="s" s="5">
         <v>255</v>
       </c>
-      <c r="C101" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D101" t="s" s="5">
-        <v>256</v>
-      </c>
       <c r="E101" t="s" s="5">
-        <v>256</v>
-      </c>
-      <c r="F101" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="F101" s="5">
+        <v>3</v>
+      </c>
       <c r="G101" s="5">
-        <v>3</v>
-      </c>
-      <c r="H101" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H101" s="6">
+        <v>990</v>
       </c>
       <c r="I101" s="6">
-        <v>990</v>
+        <v>1</v>
       </c>
       <c r="J101" s="6">
         <v>1</v>
       </c>
-      <c r="K101" s="6">
-        <v>1</v>
-      </c>
+      <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
     </row>
     <row r="102" ht="20" customHeight="1">
       <c r="A102" s="4">
         <v>100</v>
       </c>
       <c r="B102" t="s" s="5">
+        <v>256</v>
+      </c>
+      <c r="C102" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D102" t="s" s="5">
         <v>257</v>
       </c>
-      <c r="C102" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D102" t="s" s="5">
-        <v>258</v>
-      </c>
       <c r="E102" t="s" s="5">
-        <v>258</v>
-      </c>
-      <c r="F102" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="F102" s="5">
+        <v>3</v>
+      </c>
       <c r="G102" s="5">
-        <v>3</v>
-      </c>
-      <c r="H102" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H102" s="6">
+        <v>1000</v>
       </c>
       <c r="I102" s="6">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J102" s="6">
         <v>1</v>
       </c>
-      <c r="K102" s="6">
-        <v>1</v>
-      </c>
+      <c r="K102" s="6"/>
       <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
     </row>
     <row r="103" ht="20" customHeight="1">
       <c r="A103" s="4">
         <v>101</v>
       </c>
       <c r="B103" t="s" s="5">
+        <v>258</v>
+      </c>
+      <c r="C103" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D103" t="s" s="5">
         <v>259</v>
       </c>
-      <c r="C103" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D103" t="s" s="5">
+      <c r="E103" t="s" s="5">
         <v>260</v>
       </c>
-      <c r="E103" t="s" s="5">
-        <v>261</v>
-      </c>
-      <c r="F103" s="7"/>
+      <c r="F103" s="5">
+        <v>4</v>
+      </c>
       <c r="G103" s="5">
-        <v>4</v>
-      </c>
-      <c r="H103" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H103" s="6">
+        <v>1010</v>
       </c>
       <c r="I103" s="6">
-        <v>1010</v>
+        <v>1</v>
       </c>
       <c r="J103" s="6">
         <v>1</v>
       </c>
-      <c r="K103" s="6">
-        <v>1</v>
-      </c>
+      <c r="K103" s="6"/>
       <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
     </row>
     <row r="104" ht="20" customHeight="1">
       <c r="A104" s="4">
         <v>102</v>
       </c>
       <c r="B104" t="s" s="5">
+        <v>261</v>
+      </c>
+      <c r="C104" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D104" t="s" s="5">
         <v>262</v>
       </c>
-      <c r="C104" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D104" t="s" s="5">
+      <c r="E104" t="s" s="5">
         <v>263</v>
       </c>
-      <c r="E104" t="s" s="5">
-        <v>264</v>
-      </c>
-      <c r="F104" s="7"/>
+      <c r="F104" s="5">
+        <v>4</v>
+      </c>
       <c r="G104" s="5">
-        <v>4</v>
-      </c>
-      <c r="H104" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H104" s="6">
+        <v>1020</v>
       </c>
       <c r="I104" s="6">
-        <v>1020</v>
+        <v>1</v>
       </c>
       <c r="J104" s="6">
         <v>1</v>
       </c>
-      <c r="K104" s="6">
-        <v>1</v>
-      </c>
+      <c r="K104" s="6"/>
       <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
     </row>
     <row r="105" ht="20" customHeight="1">
       <c r="A105" s="4">
         <v>103</v>
       </c>
       <c r="B105" t="s" s="5">
+        <v>264</v>
+      </c>
+      <c r="C105" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D105" t="s" s="5">
         <v>265</v>
       </c>
-      <c r="C105" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D105" t="s" s="5">
-        <v>266</v>
-      </c>
       <c r="E105" t="s" s="5">
-        <v>266</v>
-      </c>
-      <c r="F105" s="7"/>
+        <v>265</v>
+      </c>
+      <c r="F105" s="5">
+        <v>2</v>
+      </c>
       <c r="G105" s="5">
-        <v>2</v>
-      </c>
-      <c r="H105" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H105" s="6">
+        <v>1030</v>
       </c>
       <c r="I105" s="6">
-        <v>1030</v>
+        <v>1</v>
       </c>
       <c r="J105" s="6">
         <v>1</v>
       </c>
-      <c r="K105" s="6">
-        <v>1</v>
-      </c>
+      <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
     </row>
     <row r="106" ht="20" customHeight="1">
       <c r="A106" s="4">
         <v>104</v>
       </c>
       <c r="B106" t="s" s="5">
+        <v>266</v>
+      </c>
+      <c r="C106" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D106" t="s" s="5">
         <v>267</v>
       </c>
-      <c r="C106" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D106" t="s" s="5">
-        <v>268</v>
-      </c>
       <c r="E106" t="s" s="5">
-        <v>268</v>
-      </c>
-      <c r="F106" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="F106" s="5">
+        <v>2</v>
+      </c>
       <c r="G106" s="5">
-        <v>2</v>
-      </c>
-      <c r="H106" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H106" s="6">
+        <v>1040</v>
       </c>
       <c r="I106" s="6">
-        <v>1040</v>
+        <v>1</v>
       </c>
       <c r="J106" s="6">
         <v>1</v>
       </c>
-      <c r="K106" s="6">
-        <v>1</v>
-      </c>
+      <c r="K106" s="6"/>
       <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
     </row>
     <row r="107" ht="20" customHeight="1">
       <c r="A107" s="4">
         <v>105</v>
       </c>
       <c r="B107" t="s" s="5">
+        <v>268</v>
+      </c>
+      <c r="C107" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D107" t="s" s="5">
         <v>269</v>
       </c>
-      <c r="C107" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="D107" t="s" s="5">
-        <v>270</v>
-      </c>
       <c r="E107" t="s" s="5">
-        <v>270</v>
-      </c>
-      <c r="F107" s="7"/>
-      <c r="G107" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H107" s="5">
-        <v>100</v>
+        <v>269</v>
+      </c>
+      <c r="F107" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G107" s="5">
+        <v>100</v>
+      </c>
+      <c r="H107" s="6">
+        <v>1050</v>
       </c>
       <c r="I107" s="6">
-        <v>1050</v>
+        <v>1</v>
       </c>
       <c r="J107" s="6">
         <v>1</v>
       </c>
-      <c r="K107" s="6">
-        <v>1</v>
-      </c>
+      <c r="K107" s="6"/>
       <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
     </row>
     <row r="108" ht="20" customHeight="1">
       <c r="A108" s="4">
         <v>106</v>
       </c>
       <c r="B108" t="s" s="5">
+        <v>270</v>
+      </c>
+      <c r="C108" t="s" s="5">
         <v>271</v>
       </c>
-      <c r="C108" t="s" s="5">
+      <c r="D108" t="s" s="5">
         <v>272</v>
       </c>
-      <c r="D108" t="s" s="5">
+      <c r="E108" t="s" s="5">
         <v>273</v>
       </c>
-      <c r="E108" t="s" s="5">
-        <v>274</v>
-      </c>
-      <c r="F108" s="7"/>
-      <c r="G108" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H108" s="5">
-        <v>100</v>
+      <c r="F108" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G108" s="5">
+        <v>100</v>
+      </c>
+      <c r="H108" s="6">
+        <v>1060</v>
       </c>
       <c r="I108" s="6">
-        <v>1060</v>
+        <v>1</v>
       </c>
       <c r="J108" s="6">
         <v>1</v>
       </c>
-      <c r="K108" s="6">
-        <v>1</v>
-      </c>
+      <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109" s="4">
         <v>107</v>
       </c>
       <c r="B109" t="s" s="5">
+        <v>274</v>
+      </c>
+      <c r="C109" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D109" t="s" s="5">
         <v>275</v>
       </c>
-      <c r="C109" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D109" t="s" s="5">
-        <v>276</v>
-      </c>
       <c r="E109" t="s" s="5">
-        <v>276</v>
-      </c>
-      <c r="F109" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="F109" s="5">
+        <v>2</v>
+      </c>
       <c r="G109" s="5">
-        <v>2</v>
-      </c>
-      <c r="H109" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H109" s="6">
+        <v>1070</v>
       </c>
       <c r="I109" s="6">
-        <v>1070</v>
+        <v>1</v>
       </c>
       <c r="J109" s="6">
         <v>1</v>
       </c>
-      <c r="K109" s="6">
-        <v>1</v>
-      </c>
+      <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" s="4">
         <v>108</v>
       </c>
       <c r="B110" t="s" s="5">
+        <v>276</v>
+      </c>
+      <c r="C110" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D110" t="s" s="5">
         <v>277</v>
       </c>
-      <c r="C110" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D110" t="s" s="5">
-        <v>278</v>
-      </c>
       <c r="E110" t="s" s="5">
-        <v>278</v>
-      </c>
-      <c r="F110" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="F110" s="5">
+        <v>2</v>
+      </c>
       <c r="G110" s="5">
-        <v>2</v>
-      </c>
-      <c r="H110" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H110" s="6">
+        <v>1080</v>
       </c>
       <c r="I110" s="6">
-        <v>1080</v>
+        <v>1</v>
       </c>
       <c r="J110" s="6">
         <v>1</v>
       </c>
-      <c r="K110" s="6">
-        <v>1</v>
-      </c>
+      <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111" s="4">
         <v>109</v>
       </c>
       <c r="B111" t="s" s="5">
+        <v>278</v>
+      </c>
+      <c r="C111" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D111" t="s" s="5">
         <v>279</v>
       </c>
-      <c r="C111" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D111" t="s" s="5">
-        <v>280</v>
-      </c>
       <c r="E111" t="s" s="5">
-        <v>280</v>
-      </c>
-      <c r="F111" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="F111" s="5">
+        <v>2</v>
+      </c>
       <c r="G111" s="5">
-        <v>2</v>
-      </c>
-      <c r="H111" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H111" s="6">
+        <v>1090</v>
       </c>
       <c r="I111" s="6">
-        <v>1090</v>
+        <v>1</v>
       </c>
       <c r="J111" s="6">
         <v>1</v>
       </c>
-      <c r="K111" s="6">
-        <v>1</v>
-      </c>
+      <c r="K111" s="6"/>
       <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112" s="4">
         <v>110</v>
       </c>
       <c r="B112" t="s" s="5">
+        <v>280</v>
+      </c>
+      <c r="C112" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D112" t="s" s="5">
         <v>281</v>
       </c>
-      <c r="C112" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D112" t="s" s="5">
-        <v>282</v>
-      </c>
       <c r="E112" t="s" s="5">
-        <v>282</v>
-      </c>
-      <c r="F112" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1</v>
+      </c>
       <c r="G112" s="5">
-        <v>1</v>
-      </c>
-      <c r="H112" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H112" s="6">
+        <v>1100</v>
       </c>
       <c r="I112" s="6">
-        <v>1100</v>
+        <v>1</v>
       </c>
       <c r="J112" s="6">
         <v>1</v>
       </c>
-      <c r="K112" s="6">
-        <v>1</v>
-      </c>
+      <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113" s="4">
         <v>111</v>
       </c>
       <c r="B113" t="s" s="5">
+        <v>282</v>
+      </c>
+      <c r="C113" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D113" t="s" s="5">
         <v>283</v>
       </c>
-      <c r="C113" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D113" t="s" s="5">
-        <v>284</v>
-      </c>
       <c r="E113" t="s" s="5">
-        <v>284</v>
-      </c>
-      <c r="F113" s="7"/>
+        <v>283</v>
+      </c>
+      <c r="F113" s="5">
+        <v>1</v>
+      </c>
       <c r="G113" s="5">
-        <v>1</v>
-      </c>
-      <c r="H113" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H113" s="6">
+        <v>1110</v>
       </c>
       <c r="I113" s="6">
-        <v>1110</v>
+        <v>1</v>
       </c>
       <c r="J113" s="6">
         <v>1</v>
       </c>
-      <c r="K113" s="6">
-        <v>1</v>
-      </c>
+      <c r="K113" s="6"/>
       <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
     </row>
     <row r="114" ht="20" customHeight="1">
       <c r="A114" s="4">
         <v>112</v>
       </c>
       <c r="B114" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="C114" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D114" t="s" s="5">
         <v>285</v>
       </c>
-      <c r="C114" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D114" t="s" s="5">
-        <v>286</v>
-      </c>
       <c r="E114" t="s" s="5">
-        <v>286</v>
-      </c>
-      <c r="F114" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="F114" s="5">
+        <v>2</v>
+      </c>
       <c r="G114" s="5">
-        <v>2</v>
-      </c>
-      <c r="H114" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H114" s="6">
+        <v>1120</v>
       </c>
       <c r="I114" s="6">
-        <v>1120</v>
+        <v>1</v>
       </c>
       <c r="J114" s="6">
         <v>1</v>
       </c>
-      <c r="K114" s="6">
-        <v>1</v>
-      </c>
+      <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
     </row>
     <row r="115" ht="20" customHeight="1">
       <c r="A115" s="4">
         <v>113</v>
       </c>
       <c r="B115" t="s" s="5">
+        <v>286</v>
+      </c>
+      <c r="C115" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D115" t="s" s="5">
         <v>287</v>
       </c>
-      <c r="C115" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D115" t="s" s="5">
+      <c r="E115" t="s" s="5">
         <v>288</v>
       </c>
-      <c r="E115" t="s" s="5">
-        <v>289</v>
-      </c>
-      <c r="F115" s="7"/>
-      <c r="G115" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H115" s="5">
-        <v>100</v>
+      <c r="F115" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G115" s="5">
+        <v>100</v>
+      </c>
+      <c r="H115" s="6">
+        <v>1130</v>
       </c>
       <c r="I115" s="6">
-        <v>1130</v>
+        <v>1</v>
       </c>
       <c r="J115" s="6">
         <v>1</v>
       </c>
-      <c r="K115" s="6">
-        <v>1</v>
-      </c>
+      <c r="K115" s="6"/>
       <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
     </row>
     <row r="116" ht="20" customHeight="1">
       <c r="A116" s="4">
         <v>114</v>
       </c>
       <c r="B116" t="s" s="5">
+        <v>289</v>
+      </c>
+      <c r="C116" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D116" t="s" s="5">
         <v>290</v>
       </c>
-      <c r="C116" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D116" t="s" s="5">
-        <v>291</v>
-      </c>
       <c r="E116" t="s" s="5">
-        <v>291</v>
-      </c>
-      <c r="F116" s="7"/>
-      <c r="G116" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="H116" s="5">
-        <v>100</v>
+        <v>290</v>
+      </c>
+      <c r="F116" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="G116" s="5">
+        <v>100</v>
+      </c>
+      <c r="H116" s="6">
+        <v>1140</v>
       </c>
       <c r="I116" s="6">
-        <v>1140</v>
+        <v>1</v>
       </c>
       <c r="J116" s="6">
         <v>1</v>
       </c>
-      <c r="K116" s="6">
-        <v>1</v>
-      </c>
+      <c r="K116" s="6"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
     </row>
     <row r="117" ht="20" customHeight="1">
       <c r="A117" s="4">
         <v>115</v>
       </c>
       <c r="B117" t="s" s="5">
+        <v>291</v>
+      </c>
+      <c r="C117" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D117" t="s" s="5">
         <v>292</v>
       </c>
-      <c r="C117" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D117" t="s" s="5">
-        <v>293</v>
-      </c>
       <c r="E117" t="s" s="5">
-        <v>293</v>
-      </c>
-      <c r="F117" s="7"/>
+        <v>292</v>
+      </c>
+      <c r="F117" s="5">
+        <v>1</v>
+      </c>
       <c r="G117" s="5">
-        <v>1</v>
-      </c>
-      <c r="H117" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H117" s="6">
+        <v>1150</v>
       </c>
       <c r="I117" s="6">
-        <v>1150</v>
+        <v>1</v>
       </c>
       <c r="J117" s="6">
         <v>1</v>
       </c>
-      <c r="K117" s="6">
-        <v>1</v>
-      </c>
+      <c r="K117" s="6"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
     </row>
     <row r="118" ht="20" customHeight="1">
       <c r="A118" s="4">
         <v>116</v>
       </c>
       <c r="B118" t="s" s="5">
+        <v>293</v>
+      </c>
+      <c r="C118" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D118" t="s" s="5">
         <v>294</v>
       </c>
-      <c r="C118" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D118" t="s" s="5">
-        <v>295</v>
-      </c>
       <c r="E118" t="s" s="5">
-        <v>295</v>
-      </c>
-      <c r="F118" s="7"/>
+        <v>294</v>
+      </c>
+      <c r="F118" s="5">
+        <v>2</v>
+      </c>
       <c r="G118" s="5">
-        <v>2</v>
-      </c>
-      <c r="H118" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H118" s="6">
+        <v>1160</v>
       </c>
       <c r="I118" s="6">
-        <v>1160</v>
+        <v>1</v>
       </c>
       <c r="J118" s="6">
         <v>1</v>
       </c>
-      <c r="K118" s="6">
-        <v>1</v>
-      </c>
+      <c r="K118" s="6"/>
       <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" s="4">
         <v>117</v>
       </c>
       <c r="B119" t="s" s="5">
+        <v>295</v>
+      </c>
+      <c r="C119" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D119" t="s" s="5">
         <v>296</v>
       </c>
-      <c r="C119" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D119" t="s" s="5">
-        <v>297</v>
-      </c>
       <c r="E119" t="s" s="5">
-        <v>297</v>
-      </c>
-      <c r="F119" s="7"/>
+        <v>296</v>
+      </c>
+      <c r="F119" s="5">
+        <v>3</v>
+      </c>
       <c r="G119" s="5">
-        <v>3</v>
-      </c>
-      <c r="H119" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H119" s="6">
+        <v>1170</v>
       </c>
       <c r="I119" s="6">
-        <v>1170</v>
+        <v>1</v>
       </c>
       <c r="J119" s="6">
         <v>1</v>
       </c>
-      <c r="K119" s="6">
-        <v>1</v>
-      </c>
+      <c r="K119" s="6"/>
       <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
     </row>
     <row r="120" ht="20" customHeight="1">
       <c r="A120" s="4">
         <v>118</v>
       </c>
       <c r="B120" t="s" s="5">
+        <v>297</v>
+      </c>
+      <c r="C120" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D120" t="s" s="5">
         <v>298</v>
       </c>
-      <c r="C120" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D120" t="s" s="5">
+      <c r="E120" t="s" s="5">
         <v>299</v>
       </c>
-      <c r="E120" t="s" s="5">
-        <v>300</v>
-      </c>
-      <c r="F120" s="7"/>
+      <c r="F120" s="5">
+        <v>4</v>
+      </c>
       <c r="G120" s="5">
-        <v>4</v>
-      </c>
-      <c r="H120" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H120" s="6">
+        <v>1180</v>
       </c>
       <c r="I120" s="6">
-        <v>1180</v>
+        <v>1</v>
       </c>
       <c r="J120" s="6">
         <v>1</v>
       </c>
-      <c r="K120" s="6">
-        <v>1</v>
-      </c>
+      <c r="K120" s="6"/>
       <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
     </row>
     <row r="121" ht="20" customHeight="1">
       <c r="A121" s="4">
         <v>119</v>
       </c>
       <c r="B121" t="s" s="5">
+        <v>300</v>
+      </c>
+      <c r="C121" t="s" s="5">
         <v>301</v>
       </c>
-      <c r="C121" t="s" s="5">
+      <c r="D121" t="s" s="5">
         <v>302</v>
       </c>
-      <c r="D121" t="s" s="5">
+      <c r="E121" t="s" s="5">
         <v>303</v>
       </c>
-      <c r="E121" t="s" s="5">
-        <v>304</v>
-      </c>
-      <c r="F121" s="7"/>
+      <c r="F121" s="5">
+        <v>3</v>
+      </c>
       <c r="G121" s="5">
-        <v>3</v>
-      </c>
-      <c r="H121" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H121" s="6">
+        <v>1190</v>
       </c>
       <c r="I121" s="6">
-        <v>1190</v>
+        <v>1</v>
       </c>
       <c r="J121" s="6">
         <v>1</v>
       </c>
-      <c r="K121" s="6">
-        <v>1</v>
-      </c>
+      <c r="K121" s="6"/>
       <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
     </row>
     <row r="122" ht="20" customHeight="1">
       <c r="A122" s="4">
         <v>120</v>
       </c>
       <c r="B122" t="s" s="5">
+        <v>304</v>
+      </c>
+      <c r="C122" t="s" s="5">
+        <v>301</v>
+      </c>
+      <c r="D122" t="s" s="5">
         <v>305</v>
       </c>
-      <c r="C122" t="s" s="5">
-        <v>302</v>
-      </c>
-      <c r="D122" t="s" s="5">
+      <c r="E122" t="s" s="5">
         <v>306</v>
       </c>
-      <c r="E122" t="s" s="5">
-        <v>307</v>
-      </c>
-      <c r="F122" s="7"/>
+      <c r="F122" s="5">
+        <v>2</v>
+      </c>
       <c r="G122" s="5">
-        <v>2</v>
-      </c>
-      <c r="H122" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H122" s="6">
+        <v>1200</v>
       </c>
       <c r="I122" s="6">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="J122" s="6">
         <v>1</v>
       </c>
-      <c r="K122" s="6">
-        <v>1</v>
-      </c>
+      <c r="K122" s="6"/>
       <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
     </row>
     <row r="123" ht="20" customHeight="1">
       <c r="A123" s="4">
         <v>121</v>
       </c>
       <c r="B123" t="s" s="5">
+        <v>307</v>
+      </c>
+      <c r="C123" t="s" s="5">
+        <v>301</v>
+      </c>
+      <c r="D123" t="s" s="5">
         <v>308</v>
       </c>
-      <c r="C123" t="s" s="5">
-        <v>302</v>
-      </c>
-      <c r="D123" t="s" s="5">
-        <v>309</v>
-      </c>
       <c r="E123" t="s" s="5">
-        <v>309</v>
-      </c>
-      <c r="F123" s="7"/>
+        <v>308</v>
+      </c>
+      <c r="F123" s="5">
+        <v>2</v>
+      </c>
       <c r="G123" s="5">
-        <v>2</v>
-      </c>
-      <c r="H123" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H123" s="6">
+        <v>1210</v>
       </c>
       <c r="I123" s="6">
-        <v>1210</v>
+        <v>1</v>
       </c>
       <c r="J123" s="6">
         <v>1</v>
       </c>
-      <c r="K123" s="6">
-        <v>1</v>
-      </c>
+      <c r="K123" s="6"/>
       <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
     </row>
     <row r="124" ht="20" customHeight="1">
       <c r="A124" s="4">
         <v>122</v>
       </c>
       <c r="B124" t="s" s="5">
+        <v>309</v>
+      </c>
+      <c r="C124" t="s" s="5">
+        <v>301</v>
+      </c>
+      <c r="D124" t="s" s="5">
         <v>310</v>
       </c>
-      <c r="C124" t="s" s="5">
-        <v>302</v>
-      </c>
-      <c r="D124" t="s" s="5">
-        <v>311</v>
-      </c>
       <c r="E124" t="s" s="5">
-        <v>311</v>
-      </c>
-      <c r="F124" s="7"/>
+        <v>310</v>
+      </c>
+      <c r="F124" s="5">
+        <v>3</v>
+      </c>
       <c r="G124" s="5">
-        <v>3</v>
-      </c>
-      <c r="H124" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H124" s="6">
+        <v>1220</v>
       </c>
       <c r="I124" s="6">
-        <v>1220</v>
+        <v>1</v>
       </c>
       <c r="J124" s="6">
         <v>1</v>
       </c>
-      <c r="K124" s="6">
-        <v>1</v>
-      </c>
+      <c r="K124" s="6"/>
       <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
     </row>
     <row r="125" ht="20" customHeight="1">
       <c r="A125" s="4">
         <v>123</v>
       </c>
       <c r="B125" t="s" s="5">
+        <v>311</v>
+      </c>
+      <c r="C125" t="s" s="5">
+        <v>301</v>
+      </c>
+      <c r="D125" t="s" s="5">
         <v>312</v>
       </c>
-      <c r="C125" t="s" s="5">
-        <v>302</v>
-      </c>
-      <c r="D125" t="s" s="5">
-        <v>313</v>
-      </c>
       <c r="E125" t="s" s="5">
-        <v>313</v>
-      </c>
-      <c r="F125" s="7"/>
+        <v>312</v>
+      </c>
+      <c r="F125" s="5">
+        <v>2</v>
+      </c>
       <c r="G125" s="5">
-        <v>2</v>
-      </c>
-      <c r="H125" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H125" s="6">
+        <v>1230</v>
       </c>
       <c r="I125" s="6">
-        <v>1230</v>
+        <v>1</v>
       </c>
       <c r="J125" s="6">
         <v>1</v>
       </c>
-      <c r="K125" s="6">
-        <v>1</v>
-      </c>
+      <c r="K125" s="6"/>
       <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
     </row>
     <row r="126" ht="20" customHeight="1">
       <c r="A126" s="4">
         <v>124</v>
       </c>
       <c r="B126" t="s" s="5">
+        <v>313</v>
+      </c>
+      <c r="C126" t="s" s="5">
+        <v>301</v>
+      </c>
+      <c r="D126" t="s" s="5">
         <v>314</v>
       </c>
-      <c r="C126" t="s" s="5">
-        <v>302</v>
-      </c>
-      <c r="D126" t="s" s="5">
-        <v>315</v>
-      </c>
       <c r="E126" t="s" s="5">
-        <v>315</v>
-      </c>
-      <c r="F126" s="7"/>
+        <v>314</v>
+      </c>
+      <c r="F126" s="5">
+        <v>3</v>
+      </c>
       <c r="G126" s="5">
-        <v>3</v>
-      </c>
-      <c r="H126" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H126" s="6">
+        <v>1240</v>
       </c>
       <c r="I126" s="6">
-        <v>1240</v>
+        <v>1</v>
       </c>
       <c r="J126" s="6">
         <v>1</v>
       </c>
-      <c r="K126" s="6">
-        <v>1</v>
-      </c>
+      <c r="K126" s="6"/>
       <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
     </row>
     <row r="127" ht="20" customHeight="1">
       <c r="A127" s="4">
         <v>125</v>
       </c>
       <c r="B127" t="s" s="5">
+        <v>315</v>
+      </c>
+      <c r="C127" t="s" s="5">
+        <v>301</v>
+      </c>
+      <c r="D127" t="s" s="5">
         <v>316</v>
       </c>
-      <c r="C127" t="s" s="5">
-        <v>302</v>
-      </c>
-      <c r="D127" t="s" s="5">
-        <v>317</v>
-      </c>
       <c r="E127" t="s" s="5">
-        <v>317</v>
-      </c>
-      <c r="F127" s="7"/>
+        <v>316</v>
+      </c>
+      <c r="F127" s="5">
+        <v>2</v>
+      </c>
       <c r="G127" s="5">
-        <v>2</v>
-      </c>
-      <c r="H127" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H127" s="6">
+        <v>1250</v>
       </c>
       <c r="I127" s="6">
-        <v>1250</v>
+        <v>1</v>
       </c>
       <c r="J127" s="6">
         <v>1</v>
       </c>
-      <c r="K127" s="6">
-        <v>1</v>
-      </c>
+      <c r="K127" s="6"/>
       <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
     </row>
     <row r="128" ht="20" customHeight="1">
       <c r="A128" s="4">
         <v>126</v>
       </c>
       <c r="B128" t="s" s="5">
+        <v>317</v>
+      </c>
+      <c r="C128" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="D128" t="s" s="5">
         <v>318</v>
       </c>
-      <c r="C128" t="s" s="5">
-        <v>272</v>
-      </c>
-      <c r="D128" t="s" s="5">
-        <v>319</v>
-      </c>
       <c r="E128" t="s" s="5">
-        <v>319</v>
-      </c>
-      <c r="F128" s="7"/>
+        <v>318</v>
+      </c>
+      <c r="F128" s="5">
+        <v>2</v>
+      </c>
       <c r="G128" s="5">
-        <v>2</v>
-      </c>
-      <c r="H128" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H128" s="6">
+        <v>1260</v>
       </c>
       <c r="I128" s="6">
-        <v>1260</v>
+        <v>1</v>
       </c>
       <c r="J128" s="6">
         <v>1</v>
       </c>
-      <c r="K128" s="6">
-        <v>1</v>
-      </c>
+      <c r="K128" s="6"/>
       <c r="L128" s="6"/>
-      <c r="M128" s="6"/>
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" s="4">
         <v>127</v>
       </c>
       <c r="B129" t="s" s="5">
+        <v>319</v>
+      </c>
+      <c r="C129" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D129" t="s" s="5">
         <v>320</v>
       </c>
-      <c r="C129" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D129" t="s" s="5">
-        <v>321</v>
-      </c>
       <c r="E129" t="s" s="5">
-        <v>321</v>
-      </c>
-      <c r="F129" s="7"/>
+        <v>320</v>
+      </c>
+      <c r="F129" s="5">
+        <v>3</v>
+      </c>
       <c r="G129" s="5">
-        <v>3</v>
-      </c>
-      <c r="H129" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H129" s="6">
+        <v>1270</v>
       </c>
       <c r="I129" s="6">
-        <v>1270</v>
+        <v>1</v>
       </c>
       <c r="J129" s="6">
         <v>1</v>
       </c>
-      <c r="K129" s="6">
-        <v>1</v>
-      </c>
+      <c r="K129" s="6"/>
       <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
     </row>
     <row r="130" ht="20" customHeight="1">
       <c r="A130" s="4">
         <v>128</v>
       </c>
       <c r="B130" t="s" s="5">
+        <v>321</v>
+      </c>
+      <c r="C130" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D130" t="s" s="5">
         <v>322</v>
       </c>
-      <c r="C130" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D130" t="s" s="5">
-        <v>323</v>
-      </c>
       <c r="E130" t="s" s="5">
-        <v>323</v>
-      </c>
-      <c r="F130" s="7"/>
+        <v>322</v>
+      </c>
+      <c r="F130" s="5">
+        <v>3</v>
+      </c>
       <c r="G130" s="5">
-        <v>3</v>
-      </c>
-      <c r="H130" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H130" s="6">
+        <v>1280</v>
       </c>
       <c r="I130" s="6">
-        <v>1280</v>
+        <v>1</v>
       </c>
       <c r="J130" s="6">
         <v>1</v>
       </c>
-      <c r="K130" s="6">
-        <v>1</v>
-      </c>
+      <c r="K130" s="6"/>
       <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
     </row>
     <row r="131" ht="20" customHeight="1">
       <c r="A131" s="4">
         <v>129</v>
       </c>
       <c r="B131" t="s" s="5">
+        <v>323</v>
+      </c>
+      <c r="C131" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D131" t="s" s="5">
         <v>324</v>
       </c>
-      <c r="C131" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D131" t="s" s="5">
+      <c r="E131" t="s" s="5">
         <v>325</v>
       </c>
-      <c r="E131" t="s" s="5">
-        <v>326</v>
-      </c>
-      <c r="F131" s="7"/>
+      <c r="F131" s="5">
+        <v>3</v>
+      </c>
       <c r="G131" s="5">
-        <v>3</v>
-      </c>
-      <c r="H131" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H131" s="6">
+        <v>1290</v>
       </c>
       <c r="I131" s="6">
-        <v>1290</v>
+        <v>1</v>
       </c>
       <c r="J131" s="6">
         <v>1</v>
       </c>
-      <c r="K131" s="6">
-        <v>1</v>
-      </c>
+      <c r="K131" s="6"/>
       <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
     </row>
     <row r="132" ht="20" customHeight="1">
       <c r="A132" s="4">
         <v>130</v>
       </c>
       <c r="B132" t="s" s="5">
+        <v>326</v>
+      </c>
+      <c r="C132" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D132" t="s" s="5">
         <v>327</v>
       </c>
-      <c r="C132" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D132" t="s" s="5">
+      <c r="E132" t="s" s="5">
         <v>328</v>
       </c>
-      <c r="E132" t="s" s="5">
-        <v>329</v>
-      </c>
-      <c r="F132" s="7"/>
+      <c r="F132" s="5">
+        <v>3</v>
+      </c>
       <c r="G132" s="5">
-        <v>3</v>
-      </c>
-      <c r="H132" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H132" s="6">
+        <v>1300</v>
       </c>
       <c r="I132" s="6">
-        <v>1300</v>
+        <v>1</v>
       </c>
       <c r="J132" s="6">
         <v>1</v>
       </c>
-      <c r="K132" s="6">
-        <v>1</v>
-      </c>
+      <c r="K132" s="6"/>
       <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
     </row>
     <row r="133" ht="20" customHeight="1">
       <c r="A133" s="4">
         <v>131</v>
       </c>
       <c r="B133" t="s" s="5">
+        <v>329</v>
+      </c>
+      <c r="C133" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D133" t="s" s="5">
         <v>330</v>
       </c>
-      <c r="C133" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D133" t="s" s="5">
+      <c r="E133" t="s" s="5">
         <v>331</v>
       </c>
-      <c r="E133" t="s" s="5">
-        <v>332</v>
-      </c>
-      <c r="F133" s="7"/>
+      <c r="F133" s="5">
+        <v>4</v>
+      </c>
       <c r="G133" s="5">
-        <v>4</v>
-      </c>
-      <c r="H133" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H133" s="6">
+        <v>1310</v>
       </c>
       <c r="I133" s="6">
-        <v>1310</v>
+        <v>1</v>
       </c>
       <c r="J133" s="6">
         <v>1</v>
       </c>
-      <c r="K133" s="6">
-        <v>1</v>
-      </c>
+      <c r="K133" s="6"/>
       <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
     </row>
     <row r="134" ht="20" customHeight="1">
       <c r="A134" s="4">
         <v>132</v>
       </c>
       <c r="B134" t="s" s="5">
+        <v>332</v>
+      </c>
+      <c r="C134" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D134" t="s" s="5">
         <v>333</v>
       </c>
-      <c r="C134" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D134" t="s" s="5">
+      <c r="E134" t="s" s="5">
         <v>334</v>
       </c>
-      <c r="E134" t="s" s="5">
-        <v>335</v>
-      </c>
-      <c r="F134" s="7"/>
+      <c r="F134" s="5">
+        <v>5</v>
+      </c>
       <c r="G134" s="5">
-        <v>5</v>
-      </c>
-      <c r="H134" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1320</v>
       </c>
       <c r="I134" s="6">
-        <v>1320</v>
+        <v>1</v>
       </c>
       <c r="J134" s="6">
         <v>1</v>
       </c>
-      <c r="K134" s="6">
-        <v>1</v>
-      </c>
+      <c r="K134" s="6"/>
       <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
     </row>
     <row r="135" ht="20" customHeight="1">
       <c r="A135" s="4">
         <v>133</v>
       </c>
       <c r="B135" t="s" s="5">
+        <v>335</v>
+      </c>
+      <c r="C135" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D135" t="s" s="5">
         <v>336</v>
       </c>
-      <c r="C135" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D135" t="s" s="5">
-        <v>337</v>
-      </c>
       <c r="E135" t="s" s="5">
-        <v>337</v>
-      </c>
-      <c r="F135" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="F135" s="5">
+        <v>4</v>
+      </c>
       <c r="G135" s="5">
-        <v>4</v>
-      </c>
-      <c r="H135" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H135" s="6">
+        <v>1330</v>
       </c>
       <c r="I135" s="6">
-        <v>1330</v>
+        <v>1</v>
       </c>
       <c r="J135" s="6">
         <v>1</v>
       </c>
-      <c r="K135" s="6">
-        <v>1</v>
-      </c>
+      <c r="K135" s="6"/>
       <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
     </row>
     <row r="136" ht="20" customHeight="1">
       <c r="A136" s="4">
         <v>134</v>
       </c>
       <c r="B136" t="s" s="5">
+        <v>337</v>
+      </c>
+      <c r="C136" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D136" t="s" s="5">
         <v>338</v>
       </c>
-      <c r="C136" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D136" t="s" s="5">
-        <v>339</v>
-      </c>
       <c r="E136" t="s" s="5">
-        <v>339</v>
-      </c>
-      <c r="F136" s="7"/>
+        <v>338</v>
+      </c>
+      <c r="F136" s="5">
+        <v>5</v>
+      </c>
       <c r="G136" s="5">
-        <v>5</v>
-      </c>
-      <c r="H136" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H136" s="6">
+        <v>1340</v>
       </c>
       <c r="I136" s="6">
-        <v>1340</v>
+        <v>1</v>
       </c>
       <c r="J136" s="6">
         <v>1</v>
       </c>
-      <c r="K136" s="6">
-        <v>1</v>
-      </c>
+      <c r="K136" s="6"/>
       <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
     </row>
     <row r="137" ht="20" customHeight="1">
       <c r="A137" s="4">
         <v>135</v>
       </c>
       <c r="B137" t="s" s="5">
+        <v>339</v>
+      </c>
+      <c r="C137" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D137" t="s" s="5">
         <v>340</v>
       </c>
-      <c r="C137" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D137" t="s" s="5">
-        <v>341</v>
-      </c>
       <c r="E137" t="s" s="5">
-        <v>341</v>
-      </c>
-      <c r="F137" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="F137" s="5">
+        <v>3</v>
+      </c>
       <c r="G137" s="5">
-        <v>3</v>
-      </c>
-      <c r="H137" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H137" s="6">
+        <v>1350</v>
       </c>
       <c r="I137" s="6">
-        <v>1350</v>
+        <v>1</v>
       </c>
       <c r="J137" s="6">
         <v>1</v>
       </c>
-      <c r="K137" s="6">
-        <v>1</v>
-      </c>
+      <c r="K137" s="6"/>
       <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
     </row>
     <row r="138" ht="20" customHeight="1">
       <c r="A138" s="4">
         <v>136</v>
       </c>
       <c r="B138" t="s" s="5">
+        <v>341</v>
+      </c>
+      <c r="C138" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D138" t="s" s="5">
         <v>342</v>
       </c>
-      <c r="C138" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D138" t="s" s="5">
-        <v>343</v>
-      </c>
       <c r="E138" t="s" s="5">
-        <v>343</v>
-      </c>
-      <c r="F138" s="7"/>
+        <v>342</v>
+      </c>
+      <c r="F138" s="5">
+        <v>4</v>
+      </c>
       <c r="G138" s="5">
-        <v>4</v>
-      </c>
-      <c r="H138" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H138" s="6">
+        <v>1360</v>
       </c>
       <c r="I138" s="6">
-        <v>1360</v>
+        <v>1</v>
       </c>
       <c r="J138" s="6">
         <v>1</v>
       </c>
-      <c r="K138" s="6">
-        <v>1</v>
-      </c>
+      <c r="K138" s="6"/>
       <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
     </row>
     <row r="139" ht="20" customHeight="1">
       <c r="A139" s="4">
         <v>137</v>
       </c>
       <c r="B139" t="s" s="5">
+        <v>343</v>
+      </c>
+      <c r="C139" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D139" t="s" s="5">
         <v>344</v>
       </c>
-      <c r="C139" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D139" t="s" s="5">
-        <v>345</v>
-      </c>
       <c r="E139" t="s" s="5">
-        <v>345</v>
-      </c>
-      <c r="F139" s="7"/>
+        <v>344</v>
+      </c>
+      <c r="F139" s="5">
+        <v>4</v>
+      </c>
       <c r="G139" s="5">
-        <v>4</v>
-      </c>
-      <c r="H139" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H139" s="6">
+        <v>1370</v>
       </c>
       <c r="I139" s="6">
-        <v>1370</v>
+        <v>1</v>
       </c>
       <c r="J139" s="6">
         <v>1</v>
       </c>
-      <c r="K139" s="6">
-        <v>1</v>
-      </c>
+      <c r="K139" s="6"/>
       <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
     </row>
     <row r="140" ht="20" customHeight="1">
       <c r="A140" s="4">
         <v>138</v>
       </c>
       <c r="B140" t="s" s="5">
+        <v>345</v>
+      </c>
+      <c r="C140" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D140" t="s" s="5">
         <v>346</v>
       </c>
-      <c r="C140" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D140" t="s" s="5">
-        <v>347</v>
-      </c>
       <c r="E140" t="s" s="5">
-        <v>347</v>
-      </c>
-      <c r="F140" s="7"/>
+        <v>346</v>
+      </c>
+      <c r="F140" s="5">
+        <v>3</v>
+      </c>
       <c r="G140" s="5">
-        <v>3</v>
-      </c>
-      <c r="H140" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H140" s="6">
+        <v>1380</v>
       </c>
       <c r="I140" s="6">
-        <v>1380</v>
+        <v>1</v>
       </c>
       <c r="J140" s="6">
         <v>1</v>
       </c>
-      <c r="K140" s="6">
-        <v>1</v>
-      </c>
+      <c r="K140" s="6"/>
       <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
     </row>
     <row r="141" ht="20" customHeight="1">
       <c r="A141" s="4">
         <v>139</v>
       </c>
       <c r="B141" t="s" s="5">
+        <v>347</v>
+      </c>
+      <c r="C141" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D141" t="s" s="5">
         <v>348</v>
       </c>
-      <c r="C141" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D141" t="s" s="5">
-        <v>349</v>
-      </c>
       <c r="E141" t="s" s="5">
-        <v>349</v>
-      </c>
-      <c r="F141" s="7"/>
+        <v>348</v>
+      </c>
+      <c r="F141" s="5">
+        <v>3</v>
+      </c>
       <c r="G141" s="5">
-        <v>3</v>
-      </c>
-      <c r="H141" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H141" s="6">
+        <v>1390</v>
       </c>
       <c r="I141" s="6">
-        <v>1390</v>
+        <v>1</v>
       </c>
       <c r="J141" s="6">
         <v>1</v>
       </c>
-      <c r="K141" s="6">
-        <v>1</v>
-      </c>
+      <c r="K141" s="6"/>
       <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
     </row>
     <row r="142" ht="20" customHeight="1">
       <c r="A142" s="4">
         <v>140</v>
       </c>
       <c r="B142" t="s" s="5">
+        <v>349</v>
+      </c>
+      <c r="C142" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D142" t="s" s="5">
         <v>350</v>
       </c>
-      <c r="C142" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D142" t="s" s="5">
-        <v>351</v>
-      </c>
       <c r="E142" t="s" s="5">
-        <v>351</v>
-      </c>
-      <c r="F142" s="7"/>
+        <v>350</v>
+      </c>
+      <c r="F142" s="5">
+        <v>4</v>
+      </c>
       <c r="G142" s="5">
-        <v>4</v>
-      </c>
-      <c r="H142" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H142" s="6">
+        <v>1400</v>
       </c>
       <c r="I142" s="6">
-        <v>1400</v>
+        <v>1</v>
       </c>
       <c r="J142" s="6">
         <v>1</v>
       </c>
-      <c r="K142" s="6">
-        <v>1</v>
-      </c>
+      <c r="K142" s="6"/>
       <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
     </row>
     <row r="143" ht="20" customHeight="1">
       <c r="A143" s="4">
         <v>141</v>
       </c>
       <c r="B143" t="s" s="5">
+        <v>351</v>
+      </c>
+      <c r="C143" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D143" t="s" s="5">
         <v>352</v>
       </c>
-      <c r="C143" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D143" t="s" s="5">
-        <v>353</v>
-      </c>
       <c r="E143" t="s" s="5">
-        <v>353</v>
-      </c>
-      <c r="F143" s="7"/>
+        <v>352</v>
+      </c>
+      <c r="F143" s="5">
+        <v>5</v>
+      </c>
       <c r="G143" s="5">
-        <v>5</v>
-      </c>
-      <c r="H143" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H143" s="6">
+        <v>1410</v>
       </c>
       <c r="I143" s="6">
-        <v>1410</v>
+        <v>1</v>
       </c>
       <c r="J143" s="6">
         <v>1</v>
       </c>
-      <c r="K143" s="6">
-        <v>1</v>
-      </c>
+      <c r="K143" s="6"/>
       <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
     </row>
     <row r="144" ht="20" customHeight="1">
       <c r="A144" s="4">
         <v>142</v>
       </c>
       <c r="B144" t="s" s="5">
+        <v>353</v>
+      </c>
+      <c r="C144" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D144" t="s" s="5">
         <v>354</v>
       </c>
-      <c r="C144" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D144" t="s" s="5">
-        <v>355</v>
-      </c>
       <c r="E144" t="s" s="5">
-        <v>355</v>
-      </c>
-      <c r="F144" s="7"/>
+        <v>354</v>
+      </c>
+      <c r="F144" s="5">
+        <v>5</v>
+      </c>
       <c r="G144" s="5">
-        <v>5</v>
-      </c>
-      <c r="H144" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H144" s="6">
+        <v>1420</v>
       </c>
       <c r="I144" s="6">
-        <v>1420</v>
+        <v>1</v>
       </c>
       <c r="J144" s="6">
         <v>1</v>
       </c>
-      <c r="K144" s="6">
-        <v>1</v>
-      </c>
+      <c r="K144" s="6"/>
       <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
     </row>
     <row r="145" ht="20" customHeight="1">
       <c r="A145" s="4">
         <v>143</v>
       </c>
       <c r="B145" t="s" s="5">
+        <v>355</v>
+      </c>
+      <c r="C145" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D145" t="s" s="5">
         <v>356</v>
       </c>
-      <c r="C145" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D145" t="s" s="5">
-        <v>357</v>
-      </c>
       <c r="E145" t="s" s="5">
-        <v>357</v>
-      </c>
-      <c r="F145" s="7"/>
+        <v>356</v>
+      </c>
+      <c r="F145" s="5">
+        <v>5</v>
+      </c>
       <c r="G145" s="5">
-        <v>5</v>
-      </c>
-      <c r="H145" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H145" s="6">
+        <v>1430</v>
       </c>
       <c r="I145" s="6">
-        <v>1430</v>
+        <v>1</v>
       </c>
       <c r="J145" s="6">
         <v>1</v>
       </c>
-      <c r="K145" s="6">
-        <v>1</v>
-      </c>
+      <c r="K145" s="6"/>
       <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
     </row>
     <row r="146" ht="20" customHeight="1">
       <c r="A146" s="4">
         <v>144</v>
       </c>
       <c r="B146" t="s" s="5">
+        <v>357</v>
+      </c>
+      <c r="C146" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D146" t="s" s="5">
         <v>358</v>
       </c>
-      <c r="C146" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D146" t="s" s="5">
-        <v>359</v>
-      </c>
       <c r="E146" t="s" s="5">
-        <v>359</v>
-      </c>
-      <c r="F146" s="7"/>
+        <v>358</v>
+      </c>
+      <c r="F146" s="5">
+        <v>5</v>
+      </c>
       <c r="G146" s="5">
-        <v>5</v>
-      </c>
-      <c r="H146" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H146" s="6">
+        <v>1440</v>
       </c>
       <c r="I146" s="6">
-        <v>1440</v>
+        <v>1</v>
       </c>
       <c r="J146" s="6">
         <v>1</v>
       </c>
-      <c r="K146" s="6">
-        <v>1</v>
-      </c>
+      <c r="K146" s="6"/>
       <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
     </row>
     <row r="147" ht="20" customHeight="1">
       <c r="A147" s="4">
         <v>145</v>
       </c>
       <c r="B147" t="s" s="5">
+        <v>359</v>
+      </c>
+      <c r="C147" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D147" t="s" s="5">
         <v>360</v>
       </c>
-      <c r="C147" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D147" t="s" s="5">
-        <v>361</v>
-      </c>
       <c r="E147" t="s" s="5">
-        <v>361</v>
-      </c>
-      <c r="F147" s="7"/>
+        <v>360</v>
+      </c>
+      <c r="F147" s="5">
+        <v>5</v>
+      </c>
       <c r="G147" s="5">
-        <v>5</v>
-      </c>
-      <c r="H147" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H147" s="6">
+        <v>1450</v>
       </c>
       <c r="I147" s="6">
-        <v>1450</v>
+        <v>1</v>
       </c>
       <c r="J147" s="6">
         <v>1</v>
       </c>
-      <c r="K147" s="6">
-        <v>1</v>
-      </c>
+      <c r="K147" s="6"/>
       <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
     </row>
     <row r="148" ht="20" customHeight="1">
       <c r="A148" s="4">
         <v>146</v>
       </c>
       <c r="B148" t="s" s="5">
+        <v>361</v>
+      </c>
+      <c r="C148" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D148" t="s" s="5">
         <v>362</v>
       </c>
-      <c r="C148" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D148" t="s" s="5">
-        <v>363</v>
-      </c>
       <c r="E148" t="s" s="5">
-        <v>363</v>
-      </c>
-      <c r="F148" s="7"/>
+        <v>362</v>
+      </c>
+      <c r="F148" s="5">
+        <v>5</v>
+      </c>
       <c r="G148" s="5">
-        <v>5</v>
-      </c>
-      <c r="H148" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H148" s="6">
+        <v>1460</v>
       </c>
       <c r="I148" s="6">
-        <v>1460</v>
+        <v>1</v>
       </c>
       <c r="J148" s="6">
         <v>1</v>
       </c>
-      <c r="K148" s="6">
-        <v>1</v>
-      </c>
+      <c r="K148" s="6"/>
       <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
     </row>
     <row r="149" ht="20" customHeight="1">
       <c r="A149" s="4">
         <v>147</v>
       </c>
       <c r="B149" t="s" s="5">
+        <v>363</v>
+      </c>
+      <c r="C149" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="D149" t="s" s="5">
         <v>364</v>
       </c>
-      <c r="C149" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D149" t="s" s="5">
-        <v>365</v>
-      </c>
       <c r="E149" t="s" s="5">
-        <v>365</v>
-      </c>
-      <c r="F149" s="7"/>
+        <v>364</v>
+      </c>
+      <c r="F149" s="5">
+        <v>5</v>
+      </c>
       <c r="G149" s="5">
-        <v>5</v>
-      </c>
-      <c r="H149" s="5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="H149" s="6">
+        <v>1470</v>
       </c>
       <c r="I149" s="6">
-        <v>1470</v>
+        <v>1</v>
       </c>
       <c r="J149" s="6">
         <v>1</v>
       </c>
-      <c r="K149" s="6">
-        <v>1</v>
-      </c>
+      <c r="K149" s="6"/>
       <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
     </row>
     <row r="150" ht="20" customHeight="1">
-      <c r="A150" s="8"/>
+      <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -7732,7 +7624,992 @@
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="3.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="8" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="2.375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="3.625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="2.375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="3.625" style="8" customWidth="1"/>
+    <col min="15" max="256" width="12.25" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>378</v>
+      </c>
+      <c r="F3" s="6">
+        <v>100</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <f>C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>378</v>
+      </c>
+      <c r="F4" s="6">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s" s="5">
+        <v>379</v>
+      </c>
+      <c r="H4" s="6">
+        <v>100</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <f>C4+1</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>378</v>
+      </c>
+      <c r="F5" s="6">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s" s="5">
+        <v>379</v>
+      </c>
+      <c r="H5" s="6">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s" s="5">
+        <v>380</v>
+      </c>
+      <c r="J5" s="6">
+        <v>100</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <f>C5+1</f>
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>100</v>
+      </c>
+      <c r="K6" s="6">
+        <v>4</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <f>C6+1</f>
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>100</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <v>4</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <f>C7+1</f>
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>100</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>100</v>
+      </c>
+      <c r="K8" s="6">
+        <v>4</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <f>C8+1</f>
+        <v>21</v>
+      </c>
+      <c r="C9" s="5">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>100</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>100</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>100</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <f>C9+1</f>
+        <v>31</v>
+      </c>
+      <c r="C10" s="5">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>100</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6">
+        <v>100</v>
+      </c>
+      <c r="K10" s="6">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <f>C10+1</f>
+        <v>41</v>
+      </c>
+      <c r="C11" s="5">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>100</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>100</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>100</v>
+      </c>
+      <c r="K11" s="6">
+        <v>4</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <f>C11+1</f>
+        <v>61</v>
+      </c>
+      <c r="C12" s="5">
+        <v>80</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>100</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>100</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>100</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>5</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <f>C12+1</f>
+        <v>81</v>
+      </c>
+      <c r="C13" s="5">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>100</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>100</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>5</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <f>C13+1</f>
+        <v>101</v>
+      </c>
+      <c r="C14" s="5">
+        <v>150</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>100</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>100</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>100</v>
+      </c>
+      <c r="K14" s="6">
+        <v>4</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>5</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <f>C14+1</f>
+        <v>151</v>
+      </c>
+      <c r="C15" s="5">
+        <v>200</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>100</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>100</v>
+      </c>
+      <c r="K15" s="6">
+        <v>4</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <f>C15+1</f>
+        <v>201</v>
+      </c>
+      <c r="C16" s="5">
+        <v>300</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>100</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>100</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>100</v>
+      </c>
+      <c r="K16" s="6">
+        <v>4</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>5</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <f>C16+1</f>
+        <v>301</v>
+      </c>
+      <c r="C17" s="5">
+        <v>400</v>
+      </c>
+      <c r="D17" s="5">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>100</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>100</v>
+      </c>
+      <c r="I17" s="6">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>100</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>5</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <f>C17+1</f>
+        <v>401</v>
+      </c>
+      <c r="C18" s="5">
+        <v>500</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>100</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>100</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3</v>
+      </c>
+      <c r="J18" s="6">
+        <v>100</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>5</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <f>C18+1</f>
+        <v>501</v>
+      </c>
+      <c r="C19" s="5">
+        <v>700</v>
+      </c>
+      <c r="D19" s="5">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>100</v>
+      </c>
+      <c r="I19" s="6">
+        <v>3</v>
+      </c>
+      <c r="J19" s="6">
+        <v>100</v>
+      </c>
+      <c r="K19" s="6">
+        <v>4</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>5</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <f>C19+1</f>
+        <v>701</v>
+      </c>
+      <c r="C20" s="5">
+        <v>900</v>
+      </c>
+      <c r="D20" s="5">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>100</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>100</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>100</v>
+      </c>
+      <c r="K20" s="6">
+        <v>4</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <f>C20+1</f>
+        <v>901</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>23</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>100</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>100</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3</v>
+      </c>
+      <c r="J21" s="6">
+        <v>100</v>
+      </c>
+      <c r="K21" s="6">
+        <v>4</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>5</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <f>C21+1</f>
+        <v>1001</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="5">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>100</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>100</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3</v>
+      </c>
+      <c r="J22" s="6">
+        <v>100</v>
+      </c>
+      <c r="K22" s="6">
+        <v>4</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>5</v>
+      </c>
+      <c r="N22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
   <si>
     <t>id</t>
   </si>
@@ -1114,6 +1114,9 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>cnt</t>
@@ -1197,7 +1200,7 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1213,6 +1216,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1246,7 +1291,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1274,6 +1319,51 @@
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,6 +1383,13 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffd478"/>
+      <rgbColor rgb="ffd4fb78"/>
+      <rgbColor rgb="ff72fcd5"/>
+      <rgbColor rgb="ff75d5ff"/>
+      <rgbColor rgb="ffd783ff"/>
+      <rgbColor rgb="ffff89d8"/>
+      <rgbColor rgb="ffff2f92"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -7639,7 +7736,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -7648,18 +7745,19 @@
     <col min="1" max="1" width="2.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="4" style="8" customWidth="1"/>
     <col min="3" max="3" width="4.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="3.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="3.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="8" customWidth="1"/>
-    <col min="8" max="8" width="3.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="3.625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="2.375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="3.625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="3.625" style="8" customWidth="1"/>
-    <col min="15" max="256" width="12.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="3.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="3.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="3.625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="2.375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="3.625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="2.375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="3.625" style="8" customWidth="1"/>
+    <col min="16" max="256" width="12.25" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -7705,48 +7803,54 @@
       <c r="N1" t="s" s="2">
         <v>377</v>
       </c>
+      <c r="O1" t="s" s="2">
+        <v>378</v>
+      </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="J2" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="5">
+      <c r="K2" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="5">
+      <c r="L2" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="M2" t="s" s="5">
+      <c r="M2" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="N2" t="s" s="5">
+      <c r="N2" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s" s="15">
         <v>10</v>
       </c>
     </row>
@@ -7754,187 +7858,181 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="5">
-        <v>378</v>
-      </c>
-      <c r="F3" s="6">
-        <v>100</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="9">
         <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s" s="5">
-        <v>378</v>
-      </c>
-      <c r="F4" s="6">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s" s="5">
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s" s="11">
         <v>379</v>
       </c>
-      <c r="H4" s="6">
-        <v>100</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="G4" s="17">
+        <v>100</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <f>C4+1</f>
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s" s="5">
-        <v>378</v>
-      </c>
-      <c r="F5" s="6">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s" s="5">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="11">
         <v>379</v>
       </c>
-      <c r="H5" s="6">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s" s="5">
+      <c r="G5" s="17">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s" s="12">
         <v>380</v>
       </c>
-      <c r="J5" s="6">
-        <v>100</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="I5" s="18">
+        <v>100</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <f>C5+1</f>
-        <v>7</v>
-      </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>100</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="B6" s="9">
+        <f>C4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="6">
-        <v>100</v>
-      </c>
-      <c r="I6" s="6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="6">
-        <v>100</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="E6" s="10">
         <v>4</v>
       </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>5</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="F6" t="s" s="11">
+        <v>379</v>
+      </c>
+      <c r="G6" s="17">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s" s="12">
+        <v>380</v>
+      </c>
+      <c r="I6" s="18">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s" s="13">
+        <v>381</v>
+      </c>
+      <c r="K6" s="19">
+        <v>100</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <f>C6+1</f>
-        <v>11</v>
-      </c>
-      <c r="C7" s="5">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>100</v>
-      </c>
-      <c r="G7" s="6">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="6">
-        <v>100</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>100</v>
+      </c>
+      <c r="H7" s="18">
+        <v>2</v>
+      </c>
+      <c r="I7" s="18">
+        <v>100</v>
+      </c>
+      <c r="J7" s="19">
         <v>3</v>
       </c>
-      <c r="J7" s="6">
-        <v>100</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="K7" s="19">
+        <v>100</v>
+      </c>
+      <c r="L7" s="20">
         <v>4</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="20">
         <v>0</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="21">
         <v>5</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7942,44 +8040,47 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="9">
         <f>C7+1</f>
-        <v>16</v>
-      </c>
-      <c r="C8" s="5">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>100</v>
-      </c>
-      <c r="G8" s="6">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="H8" s="6">
-        <v>100</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>100</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18">
+        <v>100</v>
+      </c>
+      <c r="J8" s="19">
         <v>3</v>
       </c>
-      <c r="J8" s="6">
-        <v>100</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="K8" s="19">
+        <v>100</v>
+      </c>
+      <c r="L8" s="20">
         <v>4</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="20">
         <v>0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="21">
         <v>5</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7987,44 +8088,47 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="9">
         <f>C8+1</f>
-        <v>21</v>
-      </c>
-      <c r="C9" s="5">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>100</v>
-      </c>
-      <c r="G9" s="6">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="6">
-        <v>100</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>100</v>
+      </c>
+      <c r="H9" s="18">
+        <v>2</v>
+      </c>
+      <c r="I9" s="18">
+        <v>100</v>
+      </c>
+      <c r="J9" s="19">
         <v>3</v>
       </c>
-      <c r="J9" s="6">
-        <v>100</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="K9" s="19">
+        <v>100</v>
+      </c>
+      <c r="L9" s="20">
         <v>4</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="20">
         <v>0</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="21">
         <v>5</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8032,44 +8136,47 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="9">
         <f>C9+1</f>
-        <v>31</v>
-      </c>
-      <c r="C10" s="5">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>100</v>
-      </c>
-      <c r="G10" s="6">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="H10" s="6">
-        <v>100</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>100</v>
+      </c>
+      <c r="H10" s="18">
+        <v>2</v>
+      </c>
+      <c r="I10" s="18">
+        <v>100</v>
+      </c>
+      <c r="J10" s="19">
         <v>3</v>
       </c>
-      <c r="J10" s="6">
-        <v>100</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="K10" s="19">
+        <v>100</v>
+      </c>
+      <c r="L10" s="20">
         <v>4</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="20">
         <v>0</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="21">
         <v>5</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8077,44 +8184,47 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="9">
         <f>C10+1</f>
-        <v>41</v>
-      </c>
-      <c r="C11" s="5">
-        <v>60</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>100</v>
-      </c>
-      <c r="G11" s="6">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9">
+        <v>40</v>
+      </c>
+      <c r="D11" s="10">
         <v>2</v>
       </c>
-      <c r="H11" s="6">
-        <v>100</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
+        <v>100</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2</v>
+      </c>
+      <c r="I11" s="18">
+        <v>100</v>
+      </c>
+      <c r="J11" s="19">
         <v>3</v>
       </c>
-      <c r="J11" s="6">
-        <v>100</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="K11" s="19">
+        <v>100</v>
+      </c>
+      <c r="L11" s="20">
         <v>4</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="20">
         <v>0</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="21">
         <v>5</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8122,44 +8232,47 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="9">
         <f>C11+1</f>
-        <v>61</v>
-      </c>
-      <c r="C12" s="5">
-        <v>80</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>100</v>
-      </c>
-      <c r="G12" s="6">
+        <v>41</v>
+      </c>
+      <c r="C12" s="9">
+        <v>60</v>
+      </c>
+      <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="H12" s="6">
-        <v>100</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>100</v>
+      </c>
+      <c r="H12" s="18">
+        <v>2</v>
+      </c>
+      <c r="I12" s="18">
+        <v>100</v>
+      </c>
+      <c r="J12" s="19">
         <v>3</v>
       </c>
-      <c r="J12" s="6">
-        <v>100</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="K12" s="19">
+        <v>100</v>
+      </c>
+      <c r="L12" s="20">
         <v>4</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="20">
         <v>0</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="21">
         <v>5</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8167,44 +8280,47 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="9">
         <f>C12+1</f>
-        <v>81</v>
-      </c>
-      <c r="C13" s="5">
-        <v>100</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>100</v>
-      </c>
-      <c r="G13" s="6">
+        <v>61</v>
+      </c>
+      <c r="C13" s="9">
+        <v>80</v>
+      </c>
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="H13" s="6">
-        <v>100</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>100</v>
+      </c>
+      <c r="H13" s="18">
+        <v>2</v>
+      </c>
+      <c r="I13" s="18">
+        <v>100</v>
+      </c>
+      <c r="J13" s="19">
         <v>3</v>
       </c>
-      <c r="J13" s="6">
-        <v>100</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="K13" s="19">
+        <v>100</v>
+      </c>
+      <c r="L13" s="20">
         <v>4</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="20">
         <v>0</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="21">
         <v>5</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8212,44 +8328,47 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="9">
         <f>C13+1</f>
-        <v>101</v>
-      </c>
-      <c r="C14" s="5">
-        <v>150</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>100</v>
-      </c>
-      <c r="G14" s="6">
+        <v>81</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="10">
         <v>2</v>
       </c>
-      <c r="H14" s="6">
-        <v>100</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
+        <v>100</v>
+      </c>
+      <c r="H14" s="18">
+        <v>2</v>
+      </c>
+      <c r="I14" s="18">
+        <v>100</v>
+      </c>
+      <c r="J14" s="19">
         <v>3</v>
       </c>
-      <c r="J14" s="6">
-        <v>100</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="K14" s="19">
+        <v>100</v>
+      </c>
+      <c r="L14" s="20">
         <v>4</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="20">
         <v>0</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="21">
         <v>5</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8257,44 +8376,47 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="9">
         <f>C14+1</f>
-        <v>151</v>
-      </c>
-      <c r="C15" s="5">
-        <v>200</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>100</v>
-      </c>
-      <c r="G15" s="6">
+        <v>101</v>
+      </c>
+      <c r="C15" s="9">
+        <v>150</v>
+      </c>
+      <c r="D15" s="10">
         <v>2</v>
       </c>
-      <c r="H15" s="6">
-        <v>100</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
+        <v>100</v>
+      </c>
+      <c r="H15" s="18">
+        <v>2</v>
+      </c>
+      <c r="I15" s="18">
+        <v>100</v>
+      </c>
+      <c r="J15" s="19">
         <v>3</v>
       </c>
-      <c r="J15" s="6">
-        <v>100</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="K15" s="19">
+        <v>100</v>
+      </c>
+      <c r="L15" s="20">
         <v>4</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="20">
         <v>0</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="21">
         <v>5</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8302,44 +8424,47 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="9">
         <f>C15+1</f>
-        <v>201</v>
-      </c>
-      <c r="C16" s="5">
-        <v>300</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>100</v>
-      </c>
-      <c r="G16" s="6">
+        <v>151</v>
+      </c>
+      <c r="C16" s="9">
+        <v>200</v>
+      </c>
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="H16" s="6">
-        <v>100</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>100</v>
+      </c>
+      <c r="H16" s="18">
+        <v>2</v>
+      </c>
+      <c r="I16" s="18">
+        <v>100</v>
+      </c>
+      <c r="J16" s="19">
         <v>3</v>
       </c>
-      <c r="J16" s="6">
-        <v>100</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="K16" s="19">
+        <v>100</v>
+      </c>
+      <c r="L16" s="20">
         <v>4</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="20">
         <v>0</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="21">
         <v>5</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8347,44 +8472,47 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="9">
         <f>C16+1</f>
-        <v>301</v>
-      </c>
-      <c r="C17" s="5">
-        <v>400</v>
-      </c>
-      <c r="D17" s="5">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>100</v>
-      </c>
-      <c r="G17" s="6">
+        <v>201</v>
+      </c>
+      <c r="C17" s="9">
+        <v>300</v>
+      </c>
+      <c r="D17" s="10">
         <v>2</v>
       </c>
-      <c r="H17" s="6">
-        <v>100</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>100</v>
+      </c>
+      <c r="H17" s="18">
+        <v>2</v>
+      </c>
+      <c r="I17" s="18">
+        <v>100</v>
+      </c>
+      <c r="J17" s="19">
         <v>3</v>
       </c>
-      <c r="J17" s="6">
-        <v>100</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="K17" s="19">
+        <v>100</v>
+      </c>
+      <c r="L17" s="20">
         <v>4</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="20">
         <v>0</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="21">
         <v>5</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8392,44 +8520,47 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="9">
         <f>C17+1</f>
-        <v>401</v>
-      </c>
-      <c r="C18" s="5">
-        <v>500</v>
-      </c>
-      <c r="D18" s="5">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>100</v>
-      </c>
-      <c r="G18" s="6">
+        <v>301</v>
+      </c>
+      <c r="C18" s="9">
+        <v>400</v>
+      </c>
+      <c r="D18" s="10">
         <v>2</v>
       </c>
-      <c r="H18" s="6">
-        <v>100</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="E18" s="10">
+        <v>19</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>100</v>
+      </c>
+      <c r="H18" s="18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="18">
+        <v>100</v>
+      </c>
+      <c r="J18" s="19">
         <v>3</v>
       </c>
-      <c r="J18" s="6">
-        <v>100</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="K18" s="19">
+        <v>100</v>
+      </c>
+      <c r="L18" s="20">
         <v>4</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="20">
         <v>0</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="21">
         <v>5</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8437,44 +8568,47 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="9">
         <f>C18+1</f>
-        <v>501</v>
-      </c>
-      <c r="C19" s="5">
-        <v>700</v>
-      </c>
-      <c r="D19" s="5">
-        <v>21</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>100</v>
-      </c>
-      <c r="G19" s="6">
+        <v>401</v>
+      </c>
+      <c r="C19" s="9">
+        <v>500</v>
+      </c>
+      <c r="D19" s="10">
         <v>2</v>
       </c>
-      <c r="H19" s="6">
-        <v>100</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="E19" s="10">
+        <v>20</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17">
+        <v>100</v>
+      </c>
+      <c r="H19" s="18">
+        <v>2</v>
+      </c>
+      <c r="I19" s="18">
+        <v>100</v>
+      </c>
+      <c r="J19" s="19">
         <v>3</v>
       </c>
-      <c r="J19" s="6">
-        <v>100</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="K19" s="19">
+        <v>100</v>
+      </c>
+      <c r="L19" s="20">
         <v>4</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="20">
         <v>0</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="21">
         <v>5</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8482,44 +8616,47 @@
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="9">
         <f>C19+1</f>
-        <v>701</v>
-      </c>
-      <c r="C20" s="5">
-        <v>900</v>
-      </c>
-      <c r="D20" s="5">
-        <v>22</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>100</v>
-      </c>
-      <c r="G20" s="6">
+        <v>501</v>
+      </c>
+      <c r="C20" s="9">
+        <v>700</v>
+      </c>
+      <c r="D20" s="10">
         <v>2</v>
       </c>
-      <c r="H20" s="6">
-        <v>100</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="E20" s="10">
+        <v>21</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17">
+        <v>100</v>
+      </c>
+      <c r="H20" s="18">
+        <v>2</v>
+      </c>
+      <c r="I20" s="18">
+        <v>100</v>
+      </c>
+      <c r="J20" s="19">
         <v>3</v>
       </c>
-      <c r="J20" s="6">
-        <v>100</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="K20" s="19">
+        <v>100</v>
+      </c>
+      <c r="L20" s="20">
         <v>4</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="20">
         <v>0</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="21">
         <v>5</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8527,44 +8664,47 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="9">
         <f>C20+1</f>
-        <v>901</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="5">
-        <v>23</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>100</v>
-      </c>
-      <c r="G21" s="6">
+        <v>701</v>
+      </c>
+      <c r="C21" s="9">
+        <v>900</v>
+      </c>
+      <c r="D21" s="10">
         <v>2</v>
       </c>
-      <c r="H21" s="6">
-        <v>100</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="E21" s="10">
+        <v>22</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17">
+        <v>100</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
+      <c r="I21" s="18">
+        <v>100</v>
+      </c>
+      <c r="J21" s="19">
         <v>3</v>
       </c>
-      <c r="J21" s="6">
-        <v>100</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="K21" s="19">
+        <v>100</v>
+      </c>
+      <c r="L21" s="20">
         <v>4</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="20">
         <v>0</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="21">
         <v>5</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8572,44 +8712,95 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="9">
         <f>C21+1</f>
+        <v>901</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>23</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17">
+        <v>100</v>
+      </c>
+      <c r="H22" s="18">
+        <v>2</v>
+      </c>
+      <c r="I22" s="18">
+        <v>100</v>
+      </c>
+      <c r="J22" s="19">
+        <v>3</v>
+      </c>
+      <c r="K22" s="19">
+        <v>100</v>
+      </c>
+      <c r="L22" s="20">
+        <v>4</v>
+      </c>
+      <c r="M22" s="20">
+        <v>0</v>
+      </c>
+      <c r="N22" s="21">
+        <v>5</v>
+      </c>
+      <c r="O22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
+        <f>C22+1</f>
         <v>1001</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C23" s="9">
         <v>10000</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
         <v>24</v>
       </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>100</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <v>100</v>
+      </c>
+      <c r="H23" s="18">
         <v>2</v>
       </c>
-      <c r="H22" s="6">
-        <v>100</v>
-      </c>
-      <c r="I22" s="6">
+      <c r="I23" s="18">
+        <v>100</v>
+      </c>
+      <c r="J23" s="19">
         <v>3</v>
       </c>
-      <c r="J22" s="6">
-        <v>100</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="K23" s="19">
+        <v>100</v>
+      </c>
+      <c r="L23" s="20">
         <v>4</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M23" s="20">
         <v>0</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N23" s="21">
         <v>5</v>
       </c>
-      <c r="N22" s="6"/>
+      <c r="O23" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
   <si>
     <t>id</t>
   </si>
@@ -48,82 +48,523 @@
     <t>int</t>
   </si>
   <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>動物</t>
+  </si>
+  <si>
+    <t>コウモリ</t>
+  </si>
+  <si>
+    <t>WORKER_ANT</t>
+  </si>
+  <si>
+    <t>worker_ant</t>
+  </si>
+  <si>
+    <t>昆虫</t>
+  </si>
+  <si>
+    <t>アント</t>
+  </si>
+  <si>
+    <t>SKELETON_DOG</t>
+  </si>
+  <si>
+    <t>skeleton_dog</t>
+  </si>
+  <si>
+    <t>悪霊</t>
+  </si>
+  <si>
+    <t>がいこつ犬</t>
+  </si>
+  <si>
+    <t>ほねほねドック</t>
+  </si>
+  <si>
+    <t>SKELETON1</t>
+  </si>
+  <si>
+    <t>skeleton1</t>
+  </si>
+  <si>
+    <t>スケルトン1</t>
+  </si>
+  <si>
+    <t>スケルトン</t>
+  </si>
+  <si>
+    <t>SPECTER</t>
+  </si>
+  <si>
+    <t>specter</t>
+  </si>
+  <si>
+    <t>亡霊</t>
+  </si>
+  <si>
+    <t>GNOLE1</t>
+  </si>
+  <si>
+    <t>gnole1</t>
+  </si>
+  <si>
+    <t>ノール1</t>
+  </si>
+  <si>
+    <t>ノール</t>
+  </si>
+  <si>
+    <t>ORC1</t>
+  </si>
+  <si>
+    <t>orc1</t>
+  </si>
+  <si>
+    <t>亜人</t>
+  </si>
+  <si>
+    <t>オーク1</t>
+  </si>
+  <si>
+    <t>オーク</t>
+  </si>
+  <si>
+    <t>RATMAN1</t>
+  </si>
+  <si>
+    <t>ratman1</t>
+  </si>
+  <si>
+    <t>ラットマン1</t>
+  </si>
+  <si>
+    <t>ラットマン</t>
+  </si>
+  <si>
+    <t>GOBLIN1</t>
+  </si>
+  <si>
+    <t>goblin1</t>
+  </si>
+  <si>
+    <t>ゴブリン1</t>
+  </si>
+  <si>
+    <t>ゴブリン</t>
+  </si>
+  <si>
+    <t>SNAKE</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>ヘビ</t>
+  </si>
+  <si>
+    <t>BEE</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>キラービー</t>
+  </si>
+  <si>
+    <t>CENTIPEDE</t>
+  </si>
+  <si>
+    <t>centipede</t>
+  </si>
+  <si>
+    <t>ムカデ</t>
+  </si>
+  <si>
+    <t>PUMPKIN_HEAD</t>
+  </si>
+  <si>
+    <t>pumpkin_head</t>
+  </si>
+  <si>
+    <t>パンプキン</t>
+  </si>
+  <si>
+    <t>SKELETON_HORSE</t>
+  </si>
+  <si>
+    <t>skeleton_horse</t>
+  </si>
+  <si>
+    <t>がいこつ馬</t>
+  </si>
+  <si>
+    <t>FLOATING_SKULL</t>
+  </si>
+  <si>
+    <t>floating_skull</t>
+  </si>
+  <si>
+    <t>浮遊する骸骨</t>
+  </si>
+  <si>
+    <t>空飛ぶドクロ</t>
+  </si>
+  <si>
+    <t>GHOST</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>ゴースト</t>
+  </si>
+  <si>
+    <t>ZOMBIE</t>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
+  <si>
+    <t>ゾンビ</t>
+  </si>
+  <si>
+    <t>SKELETON2</t>
+  </si>
+  <si>
+    <t>skeleton2</t>
+  </si>
+  <si>
+    <t>スケルトン2</t>
+  </si>
+  <si>
+    <t>がいこつ剣士</t>
+  </si>
+  <si>
+    <t>GHOUL</t>
+  </si>
+  <si>
+    <t>ghoul</t>
+  </si>
+  <si>
+    <t>グール</t>
+  </si>
+  <si>
+    <t>WRAITH</t>
+  </si>
+  <si>
+    <t>wraith</t>
+  </si>
+  <si>
+    <t>レイス</t>
+  </si>
+  <si>
+    <t>WIGHT</t>
+  </si>
+  <si>
+    <t>wight</t>
+  </si>
+  <si>
+    <t>ワイト</t>
+  </si>
+  <si>
+    <t>GNOLE2</t>
+  </si>
+  <si>
+    <t>gnole2</t>
+  </si>
+  <si>
+    <t>ノール2</t>
+  </si>
+  <si>
+    <t>ノール戦士</t>
+  </si>
+  <si>
+    <t>OGRE1</t>
+  </si>
+  <si>
+    <t>ogre1</t>
+  </si>
+  <si>
+    <t>オーガ</t>
+  </si>
+  <si>
+    <t>ORC2</t>
+  </si>
+  <si>
+    <t>orc2</t>
+  </si>
+  <si>
+    <t>オーク2</t>
+  </si>
+  <si>
+    <t>オーク戦士</t>
+  </si>
+  <si>
+    <t>RATMAN2</t>
+  </si>
+  <si>
+    <t>ratman2</t>
+  </si>
+  <si>
+    <t>ラットマン2</t>
+  </si>
+  <si>
+    <t>ラットマン戦士</t>
+  </si>
+  <si>
+    <t>LIZARDMAN1</t>
+  </si>
+  <si>
+    <t>lizardman1</t>
+  </si>
+  <si>
+    <t>リザードマン1</t>
+  </si>
+  <si>
+    <t>リザードマン</t>
+  </si>
+  <si>
+    <t>GOBLIN2</t>
+  </si>
+  <si>
+    <t>goblin2</t>
+  </si>
+  <si>
+    <t>ゴブリン2</t>
+  </si>
+  <si>
+    <t>ゴブリン戦士</t>
+  </si>
+  <si>
+    <t>WEREWOLF</t>
+  </si>
+  <si>
+    <t>werewolf</t>
+  </si>
+  <si>
+    <t>ワーウルフ</t>
+  </si>
+  <si>
+    <t>HOMUNCULUS</t>
+  </si>
+  <si>
+    <t>homunculus</t>
+  </si>
+  <si>
+    <t>ホムンクルス</t>
+  </si>
+  <si>
+    <t>LIZARD</t>
+  </si>
+  <si>
+    <t>lizard</t>
+  </si>
+  <si>
+    <t>リザード</t>
+  </si>
+  <si>
+    <t>FROG</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>カエル</t>
+  </si>
+  <si>
+    <t>TOAD</t>
+  </si>
+  <si>
+    <t>toad</t>
+  </si>
+  <si>
+    <t>ヒキガエル</t>
+  </si>
+  <si>
+    <t>MUMMY</t>
+  </si>
+  <si>
+    <t>mummy</t>
+  </si>
+  <si>
+    <t>マミー</t>
+  </si>
+  <si>
+    <t>SKELETON3</t>
+  </si>
+  <si>
+    <t>skeleton3</t>
+  </si>
+  <si>
+    <t>スケルトン3</t>
+  </si>
+  <si>
+    <t>がいこつ弓使い</t>
+  </si>
+  <si>
+    <t>OGRE2</t>
+  </si>
+  <si>
+    <t>ogre2</t>
+  </si>
+  <si>
+    <t>トロル</t>
+  </si>
+  <si>
+    <t>HARPY_FLY</t>
+  </si>
+  <si>
+    <t>harpy_fly</t>
+  </si>
+  <si>
+    <t>ハーピー(空)</t>
+  </si>
+  <si>
+    <t>ハーピー</t>
+  </si>
+  <si>
+    <t>SNAKE_MAN</t>
+  </si>
+  <si>
+    <t>snake_man</t>
+  </si>
+  <si>
+    <t>スネークマン</t>
+  </si>
+  <si>
+    <t>蛇男</t>
+  </si>
+  <si>
+    <t>LIZARDMAN2</t>
+  </si>
+  <si>
+    <t>lizardman2</t>
+  </si>
+  <si>
+    <t>リザードマン2</t>
+  </si>
+  <si>
+    <t>リザードマン戦士</t>
+  </si>
+  <si>
+    <t>GOBLIN3</t>
+  </si>
+  <si>
+    <t>goblin3</t>
+  </si>
+  <si>
+    <t>ゴブリン3</t>
+  </si>
+  <si>
+    <t>ゴブリンファイター</t>
+  </si>
+  <si>
+    <t>MINOTAUR1</t>
+  </si>
+  <si>
+    <t>minotaur1</t>
+  </si>
+  <si>
+    <t>ミノタウロス1</t>
+  </si>
+  <si>
+    <t>ミノタウロス</t>
+  </si>
+  <si>
+    <t>ARACHNE</t>
+  </si>
+  <si>
+    <t>arachne</t>
+  </si>
+  <si>
+    <t>アラクネ</t>
+  </si>
+  <si>
+    <t>MEDOUSA</t>
+  </si>
+  <si>
+    <t>medousa</t>
+  </si>
+  <si>
+    <t>メドゥーサ</t>
+  </si>
+  <si>
+    <t>INVADER</t>
+  </si>
+  <si>
+    <t>invader</t>
+  </si>
+  <si>
+    <t>インベーダー</t>
+  </si>
+  <si>
+    <t>宇宙からの使者</t>
+  </si>
+  <si>
+    <t>DARK_ELF1</t>
+  </si>
+  <si>
+    <t>dark_elf1</t>
+  </si>
+  <si>
+    <t>ダークエルフ1</t>
+  </si>
+  <si>
+    <t>ダークエルフ</t>
+  </si>
+  <si>
+    <t>DARK_ELF2</t>
+  </si>
+  <si>
+    <t>dark_elf2</t>
+  </si>
+  <si>
+    <t>ダークエルフ2</t>
+  </si>
+  <si>
+    <t>地下エルフ</t>
+  </si>
+  <si>
+    <t>LEGION</t>
+  </si>
+  <si>
     <t>legion</t>
   </si>
   <si>
-    <t>悪霊</t>
-  </si>
-  <si>
     <t>レギオン</t>
   </si>
   <si>
-    <t>pumpkin_head</t>
-  </si>
-  <si>
-    <t>パンプキン</t>
-  </si>
-  <si>
-    <t>skeleton_horse</t>
-  </si>
-  <si>
-    <t>がいこつ馬</t>
-  </si>
-  <si>
-    <t>skeleton_dog</t>
-  </si>
-  <si>
-    <t>がいこつ犬</t>
-  </si>
-  <si>
-    <t>ほねほねドック</t>
-  </si>
-  <si>
-    <t>floating_skull</t>
-  </si>
-  <si>
-    <t>浮遊する骸骨</t>
-  </si>
-  <si>
-    <t>空飛ぶドクロ</t>
-  </si>
-  <si>
-    <t>ghost</t>
-  </si>
-  <si>
-    <t>ゴースト</t>
-  </si>
-  <si>
-    <t>zombie</t>
-  </si>
-  <si>
-    <t>ゾンビ</t>
-  </si>
-  <si>
-    <t>skeleton1</t>
-  </si>
-  <si>
-    <t>スケルトン1</t>
-  </si>
-  <si>
-    <t>スケルトン</t>
-  </si>
-  <si>
-    <t>skeleton2</t>
-  </si>
-  <si>
-    <t>スケルトン2</t>
-  </si>
-  <si>
-    <t>がいこつ剣士</t>
-  </si>
-  <si>
-    <t>skeleton3</t>
-  </si>
-  <si>
-    <t>スケルトン3</t>
-  </si>
-  <si>
-    <t>がいこつ弓使い</t>
+    <t>HARPY_WALK</t>
+  </si>
+  <si>
+    <t>harpy_walk</t>
+  </si>
+  <si>
+    <t>ハーピー(地面)</t>
+  </si>
+  <si>
+    <t>グラウンドハーピー</t>
+  </si>
+  <si>
+    <t>GOBLIN4</t>
+  </si>
+  <si>
+    <t>goblin4</t>
+  </si>
+  <si>
+    <t>ゴブリン4</t>
+  </si>
+  <si>
+    <t>ダークゴブリン</t>
+  </si>
+  <si>
+    <t>LICHE</t>
   </si>
   <si>
     <t>liche</t>
@@ -132,16 +573,7 @@
     <t>リッチ</t>
   </si>
   <si>
-    <t>mummy</t>
-  </si>
-  <si>
-    <t>マミー</t>
-  </si>
-  <si>
-    <t>ghoul</t>
-  </si>
-  <si>
-    <t>グール</t>
+    <t>VAMPIRE</t>
   </si>
   <si>
     <t>vampire</t>
@@ -150,109 +582,94 @@
     <t>バンパイア</t>
   </si>
   <si>
-    <t>wraith</t>
-  </si>
-  <si>
-    <t>レイス</t>
-  </si>
-  <si>
-    <t>specter</t>
-  </si>
-  <si>
-    <t>亡霊</t>
-  </si>
-  <si>
-    <t>wight</t>
-  </si>
-  <si>
-    <t>ワイト</t>
-  </si>
-  <si>
-    <t>gnole1</t>
-  </si>
-  <si>
-    <t>ノール1</t>
-  </si>
-  <si>
-    <t>ノール</t>
-  </si>
-  <si>
-    <t>gnole2</t>
-  </si>
-  <si>
-    <t>ノール2</t>
-  </si>
-  <si>
-    <t>ノール戦士</t>
-  </si>
-  <si>
-    <t>ogre1</t>
-  </si>
-  <si>
-    <t>亜人</t>
-  </si>
-  <si>
-    <t>オーガ</t>
-  </si>
-  <si>
-    <t>ogre2</t>
-  </si>
-  <si>
-    <t>トロル</t>
-  </si>
-  <si>
-    <t>orc1</t>
-  </si>
-  <si>
-    <t>オーク1</t>
-  </si>
-  <si>
-    <t>オーク</t>
-  </si>
-  <si>
-    <t>orc2</t>
-  </si>
-  <si>
-    <t>オーク2</t>
-  </si>
-  <si>
-    <t>オーク戦士</t>
-  </si>
-  <si>
-    <t>ratman1</t>
-  </si>
-  <si>
-    <t>ラットマン1</t>
-  </si>
-  <si>
-    <t>ラットマン</t>
-  </si>
-  <si>
-    <t>ratman2</t>
-  </si>
-  <si>
-    <t>ラットマン2</t>
-  </si>
-  <si>
-    <t>ラットマン戦士</t>
-  </si>
-  <si>
-    <t>harpy_fly</t>
-  </si>
-  <si>
-    <t>ハーピー(空)</t>
-  </si>
-  <si>
-    <t>ハーピー</t>
-  </si>
-  <si>
-    <t>harpy_walk</t>
-  </si>
-  <si>
-    <t>ハーピー(地面)</t>
-  </si>
-  <si>
-    <t>グラウンドハーピー</t>
+    <t>MINOTAUR2</t>
+  </si>
+  <si>
+    <t>minotaur2</t>
+  </si>
+  <si>
+    <t>ミノタウロス2</t>
+  </si>
+  <si>
+    <t>メガタウロス</t>
+  </si>
+  <si>
+    <t>YETI</t>
+  </si>
+  <si>
+    <t>yeti</t>
+  </si>
+  <si>
+    <t>イエティ</t>
+  </si>
+  <si>
+    <t>DARK_ELF3</t>
+  </si>
+  <si>
+    <t>dark_elf3</t>
+  </si>
+  <si>
+    <t>ダークエルフ3</t>
+  </si>
+  <si>
+    <t>ブラックエルフ</t>
+  </si>
+  <si>
+    <t>DARK_ELF4</t>
+  </si>
+  <si>
+    <t>dark_elf4</t>
+  </si>
+  <si>
+    <t>ダークエルフ4</t>
+  </si>
+  <si>
+    <t>暗黒エルフ</t>
+  </si>
+  <si>
+    <t>MINDFLAYER</t>
+  </si>
+  <si>
+    <t>mindflayer</t>
+  </si>
+  <si>
+    <t>悪魔</t>
+  </si>
+  <si>
+    <t>マインドフレイヤー</t>
+  </si>
+  <si>
+    <t>イリシッド</t>
+  </si>
+  <si>
+    <t>GOLEM</t>
+  </si>
+  <si>
+    <t>golem</t>
+  </si>
+  <si>
+    <t>ゴーレム</t>
+  </si>
+  <si>
+    <t>CRYSTAL_GOLEM</t>
+  </si>
+  <si>
+    <t>crystal_golem</t>
+  </si>
+  <si>
+    <t>水晶ゴーレム</t>
+  </si>
+  <si>
+    <t>IRON_GOLEM</t>
+  </si>
+  <si>
+    <t>iron_golem</t>
+  </si>
+  <si>
+    <t>鉄のゴーレム</t>
+  </si>
+  <si>
+    <t>FAIRY</t>
   </si>
   <si>
     <t>fairy</t>
@@ -264,204 +681,21 @@
     <t>x</t>
   </si>
   <si>
-    <t>snake_man</t>
-  </si>
-  <si>
-    <t>スネークマン</t>
-  </si>
-  <si>
-    <t>蛇男</t>
-  </si>
-  <si>
-    <t>lizardman1</t>
-  </si>
-  <si>
-    <t>リザードマン1</t>
-  </si>
-  <si>
-    <t>リザードマン</t>
-  </si>
-  <si>
-    <t>lizardman2</t>
-  </si>
-  <si>
-    <t>リザードマン2</t>
-  </si>
-  <si>
-    <t>リザードマン戦士</t>
-  </si>
-  <si>
-    <t>goblin1</t>
-  </si>
-  <si>
-    <t>ゴブリン1</t>
-  </si>
-  <si>
-    <t>ゴブリン</t>
-  </si>
-  <si>
-    <t>goblin2</t>
-  </si>
-  <si>
-    <t>ゴブリン2</t>
-  </si>
-  <si>
-    <t>ゴブリン戦士</t>
-  </si>
-  <si>
-    <t>goblin3</t>
-  </si>
-  <si>
-    <t>ゴブリン3</t>
-  </si>
-  <si>
-    <t>ゴブリンファイター</t>
-  </si>
-  <si>
-    <t>goblin4</t>
-  </si>
-  <si>
-    <t>ゴブリン4</t>
-  </si>
-  <si>
-    <t>ダークゴブリン</t>
-  </si>
-  <si>
-    <t>minotaur1</t>
-  </si>
-  <si>
-    <t>ミノタウロス1</t>
-  </si>
-  <si>
-    <t>ミノタウロス</t>
-  </si>
-  <si>
-    <t>minotaur2</t>
-  </si>
-  <si>
-    <t>ミノタウロス2</t>
-  </si>
-  <si>
-    <t>メガタウロス</t>
-  </si>
-  <si>
-    <t>yeti</t>
-  </si>
-  <si>
-    <t>イエティ</t>
-  </si>
-  <si>
-    <t>werewolf</t>
-  </si>
-  <si>
-    <t>ワーウルフ</t>
-  </si>
-  <si>
-    <t>arachne</t>
-  </si>
-  <si>
-    <t>アラクネ</t>
-  </si>
-  <si>
-    <t>mindflayer</t>
-  </si>
-  <si>
-    <t>悪魔</t>
-  </si>
-  <si>
-    <t>マインドフレイヤー</t>
-  </si>
-  <si>
-    <t>イリシッド</t>
-  </si>
-  <si>
-    <t>medousa</t>
-  </si>
-  <si>
-    <t>メドゥーサ</t>
-  </si>
-  <si>
-    <t>homunculus</t>
-  </si>
-  <si>
-    <t>ホムンクルス</t>
-  </si>
-  <si>
-    <t>invader</t>
-  </si>
-  <si>
-    <t>インベーダー</t>
-  </si>
-  <si>
-    <t>宇宙からの使者</t>
-  </si>
-  <si>
-    <t>dark_elf1</t>
-  </si>
-  <si>
-    <t>ダークエルフ1</t>
-  </si>
-  <si>
-    <t>ダークエルフ</t>
-  </si>
-  <si>
-    <t>dark_elf2</t>
-  </si>
-  <si>
-    <t>ダークエルフ2</t>
-  </si>
-  <si>
-    <t>地下エルフ</t>
-  </si>
-  <si>
-    <t>dark_elf3</t>
-  </si>
-  <si>
-    <t>ダークエルフ3</t>
-  </si>
-  <si>
-    <t>ブラックエルフ</t>
-  </si>
-  <si>
-    <t>dark_elf4</t>
-  </si>
-  <si>
-    <t>ダークエルフ4</t>
-  </si>
-  <si>
-    <t>暗黒エルフ</t>
-  </si>
-  <si>
-    <t>golem</t>
-  </si>
-  <si>
-    <t>ゴーレム</t>
-  </si>
-  <si>
-    <t>crystal_golem</t>
-  </si>
-  <si>
-    <t>水晶ゴーレム</t>
-  </si>
-  <si>
-    <t>iron_golem</t>
-  </si>
-  <si>
-    <t>鉄のゴーレム</t>
+    <t>CAT1</t>
   </si>
   <si>
     <t>cat1</t>
   </si>
   <si>
-    <t>動物</t>
-  </si>
-  <si>
     <t>猫1</t>
   </si>
   <si>
     <t>猫</t>
   </si>
   <si>
+    <t>CAT2</t>
+  </si>
+  <si>
     <t>cat2</t>
   </si>
   <si>
@@ -471,6 +705,9 @@
     <t>黒猫</t>
   </si>
   <si>
+    <t>RAT</t>
+  </si>
+  <si>
     <t>rat</t>
   </si>
   <si>
@@ -480,6 +717,9 @@
     <t>針ネズミ</t>
   </si>
   <si>
+    <t>DOG1</t>
+  </si>
+  <si>
     <t>dog1</t>
   </si>
   <si>
@@ -489,6 +729,9 @@
     <t>赤い犬</t>
   </si>
   <si>
+    <t>DOG2</t>
+  </si>
+  <si>
     <t>dog2</t>
   </si>
   <si>
@@ -498,18 +741,27 @@
     <t>狂犬</t>
   </si>
   <si>
+    <t>WOLF</t>
+  </si>
+  <si>
     <t>wolf</t>
   </si>
   <si>
     <t>ウルフ</t>
   </si>
   <si>
+    <t>SNOW_WOLF</t>
+  </si>
+  <si>
     <t>snow_wolf</t>
   </si>
   <si>
     <t>スノーウルフ</t>
   </si>
   <si>
+    <t>PIG</t>
+  </si>
+  <si>
     <t>pig</t>
   </si>
   <si>
@@ -519,72 +771,108 @@
     <t>ピッグ</t>
   </si>
   <si>
+    <t>BOAR</t>
+  </si>
+  <si>
     <t>boar</t>
   </si>
   <si>
     <t>イノシシ</t>
   </si>
   <si>
+    <t>BEAR</t>
+  </si>
+  <si>
     <t>bear</t>
   </si>
   <si>
     <t>ベア</t>
   </si>
   <si>
+    <t>POLAR_BEAR</t>
+  </si>
+  <si>
     <t>polar_bear</t>
   </si>
   <si>
     <t>シロクマ</t>
   </si>
   <si>
+    <t>GRIZZY_BEAR</t>
+  </si>
+  <si>
     <t>grizzy_bear</t>
   </si>
   <si>
     <t>グリズリー</t>
   </si>
   <si>
+    <t>STAG</t>
+  </si>
+  <si>
     <t>stag</t>
   </si>
   <si>
     <t>シカ</t>
   </si>
   <si>
+    <t>DOE</t>
+  </si>
+  <si>
     <t>doe</t>
   </si>
   <si>
     <t>牝鹿</t>
   </si>
   <si>
+    <t>PANTHER</t>
+  </si>
+  <si>
     <t>panther</t>
   </si>
   <si>
     <t>ヒョウ</t>
   </si>
   <si>
+    <t>SNOW_PANTHER</t>
+  </si>
+  <si>
     <t>snow_panther</t>
   </si>
   <si>
     <t>白ヒョウ</t>
   </si>
   <si>
+    <t>SABER_TIGER</t>
+  </si>
+  <si>
     <t>saber_tiger</t>
   </si>
   <si>
     <t>サーベルタイガー</t>
   </si>
   <si>
+    <t>TIGER</t>
+  </si>
+  <si>
     <t>tiger</t>
   </si>
   <si>
     <t>タイガー</t>
   </si>
   <si>
+    <t>GORILLA</t>
+  </si>
+  <si>
     <t>gorilla</t>
   </si>
   <si>
     <t>ゴリラ</t>
   </si>
   <si>
+    <t>HORSE1</t>
+  </si>
+  <si>
     <t>horse1</t>
   </si>
   <si>
@@ -594,6 +882,9 @@
     <t>マダーホース</t>
   </si>
   <si>
+    <t>HORSE2</t>
+  </si>
+  <si>
     <t>horse2</t>
   </si>
   <si>
@@ -603,6 +894,9 @@
     <t>クリムゾンホース</t>
   </si>
   <si>
+    <t>HORSE3</t>
+  </si>
+  <si>
     <t>horse3</t>
   </si>
   <si>
@@ -612,6 +906,9 @@
     <t>アイアンホース</t>
   </si>
   <si>
+    <t>HORSE4</t>
+  </si>
+  <si>
     <t>horse4</t>
   </si>
   <si>
@@ -621,52 +918,43 @@
     <t>ブラックホース</t>
   </si>
   <si>
+    <t>GOAT</t>
+  </si>
+  <si>
     <t>goat</t>
   </si>
   <si>
     <t>ヤギ</t>
   </si>
   <si>
+    <t>SHEEP</t>
+  </si>
+  <si>
     <t>sheep</t>
   </si>
   <si>
     <t>ヒツジ</t>
   </si>
   <si>
+    <t>BULL</t>
+  </si>
+  <si>
     <t>bull</t>
   </si>
   <si>
     <t>雌牛</t>
   </si>
   <si>
+    <t>COW</t>
+  </si>
+  <si>
     <t>cow</t>
   </si>
   <si>
     <t>雄牛</t>
   </si>
   <si>
-    <t>lizard</t>
-  </si>
-  <si>
-    <t>リザード</t>
-  </si>
-  <si>
-    <t>snake</t>
-  </si>
-  <si>
-    <t>ヘビ</t>
-  </si>
-  <si>
-    <t>frog</t>
-  </si>
-  <si>
-    <t>カエル</t>
-  </si>
-  <si>
-    <t>toad</t>
-  </si>
-  <si>
-    <t>ヒキガエル</t>
+    <t>WYVERN</t>
   </si>
   <si>
     <t>wyvern</t>
@@ -675,22 +963,25 @@
     <t>ワイバーン</t>
   </si>
   <si>
+    <t>BIRD</t>
+  </si>
+  <si>
     <t>bird</t>
   </si>
   <si>
     <t>鳥</t>
   </si>
   <si>
+    <t>CHICKEN</t>
+  </si>
+  <si>
     <t>chicken</t>
   </si>
   <si>
     <t>ニワトリ</t>
   </si>
   <si>
-    <t>bat</t>
-  </si>
-  <si>
-    <t>コウモリ</t>
+    <t>JELLY</t>
   </si>
   <si>
     <t>jelly</t>
@@ -705,36 +996,54 @@
     <t>スライム</t>
   </si>
   <si>
+    <t>SLIME</t>
+  </si>
+  <si>
     <t>slime</t>
   </si>
   <si>
     <t>毒スライム</t>
   </si>
   <si>
+    <t>SLUG</t>
+  </si>
+  <si>
     <t>slug</t>
   </si>
   <si>
     <t>なめくじ</t>
   </si>
   <si>
+    <t>SNAIL</t>
+  </si>
+  <si>
     <t>snail</t>
   </si>
   <si>
     <t>カタツムリ</t>
   </si>
   <si>
+    <t>TENTACLE</t>
+  </si>
+  <si>
     <t>tentacle</t>
   </si>
   <si>
     <t>触手</t>
   </si>
   <si>
+    <t>GELATINOUS_CUBE</t>
+  </si>
+  <si>
     <t>gelatinous_cube</t>
   </si>
   <si>
     <t>ゼラチン状立方体</t>
   </si>
   <si>
+    <t>WORM</t>
+  </si>
+  <si>
     <t>worm</t>
   </si>
   <si>
@@ -744,12 +1053,18 @@
     <t>ワーム</t>
   </si>
   <si>
+    <t>MAGOT</t>
+  </si>
+  <si>
     <t>magot</t>
   </si>
   <si>
     <t>ウジ虫</t>
   </si>
   <si>
+    <t>SEA_SERPENT</t>
+  </si>
+  <si>
     <t>sea_serpent</t>
   </si>
   <si>
@@ -759,36 +1074,54 @@
     <t>サーペント</t>
   </si>
   <si>
+    <t>OCTOPUS_GROUND</t>
+  </si>
+  <si>
     <t>octopus_ground</t>
   </si>
   <si>
     <t>オクトパス</t>
   </si>
   <si>
+    <t>OCTOPUS_WATER</t>
+  </si>
+  <si>
     <t>octopus_water</t>
   </si>
   <si>
     <t>オクトパス（水中）</t>
   </si>
   <si>
+    <t>JELLYFISH</t>
+  </si>
+  <si>
     <t>jellyfish</t>
   </si>
   <si>
     <t>ジェリーフィッシュ</t>
   </si>
   <si>
+    <t>EEL_GROUND</t>
+  </si>
+  <si>
     <t>eel_ground</t>
   </si>
   <si>
     <t>電気ウナギ</t>
   </si>
   <si>
+    <t>EEL_WATER</t>
+  </si>
+  <si>
     <t>eel_water</t>
   </si>
   <si>
     <t>電気ウナギ（水中）</t>
   </si>
   <si>
+    <t>CRAB_GROUND</t>
+  </si>
+  <si>
     <t>crab_ground</t>
   </si>
   <si>
@@ -798,6 +1131,9 @@
     <t>シザースクラブ</t>
   </si>
   <si>
+    <t>CRAB_WATER</t>
+  </si>
+  <si>
     <t>crab_water</t>
   </si>
   <si>
@@ -807,64 +1143,73 @@
     <t>シザースクラブ（水中）</t>
   </si>
   <si>
+    <t>GILLMAN_GROUND</t>
+  </si>
+  <si>
     <t>gillman_ground</t>
   </si>
   <si>
     <t>ギルマン</t>
   </si>
   <si>
+    <t>GILLMAN_WATER</t>
+  </si>
+  <si>
     <t>gillman_water</t>
   </si>
   <si>
     <t>ギルマン（水中）</t>
   </si>
   <si>
+    <t>SHELLFISH</t>
+  </si>
+  <si>
     <t>shellfish</t>
   </si>
   <si>
     <t>ヤドカリ</t>
   </si>
   <si>
+    <t>FLY</t>
+  </si>
+  <si>
     <t>fly</t>
   </si>
   <si>
-    <t>昆虫</t>
-  </si>
-  <si>
     <t>ハエ</t>
   </si>
   <si>
     <t>寄生ハエ</t>
   </si>
   <si>
+    <t>MOSQUITO</t>
+  </si>
+  <si>
     <t>mosquito</t>
   </si>
   <si>
     <t>モスキート</t>
   </si>
   <si>
+    <t>SCORPION</t>
+  </si>
+  <si>
     <t>scorpion</t>
   </si>
   <si>
     <t>スコーピオン</t>
   </si>
   <si>
+    <t>SPIDER</t>
+  </si>
+  <si>
     <t>spider</t>
   </si>
   <si>
     <t>スパイダー</t>
   </si>
   <si>
-    <t>bee</t>
-  </si>
-  <si>
-    <t>キラービー</t>
-  </si>
-  <si>
-    <t>worker_ant</t>
-  </si>
-  <si>
-    <t>アント</t>
+    <t>SOLDIER_ANT</t>
   </si>
   <si>
     <t>soldier_ant</t>
@@ -873,6 +1218,9 @@
     <t>キラーアント</t>
   </si>
   <si>
+    <t>COCKROACH</t>
+  </si>
+  <si>
     <t>cockroach</t>
   </si>
   <si>
@@ -882,16 +1230,16 @@
     <t>コックローチ</t>
   </si>
   <si>
+    <t>TICK</t>
+  </si>
+  <si>
     <t>tick</t>
   </si>
   <si>
     <t>マダニ</t>
   </si>
   <si>
-    <t>centipede</t>
-  </si>
-  <si>
-    <t>ムカデ</t>
+    <t>PILLBUG</t>
   </si>
   <si>
     <t>pillbug</t>
@@ -900,12 +1248,18 @@
     <t>ダンゴムシ</t>
   </si>
   <si>
+    <t>MANTIS</t>
+  </si>
+  <si>
     <t>mantis</t>
   </si>
   <si>
     <t>カマキリ</t>
   </si>
   <si>
+    <t>REAPER</t>
+  </si>
+  <si>
     <t>reaper</t>
   </si>
   <si>
@@ -915,6 +1269,9 @@
     <t>刈り取るもの</t>
   </si>
   <si>
+    <t>VINE</t>
+  </si>
+  <si>
     <t>vine</t>
   </si>
   <si>
@@ -927,6 +1284,9 @@
     <t>奇妙なツル</t>
   </si>
   <si>
+    <t>FUNGUS</t>
+  </si>
+  <si>
     <t>fungus</t>
   </si>
   <si>
@@ -936,54 +1296,81 @@
     <t>危険な菌類</t>
   </si>
   <si>
+    <t>MYCONID</t>
+  </si>
+  <si>
     <t>myconid</t>
   </si>
   <si>
     <t>人面キノコ</t>
   </si>
   <si>
+    <t>SHRIEKER</t>
+  </si>
+  <si>
     <t>shrieker</t>
   </si>
   <si>
     <t>紫のキノコ</t>
   </si>
   <si>
+    <t>GAS_SPORE</t>
+  </si>
+  <si>
     <t>gas_spore</t>
   </si>
   <si>
     <t>キノコの胞子ガス</t>
   </si>
   <si>
+    <t>INSECTIVOROUS_PLANT</t>
+  </si>
+  <si>
     <t>insectivorous_plant</t>
   </si>
   <si>
     <t>食虫植物</t>
   </si>
   <si>
+    <t>MANDRAGORA</t>
+  </si>
+  <si>
     <t>mandragora</t>
   </si>
   <si>
     <t>マンドラゴラ</t>
   </si>
   <si>
+    <t>BEETLE</t>
+  </si>
+  <si>
     <t>beetle</t>
   </si>
   <si>
     <t>ビートル</t>
   </si>
   <si>
+    <t>EVIL_EYE</t>
+  </si>
+  <si>
     <t>evil_eye</t>
   </si>
   <si>
     <t>イーヴィルアイ</t>
   </si>
   <si>
+    <t>IMP</t>
+  </si>
+  <si>
     <t>imp</t>
   </si>
   <si>
     <t>インプ</t>
   </si>
   <si>
+    <t>GOATMAN1</t>
+  </si>
+  <si>
     <t>goatman1</t>
   </si>
   <si>
@@ -993,6 +1380,9 @@
     <t>羊男</t>
   </si>
   <si>
+    <t>GOATMAN2</t>
+  </si>
+  <si>
     <t>goatman2</t>
   </si>
   <si>
@@ -1002,6 +1392,9 @@
     <t>羊戦士</t>
   </si>
   <si>
+    <t>LESSER_FIEND1</t>
+  </si>
+  <si>
     <t>lesser_fiend1</t>
   </si>
   <si>
@@ -1011,6 +1404,9 @@
     <t>レッサーデーモン</t>
   </si>
   <si>
+    <t>LESSER_FIEND2</t>
+  </si>
+  <si>
     <t>lesser_fiend2</t>
   </si>
   <si>
@@ -1020,90 +1416,135 @@
     <t>マッドストーカー</t>
   </si>
   <si>
+    <t>GARGOYLE_WALK</t>
+  </si>
+  <si>
     <t>gargoyle_walk</t>
   </si>
   <si>
     <t>ガーゴイル</t>
   </si>
   <si>
+    <t>GARGOYLE_FLY</t>
+  </si>
+  <si>
     <t>gargoyle_fly</t>
   </si>
   <si>
     <t>スターガーゴイル</t>
   </si>
   <si>
+    <t>VULTURE_DEMON</t>
+  </si>
+  <si>
     <t>vulture_demon</t>
   </si>
   <si>
     <t>ハゲタカの悪魔</t>
   </si>
   <si>
+    <t>SUCCUBUS</t>
+  </si>
+  <si>
     <t>succubus</t>
   </si>
   <si>
     <t>サキュバス</t>
   </si>
   <si>
+    <t>NIGHTMARE</t>
+  </si>
+  <si>
     <t>nightmare</t>
   </si>
   <si>
     <t>ナイトメア</t>
   </si>
   <si>
+    <t>INSECT_DEMON</t>
+  </si>
+  <si>
     <t>insect_demon</t>
   </si>
   <si>
     <t>昆虫デーモン</t>
   </si>
   <si>
+    <t>EMPUSA</t>
+  </si>
+  <si>
     <t>empusa</t>
   </si>
   <si>
     <t>エンプーサ</t>
   </si>
   <si>
+    <t>HAIRY_DEMON</t>
+  </si>
+  <si>
     <t>hairy_demon</t>
   </si>
   <si>
     <t>毛むくじゃらの悪魔</t>
   </si>
   <si>
+    <t>FIRE_DEMON</t>
+  </si>
+  <si>
     <t>fire_demon</t>
   </si>
   <si>
     <t>炎の悪魔</t>
   </si>
   <si>
+    <t>WATER_DEMON</t>
+  </si>
+  <si>
     <t>water_demon</t>
   </si>
   <si>
     <t>水の悪魔</t>
   </si>
   <si>
+    <t>EARTH_DEMON</t>
+  </si>
+  <si>
     <t>earth_demon</t>
   </si>
   <si>
     <t>土の悪魔</t>
   </si>
   <si>
+    <t>WIND_DEMON</t>
+  </si>
+  <si>
     <t>wind_demon</t>
   </si>
   <si>
     <t>風の悪魔</t>
   </si>
   <si>
+    <t>POISON_DEMON</t>
+  </si>
+  <si>
     <t>poison_demon</t>
   </si>
   <si>
     <t>毒の悪魔</t>
   </si>
   <si>
+    <t>SHADOW_DEMON</t>
+  </si>
+  <si>
     <t>shadow_demon</t>
   </si>
   <si>
     <t>影の悪魔</t>
   </si>
   <si>
+    <t>ICE_DEMON</t>
+  </si>
+  <si>
     <t>ice_demon</t>
   </si>
   <si>
@@ -1150,15 +1591,6 @@
   </si>
   <si>
     <t>e4_r</t>
-  </si>
-  <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>WORKER_ANT</t>
-  </si>
-  <si>
-    <t>BEE</t>
   </si>
 </sst>
 </file>
@@ -2627,11 +3059,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" customWidth="1"/>
@@ -2711,32 +3143,32 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="4">
-        <v>1</v>
+      <c r="A3" t="s" s="4">
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H3" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I3" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3" s="6">
         <v>1</v>
@@ -2745,66 +3177,66 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>100</v>
-      </c>
-      <c r="H4" s="6">
-        <v>20</v>
-      </c>
-      <c r="I4" s="6">
-        <v>3</v>
-      </c>
       <c r="J4" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="4">
-        <v>3</v>
+      <c r="A5" t="s" s="4">
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s" s="5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
         <v>100</v>
       </c>
       <c r="H5" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I5" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
@@ -2813,20 +3245,20 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="4">
-        <v>4</v>
+      <c r="A6" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s" s="5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -2835,75 +3267,75 @@
         <v>100</v>
       </c>
       <c r="H6" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I6" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="4">
-        <v>5</v>
+      <c r="A7" t="s" s="4">
+        <v>28</v>
       </c>
       <c r="B7" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="5">
-        <v>12</v>
-      </c>
       <c r="D7" t="s" s="5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5">
         <v>100</v>
       </c>
       <c r="H7" s="6">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="I7" s="6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J7" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="4">
-        <v>6</v>
+      <c r="A8" t="s" s="4">
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5">
         <v>100</v>
       </c>
       <c r="H8" s="6">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
@@ -2915,29 +3347,29 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="4">
-        <v>7</v>
+      <c r="A9" t="s" s="4">
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="5">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5">
         <v>100</v>
       </c>
       <c r="H9" s="6">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -2949,20 +3381,20 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="4">
-        <v>8</v>
+      <c r="A10" t="s" s="4">
+        <v>40</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -2971,7 +3403,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="6">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -2983,29 +3415,29 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="4">
-        <v>9</v>
+      <c r="A11" t="s" s="4">
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5">
         <v>100</v>
       </c>
       <c r="H11" s="6">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
@@ -3017,29 +3449,29 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="4">
-        <v>10</v>
+      <c r="A12" t="s" s="4">
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s" s="5">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5">
         <v>100</v>
       </c>
       <c r="H12" s="6">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
@@ -3051,29 +3483,29 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="4">
-        <v>11</v>
+      <c r="A13" t="s" s="4">
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s" s="5">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5">
         <v>100</v>
       </c>
       <c r="H13" s="6">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
@@ -3085,29 +3517,29 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="4">
-        <v>12</v>
+      <c r="A14" t="s" s="4">
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5">
         <v>100</v>
       </c>
       <c r="H14" s="6">
-        <v>120</v>
+        <v>1150</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
@@ -3119,20 +3551,20 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="4">
-        <v>13</v>
+      <c r="A15" t="s" s="4">
+        <v>57</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s" s="5">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s" s="5">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -3141,66 +3573,66 @@
         <v>100</v>
       </c>
       <c r="H15" s="6">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I15" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="4">
-        <v>14</v>
+      <c r="A16" t="s" s="4">
+        <v>60</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s" s="5">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F16" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16" s="5">
         <v>100</v>
       </c>
       <c r="H16" s="6">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="I16" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="4">
-        <v>15</v>
+      <c r="A17" t="s" s="4">
+        <v>63</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
@@ -3209,41 +3641,41 @@
         <v>100</v>
       </c>
       <c r="H17" s="6">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I17" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J17" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="4">
-        <v>16</v>
+      <c r="A18" t="s" s="4">
+        <v>67</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s" s="5">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5">
         <v>100</v>
       </c>
       <c r="H18" s="6">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="I18" s="6">
         <v>1</v>
@@ -3255,20 +3687,20 @@
       <c r="L18" s="6"/>
     </row>
     <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="4">
-        <v>17</v>
+      <c r="A19" t="s" s="4">
+        <v>70</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s" s="5">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s" s="5">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
@@ -3277,7 +3709,7 @@
         <v>100</v>
       </c>
       <c r="H19" s="6">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="I19" s="6">
         <v>1</v>
@@ -3289,29 +3721,29 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="4">
-        <v>18</v>
+      <c r="A20" t="s" s="4">
+        <v>73</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s" s="5">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5">
         <v>100</v>
       </c>
       <c r="H20" s="6">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
@@ -3323,20 +3755,20 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="4">
-        <v>19</v>
+      <c r="A21" t="s" s="4">
+        <v>77</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s" s="5">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s" s="5">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5">
         <v>2</v>
@@ -3345,7 +3777,7 @@
         <v>100</v>
       </c>
       <c r="H21" s="6">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
@@ -3357,20 +3789,20 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="4">
-        <v>20</v>
+      <c r="A22" t="s" s="4">
+        <v>80</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s" s="5">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -3379,7 +3811,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="6">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
@@ -3391,29 +3823,29 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" ht="20" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s" s="5">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="B23" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s" s="5">
-        <v>58</v>
-      </c>
       <c r="D23" t="s" s="5">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s" s="5">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F23" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5">
         <v>100</v>
       </c>
       <c r="H23" s="6">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -3425,29 +3857,29 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="4">
-        <v>22</v>
+      <c r="A24" t="s" s="4">
+        <v>86</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s" s="5">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5">
         <v>100</v>
       </c>
       <c r="H24" s="6">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -3459,20 +3891,20 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" ht="20" customHeight="1">
-      <c r="A25" s="4">
-        <v>23</v>
+      <c r="A25" t="s" s="4">
+        <v>90</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s" s="5">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s" s="5">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F25" s="5">
         <v>2</v>
@@ -3481,7 +3913,7 @@
         <v>100</v>
       </c>
       <c r="H25" s="6">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
@@ -3493,29 +3925,29 @@
       <c r="L25" s="6"/>
     </row>
     <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="4">
-        <v>24</v>
+      <c r="A26" t="s" s="4">
+        <v>93</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s" s="5">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="5">
         <v>100</v>
       </c>
       <c r="H26" s="6">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="I26" s="6">
         <v>1</v>
@@ -3527,20 +3959,20 @@
       <c r="L26" s="6"/>
     </row>
     <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="4">
-        <v>25</v>
+      <c r="A27" t="s" s="4">
+        <v>97</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s" s="5">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s" s="5">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F27" s="5">
         <v>2</v>
@@ -3561,29 +3993,29 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="4">
-        <v>26</v>
+      <c r="A28" t="s" s="4">
+        <v>101</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s" s="5">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="F28" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5">
         <v>100</v>
       </c>
       <c r="H28" s="6">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="I28" s="6">
         <v>1</v>
@@ -3595,29 +4027,29 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" ht="20" customHeight="1">
-      <c r="A29" s="4">
-        <v>27</v>
+      <c r="A29" t="s" s="4">
+        <v>105</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s" s="5">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s" s="5">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="F29" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" s="5">
         <v>100</v>
       </c>
       <c r="H29" s="6">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="I29" s="6">
         <v>1</v>
@@ -3629,29 +4061,29 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="4">
-        <v>28</v>
+      <c r="A30" t="s" s="4">
+        <v>109</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="F30" t="s" s="5">
-        <v>82</v>
+        <v>111</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
       </c>
       <c r="G30" s="5">
         <v>100</v>
       </c>
       <c r="H30" s="6">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="I30" s="6">
         <v>1</v>
@@ -3663,29 +4095,29 @@
       <c r="L30" s="6"/>
     </row>
     <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="4">
-        <v>29</v>
+      <c r="A31" t="s" s="4">
+        <v>112</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s" s="5">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s" s="5">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F31" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="5">
         <v>100</v>
       </c>
       <c r="H31" s="6">
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="I31" s="6">
         <v>1</v>
@@ -3697,20 +4129,20 @@
       <c r="L31" s="6"/>
     </row>
     <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="4">
-        <v>30</v>
+      <c r="A32" t="s" s="4">
+        <v>115</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s" s="5">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
@@ -3719,7 +4151,7 @@
         <v>100</v>
       </c>
       <c r="H32" s="6">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="I32" s="6">
         <v>1</v>
@@ -3731,29 +4163,29 @@
       <c r="L32" s="6"/>
     </row>
     <row r="33" ht="20" customHeight="1">
-      <c r="A33" s="4">
-        <v>31</v>
+      <c r="A33" t="s" s="4">
+        <v>118</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s" s="5">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F33" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="5">
         <v>100</v>
       </c>
       <c r="H33" s="6">
-        <v>310</v>
+        <v>810</v>
       </c>
       <c r="I33" s="6">
         <v>1</v>
@@ -3765,29 +4197,29 @@
       <c r="L33" s="6"/>
     </row>
     <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="4">
-        <v>32</v>
+      <c r="A34" t="s" s="4">
+        <v>121</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s" s="5">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F34" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="5">
         <v>100</v>
       </c>
       <c r="H34" s="6">
-        <v>320</v>
+        <v>820</v>
       </c>
       <c r="I34" s="6">
         <v>1</v>
@@ -3799,29 +4231,29 @@
       <c r="L34" s="6"/>
     </row>
     <row r="35" ht="20" customHeight="1">
-      <c r="A35" s="4">
-        <v>33</v>
+      <c r="A35" t="s" s="4">
+        <v>124</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s" s="5">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s" s="5">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="F35" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="5">
         <v>100</v>
       </c>
       <c r="H35" s="6">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="I35" s="6">
         <v>1</v>
@@ -3833,20 +4265,20 @@
       <c r="L35" s="6"/>
     </row>
     <row r="36" ht="20" customHeight="1">
-      <c r="A36" s="4">
-        <v>34</v>
+      <c r="A36" t="s" s="4">
+        <v>127</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s" s="5">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F36" s="5">
         <v>3</v>
@@ -3855,7 +4287,7 @@
         <v>100</v>
       </c>
       <c r="H36" s="6">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="I36" s="6">
         <v>1</v>
@@ -3867,29 +4299,29 @@
       <c r="L36" s="6"/>
     </row>
     <row r="37" ht="20" customHeight="1">
-      <c r="A37" s="4">
-        <v>35</v>
+      <c r="A37" t="s" s="4">
+        <v>131</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s" s="5">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s" s="5">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="F37" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" s="5">
         <v>100</v>
       </c>
       <c r="H37" s="6">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="I37" s="6">
         <v>1</v>
@@ -3901,20 +4333,20 @@
       <c r="L37" s="6"/>
     </row>
     <row r="38" ht="20" customHeight="1">
-      <c r="A38" s="4">
-        <v>36</v>
+      <c r="A38" t="s" s="4">
+        <v>134</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s" s="5">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="F38" s="5">
         <v>3</v>
@@ -3923,7 +4355,7 @@
         <v>100</v>
       </c>
       <c r="H38" s="6">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="I38" s="6">
         <v>1</v>
@@ -3935,29 +4367,29 @@
       <c r="L38" s="6"/>
     </row>
     <row r="39" ht="20" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" t="s" s="4">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="B39" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="C39" t="s" s="5">
-        <v>58</v>
-      </c>
       <c r="D39" t="s" s="5">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s" s="5">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F39" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39" s="5">
         <v>100</v>
       </c>
       <c r="H39" s="6">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="I39" s="6">
         <v>1</v>
@@ -3969,29 +4401,29 @@
       <c r="L39" s="6"/>
     </row>
     <row r="40" ht="20" customHeight="1">
-      <c r="A40" s="4">
-        <v>38</v>
+      <c r="A40" t="s" s="4">
+        <v>142</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s" s="5">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="F40" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="5">
         <v>100</v>
       </c>
       <c r="H40" s="6">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="I40" s="6">
         <v>1</v>
@@ -4003,29 +4435,29 @@
       <c r="L40" s="6"/>
     </row>
     <row r="41" ht="20" customHeight="1">
-      <c r="A41" s="4">
-        <v>39</v>
+      <c r="A41" t="s" s="4">
+        <v>146</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s" s="5">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="E41" t="s" s="5">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="F41" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="5">
         <v>100</v>
       </c>
       <c r="H41" s="6">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="I41" s="6">
         <v>1</v>
@@ -4037,20 +4469,20 @@
       <c r="L41" s="6"/>
     </row>
     <row r="42" ht="20" customHeight="1">
-      <c r="A42" s="4">
-        <v>40</v>
+      <c r="A42" t="s" s="4">
+        <v>150</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s" s="5">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="F42" s="5">
         <v>3</v>
@@ -4059,7 +4491,7 @@
         <v>100</v>
       </c>
       <c r="H42" s="6">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="I42" s="6">
         <v>1</v>
@@ -4071,29 +4503,29 @@
       <c r="L42" s="6"/>
     </row>
     <row r="43" ht="20" customHeight="1">
-      <c r="A43" s="4">
-        <v>41</v>
+      <c r="A43" t="s" s="4">
+        <v>154</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s" s="5">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s" s="5">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="F43" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G43" s="5">
         <v>100</v>
       </c>
       <c r="H43" s="6">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="I43" s="6">
         <v>1</v>
@@ -4105,20 +4537,20 @@
       <c r="L43" s="6"/>
     </row>
     <row r="44" ht="20" customHeight="1">
-      <c r="A44" s="4">
-        <v>42</v>
+      <c r="A44" t="s" s="4">
+        <v>157</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s" s="5">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F44" s="5">
         <v>3</v>
@@ -4139,29 +4571,29 @@
       <c r="L44" s="6"/>
     </row>
     <row r="45" ht="20" customHeight="1">
-      <c r="A45" s="4">
-        <v>43</v>
+      <c r="A45" t="s" s="4">
+        <v>160</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s" s="5">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s" s="5">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F45" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="5">
         <v>100</v>
       </c>
       <c r="H45" s="6">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="I45" s="6">
         <v>1</v>
@@ -4173,20 +4605,20 @@
       <c r="L45" s="6"/>
     </row>
     <row r="46" ht="20" customHeight="1">
-      <c r="A46" s="4">
-        <v>44</v>
+      <c r="A46" t="s" s="4">
+        <v>164</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s" s="5">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s" s="5">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F46" s="5">
         <v>3</v>
@@ -4195,7 +4627,7 @@
         <v>100</v>
       </c>
       <c r="H46" s="6">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="I46" s="6">
         <v>1</v>
@@ -4207,20 +4639,20 @@
       <c r="L46" s="6"/>
     </row>
     <row r="47" ht="20" customHeight="1">
-      <c r="A47" s="4">
-        <v>45</v>
+      <c r="A47" t="s" s="4">
+        <v>168</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s" s="5">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s" s="5">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="F47" s="5">
         <v>3</v>
@@ -4229,7 +4661,7 @@
         <v>100</v>
       </c>
       <c r="H47" s="6">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="I47" s="6">
         <v>1</v>
@@ -4241,32 +4673,32 @@
       <c r="L47" s="6"/>
     </row>
     <row r="48" ht="20" customHeight="1">
-      <c r="A48" s="4">
-        <v>46</v>
+      <c r="A48" t="s" s="4">
+        <v>172</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s" s="5">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s" s="5">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="F48" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" s="5">
         <v>100</v>
       </c>
       <c r="H48" s="6">
-        <v>460</v>
+        <v>10</v>
       </c>
       <c r="I48" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J48" s="6">
         <v>1</v>
@@ -4275,20 +4707,20 @@
       <c r="L48" s="6"/>
     </row>
     <row r="49" ht="20" customHeight="1">
-      <c r="A49" s="4">
-        <v>47</v>
+      <c r="A49" t="s" s="4">
+        <v>175</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s" s="5">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s" s="5">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="F49" s="5">
         <v>4</v>
@@ -4297,7 +4729,7 @@
         <v>100</v>
       </c>
       <c r="H49" s="6">
-        <v>470</v>
+        <v>270</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -4309,20 +4741,20 @@
       <c r="L49" s="6"/>
     </row>
     <row r="50" ht="20" customHeight="1">
-      <c r="A50" s="4">
-        <v>48</v>
+      <c r="A50" t="s" s="4">
+        <v>179</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s" s="5">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s" s="5">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="F50" s="5">
         <v>4</v>
@@ -4331,7 +4763,7 @@
         <v>100</v>
       </c>
       <c r="H50" s="6">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -4343,20 +4775,20 @@
       <c r="L50" s="6"/>
     </row>
     <row r="51" ht="20" customHeight="1">
-      <c r="A51" s="4">
-        <v>49</v>
+      <c r="A51" t="s" s="4">
+        <v>183</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s" s="5">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="E51" t="s" s="5">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="F51" s="5">
         <v>5</v>
@@ -4365,7 +4797,7 @@
         <v>100</v>
       </c>
       <c r="H51" s="6">
-        <v>490</v>
+        <v>110</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -4377,20 +4809,20 @@
       <c r="L51" s="6"/>
     </row>
     <row r="52" ht="20" customHeight="1">
-      <c r="A52" s="4">
-        <v>50</v>
+      <c r="A52" t="s" s="4">
+        <v>186</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s" s="5">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s" s="5">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="F52" s="5">
         <v>5</v>
@@ -4399,7 +4831,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="6">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -4411,29 +4843,29 @@
       <c r="L52" s="6"/>
     </row>
     <row r="53" ht="20" customHeight="1">
-      <c r="A53" s="4">
-        <v>51</v>
+      <c r="A53" t="s" s="4">
+        <v>189</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s" s="5">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s" s="5">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F53" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53" s="5">
         <v>100</v>
       </c>
       <c r="H53" s="6">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="I53" s="6">
         <v>1</v>
@@ -4445,29 +4877,29 @@
       <c r="L53" s="6"/>
     </row>
     <row r="54" ht="20" customHeight="1">
-      <c r="A54" s="4">
-        <v>52</v>
+      <c r="A54" t="s" s="4">
+        <v>193</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="E54" t="s" s="5">
-        <v>148</v>
-      </c>
-      <c r="F54" t="s" s="5">
-        <v>82</v>
+        <v>195</v>
+      </c>
+      <c r="F54" s="5">
+        <v>4</v>
       </c>
       <c r="G54" s="5">
         <v>100</v>
       </c>
       <c r="H54" s="6">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -4479,29 +4911,29 @@
       <c r="L54" s="6"/>
     </row>
     <row r="55" ht="20" customHeight="1">
-      <c r="A55" s="4">
-        <v>53</v>
+      <c r="A55" t="s" s="4">
+        <v>196</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s" s="5">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="E55" t="s" s="5">
-        <v>151</v>
-      </c>
-      <c r="F55" t="s" s="5">
-        <v>82</v>
+        <v>199</v>
+      </c>
+      <c r="F55" s="5">
+        <v>4</v>
       </c>
       <c r="G55" s="5">
         <v>100</v>
       </c>
       <c r="H55" s="6">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="I55" s="6">
         <v>1</v>
@@ -4513,29 +4945,29 @@
       <c r="L55" s="6"/>
     </row>
     <row r="56" ht="20" customHeight="1">
-      <c r="A56" s="4">
-        <v>54</v>
+      <c r="A56" t="s" s="4">
+        <v>200</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s" s="5">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s" s="5">
-        <v>154</v>
-      </c>
-      <c r="F56" t="s" s="5">
-        <v>82</v>
+        <v>203</v>
+      </c>
+      <c r="F56" s="5">
+        <v>4</v>
       </c>
       <c r="G56" s="5">
         <v>100</v>
       </c>
       <c r="H56" s="6">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="I56" s="6">
         <v>1</v>
@@ -4547,29 +4979,29 @@
       <c r="L56" s="6"/>
     </row>
     <row r="57" ht="20" customHeight="1">
-      <c r="A57" s="4">
-        <v>55</v>
+      <c r="A57" t="s" s="4">
+        <v>204</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s" s="5">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="E57" t="s" s="5">
-        <v>157</v>
-      </c>
-      <c r="F57" t="s" s="5">
-        <v>82</v>
+        <v>208</v>
+      </c>
+      <c r="F57" s="5">
+        <v>5</v>
       </c>
       <c r="G57" s="5">
         <v>100</v>
       </c>
       <c r="H57" s="6">
-        <v>550</v>
+        <v>410</v>
       </c>
       <c r="I57" s="6">
         <v>1</v>
@@ -4581,29 +5013,29 @@
       <c r="L57" s="6"/>
     </row>
     <row r="58" ht="20" customHeight="1">
-      <c r="A58" s="4">
-        <v>56</v>
+      <c r="A58" t="s" s="4">
+        <v>209</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s" s="5">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s" s="5">
-        <v>160</v>
-      </c>
-      <c r="F58" t="s" s="5">
-        <v>82</v>
+        <v>211</v>
+      </c>
+      <c r="F58" s="5">
+        <v>5</v>
       </c>
       <c r="G58" s="5">
         <v>100</v>
       </c>
       <c r="H58" s="6">
-        <v>560</v>
+        <v>490</v>
       </c>
       <c r="I58" s="6">
         <v>1</v>
@@ -4615,29 +5047,29 @@
       <c r="L58" s="6"/>
     </row>
     <row r="59" ht="20" customHeight="1">
-      <c r="A59" s="4">
-        <v>57</v>
+      <c r="A59" t="s" s="4">
+        <v>212</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s" s="5">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s" s="5">
-        <v>162</v>
-      </c>
-      <c r="F59" t="s" s="5">
-        <v>82</v>
+        <v>214</v>
+      </c>
+      <c r="F59" s="5">
+        <v>5</v>
       </c>
       <c r="G59" s="5">
         <v>100</v>
       </c>
       <c r="H59" s="6">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="I59" s="6">
         <v>1</v>
@@ -4649,29 +5081,29 @@
       <c r="L59" s="6"/>
     </row>
     <row r="60" ht="20" customHeight="1">
-      <c r="A60" s="4">
-        <v>58</v>
+      <c r="A60" t="s" s="4">
+        <v>215</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s" s="5">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s" s="5">
-        <v>164</v>
-      </c>
-      <c r="F60" t="s" s="5">
-        <v>82</v>
+        <v>217</v>
+      </c>
+      <c r="F60" s="5">
+        <v>5</v>
       </c>
       <c r="G60" s="5">
         <v>100</v>
       </c>
       <c r="H60" s="6">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="I60" s="6">
         <v>1</v>
@@ -4683,29 +5115,29 @@
       <c r="L60" s="6"/>
     </row>
     <row r="61" ht="20" customHeight="1">
-      <c r="A61" s="4">
-        <v>59</v>
+      <c r="A61" t="s" s="4">
+        <v>218</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s" s="5">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s" s="5">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="F61" t="s" s="5">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="G61" s="5">
         <v>100</v>
       </c>
       <c r="H61" s="6">
-        <v>590</v>
+        <v>280</v>
       </c>
       <c r="I61" s="6">
         <v>1</v>
@@ -4717,29 +5149,29 @@
       <c r="L61" s="6"/>
     </row>
     <row r="62" ht="20" customHeight="1">
-      <c r="A62" s="4">
-        <v>60</v>
+      <c r="A62" t="s" s="4">
+        <v>222</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s" s="5">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="E62" t="s" s="5">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="F62" t="s" s="5">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="G62" s="5">
         <v>100</v>
       </c>
       <c r="H62" s="6">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="I62" s="6">
         <v>1</v>
@@ -4751,29 +5183,29 @@
       <c r="L62" s="6"/>
     </row>
     <row r="63" ht="20" customHeight="1">
-      <c r="A63" s="4">
-        <v>61</v>
+      <c r="A63" t="s" s="4">
+        <v>226</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s" s="5">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="E63" t="s" s="5">
-        <v>171</v>
-      </c>
-      <c r="F63" s="5">
-        <v>3</v>
+        <v>229</v>
+      </c>
+      <c r="F63" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G63" s="5">
         <v>100</v>
       </c>
       <c r="H63" s="6">
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="I63" s="6">
         <v>1</v>
@@ -4785,29 +5217,29 @@
       <c r="L63" s="6"/>
     </row>
     <row r="64" ht="20" customHeight="1">
-      <c r="A64" s="4">
-        <v>62</v>
+      <c r="A64" t="s" s="4">
+        <v>230</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s" s="5">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="E64" t="s" s="5">
-        <v>173</v>
-      </c>
-      <c r="F64" s="5">
-        <v>3</v>
+        <v>233</v>
+      </c>
+      <c r="F64" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G64" s="5">
         <v>100</v>
       </c>
       <c r="H64" s="6">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="I64" s="6">
         <v>1</v>
@@ -4819,29 +5251,29 @@
       <c r="L64" s="6"/>
     </row>
     <row r="65" ht="20" customHeight="1">
-      <c r="A65" s="4">
-        <v>63</v>
+      <c r="A65" t="s" s="4">
+        <v>234</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s" s="5">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s" s="5">
-        <v>175</v>
-      </c>
-      <c r="F65" s="5">
-        <v>4</v>
+        <v>237</v>
+      </c>
+      <c r="F65" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G65" s="5">
         <v>100</v>
       </c>
       <c r="H65" s="6">
-        <v>630</v>
+        <v>550</v>
       </c>
       <c r="I65" s="6">
         <v>1</v>
@@ -4853,29 +5285,29 @@
       <c r="L65" s="6"/>
     </row>
     <row r="66" ht="20" customHeight="1">
-      <c r="A66" s="4">
-        <v>64</v>
+      <c r="A66" t="s" s="4">
+        <v>238</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s" s="5">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="E66" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="F66" s="5">
-        <v>2</v>
+        <v>241</v>
+      </c>
+      <c r="F66" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G66" s="5">
         <v>100</v>
       </c>
       <c r="H66" s="6">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="I66" s="6">
         <v>1</v>
@@ -4887,29 +5319,29 @@
       <c r="L66" s="6"/>
     </row>
     <row r="67" ht="20" customHeight="1">
-      <c r="A67" s="4">
-        <v>65</v>
+      <c r="A67" t="s" s="4">
+        <v>242</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s" s="5">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s" s="5">
-        <v>179</v>
-      </c>
-      <c r="F67" s="5">
-        <v>2</v>
+        <v>244</v>
+      </c>
+      <c r="F67" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G67" s="5">
         <v>100</v>
       </c>
       <c r="H67" s="6">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="I67" s="6">
         <v>1</v>
@@ -4921,29 +5353,29 @@
       <c r="L67" s="6"/>
     </row>
     <row r="68" ht="20" customHeight="1">
-      <c r="A68" s="4">
-        <v>66</v>
+      <c r="A68" t="s" s="4">
+        <v>245</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s" s="5">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="E68" t="s" s="5">
-        <v>181</v>
-      </c>
-      <c r="F68" s="5">
-        <v>2</v>
+        <v>247</v>
+      </c>
+      <c r="F68" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G68" s="5">
         <v>100</v>
       </c>
       <c r="H68" s="6">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="I68" s="6">
         <v>1</v>
@@ -4955,29 +5387,29 @@
       <c r="L68" s="6"/>
     </row>
     <row r="69" ht="20" customHeight="1">
-      <c r="A69" s="4">
-        <v>67</v>
+      <c r="A69" t="s" s="4">
+        <v>248</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s" s="5">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="E69" t="s" s="5">
-        <v>183</v>
-      </c>
-      <c r="F69" s="5">
-        <v>3</v>
+        <v>251</v>
+      </c>
+      <c r="F69" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G69" s="5">
         <v>100</v>
       </c>
       <c r="H69" s="6">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="I69" s="6">
         <v>1</v>
@@ -4989,29 +5421,29 @@
       <c r="L69" s="6"/>
     </row>
     <row r="70" ht="20" customHeight="1">
-      <c r="A70" s="4">
-        <v>68</v>
+      <c r="A70" t="s" s="4">
+        <v>252</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s" s="5">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="E70" t="s" s="5">
-        <v>185</v>
-      </c>
-      <c r="F70" s="5">
-        <v>3</v>
+        <v>254</v>
+      </c>
+      <c r="F70" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G70" s="5">
         <v>100</v>
       </c>
       <c r="H70" s="6">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="I70" s="6">
         <v>1</v>
@@ -5023,20 +5455,20 @@
       <c r="L70" s="6"/>
     </row>
     <row r="71" ht="20" customHeight="1">
-      <c r="A71" s="4">
-        <v>69</v>
+      <c r="A71" t="s" s="4">
+        <v>255</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s" s="5">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="E71" t="s" s="5">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="F71" s="5">
         <v>3</v>
@@ -5045,7 +5477,7 @@
         <v>100</v>
       </c>
       <c r="H71" s="6">
-        <v>690</v>
+        <v>610</v>
       </c>
       <c r="I71" s="6">
         <v>1</v>
@@ -5057,20 +5489,20 @@
       <c r="L71" s="6"/>
     </row>
     <row r="72" ht="20" customHeight="1">
-      <c r="A72" s="4">
-        <v>70</v>
+      <c r="A72" t="s" s="4">
+        <v>258</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s" s="5">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="E72" t="s" s="5">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="F72" s="5">
         <v>3</v>
@@ -5079,7 +5511,7 @@
         <v>100</v>
       </c>
       <c r="H72" s="6">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="I72" s="6">
         <v>1</v>
@@ -5091,29 +5523,29 @@
       <c r="L72" s="6"/>
     </row>
     <row r="73" ht="20" customHeight="1">
-      <c r="A73" s="4">
-        <v>71</v>
+      <c r="A73" t="s" s="4">
+        <v>261</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s" s="5">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="E73" t="s" s="5">
-        <v>192</v>
-      </c>
-      <c r="F73" t="s" s="5">
-        <v>82</v>
+        <v>263</v>
+      </c>
+      <c r="F73" s="5">
+        <v>4</v>
       </c>
       <c r="G73" s="5">
         <v>100</v>
       </c>
       <c r="H73" s="6">
-        <v>710</v>
+        <v>630</v>
       </c>
       <c r="I73" s="6">
         <v>1</v>
@@ -5125,29 +5557,29 @@
       <c r="L73" s="6"/>
     </row>
     <row r="74" ht="20" customHeight="1">
-      <c r="A74" s="4">
-        <v>72</v>
+      <c r="A74" t="s" s="4">
+        <v>264</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s" s="5">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="E74" t="s" s="5">
-        <v>195</v>
-      </c>
-      <c r="F74" t="s" s="5">
-        <v>82</v>
+        <v>266</v>
+      </c>
+      <c r="F74" s="5">
+        <v>2</v>
       </c>
       <c r="G74" s="5">
         <v>100</v>
       </c>
       <c r="H74" s="6">
-        <v>720</v>
+        <v>640</v>
       </c>
       <c r="I74" s="6">
         <v>1</v>
@@ -5159,29 +5591,29 @@
       <c r="L74" s="6"/>
     </row>
     <row r="75" ht="20" customHeight="1">
-      <c r="A75" s="4">
-        <v>73</v>
+      <c r="A75" t="s" s="4">
+        <v>267</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s" s="5">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="E75" t="s" s="5">
-        <v>198</v>
-      </c>
-      <c r="F75" t="s" s="5">
-        <v>82</v>
+        <v>269</v>
+      </c>
+      <c r="F75" s="5">
+        <v>2</v>
       </c>
       <c r="G75" s="5">
         <v>100</v>
       </c>
       <c r="H75" s="6">
-        <v>730</v>
+        <v>650</v>
       </c>
       <c r="I75" s="6">
         <v>1</v>
@@ -5193,29 +5625,29 @@
       <c r="L75" s="6"/>
     </row>
     <row r="76" ht="20" customHeight="1">
-      <c r="A76" s="4">
-        <v>74</v>
+      <c r="A76" t="s" s="4">
+        <v>270</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s" s="5">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="E76" t="s" s="5">
-        <v>201</v>
-      </c>
-      <c r="F76" t="s" s="5">
-        <v>82</v>
+        <v>272</v>
+      </c>
+      <c r="F76" s="5">
+        <v>2</v>
       </c>
       <c r="G76" s="5">
         <v>100</v>
       </c>
       <c r="H76" s="6">
-        <v>740</v>
+        <v>660</v>
       </c>
       <c r="I76" s="6">
         <v>1</v>
@@ -5227,29 +5659,29 @@
       <c r="L76" s="6"/>
     </row>
     <row r="77" ht="20" customHeight="1">
-      <c r="A77" s="4">
-        <v>75</v>
+      <c r="A77" t="s" s="4">
+        <v>273</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s" s="5">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s" s="5">
-        <v>203</v>
-      </c>
-      <c r="F77" t="s" s="5">
-        <v>82</v>
+        <v>275</v>
+      </c>
+      <c r="F77" s="5">
+        <v>3</v>
       </c>
       <c r="G77" s="5">
         <v>100</v>
       </c>
       <c r="H77" s="6">
-        <v>750</v>
+        <v>670</v>
       </c>
       <c r="I77" s="6">
         <v>1</v>
@@ -5261,29 +5693,29 @@
       <c r="L77" s="6"/>
     </row>
     <row r="78" ht="20" customHeight="1">
-      <c r="A78" s="4">
-        <v>76</v>
+      <c r="A78" t="s" s="4">
+        <v>276</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s" s="5">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="E78" t="s" s="5">
-        <v>205</v>
-      </c>
-      <c r="F78" t="s" s="5">
-        <v>82</v>
+        <v>278</v>
+      </c>
+      <c r="F78" s="5">
+        <v>3</v>
       </c>
       <c r="G78" s="5">
         <v>100</v>
       </c>
       <c r="H78" s="6">
-        <v>760</v>
+        <v>680</v>
       </c>
       <c r="I78" s="6">
         <v>1</v>
@@ -5295,29 +5727,29 @@
       <c r="L78" s="6"/>
     </row>
     <row r="79" ht="20" customHeight="1">
-      <c r="A79" s="4">
-        <v>77</v>
+      <c r="A79" t="s" s="4">
+        <v>279</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s" s="5">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="E79" t="s" s="5">
-        <v>207</v>
-      </c>
-      <c r="F79" t="s" s="5">
-        <v>82</v>
+        <v>281</v>
+      </c>
+      <c r="F79" s="5">
+        <v>3</v>
       </c>
       <c r="G79" s="5">
         <v>100</v>
       </c>
       <c r="H79" s="6">
-        <v>770</v>
+        <v>690</v>
       </c>
       <c r="I79" s="6">
         <v>1</v>
@@ -5329,29 +5761,29 @@
       <c r="L79" s="6"/>
     </row>
     <row r="80" ht="20" customHeight="1">
-      <c r="A80" s="4">
-        <v>78</v>
+      <c r="A80" t="s" s="4">
+        <v>282</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s" s="5">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s" s="5">
-        <v>209</v>
-      </c>
-      <c r="F80" t="s" s="5">
-        <v>82</v>
+        <v>284</v>
+      </c>
+      <c r="F80" s="5">
+        <v>3</v>
       </c>
       <c r="G80" s="5">
         <v>100</v>
       </c>
       <c r="H80" s="6">
-        <v>780</v>
+        <v>700</v>
       </c>
       <c r="I80" s="6">
         <v>1</v>
@@ -5363,29 +5795,29 @@
       <c r="L80" s="6"/>
     </row>
     <row r="81" ht="20" customHeight="1">
-      <c r="A81" s="4">
-        <v>79</v>
+      <c r="A81" t="s" s="4">
+        <v>285</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s" s="5">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="E81" t="s" s="5">
-        <v>211</v>
-      </c>
-      <c r="F81" s="5">
-        <v>2</v>
+        <v>288</v>
+      </c>
+      <c r="F81" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G81" s="5">
         <v>100</v>
       </c>
       <c r="H81" s="6">
-        <v>790</v>
+        <v>710</v>
       </c>
       <c r="I81" s="6">
         <v>1</v>
@@ -5397,29 +5829,29 @@
       <c r="L81" s="6"/>
     </row>
     <row r="82" ht="20" customHeight="1">
-      <c r="A82" s="4">
-        <v>80</v>
+      <c r="A82" t="s" s="4">
+        <v>289</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s" s="5">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="E82" t="s" s="5">
-        <v>213</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1</v>
+        <v>292</v>
+      </c>
+      <c r="F82" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G82" s="5">
         <v>100</v>
       </c>
       <c r="H82" s="6">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="I82" s="6">
         <v>1</v>
@@ -5431,29 +5863,29 @@
       <c r="L82" s="6"/>
     </row>
     <row r="83" ht="20" customHeight="1">
-      <c r="A83" s="4">
-        <v>81</v>
+      <c r="A83" t="s" s="4">
+        <v>293</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s" s="5">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="E83" t="s" s="5">
-        <v>215</v>
-      </c>
-      <c r="F83" s="5">
-        <v>2</v>
+        <v>296</v>
+      </c>
+      <c r="F83" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G83" s="5">
         <v>100</v>
       </c>
       <c r="H83" s="6">
-        <v>810</v>
+        <v>730</v>
       </c>
       <c r="I83" s="6">
         <v>1</v>
@@ -5465,29 +5897,29 @@
       <c r="L83" s="6"/>
     </row>
     <row r="84" ht="20" customHeight="1">
-      <c r="A84" s="4">
-        <v>82</v>
+      <c r="A84" t="s" s="4">
+        <v>297</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s" s="5">
-        <v>217</v>
+        <v>299</v>
       </c>
       <c r="E84" t="s" s="5">
-        <v>217</v>
-      </c>
-      <c r="F84" s="5">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="F84" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G84" s="5">
         <v>100</v>
       </c>
       <c r="H84" s="6">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="I84" s="6">
         <v>1</v>
@@ -5499,29 +5931,29 @@
       <c r="L84" s="6"/>
     </row>
     <row r="85" ht="20" customHeight="1">
-      <c r="A85" s="4">
-        <v>83</v>
+      <c r="A85" t="s" s="4">
+        <v>301</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s" s="5">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="E85" t="s" s="5">
-        <v>219</v>
-      </c>
-      <c r="F85" s="5">
-        <v>3</v>
+        <v>303</v>
+      </c>
+      <c r="F85" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G85" s="5">
         <v>100</v>
       </c>
       <c r="H85" s="6">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
@@ -5533,29 +5965,29 @@
       <c r="L85" s="6"/>
     </row>
     <row r="86" ht="20" customHeight="1">
-      <c r="A86" s="4">
-        <v>84</v>
+      <c r="A86" t="s" s="4">
+        <v>304</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s" s="5">
+        <v>306</v>
+      </c>
+      <c r="E86" t="s" s="5">
+        <v>306</v>
+      </c>
+      <c r="F86" t="s" s="5">
         <v>221</v>
       </c>
-      <c r="E86" t="s" s="5">
-        <v>221</v>
-      </c>
-      <c r="F86" t="s" s="5">
-        <v>82</v>
-      </c>
       <c r="G86" s="5">
         <v>100</v>
       </c>
       <c r="H86" s="6">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="I86" s="6">
         <v>1</v>
@@ -5567,29 +5999,29 @@
       <c r="L86" s="6"/>
     </row>
     <row r="87" ht="20" customHeight="1">
-      <c r="A87" s="4">
-        <v>85</v>
+      <c r="A87" t="s" s="4">
+        <v>307</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s" s="5">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="E87" t="s" s="5">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="F87" t="s" s="5">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="G87" s="5">
         <v>100</v>
       </c>
       <c r="H87" s="6">
-        <v>850</v>
+        <v>770</v>
       </c>
       <c r="I87" s="6">
         <v>1</v>
@@ -5601,29 +6033,29 @@
       <c r="L87" s="6"/>
     </row>
     <row r="88" ht="20" customHeight="1">
-      <c r="A88" s="4">
-        <v>86</v>
+      <c r="A88" t="s" s="4">
+        <v>310</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s" s="5">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="E88" t="s" s="5">
-        <v>225</v>
-      </c>
-      <c r="F88" s="5">
-        <v>1</v>
+        <v>312</v>
+      </c>
+      <c r="F88" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G88" s="5">
         <v>100</v>
       </c>
       <c r="H88" s="6">
-        <v>860</v>
+        <v>780</v>
       </c>
       <c r="I88" s="6">
         <v>1</v>
@@ -5635,29 +6067,29 @@
       <c r="L88" s="6"/>
     </row>
     <row r="89" ht="20" customHeight="1">
-      <c r="A89" s="4">
-        <v>87</v>
+      <c r="A89" t="s" s="4">
+        <v>313</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s" s="5">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="E89" t="s" s="5">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="F89" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G89" s="5">
         <v>100</v>
       </c>
       <c r="H89" s="6">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="I89" s="6">
         <v>1</v>
@@ -5669,29 +6101,29 @@
       <c r="L89" s="6"/>
     </row>
     <row r="90" ht="20" customHeight="1">
-      <c r="A90" s="4">
-        <v>88</v>
+      <c r="A90" t="s" s="4">
+        <v>316</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s" s="5">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="E90" t="s" s="5">
-        <v>231</v>
-      </c>
-      <c r="F90" s="5">
-        <v>2</v>
+        <v>318</v>
+      </c>
+      <c r="F90" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G90" s="5">
         <v>100</v>
       </c>
       <c r="H90" s="6">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="I90" s="6">
         <v>1</v>
@@ -5703,29 +6135,29 @@
       <c r="L90" s="6"/>
     </row>
     <row r="91" ht="20" customHeight="1">
-      <c r="A91" s="4">
-        <v>89</v>
+      <c r="A91" t="s" s="4">
+        <v>319</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s" s="5">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="E91" t="s" s="5">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="F91" t="s" s="5">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="G91" s="5">
         <v>100</v>
       </c>
       <c r="H91" s="6">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="I91" s="6">
         <v>1</v>
@@ -5737,29 +6169,29 @@
       <c r="L91" s="6"/>
     </row>
     <row r="92" ht="20" customHeight="1">
-      <c r="A92" s="4">
-        <v>90</v>
+      <c r="A92" t="s" s="4">
+        <v>322</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="D92" t="s" s="5">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="E92" t="s" s="5">
-        <v>235</v>
-      </c>
-      <c r="F92" t="s" s="5">
-        <v>82</v>
+        <v>326</v>
+      </c>
+      <c r="F92" s="5">
+        <v>2</v>
       </c>
       <c r="G92" s="5">
         <v>100</v>
       </c>
       <c r="H92" s="6">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="I92" s="6">
         <v>1</v>
@@ -5771,29 +6203,29 @@
       <c r="L92" s="6"/>
     </row>
     <row r="93" ht="20" customHeight="1">
-      <c r="A93" s="4">
-        <v>91</v>
+      <c r="A93" t="s" s="4">
+        <v>327</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="D93" t="s" s="5">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="E93" t="s" s="5">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="F93" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G93" s="5">
         <v>100</v>
       </c>
       <c r="H93" s="6">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="I93" s="6">
         <v>1</v>
@@ -5805,29 +6237,29 @@
       <c r="L93" s="6"/>
     </row>
     <row r="94" ht="20" customHeight="1">
-      <c r="A94" s="4">
-        <v>92</v>
+      <c r="A94" t="s" s="4">
+        <v>330</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="D94" t="s" s="5">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="E94" t="s" s="5">
-        <v>239</v>
-      </c>
-      <c r="F94" s="5">
-        <v>3</v>
+        <v>332</v>
+      </c>
+      <c r="F94" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G94" s="5">
         <v>100</v>
       </c>
       <c r="H94" s="6">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="I94" s="6">
         <v>1</v>
@@ -5839,29 +6271,29 @@
       <c r="L94" s="6"/>
     </row>
     <row r="95" ht="20" customHeight="1">
-      <c r="A95" s="4">
-        <v>93</v>
+      <c r="A95" t="s" s="4">
+        <v>333</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="D95" t="s" s="5">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="E95" t="s" s="5">
-        <v>242</v>
-      </c>
-      <c r="F95" s="5">
-        <v>2</v>
+        <v>335</v>
+      </c>
+      <c r="F95" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G95" s="5">
         <v>100</v>
       </c>
       <c r="H95" s="6">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="I95" s="6">
         <v>1</v>
@@ -5873,29 +6305,29 @@
       <c r="L95" s="6"/>
     </row>
     <row r="96" ht="20" customHeight="1">
-      <c r="A96" s="4">
-        <v>94</v>
+      <c r="A96" t="s" s="4">
+        <v>336</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="D96" t="s" s="5">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="E96" t="s" s="5">
-        <v>244</v>
-      </c>
-      <c r="F96" t="s" s="5">
-        <v>82</v>
+        <v>338</v>
+      </c>
+      <c r="F96" s="5">
+        <v>4</v>
       </c>
       <c r="G96" s="5">
         <v>100</v>
       </c>
       <c r="H96" s="6">
-        <v>940</v>
+        <v>910</v>
       </c>
       <c r="I96" s="6">
         <v>1</v>
@@ -5907,20 +6339,20 @@
       <c r="L96" s="6"/>
     </row>
     <row r="97" ht="20" customHeight="1">
-      <c r="A97" s="4">
-        <v>95</v>
+      <c r="A97" t="s" s="4">
+        <v>339</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="D97" t="s" s="5">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="E97" t="s" s="5">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="F97" s="5">
         <v>3</v>
@@ -5929,7 +6361,7 @@
         <v>100</v>
       </c>
       <c r="H97" s="6">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="I97" s="6">
         <v>1</v>
@@ -5941,29 +6373,29 @@
       <c r="L97" s="6"/>
     </row>
     <row r="98" ht="20" customHeight="1">
-      <c r="A98" s="4">
-        <v>96</v>
+      <c r="A98" t="s" s="4">
+        <v>342</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="D98" t="s" s="5">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c r="E98" t="s" s="5">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c r="F98" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G98" s="5">
         <v>100</v>
       </c>
       <c r="H98" s="6">
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="I98" s="6">
         <v>1</v>
@@ -5975,29 +6407,29 @@
       <c r="L98" s="6"/>
     </row>
     <row r="99" ht="20" customHeight="1">
-      <c r="A99" s="4">
-        <v>97</v>
+      <c r="A99" t="s" s="4">
+        <v>346</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="D99" t="s" s="5">
-        <v>251</v>
+        <v>348</v>
       </c>
       <c r="E99" t="s" s="5">
-        <v>251</v>
-      </c>
-      <c r="F99" s="5">
-        <v>4</v>
+        <v>348</v>
+      </c>
+      <c r="F99" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G99" s="5">
         <v>100</v>
       </c>
       <c r="H99" s="6">
-        <v>970</v>
+        <v>940</v>
       </c>
       <c r="I99" s="6">
         <v>1</v>
@@ -6009,29 +6441,29 @@
       <c r="L99" s="6"/>
     </row>
     <row r="100" ht="20" customHeight="1">
-      <c r="A100" s="4">
-        <v>98</v>
+      <c r="A100" t="s" s="4">
+        <v>349</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>252</v>
+        <v>350</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="D100" t="s" s="5">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="E100" t="s" s="5">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="F100" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G100" s="5">
         <v>100</v>
       </c>
       <c r="H100" s="6">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="I100" s="6">
         <v>1</v>
@@ -6043,29 +6475,29 @@
       <c r="L100" s="6"/>
     </row>
     <row r="101" ht="20" customHeight="1">
-      <c r="A101" s="4">
-        <v>99</v>
+      <c r="A101" t="s" s="4">
+        <v>353</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="D101" t="s" s="5">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="E101" t="s" s="5">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="F101" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G101" s="5">
         <v>100</v>
       </c>
       <c r="H101" s="6">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="I101" s="6">
         <v>1</v>
@@ -6077,29 +6509,29 @@
       <c r="L101" s="6"/>
     </row>
     <row r="102" ht="20" customHeight="1">
-      <c r="A102" s="4">
-        <v>100</v>
+      <c r="A102" t="s" s="4">
+        <v>356</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>256</v>
+        <v>357</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="D102" t="s" s="5">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="E102" t="s" s="5">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="F102" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G102" s="5">
         <v>100</v>
       </c>
       <c r="H102" s="6">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="I102" s="6">
         <v>1</v>
@@ -6111,29 +6543,29 @@
       <c r="L102" s="6"/>
     </row>
     <row r="103" ht="20" customHeight="1">
-      <c r="A103" s="4">
-        <v>101</v>
+      <c r="A103" t="s" s="4">
+        <v>359</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="D103" t="s" s="5">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="E103" t="s" s="5">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="F103" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G103" s="5">
         <v>100</v>
       </c>
       <c r="H103" s="6">
-        <v>1010</v>
+        <v>980</v>
       </c>
       <c r="I103" s="6">
         <v>1</v>
@@ -6145,29 +6577,29 @@
       <c r="L103" s="6"/>
     </row>
     <row r="104" ht="20" customHeight="1">
-      <c r="A104" s="4">
-        <v>102</v>
+      <c r="A104" t="s" s="4">
+        <v>362</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>261</v>
+        <v>363</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="D104" t="s" s="5">
-        <v>262</v>
+        <v>364</v>
       </c>
       <c r="E104" t="s" s="5">
-        <v>263</v>
+        <v>364</v>
       </c>
       <c r="F104" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G104" s="5">
         <v>100</v>
       </c>
       <c r="H104" s="6">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="I104" s="6">
         <v>1</v>
@@ -6179,29 +6611,29 @@
       <c r="L104" s="6"/>
     </row>
     <row r="105" ht="20" customHeight="1">
-      <c r="A105" s="4">
-        <v>103</v>
+      <c r="A105" t="s" s="4">
+        <v>365</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="D105" t="s" s="5">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="E105" t="s" s="5">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="F105" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G105" s="5">
         <v>100</v>
       </c>
       <c r="H105" s="6">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="I105" s="6">
         <v>1</v>
@@ -6213,29 +6645,29 @@
       <c r="L105" s="6"/>
     </row>
     <row r="106" ht="20" customHeight="1">
-      <c r="A106" s="4">
-        <v>104</v>
+      <c r="A106" t="s" s="4">
+        <v>368</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>266</v>
+        <v>369</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="D106" t="s" s="5">
-        <v>267</v>
+        <v>370</v>
       </c>
       <c r="E106" t="s" s="5">
-        <v>267</v>
+        <v>371</v>
       </c>
       <c r="F106" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G106" s="5">
         <v>100</v>
       </c>
       <c r="H106" s="6">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="I106" s="6">
         <v>1</v>
@@ -6247,29 +6679,29 @@
       <c r="L106" s="6"/>
     </row>
     <row r="107" ht="20" customHeight="1">
-      <c r="A107" s="4">
-        <v>105</v>
+      <c r="A107" t="s" s="4">
+        <v>372</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="D107" t="s" s="5">
-        <v>269</v>
+        <v>374</v>
       </c>
       <c r="E107" t="s" s="5">
-        <v>269</v>
-      </c>
-      <c r="F107" t="s" s="5">
-        <v>82</v>
+        <v>375</v>
+      </c>
+      <c r="F107" s="5">
+        <v>4</v>
       </c>
       <c r="G107" s="5">
         <v>100</v>
       </c>
       <c r="H107" s="6">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="I107" s="6">
         <v>1</v>
@@ -6281,29 +6713,29 @@
       <c r="L107" s="6"/>
     </row>
     <row r="108" ht="20" customHeight="1">
-      <c r="A108" s="4">
-        <v>106</v>
+      <c r="A108" t="s" s="4">
+        <v>376</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>270</v>
+        <v>377</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="D108" t="s" s="5">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="E108" t="s" s="5">
-        <v>273</v>
-      </c>
-      <c r="F108" t="s" s="5">
-        <v>82</v>
+        <v>378</v>
+      </c>
+      <c r="F108" s="5">
+        <v>2</v>
       </c>
       <c r="G108" s="5">
         <v>100</v>
       </c>
       <c r="H108" s="6">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="I108" s="6">
         <v>1</v>
@@ -6315,20 +6747,20 @@
       <c r="L108" s="6"/>
     </row>
     <row r="109" ht="20" customHeight="1">
-      <c r="A109" s="4">
-        <v>107</v>
+      <c r="A109" t="s" s="4">
+        <v>379</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>274</v>
+        <v>380</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="D109" t="s" s="5">
-        <v>275</v>
+        <v>381</v>
       </c>
       <c r="E109" t="s" s="5">
-        <v>275</v>
+        <v>381</v>
       </c>
       <c r="F109" s="5">
         <v>2</v>
@@ -6337,7 +6769,7 @@
         <v>100</v>
       </c>
       <c r="H109" s="6">
-        <v>1070</v>
+        <v>1040</v>
       </c>
       <c r="I109" s="6">
         <v>1</v>
@@ -6349,29 +6781,29 @@
       <c r="L109" s="6"/>
     </row>
     <row r="110" ht="20" customHeight="1">
-      <c r="A110" s="4">
-        <v>108</v>
+      <c r="A110" t="s" s="4">
+        <v>382</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="D110" t="s" s="5">
-        <v>277</v>
+        <v>384</v>
       </c>
       <c r="E110" t="s" s="5">
-        <v>277</v>
-      </c>
-      <c r="F110" s="5">
-        <v>2</v>
+        <v>384</v>
+      </c>
+      <c r="F110" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G110" s="5">
         <v>100</v>
       </c>
       <c r="H110" s="6">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="I110" s="6">
         <v>1</v>
@@ -6383,29 +6815,29 @@
       <c r="L110" s="6"/>
     </row>
     <row r="111" ht="20" customHeight="1">
-      <c r="A111" s="4">
-        <v>109</v>
+      <c r="A111" t="s" s="4">
+        <v>385</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>278</v>
+        <v>386</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D111" t="s" s="5">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="E111" t="s" s="5">
-        <v>279</v>
-      </c>
-      <c r="F111" s="5">
-        <v>2</v>
+        <v>388</v>
+      </c>
+      <c r="F111" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G111" s="5">
         <v>100</v>
       </c>
       <c r="H111" s="6">
-        <v>1090</v>
+        <v>1060</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
@@ -6417,29 +6849,29 @@
       <c r="L111" s="6"/>
     </row>
     <row r="112" ht="20" customHeight="1">
-      <c r="A112" s="4">
-        <v>110</v>
+      <c r="A112" t="s" s="4">
+        <v>389</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s" s="5">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="E112" t="s" s="5">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="F112" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" s="5">
         <v>100</v>
       </c>
       <c r="H112" s="6">
-        <v>1100</v>
+        <v>1070</v>
       </c>
       <c r="I112" s="6">
         <v>1</v>
@@ -6451,29 +6883,29 @@
       <c r="L112" s="6"/>
     </row>
     <row r="113" ht="20" customHeight="1">
-      <c r="A113" s="4">
-        <v>111</v>
+      <c r="A113" t="s" s="4">
+        <v>392</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>282</v>
+        <v>393</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s" s="5">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="E113" t="s" s="5">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="F113" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" s="5">
         <v>100</v>
       </c>
       <c r="H113" s="6">
-        <v>1110</v>
+        <v>1080</v>
       </c>
       <c r="I113" s="6">
         <v>1</v>
@@ -6485,20 +6917,20 @@
       <c r="L113" s="6"/>
     </row>
     <row r="114" ht="20" customHeight="1">
-      <c r="A114" s="4">
-        <v>112</v>
+      <c r="A114" t="s" s="4">
+        <v>395</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s" s="5">
-        <v>285</v>
+        <v>397</v>
       </c>
       <c r="E114" t="s" s="5">
-        <v>285</v>
+        <v>397</v>
       </c>
       <c r="F114" s="5">
         <v>2</v>
@@ -6507,7 +6939,7 @@
         <v>100</v>
       </c>
       <c r="H114" s="6">
-        <v>1120</v>
+        <v>1090</v>
       </c>
       <c r="I114" s="6">
         <v>1</v>
@@ -6519,29 +6951,29 @@
       <c r="L114" s="6"/>
     </row>
     <row r="115" ht="20" customHeight="1">
-      <c r="A115" s="4">
-        <v>113</v>
+      <c r="A115" t="s" s="4">
+        <v>398</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>286</v>
+        <v>399</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s" s="5">
-        <v>287</v>
+        <v>400</v>
       </c>
       <c r="E115" t="s" s="5">
-        <v>288</v>
-      </c>
-      <c r="F115" t="s" s="5">
-        <v>82</v>
+        <v>400</v>
+      </c>
+      <c r="F115" s="5">
+        <v>2</v>
       </c>
       <c r="G115" s="5">
         <v>100</v>
       </c>
       <c r="H115" s="6">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="I115" s="6">
         <v>1</v>
@@ -6553,29 +6985,29 @@
       <c r="L115" s="6"/>
     </row>
     <row r="116" ht="20" customHeight="1">
-      <c r="A116" s="4">
-        <v>114</v>
+      <c r="A116" t="s" s="4">
+        <v>401</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>289</v>
+        <v>402</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D116" t="s" s="5">
-        <v>290</v>
+        <v>403</v>
       </c>
       <c r="E116" t="s" s="5">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="F116" t="s" s="5">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="G116" s="5">
         <v>100</v>
       </c>
       <c r="H116" s="6">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="I116" s="6">
         <v>1</v>
@@ -6587,29 +7019,29 @@
       <c r="L116" s="6"/>
     </row>
     <row r="117" ht="20" customHeight="1">
-      <c r="A117" s="4">
-        <v>115</v>
+      <c r="A117" t="s" s="4">
+        <v>405</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>291</v>
+        <v>406</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D117" t="s" s="5">
-        <v>292</v>
+        <v>407</v>
       </c>
       <c r="E117" t="s" s="5">
-        <v>292</v>
-      </c>
-      <c r="F117" s="5">
-        <v>1</v>
+        <v>407</v>
+      </c>
+      <c r="F117" t="s" s="5">
+        <v>221</v>
       </c>
       <c r="G117" s="5">
         <v>100</v>
       </c>
       <c r="H117" s="6">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -6621,20 +7053,20 @@
       <c r="L117" s="6"/>
     </row>
     <row r="118" ht="20" customHeight="1">
-      <c r="A118" s="4">
-        <v>116</v>
+      <c r="A118" t="s" s="4">
+        <v>408</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>293</v>
+        <v>409</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D118" t="s" s="5">
-        <v>294</v>
+        <v>410</v>
       </c>
       <c r="E118" t="s" s="5">
-        <v>294</v>
+        <v>410</v>
       </c>
       <c r="F118" s="5">
         <v>2</v>
@@ -6655,20 +7087,20 @@
       <c r="L118" s="6"/>
     </row>
     <row r="119" ht="20" customHeight="1">
-      <c r="A119" s="4">
-        <v>117</v>
+      <c r="A119" t="s" s="4">
+        <v>411</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>295</v>
+        <v>412</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s" s="5">
-        <v>296</v>
+        <v>413</v>
       </c>
       <c r="E119" t="s" s="5">
-        <v>296</v>
+        <v>413</v>
       </c>
       <c r="F119" s="5">
         <v>3</v>
@@ -6689,20 +7121,20 @@
       <c r="L119" s="6"/>
     </row>
     <row r="120" ht="20" customHeight="1">
-      <c r="A120" s="4">
-        <v>118</v>
+      <c r="A120" t="s" s="4">
+        <v>414</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>297</v>
+        <v>415</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D120" t="s" s="5">
-        <v>298</v>
+        <v>416</v>
       </c>
       <c r="E120" t="s" s="5">
-        <v>299</v>
+        <v>417</v>
       </c>
       <c r="F120" s="5">
         <v>4</v>
@@ -6723,20 +7155,20 @@
       <c r="L120" s="6"/>
     </row>
     <row r="121" ht="20" customHeight="1">
-      <c r="A121" s="4">
-        <v>119</v>
+      <c r="A121" t="s" s="4">
+        <v>418</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="D121" t="s" s="5">
-        <v>302</v>
+        <v>421</v>
       </c>
       <c r="E121" t="s" s="5">
-        <v>303</v>
+        <v>422</v>
       </c>
       <c r="F121" s="5">
         <v>3</v>
@@ -6757,20 +7189,20 @@
       <c r="L121" s="6"/>
     </row>
     <row r="122" ht="20" customHeight="1">
-      <c r="A122" s="4">
-        <v>120</v>
+      <c r="A122" t="s" s="4">
+        <v>423</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>304</v>
+        <v>424</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="D122" t="s" s="5">
-        <v>305</v>
+        <v>425</v>
       </c>
       <c r="E122" t="s" s="5">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="F122" s="5">
         <v>2</v>
@@ -6791,20 +7223,20 @@
       <c r="L122" s="6"/>
     </row>
     <row r="123" ht="20" customHeight="1">
-      <c r="A123" s="4">
-        <v>121</v>
+      <c r="A123" t="s" s="4">
+        <v>427</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>307</v>
+        <v>428</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="D123" t="s" s="5">
-        <v>308</v>
+        <v>429</v>
       </c>
       <c r="E123" t="s" s="5">
-        <v>308</v>
+        <v>429</v>
       </c>
       <c r="F123" s="5">
         <v>2</v>
@@ -6825,20 +7257,20 @@
       <c r="L123" s="6"/>
     </row>
     <row r="124" ht="20" customHeight="1">
-      <c r="A124" s="4">
-        <v>122</v>
+      <c r="A124" t="s" s="4">
+        <v>430</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>309</v>
+        <v>431</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="D124" t="s" s="5">
-        <v>310</v>
+        <v>432</v>
       </c>
       <c r="E124" t="s" s="5">
-        <v>310</v>
+        <v>432</v>
       </c>
       <c r="F124" s="5">
         <v>3</v>
@@ -6859,20 +7291,20 @@
       <c r="L124" s="6"/>
     </row>
     <row r="125" ht="20" customHeight="1">
-      <c r="A125" s="4">
-        <v>123</v>
+      <c r="A125" t="s" s="4">
+        <v>433</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="D125" t="s" s="5">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="E125" t="s" s="5">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="F125" s="5">
         <v>2</v>
@@ -6893,20 +7325,20 @@
       <c r="L125" s="6"/>
     </row>
     <row r="126" ht="20" customHeight="1">
-      <c r="A126" s="4">
-        <v>124</v>
+      <c r="A126" t="s" s="4">
+        <v>436</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>313</v>
+        <v>437</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="D126" t="s" s="5">
-        <v>314</v>
+        <v>438</v>
       </c>
       <c r="E126" t="s" s="5">
-        <v>314</v>
+        <v>438</v>
       </c>
       <c r="F126" s="5">
         <v>3</v>
@@ -6927,20 +7359,20 @@
       <c r="L126" s="6"/>
     </row>
     <row r="127" ht="20" customHeight="1">
-      <c r="A127" s="4">
-        <v>125</v>
+      <c r="A127" t="s" s="4">
+        <v>439</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>315</v>
+        <v>440</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="D127" t="s" s="5">
-        <v>316</v>
+        <v>441</v>
       </c>
       <c r="E127" t="s" s="5">
-        <v>316</v>
+        <v>441</v>
       </c>
       <c r="F127" s="5">
         <v>2</v>
@@ -6961,20 +7393,20 @@
       <c r="L127" s="6"/>
     </row>
     <row r="128" ht="20" customHeight="1">
-      <c r="A128" s="4">
-        <v>126</v>
+      <c r="A128" t="s" s="4">
+        <v>442</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s" s="5">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="E128" t="s" s="5">
-        <v>318</v>
+        <v>444</v>
       </c>
       <c r="F128" s="5">
         <v>2</v>
@@ -6995,20 +7427,20 @@
       <c r="L128" s="6"/>
     </row>
     <row r="129" ht="20" customHeight="1">
-      <c r="A129" s="4">
-        <v>127</v>
+      <c r="A129" t="s" s="4">
+        <v>445</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>319</v>
+        <v>446</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D129" t="s" s="5">
-        <v>320</v>
+        <v>447</v>
       </c>
       <c r="E129" t="s" s="5">
-        <v>320</v>
+        <v>447</v>
       </c>
       <c r="F129" s="5">
         <v>3</v>
@@ -7029,20 +7461,20 @@
       <c r="L129" s="6"/>
     </row>
     <row r="130" ht="20" customHeight="1">
-      <c r="A130" s="4">
-        <v>128</v>
+      <c r="A130" t="s" s="4">
+        <v>448</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>321</v>
+        <v>449</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D130" t="s" s="5">
-        <v>322</v>
+        <v>450</v>
       </c>
       <c r="E130" t="s" s="5">
-        <v>322</v>
+        <v>450</v>
       </c>
       <c r="F130" s="5">
         <v>3</v>
@@ -7063,20 +7495,20 @@
       <c r="L130" s="6"/>
     </row>
     <row r="131" ht="20" customHeight="1">
-      <c r="A131" s="4">
-        <v>129</v>
+      <c r="A131" t="s" s="4">
+        <v>451</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>323</v>
+        <v>452</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s" s="5">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="E131" t="s" s="5">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="F131" s="5">
         <v>3</v>
@@ -7097,20 +7529,20 @@
       <c r="L131" s="6"/>
     </row>
     <row r="132" ht="20" customHeight="1">
-      <c r="A132" s="4">
-        <v>130</v>
+      <c r="A132" t="s" s="4">
+        <v>455</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>326</v>
+        <v>456</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D132" t="s" s="5">
-        <v>327</v>
+        <v>457</v>
       </c>
       <c r="E132" t="s" s="5">
-        <v>328</v>
+        <v>458</v>
       </c>
       <c r="F132" s="5">
         <v>3</v>
@@ -7131,20 +7563,20 @@
       <c r="L132" s="6"/>
     </row>
     <row r="133" ht="20" customHeight="1">
-      <c r="A133" s="4">
-        <v>131</v>
+      <c r="A133" t="s" s="4">
+        <v>459</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>329</v>
+        <v>460</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D133" t="s" s="5">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="E133" t="s" s="5">
-        <v>331</v>
+        <v>462</v>
       </c>
       <c r="F133" s="5">
         <v>4</v>
@@ -7165,20 +7597,20 @@
       <c r="L133" s="6"/>
     </row>
     <row r="134" ht="20" customHeight="1">
-      <c r="A134" s="4">
-        <v>132</v>
+      <c r="A134" t="s" s="4">
+        <v>463</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D134" t="s" s="5">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="E134" t="s" s="5">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="F134" s="5">
         <v>5</v>
@@ -7199,20 +7631,20 @@
       <c r="L134" s="6"/>
     </row>
     <row r="135" ht="20" customHeight="1">
-      <c r="A135" s="4">
-        <v>133</v>
+      <c r="A135" t="s" s="4">
+        <v>467</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D135" t="s" s="5">
-        <v>336</v>
+        <v>469</v>
       </c>
       <c r="E135" t="s" s="5">
-        <v>336</v>
+        <v>469</v>
       </c>
       <c r="F135" s="5">
         <v>4</v>
@@ -7233,20 +7665,20 @@
       <c r="L135" s="6"/>
     </row>
     <row r="136" ht="20" customHeight="1">
-      <c r="A136" s="4">
-        <v>134</v>
+      <c r="A136" t="s" s="4">
+        <v>470</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>337</v>
+        <v>471</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D136" t="s" s="5">
-        <v>338</v>
+        <v>472</v>
       </c>
       <c r="E136" t="s" s="5">
-        <v>338</v>
+        <v>472</v>
       </c>
       <c r="F136" s="5">
         <v>5</v>
@@ -7267,20 +7699,20 @@
       <c r="L136" s="6"/>
     </row>
     <row r="137" ht="20" customHeight="1">
-      <c r="A137" s="4">
-        <v>135</v>
+      <c r="A137" t="s" s="4">
+        <v>473</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>339</v>
+        <v>474</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D137" t="s" s="5">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="E137" t="s" s="5">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="F137" s="5">
         <v>3</v>
@@ -7301,20 +7733,20 @@
       <c r="L137" s="6"/>
     </row>
     <row r="138" ht="20" customHeight="1">
-      <c r="A138" s="4">
-        <v>136</v>
+      <c r="A138" t="s" s="4">
+        <v>476</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>341</v>
+        <v>477</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D138" t="s" s="5">
-        <v>342</v>
+        <v>478</v>
       </c>
       <c r="E138" t="s" s="5">
-        <v>342</v>
+        <v>478</v>
       </c>
       <c r="F138" s="5">
         <v>4</v>
@@ -7335,20 +7767,20 @@
       <c r="L138" s="6"/>
     </row>
     <row r="139" ht="20" customHeight="1">
-      <c r="A139" s="4">
-        <v>137</v>
+      <c r="A139" t="s" s="4">
+        <v>479</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D139" t="s" s="5">
-        <v>344</v>
+        <v>481</v>
       </c>
       <c r="E139" t="s" s="5">
-        <v>344</v>
+        <v>481</v>
       </c>
       <c r="F139" s="5">
         <v>4</v>
@@ -7369,20 +7801,20 @@
       <c r="L139" s="6"/>
     </row>
     <row r="140" ht="20" customHeight="1">
-      <c r="A140" s="4">
-        <v>138</v>
+      <c r="A140" t="s" s="4">
+        <v>482</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>345</v>
+        <v>483</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D140" t="s" s="5">
-        <v>346</v>
+        <v>484</v>
       </c>
       <c r="E140" t="s" s="5">
-        <v>346</v>
+        <v>484</v>
       </c>
       <c r="F140" s="5">
         <v>3</v>
@@ -7403,20 +7835,20 @@
       <c r="L140" s="6"/>
     </row>
     <row r="141" ht="20" customHeight="1">
-      <c r="A141" s="4">
-        <v>139</v>
+      <c r="A141" t="s" s="4">
+        <v>485</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>347</v>
+        <v>486</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D141" t="s" s="5">
-        <v>348</v>
+        <v>487</v>
       </c>
       <c r="E141" t="s" s="5">
-        <v>348</v>
+        <v>487</v>
       </c>
       <c r="F141" s="5">
         <v>3</v>
@@ -7437,20 +7869,20 @@
       <c r="L141" s="6"/>
     </row>
     <row r="142" ht="20" customHeight="1">
-      <c r="A142" s="4">
-        <v>140</v>
+      <c r="A142" t="s" s="4">
+        <v>488</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>349</v>
+        <v>489</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D142" t="s" s="5">
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="E142" t="s" s="5">
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="F142" s="5">
         <v>4</v>
@@ -7471,20 +7903,20 @@
       <c r="L142" s="6"/>
     </row>
     <row r="143" ht="20" customHeight="1">
-      <c r="A143" s="4">
-        <v>141</v>
+      <c r="A143" t="s" s="4">
+        <v>491</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>351</v>
+        <v>492</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D143" t="s" s="5">
-        <v>352</v>
+        <v>493</v>
       </c>
       <c r="E143" t="s" s="5">
-        <v>352</v>
+        <v>493</v>
       </c>
       <c r="F143" s="5">
         <v>5</v>
@@ -7505,20 +7937,20 @@
       <c r="L143" s="6"/>
     </row>
     <row r="144" ht="20" customHeight="1">
-      <c r="A144" s="4">
-        <v>142</v>
+      <c r="A144" t="s" s="4">
+        <v>494</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>353</v>
+        <v>495</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D144" t="s" s="5">
-        <v>354</v>
+        <v>496</v>
       </c>
       <c r="E144" t="s" s="5">
-        <v>354</v>
+        <v>496</v>
       </c>
       <c r="F144" s="5">
         <v>5</v>
@@ -7539,20 +7971,20 @@
       <c r="L144" s="6"/>
     </row>
     <row r="145" ht="20" customHeight="1">
-      <c r="A145" s="4">
-        <v>143</v>
+      <c r="A145" t="s" s="4">
+        <v>497</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>355</v>
+        <v>498</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D145" t="s" s="5">
-        <v>356</v>
+        <v>499</v>
       </c>
       <c r="E145" t="s" s="5">
-        <v>356</v>
+        <v>499</v>
       </c>
       <c r="F145" s="5">
         <v>5</v>
@@ -7573,20 +8005,20 @@
       <c r="L145" s="6"/>
     </row>
     <row r="146" ht="20" customHeight="1">
-      <c r="A146" s="4">
-        <v>144</v>
+      <c r="A146" t="s" s="4">
+        <v>500</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>357</v>
+        <v>501</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D146" t="s" s="5">
-        <v>358</v>
+        <v>502</v>
       </c>
       <c r="E146" t="s" s="5">
-        <v>358</v>
+        <v>502</v>
       </c>
       <c r="F146" s="5">
         <v>5</v>
@@ -7607,20 +8039,20 @@
       <c r="L146" s="6"/>
     </row>
     <row r="147" ht="20" customHeight="1">
-      <c r="A147" s="4">
-        <v>145</v>
+      <c r="A147" t="s" s="4">
+        <v>503</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>359</v>
+        <v>504</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D147" t="s" s="5">
-        <v>360</v>
+        <v>505</v>
       </c>
       <c r="E147" t="s" s="5">
-        <v>360</v>
+        <v>505</v>
       </c>
       <c r="F147" s="5">
         <v>5</v>
@@ -7641,20 +8073,20 @@
       <c r="L147" s="6"/>
     </row>
     <row r="148" ht="20" customHeight="1">
-      <c r="A148" s="4">
-        <v>146</v>
+      <c r="A148" t="s" s="4">
+        <v>506</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>361</v>
+        <v>507</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D148" t="s" s="5">
-        <v>362</v>
+        <v>508</v>
       </c>
       <c r="E148" t="s" s="5">
-        <v>362</v>
+        <v>508</v>
       </c>
       <c r="F148" s="5">
         <v>5</v>
@@ -7675,20 +8107,20 @@
       <c r="L148" s="6"/>
     </row>
     <row r="149" ht="20" customHeight="1">
-      <c r="A149" s="4">
-        <v>147</v>
+      <c r="A149" t="s" s="4">
+        <v>509</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>363</v>
+        <v>510</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D149" t="s" s="5">
-        <v>364</v>
+        <v>511</v>
       </c>
       <c r="E149" t="s" s="5">
-        <v>364</v>
+        <v>511</v>
       </c>
       <c r="F149" s="5">
         <v>5</v>
@@ -7765,46 +8197,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>368</v>
+        <v>515</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>369</v>
+        <v>516</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>370</v>
+        <v>517</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>371</v>
+        <v>518</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>372</v>
+        <v>519</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>373</v>
+        <v>520</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>374</v>
+        <v>521</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>375</v>
+        <v>522</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>376</v>
+        <v>523</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>377</v>
+        <v>524</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>378</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
@@ -7899,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s" s="11">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="G4" s="17">
         <v>100</v>
@@ -7930,13 +8362,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s" s="11">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="G5" s="17">
         <v>100</v>
       </c>
       <c r="H5" t="s" s="12">
-        <v>380</v>
+        <v>15</v>
       </c>
       <c r="I5" s="18">
         <v>100</v>
@@ -7966,19 +8398,19 @@
         <v>4</v>
       </c>
       <c r="F6" t="s" s="11">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="G6" s="17">
         <v>25</v>
       </c>
       <c r="H6" t="s" s="12">
-        <v>380</v>
+        <v>15</v>
       </c>
       <c r="I6" s="18">
         <v>100</v>
       </c>
       <c r="J6" t="s" s="13">
-        <v>381</v>
+        <v>51</v>
       </c>
       <c r="K6" s="19">
         <v>100</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -8385,8 +8385,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <f>C4+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9">
         <v>6</v>
@@ -8395,7 +8394,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s" s="11">
         <v>11</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -72,6 +72,15 @@
     <t>アント</t>
   </si>
   <si>
+    <t>BEE</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>キラービー</t>
+  </si>
+  <si>
     <t>SKELETON_DOG</t>
   </si>
   <si>
@@ -166,15 +175,6 @@
   </si>
   <si>
     <t>ヘビ</t>
-  </si>
-  <si>
-    <t>BEE</t>
-  </si>
-  <si>
-    <t>bee</t>
-  </si>
-  <si>
-    <t>キラービー</t>
   </si>
   <si>
     <t>CENTIPEDE</t>
@@ -3218,48 +3218,48 @@
         <v>20</v>
       </c>
       <c r="C5" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D5" t="s" s="5">
-        <v>22</v>
-      </c>
       <c r="E5" t="s" s="5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H5" s="6">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I5" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="D6" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="C6" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s" s="5">
+      <c r="E6" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="E6" t="s" s="5">
-        <v>27</v>
-      </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
@@ -3267,29 +3267,29 @@
         <v>100</v>
       </c>
       <c r="H6" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I6" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="C7" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s" s="5">
         <v>29</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s" s="5">
-        <v>30</v>
       </c>
       <c r="E7" t="s" s="5">
         <v>30</v>
@@ -3301,7 +3301,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="I7" s="6">
         <v>1</v>
@@ -3320,13 +3320,13 @@
         <v>32</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s" s="5">
         <v>33</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -3335,7 +3335,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="6">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
@@ -3348,20 +3348,20 @@
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="C9" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="E9" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="D9" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s" s="5">
-        <v>39</v>
-      </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="6">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -3382,20 +3382,20 @@
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="D10" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="C10" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s" s="5">
+      <c r="E10" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="E10" t="s" s="5">
-        <v>43</v>
-      </c>
       <c r="F10" s="5">
         <v>1</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="6">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -3416,20 +3416,20 @@
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="C11" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="C11" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s" s="5">
+      <c r="E11" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="E11" t="s" s="5">
-        <v>47</v>
-      </c>
       <c r="F11" s="5">
         <v>1</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="6">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
@@ -3450,16 +3450,16 @@
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="C12" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s" s="5">
         <v>49</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>50</v>
       </c>
       <c r="E12" t="s" s="5">
         <v>50</v>
@@ -3471,7 +3471,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="6">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
@@ -3490,7 +3490,7 @@
         <v>52</v>
       </c>
       <c r="C13" t="s" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s" s="5">
         <v>53</v>
@@ -3505,7 +3505,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="6">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
@@ -3558,7 +3558,7 @@
         <v>58</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s" s="5">
         <v>59</v>
@@ -3592,7 +3592,7 @@
         <v>61</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s" s="5">
         <v>62</v>
@@ -3626,7 +3626,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s" s="5">
         <v>65</v>
@@ -3660,7 +3660,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s" s="5">
         <v>69</v>
@@ -3694,7 +3694,7 @@
         <v>71</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s" s="5">
         <v>72</v>
@@ -3728,7 +3728,7 @@
         <v>74</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s" s="5">
         <v>75</v>
@@ -3762,7 +3762,7 @@
         <v>78</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s" s="5">
         <v>79</v>
@@ -3796,7 +3796,7 @@
         <v>81</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s" s="5">
         <v>82</v>
@@ -3830,7 +3830,7 @@
         <v>84</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s" s="5">
         <v>85</v>
@@ -3864,7 +3864,7 @@
         <v>87</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s" s="5">
         <v>88</v>
@@ -3898,7 +3898,7 @@
         <v>91</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s" s="5">
         <v>92</v>
@@ -3932,7 +3932,7 @@
         <v>94</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s" s="5">
         <v>95</v>
@@ -3966,7 +3966,7 @@
         <v>98</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s" s="5">
         <v>99</v>
@@ -4000,7 +4000,7 @@
         <v>102</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s" s="5">
         <v>103</v>
@@ -4034,7 +4034,7 @@
         <v>106</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s" s="5">
         <v>107</v>
@@ -4068,7 +4068,7 @@
         <v>110</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s" s="5">
         <v>111</v>
@@ -4102,7 +4102,7 @@
         <v>113</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s" s="5">
         <v>114</v>
@@ -4238,7 +4238,7 @@
         <v>125</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s" s="5">
         <v>126</v>
@@ -4272,7 +4272,7 @@
         <v>128</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s" s="5">
         <v>129</v>
@@ -4306,7 +4306,7 @@
         <v>132</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s" s="5">
         <v>133</v>
@@ -4340,7 +4340,7 @@
         <v>135</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s" s="5">
         <v>136</v>
@@ -4374,7 +4374,7 @@
         <v>139</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s" s="5">
         <v>140</v>
@@ -4408,7 +4408,7 @@
         <v>143</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s" s="5">
         <v>144</v>
@@ -4442,7 +4442,7 @@
         <v>147</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s" s="5">
         <v>148</v>
@@ -4476,7 +4476,7 @@
         <v>151</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s" s="5">
         <v>152</v>
@@ -4510,7 +4510,7 @@
         <v>155</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s" s="5">
         <v>156</v>
@@ -4544,7 +4544,7 @@
         <v>158</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s" s="5">
         <v>159</v>
@@ -4578,7 +4578,7 @@
         <v>161</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s" s="5">
         <v>162</v>
@@ -4612,7 +4612,7 @@
         <v>165</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s" s="5">
         <v>166</v>
@@ -4646,7 +4646,7 @@
         <v>169</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s" s="5">
         <v>170</v>
@@ -4680,7 +4680,7 @@
         <v>173</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s" s="5">
         <v>174</v>
@@ -4714,7 +4714,7 @@
         <v>176</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s" s="5">
         <v>177</v>
@@ -4748,7 +4748,7 @@
         <v>180</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s" s="5">
         <v>181</v>
@@ -4782,7 +4782,7 @@
         <v>184</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s" s="5">
         <v>185</v>
@@ -4816,7 +4816,7 @@
         <v>187</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s" s="5">
         <v>188</v>
@@ -4850,7 +4850,7 @@
         <v>190</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s" s="5">
         <v>191</v>
@@ -4884,7 +4884,7 @@
         <v>194</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s" s="5">
         <v>195</v>
@@ -4918,7 +4918,7 @@
         <v>197</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s" s="5">
         <v>198</v>
@@ -4952,7 +4952,7 @@
         <v>201</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s" s="5">
         <v>202</v>
@@ -5020,7 +5020,7 @@
         <v>210</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s" s="5">
         <v>211</v>
@@ -5054,7 +5054,7 @@
         <v>213</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s" s="5">
         <v>214</v>
@@ -5088,7 +5088,7 @@
         <v>216</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s" s="5">
         <v>217</v>
@@ -5122,7 +5122,7 @@
         <v>219</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s" s="5">
         <v>220</v>
@@ -7502,7 +7502,7 @@
         <v>452</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D131" t="s" s="5">
         <v>453</v>
@@ -7536,7 +7536,7 @@
         <v>456</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D132" t="s" s="5">
         <v>457</v>
@@ -8388,7 +8388,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="10">
         <v>2</v>
@@ -8406,13 +8406,13 @@
         <v>15</v>
       </c>
       <c r="I6" s="18">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="13">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K6" s="19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="B7" s="9">
         <f>C6+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="9">
         <v>10</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="6">
         <v>1</v>
@@ -3196,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H4" s="6">
         <v>5</v>
       </c>
       <c r="I4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="6">
         <v>4</v>
@@ -3236,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
   <si>
     <t>id</t>
   </si>
@@ -1558,6 +1558,12 @@
   </si>
   <si>
     <t>item</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
   <si>
     <t>cnt</t>
@@ -1723,7 +1729,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1770,6 +1776,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -8168,7 +8177,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -8178,18 +8187,20 @@
     <col min="2" max="2" width="4" style="8" customWidth="1"/>
     <col min="3" max="3" width="4.75" style="8" customWidth="1"/>
     <col min="4" max="4" width="3.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="2.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="3.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="3.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="2.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="3.25" style="8" customWidth="1"/>
     <col min="9" max="9" width="3.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="3.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="8" customWidth="1"/>
     <col min="11" max="11" width="3.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="2.375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="3.125" style="8" customWidth="1"/>
     <col min="13" max="13" width="3.625" style="8" customWidth="1"/>
     <col min="14" max="14" width="2.375" style="8" customWidth="1"/>
     <col min="15" max="15" width="3.625" style="8" customWidth="1"/>
-    <col min="16" max="256" width="12.25" style="8" customWidth="1"/>
+    <col min="16" max="16" width="2.375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="3.625" style="8" customWidth="1"/>
+    <col min="18" max="256" width="12.25" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -8238,6 +8249,12 @@
       <c r="O1" t="s" s="2">
         <v>525</v>
       </c>
+      <c r="P1" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>527</v>
+      </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="4">
@@ -8255,34 +8272,40 @@
       <c r="E2" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="11">
+      <c r="F2" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="G2" t="s" s="11">
+      <c r="G2" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="H2" t="s" s="12">
+      <c r="H2" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="I2" t="s" s="12">
+      <c r="I2" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="13">
+      <c r="J2" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="13">
+      <c r="K2" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="14">
+      <c r="L2" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="M2" t="s" s="14">
+      <c r="M2" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="N2" t="s" s="15">
+      <c r="N2" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="O2" t="s" s="15">
+      <c r="O2" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s" s="15">
         <v>10</v>
       </c>
     </row>
@@ -8299,12 +8322,12 @@
       <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
@@ -8312,6 +8335,8 @@
       <c r="M3" s="20"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="4">
@@ -8327,23 +8352,25 @@
       <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="H4" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="G4" s="17">
-        <v>100</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="I4" s="18">
+        <v>100</v>
+      </c>
+      <c r="J4" s="23"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="4">
@@ -8359,26 +8386,32 @@
         <v>2</v>
       </c>
       <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="G5" s="17">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s" s="12">
+      <c r="I5" s="18">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="I5" s="18">
-        <v>100</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
+      <c r="K5" s="19">
+        <v>50</v>
+      </c>
+      <c r="L5" s="24"/>
       <c r="M5" s="20"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="4">
@@ -8394,30 +8427,36 @@
         <v>2</v>
       </c>
       <c r="E6" s="10">
+        <v>30</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="H6" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="G6" s="17">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s" s="12">
+      <c r="I6" s="18">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="I6" s="18">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s" s="13">
+      <c r="K6" s="19">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="K6" s="19">
+      <c r="M6" s="20">
         <v>200</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="4">
@@ -8433,37 +8472,39 @@
       <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
-        <v>100</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>100</v>
+      </c>
+      <c r="J7" s="19">
         <v>2</v>
       </c>
-      <c r="I7" s="18">
-        <v>100</v>
-      </c>
-      <c r="J7" s="19">
+      <c r="K7" s="19">
+        <v>100</v>
+      </c>
+      <c r="L7" s="20">
         <v>3</v>
       </c>
-      <c r="K7" s="19">
-        <v>100</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="M7" s="20">
+        <v>100</v>
+      </c>
+      <c r="N7" s="21">
         <v>4</v>
       </c>
-      <c r="M7" s="20">
+      <c r="O7" s="21">
         <v>0</v>
       </c>
-      <c r="N7" s="21">
+      <c r="P7" s="22">
         <v>5</v>
       </c>
-      <c r="O7" s="21">
+      <c r="Q7" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8481,37 +8522,39 @@
       <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
-        <v>100</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>100</v>
+      </c>
+      <c r="J8" s="19">
         <v>2</v>
       </c>
-      <c r="I8" s="18">
-        <v>100</v>
-      </c>
-      <c r="J8" s="19">
+      <c r="K8" s="19">
+        <v>100</v>
+      </c>
+      <c r="L8" s="20">
         <v>3</v>
       </c>
-      <c r="K8" s="19">
-        <v>100</v>
-      </c>
-      <c r="L8" s="20">
+      <c r="M8" s="20">
+        <v>100</v>
+      </c>
+      <c r="N8" s="21">
         <v>4</v>
       </c>
-      <c r="M8" s="20">
+      <c r="O8" s="21">
         <v>0</v>
       </c>
-      <c r="N8" s="21">
+      <c r="P8" s="22">
         <v>5</v>
       </c>
-      <c r="O8" s="21">
+      <c r="Q8" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8529,37 +8572,39 @@
       <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
-        <v>100</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>100</v>
+      </c>
+      <c r="J9" s="19">
         <v>2</v>
       </c>
-      <c r="I9" s="18">
-        <v>100</v>
-      </c>
-      <c r="J9" s="19">
+      <c r="K9" s="19">
+        <v>100</v>
+      </c>
+      <c r="L9" s="20">
         <v>3</v>
       </c>
-      <c r="K9" s="19">
-        <v>100</v>
-      </c>
-      <c r="L9" s="20">
+      <c r="M9" s="20">
+        <v>100</v>
+      </c>
+      <c r="N9" s="21">
         <v>4</v>
       </c>
-      <c r="M9" s="20">
+      <c r="O9" s="21">
         <v>0</v>
       </c>
-      <c r="N9" s="21">
+      <c r="P9" s="22">
         <v>5</v>
       </c>
-      <c r="O9" s="21">
+      <c r="Q9" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8577,37 +8622,39 @@
       <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
-        <v>100</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18">
+        <v>100</v>
+      </c>
+      <c r="J10" s="19">
         <v>2</v>
       </c>
-      <c r="I10" s="18">
-        <v>100</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="K10" s="19">
+        <v>100</v>
+      </c>
+      <c r="L10" s="20">
         <v>3</v>
       </c>
-      <c r="K10" s="19">
-        <v>100</v>
-      </c>
-      <c r="L10" s="20">
+      <c r="M10" s="20">
+        <v>100</v>
+      </c>
+      <c r="N10" s="21">
         <v>4</v>
       </c>
-      <c r="M10" s="20">
+      <c r="O10" s="21">
         <v>0</v>
       </c>
-      <c r="N10" s="21">
+      <c r="P10" s="22">
         <v>5</v>
       </c>
-      <c r="O10" s="21">
+      <c r="Q10" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8625,37 +8672,39 @@
       <c r="D11" s="10">
         <v>2</v>
       </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17">
-        <v>100</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18">
+        <v>100</v>
+      </c>
+      <c r="J11" s="19">
         <v>2</v>
       </c>
-      <c r="I11" s="18">
-        <v>100</v>
-      </c>
-      <c r="J11" s="19">
+      <c r="K11" s="19">
+        <v>100</v>
+      </c>
+      <c r="L11" s="20">
         <v>3</v>
       </c>
-      <c r="K11" s="19">
-        <v>100</v>
-      </c>
-      <c r="L11" s="20">
+      <c r="M11" s="20">
+        <v>100</v>
+      </c>
+      <c r="N11" s="21">
         <v>4</v>
       </c>
-      <c r="M11" s="20">
+      <c r="O11" s="21">
         <v>0</v>
       </c>
-      <c r="N11" s="21">
+      <c r="P11" s="22">
         <v>5</v>
       </c>
-      <c r="O11" s="21">
+      <c r="Q11" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8673,37 +8722,39 @@
       <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17">
-        <v>100</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
+        <v>100</v>
+      </c>
+      <c r="J12" s="19">
         <v>2</v>
       </c>
-      <c r="I12" s="18">
-        <v>100</v>
-      </c>
-      <c r="J12" s="19">
+      <c r="K12" s="19">
+        <v>100</v>
+      </c>
+      <c r="L12" s="20">
         <v>3</v>
       </c>
-      <c r="K12" s="19">
-        <v>100</v>
-      </c>
-      <c r="L12" s="20">
+      <c r="M12" s="20">
+        <v>100</v>
+      </c>
+      <c r="N12" s="21">
         <v>4</v>
       </c>
-      <c r="M12" s="20">
+      <c r="O12" s="21">
         <v>0</v>
       </c>
-      <c r="N12" s="21">
+      <c r="P12" s="22">
         <v>5</v>
       </c>
-      <c r="O12" s="21">
+      <c r="Q12" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8721,37 +8772,39 @@
       <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="17">
-        <v>100</v>
-      </c>
-      <c r="H13" s="18">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <v>100</v>
+      </c>
+      <c r="J13" s="19">
         <v>2</v>
       </c>
-      <c r="I13" s="18">
-        <v>100</v>
-      </c>
-      <c r="J13" s="19">
+      <c r="K13" s="19">
+        <v>100</v>
+      </c>
+      <c r="L13" s="20">
         <v>3</v>
       </c>
-      <c r="K13" s="19">
-        <v>100</v>
-      </c>
-      <c r="L13" s="20">
+      <c r="M13" s="20">
+        <v>100</v>
+      </c>
+      <c r="N13" s="21">
         <v>4</v>
       </c>
-      <c r="M13" s="20">
+      <c r="O13" s="21">
         <v>0</v>
       </c>
-      <c r="N13" s="21">
+      <c r="P13" s="22">
         <v>5</v>
       </c>
-      <c r="O13" s="21">
+      <c r="Q13" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8769,37 +8822,39 @@
       <c r="D14" s="10">
         <v>2</v>
       </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17">
-        <v>100</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
+        <v>100</v>
+      </c>
+      <c r="J14" s="19">
         <v>2</v>
       </c>
-      <c r="I14" s="18">
-        <v>100</v>
-      </c>
-      <c r="J14" s="19">
+      <c r="K14" s="19">
+        <v>100</v>
+      </c>
+      <c r="L14" s="20">
         <v>3</v>
       </c>
-      <c r="K14" s="19">
-        <v>100</v>
-      </c>
-      <c r="L14" s="20">
+      <c r="M14" s="20">
+        <v>100</v>
+      </c>
+      <c r="N14" s="21">
         <v>4</v>
       </c>
-      <c r="M14" s="20">
+      <c r="O14" s="21">
         <v>0</v>
       </c>
-      <c r="N14" s="21">
+      <c r="P14" s="22">
         <v>5</v>
       </c>
-      <c r="O14" s="21">
+      <c r="Q14" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8817,37 +8872,39 @@
       <c r="D15" s="10">
         <v>2</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
-        <v>100</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18">
+        <v>100</v>
+      </c>
+      <c r="J15" s="19">
         <v>2</v>
       </c>
-      <c r="I15" s="18">
-        <v>100</v>
-      </c>
-      <c r="J15" s="19">
+      <c r="K15" s="19">
+        <v>100</v>
+      </c>
+      <c r="L15" s="20">
         <v>3</v>
       </c>
-      <c r="K15" s="19">
-        <v>100</v>
-      </c>
-      <c r="L15" s="20">
+      <c r="M15" s="20">
+        <v>100</v>
+      </c>
+      <c r="N15" s="21">
         <v>4</v>
       </c>
-      <c r="M15" s="20">
+      <c r="O15" s="21">
         <v>0</v>
       </c>
-      <c r="N15" s="21">
+      <c r="P15" s="22">
         <v>5</v>
       </c>
-      <c r="O15" s="21">
+      <c r="Q15" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8865,37 +8922,39 @@
       <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="17">
-        <v>100</v>
-      </c>
-      <c r="H16" s="18">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>100</v>
+      </c>
+      <c r="J16" s="19">
         <v>2</v>
       </c>
-      <c r="I16" s="18">
-        <v>100</v>
-      </c>
-      <c r="J16" s="19">
+      <c r="K16" s="19">
+        <v>100</v>
+      </c>
+      <c r="L16" s="20">
         <v>3</v>
       </c>
-      <c r="K16" s="19">
-        <v>100</v>
-      </c>
-      <c r="L16" s="20">
+      <c r="M16" s="20">
+        <v>100</v>
+      </c>
+      <c r="N16" s="21">
         <v>4</v>
       </c>
-      <c r="M16" s="20">
+      <c r="O16" s="21">
         <v>0</v>
       </c>
-      <c r="N16" s="21">
+      <c r="P16" s="22">
         <v>5</v>
       </c>
-      <c r="O16" s="21">
+      <c r="Q16" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8913,37 +8972,39 @@
       <c r="D17" s="10">
         <v>2</v>
       </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17">
-        <v>100</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18">
+        <v>100</v>
+      </c>
+      <c r="J17" s="19">
         <v>2</v>
       </c>
-      <c r="I17" s="18">
-        <v>100</v>
-      </c>
-      <c r="J17" s="19">
+      <c r="K17" s="19">
+        <v>100</v>
+      </c>
+      <c r="L17" s="20">
         <v>3</v>
       </c>
-      <c r="K17" s="19">
-        <v>100</v>
-      </c>
-      <c r="L17" s="20">
+      <c r="M17" s="20">
+        <v>100</v>
+      </c>
+      <c r="N17" s="21">
         <v>4</v>
       </c>
-      <c r="M17" s="20">
+      <c r="O17" s="21">
         <v>0</v>
       </c>
-      <c r="N17" s="21">
+      <c r="P17" s="22">
         <v>5</v>
       </c>
-      <c r="O17" s="21">
+      <c r="Q17" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8961,37 +9022,39 @@
       <c r="D18" s="10">
         <v>2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="10">
         <v>19</v>
       </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17">
-        <v>100</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18">
+        <v>100</v>
+      </c>
+      <c r="J18" s="19">
         <v>2</v>
       </c>
-      <c r="I18" s="18">
-        <v>100</v>
-      </c>
-      <c r="J18" s="19">
+      <c r="K18" s="19">
+        <v>100</v>
+      </c>
+      <c r="L18" s="20">
         <v>3</v>
       </c>
-      <c r="K18" s="19">
-        <v>100</v>
-      </c>
-      <c r="L18" s="20">
+      <c r="M18" s="20">
+        <v>100</v>
+      </c>
+      <c r="N18" s="21">
         <v>4</v>
       </c>
-      <c r="M18" s="20">
+      <c r="O18" s="21">
         <v>0</v>
       </c>
-      <c r="N18" s="21">
+      <c r="P18" s="22">
         <v>5</v>
       </c>
-      <c r="O18" s="21">
+      <c r="Q18" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9009,37 +9072,39 @@
       <c r="D19" s="10">
         <v>2</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="10">
         <v>20</v>
       </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="17">
-        <v>100</v>
-      </c>
-      <c r="H19" s="18">
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18">
+        <v>100</v>
+      </c>
+      <c r="J19" s="19">
         <v>2</v>
       </c>
-      <c r="I19" s="18">
-        <v>100</v>
-      </c>
-      <c r="J19" s="19">
+      <c r="K19" s="19">
+        <v>100</v>
+      </c>
+      <c r="L19" s="20">
         <v>3</v>
       </c>
-      <c r="K19" s="19">
-        <v>100</v>
-      </c>
-      <c r="L19" s="20">
+      <c r="M19" s="20">
+        <v>100</v>
+      </c>
+      <c r="N19" s="21">
         <v>4</v>
       </c>
-      <c r="M19" s="20">
+      <c r="O19" s="21">
         <v>0</v>
       </c>
-      <c r="N19" s="21">
+      <c r="P19" s="22">
         <v>5</v>
       </c>
-      <c r="O19" s="21">
+      <c r="Q19" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9057,37 +9122,39 @@
       <c r="D20" s="10">
         <v>2</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="10">
         <v>21</v>
       </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-      <c r="G20" s="17">
-        <v>100</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18">
+        <v>100</v>
+      </c>
+      <c r="J20" s="19">
         <v>2</v>
       </c>
-      <c r="I20" s="18">
-        <v>100</v>
-      </c>
-      <c r="J20" s="19">
+      <c r="K20" s="19">
+        <v>100</v>
+      </c>
+      <c r="L20" s="20">
         <v>3</v>
       </c>
-      <c r="K20" s="19">
-        <v>100</v>
-      </c>
-      <c r="L20" s="20">
+      <c r="M20" s="20">
+        <v>100</v>
+      </c>
+      <c r="N20" s="21">
         <v>4</v>
       </c>
-      <c r="M20" s="20">
+      <c r="O20" s="21">
         <v>0</v>
       </c>
-      <c r="N20" s="21">
+      <c r="P20" s="22">
         <v>5</v>
       </c>
-      <c r="O20" s="21">
+      <c r="Q20" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9105,37 +9172,39 @@
       <c r="D21" s="10">
         <v>2</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="10">
         <v>22</v>
       </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="17">
-        <v>100</v>
-      </c>
-      <c r="H21" s="18">
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18">
+        <v>100</v>
+      </c>
+      <c r="J21" s="19">
         <v>2</v>
       </c>
-      <c r="I21" s="18">
-        <v>100</v>
-      </c>
-      <c r="J21" s="19">
+      <c r="K21" s="19">
+        <v>100</v>
+      </c>
+      <c r="L21" s="20">
         <v>3</v>
       </c>
-      <c r="K21" s="19">
-        <v>100</v>
-      </c>
-      <c r="L21" s="20">
+      <c r="M21" s="20">
+        <v>100</v>
+      </c>
+      <c r="N21" s="21">
         <v>4</v>
       </c>
-      <c r="M21" s="20">
+      <c r="O21" s="21">
         <v>0</v>
       </c>
-      <c r="N21" s="21">
+      <c r="P21" s="22">
         <v>5</v>
       </c>
-      <c r="O21" s="21">
+      <c r="Q21" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9153,37 +9222,39 @@
       <c r="D22" s="10">
         <v>2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="10">
         <v>23</v>
       </c>
-      <c r="F22" s="11">
-        <v>1</v>
-      </c>
-      <c r="G22" s="17">
-        <v>100</v>
-      </c>
-      <c r="H22" s="18">
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18">
+        <v>100</v>
+      </c>
+      <c r="J22" s="19">
         <v>2</v>
       </c>
-      <c r="I22" s="18">
-        <v>100</v>
-      </c>
-      <c r="J22" s="19">
+      <c r="K22" s="19">
+        <v>100</v>
+      </c>
+      <c r="L22" s="20">
         <v>3</v>
       </c>
-      <c r="K22" s="19">
-        <v>100</v>
-      </c>
-      <c r="L22" s="20">
+      <c r="M22" s="20">
+        <v>100</v>
+      </c>
+      <c r="N22" s="21">
         <v>4</v>
       </c>
-      <c r="M22" s="20">
+      <c r="O22" s="21">
         <v>0</v>
       </c>
-      <c r="N22" s="21">
+      <c r="P22" s="22">
         <v>5</v>
       </c>
-      <c r="O22" s="21">
+      <c r="Q22" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9201,37 +9272,39 @@
       <c r="D23" s="10">
         <v>2</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="10">
         <v>24</v>
       </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="17">
-        <v>100</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18">
+        <v>100</v>
+      </c>
+      <c r="J23" s="19">
         <v>2</v>
       </c>
-      <c r="I23" s="18">
-        <v>100</v>
-      </c>
-      <c r="J23" s="19">
+      <c r="K23" s="19">
+        <v>100</v>
+      </c>
+      <c r="L23" s="20">
         <v>3</v>
       </c>
-      <c r="K23" s="19">
-        <v>100</v>
-      </c>
-      <c r="L23" s="20">
+      <c r="M23" s="20">
+        <v>100</v>
+      </c>
+      <c r="N23" s="21">
         <v>4</v>
       </c>
-      <c r="M23" s="20">
+      <c r="O23" s="21">
         <v>0</v>
       </c>
-      <c r="N23" s="21">
+      <c r="P23" s="22">
         <v>5</v>
       </c>
-      <c r="O23" s="21"/>
+      <c r="Q23" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -3171,13 +3171,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="6">
         <v>1</v>
@@ -3205,16 +3205,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6">
         <v>5</v>
       </c>
       <c r="I4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -3239,13 +3239,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,9 @@
     <t>vit</t>
   </si>
   <si>
+    <t>ai</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
   </si>
   <si>
     <t>コウモリ</t>
+  </si>
+  <si>
+    <t>chase</t>
   </si>
   <si>
     <t>WORKER_ANT</t>
@@ -3114,12 +3120,14 @@
       <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
       <c r="L1" s="3"/>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="5">
         <v>8</v>
@@ -3137,35 +3145,37 @@
         <v>8</v>
       </c>
       <c r="G2" t="s" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="K2" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="K2" t="s" s="5">
+        <v>8</v>
+      </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -3182,24 +3192,26 @@
       <c r="J3" s="6">
         <v>1</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -3216,24 +3228,26 @@
       <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s" s="5">
-        <v>17</v>
-      </c>
       <c r="D5" t="s" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -3250,24 +3264,26 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L5" s="6"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -3284,24 +3300,26 @@
       <c r="J6" s="6">
         <v>2</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L6" s="6"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -3318,24 +3336,26 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L7" s="6"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -3352,24 +3372,26 @@
       <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -3386,24 +3408,26 @@
       <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L9" s="6"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -3420,24 +3444,26 @@
       <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L10" s="6"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -3454,24 +3480,26 @@
       <c r="J11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L11" s="6"/>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -3488,24 +3516,26 @@
       <c r="J12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L12" s="6"/>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -3522,24 +3552,26 @@
       <c r="J13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L13" s="6"/>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -3556,24 +3588,26 @@
       <c r="J14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L14" s="6"/>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s" s="5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s" s="5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -3590,24 +3624,26 @@
       <c r="J15" s="6">
         <v>3</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L15" s="6"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s" s="5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -3624,24 +3660,26 @@
       <c r="J16" s="6">
         <v>2</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L16" s="6"/>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
@@ -3658,24 +3696,26 @@
       <c r="J17" s="6">
         <v>5</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L17" s="6"/>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s" s="5">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
@@ -3692,24 +3732,26 @@
       <c r="J18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L18" s="6"/>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" t="s" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s" s="5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s" s="5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
@@ -3726,24 +3768,26 @@
       <c r="J19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L19" s="6"/>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s" s="5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20" s="5">
         <v>2</v>
@@ -3760,24 +3804,26 @@
       <c r="J20" s="6">
         <v>1</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L20" s="6"/>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s" s="5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s" s="5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F21" s="5">
         <v>2</v>
@@ -3794,24 +3840,26 @@
       <c r="J21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="6"/>
+      <c r="K21" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L21" s="6"/>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s" s="5">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -3828,24 +3876,26 @@
       <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="6"/>
+      <c r="K22" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s" s="5">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s" s="5">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F23" s="5">
         <v>2</v>
@@ -3862,24 +3912,26 @@
       <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="6"/>
+      <c r="K23" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s" s="5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -3896,24 +3948,26 @@
       <c r="J24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="6"/>
+      <c r="K24" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s" s="5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s" s="5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F25" s="5">
         <v>2</v>
@@ -3930,24 +3984,26 @@
       <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="6"/>
+      <c r="K25" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L25" s="6"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s" s="5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F26" s="5">
         <v>2</v>
@@ -3964,24 +4020,26 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="6"/>
+      <c r="K26" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L26" s="6"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s" s="5">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s" s="5">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F27" s="5">
         <v>2</v>
@@ -3998,24 +4056,26 @@
       <c r="J27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="6"/>
+      <c r="K27" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L27" s="6"/>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F28" s="5">
         <v>2</v>
@@ -4032,24 +4092,26 @@
       <c r="J28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="6"/>
+      <c r="K28" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L28" s="6"/>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s" s="5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s" s="5">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F29" s="5">
         <v>2</v>
@@ -4066,24 +4128,26 @@
       <c r="J29" s="6">
         <v>1</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K29" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" t="s" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s" s="5">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F30" s="5">
         <v>2</v>
@@ -4100,24 +4164,26 @@
       <c r="J30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="6"/>
+      <c r="K30" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L30" s="6"/>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" t="s" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s" s="5">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s" s="5">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F31" s="5">
         <v>2</v>
@@ -4134,24 +4200,26 @@
       <c r="J31" s="6">
         <v>1</v>
       </c>
-      <c r="K31" s="6"/>
+      <c r="K31" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L31" s="6"/>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" t="s" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s" s="5">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
@@ -4168,24 +4236,26 @@
       <c r="J32" s="6">
         <v>1</v>
       </c>
-      <c r="K32" s="6"/>
+      <c r="K32" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L32" s="6"/>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" t="s" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s" s="5">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s" s="5">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F33" s="5">
         <v>2</v>
@@ -4202,24 +4272,26 @@
       <c r="J33" s="6">
         <v>1</v>
       </c>
-      <c r="K33" s="6"/>
+      <c r="K33" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L33" s="6"/>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" t="s" s="4">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s" s="5">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F34" s="5">
         <v>2</v>
@@ -4236,24 +4308,26 @@
       <c r="J34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="6"/>
+      <c r="K34" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L34" s="6"/>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" t="s" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s" s="5">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s" s="5">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F35" s="5">
         <v>3</v>
@@ -4270,24 +4344,26 @@
       <c r="J35" s="6">
         <v>1</v>
       </c>
-      <c r="K35" s="6"/>
+      <c r="K35" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L35" s="6"/>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" t="s" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s" s="5">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F36" s="5">
         <v>3</v>
@@ -4304,24 +4380,26 @@
       <c r="J36" s="6">
         <v>1</v>
       </c>
-      <c r="K36" s="6"/>
+      <c r="K36" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L36" s="6"/>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" t="s" s="4">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s" s="5">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s" s="5">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F37" s="5">
         <v>3</v>
@@ -4338,24 +4416,26 @@
       <c r="J37" s="6">
         <v>1</v>
       </c>
-      <c r="K37" s="6"/>
+      <c r="K37" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L37" s="6"/>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" t="s" s="4">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s" s="5">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F38" s="5">
         <v>3</v>
@@ -4372,24 +4452,26 @@
       <c r="J38" s="6">
         <v>1</v>
       </c>
-      <c r="K38" s="6"/>
+      <c r="K38" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L38" s="6"/>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" t="s" s="4">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s" s="5">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s" s="5">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F39" s="5">
         <v>3</v>
@@ -4406,24 +4488,26 @@
       <c r="J39" s="6">
         <v>1</v>
       </c>
-      <c r="K39" s="6"/>
+      <c r="K39" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L39" s="6"/>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" t="s" s="4">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s" s="5">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F40" s="5">
         <v>3</v>
@@ -4440,24 +4524,26 @@
       <c r="J40" s="6">
         <v>1</v>
       </c>
-      <c r="K40" s="6"/>
+      <c r="K40" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L40" s="6"/>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" t="s" s="4">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s" s="5">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s" s="5">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F41" s="5">
         <v>3</v>
@@ -4474,24 +4560,26 @@
       <c r="J41" s="6">
         <v>1</v>
       </c>
-      <c r="K41" s="6"/>
+      <c r="K41" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L41" s="6"/>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" t="s" s="4">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s" s="5">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F42" s="5">
         <v>3</v>
@@ -4508,24 +4596,26 @@
       <c r="J42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="6"/>
+      <c r="K42" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L42" s="6"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" t="s" s="4">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s" s="5">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s" s="5">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F43" s="5">
         <v>3</v>
@@ -4542,24 +4632,26 @@
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="6"/>
+      <c r="K43" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L43" s="6"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" t="s" s="4">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s" s="5">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F44" s="5">
         <v>3</v>
@@ -4576,24 +4668,26 @@
       <c r="J44" s="6">
         <v>1</v>
       </c>
-      <c r="K44" s="6"/>
+      <c r="K44" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L44" s="6"/>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" t="s" s="4">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s" s="5">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s" s="5">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F45" s="5">
         <v>3</v>
@@ -4610,24 +4704,26 @@
       <c r="J45" s="6">
         <v>1</v>
       </c>
-      <c r="K45" s="6"/>
+      <c r="K45" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L45" s="6"/>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" t="s" s="4">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s" s="5">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s" s="5">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F46" s="5">
         <v>3</v>
@@ -4644,24 +4740,26 @@
       <c r="J46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="6"/>
+      <c r="K46" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L46" s="6"/>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" t="s" s="4">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s" s="5">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s" s="5">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F47" s="5">
         <v>3</v>
@@ -4678,24 +4776,26 @@
       <c r="J47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="6"/>
+      <c r="K47" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L47" s="6"/>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" t="s" s="4">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s" s="5">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s" s="5">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F48" s="5">
         <v>4</v>
@@ -4712,24 +4812,26 @@
       <c r="J48" s="6">
         <v>1</v>
       </c>
-      <c r="K48" s="6"/>
+      <c r="K48" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L48" s="6"/>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" t="s" s="4">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s" s="5">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s" s="5">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F49" s="5">
         <v>4</v>
@@ -4746,24 +4848,26 @@
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="6"/>
+      <c r="K49" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L49" s="6"/>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" t="s" s="4">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s" s="5">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E50" t="s" s="5">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F50" s="5">
         <v>4</v>
@@ -4780,24 +4884,26 @@
       <c r="J50" s="6">
         <v>1</v>
       </c>
-      <c r="K50" s="6"/>
+      <c r="K50" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L50" s="6"/>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" t="s" s="4">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s" s="5">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E51" t="s" s="5">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F51" s="5">
         <v>5</v>
@@ -4814,24 +4920,26 @@
       <c r="J51" s="6">
         <v>1</v>
       </c>
-      <c r="K51" s="6"/>
+      <c r="K51" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L51" s="6"/>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" t="s" s="4">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s" s="5">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s" s="5">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F52" s="5">
         <v>5</v>
@@ -4848,24 +4956,26 @@
       <c r="J52" s="6">
         <v>1</v>
       </c>
-      <c r="K52" s="6"/>
+      <c r="K52" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L52" s="6"/>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" t="s" s="4">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s" s="5">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E53" t="s" s="5">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F53" s="5">
         <v>4</v>
@@ -4882,24 +4992,26 @@
       <c r="J53" s="6">
         <v>1</v>
       </c>
-      <c r="K53" s="6"/>
+      <c r="K53" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L53" s="6"/>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" t="s" s="4">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E54" t="s" s="5">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F54" s="5">
         <v>4</v>
@@ -4916,24 +5028,26 @@
       <c r="J54" s="6">
         <v>1</v>
       </c>
-      <c r="K54" s="6"/>
+      <c r="K54" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L54" s="6"/>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" t="s" s="4">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s" s="5">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E55" t="s" s="5">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F55" s="5">
         <v>4</v>
@@ -4950,24 +5064,26 @@
       <c r="J55" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="6"/>
+      <c r="K55" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L55" s="6"/>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" t="s" s="4">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s" s="5">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E56" t="s" s="5">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F56" s="5">
         <v>4</v>
@@ -4984,24 +5100,26 @@
       <c r="J56" s="6">
         <v>1</v>
       </c>
-      <c r="K56" s="6"/>
+      <c r="K56" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L56" s="6"/>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" t="s" s="4">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s" s="5">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F57" s="5">
         <v>5</v>
@@ -5018,24 +5136,26 @@
       <c r="J57" s="6">
         <v>1</v>
       </c>
-      <c r="K57" s="6"/>
+      <c r="K57" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L57" s="6"/>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" t="s" s="4">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s" s="5">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E58" t="s" s="5">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F58" s="5">
         <v>5</v>
@@ -5052,24 +5172,26 @@
       <c r="J58" s="6">
         <v>1</v>
       </c>
-      <c r="K58" s="6"/>
+      <c r="K58" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L58" s="6"/>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" t="s" s="4">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s" s="5">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E59" t="s" s="5">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F59" s="5">
         <v>5</v>
@@ -5086,24 +5208,26 @@
       <c r="J59" s="6">
         <v>1</v>
       </c>
-      <c r="K59" s="6"/>
+      <c r="K59" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L59" s="6"/>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" t="s" s="4">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s" s="5">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s" s="5">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F60" s="5">
         <v>5</v>
@@ -5120,27 +5244,29 @@
       <c r="J60" s="6">
         <v>1</v>
       </c>
-      <c r="K60" s="6"/>
+      <c r="K60" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L60" s="6"/>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" t="s" s="4">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s" s="5">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E61" t="s" s="5">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F61" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G61" s="5">
         <v>100</v>
@@ -5154,27 +5280,29 @@
       <c r="J61" s="6">
         <v>1</v>
       </c>
-      <c r="K61" s="6"/>
+      <c r="K61" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L61" s="6"/>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" t="s" s="4">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B62" t="s" s="5">
+        <v>225</v>
+      </c>
+      <c r="C62" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s" s="5">
+        <v>226</v>
+      </c>
+      <c r="E62" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="F62" t="s" s="5">
         <v>223</v>
-      </c>
-      <c r="C62" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s" s="5">
-        <v>224</v>
-      </c>
-      <c r="E62" t="s" s="5">
-        <v>225</v>
-      </c>
-      <c r="F62" t="s" s="5">
-        <v>221</v>
       </c>
       <c r="G62" s="5">
         <v>100</v>
@@ -5188,27 +5316,29 @@
       <c r="J62" s="6">
         <v>1</v>
       </c>
-      <c r="K62" s="6"/>
+      <c r="K62" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L62" s="6"/>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" t="s" s="4">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s" s="5">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E63" t="s" s="5">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F63" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G63" s="5">
         <v>100</v>
@@ -5222,27 +5352,29 @@
       <c r="J63" s="6">
         <v>1</v>
       </c>
-      <c r="K63" s="6"/>
+      <c r="K63" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L63" s="6"/>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" t="s" s="4">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s" s="5">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E64" t="s" s="5">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F64" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G64" s="5">
         <v>100</v>
@@ -5256,27 +5388,29 @@
       <c r="J64" s="6">
         <v>1</v>
       </c>
-      <c r="K64" s="6"/>
+      <c r="K64" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L64" s="6"/>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" t="s" s="4">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s" s="5">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s" s="5">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F65" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G65" s="5">
         <v>100</v>
@@ -5290,27 +5424,29 @@
       <c r="J65" s="6">
         <v>1</v>
       </c>
-      <c r="K65" s="6"/>
+      <c r="K65" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L65" s="6"/>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" t="s" s="4">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s" s="5">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E66" t="s" s="5">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F66" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G66" s="5">
         <v>100</v>
@@ -5324,27 +5460,29 @@
       <c r="J66" s="6">
         <v>1</v>
       </c>
-      <c r="K66" s="6"/>
+      <c r="K66" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L66" s="6"/>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" t="s" s="4">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s" s="5">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E67" t="s" s="5">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F67" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G67" s="5">
         <v>100</v>
@@ -5358,27 +5496,29 @@
       <c r="J67" s="6">
         <v>1</v>
       </c>
-      <c r="K67" s="6"/>
+      <c r="K67" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L67" s="6"/>
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" t="s" s="4">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s" s="5">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E68" t="s" s="5">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F68" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G68" s="5">
         <v>100</v>
@@ -5392,27 +5532,29 @@
       <c r="J68" s="6">
         <v>1</v>
       </c>
-      <c r="K68" s="6"/>
+      <c r="K68" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L68" s="6"/>
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" t="s" s="4">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s" s="5">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E69" t="s" s="5">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F69" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G69" s="5">
         <v>100</v>
@@ -5426,27 +5568,29 @@
       <c r="J69" s="6">
         <v>1</v>
       </c>
-      <c r="K69" s="6"/>
+      <c r="K69" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L69" s="6"/>
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" t="s" s="4">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s" s="5">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E70" t="s" s="5">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G70" s="5">
         <v>100</v>
@@ -5460,24 +5604,26 @@
       <c r="J70" s="6">
         <v>1</v>
       </c>
-      <c r="K70" s="6"/>
+      <c r="K70" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L70" s="6"/>
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" t="s" s="4">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s" s="5">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E71" t="s" s="5">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F71" s="5">
         <v>3</v>
@@ -5494,24 +5640,26 @@
       <c r="J71" s="6">
         <v>1</v>
       </c>
-      <c r="K71" s="6"/>
+      <c r="K71" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L71" s="6"/>
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" t="s" s="4">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s" s="5">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E72" t="s" s="5">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F72" s="5">
         <v>3</v>
@@ -5528,24 +5676,26 @@
       <c r="J72" s="6">
         <v>1</v>
       </c>
-      <c r="K72" s="6"/>
+      <c r="K72" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L72" s="6"/>
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" t="s" s="4">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s" s="5">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E73" t="s" s="5">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F73" s="5">
         <v>4</v>
@@ -5562,24 +5712,26 @@
       <c r="J73" s="6">
         <v>1</v>
       </c>
-      <c r="K73" s="6"/>
+      <c r="K73" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L73" s="6"/>
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" t="s" s="4">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s" s="5">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E74" t="s" s="5">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F74" s="5">
         <v>2</v>
@@ -5596,24 +5748,26 @@
       <c r="J74" s="6">
         <v>1</v>
       </c>
-      <c r="K74" s="6"/>
+      <c r="K74" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L74" s="6"/>
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" t="s" s="4">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s" s="5">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E75" t="s" s="5">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F75" s="5">
         <v>2</v>
@@ -5630,24 +5784,26 @@
       <c r="J75" s="6">
         <v>1</v>
       </c>
-      <c r="K75" s="6"/>
+      <c r="K75" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L75" s="6"/>
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" t="s" s="4">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s" s="5">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s" s="5">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F76" s="5">
         <v>2</v>
@@ -5664,24 +5820,26 @@
       <c r="J76" s="6">
         <v>1</v>
       </c>
-      <c r="K76" s="6"/>
+      <c r="K76" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L76" s="6"/>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" t="s" s="4">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s" s="5">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E77" t="s" s="5">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F77" s="5">
         <v>3</v>
@@ -5698,24 +5856,26 @@
       <c r="J77" s="6">
         <v>1</v>
       </c>
-      <c r="K77" s="6"/>
+      <c r="K77" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L77" s="6"/>
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" t="s" s="4">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s" s="5">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E78" t="s" s="5">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F78" s="5">
         <v>3</v>
@@ -5732,24 +5892,26 @@
       <c r="J78" s="6">
         <v>1</v>
       </c>
-      <c r="K78" s="6"/>
+      <c r="K78" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L78" s="6"/>
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" t="s" s="4">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s" s="5">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E79" t="s" s="5">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F79" s="5">
         <v>3</v>
@@ -5766,24 +5928,26 @@
       <c r="J79" s="6">
         <v>1</v>
       </c>
-      <c r="K79" s="6"/>
+      <c r="K79" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L79" s="6"/>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" t="s" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s" s="5">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E80" t="s" s="5">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F80" s="5">
         <v>3</v>
@@ -5800,27 +5964,29 @@
       <c r="J80" s="6">
         <v>1</v>
       </c>
-      <c r="K80" s="6"/>
+      <c r="K80" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L80" s="6"/>
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" t="s" s="4">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s" s="5">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E81" t="s" s="5">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F81" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G81" s="5">
         <v>100</v>
@@ -5834,27 +6000,29 @@
       <c r="J81" s="6">
         <v>1</v>
       </c>
-      <c r="K81" s="6"/>
+      <c r="K81" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L81" s="6"/>
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" t="s" s="4">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s" s="5">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E82" t="s" s="5">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F82" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G82" s="5">
         <v>100</v>
@@ -5868,27 +6036,29 @@
       <c r="J82" s="6">
         <v>1</v>
       </c>
-      <c r="K82" s="6"/>
+      <c r="K82" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L82" s="6"/>
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" t="s" s="4">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s" s="5">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E83" t="s" s="5">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F83" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G83" s="5">
         <v>100</v>
@@ -5902,27 +6072,29 @@
       <c r="J83" s="6">
         <v>1</v>
       </c>
-      <c r="K83" s="6"/>
+      <c r="K83" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L83" s="6"/>
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" t="s" s="4">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s" s="5">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s" s="5">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F84" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G84" s="5">
         <v>100</v>
@@ -5936,27 +6108,29 @@
       <c r="J84" s="6">
         <v>1</v>
       </c>
-      <c r="K84" s="6"/>
+      <c r="K84" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L84" s="6"/>
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" t="s" s="4">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s" s="5">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E85" t="s" s="5">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F85" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G85" s="5">
         <v>100</v>
@@ -5970,27 +6144,29 @@
       <c r="J85" s="6">
         <v>1</v>
       </c>
-      <c r="K85" s="6"/>
+      <c r="K85" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L85" s="6"/>
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" t="s" s="4">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s" s="5">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E86" t="s" s="5">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F86" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G86" s="5">
         <v>100</v>
@@ -6004,27 +6180,29 @@
       <c r="J86" s="6">
         <v>1</v>
       </c>
-      <c r="K86" s="6"/>
+      <c r="K86" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L86" s="6"/>
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" t="s" s="4">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s" s="5">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E87" t="s" s="5">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F87" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G87" s="5">
         <v>100</v>
@@ -6038,27 +6216,29 @@
       <c r="J87" s="6">
         <v>1</v>
       </c>
-      <c r="K87" s="6"/>
+      <c r="K87" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L87" s="6"/>
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" t="s" s="4">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s" s="5">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E88" t="s" s="5">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F88" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G88" s="5">
         <v>100</v>
@@ -6072,24 +6252,26 @@
       <c r="J88" s="6">
         <v>1</v>
       </c>
-      <c r="K88" s="6"/>
+      <c r="K88" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L88" s="6"/>
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" t="s" s="4">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s" s="5">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E89" t="s" s="5">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F89" s="5">
         <v>3</v>
@@ -6106,27 +6288,29 @@
       <c r="J89" s="6">
         <v>1</v>
       </c>
-      <c r="K89" s="6"/>
+      <c r="K89" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L89" s="6"/>
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" t="s" s="4">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s" s="5">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E90" t="s" s="5">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F90" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G90" s="5">
         <v>100</v>
@@ -6140,27 +6324,29 @@
       <c r="J90" s="6">
         <v>1</v>
       </c>
-      <c r="K90" s="6"/>
+      <c r="K90" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L90" s="6"/>
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" t="s" s="4">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s" s="5">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E91" t="s" s="5">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F91" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G91" s="5">
         <v>100</v>
@@ -6174,24 +6360,26 @@
       <c r="J91" s="6">
         <v>1</v>
       </c>
-      <c r="K91" s="6"/>
+      <c r="K91" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L91" s="6"/>
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" t="s" s="4">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D92" t="s" s="5">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E92" t="s" s="5">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F92" s="5">
         <v>2</v>
@@ -6208,24 +6396,26 @@
       <c r="J92" s="6">
         <v>1</v>
       </c>
-      <c r="K92" s="6"/>
+      <c r="K92" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L92" s="6"/>
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" t="s" s="4">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B93" t="s" s="5">
+        <v>330</v>
+      </c>
+      <c r="C93" t="s" s="5">
+        <v>326</v>
+      </c>
+      <c r="D93" t="s" s="5">
         <v>328</v>
       </c>
-      <c r="C93" t="s" s="5">
-        <v>324</v>
-      </c>
-      <c r="D93" t="s" s="5">
-        <v>326</v>
-      </c>
       <c r="E93" t="s" s="5">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F93" s="5">
         <v>2</v>
@@ -6242,27 +6432,29 @@
       <c r="J93" s="6">
         <v>1</v>
       </c>
-      <c r="K93" s="6"/>
+      <c r="K93" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L93" s="6"/>
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" t="s" s="4">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D94" t="s" s="5">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E94" t="s" s="5">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F94" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G94" s="5">
         <v>100</v>
@@ -6276,27 +6468,29 @@
       <c r="J94" s="6">
         <v>1</v>
       </c>
-      <c r="K94" s="6"/>
+      <c r="K94" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L94" s="6"/>
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" t="s" s="4">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D95" t="s" s="5">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E95" t="s" s="5">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F95" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G95" s="5">
         <v>100</v>
@@ -6310,24 +6504,26 @@
       <c r="J95" s="6">
         <v>1</v>
       </c>
-      <c r="K95" s="6"/>
+      <c r="K95" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L95" s="6"/>
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" t="s" s="4">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D96" t="s" s="5">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E96" t="s" s="5">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F96" s="5">
         <v>4</v>
@@ -6344,24 +6540,26 @@
       <c r="J96" s="6">
         <v>1</v>
       </c>
-      <c r="K96" s="6"/>
+      <c r="K96" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L96" s="6"/>
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" t="s" s="4">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D97" t="s" s="5">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E97" t="s" s="5">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F97" s="5">
         <v>3</v>
@@ -6378,24 +6576,26 @@
       <c r="J97" s="6">
         <v>1</v>
       </c>
-      <c r="K97" s="6"/>
+      <c r="K97" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L97" s="6"/>
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98" t="s" s="4">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D98" t="s" s="5">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E98" t="s" s="5">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F98" s="5">
         <v>2</v>
@@ -6412,27 +6612,29 @@
       <c r="J98" s="6">
         <v>1</v>
       </c>
-      <c r="K98" s="6"/>
+      <c r="K98" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L98" s="6"/>
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99" t="s" s="4">
+        <v>348</v>
+      </c>
+      <c r="B99" t="s" s="5">
+        <v>349</v>
+      </c>
+      <c r="C99" t="s" s="5">
         <v>346</v>
       </c>
-      <c r="B99" t="s" s="5">
-        <v>347</v>
-      </c>
-      <c r="C99" t="s" s="5">
-        <v>344</v>
-      </c>
       <c r="D99" t="s" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E99" t="s" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F99" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G99" s="5">
         <v>100</v>
@@ -6446,24 +6648,26 @@
       <c r="J99" s="6">
         <v>1</v>
       </c>
-      <c r="K99" s="6"/>
+      <c r="K99" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L99" s="6"/>
     </row>
     <row r="100" ht="20" customHeight="1">
       <c r="A100" t="s" s="4">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D100" t="s" s="5">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E100" t="s" s="5">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F100" s="5">
         <v>3</v>
@@ -6480,24 +6684,26 @@
       <c r="J100" s="6">
         <v>1</v>
       </c>
-      <c r="K100" s="6"/>
+      <c r="K100" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L100" s="6"/>
     </row>
     <row r="101" ht="20" customHeight="1">
       <c r="A101" t="s" s="4">
+        <v>355</v>
+      </c>
+      <c r="B101" t="s" s="5">
+        <v>356</v>
+      </c>
+      <c r="C101" t="s" s="5">
         <v>353</v>
       </c>
-      <c r="B101" t="s" s="5">
-        <v>354</v>
-      </c>
-      <c r="C101" t="s" s="5">
-        <v>351</v>
-      </c>
       <c r="D101" t="s" s="5">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E101" t="s" s="5">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F101" s="5">
         <v>4</v>
@@ -6514,24 +6720,26 @@
       <c r="J101" s="6">
         <v>1</v>
       </c>
-      <c r="K101" s="6"/>
+      <c r="K101" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L101" s="6"/>
     </row>
     <row r="102" ht="20" customHeight="1">
       <c r="A102" t="s" s="4">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D102" t="s" s="5">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E102" t="s" s="5">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F102" s="5">
         <v>4</v>
@@ -6548,24 +6756,26 @@
       <c r="J102" s="6">
         <v>1</v>
       </c>
-      <c r="K102" s="6"/>
+      <c r="K102" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L102" s="6"/>
     </row>
     <row r="103" ht="20" customHeight="1">
       <c r="A103" t="s" s="4">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D103" t="s" s="5">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E103" t="s" s="5">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F103" s="5">
         <v>2</v>
@@ -6582,24 +6792,26 @@
       <c r="J103" s="6">
         <v>1</v>
       </c>
-      <c r="K103" s="6"/>
+      <c r="K103" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L103" s="6"/>
     </row>
     <row r="104" ht="20" customHeight="1">
       <c r="A104" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D104" t="s" s="5">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E104" t="s" s="5">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F104" s="5">
         <v>3</v>
@@ -6616,24 +6828,26 @@
       <c r="J104" s="6">
         <v>1</v>
       </c>
-      <c r="K104" s="6"/>
+      <c r="K104" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L104" s="6"/>
     </row>
     <row r="105" ht="20" customHeight="1">
       <c r="A105" t="s" s="4">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D105" t="s" s="5">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E105" t="s" s="5">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F105" s="5">
         <v>3</v>
@@ -6650,24 +6864,26 @@
       <c r="J105" s="6">
         <v>1</v>
       </c>
-      <c r="K105" s="6"/>
+      <c r="K105" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L105" s="6"/>
     </row>
     <row r="106" ht="20" customHeight="1">
       <c r="A106" t="s" s="4">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D106" t="s" s="5">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E106" t="s" s="5">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F106" s="5">
         <v>4</v>
@@ -6684,24 +6900,26 @@
       <c r="J106" s="6">
         <v>1</v>
       </c>
-      <c r="K106" s="6"/>
+      <c r="K106" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L106" s="6"/>
     </row>
     <row r="107" ht="20" customHeight="1">
       <c r="A107" t="s" s="4">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D107" t="s" s="5">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E107" t="s" s="5">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F107" s="5">
         <v>4</v>
@@ -6718,24 +6936,26 @@
       <c r="J107" s="6">
         <v>1</v>
       </c>
-      <c r="K107" s="6"/>
+      <c r="K107" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L107" s="6"/>
     </row>
     <row r="108" ht="20" customHeight="1">
       <c r="A108" t="s" s="4">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D108" t="s" s="5">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E108" t="s" s="5">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F108" s="5">
         <v>2</v>
@@ -6752,24 +6972,26 @@
       <c r="J108" s="6">
         <v>1</v>
       </c>
-      <c r="K108" s="6"/>
+      <c r="K108" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L108" s="6"/>
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109" t="s" s="4">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D109" t="s" s="5">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E109" t="s" s="5">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F109" s="5">
         <v>2</v>
@@ -6786,27 +7008,29 @@
       <c r="J109" s="6">
         <v>1</v>
       </c>
-      <c r="K109" s="6"/>
+      <c r="K109" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L109" s="6"/>
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" t="s" s="4">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D110" t="s" s="5">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E110" t="s" s="5">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F110" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G110" s="5">
         <v>100</v>
@@ -6820,27 +7044,29 @@
       <c r="J110" s="6">
         <v>1</v>
       </c>
-      <c r="K110" s="6"/>
+      <c r="K110" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L110" s="6"/>
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111" t="s" s="4">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s" s="5">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E111" t="s" s="5">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F111" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G111" s="5">
         <v>100</v>
@@ -6854,24 +7080,26 @@
       <c r="J111" s="6">
         <v>1</v>
       </c>
-      <c r="K111" s="6"/>
+      <c r="K111" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L111" s="6"/>
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112" t="s" s="4">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s" s="5">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E112" t="s" s="5">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F112" s="5">
         <v>2</v>
@@ -6888,24 +7116,26 @@
       <c r="J112" s="6">
         <v>1</v>
       </c>
-      <c r="K112" s="6"/>
+      <c r="K112" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L112" s="6"/>
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113" t="s" s="4">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s" s="5">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E113" t="s" s="5">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F113" s="5">
         <v>2</v>
@@ -6922,24 +7152,26 @@
       <c r="J113" s="6">
         <v>1</v>
       </c>
-      <c r="K113" s="6"/>
+      <c r="K113" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L113" s="6"/>
     </row>
     <row r="114" ht="20" customHeight="1">
       <c r="A114" t="s" s="4">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s" s="5">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E114" t="s" s="5">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F114" s="5">
         <v>2</v>
@@ -6956,24 +7188,26 @@
       <c r="J114" s="6">
         <v>1</v>
       </c>
-      <c r="K114" s="6"/>
+      <c r="K114" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L114" s="6"/>
     </row>
     <row r="115" ht="20" customHeight="1">
       <c r="A115" t="s" s="4">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s" s="5">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E115" t="s" s="5">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F115" s="5">
         <v>2</v>
@@ -6990,27 +7224,29 @@
       <c r="J115" s="6">
         <v>1</v>
       </c>
-      <c r="K115" s="6"/>
+      <c r="K115" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L115" s="6"/>
     </row>
     <row r="116" ht="20" customHeight="1">
       <c r="A116" t="s" s="4">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s" s="5">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E116" t="s" s="5">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F116" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G116" s="5">
         <v>100</v>
@@ -7024,27 +7260,29 @@
       <c r="J116" s="6">
         <v>1</v>
       </c>
-      <c r="K116" s="6"/>
+      <c r="K116" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L116" s="6"/>
     </row>
     <row r="117" ht="20" customHeight="1">
       <c r="A117" t="s" s="4">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s" s="5">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E117" t="s" s="5">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F117" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G117" s="5">
         <v>100</v>
@@ -7058,24 +7296,26 @@
       <c r="J117" s="6">
         <v>1</v>
       </c>
-      <c r="K117" s="6"/>
+      <c r="K117" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L117" s="6"/>
     </row>
     <row r="118" ht="20" customHeight="1">
       <c r="A118" t="s" s="4">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E118" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F118" s="5">
         <v>2</v>
@@ -7092,24 +7332,26 @@
       <c r="J118" s="6">
         <v>1</v>
       </c>
-      <c r="K118" s="6"/>
+      <c r="K118" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L118" s="6"/>
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" t="s" s="4">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s" s="5">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E119" t="s" s="5">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F119" s="5">
         <v>3</v>
@@ -7126,24 +7368,26 @@
       <c r="J119" s="6">
         <v>1</v>
       </c>
-      <c r="K119" s="6"/>
+      <c r="K119" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L119" s="6"/>
     </row>
     <row r="120" ht="20" customHeight="1">
       <c r="A120" t="s" s="4">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D120" t="s" s="5">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E120" t="s" s="5">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F120" s="5">
         <v>4</v>
@@ -7160,24 +7404,26 @@
       <c r="J120" s="6">
         <v>1</v>
       </c>
-      <c r="K120" s="6"/>
+      <c r="K120" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L120" s="6"/>
     </row>
     <row r="121" ht="20" customHeight="1">
       <c r="A121" t="s" s="4">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D121" t="s" s="5">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E121" t="s" s="5">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F121" s="5">
         <v>3</v>
@@ -7194,24 +7440,26 @@
       <c r="J121" s="6">
         <v>1</v>
       </c>
-      <c r="K121" s="6"/>
+      <c r="K121" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L121" s="6"/>
     </row>
     <row r="122" ht="20" customHeight="1">
       <c r="A122" t="s" s="4">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D122" t="s" s="5">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E122" t="s" s="5">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F122" s="5">
         <v>2</v>
@@ -7228,24 +7476,26 @@
       <c r="J122" s="6">
         <v>1</v>
       </c>
-      <c r="K122" s="6"/>
+      <c r="K122" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L122" s="6"/>
     </row>
     <row r="123" ht="20" customHeight="1">
       <c r="A123" t="s" s="4">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D123" t="s" s="5">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E123" t="s" s="5">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F123" s="5">
         <v>2</v>
@@ -7262,24 +7512,26 @@
       <c r="J123" s="6">
         <v>1</v>
       </c>
-      <c r="K123" s="6"/>
+      <c r="K123" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L123" s="6"/>
     </row>
     <row r="124" ht="20" customHeight="1">
       <c r="A124" t="s" s="4">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D124" t="s" s="5">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E124" t="s" s="5">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F124" s="5">
         <v>3</v>
@@ -7296,24 +7548,26 @@
       <c r="J124" s="6">
         <v>1</v>
       </c>
-      <c r="K124" s="6"/>
+      <c r="K124" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L124" s="6"/>
     </row>
     <row r="125" ht="20" customHeight="1">
       <c r="A125" t="s" s="4">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D125" t="s" s="5">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E125" t="s" s="5">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F125" s="5">
         <v>2</v>
@@ -7330,24 +7584,26 @@
       <c r="J125" s="6">
         <v>1</v>
       </c>
-      <c r="K125" s="6"/>
+      <c r="K125" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L125" s="6"/>
     </row>
     <row r="126" ht="20" customHeight="1">
       <c r="A126" t="s" s="4">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D126" t="s" s="5">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E126" t="s" s="5">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F126" s="5">
         <v>3</v>
@@ -7364,24 +7620,26 @@
       <c r="J126" s="6">
         <v>1</v>
       </c>
-      <c r="K126" s="6"/>
+      <c r="K126" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L126" s="6"/>
     </row>
     <row r="127" ht="20" customHeight="1">
       <c r="A127" t="s" s="4">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D127" t="s" s="5">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E127" t="s" s="5">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F127" s="5">
         <v>2</v>
@@ -7398,24 +7656,26 @@
       <c r="J127" s="6">
         <v>1</v>
       </c>
-      <c r="K127" s="6"/>
+      <c r="K127" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L127" s="6"/>
     </row>
     <row r="128" ht="20" customHeight="1">
       <c r="A128" t="s" s="4">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D128" t="s" s="5">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E128" t="s" s="5">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F128" s="5">
         <v>2</v>
@@ -7432,24 +7692,26 @@
       <c r="J128" s="6">
         <v>1</v>
       </c>
-      <c r="K128" s="6"/>
+      <c r="K128" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L128" s="6"/>
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" t="s" s="4">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D129" t="s" s="5">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E129" t="s" s="5">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F129" s="5">
         <v>3</v>
@@ -7466,24 +7728,26 @@
       <c r="J129" s="6">
         <v>1</v>
       </c>
-      <c r="K129" s="6"/>
+      <c r="K129" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L129" s="6"/>
     </row>
     <row r="130" ht="20" customHeight="1">
       <c r="A130" t="s" s="4">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D130" t="s" s="5">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E130" t="s" s="5">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F130" s="5">
         <v>3</v>
@@ -7500,24 +7764,26 @@
       <c r="J130" s="6">
         <v>1</v>
       </c>
-      <c r="K130" s="6"/>
+      <c r="K130" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L130" s="6"/>
     </row>
     <row r="131" ht="20" customHeight="1">
       <c r="A131" t="s" s="4">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D131" t="s" s="5">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E131" t="s" s="5">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F131" s="5">
         <v>3</v>
@@ -7534,24 +7800,26 @@
       <c r="J131" s="6">
         <v>1</v>
       </c>
-      <c r="K131" s="6"/>
+      <c r="K131" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L131" s="6"/>
     </row>
     <row r="132" ht="20" customHeight="1">
       <c r="A132" t="s" s="4">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D132" t="s" s="5">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E132" t="s" s="5">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F132" s="5">
         <v>3</v>
@@ -7568,24 +7836,26 @@
       <c r="J132" s="6">
         <v>1</v>
       </c>
-      <c r="K132" s="6"/>
+      <c r="K132" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L132" s="6"/>
     </row>
     <row r="133" ht="20" customHeight="1">
       <c r="A133" t="s" s="4">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D133" t="s" s="5">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E133" t="s" s="5">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F133" s="5">
         <v>4</v>
@@ -7602,24 +7872,26 @@
       <c r="J133" s="6">
         <v>1</v>
       </c>
-      <c r="K133" s="6"/>
+      <c r="K133" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L133" s="6"/>
     </row>
     <row r="134" ht="20" customHeight="1">
       <c r="A134" t="s" s="4">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D134" t="s" s="5">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E134" t="s" s="5">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F134" s="5">
         <v>5</v>
@@ -7636,24 +7908,26 @@
       <c r="J134" s="6">
         <v>1</v>
       </c>
-      <c r="K134" s="6"/>
+      <c r="K134" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L134" s="6"/>
     </row>
     <row r="135" ht="20" customHeight="1">
       <c r="A135" t="s" s="4">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D135" t="s" s="5">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E135" t="s" s="5">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F135" s="5">
         <v>4</v>
@@ -7670,24 +7944,26 @@
       <c r="J135" s="6">
         <v>1</v>
       </c>
-      <c r="K135" s="6"/>
+      <c r="K135" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L135" s="6"/>
     </row>
     <row r="136" ht="20" customHeight="1">
       <c r="A136" t="s" s="4">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D136" t="s" s="5">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E136" t="s" s="5">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F136" s="5">
         <v>5</v>
@@ -7704,24 +7980,26 @@
       <c r="J136" s="6">
         <v>1</v>
       </c>
-      <c r="K136" s="6"/>
+      <c r="K136" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L136" s="6"/>
     </row>
     <row r="137" ht="20" customHeight="1">
       <c r="A137" t="s" s="4">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D137" t="s" s="5">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E137" t="s" s="5">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F137" s="5">
         <v>3</v>
@@ -7738,24 +8016,26 @@
       <c r="J137" s="6">
         <v>1</v>
       </c>
-      <c r="K137" s="6"/>
+      <c r="K137" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L137" s="6"/>
     </row>
     <row r="138" ht="20" customHeight="1">
       <c r="A138" t="s" s="4">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D138" t="s" s="5">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E138" t="s" s="5">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F138" s="5">
         <v>4</v>
@@ -7772,24 +8052,26 @@
       <c r="J138" s="6">
         <v>1</v>
       </c>
-      <c r="K138" s="6"/>
+      <c r="K138" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L138" s="6"/>
     </row>
     <row r="139" ht="20" customHeight="1">
       <c r="A139" t="s" s="4">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D139" t="s" s="5">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E139" t="s" s="5">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F139" s="5">
         <v>4</v>
@@ -7806,24 +8088,26 @@
       <c r="J139" s="6">
         <v>1</v>
       </c>
-      <c r="K139" s="6"/>
+      <c r="K139" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L139" s="6"/>
     </row>
     <row r="140" ht="20" customHeight="1">
       <c r="A140" t="s" s="4">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D140" t="s" s="5">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E140" t="s" s="5">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F140" s="5">
         <v>3</v>
@@ -7840,24 +8124,26 @@
       <c r="J140" s="6">
         <v>1</v>
       </c>
-      <c r="K140" s="6"/>
+      <c r="K140" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L140" s="6"/>
     </row>
     <row r="141" ht="20" customHeight="1">
       <c r="A141" t="s" s="4">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D141" t="s" s="5">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E141" t="s" s="5">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F141" s="5">
         <v>3</v>
@@ -7874,24 +8160,26 @@
       <c r="J141" s="6">
         <v>1</v>
       </c>
-      <c r="K141" s="6"/>
+      <c r="K141" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L141" s="6"/>
     </row>
     <row r="142" ht="20" customHeight="1">
       <c r="A142" t="s" s="4">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D142" t="s" s="5">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E142" t="s" s="5">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F142" s="5">
         <v>4</v>
@@ -7908,24 +8196,26 @@
       <c r="J142" s="6">
         <v>1</v>
       </c>
-      <c r="K142" s="6"/>
+      <c r="K142" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L142" s="6"/>
     </row>
     <row r="143" ht="20" customHeight="1">
       <c r="A143" t="s" s="4">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D143" t="s" s="5">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E143" t="s" s="5">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F143" s="5">
         <v>5</v>
@@ -7942,24 +8232,26 @@
       <c r="J143" s="6">
         <v>1</v>
       </c>
-      <c r="K143" s="6"/>
+      <c r="K143" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L143" s="6"/>
     </row>
     <row r="144" ht="20" customHeight="1">
       <c r="A144" t="s" s="4">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D144" t="s" s="5">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E144" t="s" s="5">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F144" s="5">
         <v>5</v>
@@ -7976,24 +8268,26 @@
       <c r="J144" s="6">
         <v>1</v>
       </c>
-      <c r="K144" s="6"/>
+      <c r="K144" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L144" s="6"/>
     </row>
     <row r="145" ht="20" customHeight="1">
       <c r="A145" t="s" s="4">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D145" t="s" s="5">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E145" t="s" s="5">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F145" s="5">
         <v>5</v>
@@ -8010,24 +8304,26 @@
       <c r="J145" s="6">
         <v>1</v>
       </c>
-      <c r="K145" s="6"/>
+      <c r="K145" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L145" s="6"/>
     </row>
     <row r="146" ht="20" customHeight="1">
       <c r="A146" t="s" s="4">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D146" t="s" s="5">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E146" t="s" s="5">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F146" s="5">
         <v>5</v>
@@ -8044,24 +8340,26 @@
       <c r="J146" s="6">
         <v>1</v>
       </c>
-      <c r="K146" s="6"/>
+      <c r="K146" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L146" s="6"/>
     </row>
     <row r="147" ht="20" customHeight="1">
       <c r="A147" t="s" s="4">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D147" t="s" s="5">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E147" t="s" s="5">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F147" s="5">
         <v>5</v>
@@ -8078,24 +8376,26 @@
       <c r="J147" s="6">
         <v>1</v>
       </c>
-      <c r="K147" s="6"/>
+      <c r="K147" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L147" s="6"/>
     </row>
     <row r="148" ht="20" customHeight="1">
       <c r="A148" t="s" s="4">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D148" t="s" s="5">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E148" t="s" s="5">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F148" s="5">
         <v>5</v>
@@ -8112,24 +8412,26 @@
       <c r="J148" s="6">
         <v>1</v>
       </c>
-      <c r="K148" s="6"/>
+      <c r="K148" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L148" s="6"/>
     </row>
     <row r="149" ht="20" customHeight="1">
       <c r="A149" t="s" s="4">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D149" t="s" s="5">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E149" t="s" s="5">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F149" s="5">
         <v>5</v>
@@ -8146,7 +8448,9 @@
       <c r="J149" s="6">
         <v>1</v>
       </c>
-      <c r="K149" s="6"/>
+      <c r="K149" t="s" s="5">
+        <v>16</v>
+      </c>
       <c r="L149" s="6"/>
     </row>
     <row r="150" ht="20" customHeight="1">
@@ -8208,105 +8512,105 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="s" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P2" t="s" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="s" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -8358,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="18">
         <v>100</v>
@@ -8395,13 +8699,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="18">
         <v>100</v>
       </c>
       <c r="J5" t="s" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K5" s="19">
         <v>50</v>
@@ -8436,19 +8740,19 @@
         <v>2</v>
       </c>
       <c r="H6" t="s" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="18">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K6" s="19">
         <v>10</v>
       </c>
       <c r="L6" t="s" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="20">
         <v>200</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="532">
   <si>
     <t>id</t>
   </si>
@@ -78,6 +78,9 @@
     <t>アント</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>BEE</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
   </si>
   <si>
     <t>亡霊</t>
+  </si>
+  <si>
+    <t>escape</t>
   </si>
   <si>
     <t>GNOLE1</t>
@@ -3229,25 +3235,25 @@
         <v>1</v>
       </c>
       <c r="K4" t="s" s="5">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D5" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -3271,19 +3277,19 @@
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -3307,19 +3313,19 @@
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -3343,19 +3349,19 @@
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -3373,25 +3379,25 @@
         <v>1</v>
       </c>
       <c r="K8" t="s" s="5">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -3415,19 +3421,19 @@
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -3451,19 +3457,19 @@
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -3487,19 +3493,19 @@
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -3523,19 +3529,19 @@
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D13" t="s" s="5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -3559,19 +3565,19 @@
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -3595,19 +3601,19 @@
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s" s="5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s" s="5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -3631,19 +3637,19 @@
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -3667,19 +3673,19 @@
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
@@ -3703,19 +3709,19 @@
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
@@ -3739,19 +3745,19 @@
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s" s="5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s" s="5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
@@ -3775,19 +3781,19 @@
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s" s="5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" s="5">
         <v>2</v>
@@ -3811,19 +3817,19 @@
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s" s="5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s" s="5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F21" s="5">
         <v>2</v>
@@ -3847,19 +3853,19 @@
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s" s="5">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -3883,19 +3889,19 @@
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s" s="5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s" s="5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F23" s="5">
         <v>2</v>
@@ -3919,19 +3925,19 @@
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" t="s" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s" s="5">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -3955,19 +3961,19 @@
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s" s="5">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s" s="5">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F25" s="5">
         <v>2</v>
@@ -3991,19 +3997,19 @@
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F26" s="5">
         <v>2</v>
@@ -4027,19 +4033,19 @@
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s" s="5">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s" s="5">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F27" s="5">
         <v>2</v>
@@ -4063,19 +4069,19 @@
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s" s="5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F28" s="5">
         <v>2</v>
@@ -4099,19 +4105,19 @@
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s" s="5">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s" s="5">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F29" s="5">
         <v>2</v>
@@ -4135,19 +4141,19 @@
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" t="s" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s" s="5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F30" s="5">
         <v>2</v>
@@ -4171,19 +4177,19 @@
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" t="s" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s" s="5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s" s="5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F31" s="5">
         <v>2</v>
@@ -4207,19 +4213,19 @@
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" t="s" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s" s="5">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
@@ -4243,19 +4249,19 @@
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" t="s" s="4">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D33" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s" s="5">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F33" s="5">
         <v>2</v>
@@ -4279,19 +4285,19 @@
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" t="s" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s" s="5">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F34" s="5">
         <v>2</v>
@@ -4315,19 +4321,19 @@
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" t="s" s="4">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s" s="5">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s" s="5">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F35" s="5">
         <v>3</v>
@@ -4351,19 +4357,19 @@
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" t="s" s="4">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s" s="5">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F36" s="5">
         <v>3</v>
@@ -4387,19 +4393,19 @@
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" t="s" s="4">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s" s="5">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s" s="5">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F37" s="5">
         <v>3</v>
@@ -4423,19 +4429,19 @@
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" t="s" s="4">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s" s="5">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F38" s="5">
         <v>3</v>
@@ -4459,19 +4465,19 @@
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" t="s" s="4">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s" s="5">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E39" t="s" s="5">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F39" s="5">
         <v>3</v>
@@ -4495,19 +4501,19 @@
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" t="s" s="4">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s" s="5">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F40" s="5">
         <v>3</v>
@@ -4531,19 +4537,19 @@
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" t="s" s="4">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s" s="5">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s" s="5">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F41" s="5">
         <v>3</v>
@@ -4567,19 +4573,19 @@
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" t="s" s="4">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s" s="5">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F42" s="5">
         <v>3</v>
@@ -4603,19 +4609,19 @@
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" t="s" s="4">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s" s="5">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s" s="5">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F43" s="5">
         <v>3</v>
@@ -4639,19 +4645,19 @@
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" t="s" s="4">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s" s="5">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F44" s="5">
         <v>3</v>
@@ -4675,19 +4681,19 @@
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" t="s" s="4">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s" s="5">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s" s="5">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F45" s="5">
         <v>3</v>
@@ -4711,19 +4717,19 @@
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" t="s" s="4">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s" s="5">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s" s="5">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F46" s="5">
         <v>3</v>
@@ -4747,19 +4753,19 @@
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" t="s" s="4">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s" s="5">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E47" t="s" s="5">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F47" s="5">
         <v>3</v>
@@ -4783,19 +4789,19 @@
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" t="s" s="4">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s" s="5">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s" s="5">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F48" s="5">
         <v>4</v>
@@ -4819,19 +4825,19 @@
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" t="s" s="4">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s" s="5">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s" s="5">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F49" s="5">
         <v>4</v>
@@ -4855,19 +4861,19 @@
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" t="s" s="4">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s" s="5">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E50" t="s" s="5">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F50" s="5">
         <v>4</v>
@@ -4891,19 +4897,19 @@
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" t="s" s="4">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s" s="5">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s" s="5">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F51" s="5">
         <v>5</v>
@@ -4927,19 +4933,19 @@
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" t="s" s="4">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s" s="5">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E52" t="s" s="5">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F52" s="5">
         <v>5</v>
@@ -4963,19 +4969,19 @@
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" t="s" s="4">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s" s="5">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E53" t="s" s="5">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F53" s="5">
         <v>4</v>
@@ -4999,19 +5005,19 @@
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" t="s" s="4">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E54" t="s" s="5">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F54" s="5">
         <v>4</v>
@@ -5035,19 +5041,19 @@
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" t="s" s="4">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D55" t="s" s="5">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s" s="5">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F55" s="5">
         <v>4</v>
@@ -5071,19 +5077,19 @@
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" t="s" s="4">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D56" t="s" s="5">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E56" t="s" s="5">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F56" s="5">
         <v>4</v>
@@ -5107,19 +5113,19 @@
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" t="s" s="4">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s" s="5">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E57" t="s" s="5">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F57" s="5">
         <v>5</v>
@@ -5143,19 +5149,19 @@
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" t="s" s="4">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D58" t="s" s="5">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s" s="5">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F58" s="5">
         <v>5</v>
@@ -5179,19 +5185,19 @@
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" t="s" s="4">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D59" t="s" s="5">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s" s="5">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F59" s="5">
         <v>5</v>
@@ -5215,19 +5221,19 @@
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D60" t="s" s="5">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s" s="5">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F60" s="5">
         <v>5</v>
@@ -5251,22 +5257,22 @@
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" t="s" s="4">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s" s="5">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E61" t="s" s="5">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F61" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G61" s="5">
         <v>100</v>
@@ -5287,22 +5293,22 @@
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" t="s" s="4">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C62" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D62" t="s" s="5">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E62" t="s" s="5">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F62" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G62" s="5">
         <v>100</v>
@@ -5323,22 +5329,22 @@
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" t="s" s="4">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D63" t="s" s="5">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E63" t="s" s="5">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F63" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G63" s="5">
         <v>100</v>
@@ -5359,22 +5365,22 @@
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D64" t="s" s="5">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E64" t="s" s="5">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F64" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G64" s="5">
         <v>100</v>
@@ -5395,22 +5401,22 @@
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" t="s" s="4">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C65" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D65" t="s" s="5">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E65" t="s" s="5">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F65" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G65" s="5">
         <v>100</v>
@@ -5431,22 +5437,22 @@
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" t="s" s="4">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C66" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D66" t="s" s="5">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E66" t="s" s="5">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F66" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G66" s="5">
         <v>100</v>
@@ -5467,22 +5473,22 @@
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" t="s" s="4">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C67" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D67" t="s" s="5">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E67" t="s" s="5">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F67" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G67" s="5">
         <v>100</v>
@@ -5503,22 +5509,22 @@
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" t="s" s="4">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C68" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D68" t="s" s="5">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E68" t="s" s="5">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F68" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G68" s="5">
         <v>100</v>
@@ -5539,22 +5545,22 @@
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" t="s" s="4">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D69" t="s" s="5">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E69" t="s" s="5">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F69" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G69" s="5">
         <v>100</v>
@@ -5575,22 +5581,22 @@
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" t="s" s="4">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C70" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D70" t="s" s="5">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E70" t="s" s="5">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F70" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G70" s="5">
         <v>100</v>
@@ -5611,19 +5617,19 @@
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" t="s" s="4">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D71" t="s" s="5">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E71" t="s" s="5">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F71" s="5">
         <v>3</v>
@@ -5647,19 +5653,19 @@
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" t="s" s="4">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D72" t="s" s="5">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E72" t="s" s="5">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F72" s="5">
         <v>3</v>
@@ -5683,19 +5689,19 @@
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" t="s" s="4">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D73" t="s" s="5">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E73" t="s" s="5">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F73" s="5">
         <v>4</v>
@@ -5719,19 +5725,19 @@
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" t="s" s="4">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D74" t="s" s="5">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E74" t="s" s="5">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F74" s="5">
         <v>2</v>
@@ -5755,19 +5761,19 @@
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" t="s" s="4">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D75" t="s" s="5">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E75" t="s" s="5">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F75" s="5">
         <v>2</v>
@@ -5791,19 +5797,19 @@
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" t="s" s="4">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D76" t="s" s="5">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E76" t="s" s="5">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F76" s="5">
         <v>2</v>
@@ -5827,19 +5833,19 @@
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" t="s" s="4">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C77" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D77" t="s" s="5">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E77" t="s" s="5">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F77" s="5">
         <v>3</v>
@@ -5863,19 +5869,19 @@
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" t="s" s="4">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C78" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D78" t="s" s="5">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E78" t="s" s="5">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F78" s="5">
         <v>3</v>
@@ -5899,19 +5905,19 @@
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" t="s" s="4">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C79" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D79" t="s" s="5">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E79" t="s" s="5">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F79" s="5">
         <v>3</v>
@@ -5935,19 +5941,19 @@
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" t="s" s="4">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C80" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D80" t="s" s="5">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E80" t="s" s="5">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F80" s="5">
         <v>3</v>
@@ -5971,22 +5977,22 @@
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" t="s" s="4">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C81" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D81" t="s" s="5">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E81" t="s" s="5">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F81" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G81" s="5">
         <v>100</v>
@@ -6007,22 +6013,22 @@
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" t="s" s="4">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C82" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D82" t="s" s="5">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E82" t="s" s="5">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F82" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G82" s="5">
         <v>100</v>
@@ -6043,22 +6049,22 @@
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" t="s" s="4">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C83" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D83" t="s" s="5">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E83" t="s" s="5">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F83" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G83" s="5">
         <v>100</v>
@@ -6079,22 +6085,22 @@
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" t="s" s="4">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C84" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D84" t="s" s="5">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E84" t="s" s="5">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F84" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G84" s="5">
         <v>100</v>
@@ -6115,22 +6121,22 @@
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" t="s" s="4">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C85" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D85" t="s" s="5">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E85" t="s" s="5">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F85" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G85" s="5">
         <v>100</v>
@@ -6151,22 +6157,22 @@
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" t="s" s="4">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C86" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D86" t="s" s="5">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E86" t="s" s="5">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F86" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G86" s="5">
         <v>100</v>
@@ -6187,22 +6193,22 @@
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" t="s" s="4">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C87" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D87" t="s" s="5">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E87" t="s" s="5">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F87" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G87" s="5">
         <v>100</v>
@@ -6223,22 +6229,22 @@
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" t="s" s="4">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D88" t="s" s="5">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E88" t="s" s="5">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G88" s="5">
         <v>100</v>
@@ -6259,19 +6265,19 @@
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" t="s" s="4">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C89" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D89" t="s" s="5">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E89" t="s" s="5">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F89" s="5">
         <v>3</v>
@@ -6295,22 +6301,22 @@
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" t="s" s="4">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C90" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D90" t="s" s="5">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E90" t="s" s="5">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F90" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G90" s="5">
         <v>100</v>
@@ -6331,22 +6337,22 @@
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" t="s" s="4">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C91" t="s" s="5">
         <v>14</v>
       </c>
       <c r="D91" t="s" s="5">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E91" t="s" s="5">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F91" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G91" s="5">
         <v>100</v>
@@ -6367,19 +6373,19 @@
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" t="s" s="4">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D92" t="s" s="5">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E92" t="s" s="5">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F92" s="5">
         <v>2</v>
@@ -6403,19 +6409,19 @@
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" t="s" s="4">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B93" t="s" s="5">
+        <v>332</v>
+      </c>
+      <c r="C93" t="s" s="5">
+        <v>328</v>
+      </c>
+      <c r="D93" t="s" s="5">
         <v>330</v>
       </c>
-      <c r="C93" t="s" s="5">
-        <v>326</v>
-      </c>
-      <c r="D93" t="s" s="5">
-        <v>328</v>
-      </c>
       <c r="E93" t="s" s="5">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F93" s="5">
         <v>2</v>
@@ -6439,22 +6445,22 @@
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" t="s" s="4">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D94" t="s" s="5">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E94" t="s" s="5">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F94" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G94" s="5">
         <v>100</v>
@@ -6475,22 +6481,22 @@
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" t="s" s="4">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D95" t="s" s="5">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E95" t="s" s="5">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F95" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G95" s="5">
         <v>100</v>
@@ -6511,19 +6517,19 @@
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" t="s" s="4">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D96" t="s" s="5">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E96" t="s" s="5">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F96" s="5">
         <v>4</v>
@@ -6547,19 +6553,19 @@
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" t="s" s="4">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D97" t="s" s="5">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E97" t="s" s="5">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F97" s="5">
         <v>3</v>
@@ -6583,19 +6589,19 @@
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98" t="s" s="4">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D98" t="s" s="5">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E98" t="s" s="5">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F98" s="5">
         <v>2</v>
@@ -6619,22 +6625,22 @@
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99" t="s" s="4">
+        <v>350</v>
+      </c>
+      <c r="B99" t="s" s="5">
+        <v>351</v>
+      </c>
+      <c r="C99" t="s" s="5">
         <v>348</v>
       </c>
-      <c r="B99" t="s" s="5">
-        <v>349</v>
-      </c>
-      <c r="C99" t="s" s="5">
-        <v>346</v>
-      </c>
       <c r="D99" t="s" s="5">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E99" t="s" s="5">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F99" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G99" s="5">
         <v>100</v>
@@ -6655,19 +6661,19 @@
     </row>
     <row r="100" ht="20" customHeight="1">
       <c r="A100" t="s" s="4">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D100" t="s" s="5">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E100" t="s" s="5">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F100" s="5">
         <v>3</v>
@@ -6691,19 +6697,19 @@
     </row>
     <row r="101" ht="20" customHeight="1">
       <c r="A101" t="s" s="4">
+        <v>357</v>
+      </c>
+      <c r="B101" t="s" s="5">
+        <v>358</v>
+      </c>
+      <c r="C101" t="s" s="5">
         <v>355</v>
       </c>
-      <c r="B101" t="s" s="5">
-        <v>356</v>
-      </c>
-      <c r="C101" t="s" s="5">
-        <v>353</v>
-      </c>
       <c r="D101" t="s" s="5">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E101" t="s" s="5">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F101" s="5">
         <v>4</v>
@@ -6727,19 +6733,19 @@
     </row>
     <row r="102" ht="20" customHeight="1">
       <c r="A102" t="s" s="4">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D102" t="s" s="5">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E102" t="s" s="5">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F102" s="5">
         <v>4</v>
@@ -6763,19 +6769,19 @@
     </row>
     <row r="103" ht="20" customHeight="1">
       <c r="A103" t="s" s="4">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D103" t="s" s="5">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E103" t="s" s="5">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F103" s="5">
         <v>2</v>
@@ -6799,19 +6805,19 @@
     </row>
     <row r="104" ht="20" customHeight="1">
       <c r="A104" t="s" s="4">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D104" t="s" s="5">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E104" t="s" s="5">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F104" s="5">
         <v>3</v>
@@ -6835,19 +6841,19 @@
     </row>
     <row r="105" ht="20" customHeight="1">
       <c r="A105" t="s" s="4">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D105" t="s" s="5">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E105" t="s" s="5">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F105" s="5">
         <v>3</v>
@@ -6871,19 +6877,19 @@
     </row>
     <row r="106" ht="20" customHeight="1">
       <c r="A106" t="s" s="4">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D106" t="s" s="5">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E106" t="s" s="5">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F106" s="5">
         <v>4</v>
@@ -6907,19 +6913,19 @@
     </row>
     <row r="107" ht="20" customHeight="1">
       <c r="A107" t="s" s="4">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D107" t="s" s="5">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E107" t="s" s="5">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F107" s="5">
         <v>4</v>
@@ -6943,19 +6949,19 @@
     </row>
     <row r="108" ht="20" customHeight="1">
       <c r="A108" t="s" s="4">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D108" t="s" s="5">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E108" t="s" s="5">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F108" s="5">
         <v>2</v>
@@ -6979,19 +6985,19 @@
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109" t="s" s="4">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D109" t="s" s="5">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E109" t="s" s="5">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F109" s="5">
         <v>2</v>
@@ -7015,22 +7021,22 @@
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" t="s" s="4">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D110" t="s" s="5">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E110" t="s" s="5">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F110" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G110" s="5">
         <v>100</v>
@@ -7051,22 +7057,22 @@
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111" t="s" s="4">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C111" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D111" t="s" s="5">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E111" t="s" s="5">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F111" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G111" s="5">
         <v>100</v>
@@ -7087,19 +7093,19 @@
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112" t="s" s="4">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C112" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D112" t="s" s="5">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E112" t="s" s="5">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F112" s="5">
         <v>2</v>
@@ -7123,19 +7129,19 @@
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113" t="s" s="4">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C113" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D113" t="s" s="5">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E113" t="s" s="5">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F113" s="5">
         <v>2</v>
@@ -7159,19 +7165,19 @@
     </row>
     <row r="114" ht="20" customHeight="1">
       <c r="A114" t="s" s="4">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C114" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D114" t="s" s="5">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E114" t="s" s="5">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F114" s="5">
         <v>2</v>
@@ -7195,19 +7201,19 @@
     </row>
     <row r="115" ht="20" customHeight="1">
       <c r="A115" t="s" s="4">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C115" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D115" t="s" s="5">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E115" t="s" s="5">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F115" s="5">
         <v>2</v>
@@ -7231,22 +7237,22 @@
     </row>
     <row r="116" ht="20" customHeight="1">
       <c r="A116" t="s" s="4">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C116" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D116" t="s" s="5">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E116" t="s" s="5">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F116" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G116" s="5">
         <v>100</v>
@@ -7267,22 +7273,22 @@
     </row>
     <row r="117" ht="20" customHeight="1">
       <c r="A117" t="s" s="4">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C117" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D117" t="s" s="5">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E117" t="s" s="5">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F117" t="s" s="5">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G117" s="5">
         <v>100</v>
@@ -7303,19 +7309,19 @@
     </row>
     <row r="118" ht="20" customHeight="1">
       <c r="A118" t="s" s="4">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C118" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D118" t="s" s="5">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E118" t="s" s="5">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F118" s="5">
         <v>2</v>
@@ -7339,19 +7345,19 @@
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" t="s" s="4">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C119" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D119" t="s" s="5">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E119" t="s" s="5">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F119" s="5">
         <v>3</v>
@@ -7375,19 +7381,19 @@
     </row>
     <row r="120" ht="20" customHeight="1">
       <c r="A120" t="s" s="4">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D120" t="s" s="5">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E120" t="s" s="5">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F120" s="5">
         <v>4</v>
@@ -7411,19 +7417,19 @@
     </row>
     <row r="121" ht="20" customHeight="1">
       <c r="A121" t="s" s="4">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D121" t="s" s="5">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E121" t="s" s="5">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F121" s="5">
         <v>3</v>
@@ -7447,19 +7453,19 @@
     </row>
     <row r="122" ht="20" customHeight="1">
       <c r="A122" t="s" s="4">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D122" t="s" s="5">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E122" t="s" s="5">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F122" s="5">
         <v>2</v>
@@ -7483,19 +7489,19 @@
     </row>
     <row r="123" ht="20" customHeight="1">
       <c r="A123" t="s" s="4">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D123" t="s" s="5">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E123" t="s" s="5">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F123" s="5">
         <v>2</v>
@@ -7519,19 +7525,19 @@
     </row>
     <row r="124" ht="20" customHeight="1">
       <c r="A124" t="s" s="4">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D124" t="s" s="5">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E124" t="s" s="5">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F124" s="5">
         <v>3</v>
@@ -7555,19 +7561,19 @@
     </row>
     <row r="125" ht="20" customHeight="1">
       <c r="A125" t="s" s="4">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D125" t="s" s="5">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E125" t="s" s="5">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F125" s="5">
         <v>2</v>
@@ -7591,19 +7597,19 @@
     </row>
     <row r="126" ht="20" customHeight="1">
       <c r="A126" t="s" s="4">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D126" t="s" s="5">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E126" t="s" s="5">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F126" s="5">
         <v>3</v>
@@ -7627,19 +7633,19 @@
     </row>
     <row r="127" ht="20" customHeight="1">
       <c r="A127" t="s" s="4">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D127" t="s" s="5">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E127" t="s" s="5">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F127" s="5">
         <v>2</v>
@@ -7663,19 +7669,19 @@
     </row>
     <row r="128" ht="20" customHeight="1">
       <c r="A128" t="s" s="4">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C128" t="s" s="5">
         <v>19</v>
       </c>
       <c r="D128" t="s" s="5">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E128" t="s" s="5">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F128" s="5">
         <v>2</v>
@@ -7699,19 +7705,19 @@
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" t="s" s="4">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D129" t="s" s="5">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E129" t="s" s="5">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F129" s="5">
         <v>3</v>
@@ -7735,19 +7741,19 @@
     </row>
     <row r="130" ht="20" customHeight="1">
       <c r="A130" t="s" s="4">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D130" t="s" s="5">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E130" t="s" s="5">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F130" s="5">
         <v>3</v>
@@ -7771,19 +7777,19 @@
     </row>
     <row r="131" ht="20" customHeight="1">
       <c r="A131" t="s" s="4">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D131" t="s" s="5">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E131" t="s" s="5">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F131" s="5">
         <v>3</v>
@@ -7807,19 +7813,19 @@
     </row>
     <row r="132" ht="20" customHeight="1">
       <c r="A132" t="s" s="4">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D132" t="s" s="5">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E132" t="s" s="5">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F132" s="5">
         <v>3</v>
@@ -7843,19 +7849,19 @@
     </row>
     <row r="133" ht="20" customHeight="1">
       <c r="A133" t="s" s="4">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D133" t="s" s="5">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E133" t="s" s="5">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F133" s="5">
         <v>4</v>
@@ -7879,19 +7885,19 @@
     </row>
     <row r="134" ht="20" customHeight="1">
       <c r="A134" t="s" s="4">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D134" t="s" s="5">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E134" t="s" s="5">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F134" s="5">
         <v>5</v>
@@ -7915,19 +7921,19 @@
     </row>
     <row r="135" ht="20" customHeight="1">
       <c r="A135" t="s" s="4">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D135" t="s" s="5">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E135" t="s" s="5">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F135" s="5">
         <v>4</v>
@@ -7951,19 +7957,19 @@
     </row>
     <row r="136" ht="20" customHeight="1">
       <c r="A136" t="s" s="4">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D136" t="s" s="5">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E136" t="s" s="5">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F136" s="5">
         <v>5</v>
@@ -7987,19 +7993,19 @@
     </row>
     <row r="137" ht="20" customHeight="1">
       <c r="A137" t="s" s="4">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D137" t="s" s="5">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E137" t="s" s="5">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F137" s="5">
         <v>3</v>
@@ -8023,19 +8029,19 @@
     </row>
     <row r="138" ht="20" customHeight="1">
       <c r="A138" t="s" s="4">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D138" t="s" s="5">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E138" t="s" s="5">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F138" s="5">
         <v>4</v>
@@ -8059,19 +8065,19 @@
     </row>
     <row r="139" ht="20" customHeight="1">
       <c r="A139" t="s" s="4">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D139" t="s" s="5">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E139" t="s" s="5">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F139" s="5">
         <v>4</v>
@@ -8095,19 +8101,19 @@
     </row>
     <row r="140" ht="20" customHeight="1">
       <c r="A140" t="s" s="4">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D140" t="s" s="5">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E140" t="s" s="5">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F140" s="5">
         <v>3</v>
@@ -8131,19 +8137,19 @@
     </row>
     <row r="141" ht="20" customHeight="1">
       <c r="A141" t="s" s="4">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D141" t="s" s="5">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E141" t="s" s="5">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F141" s="5">
         <v>3</v>
@@ -8167,19 +8173,19 @@
     </row>
     <row r="142" ht="20" customHeight="1">
       <c r="A142" t="s" s="4">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D142" t="s" s="5">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E142" t="s" s="5">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F142" s="5">
         <v>4</v>
@@ -8203,19 +8209,19 @@
     </row>
     <row r="143" ht="20" customHeight="1">
       <c r="A143" t="s" s="4">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D143" t="s" s="5">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E143" t="s" s="5">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F143" s="5">
         <v>5</v>
@@ -8239,19 +8245,19 @@
     </row>
     <row r="144" ht="20" customHeight="1">
       <c r="A144" t="s" s="4">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D144" t="s" s="5">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E144" t="s" s="5">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F144" s="5">
         <v>5</v>
@@ -8275,19 +8281,19 @@
     </row>
     <row r="145" ht="20" customHeight="1">
       <c r="A145" t="s" s="4">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D145" t="s" s="5">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E145" t="s" s="5">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F145" s="5">
         <v>5</v>
@@ -8311,19 +8317,19 @@
     </row>
     <row r="146" ht="20" customHeight="1">
       <c r="A146" t="s" s="4">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D146" t="s" s="5">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E146" t="s" s="5">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F146" s="5">
         <v>5</v>
@@ -8347,19 +8353,19 @@
     </row>
     <row r="147" ht="20" customHeight="1">
       <c r="A147" t="s" s="4">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D147" t="s" s="5">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E147" t="s" s="5">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F147" s="5">
         <v>5</v>
@@ -8383,19 +8389,19 @@
     </row>
     <row r="148" ht="20" customHeight="1">
       <c r="A148" t="s" s="4">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D148" t="s" s="5">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E148" t="s" s="5">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F148" s="5">
         <v>5</v>
@@ -8419,19 +8425,19 @@
     </row>
     <row r="149" ht="20" customHeight="1">
       <c r="A149" t="s" s="4">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D149" t="s" s="5">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E149" t="s" s="5">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F149" s="5">
         <v>5</v>
@@ -8512,52 +8518,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
@@ -8752,7 +8758,7 @@
         <v>10</v>
       </c>
       <c r="L6" t="s" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="20">
         <v>200</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="536">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +51,12 @@
     <t>range</t>
   </si>
   <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -81,55 +87,58 @@
     <t>stay</t>
   </si>
   <si>
+    <t>BEE</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>キラービー</t>
+  </si>
+  <si>
+    <t>SKELETON_DOG</t>
+  </si>
+  <si>
+    <t>skeleton_dog</t>
+  </si>
+  <si>
+    <t>悪霊</t>
+  </si>
+  <si>
+    <t>がいこつ犬</t>
+  </si>
+  <si>
+    <t>ほねほねドック</t>
+  </si>
+  <si>
+    <t>SKELETON1</t>
+  </si>
+  <si>
+    <t>skeleton1</t>
+  </si>
+  <si>
+    <t>スケルトン1</t>
+  </si>
+  <si>
+    <t>スケルトン</t>
+  </si>
+  <si>
+    <t>SPECTER</t>
+  </si>
+  <si>
+    <t>specter</t>
+  </si>
+  <si>
+    <t>亡霊</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
     <t>line</t>
   </si>
   <si>
-    <t>BEE</t>
-  </si>
-  <si>
-    <t>bee</t>
-  </si>
-  <si>
-    <t>キラービー</t>
-  </si>
-  <si>
-    <t>SKELETON_DOG</t>
-  </si>
-  <si>
-    <t>skeleton_dog</t>
-  </si>
-  <si>
-    <t>悪霊</t>
-  </si>
-  <si>
-    <t>がいこつ犬</t>
-  </si>
-  <si>
-    <t>ほねほねドック</t>
-  </si>
-  <si>
-    <t>SKELETON1</t>
-  </si>
-  <si>
-    <t>skeleton1</t>
-  </si>
-  <si>
-    <t>スケルトン1</t>
-  </si>
-  <si>
-    <t>スケルトン</t>
-  </si>
-  <si>
-    <t>SPECTER</t>
-  </si>
-  <si>
-    <t>specter</t>
-  </si>
-  <si>
-    <t>亡霊</t>
-  </si>
-  <si>
-    <t>escape</t>
+    <t>WAND6</t>
   </si>
   <si>
     <t>GNOLE1</t>
@@ -3077,7 +3086,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3095,7 +3104,9 @@
     <col min="10" max="10" width="2.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.625" style="1" customWidth="1"/>
-    <col min="13" max="256" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="1" customWidth="1"/>
+    <col min="15" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -3135,10 +3146,16 @@
       <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -3156,16 +3173,16 @@
         <v>8</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s" s="4">
         <v>8</v>
@@ -3173,22 +3190,28 @@
       <c r="L2" t="s" s="4">
         <v>8</v>
       </c>
+      <c r="M2" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" t="s" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -3207,22 +3230,24 @@
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" t="s" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -3240,27 +3265,27 @@
         <v>1</v>
       </c>
       <c r="K4" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s" s="4">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -3279,22 +3304,24 @@
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -3313,22 +3340,24 @@
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -3347,22 +3376,24 @@
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -3380,25 +3411,31 @@
         <v>1</v>
       </c>
       <c r="K8" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="L8" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="L8" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" t="s" s="4">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -3416,23 +3453,25 @@
         <v>1</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3451,22 +3490,24 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s" s="4">
         <v>48</v>
       </c>
-      <c r="B11" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s" s="4">
-        <v>45</v>
-      </c>
       <c r="D11" t="s" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -3485,22 +3526,24 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3519,22 +3562,24 @@
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -3553,22 +3598,24 @@
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3587,22 +3634,24 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3621,22 +3670,24 @@
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -3655,22 +3706,24 @@
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3689,22 +3742,24 @@
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -3723,22 +3778,24 @@
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3757,22 +3814,24 @@
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -3791,22 +3850,24 @@
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -3825,22 +3886,24 @@
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -3859,22 +3922,24 @@
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -3893,22 +3958,24 @@
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s" s="4">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -3927,22 +3994,24 @@
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" t="s" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s" s="4">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s" s="4">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
@@ -3961,22 +4030,24 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s" s="4">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s" s="4">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F26" s="4">
         <v>2</v>
@@ -3995,22 +4066,24 @@
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s" s="4">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -4029,22 +4102,24 @@
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s" s="4">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
@@ -4063,22 +4138,24 @@
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s" s="4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -4097,22 +4174,24 @@
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s" s="4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -4131,22 +4210,24 @@
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s" s="4">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
@@ -4165,22 +4246,24 @@
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s" s="4">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -4199,22 +4282,24 @@
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E33" t="s" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -4233,22 +4318,24 @@
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s" s="4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -4267,22 +4354,24 @@
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" t="s" s="3">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s" s="4">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s" s="4">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F35" s="4">
         <v>3</v>
@@ -4301,22 +4390,24 @@
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E36" t="s" s="4">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F36" s="4">
         <v>3</v>
@@ -4335,22 +4426,24 @@
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" t="s" s="3">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s" s="4">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s" s="4">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F37" s="4">
         <v>3</v>
@@ -4369,22 +4462,24 @@
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" t="s" s="3">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s" s="4">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s" s="4">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F38" s="4">
         <v>3</v>
@@ -4403,22 +4498,24 @@
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" t="s" s="3">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s" s="4">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s" s="4">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F39" s="4">
         <v>3</v>
@@ -4437,22 +4534,24 @@
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" t="s" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s" s="4">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s" s="4">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F40" s="4">
         <v>3</v>
@@ -4471,22 +4570,24 @@
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" t="s" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s" s="4">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s" s="4">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
@@ -4505,22 +4606,24 @@
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s" s="4">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F42" s="4">
         <v>3</v>
@@ -4539,22 +4642,24 @@
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E43" t="s" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F43" s="4">
         <v>3</v>
@@ -4573,22 +4678,24 @@
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" t="s" s="3">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F44" s="4">
         <v>3</v>
@@ -4607,22 +4714,24 @@
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" t="s" s="3">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s" s="4">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s" s="4">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F45" s="4">
         <v>3</v>
@@ -4641,22 +4750,24 @@
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" t="s" s="3">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s" s="4">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s" s="4">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F46" s="4">
         <v>3</v>
@@ -4675,22 +4786,24 @@
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" t="s" s="3">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s" s="4">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E47" t="s" s="4">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
@@ -4709,22 +4822,24 @@
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" t="s" s="3">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F48" s="4">
         <v>4</v>
@@ -4743,22 +4858,24 @@
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" t="s" s="3">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s" s="4">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E49" t="s" s="4">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F49" s="4">
         <v>4</v>
@@ -4777,22 +4894,24 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s" s="4">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s" s="4">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F50" s="4">
         <v>4</v>
@@ -4811,22 +4930,24 @@
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" t="s" s="3">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s" s="4">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s" s="4">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
@@ -4845,22 +4966,24 @@
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" t="s" s="3">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E52" t="s" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F52" s="4">
         <v>5</v>
@@ -4879,22 +5002,24 @@
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" t="s" s="3">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s" s="4">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E53" t="s" s="4">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F53" s="4">
         <v>4</v>
@@ -4913,22 +5038,24 @@
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" t="s" s="3">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s" s="4">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E54" t="s" s="4">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F54" s="4">
         <v>4</v>
@@ -4947,22 +5074,24 @@
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" t="s" s="3">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s" s="4">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s" s="4">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F55" s="4">
         <v>4</v>
@@ -4981,22 +5110,24 @@
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" t="s" s="3">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s" s="4">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E56" t="s" s="4">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F56" s="4">
         <v>4</v>
@@ -5015,22 +5146,24 @@
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s" s="4">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E57" t="s" s="4">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F57" s="4">
         <v>5</v>
@@ -5049,22 +5182,24 @@
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" t="s" s="3">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C58" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D58" t="s" s="4">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E58" t="s" s="4">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F58" s="4">
         <v>5</v>
@@ -5083,22 +5218,24 @@
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" t="s" s="3">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C59" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s" s="4">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E59" t="s" s="4">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F59" s="4">
         <v>5</v>
@@ -5117,22 +5254,24 @@
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" t="s" s="3">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C60" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s" s="4">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E60" t="s" s="4">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F60" s="4">
         <v>5</v>
@@ -5151,25 +5290,27 @@
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" t="s" s="3">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C61" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s" s="4">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E61" t="s" s="4">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F61" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G61" s="4">
         <v>100</v>
@@ -5185,25 +5326,27 @@
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" t="s" s="3">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s" s="4">
+        <v>232</v>
+      </c>
+      <c r="E62" t="s" s="4">
+        <v>233</v>
+      </c>
+      <c r="F62" t="s" s="4">
         <v>229</v>
-      </c>
-      <c r="E62" t="s" s="4">
-        <v>230</v>
-      </c>
-      <c r="F62" t="s" s="4">
-        <v>226</v>
       </c>
       <c r="G62" s="4">
         <v>100</v>
@@ -5219,25 +5362,27 @@
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" t="s" s="3">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C63" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" t="s" s="4">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s" s="4">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F63" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G63" s="4">
         <v>100</v>
@@ -5253,25 +5398,27 @@
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" t="s" s="3">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C64" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s" s="4">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E64" t="s" s="4">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F64" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G64" s="4">
         <v>100</v>
@@ -5287,25 +5434,27 @@
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" t="s" s="3">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C65" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s" s="4">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E65" t="s" s="4">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F65" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G65" s="4">
         <v>100</v>
@@ -5321,25 +5470,27 @@
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" t="s" s="3">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C66" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s" s="4">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E66" t="s" s="4">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F66" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G66" s="4">
         <v>100</v>
@@ -5355,25 +5506,27 @@
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s" s="4">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E67" t="s" s="4">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F67" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G67" s="4">
         <v>100</v>
@@ -5389,25 +5542,27 @@
       </c>
       <c r="K67" s="6"/>
       <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C68" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s" s="4">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E68" t="s" s="4">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F68" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G68" s="4">
         <v>100</v>
@@ -5423,25 +5578,27 @@
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" t="s" s="3">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C69" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s" s="4">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E69" t="s" s="4">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F69" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G69" s="4">
         <v>100</v>
@@ -5457,25 +5614,27 @@
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C70" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s" s="4">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E70" t="s" s="4">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F70" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G70" s="4">
         <v>100</v>
@@ -5491,22 +5650,24 @@
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" t="s" s="3">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C71" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s" s="4">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E71" t="s" s="4">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F71" s="4">
         <v>3</v>
@@ -5525,22 +5686,24 @@
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" t="s" s="3">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s" s="4">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E72" t="s" s="4">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F72" s="4">
         <v>3</v>
@@ -5559,22 +5722,24 @@
       </c>
       <c r="K72" s="6"/>
       <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" t="s" s="3">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C73" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s" s="4">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E73" t="s" s="4">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F73" s="4">
         <v>4</v>
@@ -5593,22 +5758,24 @@
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" t="s" s="3">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C74" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s" s="4">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E74" t="s" s="4">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
@@ -5627,22 +5794,24 @@
       </c>
       <c r="K74" s="6"/>
       <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" t="s" s="3">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C75" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s" s="4">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E75" t="s" s="4">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F75" s="4">
         <v>2</v>
@@ -5661,22 +5830,24 @@
       </c>
       <c r="K75" s="6"/>
       <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" t="s" s="3">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s" s="4">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s" s="4">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F76" s="4">
         <v>2</v>
@@ -5695,22 +5866,24 @@
       </c>
       <c r="K76" s="6"/>
       <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" t="s" s="3">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C77" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s" s="4">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E77" t="s" s="4">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F77" s="4">
         <v>3</v>
@@ -5729,22 +5902,24 @@
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" t="s" s="3">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C78" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s" s="4">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E78" t="s" s="4">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F78" s="4">
         <v>3</v>
@@ -5763,22 +5938,24 @@
       </c>
       <c r="K78" s="6"/>
       <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" t="s" s="3">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C79" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s" s="4">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E79" t="s" s="4">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F79" s="4">
         <v>3</v>
@@ -5797,22 +5974,24 @@
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" t="s" s="3">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C80" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s" s="4">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E80" t="s" s="4">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F80" s="4">
         <v>3</v>
@@ -5831,25 +6010,27 @@
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" t="s" s="3">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C81" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s" s="4">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E81" t="s" s="4">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F81" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G81" s="4">
         <v>100</v>
@@ -5865,25 +6046,27 @@
       </c>
       <c r="K81" s="6"/>
       <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" t="s" s="3">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C82" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D82" t="s" s="4">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E82" t="s" s="4">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F82" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G82" s="4">
         <v>100</v>
@@ -5899,25 +6082,27 @@
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" t="s" s="3">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s" s="4">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C83" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s" s="4">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E83" t="s" s="4">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F83" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G83" s="4">
         <v>100</v>
@@ -5933,25 +6118,27 @@
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" t="s" s="3">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s" s="4">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C84" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s" s="4">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E84" t="s" s="4">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F84" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G84" s="4">
         <v>100</v>
@@ -5967,25 +6154,27 @@
       </c>
       <c r="K84" s="6"/>
       <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" t="s" s="3">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s" s="4">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C85" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s" s="4">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E85" t="s" s="4">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F85" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G85" s="4">
         <v>100</v>
@@ -6001,25 +6190,27 @@
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" t="s" s="3">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B86" t="s" s="4">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s" s="4">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E86" t="s" s="4">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F86" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G86" s="4">
         <v>100</v>
@@ -6035,25 +6226,27 @@
       </c>
       <c r="K86" s="6"/>
       <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" t="s" s="3">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s" s="4">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C87" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s" s="4">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E87" t="s" s="4">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F87" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G87" s="4">
         <v>100</v>
@@ -6069,25 +6262,27 @@
       </c>
       <c r="K87" s="6"/>
       <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" t="s" s="3">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B88" t="s" s="4">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C88" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s" s="4">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E88" t="s" s="4">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F88" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G88" s="4">
         <v>100</v>
@@ -6103,22 +6298,24 @@
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" t="s" s="3">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s" s="4">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C89" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s" s="4">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E89" t="s" s="4">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F89" s="4">
         <v>3</v>
@@ -6137,25 +6334,27 @@
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B90" t="s" s="4">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C90" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s" s="4">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E90" t="s" s="4">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F90" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G90" s="4">
         <v>100</v>
@@ -6171,25 +6370,27 @@
       </c>
       <c r="K90" s="6"/>
       <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B91" t="s" s="4">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C91" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s" s="4">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E91" t="s" s="4">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F91" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G91" s="4">
         <v>100</v>
@@ -6205,22 +6406,24 @@
       </c>
       <c r="K91" s="6"/>
       <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B92" t="s" s="4">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C92" t="s" s="4">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D92" t="s" s="4">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E92" t="s" s="4">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F92" s="4">
         <v>2</v>
@@ -6239,22 +6442,24 @@
       </c>
       <c r="K92" s="6"/>
       <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" t="s" s="3">
+        <v>335</v>
+      </c>
+      <c r="B93" t="s" s="4">
+        <v>336</v>
+      </c>
+      <c r="C93" t="s" s="4">
         <v>332</v>
       </c>
-      <c r="B93" t="s" s="4">
-        <v>333</v>
-      </c>
-      <c r="C93" t="s" s="4">
-        <v>329</v>
-      </c>
       <c r="D93" t="s" s="4">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E93" t="s" s="4">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F93" s="4">
         <v>2</v>
@@ -6273,25 +6478,27 @@
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" t="s" s="3">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B94" t="s" s="4">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C94" t="s" s="4">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D94" t="s" s="4">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E94" t="s" s="4">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F94" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G94" s="4">
         <v>100</v>
@@ -6307,25 +6514,27 @@
       </c>
       <c r="K94" s="6"/>
       <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" t="s" s="3">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B95" t="s" s="4">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C95" t="s" s="4">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D95" t="s" s="4">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E95" t="s" s="4">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F95" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G95" s="4">
         <v>100</v>
@@ -6341,22 +6550,24 @@
       </c>
       <c r="K95" s="6"/>
       <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B96" t="s" s="4">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C96" t="s" s="4">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D96" t="s" s="4">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E96" t="s" s="4">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F96" s="4">
         <v>4</v>
@@ -6375,22 +6586,24 @@
       </c>
       <c r="K96" s="6"/>
       <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" t="s" s="3">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B97" t="s" s="4">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C97" t="s" s="4">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D97" t="s" s="4">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E97" t="s" s="4">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F97" s="4">
         <v>3</v>
@@ -6409,22 +6622,24 @@
       </c>
       <c r="K97" s="6"/>
       <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98" t="s" s="3">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B98" t="s" s="4">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s" s="4">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D98" t="s" s="4">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E98" t="s" s="4">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F98" s="4">
         <v>2</v>
@@ -6443,25 +6658,27 @@
       </c>
       <c r="K98" s="6"/>
       <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99" t="s" s="3">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B99" t="s" s="4">
+        <v>355</v>
+      </c>
+      <c r="C99" t="s" s="4">
         <v>352</v>
       </c>
-      <c r="C99" t="s" s="4">
-        <v>349</v>
-      </c>
       <c r="D99" t="s" s="4">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E99" t="s" s="4">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F99" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G99" s="4">
         <v>100</v>
@@ -6477,22 +6694,24 @@
       </c>
       <c r="K99" s="6"/>
       <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
     </row>
     <row r="100" ht="20" customHeight="1">
       <c r="A100" t="s" s="3">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B100" t="s" s="4">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C100" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D100" t="s" s="4">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E100" t="s" s="4">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F100" s="4">
         <v>3</v>
@@ -6511,22 +6730,24 @@
       </c>
       <c r="K100" s="6"/>
       <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
     </row>
     <row r="101" ht="20" customHeight="1">
       <c r="A101" t="s" s="3">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B101" t="s" s="4">
+        <v>362</v>
+      </c>
+      <c r="C101" t="s" s="4">
         <v>359</v>
       </c>
-      <c r="C101" t="s" s="4">
-        <v>356</v>
-      </c>
       <c r="D101" t="s" s="4">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E101" t="s" s="4">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F101" s="4">
         <v>4</v>
@@ -6545,22 +6766,24 @@
       </c>
       <c r="K101" s="6"/>
       <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
     </row>
     <row r="102" ht="20" customHeight="1">
       <c r="A102" t="s" s="3">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B102" t="s" s="4">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C102" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D102" t="s" s="4">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E102" t="s" s="4">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F102" s="4">
         <v>4</v>
@@ -6579,22 +6802,24 @@
       </c>
       <c r="K102" s="6"/>
       <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
     </row>
     <row r="103" ht="20" customHeight="1">
       <c r="A103" t="s" s="3">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B103" t="s" s="4">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C103" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D103" t="s" s="4">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E103" t="s" s="4">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F103" s="4">
         <v>2</v>
@@ -6613,22 +6838,24 @@
       </c>
       <c r="K103" s="6"/>
       <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
     </row>
     <row r="104" ht="20" customHeight="1">
       <c r="A104" t="s" s="3">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s" s="4">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C104" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D104" t="s" s="4">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E104" t="s" s="4">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F104" s="4">
         <v>3</v>
@@ -6647,22 +6874,24 @@
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
     </row>
     <row r="105" ht="20" customHeight="1">
       <c r="A105" t="s" s="3">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C105" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D105" t="s" s="4">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E105" t="s" s="4">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F105" s="4">
         <v>3</v>
@@ -6681,22 +6910,24 @@
       </c>
       <c r="K105" s="6"/>
       <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
     </row>
     <row r="106" ht="20" customHeight="1">
       <c r="A106" t="s" s="3">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B106" t="s" s="4">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C106" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D106" t="s" s="4">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E106" t="s" s="4">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F106" s="4">
         <v>4</v>
@@ -6715,22 +6946,24 @@
       </c>
       <c r="K106" s="6"/>
       <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
     </row>
     <row r="107" ht="20" customHeight="1">
       <c r="A107" t="s" s="3">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B107" t="s" s="4">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C107" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D107" t="s" s="4">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E107" t="s" s="4">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F107" s="4">
         <v>4</v>
@@ -6749,22 +6982,24 @@
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
     </row>
     <row r="108" ht="20" customHeight="1">
       <c r="A108" t="s" s="3">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B108" t="s" s="4">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C108" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D108" t="s" s="4">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E108" t="s" s="4">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F108" s="4">
         <v>2</v>
@@ -6783,22 +7018,24 @@
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109" t="s" s="3">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B109" t="s" s="4">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C109" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D109" t="s" s="4">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E109" t="s" s="4">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F109" s="4">
         <v>2</v>
@@ -6817,25 +7054,27 @@
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" t="s" s="3">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B110" t="s" s="4">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C110" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D110" t="s" s="4">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E110" t="s" s="4">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F110" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G110" s="4">
         <v>100</v>
@@ -6851,25 +7090,27 @@
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111" t="s" s="3">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B111" t="s" s="4">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C111" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D111" t="s" s="4">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E111" t="s" s="4">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F111" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G111" s="4">
         <v>100</v>
@@ -6885,22 +7126,24 @@
       </c>
       <c r="K111" s="6"/>
       <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112" t="s" s="3">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B112" t="s" s="4">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C112" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s" s="4">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E112" t="s" s="4">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F112" s="4">
         <v>2</v>
@@ -6919,22 +7162,24 @@
       </c>
       <c r="K112" s="6"/>
       <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113" t="s" s="3">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B113" t="s" s="4">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C113" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s" s="4">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E113" t="s" s="4">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F113" s="4">
         <v>2</v>
@@ -6953,22 +7198,24 @@
       </c>
       <c r="K113" s="6"/>
       <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
     </row>
     <row r="114" ht="20" customHeight="1">
       <c r="A114" t="s" s="3">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B114" t="s" s="4">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C114" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s" s="4">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E114" t="s" s="4">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F114" s="4">
         <v>2</v>
@@ -6987,22 +7234,24 @@
       </c>
       <c r="K114" s="6"/>
       <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
     </row>
     <row r="115" ht="20" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B115" t="s" s="4">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C115" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s" s="4">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E115" t="s" s="4">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F115" s="4">
         <v>2</v>
@@ -7021,25 +7270,27 @@
       </c>
       <c r="K115" s="6"/>
       <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
     </row>
     <row r="116" ht="20" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B116" t="s" s="4">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C116" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D116" t="s" s="4">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E116" t="s" s="4">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F116" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G116" s="4">
         <v>100</v>
@@ -7055,25 +7306,27 @@
       </c>
       <c r="K116" s="6"/>
       <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
     </row>
     <row r="117" ht="20" customHeight="1">
       <c r="A117" t="s" s="3">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B117" t="s" s="4">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C117" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D117" t="s" s="4">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E117" t="s" s="4">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F117" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G117" s="4">
         <v>100</v>
@@ -7089,22 +7342,24 @@
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
     </row>
     <row r="118" ht="20" customHeight="1">
       <c r="A118" t="s" s="3">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B118" t="s" s="4">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C118" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s" s="4">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E118" t="s" s="4">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F118" s="4">
         <v>2</v>
@@ -7123,22 +7378,24 @@
       </c>
       <c r="K118" s="6"/>
       <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" t="s" s="3">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B119" t="s" s="4">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C119" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s" s="4">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E119" t="s" s="4">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F119" s="4">
         <v>3</v>
@@ -7157,22 +7414,24 @@
       </c>
       <c r="K119" s="6"/>
       <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
     </row>
     <row r="120" ht="20" customHeight="1">
       <c r="A120" t="s" s="3">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B120" t="s" s="4">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C120" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D120" t="s" s="4">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E120" t="s" s="4">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F120" s="4">
         <v>4</v>
@@ -7191,22 +7450,24 @@
       </c>
       <c r="K120" s="6"/>
       <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
     </row>
     <row r="121" ht="20" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B121" t="s" s="4">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C121" t="s" s="4">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D121" t="s" s="4">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E121" t="s" s="4">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F121" s="4">
         <v>3</v>
@@ -7225,22 +7486,24 @@
       </c>
       <c r="K121" s="6"/>
       <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
     </row>
     <row r="122" ht="20" customHeight="1">
       <c r="A122" t="s" s="3">
+        <v>431</v>
+      </c>
+      <c r="B122" t="s" s="4">
+        <v>432</v>
+      </c>
+      <c r="C122" t="s" s="4">
         <v>428</v>
       </c>
-      <c r="B122" t="s" s="4">
-        <v>429</v>
-      </c>
-      <c r="C122" t="s" s="4">
-        <v>425</v>
-      </c>
       <c r="D122" t="s" s="4">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E122" t="s" s="4">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F122" s="4">
         <v>2</v>
@@ -7259,22 +7522,24 @@
       </c>
       <c r="K122" s="6"/>
       <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
     </row>
     <row r="123" ht="20" customHeight="1">
       <c r="A123" t="s" s="3">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B123" t="s" s="4">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C123" t="s" s="4">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D123" t="s" s="4">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E123" t="s" s="4">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F123" s="4">
         <v>2</v>
@@ -7293,22 +7558,24 @@
       </c>
       <c r="K123" s="6"/>
       <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
     </row>
     <row r="124" ht="20" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B124" t="s" s="4">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C124" t="s" s="4">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D124" t="s" s="4">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E124" t="s" s="4">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F124" s="4">
         <v>3</v>
@@ -7327,22 +7594,24 @@
       </c>
       <c r="K124" s="6"/>
       <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
     </row>
     <row r="125" ht="20" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B125" t="s" s="4">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C125" t="s" s="4">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D125" t="s" s="4">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E125" t="s" s="4">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F125" s="4">
         <v>2</v>
@@ -7361,22 +7630,24 @@
       </c>
       <c r="K125" s="6"/>
       <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
     </row>
     <row r="126" ht="20" customHeight="1">
       <c r="A126" t="s" s="3">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B126" t="s" s="4">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C126" t="s" s="4">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D126" t="s" s="4">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E126" t="s" s="4">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F126" s="4">
         <v>3</v>
@@ -7395,22 +7666,24 @@
       </c>
       <c r="K126" s="6"/>
       <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
     </row>
     <row r="127" ht="20" customHeight="1">
       <c r="A127" t="s" s="3">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B127" t="s" s="4">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C127" t="s" s="4">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D127" t="s" s="4">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E127" t="s" s="4">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F127" s="4">
         <v>2</v>
@@ -7429,22 +7702,24 @@
       </c>
       <c r="K127" s="6"/>
       <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
     </row>
     <row r="128" ht="20" customHeight="1">
       <c r="A128" t="s" s="3">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B128" t="s" s="4">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C128" t="s" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s" s="4">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E128" t="s" s="4">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F128" s="4">
         <v>2</v>
@@ -7463,22 +7738,24 @@
       </c>
       <c r="K128" s="6"/>
       <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" t="s" s="3">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B129" t="s" s="4">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C129" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D129" t="s" s="4">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E129" t="s" s="4">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F129" s="4">
         <v>3</v>
@@ -7497,22 +7774,24 @@
       </c>
       <c r="K129" s="6"/>
       <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
     </row>
     <row r="130" ht="20" customHeight="1">
       <c r="A130" t="s" s="3">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B130" t="s" s="4">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C130" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D130" t="s" s="4">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E130" t="s" s="4">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F130" s="4">
         <v>3</v>
@@ -7531,22 +7810,24 @@
       </c>
       <c r="K130" s="6"/>
       <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
     </row>
     <row r="131" ht="20" customHeight="1">
       <c r="A131" t="s" s="3">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B131" t="s" s="4">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C131" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D131" t="s" s="4">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E131" t="s" s="4">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F131" s="4">
         <v>3</v>
@@ -7565,22 +7846,24 @@
       </c>
       <c r="K131" s="6"/>
       <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
     </row>
     <row r="132" ht="20" customHeight="1">
       <c r="A132" t="s" s="3">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B132" t="s" s="4">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C132" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D132" t="s" s="4">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E132" t="s" s="4">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F132" s="4">
         <v>3</v>
@@ -7599,22 +7882,24 @@
       </c>
       <c r="K132" s="6"/>
       <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
     </row>
     <row r="133" ht="20" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B133" t="s" s="4">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C133" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D133" t="s" s="4">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E133" t="s" s="4">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F133" s="4">
         <v>4</v>
@@ -7633,22 +7918,24 @@
       </c>
       <c r="K133" s="6"/>
       <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
     </row>
     <row r="134" ht="20" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B134" t="s" s="4">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C134" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D134" t="s" s="4">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E134" t="s" s="4">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F134" s="4">
         <v>5</v>
@@ -7667,22 +7954,24 @@
       </c>
       <c r="K134" s="6"/>
       <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
     </row>
     <row r="135" ht="20" customHeight="1">
       <c r="A135" t="s" s="3">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B135" t="s" s="4">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C135" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D135" t="s" s="4">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E135" t="s" s="4">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F135" s="4">
         <v>4</v>
@@ -7701,22 +7990,24 @@
       </c>
       <c r="K135" s="6"/>
       <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
     </row>
     <row r="136" ht="20" customHeight="1">
       <c r="A136" t="s" s="3">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B136" t="s" s="4">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C136" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D136" t="s" s="4">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E136" t="s" s="4">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F136" s="4">
         <v>5</v>
@@ -7735,22 +8026,24 @@
       </c>
       <c r="K136" s="6"/>
       <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
     </row>
     <row r="137" ht="20" customHeight="1">
       <c r="A137" t="s" s="3">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B137" t="s" s="4">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C137" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D137" t="s" s="4">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E137" t="s" s="4">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F137" s="4">
         <v>3</v>
@@ -7769,22 +8062,24 @@
       </c>
       <c r="K137" s="6"/>
       <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
     </row>
     <row r="138" ht="20" customHeight="1">
       <c r="A138" t="s" s="3">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B138" t="s" s="4">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C138" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D138" t="s" s="4">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E138" t="s" s="4">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F138" s="4">
         <v>4</v>
@@ -7803,22 +8098,24 @@
       </c>
       <c r="K138" s="6"/>
       <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
     </row>
     <row r="139" ht="20" customHeight="1">
       <c r="A139" t="s" s="3">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B139" t="s" s="4">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C139" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D139" t="s" s="4">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E139" t="s" s="4">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F139" s="4">
         <v>4</v>
@@ -7837,22 +8134,24 @@
       </c>
       <c r="K139" s="6"/>
       <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
     </row>
     <row r="140" ht="20" customHeight="1">
       <c r="A140" t="s" s="3">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B140" t="s" s="4">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C140" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D140" t="s" s="4">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E140" t="s" s="4">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F140" s="4">
         <v>3</v>
@@ -7871,22 +8170,24 @@
       </c>
       <c r="K140" s="6"/>
       <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
     </row>
     <row r="141" ht="20" customHeight="1">
       <c r="A141" t="s" s="3">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B141" t="s" s="4">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C141" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D141" t="s" s="4">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E141" t="s" s="4">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F141" s="4">
         <v>3</v>
@@ -7905,22 +8206,24 @@
       </c>
       <c r="K141" s="6"/>
       <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
     </row>
     <row r="142" ht="20" customHeight="1">
       <c r="A142" t="s" s="3">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B142" t="s" s="4">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C142" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D142" t="s" s="4">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E142" t="s" s="4">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F142" s="4">
         <v>4</v>
@@ -7939,22 +8242,24 @@
       </c>
       <c r="K142" s="6"/>
       <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
     </row>
     <row r="143" ht="20" customHeight="1">
       <c r="A143" t="s" s="3">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B143" t="s" s="4">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C143" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D143" t="s" s="4">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E143" t="s" s="4">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F143" s="4">
         <v>5</v>
@@ -7973,22 +8278,24 @@
       </c>
       <c r="K143" s="6"/>
       <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
     </row>
     <row r="144" ht="20" customHeight="1">
       <c r="A144" t="s" s="3">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B144" t="s" s="4">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C144" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D144" t="s" s="4">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E144" t="s" s="4">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F144" s="4">
         <v>5</v>
@@ -8007,22 +8314,24 @@
       </c>
       <c r="K144" s="6"/>
       <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
     </row>
     <row r="145" ht="20" customHeight="1">
       <c r="A145" t="s" s="3">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B145" t="s" s="4">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C145" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D145" t="s" s="4">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E145" t="s" s="4">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F145" s="4">
         <v>5</v>
@@ -8041,22 +8350,24 @@
       </c>
       <c r="K145" s="6"/>
       <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
     </row>
     <row r="146" ht="20" customHeight="1">
       <c r="A146" t="s" s="3">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B146" t="s" s="4">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C146" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D146" t="s" s="4">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E146" t="s" s="4">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F146" s="4">
         <v>5</v>
@@ -8075,22 +8386,24 @@
       </c>
       <c r="K146" s="6"/>
       <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
     </row>
     <row r="147" ht="20" customHeight="1">
       <c r="A147" t="s" s="3">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B147" t="s" s="4">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C147" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D147" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E147" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F147" s="4">
         <v>5</v>
@@ -8109,22 +8422,24 @@
       </c>
       <c r="K147" s="6"/>
       <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
     </row>
     <row r="148" ht="20" customHeight="1">
       <c r="A148" t="s" s="3">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B148" t="s" s="4">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C148" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D148" t="s" s="4">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E148" t="s" s="4">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F148" s="4">
         <v>5</v>
@@ -8143,22 +8458,24 @@
       </c>
       <c r="K148" s="6"/>
       <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
     </row>
     <row r="149" ht="20" customHeight="1">
       <c r="A149" t="s" s="3">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B149" t="s" s="4">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C149" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D149" t="s" s="4">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E149" t="s" s="4">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F149" s="4">
         <v>5</v>
@@ -8177,6 +8494,8 @@
       </c>
       <c r="K149" s="6"/>
       <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
     </row>
     <row r="150" ht="20" customHeight="1">
       <c r="A150" s="7"/>
@@ -8191,6 +8510,8 @@
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8237,105 +8558,105 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s" s="15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="s" s="15">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -8387,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="18">
         <v>100</v>
@@ -8424,13 +8745,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s" s="11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" s="18">
         <v>100</v>
       </c>
       <c r="J5" t="s" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5" s="19">
         <v>50</v>
@@ -8465,19 +8786,19 @@
         <v>2</v>
       </c>
       <c r="H6" t="s" s="11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="18">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" s="19">
         <v>10</v>
       </c>
       <c r="L6" t="s" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="20">
         <v>200</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="539">
   <si>
     <t>id</t>
   </si>
@@ -51,10 +51,16 @@
     <t>range</t>
   </si>
   <si>
-    <t>skill1</t>
-  </si>
-  <si>
-    <t>skill2</t>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>extval</t>
+  </si>
+  <si>
+    <t>missile</t>
   </si>
   <si>
     <t>int</t>
@@ -199,6 +205,9 @@
   </si>
   <si>
     <t>ヘビ</t>
+  </si>
+  <si>
+    <t>poison</t>
   </si>
   <si>
     <t>CENTIPEDE</t>
@@ -3086,7 +3095,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:P150"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3104,9 +3113,11 @@
     <col min="10" max="10" width="2.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="1" customWidth="1"/>
-    <col min="15" max="256" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.36719" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.40625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="1" customWidth="1"/>
+    <col min="17" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -3152,10 +3163,16 @@
       <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -3173,16 +3190,16 @@
         <v>8</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s" s="4">
         <v>8</v>
@@ -3194,24 +3211,30 @@
         <v>8</v>
       </c>
       <c r="N2" t="s" s="4">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="O2" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" t="s" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -3230,24 +3253,26 @@
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -3265,27 +3290,29 @@
         <v>1</v>
       </c>
       <c r="K4" t="s" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -3306,22 +3333,24 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -3342,22 +3371,24 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -3378,22 +3409,24 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -3411,31 +3444,33 @@
         <v>1</v>
       </c>
       <c r="K8" t="s" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" t="s" s="4">
-        <v>41</v>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -3454,24 +3489,26 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3492,22 +3529,24 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -3528,22 +3567,24 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3564,22 +3605,24 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -3598,24 +3641,30 @@
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="M13" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="N13" s="5">
+        <v>20</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3636,22 +3685,24 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3672,22 +3723,24 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -3708,22 +3761,24 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3744,22 +3799,24 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -3780,22 +3837,24 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3816,22 +3875,24 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -3852,22 +3913,24 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -3888,22 +3951,24 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -3924,22 +3989,24 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -3960,22 +4027,24 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s" s="4">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -3996,22 +4065,24 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" t="s" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s" s="4">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s" s="4">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
@@ -4032,22 +4103,24 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s" s="4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F26" s="4">
         <v>2</v>
@@ -4068,22 +4141,24 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s" s="4">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s" s="4">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -4104,22 +4179,24 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s" s="4">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
@@ -4140,22 +4217,24 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s" s="4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -4176,22 +4255,24 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s" s="4">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -4212,22 +4293,24 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s" s="4">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
@@ -4248,22 +4331,24 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -4284,22 +4369,24 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s" s="4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -4320,22 +4407,24 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s" s="4">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -4356,22 +4445,24 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" t="s" s="3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F35" s="4">
         <v>3</v>
@@ -4392,22 +4483,24 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s" s="4">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s" s="4">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F36" s="4">
         <v>3</v>
@@ -4428,22 +4521,24 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" t="s" s="3">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s" s="4">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s" s="4">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F37" s="4">
         <v>3</v>
@@ -4464,22 +4559,24 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" t="s" s="3">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s" s="4">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s" s="4">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F38" s="4">
         <v>3</v>
@@ -4500,22 +4597,24 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" t="s" s="3">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s" s="4">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s" s="4">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F39" s="4">
         <v>3</v>
@@ -4536,22 +4635,24 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" t="s" s="3">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s" s="4">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s" s="4">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F40" s="4">
         <v>3</v>
@@ -4572,22 +4673,24 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" t="s" s="3">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s" s="4">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s" s="4">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
@@ -4608,22 +4711,24 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F42" s="4">
         <v>3</v>
@@ -4644,22 +4749,24 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F43" s="4">
         <v>3</v>
@@ -4680,22 +4787,24 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" t="s" s="3">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s" s="4">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E44" t="s" s="4">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F44" s="4">
         <v>3</v>
@@ -4716,22 +4825,24 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" t="s" s="3">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s" s="4">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s" s="4">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F45" s="4">
         <v>3</v>
@@ -4752,22 +4863,24 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" t="s" s="3">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s" s="4">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E46" t="s" s="4">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F46" s="4">
         <v>3</v>
@@ -4788,22 +4901,24 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" t="s" s="3">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s" s="4">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
@@ -4824,22 +4939,24 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" t="s" s="3">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s" s="4">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E48" t="s" s="4">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F48" s="4">
         <v>4</v>
@@ -4860,22 +4977,24 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" t="s" s="3">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s" s="4">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s" s="4">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F49" s="4">
         <v>4</v>
@@ -4896,22 +5015,24 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s" s="4">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s" s="4">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F50" s="4">
         <v>4</v>
@@ -4932,22 +5053,24 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" t="s" s="3">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E51" t="s" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
@@ -4968,22 +5091,24 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" t="s" s="3">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s" s="4">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E52" t="s" s="4">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F52" s="4">
         <v>5</v>
@@ -5004,22 +5129,24 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" t="s" s="3">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s" s="4">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s" s="4">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F53" s="4">
         <v>4</v>
@@ -5040,22 +5167,24 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" t="s" s="3">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s" s="4">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s" s="4">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F54" s="4">
         <v>4</v>
@@ -5076,22 +5205,24 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" t="s" s="3">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s" s="4">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E55" t="s" s="4">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F55" s="4">
         <v>4</v>
@@ -5112,22 +5243,24 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" t="s" s="3">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s" s="4">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F56" s="4">
         <v>4</v>
@@ -5148,22 +5281,24 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D57" t="s" s="4">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s" s="4">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F57" s="4">
         <v>5</v>
@@ -5184,22 +5319,24 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" t="s" s="3">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s" s="4">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E58" t="s" s="4">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F58" s="4">
         <v>5</v>
@@ -5220,22 +5357,24 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" t="s" s="3">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s" s="4">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E59" t="s" s="4">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F59" s="4">
         <v>5</v>
@@ -5256,22 +5395,24 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" t="s" s="3">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s" s="4">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E60" t="s" s="4">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F60" s="4">
         <v>5</v>
@@ -5292,25 +5433,27 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" t="s" s="3">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s" s="4">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s" s="4">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F61" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G61" s="4">
         <v>100</v>
@@ -5328,25 +5471,27 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" t="s" s="3">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C62" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s" s="4">
+        <v>235</v>
+      </c>
+      <c r="E62" t="s" s="4">
+        <v>236</v>
+      </c>
+      <c r="F62" t="s" s="4">
         <v>232</v>
-      </c>
-      <c r="E62" t="s" s="4">
-        <v>233</v>
-      </c>
-      <c r="F62" t="s" s="4">
-        <v>229</v>
       </c>
       <c r="G62" s="4">
         <v>100</v>
@@ -5364,25 +5509,27 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" t="s" s="3">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C63" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s" s="4">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s" s="4">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G63" s="4">
         <v>100</v>
@@ -5400,25 +5547,27 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" t="s" s="3">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s" s="4">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E64" t="s" s="4">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F64" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G64" s="4">
         <v>100</v>
@@ -5436,25 +5585,27 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" t="s" s="3">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s" s="4">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E65" t="s" s="4">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F65" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G65" s="4">
         <v>100</v>
@@ -5472,25 +5623,27 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" t="s" s="3">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C66" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s" s="4">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E66" t="s" s="4">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F66" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G66" s="4">
         <v>100</v>
@@ -5508,25 +5661,27 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C67" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s" s="4">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E67" t="s" s="4">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F67" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G67" s="4">
         <v>100</v>
@@ -5544,25 +5699,27 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C68" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s" s="4">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E68" t="s" s="4">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G68" s="4">
         <v>100</v>
@@ -5580,25 +5737,27 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" t="s" s="3">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s" s="4">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E69" t="s" s="4">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F69" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G69" s="4">
         <v>100</v>
@@ -5616,25 +5775,27 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C70" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s" s="4">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E70" t="s" s="4">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F70" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G70" s="4">
         <v>100</v>
@@ -5652,22 +5813,24 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" t="s" s="3">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C71" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s" s="4">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E71" t="s" s="4">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F71" s="4">
         <v>3</v>
@@ -5688,22 +5851,24 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" t="s" s="3">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C72" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s" s="4">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E72" t="s" s="4">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F72" s="4">
         <v>3</v>
@@ -5724,22 +5889,24 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" t="s" s="3">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C73" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s" s="4">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E73" t="s" s="4">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F73" s="4">
         <v>4</v>
@@ -5760,22 +5927,24 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" t="s" s="3">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C74" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s" s="4">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E74" t="s" s="4">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
@@ -5796,22 +5965,24 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" t="s" s="3">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C75" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s" s="4">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E75" t="s" s="4">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F75" s="4">
         <v>2</v>
@@ -5832,22 +6003,24 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" t="s" s="3">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C76" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s" s="4">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E76" t="s" s="4">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F76" s="4">
         <v>2</v>
@@ -5868,22 +6041,24 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" t="s" s="3">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C77" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s" s="4">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E77" t="s" s="4">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F77" s="4">
         <v>3</v>
@@ -5904,22 +6079,24 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" t="s" s="3">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C78" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s" s="4">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E78" t="s" s="4">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F78" s="4">
         <v>3</v>
@@ -5940,22 +6117,24 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" t="s" s="3">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C79" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s" s="4">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E79" t="s" s="4">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F79" s="4">
         <v>3</v>
@@ -5976,22 +6155,24 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" t="s" s="3">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s" s="4">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E80" t="s" s="4">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F80" s="4">
         <v>3</v>
@@ -6012,25 +6193,27 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" t="s" s="3">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C81" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s" s="4">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s" s="4">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F81" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G81" s="4">
         <v>100</v>
@@ -6048,25 +6231,27 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" t="s" s="3">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C82" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s" s="4">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E82" t="s" s="4">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F82" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G82" s="4">
         <v>100</v>
@@ -6084,25 +6269,27 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" t="s" s="3">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s" s="4">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C83" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s" s="4">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E83" t="s" s="4">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G83" s="4">
         <v>100</v>
@@ -6120,25 +6307,27 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" t="s" s="3">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B84" t="s" s="4">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C84" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s" s="4">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E84" t="s" s="4">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F84" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G84" s="4">
         <v>100</v>
@@ -6156,25 +6345,27 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" t="s" s="3">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s" s="4">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C85" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s" s="4">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E85" t="s" s="4">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F85" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G85" s="4">
         <v>100</v>
@@ -6192,25 +6383,27 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" t="s" s="3">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s" s="4">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C86" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s" s="4">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E86" t="s" s="4">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F86" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G86" s="4">
         <v>100</v>
@@ -6228,25 +6421,27 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" t="s" s="3">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B87" t="s" s="4">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C87" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s" s="4">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E87" t="s" s="4">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F87" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G87" s="4">
         <v>100</v>
@@ -6264,25 +6459,27 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" t="s" s="3">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s" s="4">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C88" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s" s="4">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E88" t="s" s="4">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F88" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G88" s="4">
         <v>100</v>
@@ -6300,22 +6497,24 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" t="s" s="3">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B89" t="s" s="4">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C89" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s" s="4">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E89" t="s" s="4">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F89" s="4">
         <v>3</v>
@@ -6336,25 +6535,27 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B90" t="s" s="4">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C90" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s" s="4">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E90" t="s" s="4">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F90" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G90" s="4">
         <v>100</v>
@@ -6372,25 +6573,27 @@
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B91" t="s" s="4">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C91" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s" s="4">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E91" t="s" s="4">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F91" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G91" s="4">
         <v>100</v>
@@ -6408,22 +6611,24 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B92" t="s" s="4">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C92" t="s" s="4">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D92" t="s" s="4">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E92" t="s" s="4">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F92" s="4">
         <v>2</v>
@@ -6444,22 +6649,24 @@
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" t="s" s="3">
+        <v>338</v>
+      </c>
+      <c r="B93" t="s" s="4">
+        <v>339</v>
+      </c>
+      <c r="C93" t="s" s="4">
         <v>335</v>
       </c>
-      <c r="B93" t="s" s="4">
-        <v>336</v>
-      </c>
-      <c r="C93" t="s" s="4">
-        <v>332</v>
-      </c>
       <c r="D93" t="s" s="4">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E93" t="s" s="4">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F93" s="4">
         <v>2</v>
@@ -6480,25 +6687,27 @@
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" t="s" s="3">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B94" t="s" s="4">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C94" t="s" s="4">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D94" t="s" s="4">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E94" t="s" s="4">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F94" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G94" s="4">
         <v>100</v>
@@ -6516,25 +6725,27 @@
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" t="s" s="3">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B95" t="s" s="4">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C95" t="s" s="4">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D95" t="s" s="4">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E95" t="s" s="4">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F95" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G95" s="4">
         <v>100</v>
@@ -6552,22 +6763,24 @@
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B96" t="s" s="4">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C96" t="s" s="4">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D96" t="s" s="4">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E96" t="s" s="4">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F96" s="4">
         <v>4</v>
@@ -6588,22 +6801,24 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" t="s" s="3">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B97" t="s" s="4">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C97" t="s" s="4">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D97" t="s" s="4">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E97" t="s" s="4">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F97" s="4">
         <v>3</v>
@@ -6624,22 +6839,24 @@
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98" t="s" s="3">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B98" t="s" s="4">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C98" t="s" s="4">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D98" t="s" s="4">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E98" t="s" s="4">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F98" s="4">
         <v>2</v>
@@ -6660,25 +6877,27 @@
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99" t="s" s="3">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B99" t="s" s="4">
+        <v>358</v>
+      </c>
+      <c r="C99" t="s" s="4">
         <v>355</v>
       </c>
-      <c r="C99" t="s" s="4">
-        <v>352</v>
-      </c>
       <c r="D99" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E99" t="s" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F99" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G99" s="4">
         <v>100</v>
@@ -6696,22 +6915,24 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
     </row>
     <row r="100" ht="20" customHeight="1">
       <c r="A100" t="s" s="3">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B100" t="s" s="4">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C100" t="s" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D100" t="s" s="4">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E100" t="s" s="4">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F100" s="4">
         <v>3</v>
@@ -6732,22 +6953,24 @@
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
     </row>
     <row r="101" ht="20" customHeight="1">
       <c r="A101" t="s" s="3">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B101" t="s" s="4">
+        <v>365</v>
+      </c>
+      <c r="C101" t="s" s="4">
         <v>362</v>
       </c>
-      <c r="C101" t="s" s="4">
-        <v>359</v>
-      </c>
       <c r="D101" t="s" s="4">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E101" t="s" s="4">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F101" s="4">
         <v>4</v>
@@ -6768,22 +6991,24 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
     </row>
     <row r="102" ht="20" customHeight="1">
       <c r="A102" t="s" s="3">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B102" t="s" s="4">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C102" t="s" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D102" t="s" s="4">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E102" t="s" s="4">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F102" s="4">
         <v>4</v>
@@ -6804,22 +7029,24 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
     </row>
     <row r="103" ht="20" customHeight="1">
       <c r="A103" t="s" s="3">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B103" t="s" s="4">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C103" t="s" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D103" t="s" s="4">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E103" t="s" s="4">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F103" s="4">
         <v>2</v>
@@ -6840,22 +7067,24 @@
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
     </row>
     <row r="104" ht="20" customHeight="1">
       <c r="A104" t="s" s="3">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B104" t="s" s="4">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C104" t="s" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D104" t="s" s="4">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E104" t="s" s="4">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F104" s="4">
         <v>3</v>
@@ -6876,22 +7105,24 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
     </row>
     <row r="105" ht="20" customHeight="1">
       <c r="A105" t="s" s="3">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C105" t="s" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D105" t="s" s="4">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E105" t="s" s="4">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F105" s="4">
         <v>3</v>
@@ -6912,22 +7143,24 @@
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
     </row>
     <row r="106" ht="20" customHeight="1">
       <c r="A106" t="s" s="3">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B106" t="s" s="4">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C106" t="s" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D106" t="s" s="4">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E106" t="s" s="4">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F106" s="4">
         <v>4</v>
@@ -6948,22 +7181,24 @@
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
     </row>
     <row r="107" ht="20" customHeight="1">
       <c r="A107" t="s" s="3">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B107" t="s" s="4">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C107" t="s" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D107" t="s" s="4">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E107" t="s" s="4">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F107" s="4">
         <v>4</v>
@@ -6984,22 +7219,24 @@
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
     </row>
     <row r="108" ht="20" customHeight="1">
       <c r="A108" t="s" s="3">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B108" t="s" s="4">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C108" t="s" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D108" t="s" s="4">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E108" t="s" s="4">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F108" s="4">
         <v>2</v>
@@ -7020,22 +7257,24 @@
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109" t="s" s="3">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s" s="4">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C109" t="s" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D109" t="s" s="4">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E109" t="s" s="4">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F109" s="4">
         <v>2</v>
@@ -7056,25 +7295,27 @@
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" t="s" s="3">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B110" t="s" s="4">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C110" t="s" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D110" t="s" s="4">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E110" t="s" s="4">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F110" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G110" s="4">
         <v>100</v>
@@ -7092,25 +7333,27 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111" t="s" s="3">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B111" t="s" s="4">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C111" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s" s="4">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E111" t="s" s="4">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F111" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G111" s="4">
         <v>100</v>
@@ -7128,22 +7371,24 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112" t="s" s="3">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B112" t="s" s="4">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C112" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s" s="4">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E112" t="s" s="4">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F112" s="4">
         <v>2</v>
@@ -7164,22 +7409,24 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113" t="s" s="3">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B113" t="s" s="4">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C113" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s" s="4">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E113" t="s" s="4">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F113" s="4">
         <v>2</v>
@@ -7200,22 +7447,24 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
     </row>
     <row r="114" ht="20" customHeight="1">
       <c r="A114" t="s" s="3">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B114" t="s" s="4">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C114" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s" s="4">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E114" t="s" s="4">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F114" s="4">
         <v>2</v>
@@ -7236,22 +7485,24 @@
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
     </row>
     <row r="115" ht="20" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B115" t="s" s="4">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C115" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D115" t="s" s="4">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E115" t="s" s="4">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F115" s="4">
         <v>2</v>
@@ -7272,25 +7523,27 @@
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
     </row>
     <row r="116" ht="20" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B116" t="s" s="4">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C116" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s" s="4">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E116" t="s" s="4">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F116" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G116" s="4">
         <v>100</v>
@@ -7308,25 +7561,27 @@
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
     </row>
     <row r="117" ht="20" customHeight="1">
       <c r="A117" t="s" s="3">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B117" t="s" s="4">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C117" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s" s="4">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E117" t="s" s="4">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F117" t="s" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G117" s="4">
         <v>100</v>
@@ -7344,22 +7599,24 @@
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
     </row>
     <row r="118" ht="20" customHeight="1">
       <c r="A118" t="s" s="3">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B118" t="s" s="4">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C118" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D118" t="s" s="4">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E118" t="s" s="4">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F118" s="4">
         <v>2</v>
@@ -7380,22 +7637,24 @@
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" t="s" s="3">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B119" t="s" s="4">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C119" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s" s="4">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E119" t="s" s="4">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F119" s="4">
         <v>3</v>
@@ -7416,22 +7675,24 @@
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
     </row>
     <row r="120" ht="20" customHeight="1">
       <c r="A120" t="s" s="3">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B120" t="s" s="4">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C120" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D120" t="s" s="4">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E120" t="s" s="4">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F120" s="4">
         <v>4</v>
@@ -7452,22 +7713,24 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
     </row>
     <row r="121" ht="20" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B121" t="s" s="4">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C121" t="s" s="4">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D121" t="s" s="4">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E121" t="s" s="4">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F121" s="4">
         <v>3</v>
@@ -7488,22 +7751,24 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
     </row>
     <row r="122" ht="20" customHeight="1">
       <c r="A122" t="s" s="3">
+        <v>434</v>
+      </c>
+      <c r="B122" t="s" s="4">
+        <v>435</v>
+      </c>
+      <c r="C122" t="s" s="4">
         <v>431</v>
       </c>
-      <c r="B122" t="s" s="4">
-        <v>432</v>
-      </c>
-      <c r="C122" t="s" s="4">
-        <v>428</v>
-      </c>
       <c r="D122" t="s" s="4">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E122" t="s" s="4">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F122" s="4">
         <v>2</v>
@@ -7524,22 +7789,24 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
     </row>
     <row r="123" ht="20" customHeight="1">
       <c r="A123" t="s" s="3">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B123" t="s" s="4">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C123" t="s" s="4">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D123" t="s" s="4">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E123" t="s" s="4">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F123" s="4">
         <v>2</v>
@@ -7560,22 +7827,24 @@
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
     </row>
     <row r="124" ht="20" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B124" t="s" s="4">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C124" t="s" s="4">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D124" t="s" s="4">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E124" t="s" s="4">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F124" s="4">
         <v>3</v>
@@ -7596,22 +7865,24 @@
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
     </row>
     <row r="125" ht="20" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B125" t="s" s="4">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C125" t="s" s="4">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D125" t="s" s="4">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E125" t="s" s="4">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F125" s="4">
         <v>2</v>
@@ -7632,22 +7903,24 @@
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
     </row>
     <row r="126" ht="20" customHeight="1">
       <c r="A126" t="s" s="3">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B126" t="s" s="4">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C126" t="s" s="4">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D126" t="s" s="4">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E126" t="s" s="4">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F126" s="4">
         <v>3</v>
@@ -7668,22 +7941,24 @@
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
     </row>
     <row r="127" ht="20" customHeight="1">
       <c r="A127" t="s" s="3">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B127" t="s" s="4">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C127" t="s" s="4">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D127" t="s" s="4">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E127" t="s" s="4">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F127" s="4">
         <v>2</v>
@@ -7704,22 +7979,24 @@
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
     </row>
     <row r="128" ht="20" customHeight="1">
       <c r="A128" t="s" s="3">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B128" t="s" s="4">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C128" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D128" t="s" s="4">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E128" t="s" s="4">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F128" s="4">
         <v>2</v>
@@ -7740,22 +8017,24 @@
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" t="s" s="3">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B129" t="s" s="4">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C129" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D129" t="s" s="4">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E129" t="s" s="4">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F129" s="4">
         <v>3</v>
@@ -7776,22 +8055,24 @@
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
     </row>
     <row r="130" ht="20" customHeight="1">
       <c r="A130" t="s" s="3">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B130" t="s" s="4">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C130" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D130" t="s" s="4">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E130" t="s" s="4">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F130" s="4">
         <v>3</v>
@@ -7812,22 +8093,24 @@
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
     </row>
     <row r="131" ht="20" customHeight="1">
       <c r="A131" t="s" s="3">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B131" t="s" s="4">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C131" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D131" t="s" s="4">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E131" t="s" s="4">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F131" s="4">
         <v>3</v>
@@ -7848,22 +8131,24 @@
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
     </row>
     <row r="132" ht="20" customHeight="1">
       <c r="A132" t="s" s="3">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B132" t="s" s="4">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C132" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D132" t="s" s="4">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E132" t="s" s="4">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F132" s="4">
         <v>3</v>
@@ -7884,22 +8169,24 @@
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
     </row>
     <row r="133" ht="20" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B133" t="s" s="4">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C133" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D133" t="s" s="4">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E133" t="s" s="4">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F133" s="4">
         <v>4</v>
@@ -7920,22 +8207,24 @@
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
     </row>
     <row r="134" ht="20" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B134" t="s" s="4">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C134" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D134" t="s" s="4">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E134" t="s" s="4">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F134" s="4">
         <v>5</v>
@@ -7956,22 +8245,24 @@
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
     </row>
     <row r="135" ht="20" customHeight="1">
       <c r="A135" t="s" s="3">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B135" t="s" s="4">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C135" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D135" t="s" s="4">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E135" t="s" s="4">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F135" s="4">
         <v>4</v>
@@ -7992,22 +8283,24 @@
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
     </row>
     <row r="136" ht="20" customHeight="1">
       <c r="A136" t="s" s="3">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B136" t="s" s="4">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C136" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D136" t="s" s="4">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E136" t="s" s="4">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F136" s="4">
         <v>5</v>
@@ -8028,22 +8321,24 @@
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
     </row>
     <row r="137" ht="20" customHeight="1">
       <c r="A137" t="s" s="3">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B137" t="s" s="4">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C137" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D137" t="s" s="4">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E137" t="s" s="4">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F137" s="4">
         <v>3</v>
@@ -8064,22 +8359,24 @@
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
     </row>
     <row r="138" ht="20" customHeight="1">
       <c r="A138" t="s" s="3">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B138" t="s" s="4">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C138" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D138" t="s" s="4">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E138" t="s" s="4">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F138" s="4">
         <v>4</v>
@@ -8100,22 +8397,24 @@
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
     </row>
     <row r="139" ht="20" customHeight="1">
       <c r="A139" t="s" s="3">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B139" t="s" s="4">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C139" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D139" t="s" s="4">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E139" t="s" s="4">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F139" s="4">
         <v>4</v>
@@ -8136,22 +8435,24 @@
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
     </row>
     <row r="140" ht="20" customHeight="1">
       <c r="A140" t="s" s="3">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B140" t="s" s="4">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C140" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D140" t="s" s="4">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E140" t="s" s="4">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F140" s="4">
         <v>3</v>
@@ -8172,22 +8473,24 @@
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
     </row>
     <row r="141" ht="20" customHeight="1">
       <c r="A141" t="s" s="3">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B141" t="s" s="4">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C141" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D141" t="s" s="4">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E141" t="s" s="4">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F141" s="4">
         <v>3</v>
@@ -8208,22 +8511,24 @@
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
     </row>
     <row r="142" ht="20" customHeight="1">
       <c r="A142" t="s" s="3">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B142" t="s" s="4">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C142" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D142" t="s" s="4">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E142" t="s" s="4">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F142" s="4">
         <v>4</v>
@@ -8244,22 +8549,24 @@
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
     </row>
     <row r="143" ht="20" customHeight="1">
       <c r="A143" t="s" s="3">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B143" t="s" s="4">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C143" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D143" t="s" s="4">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E143" t="s" s="4">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F143" s="4">
         <v>5</v>
@@ -8280,22 +8587,24 @@
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
     </row>
     <row r="144" ht="20" customHeight="1">
       <c r="A144" t="s" s="3">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B144" t="s" s="4">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C144" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D144" t="s" s="4">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E144" t="s" s="4">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F144" s="4">
         <v>5</v>
@@ -8316,22 +8625,24 @@
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
     </row>
     <row r="145" ht="20" customHeight="1">
       <c r="A145" t="s" s="3">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B145" t="s" s="4">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C145" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D145" t="s" s="4">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E145" t="s" s="4">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F145" s="4">
         <v>5</v>
@@ -8352,22 +8663,24 @@
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
     </row>
     <row r="146" ht="20" customHeight="1">
       <c r="A146" t="s" s="3">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B146" t="s" s="4">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C146" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D146" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E146" t="s" s="4">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F146" s="4">
         <v>5</v>
@@ -8388,22 +8701,24 @@
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
     </row>
     <row r="147" ht="20" customHeight="1">
       <c r="A147" t="s" s="3">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B147" t="s" s="4">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C147" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D147" t="s" s="4">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E147" t="s" s="4">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F147" s="4">
         <v>5</v>
@@ -8424,22 +8739,24 @@
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
     </row>
     <row r="148" ht="20" customHeight="1">
       <c r="A148" t="s" s="3">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B148" t="s" s="4">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C148" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D148" t="s" s="4">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E148" t="s" s="4">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F148" s="4">
         <v>5</v>
@@ -8460,22 +8777,24 @@
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
     </row>
     <row r="149" ht="20" customHeight="1">
       <c r="A149" t="s" s="3">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B149" t="s" s="4">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C149" t="s" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D149" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E149" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F149" s="4">
         <v>5</v>
@@ -8496,6 +8815,8 @@
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
     </row>
     <row r="150" ht="20" customHeight="1">
       <c r="A150" s="7"/>
@@ -8512,6 +8833,8 @@
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8558,105 +8881,105 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P2" t="s" s="15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="s" s="15">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -8708,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="18">
         <v>100</v>
@@ -8745,13 +9068,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="18">
         <v>100</v>
       </c>
       <c r="J5" t="s" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" s="19">
         <v>50</v>
@@ -8786,19 +9109,19 @@
         <v>2</v>
       </c>
       <c r="H6" t="s" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" s="18">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="19">
         <v>10</v>
       </c>
       <c r="L6" t="s" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6" s="20">
         <v>200</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -102,15 +102,33 @@
     <t>キラービー</t>
   </si>
   <si>
+    <t>SPECTER</t>
+  </si>
+  <si>
+    <t>specter</t>
+  </si>
+  <si>
+    <t>悪霊</t>
+  </si>
+  <si>
+    <t>亡霊</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>WAND6</t>
+  </si>
+  <si>
     <t>SKELETON_DOG</t>
   </si>
   <si>
     <t>skeleton_dog</t>
   </si>
   <si>
-    <t>悪霊</t>
-  </si>
-  <si>
     <t>がいこつ犬</t>
   </si>
   <si>
@@ -127,24 +145,6 @@
   </si>
   <si>
     <t>スケルトン</t>
-  </si>
-  <si>
-    <t>SPECTER</t>
-  </si>
-  <si>
-    <t>specter</t>
-  </si>
-  <si>
-    <t>亡霊</t>
-  </si>
-  <si>
-    <t>escape</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>WAND6</t>
   </si>
   <si>
     <t>GNOLE1</t>
@@ -1733,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1756,13 +1756,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1782,6 +1808,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3350,45 +3382,51 @@
         <v>32</v>
       </c>
       <c r="E6" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s" s="4">
         <v>33</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>100</v>
-      </c>
-      <c r="H6" s="5">
-        <v>40</v>
-      </c>
-      <c r="I6" s="5">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="5"/>
+      <c r="L6" t="s" s="4">
+        <v>34</v>
+      </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" t="s" s="4">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="4">
         <v>31</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -3397,13 +3435,13 @@
         <v>100</v>
       </c>
       <c r="H7" s="5">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I7" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
@@ -3414,19 +3452,19 @@
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="4">
         <v>31</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -3435,7 +3473,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="5">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -3443,18 +3481,12 @@
       <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="L8" t="s" s="4">
-        <v>42</v>
-      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" t="s" s="4">
-        <v>43</v>
-      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="3">
@@ -3487,7 +3519,7 @@
       <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="5"/>
@@ -8819,7 +8851,7 @@
       <c r="P149" s="5"/>
     </row>
     <row r="150" ht="20" customHeight="1">
-      <c r="A150" s="7"/>
+      <c r="A150" s="9"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -8856,24 +8888,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4" style="8" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="3.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="3.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="2.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="3.25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="8" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="3.125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="2.375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="3.625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="2.375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="3.625" style="8" customWidth="1"/>
-    <col min="18" max="256" width="12.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="4" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="3.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="2.875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.8359" style="10" customWidth="1"/>
+    <col min="9" max="9" width="3.625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="10" customWidth="1"/>
+    <col min="11" max="11" width="3.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="3.125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="3.625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="2.375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="3.625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="2.375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="3.625" style="10" customWidth="1"/>
+    <col min="18" max="256" width="12.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -8933,52 +8965,52 @@
       <c r="A2" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="B2" t="s" s="9">
+      <c r="B2" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="E2" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="10">
+      <c r="F2" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="10">
+      <c r="G2" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="11">
+      <c r="H2" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="11">
+      <c r="I2" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="J2" t="s" s="12">
+      <c r="J2" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="K2" t="s" s="12">
+      <c r="K2" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="L2" t="s" s="13">
+      <c r="L2" t="s" s="15">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="13">
+      <c r="M2" t="s" s="15">
         <v>16</v>
       </c>
-      <c r="N2" t="s" s="14">
+      <c r="N2" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="O2" t="s" s="14">
+      <c r="O2" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="P2" t="s" s="15">
+      <c r="P2" t="s" s="17">
         <v>16</v>
       </c>
-      <c r="Q2" t="s" s="15">
+      <c r="Q2" t="s" s="17">
         <v>16</v>
       </c>
     </row>
@@ -8986,248 +9018,240 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="10">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="12">
         <v>0</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="H4" t="s" s="11">
+      <c r="H4" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="I4" s="18">
-        <v>100</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="I4" s="20">
+        <v>100</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <v>30</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>2</v>
       </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="11">
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="I5" s="18">
-        <v>100</v>
-      </c>
-      <c r="J5" t="s" s="12">
+      <c r="I5" s="20">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="21">
         <v>50</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>4</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="12">
         <v>30</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="12">
         <v>3</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="12">
         <v>2</v>
       </c>
-      <c r="H6" t="s" s="11">
+      <c r="H6" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="20">
         <v>30</v>
       </c>
-      <c r="J6" t="s" s="12">
+      <c r="J6" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="21">
         <v>10</v>
       </c>
-      <c r="L6" t="s" s="13">
+      <c r="L6" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="22">
         <v>200</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <f>C6+1</f>
         <v>5</v>
       </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18">
-        <v>100</v>
-      </c>
-      <c r="J7" s="19">
-        <v>2</v>
-      </c>
-      <c r="K7" s="19">
-        <v>100</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="E7" s="12">
+        <v>30</v>
+      </c>
+      <c r="F7" s="12">
         <v>3</v>
       </c>
-      <c r="M7" s="20">
-        <v>100</v>
-      </c>
-      <c r="N7" s="21">
-        <v>4</v>
-      </c>
-      <c r="O7" s="21">
-        <v>0</v>
-      </c>
-      <c r="P7" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>0</v>
-      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="I7" s="20">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="K7" s="21">
+        <v>100</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="11">
         <f>C7+1</f>
-        <v>11</v>
-      </c>
-      <c r="C8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
         <v>15</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18">
-        <v>100</v>
-      </c>
-      <c r="J8" s="19">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="20">
+        <v>100</v>
+      </c>
+      <c r="J8" s="21">
         <v>2</v>
       </c>
-      <c r="K8" s="19">
-        <v>100</v>
-      </c>
-      <c r="L8" s="20">
+      <c r="K8" s="21">
+        <v>100</v>
+      </c>
+      <c r="L8" s="22">
         <v>3</v>
       </c>
-      <c r="M8" s="20">
-        <v>100</v>
-      </c>
-      <c r="N8" s="21">
+      <c r="M8" s="22">
+        <v>100</v>
+      </c>
+      <c r="N8" s="23">
         <v>4</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="23">
         <v>0</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="24">
         <v>5</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9235,49 +9259,49 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="11">
         <f>C8+1</f>
         <v>16</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="11">
         <v>20</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="18">
-        <v>100</v>
-      </c>
-      <c r="J9" s="19">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20">
+        <v>100</v>
+      </c>
+      <c r="J9" s="21">
         <v>2</v>
       </c>
-      <c r="K9" s="19">
-        <v>100</v>
-      </c>
-      <c r="L9" s="20">
+      <c r="K9" s="21">
+        <v>100</v>
+      </c>
+      <c r="L9" s="22">
         <v>3</v>
       </c>
-      <c r="M9" s="20">
-        <v>100</v>
-      </c>
-      <c r="N9" s="21">
+      <c r="M9" s="22">
+        <v>100</v>
+      </c>
+      <c r="N9" s="23">
         <v>4</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="23">
         <v>0</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="24">
         <v>5</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9285,49 +9309,49 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="11">
         <f>C9+1</f>
         <v>21</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="11">
         <v>30</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="12">
         <v>2</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="18">
-        <v>100</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20">
+        <v>100</v>
+      </c>
+      <c r="J10" s="21">
         <v>2</v>
       </c>
-      <c r="K10" s="19">
-        <v>100</v>
-      </c>
-      <c r="L10" s="20">
+      <c r="K10" s="21">
+        <v>100</v>
+      </c>
+      <c r="L10" s="22">
         <v>3</v>
       </c>
-      <c r="M10" s="20">
-        <v>100</v>
-      </c>
-      <c r="N10" s="21">
+      <c r="M10" s="22">
+        <v>100</v>
+      </c>
+      <c r="N10" s="23">
         <v>4</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="23">
         <v>0</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="24">
         <v>5</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9335,49 +9359,49 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="11">
         <f>C10+1</f>
         <v>31</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="11">
         <v>40</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="18">
-        <v>100</v>
-      </c>
-      <c r="J11" s="19">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>100</v>
+      </c>
+      <c r="J11" s="21">
         <v>2</v>
       </c>
-      <c r="K11" s="19">
-        <v>100</v>
-      </c>
-      <c r="L11" s="20">
+      <c r="K11" s="21">
+        <v>100</v>
+      </c>
+      <c r="L11" s="22">
         <v>3</v>
       </c>
-      <c r="M11" s="20">
-        <v>100</v>
-      </c>
-      <c r="N11" s="21">
+      <c r="M11" s="22">
+        <v>100</v>
+      </c>
+      <c r="N11" s="23">
         <v>4</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="23">
         <v>0</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="24">
         <v>5</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9385,49 +9409,49 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="11">
         <f>C11+1</f>
         <v>41</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="11">
         <v>60</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="12">
         <v>2</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="18">
-        <v>100</v>
-      </c>
-      <c r="J12" s="19">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="20">
+        <v>100</v>
+      </c>
+      <c r="J12" s="21">
         <v>2</v>
       </c>
-      <c r="K12" s="19">
-        <v>100</v>
-      </c>
-      <c r="L12" s="20">
+      <c r="K12" s="21">
+        <v>100</v>
+      </c>
+      <c r="L12" s="22">
         <v>3</v>
       </c>
-      <c r="M12" s="20">
-        <v>100</v>
-      </c>
-      <c r="N12" s="21">
+      <c r="M12" s="22">
+        <v>100</v>
+      </c>
+      <c r="N12" s="23">
         <v>4</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="23">
         <v>0</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="24">
         <v>5</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9435,49 +9459,49 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="11">
         <f>C12+1</f>
         <v>61</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="11">
         <v>80</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="12">
         <v>2</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
-        <v>100</v>
-      </c>
-      <c r="J13" s="19">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="20">
+        <v>100</v>
+      </c>
+      <c r="J13" s="21">
         <v>2</v>
       </c>
-      <c r="K13" s="19">
-        <v>100</v>
-      </c>
-      <c r="L13" s="20">
+      <c r="K13" s="21">
+        <v>100</v>
+      </c>
+      <c r="L13" s="22">
         <v>3</v>
       </c>
-      <c r="M13" s="20">
-        <v>100</v>
-      </c>
-      <c r="N13" s="21">
+      <c r="M13" s="22">
+        <v>100</v>
+      </c>
+      <c r="N13" s="23">
         <v>4</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="23">
         <v>0</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="24">
         <v>5</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9485,49 +9509,49 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="11">
         <f>C13+1</f>
         <v>81</v>
       </c>
-      <c r="C14" s="9">
-        <v>100</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="11">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12">
         <v>2</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18">
-        <v>100</v>
-      </c>
-      <c r="J14" s="19">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
+        <v>100</v>
+      </c>
+      <c r="J14" s="21">
         <v>2</v>
       </c>
-      <c r="K14" s="19">
-        <v>100</v>
-      </c>
-      <c r="L14" s="20">
+      <c r="K14" s="21">
+        <v>100</v>
+      </c>
+      <c r="L14" s="22">
         <v>3</v>
       </c>
-      <c r="M14" s="20">
-        <v>100</v>
-      </c>
-      <c r="N14" s="21">
+      <c r="M14" s="22">
+        <v>100</v>
+      </c>
+      <c r="N14" s="23">
         <v>4</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="23">
         <v>0</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="24">
         <v>5</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9535,49 +9559,49 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="11">
         <f>C14+1</f>
         <v>101</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="11">
         <v>150</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="12">
         <v>2</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18">
-        <v>100</v>
-      </c>
-      <c r="J15" s="19">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20">
+        <v>100</v>
+      </c>
+      <c r="J15" s="21">
         <v>2</v>
       </c>
-      <c r="K15" s="19">
-        <v>100</v>
-      </c>
-      <c r="L15" s="20">
+      <c r="K15" s="21">
+        <v>100</v>
+      </c>
+      <c r="L15" s="22">
         <v>3</v>
       </c>
-      <c r="M15" s="20">
-        <v>100</v>
-      </c>
-      <c r="N15" s="21">
+      <c r="M15" s="22">
+        <v>100</v>
+      </c>
+      <c r="N15" s="23">
         <v>4</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <v>0</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="24">
         <v>5</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9585,49 +9609,49 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="11">
         <f>C15+1</f>
         <v>151</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="11">
         <v>200</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="12">
         <v>2</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="18">
-        <v>100</v>
-      </c>
-      <c r="J16" s="19">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20">
+        <v>100</v>
+      </c>
+      <c r="J16" s="21">
         <v>2</v>
       </c>
-      <c r="K16" s="19">
-        <v>100</v>
-      </c>
-      <c r="L16" s="20">
+      <c r="K16" s="21">
+        <v>100</v>
+      </c>
+      <c r="L16" s="22">
         <v>3</v>
       </c>
-      <c r="M16" s="20">
-        <v>100</v>
-      </c>
-      <c r="N16" s="21">
+      <c r="M16" s="22">
+        <v>100</v>
+      </c>
+      <c r="N16" s="23">
         <v>4</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="23">
         <v>0</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="24">
         <v>5</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q16" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9635,49 +9659,49 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="11">
         <f>C16+1</f>
         <v>201</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="11">
         <v>300</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="12">
         <v>2</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11">
-        <v>1</v>
-      </c>
-      <c r="I17" s="18">
-        <v>100</v>
-      </c>
-      <c r="J17" s="19">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="20">
+        <v>100</v>
+      </c>
+      <c r="J17" s="21">
         <v>2</v>
       </c>
-      <c r="K17" s="19">
-        <v>100</v>
-      </c>
-      <c r="L17" s="20">
+      <c r="K17" s="21">
+        <v>100</v>
+      </c>
+      <c r="L17" s="22">
         <v>3</v>
       </c>
-      <c r="M17" s="20">
-        <v>100</v>
-      </c>
-      <c r="N17" s="21">
+      <c r="M17" s="22">
+        <v>100</v>
+      </c>
+      <c r="N17" s="23">
         <v>4</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="23">
         <v>0</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P17" s="24">
         <v>5</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9685,49 +9709,49 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="11">
         <f>C17+1</f>
         <v>301</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="11">
         <v>400</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="12">
         <v>2</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="10">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="12">
         <v>19</v>
       </c>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="18">
-        <v>100</v>
-      </c>
-      <c r="J18" s="19">
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="20">
+        <v>100</v>
+      </c>
+      <c r="J18" s="21">
         <v>2</v>
       </c>
-      <c r="K18" s="19">
-        <v>100</v>
-      </c>
-      <c r="L18" s="20">
+      <c r="K18" s="21">
+        <v>100</v>
+      </c>
+      <c r="L18" s="22">
         <v>3</v>
       </c>
-      <c r="M18" s="20">
-        <v>100</v>
-      </c>
-      <c r="N18" s="21">
+      <c r="M18" s="22">
+        <v>100</v>
+      </c>
+      <c r="N18" s="23">
         <v>4</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="23">
         <v>0</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="24">
         <v>5</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9735,49 +9759,49 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="11">
         <f>C18+1</f>
         <v>401</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="11">
         <v>500</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="12">
         <v>2</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="10">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="12">
         <v>20</v>
       </c>
-      <c r="H19" s="11">
-        <v>1</v>
-      </c>
-      <c r="I19" s="18">
-        <v>100</v>
-      </c>
-      <c r="J19" s="19">
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="20">
+        <v>100</v>
+      </c>
+      <c r="J19" s="21">
         <v>2</v>
       </c>
-      <c r="K19" s="19">
-        <v>100</v>
-      </c>
-      <c r="L19" s="20">
+      <c r="K19" s="21">
+        <v>100</v>
+      </c>
+      <c r="L19" s="22">
         <v>3</v>
       </c>
-      <c r="M19" s="20">
-        <v>100</v>
-      </c>
-      <c r="N19" s="21">
+      <c r="M19" s="22">
+        <v>100</v>
+      </c>
+      <c r="N19" s="23">
         <v>4</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="23">
         <v>0</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="24">
         <v>5</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9785,49 +9809,49 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="11">
         <f>C19+1</f>
         <v>501</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="11">
         <v>700</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="12">
         <v>2</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="10">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="12">
         <v>21</v>
       </c>
-      <c r="H20" s="11">
-        <v>1</v>
-      </c>
-      <c r="I20" s="18">
-        <v>100</v>
-      </c>
-      <c r="J20" s="19">
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="20">
+        <v>100</v>
+      </c>
+      <c r="J20" s="21">
         <v>2</v>
       </c>
-      <c r="K20" s="19">
-        <v>100</v>
-      </c>
-      <c r="L20" s="20">
+      <c r="K20" s="21">
+        <v>100</v>
+      </c>
+      <c r="L20" s="22">
         <v>3</v>
       </c>
-      <c r="M20" s="20">
-        <v>100</v>
-      </c>
-      <c r="N20" s="21">
+      <c r="M20" s="22">
+        <v>100</v>
+      </c>
+      <c r="N20" s="23">
         <v>4</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="23">
         <v>0</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="24">
         <v>5</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9835,49 +9859,49 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="11">
         <f>C20+1</f>
         <v>701</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="11">
         <v>900</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="12">
         <v>2</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="10">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="12">
         <v>22</v>
       </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>100</v>
-      </c>
-      <c r="J21" s="19">
+      <c r="H21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="20">
+        <v>100</v>
+      </c>
+      <c r="J21" s="21">
         <v>2</v>
       </c>
-      <c r="K21" s="19">
-        <v>100</v>
-      </c>
-      <c r="L21" s="20">
+      <c r="K21" s="21">
+        <v>100</v>
+      </c>
+      <c r="L21" s="22">
         <v>3</v>
       </c>
-      <c r="M21" s="20">
-        <v>100</v>
-      </c>
-      <c r="N21" s="21">
+      <c r="M21" s="22">
+        <v>100</v>
+      </c>
+      <c r="N21" s="23">
         <v>4</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="23">
         <v>0</v>
       </c>
-      <c r="P21" s="22">
+      <c r="P21" s="24">
         <v>5</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9885,49 +9909,49 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="11">
         <f>C21+1</f>
         <v>901</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="11">
         <v>1000</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="12">
         <v>2</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="10">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="12">
         <v>23</v>
       </c>
-      <c r="H22" s="11">
-        <v>1</v>
-      </c>
-      <c r="I22" s="18">
-        <v>100</v>
-      </c>
-      <c r="J22" s="19">
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="20">
+        <v>100</v>
+      </c>
+      <c r="J22" s="21">
         <v>2</v>
       </c>
-      <c r="K22" s="19">
-        <v>100</v>
-      </c>
-      <c r="L22" s="20">
+      <c r="K22" s="21">
+        <v>100</v>
+      </c>
+      <c r="L22" s="22">
         <v>3</v>
       </c>
-      <c r="M22" s="20">
-        <v>100</v>
-      </c>
-      <c r="N22" s="21">
+      <c r="M22" s="22">
+        <v>100</v>
+      </c>
+      <c r="N22" s="23">
         <v>4</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="23">
         <v>0</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="24">
         <v>5</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9935,49 +9959,49 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="11">
         <f>C22+1</f>
         <v>1001</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="11">
         <v>10000</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="10">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="12">
         <v>24</v>
       </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="18">
-        <v>100</v>
-      </c>
-      <c r="J23" s="19">
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="20">
+        <v>100</v>
+      </c>
+      <c r="J23" s="21">
         <v>2</v>
       </c>
-      <c r="K23" s="19">
-        <v>100</v>
-      </c>
-      <c r="L23" s="20">
+      <c r="K23" s="21">
+        <v>100</v>
+      </c>
+      <c r="L23" s="22">
         <v>3</v>
       </c>
-      <c r="M23" s="20">
-        <v>100</v>
-      </c>
-      <c r="N23" s="21">
+      <c r="M23" s="22">
+        <v>100</v>
+      </c>
+      <c r="N23" s="23">
         <v>4</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="23">
         <v>0</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="24">
         <v>5</v>
       </c>
-      <c r="Q23" s="22"/>
+      <c r="Q23" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -114,49 +114,49 @@
     <t>亡霊</t>
   </si>
   <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>WAND6</t>
+  </si>
+  <si>
+    <t>SKELETON_DOG</t>
+  </si>
+  <si>
+    <t>skeleton_dog</t>
+  </si>
+  <si>
+    <t>がいこつ犬</t>
+  </si>
+  <si>
+    <t>ほねほねドック</t>
+  </si>
+  <si>
+    <t>SKELETON1</t>
+  </si>
+  <si>
+    <t>skeleton1</t>
+  </si>
+  <si>
+    <t>スケルトン1</t>
+  </si>
+  <si>
+    <t>スケルトン</t>
+  </si>
+  <si>
+    <t>GNOLE1</t>
+  </si>
+  <si>
+    <t>gnole1</t>
+  </si>
+  <si>
+    <t>ノール1</t>
+  </si>
+  <si>
+    <t>ノール</t>
+  </si>
+  <si>
     <t>escape</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>WAND6</t>
-  </si>
-  <si>
-    <t>SKELETON_DOG</t>
-  </si>
-  <si>
-    <t>skeleton_dog</t>
-  </si>
-  <si>
-    <t>がいこつ犬</t>
-  </si>
-  <si>
-    <t>ほねほねドック</t>
-  </si>
-  <si>
-    <t>SKELETON1</t>
-  </si>
-  <si>
-    <t>skeleton1</t>
-  </si>
-  <si>
-    <t>スケルトン1</t>
-  </si>
-  <si>
-    <t>スケルトン</t>
-  </si>
-  <si>
-    <t>GNOLE1</t>
-  </si>
-  <si>
-    <t>gnole1</t>
-  </si>
-  <si>
-    <t>ノール1</t>
-  </si>
-  <si>
-    <t>ノール</t>
   </si>
   <si>
     <t>ORC1</t>
@@ -1733,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1756,39 +1756,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1808,12 +1782,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3399,34 +3367,32 @@
       <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" t="s" s="4">
+      <c r="K6" s="6"/>
+      <c r="L6" t="s" s="4">
         <v>33</v>
-      </c>
-      <c r="L6" t="s" s="4">
-        <v>34</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" t="s" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="4">
         <v>36</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>37</v>
       </c>
       <c r="C7" t="s" s="4">
         <v>31</v>
       </c>
       <c r="D7" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s" s="4">
         <v>38</v>
-      </c>
-      <c r="E7" t="s" s="4">
-        <v>39</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -3452,19 +3418,19 @@
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="4">
         <v>40</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>41</v>
       </c>
       <c r="C8" t="s" s="4">
         <v>31</v>
       </c>
       <c r="D8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s" s="4">
         <v>42</v>
-      </c>
-      <c r="E8" t="s" s="4">
-        <v>43</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -3481,7 +3447,7 @@
       <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3490,19 +3456,19 @@
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s" s="4">
         <v>44</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>45</v>
       </c>
       <c r="C9" t="s" s="4">
         <v>31</v>
       </c>
       <c r="D9" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s" s="4">
         <v>46</v>
-      </c>
-      <c r="E9" t="s" s="4">
-        <v>47</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -3519,7 +3485,9 @@
       <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" t="s" s="4">
+        <v>47</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="5"/>
@@ -8851,7 +8819,7 @@
       <c r="P149" s="5"/>
     </row>
     <row r="150" ht="20" customHeight="1">
-      <c r="A150" s="9"/>
+      <c r="A150" s="7"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -8888,24 +8856,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="4" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="3.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="3.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="2.875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.8359" style="10" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="10" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="3.125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="2.375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="3.625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="2.375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="3.625" style="10" customWidth="1"/>
-    <col min="18" max="256" width="12.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="3.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="2.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.8359" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="3.625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="3.125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="3.625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="2.375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="3.625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="2.375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="3.625" style="8" customWidth="1"/>
+    <col min="18" max="256" width="12.25" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -8965,52 +8933,52 @@
       <c r="A2" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="B2" t="s" s="11">
+      <c r="B2" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="C2" t="s" s="11">
+      <c r="C2" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="12">
+      <c r="D2" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="E2" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="12">
+      <c r="F2" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="G2" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="13">
+      <c r="H2" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="13">
+      <c r="I2" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="J2" t="s" s="14">
+      <c r="J2" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="K2" t="s" s="14">
+      <c r="K2" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="L2" t="s" s="15">
+      <c r="L2" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="15">
+      <c r="M2" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="N2" t="s" s="16">
+      <c r="N2" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="O2" t="s" s="16">
+      <c r="O2" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="P2" t="s" s="17">
+      <c r="P2" t="s" s="15">
         <v>16</v>
       </c>
-      <c r="Q2" t="s" s="17">
+      <c r="Q2" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9018,240 +8986,240 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="12">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="10">
         <v>0</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="12">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="H4" t="s" s="13">
+      <c r="H4" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="I4" s="20">
-        <v>100</v>
-      </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="I4" s="18">
+        <v>100</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>30</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="13">
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="I5" s="20">
-        <v>100</v>
-      </c>
-      <c r="J5" t="s" s="14">
+      <c r="I5" s="18">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="19">
         <v>50</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>30</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" t="s" s="13">
+      <c r="H6" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>30</v>
       </c>
-      <c r="J6" t="s" s="14">
+      <c r="J6" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="19">
         <v>10</v>
       </c>
-      <c r="L6" t="s" s="15">
+      <c r="L6" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="20">
         <v>200</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <f>C6+1</f>
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>30</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="13">
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>30</v>
       </c>
-      <c r="J7" t="s" s="14">
+      <c r="J7" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="K7" s="21">
-        <v>100</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="K7" s="19">
+        <v>100</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f>C7+1</f>
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>15</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="20">
-        <v>100</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>100</v>
+      </c>
+      <c r="J8" s="19">
         <v>2</v>
       </c>
-      <c r="K8" s="21">
-        <v>100</v>
-      </c>
-      <c r="L8" s="22">
+      <c r="K8" s="19">
+        <v>100</v>
+      </c>
+      <c r="L8" s="20">
         <v>3</v>
       </c>
-      <c r="M8" s="22">
-        <v>100</v>
-      </c>
-      <c r="N8" s="23">
+      <c r="M8" s="20">
+        <v>100</v>
+      </c>
+      <c r="N8" s="21">
         <v>4</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="21">
         <v>0</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="22">
         <v>5</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9259,49 +9227,49 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <f>C8+1</f>
         <v>16</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>20</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="20">
-        <v>100</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>100</v>
+      </c>
+      <c r="J9" s="19">
         <v>2</v>
       </c>
-      <c r="K9" s="21">
-        <v>100</v>
-      </c>
-      <c r="L9" s="22">
+      <c r="K9" s="19">
+        <v>100</v>
+      </c>
+      <c r="L9" s="20">
         <v>3</v>
       </c>
-      <c r="M9" s="22">
-        <v>100</v>
-      </c>
-      <c r="N9" s="23">
+      <c r="M9" s="20">
+        <v>100</v>
+      </c>
+      <c r="N9" s="21">
         <v>4</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="21">
         <v>0</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="22">
         <v>5</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9309,49 +9277,49 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <f>C9+1</f>
         <v>21</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>30</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1</v>
-      </c>
-      <c r="I10" s="20">
-        <v>100</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18">
+        <v>100</v>
+      </c>
+      <c r="J10" s="19">
         <v>2</v>
       </c>
-      <c r="K10" s="21">
-        <v>100</v>
-      </c>
-      <c r="L10" s="22">
+      <c r="K10" s="19">
+        <v>100</v>
+      </c>
+      <c r="L10" s="20">
         <v>3</v>
       </c>
-      <c r="M10" s="22">
-        <v>100</v>
-      </c>
-      <c r="N10" s="23">
+      <c r="M10" s="20">
+        <v>100</v>
+      </c>
+      <c r="N10" s="21">
         <v>4</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="21">
         <v>0</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="22">
         <v>5</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9359,49 +9327,49 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <f>C10+1</f>
         <v>31</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>40</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>2</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>1</v>
-      </c>
-      <c r="I11" s="20">
-        <v>100</v>
-      </c>
-      <c r="J11" s="21">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18">
+        <v>100</v>
+      </c>
+      <c r="J11" s="19">
         <v>2</v>
       </c>
-      <c r="K11" s="21">
-        <v>100</v>
-      </c>
-      <c r="L11" s="22">
+      <c r="K11" s="19">
+        <v>100</v>
+      </c>
+      <c r="L11" s="20">
         <v>3</v>
       </c>
-      <c r="M11" s="22">
-        <v>100</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="M11" s="20">
+        <v>100</v>
+      </c>
+      <c r="N11" s="21">
         <v>4</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="21">
         <v>0</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="22">
         <v>5</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9409,49 +9377,49 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <f>C11+1</f>
         <v>41</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>60</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1</v>
-      </c>
-      <c r="I12" s="20">
-        <v>100</v>
-      </c>
-      <c r="J12" s="21">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
+        <v>100</v>
+      </c>
+      <c r="J12" s="19">
         <v>2</v>
       </c>
-      <c r="K12" s="21">
-        <v>100</v>
-      </c>
-      <c r="L12" s="22">
+      <c r="K12" s="19">
+        <v>100</v>
+      </c>
+      <c r="L12" s="20">
         <v>3</v>
       </c>
-      <c r="M12" s="22">
-        <v>100</v>
-      </c>
-      <c r="N12" s="23">
+      <c r="M12" s="20">
+        <v>100</v>
+      </c>
+      <c r="N12" s="21">
         <v>4</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="21">
         <v>0</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="22">
         <v>5</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9459,49 +9427,49 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <f>C12+1</f>
         <v>61</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>80</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="20">
-        <v>100</v>
-      </c>
-      <c r="J13" s="21">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <v>100</v>
+      </c>
+      <c r="J13" s="19">
         <v>2</v>
       </c>
-      <c r="K13" s="21">
-        <v>100</v>
-      </c>
-      <c r="L13" s="22">
+      <c r="K13" s="19">
+        <v>100</v>
+      </c>
+      <c r="L13" s="20">
         <v>3</v>
       </c>
-      <c r="M13" s="22">
-        <v>100</v>
-      </c>
-      <c r="N13" s="23">
+      <c r="M13" s="20">
+        <v>100</v>
+      </c>
+      <c r="N13" s="21">
         <v>4</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="21">
         <v>0</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="22">
         <v>5</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9509,49 +9477,49 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <f>C13+1</f>
         <v>81</v>
       </c>
-      <c r="C14" s="11">
-        <v>100</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="10">
         <v>2</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="12">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <v>1</v>
-      </c>
-      <c r="I14" s="20">
-        <v>100</v>
-      </c>
-      <c r="J14" s="21">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
+        <v>100</v>
+      </c>
+      <c r="J14" s="19">
         <v>2</v>
       </c>
-      <c r="K14" s="21">
-        <v>100</v>
-      </c>
-      <c r="L14" s="22">
+      <c r="K14" s="19">
+        <v>100</v>
+      </c>
+      <c r="L14" s="20">
         <v>3</v>
       </c>
-      <c r="M14" s="22">
-        <v>100</v>
-      </c>
-      <c r="N14" s="23">
+      <c r="M14" s="20">
+        <v>100</v>
+      </c>
+      <c r="N14" s="21">
         <v>4</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="21">
         <v>0</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="22">
         <v>5</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9559,49 +9527,49 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <f>C14+1</f>
         <v>101</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>150</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>2</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="12">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>1</v>
-      </c>
-      <c r="I15" s="20">
-        <v>100</v>
-      </c>
-      <c r="J15" s="21">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18">
+        <v>100</v>
+      </c>
+      <c r="J15" s="19">
         <v>2</v>
       </c>
-      <c r="K15" s="21">
-        <v>100</v>
-      </c>
-      <c r="L15" s="22">
+      <c r="K15" s="19">
+        <v>100</v>
+      </c>
+      <c r="L15" s="20">
         <v>3</v>
       </c>
-      <c r="M15" s="22">
-        <v>100</v>
-      </c>
-      <c r="N15" s="23">
+      <c r="M15" s="20">
+        <v>100</v>
+      </c>
+      <c r="N15" s="21">
         <v>4</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="21">
         <v>0</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="22">
         <v>5</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9609,49 +9577,49 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <f>C15+1</f>
         <v>151</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>200</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13">
-        <v>1</v>
-      </c>
-      <c r="I16" s="20">
-        <v>100</v>
-      </c>
-      <c r="J16" s="21">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>100</v>
+      </c>
+      <c r="J16" s="19">
         <v>2</v>
       </c>
-      <c r="K16" s="21">
-        <v>100</v>
-      </c>
-      <c r="L16" s="22">
+      <c r="K16" s="19">
+        <v>100</v>
+      </c>
+      <c r="L16" s="20">
         <v>3</v>
       </c>
-      <c r="M16" s="22">
-        <v>100</v>
-      </c>
-      <c r="N16" s="23">
+      <c r="M16" s="20">
+        <v>100</v>
+      </c>
+      <c r="N16" s="21">
         <v>4</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="21">
         <v>0</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="22">
         <v>5</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9659,49 +9627,49 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <f>C16+1</f>
         <v>201</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>300</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>2</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
-        <v>1</v>
-      </c>
-      <c r="I17" s="20">
-        <v>100</v>
-      </c>
-      <c r="J17" s="21">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18">
+        <v>100</v>
+      </c>
+      <c r="J17" s="19">
         <v>2</v>
       </c>
-      <c r="K17" s="21">
-        <v>100</v>
-      </c>
-      <c r="L17" s="22">
+      <c r="K17" s="19">
+        <v>100</v>
+      </c>
+      <c r="L17" s="20">
         <v>3</v>
       </c>
-      <c r="M17" s="22">
-        <v>100</v>
-      </c>
-      <c r="N17" s="23">
+      <c r="M17" s="20">
+        <v>100</v>
+      </c>
+      <c r="N17" s="21">
         <v>4</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="21">
         <v>0</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="22">
         <v>5</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9709,49 +9677,49 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <f>C17+1</f>
         <v>301</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>400</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>2</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="12">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="10">
         <v>19</v>
       </c>
-      <c r="H18" s="13">
-        <v>1</v>
-      </c>
-      <c r="I18" s="20">
-        <v>100</v>
-      </c>
-      <c r="J18" s="21">
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18">
+        <v>100</v>
+      </c>
+      <c r="J18" s="19">
         <v>2</v>
       </c>
-      <c r="K18" s="21">
-        <v>100</v>
-      </c>
-      <c r="L18" s="22">
+      <c r="K18" s="19">
+        <v>100</v>
+      </c>
+      <c r="L18" s="20">
         <v>3</v>
       </c>
-      <c r="M18" s="22">
-        <v>100</v>
-      </c>
-      <c r="N18" s="23">
+      <c r="M18" s="20">
+        <v>100</v>
+      </c>
+      <c r="N18" s="21">
         <v>4</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="21">
         <v>0</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="22">
         <v>5</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9759,49 +9727,49 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <f>C18+1</f>
         <v>401</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>500</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>2</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="12">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="10">
         <v>20</v>
       </c>
-      <c r="H19" s="13">
-        <v>1</v>
-      </c>
-      <c r="I19" s="20">
-        <v>100</v>
-      </c>
-      <c r="J19" s="21">
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18">
+        <v>100</v>
+      </c>
+      <c r="J19" s="19">
         <v>2</v>
       </c>
-      <c r="K19" s="21">
-        <v>100</v>
-      </c>
-      <c r="L19" s="22">
+      <c r="K19" s="19">
+        <v>100</v>
+      </c>
+      <c r="L19" s="20">
         <v>3</v>
       </c>
-      <c r="M19" s="22">
-        <v>100</v>
-      </c>
-      <c r="N19" s="23">
+      <c r="M19" s="20">
+        <v>100</v>
+      </c>
+      <c r="N19" s="21">
         <v>4</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="21">
         <v>0</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="22">
         <v>5</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9809,49 +9777,49 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <f>C19+1</f>
         <v>501</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>700</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>2</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="12">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="10">
         <v>21</v>
       </c>
-      <c r="H20" s="13">
-        <v>1</v>
-      </c>
-      <c r="I20" s="20">
-        <v>100</v>
-      </c>
-      <c r="J20" s="21">
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18">
+        <v>100</v>
+      </c>
+      <c r="J20" s="19">
         <v>2</v>
       </c>
-      <c r="K20" s="21">
-        <v>100</v>
-      </c>
-      <c r="L20" s="22">
+      <c r="K20" s="19">
+        <v>100</v>
+      </c>
+      <c r="L20" s="20">
         <v>3</v>
       </c>
-      <c r="M20" s="22">
-        <v>100</v>
-      </c>
-      <c r="N20" s="23">
+      <c r="M20" s="20">
+        <v>100</v>
+      </c>
+      <c r="N20" s="21">
         <v>4</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="21">
         <v>0</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="22">
         <v>5</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9859,49 +9827,49 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <f>C20+1</f>
         <v>701</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>900</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>2</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="12">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="10">
         <v>22</v>
       </c>
-      <c r="H21" s="13">
-        <v>1</v>
-      </c>
-      <c r="I21" s="20">
-        <v>100</v>
-      </c>
-      <c r="J21" s="21">
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18">
+        <v>100</v>
+      </c>
+      <c r="J21" s="19">
         <v>2</v>
       </c>
-      <c r="K21" s="21">
-        <v>100</v>
-      </c>
-      <c r="L21" s="22">
+      <c r="K21" s="19">
+        <v>100</v>
+      </c>
+      <c r="L21" s="20">
         <v>3</v>
       </c>
-      <c r="M21" s="22">
-        <v>100</v>
-      </c>
-      <c r="N21" s="23">
+      <c r="M21" s="20">
+        <v>100</v>
+      </c>
+      <c r="N21" s="21">
         <v>4</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="21">
         <v>0</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="22">
         <v>5</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9909,49 +9877,49 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <f>C21+1</f>
         <v>901</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>1000</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>2</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="12">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="10">
         <v>23</v>
       </c>
-      <c r="H22" s="13">
-        <v>1</v>
-      </c>
-      <c r="I22" s="20">
-        <v>100</v>
-      </c>
-      <c r="J22" s="21">
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18">
+        <v>100</v>
+      </c>
+      <c r="J22" s="19">
         <v>2</v>
       </c>
-      <c r="K22" s="21">
-        <v>100</v>
-      </c>
-      <c r="L22" s="22">
+      <c r="K22" s="19">
+        <v>100</v>
+      </c>
+      <c r="L22" s="20">
         <v>3</v>
       </c>
-      <c r="M22" s="22">
-        <v>100</v>
-      </c>
-      <c r="N22" s="23">
+      <c r="M22" s="20">
+        <v>100</v>
+      </c>
+      <c r="N22" s="21">
         <v>4</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="21">
         <v>0</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="22">
         <v>5</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="22">
         <v>0</v>
       </c>
     </row>
@@ -9959,49 +9927,49 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <f>C22+1</f>
         <v>1001</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>10000</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>2</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="12">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="10">
         <v>24</v>
       </c>
-      <c r="H23" s="13">
-        <v>1</v>
-      </c>
-      <c r="I23" s="20">
-        <v>100</v>
-      </c>
-      <c r="J23" s="21">
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18">
+        <v>100</v>
+      </c>
+      <c r="J23" s="19">
         <v>2</v>
       </c>
-      <c r="K23" s="21">
-        <v>100</v>
-      </c>
-      <c r="L23" s="22">
+      <c r="K23" s="19">
+        <v>100</v>
+      </c>
+      <c r="L23" s="20">
         <v>3</v>
       </c>
-      <c r="M23" s="22">
-        <v>100</v>
-      </c>
-      <c r="N23" s="23">
+      <c r="M23" s="20">
+        <v>100</v>
+      </c>
+      <c r="N23" s="21">
         <v>4</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="21">
         <v>0</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="22">
         <v>5</v>
       </c>
-      <c r="Q23" s="24"/>
+      <c r="Q23" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -1762,7 +1762,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1837,6 +1837,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3398,16 +3401,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H7" s="5">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I7" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
@@ -3436,16 +3439,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H8" s="5">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="I8" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="5"/>
@@ -8863,13 +8866,13 @@
     <col min="5" max="5" width="3.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="3.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="2.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.8359" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="8" customWidth="1"/>
     <col min="9" max="9" width="3.625" style="8" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="8" customWidth="1"/>
     <col min="11" max="11" width="3.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="3.125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11" style="8" customWidth="1"/>
     <col min="13" max="13" width="3.625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="2.375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="3.125" style="8" customWidth="1"/>
     <col min="15" max="15" width="3.625" style="8" customWidth="1"/>
     <col min="16" max="16" width="2.375" style="8" customWidth="1"/>
     <col min="17" max="17" width="3.625" style="8" customWidth="1"/>
@@ -9164,12 +9167,20 @@
         <v>29</v>
       </c>
       <c r="K7" s="19">
-        <v>100</v>
-      </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+        <v>80</v>
+      </c>
+      <c r="L7" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="M7" s="20">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="O7" s="21">
+        <v>50</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
     </row>
@@ -9182,46 +9193,46 @@
         <v>6</v>
       </c>
       <c r="C8" s="9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="10">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3</v>
+      </c>
       <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H8" t="s" s="25">
+        <v>39</v>
       </c>
       <c r="I8" s="18">
-        <v>100</v>
-      </c>
-      <c r="J8" s="19">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="J8" t="s" s="12">
+        <v>29</v>
       </c>
       <c r="K8" s="19">
-        <v>100</v>
-      </c>
-      <c r="L8" s="20">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="L8" t="s" s="13">
+        <v>35</v>
       </c>
       <c r="M8" s="20">
-        <v>100</v>
-      </c>
-      <c r="N8" s="21">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="N8" t="s" s="14">
+        <v>26</v>
       </c>
       <c r="O8" s="21">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="3">
@@ -9229,7 +9240,7 @@
       </c>
       <c r="B9" s="9">
         <f>C8+1</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9" s="9">
         <v>20</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -8426,13 +8426,13 @@
         <v>100</v>
       </c>
       <c r="H139" s="5">
-        <v>1370</v>
+        <v>30</v>
       </c>
       <c r="I139" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J139" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K139" s="6"/>
       <c r="L139" s="5"/>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="enemy" sheetId="1" r:id="rId4"/>
     <sheet name="enemy_appear" sheetId="2" r:id="rId5"/>
+    <sheet name="enemy_nightmare" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
   <si>
     <t>id</t>
   </si>
@@ -1630,6 +1631,9 @@
   </si>
   <si>
     <t>e4_r</t>
+  </si>
+  <si>
+    <t>enemy_id</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1766,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1840,6 +1844,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9989,4 +9996,206 @@
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.4922" style="26" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="26" customWidth="1"/>
+    <col min="4" max="256" width="12.25" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>490</v>
+      </c>
+      <c r="C3" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>502</v>
+      </c>
+      <c r="C4" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>505</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>508</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>511</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>514</v>
+      </c>
+      <c r="C8" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>517</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>520</v>
+      </c>
+      <c r="C10" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>470</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>474</v>
+      </c>
+      <c r="C12" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>478</v>
+      </c>
+      <c r="C13" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>481</v>
+      </c>
+      <c r="C14" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>484</v>
+      </c>
+      <c r="C15" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>487</v>
+      </c>
+      <c r="C16" s="4">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -10056,7 +10056,7 @@
         <v>502</v>
       </c>
       <c r="C4" s="4">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -10067,7 +10067,7 @@
         <v>505</v>
       </c>
       <c r="C5" s="4">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -10078,7 +10078,7 @@
         <v>508</v>
       </c>
       <c r="C6" s="4">
-        <v>20</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -10089,7 +10089,7 @@
         <v>511</v>
       </c>
       <c r="C7" s="4">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -10100,7 +10100,7 @@
         <v>514</v>
       </c>
       <c r="C8" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -10111,7 +10111,7 @@
         <v>517</v>
       </c>
       <c r="C9" s="4">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -10122,7 +10122,7 @@
         <v>520</v>
       </c>
       <c r="C10" s="4">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -10133,7 +10133,7 @@
         <v>470</v>
       </c>
       <c r="C11" s="4">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -10144,7 +10144,7 @@
         <v>474</v>
       </c>
       <c r="C12" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -10155,7 +10155,7 @@
         <v>478</v>
       </c>
       <c r="C13" s="4">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -10166,7 +10166,7 @@
         <v>481</v>
       </c>
       <c r="C14" s="4">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -10177,7 +10177,7 @@
         <v>484</v>
       </c>
       <c r="C15" s="4">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -10188,7 +10188,7 @@
         <v>487</v>
       </c>
       <c r="C16" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="541">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>vit</t>
   </si>
   <si>
+    <t>fly</t>
+  </si>
+  <si>
     <t>move</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t>extval</t>
   </si>
   <si>
-    <t>missile</t>
+    <t>firearm</t>
   </si>
   <si>
     <t>int</t>
@@ -259,6 +262,9 @@
     <t>ゴースト</t>
   </si>
   <si>
+    <t>wall</t>
+  </si>
+  <si>
     <t>ZOMBIE</t>
   </si>
   <si>
@@ -1205,9 +1211,6 @@
   </si>
   <si>
     <t>FLY</t>
-  </si>
-  <si>
-    <t>fly</t>
   </si>
   <si>
     <t>ハエ</t>
@@ -3105,7 +3108,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P150"/>
+  <dimension ref="A1:Q150"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3121,13 +3124,14 @@
     <col min="8" max="8" width="4" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.36719" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.40625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.125" style="1" customWidth="1"/>
-    <col min="17" max="256" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.36719" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.40625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="1" customWidth="1"/>
+    <col min="18" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -3179,10 +3183,13 @@
       <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -3200,16 +3207,16 @@
         <v>8</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s" s="4">
         <v>8</v>
@@ -3221,30 +3228,33 @@
         <v>8</v>
       </c>
       <c r="N2" t="s" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O2" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -3261,28 +3271,31 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5"/>
+      <c r="K3" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" t="s" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -3299,30 +3312,31 @@
       <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="L4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" t="s" s="4">
+        <v>26</v>
+      </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="5"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -3339,28 +3353,31 @@
       <c r="J5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
+      <c r="K5" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="6"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -3377,32 +3394,35 @@
       <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
+      <c r="K6" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="6"/>
-      <c r="P6" t="s" s="4">
-        <v>34</v>
+      <c r="P6" s="6"/>
+      <c r="Q6" t="s" s="4">
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -3420,27 +3440,28 @@
         <v>1</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -3458,27 +3479,28 @@
         <v>0</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -3495,30 +3517,31 @@
       <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="L9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" t="s" s="4">
+        <v>48</v>
+      </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3536,27 +3559,28 @@
         <v>1</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -3574,27 +3598,28 @@
         <v>1</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3612,27 +3637,28 @@
         <v>1</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -3650,31 +3676,32 @@
         <v>1</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="5"/>
-      <c r="M13" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="L13" s="6"/>
+      <c r="M13" s="5"/>
+      <c r="N13" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="O13" s="5">
         <v>20</v>
       </c>
-      <c r="O13" s="5"/>
       <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3692,27 +3719,28 @@
         <v>1</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3730,27 +3758,28 @@
         <v>3</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -3768,27 +3797,28 @@
         <v>2</v>
       </c>
       <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3806,27 +3836,28 @@
         <v>5</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -3843,28 +3874,31 @@
       <c r="J18" s="5">
         <v>1</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
+      <c r="K18" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="L18" s="6"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3882,27 +3916,28 @@
         <v>1</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -3920,27 +3955,28 @@
         <v>1</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -3958,27 +3994,28 @@
         <v>1</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -3996,27 +4033,28 @@
         <v>1</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -4034,27 +4072,28 @@
         <v>1</v>
       </c>
       <c r="K23" s="6"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -4072,27 +4111,28 @@
         <v>1</v>
       </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" t="s" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
@@ -4110,27 +4150,28 @@
         <v>1</v>
       </c>
       <c r="K25" s="6"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F26" s="4">
         <v>2</v>
@@ -4148,27 +4189,28 @@
         <v>1</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -4186,27 +4228,28 @@
         <v>1</v>
       </c>
       <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
@@ -4224,27 +4267,28 @@
         <v>1</v>
       </c>
       <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s" s="4">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -4262,27 +4306,28 @@
         <v>1</v>
       </c>
       <c r="K29" s="6"/>
-      <c r="L29" s="5"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -4300,27 +4345,28 @@
         <v>1</v>
       </c>
       <c r="K30" s="6"/>
-      <c r="L30" s="5"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s" s="4">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
@@ -4338,27 +4384,28 @@
         <v>1</v>
       </c>
       <c r="K31" s="6"/>
-      <c r="L31" s="5"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -4376,27 +4423,28 @@
         <v>1</v>
       </c>
       <c r="K32" s="6"/>
-      <c r="L32" s="5"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s" s="4">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -4414,27 +4462,28 @@
         <v>1</v>
       </c>
       <c r="K33" s="6"/>
-      <c r="L33" s="5"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s" s="4">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -4452,27 +4501,28 @@
         <v>1</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="5"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" t="s" s="3">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s" s="4">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s" s="4">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F35" s="4">
         <v>3</v>
@@ -4490,27 +4540,28 @@
         <v>1</v>
       </c>
       <c r="K35" s="6"/>
-      <c r="L35" s="5"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s" s="4">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s" s="4">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F36" s="4">
         <v>3</v>
@@ -4528,27 +4579,28 @@
         <v>1</v>
       </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="5"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" t="s" s="3">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s" s="4">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s" s="4">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F37" s="4">
         <v>3</v>
@@ -4566,27 +4618,28 @@
         <v>1</v>
       </c>
       <c r="K37" s="6"/>
-      <c r="L37" s="5"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" t="s" s="3">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s" s="4">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s" s="4">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F38" s="4">
         <v>3</v>
@@ -4604,27 +4657,28 @@
         <v>1</v>
       </c>
       <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" t="s" s="3">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s" s="4">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s" s="4">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F39" s="4">
         <v>3</v>
@@ -4642,27 +4696,28 @@
         <v>1</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="5"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" t="s" s="3">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s" s="4">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s" s="4">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F40" s="4">
         <v>3</v>
@@ -4680,27 +4735,28 @@
         <v>1</v>
       </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="5"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" t="s" s="3">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s" s="4">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s" s="4">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
@@ -4718,27 +4774,28 @@
         <v>1</v>
       </c>
       <c r="K41" s="6"/>
-      <c r="L41" s="5"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E42" t="s" s="4">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F42" s="4">
         <v>3</v>
@@ -4756,27 +4813,28 @@
         <v>1</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="5"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E43" t="s" s="4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F43" s="4">
         <v>3</v>
@@ -4794,27 +4852,28 @@
         <v>1</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="5"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" t="s" s="3">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s" s="4">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s" s="4">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F44" s="4">
         <v>3</v>
@@ -4832,27 +4891,28 @@
         <v>1</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="5"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" t="s" s="3">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s" s="4">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s" s="4">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F45" s="4">
         <v>3</v>
@@ -4870,27 +4930,28 @@
         <v>1</v>
       </c>
       <c r="K45" s="6"/>
-      <c r="L45" s="5"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" t="s" s="3">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s" s="4">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s" s="4">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F46" s="4">
         <v>3</v>
@@ -4908,27 +4969,28 @@
         <v>1</v>
       </c>
       <c r="K46" s="6"/>
-      <c r="L46" s="5"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s" s="4">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E47" t="s" s="4">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
@@ -4946,27 +5008,28 @@
         <v>1</v>
       </c>
       <c r="K47" s="6"/>
-      <c r="L47" s="5"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" t="s" s="3">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s" s="4">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s" s="4">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F48" s="4">
         <v>4</v>
@@ -4984,27 +5047,28 @@
         <v>1</v>
       </c>
       <c r="K48" s="6"/>
-      <c r="L48" s="5"/>
+      <c r="L48" s="6"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" t="s" s="3">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s" s="4">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s" s="4">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F49" s="4">
         <v>4</v>
@@ -5022,27 +5086,28 @@
         <v>1</v>
       </c>
       <c r="K49" s="6"/>
-      <c r="L49" s="5"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s" s="4">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s" s="4">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F50" s="4">
         <v>4</v>
@@ -5060,27 +5125,28 @@
         <v>1</v>
       </c>
       <c r="K50" s="6"/>
-      <c r="L50" s="5"/>
+      <c r="L50" s="6"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" t="s" s="3">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s" s="4">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E51" t="s" s="4">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
@@ -5098,27 +5164,28 @@
         <v>1</v>
       </c>
       <c r="K51" s="6"/>
-      <c r="L51" s="5"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" t="s" s="3">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s" s="4">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E52" t="s" s="4">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F52" s="4">
         <v>5</v>
@@ -5136,27 +5203,28 @@
         <v>1</v>
       </c>
       <c r="K52" s="6"/>
-      <c r="L52" s="5"/>
+      <c r="L52" s="6"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" t="s" s="3">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s" s="4">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E53" t="s" s="4">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F53" s="4">
         <v>4</v>
@@ -5174,27 +5242,28 @@
         <v>1</v>
       </c>
       <c r="K53" s="6"/>
-      <c r="L53" s="5"/>
+      <c r="L53" s="6"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" t="s" s="3">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s" s="4">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E54" t="s" s="4">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F54" s="4">
         <v>4</v>
@@ -5212,27 +5281,28 @@
         <v>1</v>
       </c>
       <c r="K54" s="6"/>
-      <c r="L54" s="5"/>
+      <c r="L54" s="6"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" t="s" s="3">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s" s="4">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E55" t="s" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F55" s="4">
         <v>4</v>
@@ -5250,27 +5320,28 @@
         <v>1</v>
       </c>
       <c r="K55" s="6"/>
-      <c r="L55" s="5"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" t="s" s="3">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s" s="4">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E56" t="s" s="4">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F56" s="4">
         <v>4</v>
@@ -5288,27 +5359,28 @@
         <v>1</v>
       </c>
       <c r="K56" s="6"/>
-      <c r="L56" s="5"/>
+      <c r="L56" s="6"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s" s="4">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E57" t="s" s="4">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F57" s="4">
         <v>5</v>
@@ -5326,27 +5398,28 @@
         <v>1</v>
       </c>
       <c r="K57" s="6"/>
-      <c r="L57" s="5"/>
+      <c r="L57" s="6"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" t="s" s="3">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C58" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s" s="4">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s" s="4">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F58" s="4">
         <v>5</v>
@@ -5364,27 +5437,28 @@
         <v>1</v>
       </c>
       <c r="K58" s="6"/>
-      <c r="L58" s="5"/>
+      <c r="L58" s="6"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" t="s" s="3">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s" s="4">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E59" t="s" s="4">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F59" s="4">
         <v>5</v>
@@ -5402,27 +5476,28 @@
         <v>1</v>
       </c>
       <c r="K59" s="6"/>
-      <c r="L59" s="5"/>
+      <c r="L59" s="6"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" t="s" s="3">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C60" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s" s="4">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s" s="4">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F60" s="4">
         <v>5</v>
@@ -5440,30 +5515,31 @@
         <v>1</v>
       </c>
       <c r="K60" s="6"/>
-      <c r="L60" s="5"/>
+      <c r="L60" s="6"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" t="s" s="3">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C61" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s" s="4">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E61" t="s" s="4">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F61" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G61" s="4">
         <v>100</v>
@@ -5478,30 +5554,31 @@
         <v>1</v>
       </c>
       <c r="K61" s="6"/>
-      <c r="L61" s="5"/>
+      <c r="L61" s="6"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" t="s" s="3">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s" s="4">
+        <v>236</v>
+      </c>
+      <c r="C62" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s" s="4">
+        <v>237</v>
+      </c>
+      <c r="E62" t="s" s="4">
+        <v>238</v>
+      </c>
+      <c r="F62" t="s" s="4">
         <v>234</v>
-      </c>
-      <c r="C62" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="D62" t="s" s="4">
-        <v>235</v>
-      </c>
-      <c r="E62" t="s" s="4">
-        <v>236</v>
-      </c>
-      <c r="F62" t="s" s="4">
-        <v>232</v>
       </c>
       <c r="G62" s="4">
         <v>100</v>
@@ -5516,30 +5593,31 @@
         <v>1</v>
       </c>
       <c r="K62" s="6"/>
-      <c r="L62" s="5"/>
+      <c r="L62" s="6"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" t="s" s="3">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s" s="4">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E63" t="s" s="4">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F63" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G63" s="4">
         <v>100</v>
@@ -5554,30 +5632,31 @@
         <v>1</v>
       </c>
       <c r="K63" s="6"/>
-      <c r="L63" s="5"/>
+      <c r="L63" s="6"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" t="s" s="3">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s" s="4">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E64" t="s" s="4">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F64" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G64" s="4">
         <v>100</v>
@@ -5592,30 +5671,31 @@
         <v>1</v>
       </c>
       <c r="K64" s="6"/>
-      <c r="L64" s="5"/>
+      <c r="L64" s="6"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" t="s" s="3">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s" s="4">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s" s="4">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F65" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G65" s="4">
         <v>100</v>
@@ -5630,30 +5710,31 @@
         <v>1</v>
       </c>
       <c r="K65" s="6"/>
-      <c r="L65" s="5"/>
+      <c r="L65" s="6"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" t="s" s="3">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C66" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s" s="4">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E66" t="s" s="4">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F66" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G66" s="4">
         <v>100</v>
@@ -5668,30 +5749,31 @@
         <v>1</v>
       </c>
       <c r="K66" s="6"/>
-      <c r="L66" s="5"/>
+      <c r="L66" s="6"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C67" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s" s="4">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E67" t="s" s="4">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F67" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G67" s="4">
         <v>100</v>
@@ -5706,30 +5788,31 @@
         <v>1</v>
       </c>
       <c r="K67" s="6"/>
-      <c r="L67" s="5"/>
+      <c r="L67" s="6"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C68" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s" s="4">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E68" t="s" s="4">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F68" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G68" s="4">
         <v>100</v>
@@ -5744,30 +5827,31 @@
         <v>1</v>
       </c>
       <c r="K68" s="6"/>
-      <c r="L68" s="5"/>
+      <c r="L68" s="6"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" t="s" s="3">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s" s="4">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E69" t="s" s="4">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F69" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G69" s="4">
         <v>100</v>
@@ -5782,30 +5866,31 @@
         <v>1</v>
       </c>
       <c r="K69" s="6"/>
-      <c r="L69" s="5"/>
+      <c r="L69" s="6"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C70" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s" s="4">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E70" t="s" s="4">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F70" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G70" s="4">
         <v>100</v>
@@ -5820,27 +5905,28 @@
         <v>1</v>
       </c>
       <c r="K70" s="6"/>
-      <c r="L70" s="5"/>
+      <c r="L70" s="6"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" t="s" s="3">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C71" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s" s="4">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E71" t="s" s="4">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F71" s="4">
         <v>3</v>
@@ -5858,27 +5944,28 @@
         <v>1</v>
       </c>
       <c r="K71" s="6"/>
-      <c r="L71" s="5"/>
+      <c r="L71" s="6"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" t="s" s="3">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s" s="4">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E72" t="s" s="4">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F72" s="4">
         <v>3</v>
@@ -5896,27 +5983,28 @@
         <v>1</v>
       </c>
       <c r="K72" s="6"/>
-      <c r="L72" s="5"/>
+      <c r="L72" s="6"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" t="s" s="3">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C73" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s" s="4">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E73" t="s" s="4">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F73" s="4">
         <v>4</v>
@@ -5934,27 +6022,28 @@
         <v>1</v>
       </c>
       <c r="K73" s="6"/>
-      <c r="L73" s="5"/>
+      <c r="L73" s="6"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" t="s" s="3">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C74" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s" s="4">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s" s="4">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
@@ -5972,27 +6061,28 @@
         <v>1</v>
       </c>
       <c r="K74" s="6"/>
-      <c r="L74" s="5"/>
+      <c r="L74" s="6"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" t="s" s="3">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C75" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s" s="4">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s" s="4">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F75" s="4">
         <v>2</v>
@@ -6010,27 +6100,28 @@
         <v>1</v>
       </c>
       <c r="K75" s="6"/>
-      <c r="L75" s="5"/>
+      <c r="L75" s="6"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" t="s" s="3">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C76" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s" s="4">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E76" t="s" s="4">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F76" s="4">
         <v>2</v>
@@ -6048,27 +6139,28 @@
         <v>1</v>
       </c>
       <c r="K76" s="6"/>
-      <c r="L76" s="5"/>
+      <c r="L76" s="6"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" t="s" s="3">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C77" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s" s="4">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E77" t="s" s="4">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F77" s="4">
         <v>3</v>
@@ -6086,27 +6178,28 @@
         <v>1</v>
       </c>
       <c r="K77" s="6"/>
-      <c r="L77" s="5"/>
+      <c r="L77" s="6"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" t="s" s="3">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s" s="4">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s" s="4">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F78" s="4">
         <v>3</v>
@@ -6124,27 +6217,28 @@
         <v>1</v>
       </c>
       <c r="K78" s="6"/>
-      <c r="L78" s="5"/>
+      <c r="L78" s="6"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" t="s" s="3">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C79" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s" s="4">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E79" t="s" s="4">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F79" s="4">
         <v>3</v>
@@ -6162,27 +6256,28 @@
         <v>1</v>
       </c>
       <c r="K79" s="6"/>
-      <c r="L79" s="5"/>
+      <c r="L79" s="6"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" t="s" s="3">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C80" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s" s="4">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E80" t="s" s="4">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F80" s="4">
         <v>3</v>
@@ -6200,30 +6295,31 @@
         <v>1</v>
       </c>
       <c r="K80" s="6"/>
-      <c r="L80" s="5"/>
+      <c r="L80" s="6"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" t="s" s="3">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C81" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s" s="4">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E81" t="s" s="4">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F81" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G81" s="4">
         <v>100</v>
@@ -6238,30 +6334,31 @@
         <v>1</v>
       </c>
       <c r="K81" s="6"/>
-      <c r="L81" s="5"/>
+      <c r="L81" s="6"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C82" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s" s="4">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E82" t="s" s="4">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F82" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G82" s="4">
         <v>100</v>
@@ -6276,30 +6373,31 @@
         <v>1</v>
       </c>
       <c r="K82" s="6"/>
-      <c r="L82" s="5"/>
+      <c r="L82" s="6"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" t="s" s="3">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B83" t="s" s="4">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C83" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s" s="4">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E83" t="s" s="4">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F83" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G83" s="4">
         <v>100</v>
@@ -6314,30 +6412,31 @@
         <v>1</v>
       </c>
       <c r="K83" s="6"/>
-      <c r="L83" s="5"/>
+      <c r="L83" s="6"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" t="s" s="3">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s" s="4">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C84" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s" s="4">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E84" t="s" s="4">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F84" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G84" s="4">
         <v>100</v>
@@ -6352,30 +6451,31 @@
         <v>1</v>
       </c>
       <c r="K84" s="6"/>
-      <c r="L84" s="5"/>
+      <c r="L84" s="6"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" t="s" s="3">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B85" t="s" s="4">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C85" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s" s="4">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E85" t="s" s="4">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F85" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G85" s="4">
         <v>100</v>
@@ -6390,30 +6490,31 @@
         <v>1</v>
       </c>
       <c r="K85" s="6"/>
-      <c r="L85" s="5"/>
+      <c r="L85" s="6"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" t="s" s="3">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B86" t="s" s="4">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C86" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" t="s" s="4">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E86" t="s" s="4">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F86" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G86" s="4">
         <v>100</v>
@@ -6428,30 +6529,31 @@
         <v>1</v>
       </c>
       <c r="K86" s="6"/>
-      <c r="L86" s="5"/>
+      <c r="L86" s="6"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" t="s" s="3">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B87" t="s" s="4">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C87" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s" s="4">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E87" t="s" s="4">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F87" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G87" s="4">
         <v>100</v>
@@ -6466,30 +6568,31 @@
         <v>1</v>
       </c>
       <c r="K87" s="6"/>
-      <c r="L87" s="5"/>
+      <c r="L87" s="6"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" t="s" s="3">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B88" t="s" s="4">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C88" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s" s="4">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E88" t="s" s="4">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F88" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G88" s="4">
         <v>100</v>
@@ -6504,27 +6607,28 @@
         <v>1</v>
       </c>
       <c r="K88" s="6"/>
-      <c r="L88" s="5"/>
+      <c r="L88" s="6"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" t="s" s="3">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B89" t="s" s="4">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C89" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s" s="4">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E89" t="s" s="4">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F89" s="4">
         <v>3</v>
@@ -6542,30 +6646,31 @@
         <v>1</v>
       </c>
       <c r="K89" s="6"/>
-      <c r="L89" s="5"/>
+      <c r="L89" s="6"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B90" t="s" s="4">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s" s="4">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E90" t="s" s="4">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F90" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G90" s="4">
         <v>100</v>
@@ -6580,30 +6685,31 @@
         <v>1</v>
       </c>
       <c r="K90" s="6"/>
-      <c r="L90" s="5"/>
+      <c r="L90" s="6"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B91" t="s" s="4">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C91" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s" s="4">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E91" t="s" s="4">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F91" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G91" s="4">
         <v>100</v>
@@ -6618,27 +6724,28 @@
         <v>1</v>
       </c>
       <c r="K91" s="6"/>
-      <c r="L91" s="5"/>
+      <c r="L91" s="6"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B92" t="s" s="4">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C92" t="s" s="4">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D92" t="s" s="4">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E92" t="s" s="4">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F92" s="4">
         <v>2</v>
@@ -6656,27 +6763,28 @@
         <v>1</v>
       </c>
       <c r="K92" s="6"/>
-      <c r="L92" s="5"/>
+      <c r="L92" s="6"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" t="s" s="3">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B93" t="s" s="4">
+        <v>341</v>
+      </c>
+      <c r="C93" t="s" s="4">
+        <v>337</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>339</v>
       </c>
-      <c r="C93" t="s" s="4">
-        <v>335</v>
-      </c>
-      <c r="D93" t="s" s="4">
-        <v>337</v>
-      </c>
       <c r="E93" t="s" s="4">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F93" s="4">
         <v>2</v>
@@ -6694,30 +6802,31 @@
         <v>1</v>
       </c>
       <c r="K93" s="6"/>
-      <c r="L93" s="5"/>
+      <c r="L93" s="6"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" t="s" s="3">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B94" t="s" s="4">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C94" t="s" s="4">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D94" t="s" s="4">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E94" t="s" s="4">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F94" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G94" s="4">
         <v>100</v>
@@ -6732,30 +6841,31 @@
         <v>1</v>
       </c>
       <c r="K94" s="6"/>
-      <c r="L94" s="5"/>
+      <c r="L94" s="6"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" t="s" s="3">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B95" t="s" s="4">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C95" t="s" s="4">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D95" t="s" s="4">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E95" t="s" s="4">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F95" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G95" s="4">
         <v>100</v>
@@ -6770,27 +6880,28 @@
         <v>1</v>
       </c>
       <c r="K95" s="6"/>
-      <c r="L95" s="5"/>
+      <c r="L95" s="6"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B96" t="s" s="4">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C96" t="s" s="4">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D96" t="s" s="4">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E96" t="s" s="4">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F96" s="4">
         <v>4</v>
@@ -6808,27 +6919,28 @@
         <v>1</v>
       </c>
       <c r="K96" s="6"/>
-      <c r="L96" s="5"/>
+      <c r="L96" s="6"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" t="s" s="3">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B97" t="s" s="4">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C97" t="s" s="4">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D97" t="s" s="4">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E97" t="s" s="4">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F97" s="4">
         <v>3</v>
@@ -6846,27 +6958,28 @@
         <v>1</v>
       </c>
       <c r="K97" s="6"/>
-      <c r="L97" s="5"/>
+      <c r="L97" s="6"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98" t="s" s="3">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s" s="4">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C98" t="s" s="4">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D98" t="s" s="4">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E98" t="s" s="4">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F98" s="4">
         <v>2</v>
@@ -6884,30 +6997,31 @@
         <v>1</v>
       </c>
       <c r="K98" s="6"/>
-      <c r="L98" s="5"/>
+      <c r="L98" s="6"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99" t="s" s="3">
+        <v>359</v>
+      </c>
+      <c r="B99" t="s" s="4">
+        <v>360</v>
+      </c>
+      <c r="C99" t="s" s="4">
         <v>357</v>
       </c>
-      <c r="B99" t="s" s="4">
-        <v>358</v>
-      </c>
-      <c r="C99" t="s" s="4">
-        <v>355</v>
-      </c>
       <c r="D99" t="s" s="4">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E99" t="s" s="4">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F99" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G99" s="4">
         <v>100</v>
@@ -6922,27 +7036,28 @@
         <v>1</v>
       </c>
       <c r="K99" s="6"/>
-      <c r="L99" s="5"/>
+      <c r="L99" s="6"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
     </row>
     <row r="100" ht="20" customHeight="1">
       <c r="A100" t="s" s="3">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B100" t="s" s="4">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C100" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D100" t="s" s="4">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E100" t="s" s="4">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F100" s="4">
         <v>3</v>
@@ -6960,27 +7075,28 @@
         <v>1</v>
       </c>
       <c r="K100" s="6"/>
-      <c r="L100" s="5"/>
+      <c r="L100" s="6"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
     </row>
     <row r="101" ht="20" customHeight="1">
       <c r="A101" t="s" s="3">
+        <v>366</v>
+      </c>
+      <c r="B101" t="s" s="4">
+        <v>367</v>
+      </c>
+      <c r="C101" t="s" s="4">
         <v>364</v>
       </c>
-      <c r="B101" t="s" s="4">
-        <v>365</v>
-      </c>
-      <c r="C101" t="s" s="4">
-        <v>362</v>
-      </c>
       <c r="D101" t="s" s="4">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E101" t="s" s="4">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F101" s="4">
         <v>4</v>
@@ -6998,27 +7114,28 @@
         <v>1</v>
       </c>
       <c r="K101" s="6"/>
-      <c r="L101" s="5"/>
+      <c r="L101" s="6"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
     </row>
     <row r="102" ht="20" customHeight="1">
       <c r="A102" t="s" s="3">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B102" t="s" s="4">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C102" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D102" t="s" s="4">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E102" t="s" s="4">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F102" s="4">
         <v>4</v>
@@ -7036,27 +7153,28 @@
         <v>1</v>
       </c>
       <c r="K102" s="6"/>
-      <c r="L102" s="5"/>
+      <c r="L102" s="6"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
     </row>
     <row r="103" ht="20" customHeight="1">
       <c r="A103" t="s" s="3">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B103" t="s" s="4">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C103" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D103" t="s" s="4">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E103" t="s" s="4">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F103" s="4">
         <v>2</v>
@@ -7074,27 +7192,28 @@
         <v>1</v>
       </c>
       <c r="K103" s="6"/>
-      <c r="L103" s="5"/>
+      <c r="L103" s="6"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
     </row>
     <row r="104" ht="20" customHeight="1">
       <c r="A104" t="s" s="3">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B104" t="s" s="4">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C104" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D104" t="s" s="4">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E104" t="s" s="4">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F104" s="4">
         <v>3</v>
@@ -7112,27 +7231,28 @@
         <v>1</v>
       </c>
       <c r="K104" s="6"/>
-      <c r="L104" s="5"/>
+      <c r="L104" s="6"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
     </row>
     <row r="105" ht="20" customHeight="1">
       <c r="A105" t="s" s="3">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C105" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D105" t="s" s="4">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E105" t="s" s="4">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F105" s="4">
         <v>3</v>
@@ -7150,27 +7270,28 @@
         <v>1</v>
       </c>
       <c r="K105" s="6"/>
-      <c r="L105" s="5"/>
+      <c r="L105" s="6"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
     </row>
     <row r="106" ht="20" customHeight="1">
       <c r="A106" t="s" s="3">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B106" t="s" s="4">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C106" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D106" t="s" s="4">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E106" t="s" s="4">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F106" s="4">
         <v>4</v>
@@ -7188,27 +7309,28 @@
         <v>1</v>
       </c>
       <c r="K106" s="6"/>
-      <c r="L106" s="5"/>
+      <c r="L106" s="6"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
     </row>
     <row r="107" ht="20" customHeight="1">
       <c r="A107" t="s" s="3">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B107" t="s" s="4">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C107" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D107" t="s" s="4">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E107" t="s" s="4">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F107" s="4">
         <v>4</v>
@@ -7226,27 +7348,28 @@
         <v>1</v>
       </c>
       <c r="K107" s="6"/>
-      <c r="L107" s="5"/>
+      <c r="L107" s="6"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
     </row>
     <row r="108" ht="20" customHeight="1">
       <c r="A108" t="s" s="3">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B108" t="s" s="4">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C108" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D108" t="s" s="4">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E108" t="s" s="4">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F108" s="4">
         <v>2</v>
@@ -7264,27 +7387,28 @@
         <v>1</v>
       </c>
       <c r="K108" s="6"/>
-      <c r="L108" s="5"/>
+      <c r="L108" s="6"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109" t="s" s="3">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B109" t="s" s="4">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C109" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D109" t="s" s="4">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E109" t="s" s="4">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F109" s="4">
         <v>2</v>
@@ -7302,30 +7426,31 @@
         <v>1</v>
       </c>
       <c r="K109" s="6"/>
-      <c r="L109" s="5"/>
+      <c r="L109" s="6"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" t="s" s="3">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B110" t="s" s="4">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C110" t="s" s="4">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D110" t="s" s="4">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E110" t="s" s="4">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F110" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G110" s="4">
         <v>100</v>
@@ -7340,30 +7465,31 @@
         <v>1</v>
       </c>
       <c r="K110" s="6"/>
-      <c r="L110" s="5"/>
+      <c r="L110" s="6"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111" t="s" s="3">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B111" t="s" s="4">
-        <v>397</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s" s="4">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E111" t="s" s="4">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F111" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G111" s="4">
         <v>100</v>
@@ -7378,27 +7504,28 @@
         <v>1</v>
       </c>
       <c r="K111" s="6"/>
-      <c r="L111" s="5"/>
+      <c r="L111" s="6"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112" t="s" s="3">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B112" t="s" s="4">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C112" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s" s="4">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E112" t="s" s="4">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F112" s="4">
         <v>2</v>
@@ -7416,27 +7543,28 @@
         <v>1</v>
       </c>
       <c r="K112" s="6"/>
-      <c r="L112" s="5"/>
+      <c r="L112" s="6"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113" t="s" s="3">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B113" t="s" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C113" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s" s="4">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E113" t="s" s="4">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F113" s="4">
         <v>2</v>
@@ -7454,27 +7582,28 @@
         <v>1</v>
       </c>
       <c r="K113" s="6"/>
-      <c r="L113" s="5"/>
+      <c r="L113" s="6"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
     </row>
     <row r="114" ht="20" customHeight="1">
       <c r="A114" t="s" s="3">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B114" t="s" s="4">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C114" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E114" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F114" s="4">
         <v>2</v>
@@ -7492,27 +7621,28 @@
         <v>1</v>
       </c>
       <c r="K114" s="6"/>
-      <c r="L114" s="5"/>
+      <c r="L114" s="6"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
     </row>
     <row r="115" ht="20" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B115" t="s" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C115" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s" s="4">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E115" t="s" s="4">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F115" s="4">
         <v>2</v>
@@ -7530,30 +7660,31 @@
         <v>1</v>
       </c>
       <c r="K115" s="6"/>
-      <c r="L115" s="5"/>
+      <c r="L115" s="6"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
     </row>
     <row r="116" ht="20" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B116" t="s" s="4">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C116" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s" s="4">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E116" t="s" s="4">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F116" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G116" s="4">
         <v>100</v>
@@ -7568,30 +7699,31 @@
         <v>1</v>
       </c>
       <c r="K116" s="6"/>
-      <c r="L116" s="5"/>
+      <c r="L116" s="6"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
     </row>
     <row r="117" ht="20" customHeight="1">
       <c r="A117" t="s" s="3">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B117" t="s" s="4">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s" s="4">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E117" t="s" s="4">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F117" t="s" s="4">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G117" s="4">
         <v>100</v>
@@ -7606,27 +7738,28 @@
         <v>1</v>
       </c>
       <c r="K117" s="6"/>
-      <c r="L117" s="5"/>
+      <c r="L117" s="6"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
     </row>
     <row r="118" ht="20" customHeight="1">
       <c r="A118" t="s" s="3">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B118" t="s" s="4">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C118" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E118" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F118" s="4">
         <v>2</v>
@@ -7644,27 +7777,28 @@
         <v>1</v>
       </c>
       <c r="K118" s="6"/>
-      <c r="L118" s="5"/>
+      <c r="L118" s="6"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" t="s" s="3">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B119" t="s" s="4">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C119" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s" s="4">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E119" t="s" s="4">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F119" s="4">
         <v>3</v>
@@ -7682,27 +7816,28 @@
         <v>1</v>
       </c>
       <c r="K119" s="6"/>
-      <c r="L119" s="5"/>
+      <c r="L119" s="6"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
     </row>
     <row r="120" ht="20" customHeight="1">
       <c r="A120" t="s" s="3">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B120" t="s" s="4">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C120" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D120" t="s" s="4">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E120" t="s" s="4">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F120" s="4">
         <v>4</v>
@@ -7720,27 +7855,28 @@
         <v>1</v>
       </c>
       <c r="K120" s="6"/>
-      <c r="L120" s="5"/>
+      <c r="L120" s="6"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
     </row>
     <row r="121" ht="20" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B121" t="s" s="4">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C121" t="s" s="4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D121" t="s" s="4">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E121" t="s" s="4">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F121" s="4">
         <v>3</v>
@@ -7758,27 +7894,28 @@
         <v>1</v>
       </c>
       <c r="K121" s="6"/>
-      <c r="L121" s="5"/>
+      <c r="L121" s="6"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
     </row>
     <row r="122" ht="20" customHeight="1">
       <c r="A122" t="s" s="3">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B122" t="s" s="4">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C122" t="s" s="4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D122" t="s" s="4">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E122" t="s" s="4">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F122" s="4">
         <v>2</v>
@@ -7796,27 +7933,28 @@
         <v>1</v>
       </c>
       <c r="K122" s="6"/>
-      <c r="L122" s="5"/>
+      <c r="L122" s="6"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
     </row>
     <row r="123" ht="20" customHeight="1">
       <c r="A123" t="s" s="3">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B123" t="s" s="4">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C123" t="s" s="4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D123" t="s" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E123" t="s" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F123" s="4">
         <v>2</v>
@@ -7834,27 +7972,28 @@
         <v>1</v>
       </c>
       <c r="K123" s="6"/>
-      <c r="L123" s="5"/>
+      <c r="L123" s="6"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
     </row>
     <row r="124" ht="20" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B124" t="s" s="4">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C124" t="s" s="4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D124" t="s" s="4">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E124" t="s" s="4">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F124" s="4">
         <v>3</v>
@@ -7872,27 +8011,28 @@
         <v>1</v>
       </c>
       <c r="K124" s="6"/>
-      <c r="L124" s="5"/>
+      <c r="L124" s="6"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
     </row>
     <row r="125" ht="20" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B125" t="s" s="4">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C125" t="s" s="4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D125" t="s" s="4">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E125" t="s" s="4">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F125" s="4">
         <v>2</v>
@@ -7910,27 +8050,28 @@
         <v>1</v>
       </c>
       <c r="K125" s="6"/>
-      <c r="L125" s="5"/>
+      <c r="L125" s="6"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
     </row>
     <row r="126" ht="20" customHeight="1">
       <c r="A126" t="s" s="3">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B126" t="s" s="4">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C126" t="s" s="4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D126" t="s" s="4">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E126" t="s" s="4">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F126" s="4">
         <v>3</v>
@@ -7948,27 +8089,28 @@
         <v>1</v>
       </c>
       <c r="K126" s="6"/>
-      <c r="L126" s="5"/>
+      <c r="L126" s="6"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
     </row>
     <row r="127" ht="20" customHeight="1">
       <c r="A127" t="s" s="3">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B127" t="s" s="4">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C127" t="s" s="4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D127" t="s" s="4">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E127" t="s" s="4">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F127" s="4">
         <v>2</v>
@@ -7986,27 +8128,28 @@
         <v>1</v>
       </c>
       <c r="K127" s="6"/>
-      <c r="L127" s="5"/>
+      <c r="L127" s="6"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
     </row>
     <row r="128" ht="20" customHeight="1">
       <c r="A128" t="s" s="3">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B128" t="s" s="4">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C128" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s" s="4">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E128" t="s" s="4">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F128" s="4">
         <v>2</v>
@@ -8024,27 +8167,28 @@
         <v>1</v>
       </c>
       <c r="K128" s="6"/>
-      <c r="L128" s="5"/>
+      <c r="L128" s="6"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" t="s" s="3">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B129" t="s" s="4">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C129" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D129" t="s" s="4">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E129" t="s" s="4">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F129" s="4">
         <v>3</v>
@@ -8062,27 +8206,28 @@
         <v>1</v>
       </c>
       <c r="K129" s="6"/>
-      <c r="L129" s="5"/>
+      <c r="L129" s="6"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
     </row>
     <row r="130" ht="20" customHeight="1">
       <c r="A130" t="s" s="3">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B130" t="s" s="4">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C130" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D130" t="s" s="4">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E130" t="s" s="4">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F130" s="4">
         <v>3</v>
@@ -8100,27 +8245,28 @@
         <v>1</v>
       </c>
       <c r="K130" s="6"/>
-      <c r="L130" s="5"/>
+      <c r="L130" s="6"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
     </row>
     <row r="131" ht="20" customHeight="1">
       <c r="A131" t="s" s="3">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B131" t="s" s="4">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C131" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D131" t="s" s="4">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E131" t="s" s="4">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F131" s="4">
         <v>3</v>
@@ -8138,27 +8284,28 @@
         <v>1</v>
       </c>
       <c r="K131" s="6"/>
-      <c r="L131" s="5"/>
+      <c r="L131" s="6"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
     </row>
     <row r="132" ht="20" customHeight="1">
       <c r="A132" t="s" s="3">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B132" t="s" s="4">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C132" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D132" t="s" s="4">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E132" t="s" s="4">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F132" s="4">
         <v>3</v>
@@ -8176,27 +8323,28 @@
         <v>1</v>
       </c>
       <c r="K132" s="6"/>
-      <c r="L132" s="5"/>
+      <c r="L132" s="6"/>
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
       <c r="O132" s="5"/>
       <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
     </row>
     <row r="133" ht="20" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B133" t="s" s="4">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C133" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D133" t="s" s="4">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E133" t="s" s="4">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F133" s="4">
         <v>4</v>
@@ -8214,27 +8362,28 @@
         <v>1</v>
       </c>
       <c r="K133" s="6"/>
-      <c r="L133" s="5"/>
+      <c r="L133" s="6"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
       <c r="O133" s="5"/>
       <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
     </row>
     <row r="134" ht="20" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B134" t="s" s="4">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C134" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D134" t="s" s="4">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E134" t="s" s="4">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F134" s="4">
         <v>5</v>
@@ -8252,27 +8401,28 @@
         <v>1</v>
       </c>
       <c r="K134" s="6"/>
-      <c r="L134" s="5"/>
+      <c r="L134" s="6"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
     </row>
     <row r="135" ht="20" customHeight="1">
       <c r="A135" t="s" s="3">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B135" t="s" s="4">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C135" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D135" t="s" s="4">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E135" t="s" s="4">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F135" s="4">
         <v>4</v>
@@ -8290,27 +8440,28 @@
         <v>1</v>
       </c>
       <c r="K135" s="6"/>
-      <c r="L135" s="5"/>
+      <c r="L135" s="6"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
     </row>
     <row r="136" ht="20" customHeight="1">
       <c r="A136" t="s" s="3">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B136" t="s" s="4">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C136" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D136" t="s" s="4">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E136" t="s" s="4">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F136" s="4">
         <v>5</v>
@@ -8328,27 +8479,28 @@
         <v>1</v>
       </c>
       <c r="K136" s="6"/>
-      <c r="L136" s="5"/>
+      <c r="L136" s="6"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
     </row>
     <row r="137" ht="20" customHeight="1">
       <c r="A137" t="s" s="3">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B137" t="s" s="4">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C137" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D137" t="s" s="4">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E137" t="s" s="4">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F137" s="4">
         <v>3</v>
@@ -8366,27 +8518,28 @@
         <v>1</v>
       </c>
       <c r="K137" s="6"/>
-      <c r="L137" s="5"/>
+      <c r="L137" s="6"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
     </row>
     <row r="138" ht="20" customHeight="1">
       <c r="A138" t="s" s="3">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B138" t="s" s="4">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C138" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D138" t="s" s="4">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E138" t="s" s="4">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F138" s="4">
         <v>4</v>
@@ -8404,27 +8557,28 @@
         <v>1</v>
       </c>
       <c r="K138" s="6"/>
-      <c r="L138" s="5"/>
+      <c r="L138" s="6"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
     </row>
     <row r="139" ht="20" customHeight="1">
       <c r="A139" t="s" s="3">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B139" t="s" s="4">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C139" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D139" t="s" s="4">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E139" t="s" s="4">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F139" s="4">
         <v>4</v>
@@ -8442,27 +8596,28 @@
         <v>2</v>
       </c>
       <c r="K139" s="6"/>
-      <c r="L139" s="5"/>
+      <c r="L139" s="6"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
     </row>
     <row r="140" ht="20" customHeight="1">
       <c r="A140" t="s" s="3">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B140" t="s" s="4">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C140" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D140" t="s" s="4">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E140" t="s" s="4">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F140" s="4">
         <v>3</v>
@@ -8480,27 +8635,28 @@
         <v>1</v>
       </c>
       <c r="K140" s="6"/>
-      <c r="L140" s="5"/>
+      <c r="L140" s="6"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
     </row>
     <row r="141" ht="20" customHeight="1">
       <c r="A141" t="s" s="3">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B141" t="s" s="4">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C141" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D141" t="s" s="4">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E141" t="s" s="4">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F141" s="4">
         <v>3</v>
@@ -8518,27 +8674,28 @@
         <v>1</v>
       </c>
       <c r="K141" s="6"/>
-      <c r="L141" s="5"/>
+      <c r="L141" s="6"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
     </row>
     <row r="142" ht="20" customHeight="1">
       <c r="A142" t="s" s="3">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B142" t="s" s="4">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C142" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D142" t="s" s="4">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E142" t="s" s="4">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F142" s="4">
         <v>4</v>
@@ -8556,27 +8713,28 @@
         <v>1</v>
       </c>
       <c r="K142" s="6"/>
-      <c r="L142" s="5"/>
+      <c r="L142" s="6"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
     </row>
     <row r="143" ht="20" customHeight="1">
       <c r="A143" t="s" s="3">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B143" t="s" s="4">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C143" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D143" t="s" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E143" t="s" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F143" s="4">
         <v>5</v>
@@ -8594,27 +8752,28 @@
         <v>1</v>
       </c>
       <c r="K143" s="6"/>
-      <c r="L143" s="5"/>
+      <c r="L143" s="6"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
     </row>
     <row r="144" ht="20" customHeight="1">
       <c r="A144" t="s" s="3">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B144" t="s" s="4">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C144" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D144" t="s" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E144" t="s" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F144" s="4">
         <v>5</v>
@@ -8632,27 +8791,28 @@
         <v>1</v>
       </c>
       <c r="K144" s="6"/>
-      <c r="L144" s="5"/>
+      <c r="L144" s="6"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
     </row>
     <row r="145" ht="20" customHeight="1">
       <c r="A145" t="s" s="3">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B145" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C145" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D145" t="s" s="4">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E145" t="s" s="4">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F145" s="4">
         <v>5</v>
@@ -8670,27 +8830,28 @@
         <v>1</v>
       </c>
       <c r="K145" s="6"/>
-      <c r="L145" s="5"/>
+      <c r="L145" s="6"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
     </row>
     <row r="146" ht="20" customHeight="1">
       <c r="A146" t="s" s="3">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B146" t="s" s="4">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C146" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D146" t="s" s="4">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E146" t="s" s="4">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F146" s="4">
         <v>5</v>
@@ -8708,27 +8869,28 @@
         <v>1</v>
       </c>
       <c r="K146" s="6"/>
-      <c r="L146" s="5"/>
+      <c r="L146" s="6"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
     </row>
     <row r="147" ht="20" customHeight="1">
       <c r="A147" t="s" s="3">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B147" t="s" s="4">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C147" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D147" t="s" s="4">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E147" t="s" s="4">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F147" s="4">
         <v>5</v>
@@ -8746,27 +8908,28 @@
         <v>1</v>
       </c>
       <c r="K147" s="6"/>
-      <c r="L147" s="5"/>
+      <c r="L147" s="6"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
     </row>
     <row r="148" ht="20" customHeight="1">
       <c r="A148" t="s" s="3">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B148" t="s" s="4">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C148" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D148" t="s" s="4">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E148" t="s" s="4">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F148" s="4">
         <v>5</v>
@@ -8784,27 +8947,28 @@
         <v>1</v>
       </c>
       <c r="K148" s="6"/>
-      <c r="L148" s="5"/>
+      <c r="L148" s="6"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
       <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
     </row>
     <row r="149" ht="20" customHeight="1">
       <c r="A149" t="s" s="3">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B149" t="s" s="4">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C149" t="s" s="4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D149" t="s" s="4">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E149" t="s" s="4">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F149" s="4">
         <v>5</v>
@@ -8822,11 +8986,12 @@
         <v>1</v>
       </c>
       <c r="K149" s="6"/>
-      <c r="L149" s="5"/>
+      <c r="L149" s="6"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
     </row>
     <row r="150" ht="20" customHeight="1">
       <c r="A150" s="7"/>
@@ -8845,6 +9010,7 @@
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8891,105 +9057,105 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s" s="15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="s" s="15">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -9041,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="18">
         <v>100</v>
@@ -9078,13 +9244,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="18">
         <v>100</v>
       </c>
       <c r="J5" t="s" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="19">
         <v>50</v>
@@ -9119,19 +9285,19 @@
         <v>2</v>
       </c>
       <c r="H6" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="18">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="19">
         <v>10</v>
       </c>
       <c r="L6" t="s" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6" s="20">
         <v>200</v>
@@ -9165,25 +9331,25 @@
         <v>1</v>
       </c>
       <c r="H7" t="s" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="18">
         <v>30</v>
       </c>
       <c r="J7" t="s" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="19">
         <v>80</v>
       </c>
       <c r="L7" t="s" s="13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="20">
         <v>50</v>
       </c>
       <c r="N7" t="s" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O7" s="21">
         <v>50</v>
@@ -9215,25 +9381,25 @@
         <v>2</v>
       </c>
       <c r="H8" t="s" s="25">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="18">
         <v>50</v>
       </c>
       <c r="J8" t="s" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="19">
         <v>70</v>
       </c>
       <c r="L8" t="s" s="13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="20">
         <v>50</v>
       </c>
       <c r="N8" t="s" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O8" s="21">
         <v>50</v>
@@ -10020,21 +10186,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -10042,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C3" s="4">
         <v>120</v>
@@ -10053,7 +10219,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C4" s="4">
         <v>150</v>
@@ -10064,7 +10230,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C5" s="4">
         <v>160</v>
@@ -10075,7 +10241,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C6" s="4">
         <v>165</v>
@@ -10086,7 +10252,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C7" s="4">
         <v>170</v>
@@ -10097,7 +10263,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C8" s="4">
         <v>50</v>
@@ -10108,7 +10274,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C9" s="4">
         <v>120</v>
@@ -10119,7 +10285,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C10" s="4">
         <v>140</v>
@@ -10130,7 +10296,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C11" s="4">
         <v>150</v>
@@ -10141,7 +10307,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C12" s="4">
         <v>50</v>
@@ -10152,7 +10318,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C13" s="4">
         <v>120</v>
@@ -10163,7 +10329,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C14" s="4">
         <v>150</v>
@@ -10174,7 +10340,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C15" s="4">
         <v>180</v>
@@ -10185,7 +10351,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C16" s="4">
         <v>200</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="542">
   <si>
     <t>id</t>
   </si>
@@ -1637,6 +1637,9 @@
   </si>
   <si>
     <t>enemy_id</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
 </sst>
 </file>
@@ -10169,7 +10172,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -10178,7 +10181,8 @@
     <col min="1" max="1" width="2.5" style="26" customWidth="1"/>
     <col min="2" max="2" width="10.4922" style="26" customWidth="1"/>
     <col min="3" max="3" width="4.75" style="26" customWidth="1"/>
-    <col min="4" max="256" width="12.25" style="26" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="26" customWidth="1"/>
+    <col min="5" max="256" width="12.25" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -10191,6 +10195,9 @@
       <c r="C1" t="s" s="2">
         <v>527</v>
       </c>
+      <c r="D1" t="s" s="2">
+        <v>541</v>
+      </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -10202,6 +10209,9 @@
       <c r="C2" t="s" s="4">
         <v>17</v>
       </c>
+      <c r="D2" t="s" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="3">
@@ -10212,6 +10222,9 @@
       </c>
       <c r="C3" s="4">
         <v>120</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -10224,6 +10237,9 @@
       <c r="C4" s="4">
         <v>150</v>
       </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="3">
@@ -10235,6 +10251,9 @@
       <c r="C5" s="4">
         <v>160</v>
       </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="3">
@@ -10246,6 +10265,9 @@
       <c r="C6" s="4">
         <v>165</v>
       </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="3">
@@ -10257,6 +10279,9 @@
       <c r="C7" s="4">
         <v>170</v>
       </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="3">
@@ -10268,6 +10293,9 @@
       <c r="C8" s="4">
         <v>50</v>
       </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="3">
@@ -10279,6 +10307,9 @@
       <c r="C9" s="4">
         <v>120</v>
       </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="3">
@@ -10290,6 +10321,9 @@
       <c r="C10" s="4">
         <v>140</v>
       </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="3">
@@ -10301,6 +10335,9 @@
       <c r="C11" s="4">
         <v>150</v>
       </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="3">
@@ -10312,6 +10349,9 @@
       <c r="C12" s="4">
         <v>50</v>
       </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="3">
@@ -10323,6 +10363,9 @@
       <c r="C13" s="4">
         <v>120</v>
       </c>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="3">
@@ -10334,6 +10377,9 @@
       <c r="C14" s="4">
         <v>150</v>
       </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="3">
@@ -10345,6 +10391,9 @@
       <c r="C15" s="4">
         <v>180</v>
       </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="3">
@@ -10355,6 +10404,9 @@
       </c>
       <c r="C16" s="4">
         <v>200</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="548">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>firearm</t>
   </si>
   <si>
+    <t>detail</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>コウモリ</t>
   </si>
   <si>
+    <t>飛行属性</t>
+  </si>
+  <si>
     <t>WORKER_ANT</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>stay</t>
   </si>
   <si>
+    <t>その場から動かない</t>
+  </si>
+  <si>
     <t>BEE</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
     <t>キラービー</t>
   </si>
   <si>
+    <t>耐久力は低い。飛行属性</t>
+  </si>
+  <si>
     <t>SPECTER</t>
   </si>
   <si>
@@ -124,6 +136,9 @@
     <t>WAND6</t>
   </si>
   <si>
+    <t>遠距離攻撃をしてくる。飛行属性</t>
+  </si>
+  <si>
     <t>SKELETON_DOG</t>
   </si>
   <si>
@@ -134,6 +149,9 @@
   </si>
   <si>
     <t>ほねほねドック</t>
+  </si>
+  <si>
+    <t>特徴なし</t>
   </si>
   <si>
     <t>SKELETON1</t>
@@ -3111,7 +3129,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3134,7 +3152,8 @@
     <col min="15" max="15" width="3.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.40625" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.125" style="1" customWidth="1"/>
-    <col min="18" max="256" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6328" style="1" customWidth="1"/>
+    <col min="19" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -3189,10 +3208,13 @@
       <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -3210,16 +3232,16 @@
         <v>8</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="4">
         <v>8</v>
@@ -3234,30 +3256,33 @@
         <v>8</v>
       </c>
       <c r="O2" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="R2" t="s" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -3283,22 +3308,25 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
+      <c r="R3" t="s" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" t="s" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -3317,29 +3345,32 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" t="s" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
+      <c r="R4" t="s" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -3365,22 +3396,25 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
+      <c r="R5" t="s" s="4">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -3402,30 +3436,33 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" t="s" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" t="s" s="4">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="R6" t="s" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="B7" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s" s="4">
-        <v>32</v>
-      </c>
       <c r="D7" t="s" s="4">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -3449,22 +3486,25 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
+      <c r="R7" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -3488,22 +3528,25 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
+      <c r="R8" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -3522,29 +3565,32 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" t="s" s="4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
+      <c r="R9" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3568,22 +3614,25 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
+      <c r="R10" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -3607,22 +3656,25 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
+      <c r="R11" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3646,22 +3698,25 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
+      <c r="R12" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -3682,29 +3737,32 @@
       <c r="L13" s="6"/>
       <c r="M13" s="5"/>
       <c r="N13" t="s" s="4">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O13" s="5">
         <v>20</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
+      <c r="R13" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3728,22 +3786,25 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
+      <c r="R14" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3767,22 +3828,25 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
+      <c r="R15" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -3806,22 +3870,25 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
+      <c r="R16" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3845,22 +3912,25 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
+      <c r="R17" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -3878,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s" s="4">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="5"/>
@@ -3886,22 +3956,25 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
+      <c r="R18" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3925,22 +3998,25 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
+      <c r="R19" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -3964,22 +4040,25 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
+      <c r="R20" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -4003,22 +4082,25 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
+      <c r="R21" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -4042,22 +4124,25 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
+      <c r="R22" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -4081,22 +4166,25 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
+      <c r="R23" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s" s="4">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -4120,22 +4208,25 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
+      <c r="R24" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" t="s" s="3">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s" s="4">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s" s="4">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
@@ -4159,22 +4250,25 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
+      <c r="R25" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s" s="4">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s" s="4">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F26" s="4">
         <v>2</v>
@@ -4198,22 +4292,25 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
+      <c r="R26" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s" s="4">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s" s="4">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -4237,22 +4334,25 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
+      <c r="R27" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s" s="4">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
@@ -4276,22 +4376,25 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
+      <c r="R28" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s" s="4">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -4315,22 +4418,25 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
+      <c r="R29" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s" s="4">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -4354,22 +4460,25 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
+      <c r="R30" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s" s="4">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
@@ -4393,22 +4502,25 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
+      <c r="R31" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s" s="4">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -4432,22 +4544,25 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
+      <c r="R32" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s" s="4">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -4471,22 +4586,25 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
+      <c r="R33" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s" s="4">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -4510,22 +4628,25 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
+      <c r="R34" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" t="s" s="3">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s" s="4">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s" s="4">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F35" s="4">
         <v>3</v>
@@ -4549,22 +4670,25 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
+      <c r="R35" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s" s="4">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s" s="4">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F36" s="4">
         <v>3</v>
@@ -4588,22 +4712,25 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
+      <c r="R36" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" t="s" s="3">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s" s="4">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s" s="4">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F37" s="4">
         <v>3</v>
@@ -4627,22 +4754,25 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
+      <c r="R37" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" t="s" s="3">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s" s="4">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s" s="4">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F38" s="4">
         <v>3</v>
@@ -4666,22 +4796,25 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
+      <c r="R38" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" t="s" s="3">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s" s="4">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s" s="4">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F39" s="4">
         <v>3</v>
@@ -4705,22 +4838,25 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
+      <c r="R39" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" t="s" s="3">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s" s="4">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s" s="4">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F40" s="4">
         <v>3</v>
@@ -4744,22 +4880,25 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
+      <c r="R40" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" t="s" s="3">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s" s="4">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s" s="4">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
@@ -4783,22 +4922,25 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
+      <c r="R41" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E42" t="s" s="4">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F42" s="4">
         <v>3</v>
@@ -4822,22 +4964,25 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
+      <c r="R42" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s" s="4">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F43" s="4">
         <v>3</v>
@@ -4861,22 +5006,25 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
+      <c r="R43" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" t="s" s="3">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s" s="4">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s" s="4">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F44" s="4">
         <v>3</v>
@@ -4900,22 +5048,25 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
+      <c r="R44" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" t="s" s="3">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s" s="4">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s" s="4">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F45" s="4">
         <v>3</v>
@@ -4939,22 +5090,25 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
+      <c r="R45" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" t="s" s="3">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s" s="4">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s" s="4">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F46" s="4">
         <v>3</v>
@@ -4978,22 +5132,25 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
+      <c r="R46" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" t="s" s="3">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s" s="4">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s" s="4">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
@@ -5017,22 +5174,25 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
+      <c r="R47" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" t="s" s="3">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s" s="4">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s" s="4">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F48" s="4">
         <v>4</v>
@@ -5056,22 +5216,25 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
+      <c r="R48" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" t="s" s="3">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s" s="4">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s" s="4">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F49" s="4">
         <v>4</v>
@@ -5095,22 +5258,25 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
+      <c r="R49" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s" s="4">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s" s="4">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F50" s="4">
         <v>4</v>
@@ -5134,22 +5300,25 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
+      <c r="R50" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" t="s" s="3">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s" s="4">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E51" t="s" s="4">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
@@ -5173,22 +5342,25 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
+      <c r="R51" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" t="s" s="3">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s" s="4">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s" s="4">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F52" s="4">
         <v>5</v>
@@ -5212,22 +5384,25 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
+      <c r="R52" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" t="s" s="3">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s" s="4">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E53" t="s" s="4">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F53" s="4">
         <v>4</v>
@@ -5251,22 +5426,25 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
+      <c r="R53" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" t="s" s="3">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s" s="4">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s" s="4">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F54" s="4">
         <v>4</v>
@@ -5290,22 +5468,25 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
+      <c r="R54" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" t="s" s="3">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s" s="4">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E55" t="s" s="4">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F55" s="4">
         <v>4</v>
@@ -5329,22 +5510,25 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
+      <c r="R55" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" t="s" s="3">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s" s="4">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E56" t="s" s="4">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F56" s="4">
         <v>4</v>
@@ -5368,22 +5552,25 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
+      <c r="R56" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D57" t="s" s="4">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E57" t="s" s="4">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F57" s="4">
         <v>5</v>
@@ -5407,22 +5594,25 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
+      <c r="R57" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" t="s" s="3">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s" s="4">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E58" t="s" s="4">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F58" s="4">
         <v>5</v>
@@ -5446,22 +5636,25 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
+      <c r="R58" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" t="s" s="3">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C59" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s" s="4">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E59" t="s" s="4">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F59" s="4">
         <v>5</v>
@@ -5485,22 +5678,25 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
+      <c r="R59" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" t="s" s="3">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s" s="4">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E60" t="s" s="4">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F60" s="4">
         <v>5</v>
@@ -5524,25 +5720,28 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
+      <c r="R60" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" t="s" s="3">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C61" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s" s="4">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s" s="4">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F61" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G61" s="4">
         <v>100</v>
@@ -5563,25 +5762,28 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
+      <c r="R61" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" t="s" s="3">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s" s="4">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E62" t="s" s="4">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F62" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G62" s="4">
         <v>100</v>
@@ -5602,25 +5804,28 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
+      <c r="R62" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" t="s" s="3">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="4">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s" s="4">
+        <v>247</v>
+      </c>
+      <c r="E63" t="s" s="4">
+        <v>248</v>
+      </c>
+      <c r="F63" t="s" s="4">
         <v>240</v>
-      </c>
-      <c r="C63" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="D63" t="s" s="4">
-        <v>241</v>
-      </c>
-      <c r="E63" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="F63" t="s" s="4">
-        <v>234</v>
       </c>
       <c r="G63" s="4">
         <v>100</v>
@@ -5641,25 +5846,28 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
+      <c r="R63" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" t="s" s="3">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C64" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s" s="4">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E64" t="s" s="4">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F64" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G64" s="4">
         <v>100</v>
@@ -5680,25 +5888,28 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
+      <c r="R64" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" t="s" s="3">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C65" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s" s="4">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E65" t="s" s="4">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F65" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G65" s="4">
         <v>100</v>
@@ -5719,25 +5930,28 @@
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
+      <c r="R65" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" t="s" s="3">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s" s="4">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E66" t="s" s="4">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F66" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G66" s="4">
         <v>100</v>
@@ -5758,25 +5972,28 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
+      <c r="R66" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C67" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s" s="4">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E67" t="s" s="4">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F67" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G67" s="4">
         <v>100</v>
@@ -5797,25 +6014,28 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
+      <c r="R67" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C68" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s" s="4">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E68" t="s" s="4">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F68" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G68" s="4">
         <v>100</v>
@@ -5836,25 +6056,28 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
+      <c r="R68" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" t="s" s="3">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C69" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s" s="4">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E69" t="s" s="4">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F69" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G69" s="4">
         <v>100</v>
@@ -5875,25 +6098,28 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
+      <c r="R69" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C70" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s" s="4">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E70" t="s" s="4">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G70" s="4">
         <v>100</v>
@@ -5914,22 +6140,25 @@
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
+      <c r="R70" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" t="s" s="3">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C71" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s" s="4">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s" s="4">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F71" s="4">
         <v>3</v>
@@ -5953,22 +6182,25 @@
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
+      <c r="R71" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" t="s" s="3">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C72" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s" s="4">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E72" t="s" s="4">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F72" s="4">
         <v>3</v>
@@ -5992,22 +6224,25 @@
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
+      <c r="R72" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" t="s" s="3">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C73" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s" s="4">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E73" t="s" s="4">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F73" s="4">
         <v>4</v>
@@ -6031,22 +6266,25 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
+      <c r="R73" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" t="s" s="3">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C74" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s" s="4">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E74" t="s" s="4">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
@@ -6070,22 +6308,25 @@
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
+      <c r="R74" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" t="s" s="3">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C75" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s" s="4">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E75" t="s" s="4">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F75" s="4">
         <v>2</v>
@@ -6109,22 +6350,25 @@
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
+      <c r="R75" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" t="s" s="3">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s" s="4">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s" s="4">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F76" s="4">
         <v>2</v>
@@ -6148,22 +6392,25 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
+      <c r="R76" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" t="s" s="3">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C77" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s" s="4">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E77" t="s" s="4">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F77" s="4">
         <v>3</v>
@@ -6187,22 +6434,25 @@
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
+      <c r="R77" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" t="s" s="3">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C78" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s" s="4">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E78" t="s" s="4">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F78" s="4">
         <v>3</v>
@@ -6226,22 +6476,25 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
+      <c r="R78" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" t="s" s="3">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C79" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s" s="4">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E79" t="s" s="4">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F79" s="4">
         <v>3</v>
@@ -6265,22 +6518,25 @@
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
+      <c r="R79" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" t="s" s="3">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C80" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s" s="4">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E80" t="s" s="4">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F80" s="4">
         <v>3</v>
@@ -6304,25 +6560,28 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
+      <c r="R80" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" t="s" s="3">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C81" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s" s="4">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E81" t="s" s="4">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F81" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G81" s="4">
         <v>100</v>
@@ -6343,25 +6602,28 @@
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
+      <c r="R81" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" t="s" s="3">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s" s="4">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E82" t="s" s="4">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F82" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G82" s="4">
         <v>100</v>
@@ -6382,25 +6644,28 @@
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
+      <c r="R82" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" t="s" s="3">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s" s="4">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C83" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s" s="4">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E83" t="s" s="4">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F83" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G83" s="4">
         <v>100</v>
@@ -6421,25 +6686,28 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
+      <c r="R83" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" t="s" s="3">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s" s="4">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C84" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s" s="4">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E84" t="s" s="4">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F84" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G84" s="4">
         <v>100</v>
@@ -6460,25 +6728,28 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
+      <c r="R84" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" t="s" s="3">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B85" t="s" s="4">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C85" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s" s="4">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E85" t="s" s="4">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F85" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G85" s="4">
         <v>100</v>
@@ -6499,25 +6770,28 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
+      <c r="R85" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" t="s" s="3">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B86" t="s" s="4">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s" s="4">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E86" t="s" s="4">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F86" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G86" s="4">
         <v>100</v>
@@ -6538,25 +6812,28 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
+      <c r="R86" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" t="s" s="3">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B87" t="s" s="4">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C87" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s" s="4">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E87" t="s" s="4">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F87" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G87" s="4">
         <v>100</v>
@@ -6577,25 +6854,28 @@
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
+      <c r="R87" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" t="s" s="3">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B88" t="s" s="4">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C88" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s" s="4">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E88" t="s" s="4">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F88" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G88" s="4">
         <v>100</v>
@@ -6616,22 +6896,25 @@
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
+      <c r="R88" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" t="s" s="3">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B89" t="s" s="4">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C89" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s" s="4">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E89" t="s" s="4">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F89" s="4">
         <v>3</v>
@@ -6655,25 +6938,28 @@
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
+      <c r="R89" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B90" t="s" s="4">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C90" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s" s="4">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E90" t="s" s="4">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F90" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G90" s="4">
         <v>100</v>
@@ -6694,25 +6980,28 @@
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
+      <c r="R90" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B91" t="s" s="4">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C91" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s" s="4">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E91" t="s" s="4">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F91" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G91" s="4">
         <v>100</v>
@@ -6733,22 +7022,25 @@
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
+      <c r="R91" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B92" t="s" s="4">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C92" t="s" s="4">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D92" t="s" s="4">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E92" t="s" s="4">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F92" s="4">
         <v>2</v>
@@ -6772,22 +7064,25 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
+      <c r="R92" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" t="s" s="3">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B93" t="s" s="4">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C93" t="s" s="4">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D93" t="s" s="4">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E93" t="s" s="4">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F93" s="4">
         <v>2</v>
@@ -6811,25 +7106,28 @@
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
+      <c r="R93" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" t="s" s="3">
+        <v>349</v>
+      </c>
+      <c r="B94" t="s" s="4">
+        <v>350</v>
+      </c>
+      <c r="C94" t="s" s="4">
         <v>343</v>
       </c>
-      <c r="B94" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="C94" t="s" s="4">
-        <v>337</v>
-      </c>
       <c r="D94" t="s" s="4">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E94" t="s" s="4">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F94" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G94" s="4">
         <v>100</v>
@@ -6850,25 +7148,28 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
+      <c r="R94" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" t="s" s="3">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B95" t="s" s="4">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C95" t="s" s="4">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D95" t="s" s="4">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E95" t="s" s="4">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F95" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G95" s="4">
         <v>100</v>
@@ -6889,22 +7190,25 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
+      <c r="R95" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B96" t="s" s="4">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C96" t="s" s="4">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D96" t="s" s="4">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E96" t="s" s="4">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F96" s="4">
         <v>4</v>
@@ -6928,22 +7232,25 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
+      <c r="R96" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" t="s" s="3">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B97" t="s" s="4">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C97" t="s" s="4">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D97" t="s" s="4">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E97" t="s" s="4">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F97" s="4">
         <v>3</v>
@@ -6967,22 +7274,25 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
+      <c r="R97" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98" t="s" s="3">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B98" t="s" s="4">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C98" t="s" s="4">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D98" t="s" s="4">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E98" t="s" s="4">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F98" s="4">
         <v>2</v>
@@ -7006,25 +7316,28 @@
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
+      <c r="R98" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99" t="s" s="3">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B99" t="s" s="4">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C99" t="s" s="4">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D99" t="s" s="4">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E99" t="s" s="4">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F99" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G99" s="4">
         <v>100</v>
@@ -7045,22 +7358,25 @@
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
+      <c r="R99" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="100" ht="20" customHeight="1">
       <c r="A100" t="s" s="3">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B100" t="s" s="4">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C100" t="s" s="4">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D100" t="s" s="4">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E100" t="s" s="4">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F100" s="4">
         <v>3</v>
@@ -7084,22 +7400,25 @@
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
+      <c r="R100" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="101" ht="20" customHeight="1">
       <c r="A101" t="s" s="3">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B101" t="s" s="4">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C101" t="s" s="4">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D101" t="s" s="4">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E101" t="s" s="4">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F101" s="4">
         <v>4</v>
@@ -7123,22 +7442,25 @@
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
+      <c r="R101" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="102" ht="20" customHeight="1">
       <c r="A102" t="s" s="3">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B102" t="s" s="4">
+        <v>376</v>
+      </c>
+      <c r="C102" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C102" t="s" s="4">
-        <v>364</v>
-      </c>
       <c r="D102" t="s" s="4">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E102" t="s" s="4">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F102" s="4">
         <v>4</v>
@@ -7162,22 +7484,25 @@
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
+      <c r="R102" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="103" ht="20" customHeight="1">
       <c r="A103" t="s" s="3">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B103" t="s" s="4">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C103" t="s" s="4">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D103" t="s" s="4">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E103" t="s" s="4">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F103" s="4">
         <v>2</v>
@@ -7201,22 +7526,25 @@
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
+      <c r="R103" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="104" ht="20" customHeight="1">
       <c r="A104" t="s" s="3">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B104" t="s" s="4">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C104" t="s" s="4">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D104" t="s" s="4">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E104" t="s" s="4">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F104" s="4">
         <v>3</v>
@@ -7240,22 +7568,25 @@
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
+      <c r="R104" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="105" ht="20" customHeight="1">
       <c r="A105" t="s" s="3">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C105" t="s" s="4">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D105" t="s" s="4">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E105" t="s" s="4">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F105" s="4">
         <v>3</v>
@@ -7279,22 +7610,25 @@
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
+      <c r="R105" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="106" ht="20" customHeight="1">
       <c r="A106" t="s" s="3">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B106" t="s" s="4">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C106" t="s" s="4">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D106" t="s" s="4">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E106" t="s" s="4">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F106" s="4">
         <v>4</v>
@@ -7318,22 +7652,25 @@
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
+      <c r="R106" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="107" ht="20" customHeight="1">
       <c r="A107" t="s" s="3">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B107" t="s" s="4">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C107" t="s" s="4">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D107" t="s" s="4">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E107" t="s" s="4">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F107" s="4">
         <v>4</v>
@@ -7357,22 +7694,25 @@
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
+      <c r="R107" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="108" ht="20" customHeight="1">
       <c r="A108" t="s" s="3">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B108" t="s" s="4">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C108" t="s" s="4">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D108" t="s" s="4">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E108" t="s" s="4">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F108" s="4">
         <v>2</v>
@@ -7396,22 +7736,25 @@
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
+      <c r="R108" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109" t="s" s="3">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B109" t="s" s="4">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C109" t="s" s="4">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D109" t="s" s="4">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E109" t="s" s="4">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F109" s="4">
         <v>2</v>
@@ -7435,25 +7778,28 @@
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
+      <c r="R109" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" t="s" s="3">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B110" t="s" s="4">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C110" t="s" s="4">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D110" t="s" s="4">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E110" t="s" s="4">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F110" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G110" s="4">
         <v>100</v>
@@ -7474,25 +7820,28 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
+      <c r="R110" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111" t="s" s="3">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
       <c r="C111" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D111" t="s" s="4">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E111" t="s" s="4">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F111" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G111" s="4">
         <v>100</v>
@@ -7513,22 +7862,25 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
+      <c r="R111" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112" t="s" s="3">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B112" t="s" s="4">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C112" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D112" t="s" s="4">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E112" t="s" s="4">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F112" s="4">
         <v>2</v>
@@ -7552,22 +7904,25 @@
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
+      <c r="R112" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113" t="s" s="3">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B113" t="s" s="4">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C113" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s" s="4">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E113" t="s" s="4">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F113" s="4">
         <v>2</v>
@@ -7591,22 +7946,25 @@
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
+      <c r="R113" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="114" ht="20" customHeight="1">
       <c r="A114" t="s" s="3">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B114" t="s" s="4">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C114" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D114" t="s" s="4">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E114" t="s" s="4">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F114" s="4">
         <v>2</v>
@@ -7630,22 +7988,25 @@
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
+      <c r="R114" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="115" ht="20" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B115" t="s" s="4">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C115" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D115" t="s" s="4">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E115" t="s" s="4">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F115" s="4">
         <v>2</v>
@@ -7669,25 +8030,28 @@
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
+      <c r="R115" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="116" ht="20" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B116" t="s" s="4">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C116" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D116" t="s" s="4">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E116" t="s" s="4">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F116" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G116" s="4">
         <v>100</v>
@@ -7708,25 +8072,28 @@
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
+      <c r="R116" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="117" ht="20" customHeight="1">
       <c r="A117" t="s" s="3">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B117" t="s" s="4">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C117" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D117" t="s" s="4">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E117" t="s" s="4">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F117" t="s" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G117" s="4">
         <v>100</v>
@@ -7747,22 +8114,25 @@
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
+      <c r="R117" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="118" ht="20" customHeight="1">
       <c r="A118" t="s" s="3">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B118" t="s" s="4">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C118" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D118" t="s" s="4">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E118" t="s" s="4">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F118" s="4">
         <v>2</v>
@@ -7786,22 +8156,25 @@
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
+      <c r="R118" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" t="s" s="3">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B119" t="s" s="4">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C119" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s" s="4">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="E119" t="s" s="4">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F119" s="4">
         <v>3</v>
@@ -7825,22 +8198,25 @@
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
+      <c r="R119" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="120" ht="20" customHeight="1">
       <c r="A120" t="s" s="3">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B120" t="s" s="4">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C120" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D120" t="s" s="4">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E120" t="s" s="4">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F120" s="4">
         <v>4</v>
@@ -7864,22 +8240,25 @@
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
+      <c r="R120" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="121" ht="20" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B121" t="s" s="4">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C121" t="s" s="4">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D121" t="s" s="4">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E121" t="s" s="4">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F121" s="4">
         <v>3</v>
@@ -7903,22 +8282,25 @@
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
+      <c r="R121" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="122" ht="20" customHeight="1">
       <c r="A122" t="s" s="3">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B122" t="s" s="4">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C122" t="s" s="4">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D122" t="s" s="4">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E122" t="s" s="4">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F122" s="4">
         <v>2</v>
@@ -7942,22 +8324,25 @@
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
+      <c r="R122" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="123" ht="20" customHeight="1">
       <c r="A123" t="s" s="3">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B123" t="s" s="4">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C123" t="s" s="4">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D123" t="s" s="4">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E123" t="s" s="4">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F123" s="4">
         <v>2</v>
@@ -7981,22 +8366,25 @@
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
+      <c r="R123" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="124" ht="20" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B124" t="s" s="4">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C124" t="s" s="4">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D124" t="s" s="4">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E124" t="s" s="4">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F124" s="4">
         <v>3</v>
@@ -8020,22 +8408,25 @@
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
+      <c r="R124" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="125" ht="20" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B125" t="s" s="4">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C125" t="s" s="4">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D125" t="s" s="4">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E125" t="s" s="4">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F125" s="4">
         <v>2</v>
@@ -8059,22 +8450,25 @@
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
+      <c r="R125" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="126" ht="20" customHeight="1">
       <c r="A126" t="s" s="3">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B126" t="s" s="4">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C126" t="s" s="4">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D126" t="s" s="4">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E126" t="s" s="4">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F126" s="4">
         <v>3</v>
@@ -8098,22 +8492,25 @@
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
+      <c r="R126" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="127" ht="20" customHeight="1">
       <c r="A127" t="s" s="3">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B127" t="s" s="4">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C127" t="s" s="4">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D127" t="s" s="4">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E127" t="s" s="4">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F127" s="4">
         <v>2</v>
@@ -8137,22 +8534,25 @@
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
+      <c r="R127" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="128" ht="20" customHeight="1">
       <c r="A128" t="s" s="3">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B128" t="s" s="4">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C128" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s" s="4">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E128" t="s" s="4">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F128" s="4">
         <v>2</v>
@@ -8176,22 +8576,25 @@
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
+      <c r="R128" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" t="s" s="3">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B129" t="s" s="4">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C129" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D129" t="s" s="4">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E129" t="s" s="4">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F129" s="4">
         <v>3</v>
@@ -8215,22 +8618,25 @@
       <c r="O129" s="5"/>
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
+      <c r="R129" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="130" ht="20" customHeight="1">
       <c r="A130" t="s" s="3">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B130" t="s" s="4">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C130" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D130" t="s" s="4">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E130" t="s" s="4">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F130" s="4">
         <v>3</v>
@@ -8254,22 +8660,25 @@
       <c r="O130" s="5"/>
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
+      <c r="R130" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="131" ht="20" customHeight="1">
       <c r="A131" t="s" s="3">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B131" t="s" s="4">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C131" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D131" t="s" s="4">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E131" t="s" s="4">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F131" s="4">
         <v>3</v>
@@ -8293,22 +8702,25 @@
       <c r="O131" s="5"/>
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
+      <c r="R131" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="132" ht="20" customHeight="1">
       <c r="A132" t="s" s="3">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B132" t="s" s="4">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C132" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D132" t="s" s="4">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E132" t="s" s="4">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F132" s="4">
         <v>3</v>
@@ -8332,22 +8744,25 @@
       <c r="O132" s="5"/>
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
+      <c r="R132" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="133" ht="20" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B133" t="s" s="4">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C133" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D133" t="s" s="4">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E133" t="s" s="4">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F133" s="4">
         <v>4</v>
@@ -8371,22 +8786,25 @@
       <c r="O133" s="5"/>
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
+      <c r="R133" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="134" ht="20" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B134" t="s" s="4">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C134" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D134" t="s" s="4">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E134" t="s" s="4">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F134" s="4">
         <v>5</v>
@@ -8410,22 +8828,25 @@
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
+      <c r="R134" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="135" ht="20" customHeight="1">
       <c r="A135" t="s" s="3">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B135" t="s" s="4">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C135" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D135" t="s" s="4">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E135" t="s" s="4">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F135" s="4">
         <v>4</v>
@@ -8449,22 +8870,25 @@
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
+      <c r="R135" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="136" ht="20" customHeight="1">
       <c r="A136" t="s" s="3">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B136" t="s" s="4">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C136" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D136" t="s" s="4">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E136" t="s" s="4">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F136" s="4">
         <v>5</v>
@@ -8488,22 +8912,25 @@
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
+      <c r="R136" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="137" ht="20" customHeight="1">
       <c r="A137" t="s" s="3">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B137" t="s" s="4">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C137" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D137" t="s" s="4">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="E137" t="s" s="4">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F137" s="4">
         <v>3</v>
@@ -8527,22 +8954,25 @@
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
+      <c r="R137" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="138" ht="20" customHeight="1">
       <c r="A138" t="s" s="3">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B138" t="s" s="4">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C138" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D138" t="s" s="4">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="E138" t="s" s="4">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F138" s="4">
         <v>4</v>
@@ -8566,22 +8996,25 @@
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
+      <c r="R138" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="139" ht="20" customHeight="1">
       <c r="A139" t="s" s="3">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B139" t="s" s="4">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C139" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D139" t="s" s="4">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E139" t="s" s="4">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F139" s="4">
         <v>4</v>
@@ -8605,22 +9038,25 @@
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
+      <c r="R139" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="140" ht="20" customHeight="1">
       <c r="A140" t="s" s="3">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B140" t="s" s="4">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C140" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D140" t="s" s="4">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E140" t="s" s="4">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F140" s="4">
         <v>3</v>
@@ -8644,22 +9080,25 @@
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
+      <c r="R140" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="141" ht="20" customHeight="1">
       <c r="A141" t="s" s="3">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B141" t="s" s="4">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C141" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D141" t="s" s="4">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="E141" t="s" s="4">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F141" s="4">
         <v>3</v>
@@ -8683,22 +9122,25 @@
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
+      <c r="R141" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="142" ht="20" customHeight="1">
       <c r="A142" t="s" s="3">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B142" t="s" s="4">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C142" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D142" t="s" s="4">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="E142" t="s" s="4">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F142" s="4">
         <v>4</v>
@@ -8722,22 +9164,25 @@
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
+      <c r="R142" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="143" ht="20" customHeight="1">
       <c r="A143" t="s" s="3">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B143" t="s" s="4">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C143" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D143" t="s" s="4">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="E143" t="s" s="4">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F143" s="4">
         <v>5</v>
@@ -8761,22 +9206,25 @@
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
+      <c r="R143" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="144" ht="20" customHeight="1">
       <c r="A144" t="s" s="3">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B144" t="s" s="4">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C144" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D144" t="s" s="4">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="E144" t="s" s="4">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F144" s="4">
         <v>5</v>
@@ -8800,22 +9248,25 @@
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
+      <c r="R144" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="145" ht="20" customHeight="1">
       <c r="A145" t="s" s="3">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B145" t="s" s="4">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C145" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D145" t="s" s="4">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="E145" t="s" s="4">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F145" s="4">
         <v>5</v>
@@ -8839,22 +9290,25 @@
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
+      <c r="R145" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="146" ht="20" customHeight="1">
       <c r="A146" t="s" s="3">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B146" t="s" s="4">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C146" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D146" t="s" s="4">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E146" t="s" s="4">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F146" s="4">
         <v>5</v>
@@ -8878,22 +9332,25 @@
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
+      <c r="R146" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="147" ht="20" customHeight="1">
       <c r="A147" t="s" s="3">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B147" t="s" s="4">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C147" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D147" t="s" s="4">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="E147" t="s" s="4">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F147" s="4">
         <v>5</v>
@@ -8917,22 +9374,25 @@
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
+      <c r="R147" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="148" ht="20" customHeight="1">
       <c r="A148" t="s" s="3">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B148" t="s" s="4">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C148" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D148" t="s" s="4">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E148" t="s" s="4">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F148" s="4">
         <v>5</v>
@@ -8956,22 +9416,25 @@
       <c r="O148" s="5"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
+      <c r="R148" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="149" ht="20" customHeight="1">
       <c r="A149" t="s" s="3">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B149" t="s" s="4">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C149" t="s" s="4">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D149" t="s" s="4">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E149" t="s" s="4">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F149" s="4">
         <v>5</v>
@@ -8995,6 +9458,9 @@
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
+      <c r="R149" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="150" ht="20" customHeight="1">
       <c r="A150" s="7"/>
@@ -9014,6 +9480,9 @@
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
+      <c r="R150" t="s" s="4">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9060,105 +9529,105 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -9210,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="18">
         <v>100</v>
@@ -9247,13 +9716,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="18">
         <v>100</v>
       </c>
       <c r="J5" t="s" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="19">
         <v>50</v>
@@ -9288,19 +9757,19 @@
         <v>2</v>
       </c>
       <c r="H6" t="s" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="18">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6" s="19">
         <v>10</v>
       </c>
       <c r="L6" t="s" s="13">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M6" s="20">
         <v>200</v>
@@ -9334,25 +9803,25 @@
         <v>1</v>
       </c>
       <c r="H7" t="s" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" s="18">
         <v>30</v>
       </c>
       <c r="J7" t="s" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K7" s="19">
         <v>80</v>
       </c>
       <c r="L7" t="s" s="13">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M7" s="20">
         <v>50</v>
       </c>
       <c r="N7" t="s" s="14">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O7" s="21">
         <v>50</v>
@@ -9384,25 +9853,25 @@
         <v>2</v>
       </c>
       <c r="H8" t="s" s="25">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I8" s="18">
         <v>50</v>
       </c>
       <c r="J8" t="s" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K8" s="19">
         <v>70</v>
       </c>
       <c r="L8" t="s" s="13">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M8" s="20">
         <v>50</v>
       </c>
       <c r="N8" t="s" s="14">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O8" s="21">
         <v>50</v>
@@ -10190,27 +10659,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -10218,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C3" s="4">
         <v>120</v>
@@ -10232,7 +10701,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C4" s="4">
         <v>150</v>
@@ -10246,7 +10715,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C5" s="4">
         <v>160</v>
@@ -10260,7 +10729,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C6" s="4">
         <v>165</v>
@@ -10274,7 +10743,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C7" s="4">
         <v>170</v>
@@ -10288,7 +10757,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C8" s="4">
         <v>50</v>
@@ -10302,7 +10771,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C9" s="4">
         <v>120</v>
@@ -10316,7 +10785,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C10" s="4">
         <v>140</v>
@@ -10330,7 +10799,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C11" s="4">
         <v>150</v>
@@ -10344,7 +10813,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C12" s="4">
         <v>50</v>
@@ -10358,7 +10827,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C13" s="4">
         <v>120</v>
@@ -10372,7 +10841,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C14" s="4">
         <v>150</v>
@@ -10386,7 +10855,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C15" s="4">
         <v>180</v>
@@ -10400,7 +10869,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C16" s="4">
         <v>200</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -9065,13 +9065,13 @@
         <v>100</v>
       </c>
       <c r="H140" s="5">
-        <v>1380</v>
+        <v>30</v>
       </c>
       <c r="I140" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J140" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
@@ -9107,13 +9107,13 @@
         <v>100</v>
       </c>
       <c r="H141" s="5">
-        <v>1390</v>
+        <v>30</v>
       </c>
       <c r="I141" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J141" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
@@ -9149,13 +9149,13 @@
         <v>100</v>
       </c>
       <c r="H142" s="5">
-        <v>1400</v>
+        <v>30</v>
       </c>
       <c r="I142" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J142" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
@@ -9191,13 +9191,13 @@
         <v>100</v>
       </c>
       <c r="H143" s="5">
-        <v>1410</v>
+        <v>30</v>
       </c>
       <c r="I143" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
@@ -9233,13 +9233,13 @@
         <v>100</v>
       </c>
       <c r="H144" s="5">
-        <v>1420</v>
+        <v>30</v>
       </c>
       <c r="I144" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J144" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
@@ -9275,13 +9275,13 @@
         <v>100</v>
       </c>
       <c r="H145" s="5">
-        <v>1430</v>
+        <v>30</v>
       </c>
       <c r="I145" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J145" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
@@ -9317,13 +9317,13 @@
         <v>100</v>
       </c>
       <c r="H146" s="5">
-        <v>1440</v>
+        <v>30</v>
       </c>
       <c r="I146" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J146" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
@@ -9359,13 +9359,13 @@
         <v>100</v>
       </c>
       <c r="H147" s="5">
-        <v>1450</v>
+        <v>30</v>
       </c>
       <c r="I147" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J147" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
@@ -9401,13 +9401,13 @@
         <v>100</v>
       </c>
       <c r="H148" s="5">
-        <v>1460</v>
+        <v>30</v>
       </c>
       <c r="I148" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J148" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
@@ -9443,13 +9443,13 @@
         <v>100</v>
       </c>
       <c r="H149" s="5">
-        <v>1470</v>
+        <v>30</v>
       </c>
       <c r="I149" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J149" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="556">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>firearm</t>
   </si>
   <si>
+    <t>nightmare</t>
+  </si>
+  <si>
     <t>detail</t>
   </si>
   <si>
@@ -1510,12 +1513,12 @@
     <t>NIGHTMARE</t>
   </si>
   <si>
-    <t>nightmare</t>
-  </si>
-  <si>
     <t>ナイトメア</t>
   </si>
   <si>
+    <t>auto_recover</t>
+  </si>
+  <si>
     <t>INSECT_DEMON</t>
   </si>
   <si>
@@ -1552,6 +1555,9 @@
     <t>炎の悪魔</t>
   </si>
   <si>
+    <t>hungry</t>
+  </si>
+  <si>
     <t>WATER_DEMON</t>
   </si>
   <si>
@@ -1561,6 +1567,9 @@
     <t>水の悪魔</t>
   </si>
   <si>
+    <t>weapon_break</t>
+  </si>
+  <si>
     <t>EARTH_DEMON</t>
   </si>
   <si>
@@ -1570,6 +1579,9 @@
     <t>土の悪魔</t>
   </si>
   <si>
+    <t>wand</t>
+  </si>
+  <si>
     <t>WIND_DEMON</t>
   </si>
   <si>
@@ -1579,6 +1591,9 @@
     <t>風の悪魔</t>
   </si>
   <si>
+    <t>ring</t>
+  </si>
+  <si>
     <t>POISON_DEMON</t>
   </si>
   <si>
@@ -1588,6 +1603,9 @@
     <t>毒の悪魔</t>
   </si>
   <si>
+    <t>attack</t>
+  </si>
+  <si>
     <t>SHADOW_DEMON</t>
   </si>
   <si>
@@ -1597,6 +1615,9 @@
     <t>影の悪魔</t>
   </si>
   <si>
+    <t>potion</t>
+  </si>
+  <si>
     <t>ICE_DEMON</t>
   </si>
   <si>
@@ -1604,6 +1625,9 @@
   </si>
   <si>
     <t>氷の悪魔</t>
+  </si>
+  <si>
+    <t>scroll</t>
   </si>
   <si>
     <t>start</t>
@@ -3129,7 +3153,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R150"/>
+  <dimension ref="A1:S150"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3139,7 +3163,7 @@
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.57031" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" customWidth="1"/>
@@ -3152,8 +3176,9 @@
     <col min="15" max="15" width="3.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.40625" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="36.6328" style="1" customWidth="1"/>
-    <col min="19" max="256" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6328" style="1" customWidth="1"/>
+    <col min="20" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -3211,10 +3236,13 @@
       <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -3232,16 +3260,16 @@
         <v>8</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="4">
         <v>8</v>
@@ -3256,33 +3284,36 @@
         <v>8</v>
       </c>
       <c r="O2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s" s="4">
         <v>8</v>
       </c>
+      <c r="S2" t="s" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -3308,25 +3339,26 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" t="s" s="4">
-        <v>23</v>
+      <c r="R3" s="6"/>
+      <c r="S3" t="s" s="4">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -3345,32 +3377,33 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
-      <c r="R4" t="s" s="4">
-        <v>29</v>
+      <c r="R4" s="6"/>
+      <c r="S4" t="s" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -3396,25 +3429,26 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" t="s" s="4">
-        <v>33</v>
+      <c r="R5" s="6"/>
+      <c r="S5" t="s" s="4">
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -3436,33 +3470,34 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="R6" t="s" s="4">
         <v>40</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" t="s" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -3486,25 +3521,26 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" t="s" s="4">
-        <v>45</v>
+      <c r="R7" s="6"/>
+      <c r="S7" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -3528,25 +3564,26 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" t="s" s="4">
-        <v>45</v>
+      <c r="R8" s="6"/>
+      <c r="S8" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -3565,32 +3602,33 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" t="s" s="4">
-        <v>45</v>
+      <c r="R9" s="6"/>
+      <c r="S9" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3614,25 +3652,26 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" t="s" s="4">
-        <v>45</v>
+      <c r="R10" s="6"/>
+      <c r="S10" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -3656,25 +3695,26 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" t="s" s="4">
-        <v>45</v>
+      <c r="R11" s="6"/>
+      <c r="S11" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3698,25 +3738,26 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" t="s" s="4">
-        <v>45</v>
+      <c r="R12" s="6"/>
+      <c r="S12" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -3737,32 +3778,33 @@
       <c r="L13" s="6"/>
       <c r="M13" s="5"/>
       <c r="N13" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O13" s="5">
         <v>20</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" t="s" s="4">
-        <v>45</v>
+      <c r="R13" s="6"/>
+      <c r="S13" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3786,25 +3828,26 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" t="s" s="4">
-        <v>45</v>
+      <c r="R14" s="6"/>
+      <c r="S14" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3828,25 +3871,26 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" t="s" s="4">
-        <v>45</v>
+      <c r="R15" s="6"/>
+      <c r="S15" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -3870,25 +3914,26 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" t="s" s="4">
-        <v>45</v>
+      <c r="R16" s="6"/>
+      <c r="S16" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3912,25 +3957,26 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" t="s" s="4">
-        <v>45</v>
+      <c r="R17" s="6"/>
+      <c r="S17" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -3948,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="5"/>
@@ -3956,25 +4002,26 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" t="s" s="4">
-        <v>45</v>
+      <c r="R18" s="6"/>
+      <c r="S18" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -3998,25 +4045,26 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" t="s" s="4">
-        <v>45</v>
+      <c r="R19" s="6"/>
+      <c r="S19" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -4040,25 +4088,26 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" t="s" s="4">
-        <v>45</v>
+      <c r="R20" s="6"/>
+      <c r="S20" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -4082,25 +4131,26 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" t="s" s="4">
-        <v>45</v>
+      <c r="R21" s="6"/>
+      <c r="S21" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -4124,25 +4174,26 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" t="s" s="4">
-        <v>45</v>
+      <c r="R22" s="6"/>
+      <c r="S22" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -4166,25 +4217,26 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" t="s" s="4">
-        <v>45</v>
+      <c r="R23" s="6"/>
+      <c r="S23" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -4208,25 +4260,26 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" t="s" s="4">
-        <v>45</v>
+      <c r="R24" s="6"/>
+      <c r="S24" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" t="s" s="3">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
@@ -4250,25 +4303,26 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" t="s" s="4">
-        <v>45</v>
+      <c r="R25" s="6"/>
+      <c r="S25" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" s="4">
         <v>2</v>
@@ -4292,25 +4346,26 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" t="s" s="4">
-        <v>45</v>
+      <c r="R26" s="6"/>
+      <c r="S26" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -4334,25 +4389,26 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" t="s" s="4">
-        <v>45</v>
+      <c r="R27" s="6"/>
+      <c r="S27" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
@@ -4376,25 +4432,26 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" t="s" s="4">
-        <v>45</v>
+      <c r="R28" s="6"/>
+      <c r="S28" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -4418,25 +4475,26 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" t="s" s="4">
-        <v>45</v>
+      <c r="R29" s="6"/>
+      <c r="S29" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -4460,25 +4518,26 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" t="s" s="4">
-        <v>45</v>
+      <c r="R30" s="6"/>
+      <c r="S30" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
@@ -4502,25 +4561,26 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" t="s" s="4">
-        <v>45</v>
+      <c r="R31" s="6"/>
+      <c r="S31" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -4544,25 +4604,26 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" t="s" s="4">
-        <v>45</v>
+      <c r="R32" s="6"/>
+      <c r="S32" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -4586,25 +4647,26 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" t="s" s="4">
-        <v>45</v>
+      <c r="R33" s="6"/>
+      <c r="S33" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -4628,25 +4690,26 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" t="s" s="4">
-        <v>45</v>
+      <c r="R34" s="6"/>
+      <c r="S34" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" t="s" s="3">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F35" s="4">
         <v>3</v>
@@ -4670,25 +4733,26 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" t="s" s="4">
-        <v>45</v>
+      <c r="R35" s="6"/>
+      <c r="S35" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F36" s="4">
         <v>3</v>
@@ -4712,25 +4776,26 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" t="s" s="4">
-        <v>45</v>
+      <c r="R36" s="6"/>
+      <c r="S36" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" t="s" s="3">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F37" s="4">
         <v>3</v>
@@ -4754,25 +4819,26 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" t="s" s="4">
-        <v>45</v>
+      <c r="R37" s="6"/>
+      <c r="S37" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" t="s" s="3">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" s="4">
         <v>3</v>
@@ -4796,25 +4862,26 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" t="s" s="4">
-        <v>45</v>
+      <c r="R38" s="6"/>
+      <c r="S38" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" t="s" s="3">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F39" s="4">
         <v>3</v>
@@ -4838,25 +4905,26 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" t="s" s="4">
-        <v>45</v>
+      <c r="R39" s="6"/>
+      <c r="S39" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" t="s" s="3">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F40" s="4">
         <v>3</v>
@@ -4880,25 +4948,26 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" t="s" s="4">
-        <v>45</v>
+      <c r="R40" s="6"/>
+      <c r="S40" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" t="s" s="3">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
@@ -4922,25 +4991,26 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" t="s" s="4">
-        <v>45</v>
+      <c r="R41" s="6"/>
+      <c r="S41" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F42" s="4">
         <v>3</v>
@@ -4964,25 +5034,26 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" t="s" s="4">
-        <v>45</v>
+      <c r="R42" s="6"/>
+      <c r="S42" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F43" s="4">
         <v>3</v>
@@ -5006,25 +5077,26 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" t="s" s="4">
-        <v>45</v>
+      <c r="R43" s="6"/>
+      <c r="S43" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" t="s" s="3">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F44" s="4">
         <v>3</v>
@@ -5048,25 +5120,26 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" t="s" s="4">
-        <v>45</v>
+      <c r="R44" s="6"/>
+      <c r="S44" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" t="s" s="3">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F45" s="4">
         <v>3</v>
@@ -5090,25 +5163,26 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" t="s" s="4">
-        <v>45</v>
+      <c r="R45" s="6"/>
+      <c r="S45" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" t="s" s="3">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E46" t="s" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F46" s="4">
         <v>3</v>
@@ -5132,25 +5206,26 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
-      <c r="R46" t="s" s="4">
-        <v>45</v>
+      <c r="R46" s="6"/>
+      <c r="S46" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" t="s" s="3">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
@@ -5174,25 +5249,26 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-      <c r="R47" t="s" s="4">
-        <v>45</v>
+      <c r="R47" s="6"/>
+      <c r="S47" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" t="s" s="3">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E48" t="s" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F48" s="4">
         <v>4</v>
@@ -5216,25 +5292,26 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
-      <c r="R48" t="s" s="4">
-        <v>45</v>
+      <c r="R48" s="6"/>
+      <c r="S48" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" t="s" s="3">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F49" s="4">
         <v>4</v>
@@ -5258,25 +5335,26 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
-      <c r="R49" t="s" s="4">
-        <v>45</v>
+      <c r="R49" s="6"/>
+      <c r="S49" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s" s="4">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F50" s="4">
         <v>4</v>
@@ -5300,25 +5378,26 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
-      <c r="R50" t="s" s="4">
-        <v>45</v>
+      <c r="R50" s="6"/>
+      <c r="S50" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" t="s" s="3">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s" s="4">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s" s="4">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
@@ -5342,25 +5421,26 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-      <c r="R51" t="s" s="4">
-        <v>45</v>
+      <c r="R51" s="6"/>
+      <c r="S51" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" t="s" s="3">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F52" s="4">
         <v>5</v>
@@ -5384,25 +5464,26 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
-      <c r="R52" t="s" s="4">
-        <v>45</v>
+      <c r="R52" s="6"/>
+      <c r="S52" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" t="s" s="3">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s" s="4">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F53" s="4">
         <v>4</v>
@@ -5426,25 +5507,26 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-      <c r="R53" t="s" s="4">
-        <v>45</v>
+      <c r="R53" s="6"/>
+      <c r="S53" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" t="s" s="3">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E54" t="s" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F54" s="4">
         <v>4</v>
@@ -5468,25 +5550,26 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
-      <c r="R54" t="s" s="4">
-        <v>45</v>
+      <c r="R54" s="6"/>
+      <c r="S54" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" t="s" s="3">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s" s="4">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F55" s="4">
         <v>4</v>
@@ -5510,25 +5593,26 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
-      <c r="R55" t="s" s="4">
-        <v>45</v>
+      <c r="R55" s="6"/>
+      <c r="S55" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" t="s" s="3">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s" s="4">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s" s="4">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F56" s="4">
         <v>4</v>
@@ -5552,25 +5636,26 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-      <c r="R56" t="s" s="4">
-        <v>45</v>
+      <c r="R56" s="6"/>
+      <c r="S56" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D57" t="s" s="4">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F57" s="4">
         <v>5</v>
@@ -5594,25 +5679,26 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
-      <c r="R57" t="s" s="4">
-        <v>45</v>
+      <c r="R57" s="6"/>
+      <c r="S57" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" t="s" s="3">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F58" s="4">
         <v>5</v>
@@ -5636,25 +5722,26 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
-      <c r="R58" t="s" s="4">
-        <v>45</v>
+      <c r="R58" s="6"/>
+      <c r="S58" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" t="s" s="3">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s" s="4">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s" s="4">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F59" s="4">
         <v>5</v>
@@ -5678,25 +5765,26 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
-      <c r="R59" t="s" s="4">
-        <v>45</v>
+      <c r="R59" s="6"/>
+      <c r="S59" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" t="s" s="3">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C60" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F60" s="4">
         <v>5</v>
@@ -5720,28 +5808,29 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" t="s" s="4">
-        <v>45</v>
+      <c r="R60" s="6"/>
+      <c r="S60" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" t="s" s="3">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F61" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G61" s="4">
         <v>100</v>
@@ -5762,28 +5851,29 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" t="s" s="4">
-        <v>45</v>
+      <c r="R61" s="6"/>
+      <c r="S61" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" t="s" s="3">
+        <v>242</v>
+      </c>
+      <c r="B62" t="s" s="4">
+        <v>243</v>
+      </c>
+      <c r="C62" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="D62" t="s" s="4">
+        <v>244</v>
+      </c>
+      <c r="E62" t="s" s="4">
+        <v>245</v>
+      </c>
+      <c r="F62" t="s" s="4">
         <v>241</v>
-      </c>
-      <c r="B62" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="C62" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s" s="4">
-        <v>243</v>
-      </c>
-      <c r="E62" t="s" s="4">
-        <v>244</v>
-      </c>
-      <c r="F62" t="s" s="4">
-        <v>240</v>
       </c>
       <c r="G62" s="4">
         <v>100</v>
@@ -5804,28 +5894,29 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
-      <c r="R62" t="s" s="4">
-        <v>45</v>
+      <c r="R62" s="6"/>
+      <c r="S62" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" t="s" s="3">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s" s="4">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E63" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F63" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G63" s="4">
         <v>100</v>
@@ -5846,28 +5937,29 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-      <c r="R63" t="s" s="4">
-        <v>45</v>
+      <c r="R63" s="6"/>
+      <c r="S63" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" t="s" s="3">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C64" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E64" t="s" s="4">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F64" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G64" s="4">
         <v>100</v>
@@ -5888,28 +5980,29 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
-      <c r="R64" t="s" s="4">
-        <v>45</v>
+      <c r="R64" s="6"/>
+      <c r="S64" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" t="s" s="3">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C65" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s" s="4">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s" s="4">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G65" s="4">
         <v>100</v>
@@ -5930,28 +6023,29 @@
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-      <c r="R65" t="s" s="4">
-        <v>45</v>
+      <c r="R65" s="6"/>
+      <c r="S65" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" t="s" s="3">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E66" t="s" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F66" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G66" s="4">
         <v>100</v>
@@ -5972,28 +6066,29 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-      <c r="R66" t="s" s="4">
-        <v>45</v>
+      <c r="R66" s="6"/>
+      <c r="S66" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F67" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G67" s="4">
         <v>100</v>
@@ -6014,28 +6109,29 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-      <c r="R67" t="s" s="4">
-        <v>45</v>
+      <c r="R67" s="6"/>
+      <c r="S67" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E68" t="s" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F68" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G68" s="4">
         <v>100</v>
@@ -6056,28 +6152,29 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-      <c r="R68" t="s" s="4">
-        <v>45</v>
+      <c r="R68" s="6"/>
+      <c r="S68" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" t="s" s="3">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C69" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E69" t="s" s="4">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F69" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G69" s="4">
         <v>100</v>
@@ -6098,28 +6195,29 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
-      <c r="R69" t="s" s="4">
-        <v>45</v>
+      <c r="R69" s="6"/>
+      <c r="S69" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C70" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E70" t="s" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G70" s="4">
         <v>100</v>
@@ -6140,25 +6238,26 @@
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
-      <c r="R70" t="s" s="4">
-        <v>45</v>
+      <c r="R70" s="6"/>
+      <c r="S70" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" t="s" s="3">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C71" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F71" s="4">
         <v>3</v>
@@ -6182,25 +6281,26 @@
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
-      <c r="R71" t="s" s="4">
-        <v>45</v>
+      <c r="R71" s="6"/>
+      <c r="S71" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" t="s" s="3">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C72" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E72" t="s" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F72" s="4">
         <v>3</v>
@@ -6224,25 +6324,26 @@
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
-      <c r="R72" t="s" s="4">
-        <v>45</v>
+      <c r="R72" s="6"/>
+      <c r="S72" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" t="s" s="3">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C73" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E73" t="s" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F73" s="4">
         <v>4</v>
@@ -6266,25 +6367,26 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
-      <c r="R73" t="s" s="4">
-        <v>45</v>
+      <c r="R73" s="6"/>
+      <c r="S73" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" t="s" s="3">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C74" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s" s="4">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s" s="4">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
@@ -6308,25 +6410,26 @@
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
-      <c r="R74" t="s" s="4">
-        <v>45</v>
+      <c r="R74" s="6"/>
+      <c r="S74" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" t="s" s="3">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C75" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E75" t="s" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F75" s="4">
         <v>2</v>
@@ -6350,25 +6453,26 @@
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-      <c r="R75" t="s" s="4">
-        <v>45</v>
+      <c r="R75" s="6"/>
+      <c r="S75" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" t="s" s="3">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C76" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F76" s="4">
         <v>2</v>
@@ -6392,25 +6496,26 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-      <c r="R76" t="s" s="4">
-        <v>45</v>
+      <c r="R76" s="6"/>
+      <c r="S76" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" t="s" s="3">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C77" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s" s="4">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E77" t="s" s="4">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F77" s="4">
         <v>3</v>
@@ -6434,25 +6539,26 @@
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
-      <c r="R77" t="s" s="4">
-        <v>45</v>
+      <c r="R77" s="6"/>
+      <c r="S77" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" t="s" s="3">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C78" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s" s="4">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s" s="4">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F78" s="4">
         <v>3</v>
@@ -6476,25 +6582,26 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
-      <c r="R78" t="s" s="4">
-        <v>45</v>
+      <c r="R78" s="6"/>
+      <c r="S78" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" t="s" s="3">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C79" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E79" t="s" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F79" s="4">
         <v>3</v>
@@ -6518,25 +6625,26 @@
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-      <c r="R79" t="s" s="4">
-        <v>45</v>
+      <c r="R79" s="6"/>
+      <c r="S79" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" t="s" s="3">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C80" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E80" t="s" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F80" s="4">
         <v>3</v>
@@ -6560,28 +6668,29 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
-      <c r="R80" t="s" s="4">
-        <v>45</v>
+      <c r="R80" s="6"/>
+      <c r="S80" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" t="s" s="3">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C81" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E81" t="s" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F81" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G81" s="4">
         <v>100</v>
@@ -6602,28 +6711,29 @@
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-      <c r="R81" t="s" s="4">
-        <v>45</v>
+      <c r="R81" s="6"/>
+      <c r="S81" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" t="s" s="3">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C82" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s" s="4">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E82" t="s" s="4">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F82" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G82" s="4">
         <v>100</v>
@@ -6644,28 +6754,29 @@
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
-      <c r="R82" t="s" s="4">
-        <v>45</v>
+      <c r="R82" s="6"/>
+      <c r="S82" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" t="s" s="3">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B83" t="s" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C83" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s" s="4">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E83" t="s" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F83" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G83" s="4">
         <v>100</v>
@@ -6686,28 +6797,29 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" t="s" s="4">
-        <v>45</v>
+      <c r="R83" s="6"/>
+      <c r="S83" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" t="s" s="3">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B84" t="s" s="4">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C84" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s" s="4">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E84" t="s" s="4">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F84" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G84" s="4">
         <v>100</v>
@@ -6728,28 +6840,29 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-      <c r="R84" t="s" s="4">
-        <v>45</v>
+      <c r="R84" s="6"/>
+      <c r="S84" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" t="s" s="3">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B85" t="s" s="4">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C85" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s" s="4">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E85" t="s" s="4">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F85" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G85" s="4">
         <v>100</v>
@@ -6770,28 +6883,29 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-      <c r="R85" t="s" s="4">
-        <v>45</v>
+      <c r="R85" s="6"/>
+      <c r="S85" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" t="s" s="3">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B86" t="s" s="4">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C86" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s" s="4">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E86" t="s" s="4">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F86" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G86" s="4">
         <v>100</v>
@@ -6812,28 +6926,29 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-      <c r="R86" t="s" s="4">
-        <v>45</v>
+      <c r="R86" s="6"/>
+      <c r="S86" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" t="s" s="3">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B87" t="s" s="4">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C87" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s" s="4">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E87" t="s" s="4">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F87" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G87" s="4">
         <v>100</v>
@@ -6854,28 +6969,29 @@
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
-      <c r="R87" t="s" s="4">
-        <v>45</v>
+      <c r="R87" s="6"/>
+      <c r="S87" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" t="s" s="3">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B88" t="s" s="4">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C88" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E88" t="s" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F88" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G88" s="4">
         <v>100</v>
@@ -6896,25 +7012,26 @@
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
-      <c r="R88" t="s" s="4">
-        <v>45</v>
+      <c r="R88" s="6"/>
+      <c r="S88" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" t="s" s="3">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B89" t="s" s="4">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C89" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s" s="4">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E89" t="s" s="4">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F89" s="4">
         <v>3</v>
@@ -6938,28 +7055,29 @@
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
-      <c r="R89" t="s" s="4">
-        <v>45</v>
+      <c r="R89" s="6"/>
+      <c r="S89" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B90" t="s" s="4">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C90" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s" s="4">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E90" t="s" s="4">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F90" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G90" s="4">
         <v>100</v>
@@ -6980,28 +7098,29 @@
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
-      <c r="R90" t="s" s="4">
-        <v>45</v>
+      <c r="R90" s="6"/>
+      <c r="S90" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B91" t="s" s="4">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C91" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s" s="4">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E91" t="s" s="4">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F91" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G91" s="4">
         <v>100</v>
@@ -7022,25 +7141,26 @@
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
-      <c r="R91" t="s" s="4">
-        <v>45</v>
+      <c r="R91" s="6"/>
+      <c r="S91" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B92" t="s" s="4">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C92" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D92" t="s" s="4">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E92" t="s" s="4">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F92" s="4">
         <v>2</v>
@@ -7064,25 +7184,26 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
-      <c r="R92" t="s" s="4">
-        <v>45</v>
+      <c r="R92" s="6"/>
+      <c r="S92" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" t="s" s="3">
+        <v>347</v>
+      </c>
+      <c r="B93" t="s" s="4">
+        <v>348</v>
+      </c>
+      <c r="C93" t="s" s="4">
+        <v>344</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>346</v>
       </c>
-      <c r="B93" t="s" s="4">
-        <v>347</v>
-      </c>
-      <c r="C93" t="s" s="4">
-        <v>343</v>
-      </c>
-      <c r="D93" t="s" s="4">
-        <v>345</v>
-      </c>
       <c r="E93" t="s" s="4">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F93" s="4">
         <v>2</v>
@@ -7106,28 +7227,29 @@
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
-      <c r="R93" t="s" s="4">
-        <v>45</v>
+      <c r="R93" s="6"/>
+      <c r="S93" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" t="s" s="3">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B94" t="s" s="4">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D94" t="s" s="4">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E94" t="s" s="4">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F94" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G94" s="4">
         <v>100</v>
@@ -7148,28 +7270,29 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-      <c r="R94" t="s" s="4">
-        <v>45</v>
+      <c r="R94" s="6"/>
+      <c r="S94" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" t="s" s="3">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B95" t="s" s="4">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C95" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D95" t="s" s="4">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E95" t="s" s="4">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F95" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G95" s="4">
         <v>100</v>
@@ -7190,25 +7313,26 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
-      <c r="R95" t="s" s="4">
-        <v>45</v>
+      <c r="R95" s="6"/>
+      <c r="S95" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B96" t="s" s="4">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C96" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D96" t="s" s="4">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E96" t="s" s="4">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F96" s="4">
         <v>4</v>
@@ -7232,25 +7356,26 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
-      <c r="R96" t="s" s="4">
-        <v>45</v>
+      <c r="R96" s="6"/>
+      <c r="S96" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" t="s" s="3">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B97" t="s" s="4">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C97" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D97" t="s" s="4">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E97" t="s" s="4">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F97" s="4">
         <v>3</v>
@@ -7274,25 +7399,26 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
-      <c r="R97" t="s" s="4">
-        <v>45</v>
+      <c r="R97" s="6"/>
+      <c r="S97" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98" t="s" s="3">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B98" t="s" s="4">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C98" t="s" s="4">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D98" t="s" s="4">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E98" t="s" s="4">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F98" s="4">
         <v>2</v>
@@ -7316,28 +7442,29 @@
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
-      <c r="R98" t="s" s="4">
-        <v>45</v>
+      <c r="R98" s="6"/>
+      <c r="S98" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99" t="s" s="3">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B99" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C99" t="s" s="4">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D99" t="s" s="4">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E99" t="s" s="4">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F99" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G99" s="4">
         <v>100</v>
@@ -7358,25 +7485,26 @@
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
-      <c r="R99" t="s" s="4">
-        <v>45</v>
+      <c r="R99" s="6"/>
+      <c r="S99" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="20" customHeight="1">
       <c r="A100" t="s" s="3">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B100" t="s" s="4">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C100" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D100" t="s" s="4">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E100" t="s" s="4">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F100" s="4">
         <v>3</v>
@@ -7400,25 +7528,26 @@
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
-      <c r="R100" t="s" s="4">
-        <v>45</v>
+      <c r="R100" s="6"/>
+      <c r="S100" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="101" ht="20" customHeight="1">
       <c r="A101" t="s" s="3">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B101" t="s" s="4">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C101" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D101" t="s" s="4">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E101" t="s" s="4">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F101" s="4">
         <v>4</v>
@@ -7442,25 +7571,26 @@
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
-      <c r="R101" t="s" s="4">
-        <v>45</v>
+      <c r="R101" s="6"/>
+      <c r="S101" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="102" ht="20" customHeight="1">
       <c r="A102" t="s" s="3">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B102" t="s" s="4">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C102" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D102" t="s" s="4">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E102" t="s" s="4">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F102" s="4">
         <v>4</v>
@@ -7484,25 +7614,26 @@
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
-      <c r="R102" t="s" s="4">
-        <v>45</v>
+      <c r="R102" s="6"/>
+      <c r="S102" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="103" ht="20" customHeight="1">
       <c r="A103" t="s" s="3">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B103" t="s" s="4">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C103" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D103" t="s" s="4">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E103" t="s" s="4">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F103" s="4">
         <v>2</v>
@@ -7526,25 +7657,26 @@
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
-      <c r="R103" t="s" s="4">
-        <v>45</v>
+      <c r="R103" s="6"/>
+      <c r="S103" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="104" ht="20" customHeight="1">
       <c r="A104" t="s" s="3">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B104" t="s" s="4">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C104" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D104" t="s" s="4">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E104" t="s" s="4">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F104" s="4">
         <v>3</v>
@@ -7568,25 +7700,26 @@
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
-      <c r="R104" t="s" s="4">
-        <v>45</v>
+      <c r="R104" s="6"/>
+      <c r="S104" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="105" ht="20" customHeight="1">
       <c r="A105" t="s" s="3">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B105" t="s" s="4">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C105" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D105" t="s" s="4">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E105" t="s" s="4">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F105" s="4">
         <v>3</v>
@@ -7610,25 +7743,26 @@
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
-      <c r="R105" t="s" s="4">
-        <v>45</v>
+      <c r="R105" s="6"/>
+      <c r="S105" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1">
       <c r="A106" t="s" s="3">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B106" t="s" s="4">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C106" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D106" t="s" s="4">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E106" t="s" s="4">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F106" s="4">
         <v>4</v>
@@ -7652,25 +7786,26 @@
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
-      <c r="R106" t="s" s="4">
-        <v>45</v>
+      <c r="R106" s="6"/>
+      <c r="S106" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="107" ht="20" customHeight="1">
       <c r="A107" t="s" s="3">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B107" t="s" s="4">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C107" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D107" t="s" s="4">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E107" t="s" s="4">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F107" s="4">
         <v>4</v>
@@ -7694,25 +7829,26 @@
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
-      <c r="R107" t="s" s="4">
-        <v>45</v>
+      <c r="R107" s="6"/>
+      <c r="S107" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1">
       <c r="A108" t="s" s="3">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B108" t="s" s="4">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C108" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D108" t="s" s="4">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E108" t="s" s="4">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F108" s="4">
         <v>2</v>
@@ -7736,25 +7872,26 @@
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
-      <c r="R108" t="s" s="4">
-        <v>45</v>
+      <c r="R108" s="6"/>
+      <c r="S108" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109" t="s" s="3">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B109" t="s" s="4">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C109" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D109" t="s" s="4">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E109" t="s" s="4">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F109" s="4">
         <v>2</v>
@@ -7778,28 +7915,29 @@
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
-      <c r="R109" t="s" s="4">
-        <v>45</v>
+      <c r="R109" s="6"/>
+      <c r="S109" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" t="s" s="3">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B110" t="s" s="4">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C110" t="s" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D110" t="s" s="4">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E110" t="s" s="4">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F110" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G110" s="4">
         <v>100</v>
@@ -7820,28 +7958,29 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
-      <c r="R110" t="s" s="4">
-        <v>45</v>
+      <c r="R110" s="6"/>
+      <c r="S110" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111" t="s" s="3">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
       <c r="C111" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s" s="4">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E111" t="s" s="4">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F111" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G111" s="4">
         <v>100</v>
@@ -7862,25 +8001,26 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
-      <c r="R111" t="s" s="4">
-        <v>45</v>
+      <c r="R111" s="6"/>
+      <c r="S111" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112" t="s" s="3">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B112" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C112" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E112" t="s" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F112" s="4">
         <v>2</v>
@@ -7904,25 +8044,26 @@
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
-      <c r="R112" t="s" s="4">
-        <v>45</v>
+      <c r="R112" s="6"/>
+      <c r="S112" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113" t="s" s="3">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B113" t="s" s="4">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C113" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D113" t="s" s="4">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E113" t="s" s="4">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F113" s="4">
         <v>2</v>
@@ -7946,25 +8087,26 @@
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
-      <c r="R113" t="s" s="4">
-        <v>45</v>
+      <c r="R113" s="6"/>
+      <c r="S113" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="114" ht="20" customHeight="1">
       <c r="A114" t="s" s="3">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B114" t="s" s="4">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C114" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s" s="4">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E114" t="s" s="4">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F114" s="4">
         <v>2</v>
@@ -7988,25 +8130,26 @@
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
-      <c r="R114" t="s" s="4">
-        <v>45</v>
+      <c r="R114" s="6"/>
+      <c r="S114" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="115" ht="20" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B115" t="s" s="4">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C115" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s" s="4">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E115" t="s" s="4">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F115" s="4">
         <v>2</v>
@@ -8030,28 +8173,29 @@
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
-      <c r="R115" t="s" s="4">
-        <v>45</v>
+      <c r="R115" s="6"/>
+      <c r="S115" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="116" ht="20" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B116" t="s" s="4">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C116" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D116" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E116" t="s" s="4">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F116" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G116" s="4">
         <v>100</v>
@@ -8072,28 +8216,29 @@
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
-      <c r="R116" t="s" s="4">
-        <v>45</v>
+      <c r="R116" s="6"/>
+      <c r="S116" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="117" ht="20" customHeight="1">
       <c r="A117" t="s" s="3">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B117" t="s" s="4">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C117" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s" s="4">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E117" t="s" s="4">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F117" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G117" s="4">
         <v>100</v>
@@ -8114,25 +8259,26 @@
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
-      <c r="R117" t="s" s="4">
-        <v>45</v>
+      <c r="R117" s="6"/>
+      <c r="S117" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="118" ht="20" customHeight="1">
       <c r="A118" t="s" s="3">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B118" t="s" s="4">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C118" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s" s="4">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E118" t="s" s="4">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F118" s="4">
         <v>2</v>
@@ -8156,25 +8302,26 @@
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
-      <c r="R118" t="s" s="4">
-        <v>45</v>
+      <c r="R118" s="6"/>
+      <c r="S118" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" t="s" s="3">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B119" t="s" s="4">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C119" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s" s="4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E119" t="s" s="4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F119" s="4">
         <v>3</v>
@@ -8198,25 +8345,26 @@
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
-      <c r="R119" t="s" s="4">
-        <v>45</v>
+      <c r="R119" s="6"/>
+      <c r="S119" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="120" ht="20" customHeight="1">
       <c r="A120" t="s" s="3">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B120" t="s" s="4">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C120" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D120" t="s" s="4">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E120" t="s" s="4">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F120" s="4">
         <v>4</v>
@@ -8240,25 +8388,26 @@
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
-      <c r="R120" t="s" s="4">
-        <v>45</v>
+      <c r="R120" s="6"/>
+      <c r="S120" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="121" ht="20" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B121" t="s" s="4">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C121" t="s" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D121" t="s" s="4">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E121" t="s" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F121" s="4">
         <v>3</v>
@@ -8282,25 +8431,26 @@
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
-      <c r="R121" t="s" s="4">
-        <v>45</v>
+      <c r="R121" s="6"/>
+      <c r="S121" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="122" ht="20" customHeight="1">
       <c r="A122" t="s" s="3">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B122" t="s" s="4">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C122" t="s" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D122" t="s" s="4">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E122" t="s" s="4">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F122" s="4">
         <v>2</v>
@@ -8324,25 +8474,26 @@
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
-      <c r="R122" t="s" s="4">
-        <v>45</v>
+      <c r="R122" s="6"/>
+      <c r="S122" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="123" ht="20" customHeight="1">
       <c r="A123" t="s" s="3">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B123" t="s" s="4">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C123" t="s" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D123" t="s" s="4">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E123" t="s" s="4">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F123" s="4">
         <v>2</v>
@@ -8366,25 +8517,26 @@
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
-      <c r="R123" t="s" s="4">
-        <v>45</v>
+      <c r="R123" s="6"/>
+      <c r="S123" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="124" ht="20" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B124" t="s" s="4">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C124" t="s" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D124" t="s" s="4">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E124" t="s" s="4">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F124" s="4">
         <v>3</v>
@@ -8408,25 +8560,26 @@
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
-      <c r="R124" t="s" s="4">
-        <v>45</v>
+      <c r="R124" s="6"/>
+      <c r="S124" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="125" ht="20" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B125" t="s" s="4">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C125" t="s" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D125" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E125" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F125" s="4">
         <v>2</v>
@@ -8450,25 +8603,26 @@
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
-      <c r="R125" t="s" s="4">
-        <v>45</v>
+      <c r="R125" s="6"/>
+      <c r="S125" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="126" ht="20" customHeight="1">
       <c r="A126" t="s" s="3">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B126" t="s" s="4">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C126" t="s" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D126" t="s" s="4">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E126" t="s" s="4">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F126" s="4">
         <v>3</v>
@@ -8492,25 +8646,26 @@
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
-      <c r="R126" t="s" s="4">
-        <v>45</v>
+      <c r="R126" s="6"/>
+      <c r="S126" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="127" ht="20" customHeight="1">
       <c r="A127" t="s" s="3">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B127" t="s" s="4">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C127" t="s" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D127" t="s" s="4">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E127" t="s" s="4">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F127" s="4">
         <v>2</v>
@@ -8534,25 +8689,26 @@
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
-      <c r="R127" t="s" s="4">
-        <v>45</v>
+      <c r="R127" s="6"/>
+      <c r="S127" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="128" ht="20" customHeight="1">
       <c r="A128" t="s" s="3">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B128" t="s" s="4">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C128" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D128" t="s" s="4">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E128" t="s" s="4">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F128" s="4">
         <v>2</v>
@@ -8576,25 +8732,26 @@
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
-      <c r="R128" t="s" s="4">
-        <v>45</v>
+      <c r="R128" s="6"/>
+      <c r="S128" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" t="s" s="3">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B129" t="s" s="4">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C129" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D129" t="s" s="4">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E129" t="s" s="4">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F129" s="4">
         <v>3</v>
@@ -8618,25 +8775,26 @@
       <c r="O129" s="5"/>
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
-      <c r="R129" t="s" s="4">
-        <v>45</v>
+      <c r="R129" s="6"/>
+      <c r="S129" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="130" ht="20" customHeight="1">
       <c r="A130" t="s" s="3">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B130" t="s" s="4">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C130" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D130" t="s" s="4">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E130" t="s" s="4">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F130" s="4">
         <v>3</v>
@@ -8660,25 +8818,26 @@
       <c r="O130" s="5"/>
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
-      <c r="R130" t="s" s="4">
-        <v>45</v>
+      <c r="R130" s="6"/>
+      <c r="S130" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="131" ht="20" customHeight="1">
       <c r="A131" t="s" s="3">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B131" t="s" s="4">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C131" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D131" t="s" s="4">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E131" t="s" s="4">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F131" s="4">
         <v>3</v>
@@ -8702,25 +8861,26 @@
       <c r="O131" s="5"/>
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
-      <c r="R131" t="s" s="4">
-        <v>45</v>
+      <c r="R131" s="6"/>
+      <c r="S131" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="132" ht="20" customHeight="1">
       <c r="A132" t="s" s="3">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B132" t="s" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C132" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D132" t="s" s="4">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E132" t="s" s="4">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F132" s="4">
         <v>3</v>
@@ -8744,25 +8904,26 @@
       <c r="O132" s="5"/>
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
-      <c r="R132" t="s" s="4">
-        <v>45</v>
+      <c r="R132" s="6"/>
+      <c r="S132" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="133" ht="20" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B133" t="s" s="4">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C133" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D133" t="s" s="4">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E133" t="s" s="4">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F133" s="4">
         <v>4</v>
@@ -8786,25 +8947,26 @@
       <c r="O133" s="5"/>
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
-      <c r="R133" t="s" s="4">
-        <v>45</v>
+      <c r="R133" s="6"/>
+      <c r="S133" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="134" ht="20" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B134" t="s" s="4">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C134" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D134" t="s" s="4">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E134" t="s" s="4">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F134" s="4">
         <v>5</v>
@@ -8828,25 +8990,26 @@
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
-      <c r="R134" t="s" s="4">
-        <v>45</v>
+      <c r="R134" s="6"/>
+      <c r="S134" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="135" ht="20" customHeight="1">
       <c r="A135" t="s" s="3">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B135" t="s" s="4">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C135" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D135" t="s" s="4">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E135" t="s" s="4">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F135" s="4">
         <v>4</v>
@@ -8870,25 +9033,26 @@
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
-      <c r="R135" t="s" s="4">
-        <v>45</v>
+      <c r="R135" s="6"/>
+      <c r="S135" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="136" ht="20" customHeight="1">
       <c r="A136" t="s" s="3">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B136" t="s" s="4">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C136" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D136" t="s" s="4">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E136" t="s" s="4">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F136" s="4">
         <v>5</v>
@@ -8912,25 +9076,26 @@
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
-      <c r="R136" t="s" s="4">
-        <v>45</v>
+      <c r="R136" s="6"/>
+      <c r="S136" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="137" ht="20" customHeight="1">
       <c r="A137" t="s" s="3">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B137" t="s" s="4">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C137" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D137" t="s" s="4">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E137" t="s" s="4">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F137" s="4">
         <v>3</v>
@@ -8954,25 +9119,26 @@
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
-      <c r="R137" t="s" s="4">
-        <v>45</v>
+      <c r="R137" s="6"/>
+      <c r="S137" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="138" ht="20" customHeight="1">
       <c r="A138" t="s" s="3">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B138" t="s" s="4">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C138" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D138" t="s" s="4">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E138" t="s" s="4">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F138" s="4">
         <v>4</v>
@@ -8996,19 +9162,20 @@
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
-      <c r="R138" t="s" s="4">
-        <v>45</v>
+      <c r="R138" s="6"/>
+      <c r="S138" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="139" ht="20" customHeight="1">
       <c r="A139" t="s" s="3">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B139" t="s" s="4">
-        <v>498</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D139" t="s" s="4">
         <v>499</v>
@@ -9020,7 +9187,7 @@
         <v>4</v>
       </c>
       <c r="G139" s="4">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H139" s="5">
         <v>30</v>
@@ -9029,7 +9196,7 @@
         <v>4</v>
       </c>
       <c r="J139" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
@@ -9039,24 +9206,27 @@
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" t="s" s="4">
-        <v>45</v>
+        <v>500</v>
+      </c>
+      <c r="S139" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="140" ht="20" customHeight="1">
       <c r="A140" t="s" s="3">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B140" t="s" s="4">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C140" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D140" t="s" s="4">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E140" t="s" s="4">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F140" s="4">
         <v>3</v>
@@ -9080,25 +9250,26 @@
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
-      <c r="R140" t="s" s="4">
-        <v>45</v>
+      <c r="R140" s="6"/>
+      <c r="S140" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="141" ht="20" customHeight="1">
       <c r="A141" t="s" s="3">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B141" t="s" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C141" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D141" t="s" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E141" t="s" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F141" s="4">
         <v>3</v>
@@ -9122,25 +9293,26 @@
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
-      <c r="R141" t="s" s="4">
-        <v>45</v>
+      <c r="R141" s="6"/>
+      <c r="S141" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="142" ht="20" customHeight="1">
       <c r="A142" t="s" s="3">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B142" t="s" s="4">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C142" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D142" t="s" s="4">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E142" t="s" s="4">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F142" s="4">
         <v>4</v>
@@ -9164,25 +9336,26 @@
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
-      <c r="R142" t="s" s="4">
-        <v>45</v>
+      <c r="R142" s="6"/>
+      <c r="S142" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="143" ht="20" customHeight="1">
       <c r="A143" t="s" s="3">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B143" t="s" s="4">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C143" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D143" t="s" s="4">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E143" t="s" s="4">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F143" s="4">
         <v>5</v>
@@ -9207,24 +9380,27 @@
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" t="s" s="4">
-        <v>45</v>
+        <v>513</v>
+      </c>
+      <c r="S143" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="144" ht="20" customHeight="1">
       <c r="A144" t="s" s="3">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B144" t="s" s="4">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C144" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D144" t="s" s="4">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E144" t="s" s="4">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F144" s="4">
         <v>5</v>
@@ -9249,24 +9425,27 @@
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" t="s" s="4">
-        <v>45</v>
+        <v>517</v>
+      </c>
+      <c r="S144" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="145" ht="20" customHeight="1">
       <c r="A145" t="s" s="3">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B145" t="s" s="4">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C145" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D145" t="s" s="4">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E145" t="s" s="4">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F145" s="4">
         <v>5</v>
@@ -9291,24 +9470,27 @@
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" t="s" s="4">
-        <v>45</v>
+        <v>521</v>
+      </c>
+      <c r="S145" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="146" ht="20" customHeight="1">
       <c r="A146" t="s" s="3">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B146" t="s" s="4">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C146" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D146" t="s" s="4">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E146" t="s" s="4">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F146" s="4">
         <v>5</v>
@@ -9333,24 +9515,27 @@
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" t="s" s="4">
-        <v>45</v>
+        <v>525</v>
+      </c>
+      <c r="S146" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="147" ht="20" customHeight="1">
       <c r="A147" t="s" s="3">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B147" t="s" s="4">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C147" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D147" t="s" s="4">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="E147" t="s" s="4">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F147" s="4">
         <v>5</v>
@@ -9375,24 +9560,27 @@
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" t="s" s="4">
-        <v>45</v>
+        <v>529</v>
+      </c>
+      <c r="S147" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="148" ht="20" customHeight="1">
       <c r="A148" t="s" s="3">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B148" t="s" s="4">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C148" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D148" t="s" s="4">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E148" t="s" s="4">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F148" s="4">
         <v>5</v>
@@ -9417,24 +9605,27 @@
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" t="s" s="4">
-        <v>45</v>
+        <v>533</v>
+      </c>
+      <c r="S148" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="149" ht="20" customHeight="1">
       <c r="A149" t="s" s="3">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B149" t="s" s="4">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C149" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D149" t="s" s="4">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E149" t="s" s="4">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F149" s="4">
         <v>5</v>
@@ -9459,7 +9650,10 @@
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" t="s" s="4">
-        <v>45</v>
+        <v>537</v>
+      </c>
+      <c r="S149" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="150" ht="20" customHeight="1">
@@ -9480,8 +9674,9 @@
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
-      <c r="R150" t="s" s="4">
-        <v>45</v>
+      <c r="R150" s="6"/>
+      <c r="S150" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -9529,105 +9724,105 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="O1" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="P1" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="Q1" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s" s="15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s" s="15">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -9679,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="18">
         <v>100</v>
@@ -9716,13 +9911,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="18">
         <v>100</v>
       </c>
       <c r="J5" t="s" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="19">
         <v>50</v>
@@ -9757,19 +9952,19 @@
         <v>2</v>
       </c>
       <c r="H6" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="18">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="19">
         <v>10</v>
       </c>
       <c r="L6" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="20">
         <v>200</v>
@@ -9803,25 +9998,25 @@
         <v>1</v>
       </c>
       <c r="H7" t="s" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="18">
         <v>30</v>
       </c>
       <c r="J7" t="s" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="19">
         <v>80</v>
       </c>
       <c r="L7" t="s" s="13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="20">
         <v>50</v>
       </c>
       <c r="N7" t="s" s="14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" s="21">
         <v>50</v>
@@ -9853,25 +10048,25 @@
         <v>2</v>
       </c>
       <c r="H8" t="s" s="25">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" s="18">
         <v>50</v>
       </c>
       <c r="J8" t="s" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="19">
         <v>70</v>
       </c>
       <c r="L8" t="s" s="13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8" s="20">
         <v>50</v>
       </c>
       <c r="N8" t="s" s="14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O8" s="21">
         <v>50</v>
@@ -10659,27 +10854,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -10687,7 +10882,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C3" s="4">
         <v>120</v>
@@ -10701,7 +10896,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C4" s="4">
         <v>150</v>
@@ -10715,7 +10910,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C5" s="4">
         <v>160</v>
@@ -10729,7 +10924,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C6" s="4">
         <v>165</v>
@@ -10743,7 +10938,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C7" s="4">
         <v>170</v>
@@ -10757,7 +10952,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C8" s="4">
         <v>50</v>
@@ -10771,7 +10966,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C9" s="4">
         <v>120</v>
@@ -10785,7 +10980,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C10" s="4">
         <v>140</v>
@@ -10799,7 +10994,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C11" s="4">
         <v>150</v>
@@ -10813,7 +11008,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C12" s="4">
         <v>50</v>
@@ -10827,7 +11022,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C13" s="4">
         <v>120</v>
@@ -10841,7 +11036,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C14" s="4">
         <v>150</v>
@@ -10855,7 +11050,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C15" s="4">
         <v>180</v>
@@ -10869,7 +11064,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C16" s="4">
         <v>200</v>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
   <si>
     <t>id</t>
   </si>
@@ -67,1621 +67,1624 @@
     <t>firearm</t>
   </si>
   <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>動物</t>
+  </si>
+  <si>
+    <t>コウモリ</t>
+  </si>
+  <si>
+    <t>飛行属性</t>
+  </si>
+  <si>
+    <t>WORKER_ANT</t>
+  </si>
+  <si>
+    <t>worker_ant</t>
+  </si>
+  <si>
+    <t>昆虫</t>
+  </si>
+  <si>
+    <t>アント</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>その場から動かない</t>
+  </si>
+  <si>
+    <t>BEE</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>キラービー</t>
+  </si>
+  <si>
+    <t>耐久力は低い。飛行属性</t>
+  </si>
+  <si>
+    <t>SPECTER</t>
+  </si>
+  <si>
+    <t>specter</t>
+  </si>
+  <si>
+    <t>悪霊</t>
+  </si>
+  <si>
+    <t>亡霊</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>WAND6</t>
+  </si>
+  <si>
+    <t>遠距離攻撃をしてくる。飛行属性</t>
+  </si>
+  <si>
+    <t>SKELETON_DOG</t>
+  </si>
+  <si>
+    <t>skeleton_dog</t>
+  </si>
+  <si>
+    <t>がいこつ犬</t>
+  </si>
+  <si>
+    <t>ほねほねドック</t>
+  </si>
+  <si>
+    <t>特徴なし</t>
+  </si>
+  <si>
+    <t>SKELETON1</t>
+  </si>
+  <si>
+    <t>skeleton1</t>
+  </si>
+  <si>
+    <t>スケルトン1</t>
+  </si>
+  <si>
+    <t>スケルトン</t>
+  </si>
+  <si>
+    <t>GNOLE1</t>
+  </si>
+  <si>
+    <t>gnole1</t>
+  </si>
+  <si>
+    <t>ノール1</t>
+  </si>
+  <si>
+    <t>ノール</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>ORC1</t>
+  </si>
+  <si>
+    <t>orc1</t>
+  </si>
+  <si>
+    <t>亜人</t>
+  </si>
+  <si>
+    <t>オーク1</t>
+  </si>
+  <si>
+    <t>オーク</t>
+  </si>
+  <si>
+    <t>RATMAN1</t>
+  </si>
+  <si>
+    <t>ratman1</t>
+  </si>
+  <si>
+    <t>ラットマン1</t>
+  </si>
+  <si>
+    <t>ラットマン</t>
+  </si>
+  <si>
+    <t>GOBLIN1</t>
+  </si>
+  <si>
+    <t>goblin1</t>
+  </si>
+  <si>
+    <t>ゴブリン1</t>
+  </si>
+  <si>
+    <t>ゴブリン</t>
+  </si>
+  <si>
+    <t>SNAKE</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>ヘビ</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>CENTIPEDE</t>
+  </si>
+  <si>
+    <t>centipede</t>
+  </si>
+  <si>
+    <t>ムカデ</t>
+  </si>
+  <si>
+    <t>PUMPKIN_HEAD</t>
+  </si>
+  <si>
+    <t>pumpkin_head</t>
+  </si>
+  <si>
+    <t>パンプキン</t>
+  </si>
+  <si>
+    <t>SKELETON_HORSE</t>
+  </si>
+  <si>
+    <t>skeleton_horse</t>
+  </si>
+  <si>
+    <t>がいこつ馬</t>
+  </si>
+  <si>
+    <t>FLOATING_SKULL</t>
+  </si>
+  <si>
+    <t>floating_skull</t>
+  </si>
+  <si>
+    <t>浮遊する骸骨</t>
+  </si>
+  <si>
+    <t>空飛ぶドクロ</t>
+  </si>
+  <si>
+    <t>GHOST</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>ゴースト</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>ZOMBIE</t>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
+  <si>
+    <t>ゾンビ</t>
+  </si>
+  <si>
+    <t>SKELETON2</t>
+  </si>
+  <si>
+    <t>skeleton2</t>
+  </si>
+  <si>
+    <t>スケルトン2</t>
+  </si>
+  <si>
+    <t>がいこつ剣士</t>
+  </si>
+  <si>
+    <t>GHOUL</t>
+  </si>
+  <si>
+    <t>ghoul</t>
+  </si>
+  <si>
+    <t>グール</t>
+  </si>
+  <si>
+    <t>WRAITH</t>
+  </si>
+  <si>
+    <t>wraith</t>
+  </si>
+  <si>
+    <t>レイス</t>
+  </si>
+  <si>
+    <t>WIGHT</t>
+  </si>
+  <si>
+    <t>wight</t>
+  </si>
+  <si>
+    <t>ワイト</t>
+  </si>
+  <si>
+    <t>GNOLE2</t>
+  </si>
+  <si>
+    <t>gnole2</t>
+  </si>
+  <si>
+    <t>ノール2</t>
+  </si>
+  <si>
+    <t>ノール戦士</t>
+  </si>
+  <si>
+    <t>OGRE1</t>
+  </si>
+  <si>
+    <t>ogre1</t>
+  </si>
+  <si>
+    <t>オーガ</t>
+  </si>
+  <si>
+    <t>ORC2</t>
+  </si>
+  <si>
+    <t>orc2</t>
+  </si>
+  <si>
+    <t>オーク2</t>
+  </si>
+  <si>
+    <t>オーク戦士</t>
+  </si>
+  <si>
+    <t>RATMAN2</t>
+  </si>
+  <si>
+    <t>ratman2</t>
+  </si>
+  <si>
+    <t>ラットマン2</t>
+  </si>
+  <si>
+    <t>ラットマン戦士</t>
+  </si>
+  <si>
+    <t>LIZARDMAN1</t>
+  </si>
+  <si>
+    <t>lizardman1</t>
+  </si>
+  <si>
+    <t>リザードマン1</t>
+  </si>
+  <si>
+    <t>リザードマン</t>
+  </si>
+  <si>
+    <t>GOBLIN2</t>
+  </si>
+  <si>
+    <t>goblin2</t>
+  </si>
+  <si>
+    <t>ゴブリン2</t>
+  </si>
+  <si>
+    <t>ゴブリン戦士</t>
+  </si>
+  <si>
+    <t>WEREWOLF</t>
+  </si>
+  <si>
+    <t>werewolf</t>
+  </si>
+  <si>
+    <t>ワーウルフ</t>
+  </si>
+  <si>
+    <t>HOMUNCULUS</t>
+  </si>
+  <si>
+    <t>homunculus</t>
+  </si>
+  <si>
+    <t>ホムンクルス</t>
+  </si>
+  <si>
+    <t>LIZARD</t>
+  </si>
+  <si>
+    <t>lizard</t>
+  </si>
+  <si>
+    <t>リザード</t>
+  </si>
+  <si>
+    <t>FROG</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>カエル</t>
+  </si>
+  <si>
+    <t>TOAD</t>
+  </si>
+  <si>
+    <t>toad</t>
+  </si>
+  <si>
+    <t>ヒキガエル</t>
+  </si>
+  <si>
+    <t>MUMMY</t>
+  </si>
+  <si>
+    <t>mummy</t>
+  </si>
+  <si>
+    <t>マミー</t>
+  </si>
+  <si>
+    <t>SKELETON3</t>
+  </si>
+  <si>
+    <t>skeleton3</t>
+  </si>
+  <si>
+    <t>スケルトン3</t>
+  </si>
+  <si>
+    <t>がいこつ弓使い</t>
+  </si>
+  <si>
+    <t>OGRE2</t>
+  </si>
+  <si>
+    <t>ogre2</t>
+  </si>
+  <si>
+    <t>トロル</t>
+  </si>
+  <si>
+    <t>HARPY_FLY</t>
+  </si>
+  <si>
+    <t>harpy_fly</t>
+  </si>
+  <si>
+    <t>ハーピー(空)</t>
+  </si>
+  <si>
+    <t>ハーピー</t>
+  </si>
+  <si>
+    <t>SNAKE_MAN</t>
+  </si>
+  <si>
+    <t>snake_man</t>
+  </si>
+  <si>
+    <t>スネークマン</t>
+  </si>
+  <si>
+    <t>蛇男</t>
+  </si>
+  <si>
+    <t>LIZARDMAN2</t>
+  </si>
+  <si>
+    <t>lizardman2</t>
+  </si>
+  <si>
+    <t>リザードマン2</t>
+  </si>
+  <si>
+    <t>リザードマン戦士</t>
+  </si>
+  <si>
+    <t>GOBLIN3</t>
+  </si>
+  <si>
+    <t>goblin3</t>
+  </si>
+  <si>
+    <t>ゴブリン3</t>
+  </si>
+  <si>
+    <t>ゴブリンファイター</t>
+  </si>
+  <si>
+    <t>MINOTAUR1</t>
+  </si>
+  <si>
+    <t>minotaur1</t>
+  </si>
+  <si>
+    <t>ミノタウロス1</t>
+  </si>
+  <si>
+    <t>ミノタウロス</t>
+  </si>
+  <si>
+    <t>ARACHNE</t>
+  </si>
+  <si>
+    <t>arachne</t>
+  </si>
+  <si>
+    <t>アラクネ</t>
+  </si>
+  <si>
+    <t>MEDOUSA</t>
+  </si>
+  <si>
+    <t>medousa</t>
+  </si>
+  <si>
+    <t>メドゥーサ</t>
+  </si>
+  <si>
+    <t>INVADER</t>
+  </si>
+  <si>
+    <t>invader</t>
+  </si>
+  <si>
+    <t>インベーダー</t>
+  </si>
+  <si>
+    <t>宇宙からの使者</t>
+  </si>
+  <si>
+    <t>DARK_ELF1</t>
+  </si>
+  <si>
+    <t>dark_elf1</t>
+  </si>
+  <si>
+    <t>ダークエルフ1</t>
+  </si>
+  <si>
+    <t>ダークエルフ</t>
+  </si>
+  <si>
+    <t>DARK_ELF2</t>
+  </si>
+  <si>
+    <t>dark_elf2</t>
+  </si>
+  <si>
+    <t>ダークエルフ2</t>
+  </si>
+  <si>
+    <t>地下エルフ</t>
+  </si>
+  <si>
+    <t>LEGION</t>
+  </si>
+  <si>
+    <t>legion</t>
+  </si>
+  <si>
+    <t>レギオン</t>
+  </si>
+  <si>
+    <t>HARPY_WALK</t>
+  </si>
+  <si>
+    <t>harpy_walk</t>
+  </si>
+  <si>
+    <t>ハーピー(地面)</t>
+  </si>
+  <si>
+    <t>グラウンドハーピー</t>
+  </si>
+  <si>
+    <t>GOBLIN4</t>
+  </si>
+  <si>
+    <t>goblin4</t>
+  </si>
+  <si>
+    <t>ゴブリン4</t>
+  </si>
+  <si>
+    <t>ダークゴブリン</t>
+  </si>
+  <si>
+    <t>LICHE</t>
+  </si>
+  <si>
+    <t>liche</t>
+  </si>
+  <si>
+    <t>リッチ</t>
+  </si>
+  <si>
+    <t>VAMPIRE</t>
+  </si>
+  <si>
+    <t>vampire</t>
+  </si>
+  <si>
+    <t>バンパイア</t>
+  </si>
+  <si>
+    <t>MINOTAUR2</t>
+  </si>
+  <si>
+    <t>minotaur2</t>
+  </si>
+  <si>
+    <t>ミノタウロス2</t>
+  </si>
+  <si>
+    <t>メガタウロス</t>
+  </si>
+  <si>
+    <t>YETI</t>
+  </si>
+  <si>
+    <t>yeti</t>
+  </si>
+  <si>
+    <t>イエティ</t>
+  </si>
+  <si>
+    <t>DARK_ELF3</t>
+  </si>
+  <si>
+    <t>dark_elf3</t>
+  </si>
+  <si>
+    <t>ダークエルフ3</t>
+  </si>
+  <si>
+    <t>ブラックエルフ</t>
+  </si>
+  <si>
+    <t>DARK_ELF4</t>
+  </si>
+  <si>
+    <t>dark_elf4</t>
+  </si>
+  <si>
+    <t>ダークエルフ4</t>
+  </si>
+  <si>
+    <t>暗黒エルフ</t>
+  </si>
+  <si>
+    <t>MINDFLAYER</t>
+  </si>
+  <si>
+    <t>mindflayer</t>
+  </si>
+  <si>
+    <t>悪魔</t>
+  </si>
+  <si>
+    <t>マインドフレイヤー</t>
+  </si>
+  <si>
+    <t>イリシッド</t>
+  </si>
+  <si>
+    <t>GOLEM</t>
+  </si>
+  <si>
+    <t>golem</t>
+  </si>
+  <si>
+    <t>ゴーレム</t>
+  </si>
+  <si>
+    <t>CRYSTAL_GOLEM</t>
+  </si>
+  <si>
+    <t>crystal_golem</t>
+  </si>
+  <si>
+    <t>水晶ゴーレム</t>
+  </si>
+  <si>
+    <t>IRON_GOLEM</t>
+  </si>
+  <si>
+    <t>iron_golem</t>
+  </si>
+  <si>
+    <t>鉄のゴーレム</t>
+  </si>
+  <si>
+    <t>FAIRY</t>
+  </si>
+  <si>
+    <t>fairy</t>
+  </si>
+  <si>
+    <t>フェアリー</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>CAT1</t>
+  </si>
+  <si>
+    <t>cat1</t>
+  </si>
+  <si>
+    <t>猫1</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>CAT2</t>
+  </si>
+  <si>
+    <t>cat2</t>
+  </si>
+  <si>
+    <t>猫2</t>
+  </si>
+  <si>
+    <t>黒猫</t>
+  </si>
+  <si>
+    <t>RAT</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>ネズミ</t>
+  </si>
+  <si>
+    <t>針ネズミ</t>
+  </si>
+  <si>
+    <t>DOG1</t>
+  </si>
+  <si>
+    <t>dog1</t>
+  </si>
+  <si>
+    <t>犬1</t>
+  </si>
+  <si>
+    <t>赤い犬</t>
+  </si>
+  <si>
+    <t>DOG2</t>
+  </si>
+  <si>
+    <t>dog2</t>
+  </si>
+  <si>
+    <t>犬2</t>
+  </si>
+  <si>
+    <t>狂犬</t>
+  </si>
+  <si>
+    <t>WOLF</t>
+  </si>
+  <si>
+    <t>wolf</t>
+  </si>
+  <si>
+    <t>ウルフ</t>
+  </si>
+  <si>
+    <t>SNOW_WOLF</t>
+  </si>
+  <si>
+    <t>snow_wolf</t>
+  </si>
+  <si>
+    <t>スノーウルフ</t>
+  </si>
+  <si>
+    <t>PIG</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>豚</t>
+  </si>
+  <si>
+    <t>ピッグ</t>
+  </si>
+  <si>
+    <t>BOAR</t>
+  </si>
+  <si>
+    <t>boar</t>
+  </si>
+  <si>
+    <t>イノシシ</t>
+  </si>
+  <si>
+    <t>BEAR</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>ベア</t>
+  </si>
+  <si>
+    <t>POLAR_BEAR</t>
+  </si>
+  <si>
+    <t>polar_bear</t>
+  </si>
+  <si>
+    <t>シロクマ</t>
+  </si>
+  <si>
+    <t>GRIZZY_BEAR</t>
+  </si>
+  <si>
+    <t>grizzy_bear</t>
+  </si>
+  <si>
+    <t>グリズリー</t>
+  </si>
+  <si>
+    <t>STAG</t>
+  </si>
+  <si>
+    <t>stag</t>
+  </si>
+  <si>
+    <t>シカ</t>
+  </si>
+  <si>
+    <t>DOE</t>
+  </si>
+  <si>
+    <t>doe</t>
+  </si>
+  <si>
+    <t>牝鹿</t>
+  </si>
+  <si>
+    <t>PANTHER</t>
+  </si>
+  <si>
+    <t>panther</t>
+  </si>
+  <si>
+    <t>ヒョウ</t>
+  </si>
+  <si>
+    <t>SNOW_PANTHER</t>
+  </si>
+  <si>
+    <t>snow_panther</t>
+  </si>
+  <si>
+    <t>白ヒョウ</t>
+  </si>
+  <si>
+    <t>SABER_TIGER</t>
+  </si>
+  <si>
+    <t>saber_tiger</t>
+  </si>
+  <si>
+    <t>サーベルタイガー</t>
+  </si>
+  <si>
+    <t>TIGER</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>タイガー</t>
+  </si>
+  <si>
+    <t>GORILLA</t>
+  </si>
+  <si>
+    <t>gorilla</t>
+  </si>
+  <si>
+    <t>ゴリラ</t>
+  </si>
+  <si>
+    <t>HORSE1</t>
+  </si>
+  <si>
+    <t>horse1</t>
+  </si>
+  <si>
+    <t>馬1</t>
+  </si>
+  <si>
+    <t>マダーホース</t>
+  </si>
+  <si>
+    <t>HORSE2</t>
+  </si>
+  <si>
+    <t>horse2</t>
+  </si>
+  <si>
+    <t>馬2</t>
+  </si>
+  <si>
+    <t>クリムゾンホース</t>
+  </si>
+  <si>
+    <t>HORSE3</t>
+  </si>
+  <si>
+    <t>horse3</t>
+  </si>
+  <si>
+    <t>馬3</t>
+  </si>
+  <si>
+    <t>アイアンホース</t>
+  </si>
+  <si>
+    <t>HORSE4</t>
+  </si>
+  <si>
+    <t>horse4</t>
+  </si>
+  <si>
+    <t>馬4</t>
+  </si>
+  <si>
+    <t>ブラックホース</t>
+  </si>
+  <si>
+    <t>GOAT</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>ヤギ</t>
+  </si>
+  <si>
+    <t>SHEEP</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>ヒツジ</t>
+  </si>
+  <si>
+    <t>BULL</t>
+  </si>
+  <si>
+    <t>bull</t>
+  </si>
+  <si>
+    <t>雌牛</t>
+  </si>
+  <si>
+    <t>COW</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>雄牛</t>
+  </si>
+  <si>
+    <t>WYVERN</t>
+  </si>
+  <si>
+    <t>wyvern</t>
+  </si>
+  <si>
+    <t>ワイバーン</t>
+  </si>
+  <si>
+    <t>BIRD</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>鳥</t>
+  </si>
+  <si>
+    <t>CHICKEN</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>ニワトリ</t>
+  </si>
+  <si>
+    <t>JELLY</t>
+  </si>
+  <si>
+    <t>jelly</t>
+  </si>
+  <si>
+    <t>軟体生物</t>
+  </si>
+  <si>
+    <t>ジェリー</t>
+  </si>
+  <si>
+    <t>スライム</t>
+  </si>
+  <si>
+    <t>SLIME</t>
+  </si>
+  <si>
+    <t>slime</t>
+  </si>
+  <si>
+    <t>毒スライム</t>
+  </si>
+  <si>
+    <t>SLUG</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>なめくじ</t>
+  </si>
+  <si>
+    <t>SNAIL</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>カタツムリ</t>
+  </si>
+  <si>
+    <t>TENTACLE</t>
+  </si>
+  <si>
+    <t>tentacle</t>
+  </si>
+  <si>
+    <t>触手</t>
+  </si>
+  <si>
+    <t>GELATINOUS_CUBE</t>
+  </si>
+  <si>
+    <t>gelatinous_cube</t>
+  </si>
+  <si>
+    <t>ゼラチン状立方体</t>
+  </si>
+  <si>
+    <t>WORM</t>
+  </si>
+  <si>
+    <t>worm</t>
+  </si>
+  <si>
+    <t>虫</t>
+  </si>
+  <si>
+    <t>ワーム</t>
+  </si>
+  <si>
+    <t>MAGOT</t>
+  </si>
+  <si>
+    <t>magot</t>
+  </si>
+  <si>
+    <t>ウジ虫</t>
+  </si>
+  <si>
+    <t>SEA_SERPENT</t>
+  </si>
+  <si>
+    <t>sea_serpent</t>
+  </si>
+  <si>
+    <t>海洋生物</t>
+  </si>
+  <si>
+    <t>サーペント</t>
+  </si>
+  <si>
+    <t>OCTOPUS_GROUND</t>
+  </si>
+  <si>
+    <t>octopus_ground</t>
+  </si>
+  <si>
+    <t>オクトパス</t>
+  </si>
+  <si>
+    <t>OCTOPUS_WATER</t>
+  </si>
+  <si>
+    <t>octopus_water</t>
+  </si>
+  <si>
+    <t>オクトパス（水中）</t>
+  </si>
+  <si>
+    <t>JELLYFISH</t>
+  </si>
+  <si>
+    <t>jellyfish</t>
+  </si>
+  <si>
+    <t>ジェリーフィッシュ</t>
+  </si>
+  <si>
+    <t>EEL_GROUND</t>
+  </si>
+  <si>
+    <t>eel_ground</t>
+  </si>
+  <si>
+    <t>電気ウナギ</t>
+  </si>
+  <si>
+    <t>EEL_WATER</t>
+  </si>
+  <si>
+    <t>eel_water</t>
+  </si>
+  <si>
+    <t>電気ウナギ（水中）</t>
+  </si>
+  <si>
+    <t>CRAB_GROUND</t>
+  </si>
+  <si>
+    <t>crab_ground</t>
+  </si>
+  <si>
+    <t>クラブ</t>
+  </si>
+  <si>
+    <t>シザースクラブ</t>
+  </si>
+  <si>
+    <t>CRAB_WATER</t>
+  </si>
+  <si>
+    <t>crab_water</t>
+  </si>
+  <si>
+    <t>クラブ（水中）</t>
+  </si>
+  <si>
+    <t>シザースクラブ（水中）</t>
+  </si>
+  <si>
+    <t>GILLMAN_GROUND</t>
+  </si>
+  <si>
+    <t>gillman_ground</t>
+  </si>
+  <si>
+    <t>ギルマン</t>
+  </si>
+  <si>
+    <t>GILLMAN_WATER</t>
+  </si>
+  <si>
+    <t>gillman_water</t>
+  </si>
+  <si>
+    <t>ギルマン（水中）</t>
+  </si>
+  <si>
+    <t>SHELLFISH</t>
+  </si>
+  <si>
+    <t>shellfish</t>
+  </si>
+  <si>
+    <t>ヤドカリ</t>
+  </si>
+  <si>
+    <t>FLY</t>
+  </si>
+  <si>
+    <t>ハエ</t>
+  </si>
+  <si>
+    <t>寄生ハエ</t>
+  </si>
+  <si>
+    <t>MOSQUITO</t>
+  </si>
+  <si>
+    <t>mosquito</t>
+  </si>
+  <si>
+    <t>モスキート</t>
+  </si>
+  <si>
+    <t>SCORPION</t>
+  </si>
+  <si>
+    <t>scorpion</t>
+  </si>
+  <si>
+    <t>スコーピオン</t>
+  </si>
+  <si>
+    <t>SPIDER</t>
+  </si>
+  <si>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>スパイダー</t>
+  </si>
+  <si>
+    <t>SOLDIER_ANT</t>
+  </si>
+  <si>
+    <t>soldier_ant</t>
+  </si>
+  <si>
+    <t>キラーアント</t>
+  </si>
+  <si>
+    <t>COCKROACH</t>
+  </si>
+  <si>
+    <t>cockroach</t>
+  </si>
+  <si>
+    <t>ゴキブリ</t>
+  </si>
+  <si>
+    <t>コックローチ</t>
+  </si>
+  <si>
+    <t>TICK</t>
+  </si>
+  <si>
+    <t>tick</t>
+  </si>
+  <si>
+    <t>マダニ</t>
+  </si>
+  <si>
+    <t>PILLBUG</t>
+  </si>
+  <si>
+    <t>pillbug</t>
+  </si>
+  <si>
+    <t>ダンゴムシ</t>
+  </si>
+  <si>
+    <t>MANTIS</t>
+  </si>
+  <si>
+    <t>mantis</t>
+  </si>
+  <si>
+    <t>カマキリ</t>
+  </si>
+  <si>
+    <t>REAPER</t>
+  </si>
+  <si>
+    <t>reaper</t>
+  </si>
+  <si>
+    <t>死神</t>
+  </si>
+  <si>
+    <t>刈り取るもの</t>
+  </si>
+  <si>
+    <t>VINE</t>
+  </si>
+  <si>
+    <t>vine</t>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>ツル</t>
+  </si>
+  <si>
+    <t>奇妙なツル</t>
+  </si>
+  <si>
+    <t>FUNGUS</t>
+  </si>
+  <si>
+    <t>fungus</t>
+  </si>
+  <si>
+    <t>菌類</t>
+  </si>
+  <si>
+    <t>危険な菌類</t>
+  </si>
+  <si>
+    <t>MYCONID</t>
+  </si>
+  <si>
+    <t>myconid</t>
+  </si>
+  <si>
+    <t>人面キノコ</t>
+  </si>
+  <si>
+    <t>SHRIEKER</t>
+  </si>
+  <si>
+    <t>shrieker</t>
+  </si>
+  <si>
+    <t>紫のキノコ</t>
+  </si>
+  <si>
+    <t>GAS_SPORE</t>
+  </si>
+  <si>
+    <t>gas_spore</t>
+  </si>
+  <si>
+    <t>キノコの胞子ガス</t>
+  </si>
+  <si>
+    <t>INSECTIVOROUS_PLANT</t>
+  </si>
+  <si>
+    <t>insectivorous_plant</t>
+  </si>
+  <si>
+    <t>食虫植物</t>
+  </si>
+  <si>
+    <t>MANDRAGORA</t>
+  </si>
+  <si>
+    <t>mandragora</t>
+  </si>
+  <si>
+    <t>マンドラゴラ</t>
+  </si>
+  <si>
+    <t>BEETLE</t>
+  </si>
+  <si>
+    <t>beetle</t>
+  </si>
+  <si>
+    <t>ビートル</t>
+  </si>
+  <si>
+    <t>EVIL_EYE</t>
+  </si>
+  <si>
+    <t>evil_eye</t>
+  </si>
+  <si>
+    <t>イーヴィルアイ</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>インプ</t>
+  </si>
+  <si>
+    <t>GOATMAN1</t>
+  </si>
+  <si>
+    <t>goatman1</t>
+  </si>
+  <si>
+    <t>羊男1</t>
+  </si>
+  <si>
+    <t>羊男</t>
+  </si>
+  <si>
+    <t>GOATMAN2</t>
+  </si>
+  <si>
+    <t>goatman2</t>
+  </si>
+  <si>
+    <t>羊男2</t>
+  </si>
+  <si>
+    <t>羊戦士</t>
+  </si>
+  <si>
+    <t>LESSER_FIEND1</t>
+  </si>
+  <si>
+    <t>lesser_fiend1</t>
+  </si>
+  <si>
+    <t>レッサーデーモン1</t>
+  </si>
+  <si>
+    <t>レッサーデーモン</t>
+  </si>
+  <si>
+    <t>LESSER_FIEND2</t>
+  </si>
+  <si>
+    <t>lesser_fiend2</t>
+  </si>
+  <si>
+    <t>レッサーデーモン2</t>
+  </si>
+  <si>
+    <t>マッドストーカー</t>
+  </si>
+  <si>
+    <t>GARGOYLE_WALK</t>
+  </si>
+  <si>
+    <t>gargoyle_walk</t>
+  </si>
+  <si>
+    <t>ガーゴイル</t>
+  </si>
+  <si>
+    <t>GARGOYLE_FLY</t>
+  </si>
+  <si>
+    <t>gargoyle_fly</t>
+  </si>
+  <si>
+    <t>スターガーゴイル</t>
+  </si>
+  <si>
+    <t>VULTURE_DEMON</t>
+  </si>
+  <si>
+    <t>vulture_demon</t>
+  </si>
+  <si>
+    <t>ハゲタカの悪魔</t>
+  </si>
+  <si>
+    <t>SUCCUBUS</t>
+  </si>
+  <si>
+    <t>succubus</t>
+  </si>
+  <si>
+    <t>サキュバス</t>
+  </si>
+  <si>
+    <t>NIGHTMARE</t>
+  </si>
+  <si>
     <t>nightmare</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>bat</t>
-  </si>
-  <si>
-    <t>動物</t>
-  </si>
-  <si>
-    <t>コウモリ</t>
-  </si>
-  <si>
-    <t>飛行属性</t>
-  </si>
-  <si>
-    <t>WORKER_ANT</t>
-  </si>
-  <si>
-    <t>worker_ant</t>
-  </si>
-  <si>
-    <t>昆虫</t>
-  </si>
-  <si>
-    <t>アント</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>その場から動かない</t>
-  </si>
-  <si>
-    <t>BEE</t>
-  </si>
-  <si>
-    <t>bee</t>
-  </si>
-  <si>
-    <t>キラービー</t>
-  </si>
-  <si>
-    <t>耐久力は低い。飛行属性</t>
-  </si>
-  <si>
-    <t>SPECTER</t>
-  </si>
-  <si>
-    <t>specter</t>
-  </si>
-  <si>
-    <t>悪霊</t>
-  </si>
-  <si>
-    <t>亡霊</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>WAND6</t>
-  </si>
-  <si>
-    <t>遠距離攻撃をしてくる。飛行属性</t>
-  </si>
-  <si>
-    <t>SKELETON_DOG</t>
-  </si>
-  <si>
-    <t>skeleton_dog</t>
-  </si>
-  <si>
-    <t>がいこつ犬</t>
-  </si>
-  <si>
-    <t>ほねほねドック</t>
-  </si>
-  <si>
-    <t>特徴なし</t>
-  </si>
-  <si>
-    <t>SKELETON1</t>
-  </si>
-  <si>
-    <t>skeleton1</t>
-  </si>
-  <si>
-    <t>スケルトン1</t>
-  </si>
-  <si>
-    <t>スケルトン</t>
-  </si>
-  <si>
-    <t>GNOLE1</t>
-  </si>
-  <si>
-    <t>gnole1</t>
-  </si>
-  <si>
-    <t>ノール1</t>
-  </si>
-  <si>
-    <t>ノール</t>
-  </si>
-  <si>
-    <t>escape</t>
-  </si>
-  <si>
-    <t>ORC1</t>
-  </si>
-  <si>
-    <t>orc1</t>
-  </si>
-  <si>
-    <t>亜人</t>
-  </si>
-  <si>
-    <t>オーク1</t>
-  </si>
-  <si>
-    <t>オーク</t>
-  </si>
-  <si>
-    <t>RATMAN1</t>
-  </si>
-  <si>
-    <t>ratman1</t>
-  </si>
-  <si>
-    <t>ラットマン1</t>
-  </si>
-  <si>
-    <t>ラットマン</t>
-  </si>
-  <si>
-    <t>GOBLIN1</t>
-  </si>
-  <si>
-    <t>goblin1</t>
-  </si>
-  <si>
-    <t>ゴブリン1</t>
-  </si>
-  <si>
-    <t>ゴブリン</t>
-  </si>
-  <si>
-    <t>SNAKE</t>
-  </si>
-  <si>
-    <t>snake</t>
-  </si>
-  <si>
-    <t>ヘビ</t>
-  </si>
-  <si>
-    <t>poison</t>
-  </si>
-  <si>
-    <t>CENTIPEDE</t>
-  </si>
-  <si>
-    <t>centipede</t>
-  </si>
-  <si>
-    <t>ムカデ</t>
-  </si>
-  <si>
-    <t>PUMPKIN_HEAD</t>
-  </si>
-  <si>
-    <t>pumpkin_head</t>
-  </si>
-  <si>
-    <t>パンプキン</t>
-  </si>
-  <si>
-    <t>SKELETON_HORSE</t>
-  </si>
-  <si>
-    <t>skeleton_horse</t>
-  </si>
-  <si>
-    <t>がいこつ馬</t>
-  </si>
-  <si>
-    <t>FLOATING_SKULL</t>
-  </si>
-  <si>
-    <t>floating_skull</t>
-  </si>
-  <si>
-    <t>浮遊する骸骨</t>
-  </si>
-  <si>
-    <t>空飛ぶドクロ</t>
-  </si>
-  <si>
-    <t>GHOST</t>
-  </si>
-  <si>
-    <t>ghost</t>
-  </si>
-  <si>
-    <t>ゴースト</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>ZOMBIE</t>
-  </si>
-  <si>
-    <t>zombie</t>
-  </si>
-  <si>
-    <t>ゾンビ</t>
-  </si>
-  <si>
-    <t>SKELETON2</t>
-  </si>
-  <si>
-    <t>skeleton2</t>
-  </si>
-  <si>
-    <t>スケルトン2</t>
-  </si>
-  <si>
-    <t>がいこつ剣士</t>
-  </si>
-  <si>
-    <t>GHOUL</t>
-  </si>
-  <si>
-    <t>ghoul</t>
-  </si>
-  <si>
-    <t>グール</t>
-  </si>
-  <si>
-    <t>WRAITH</t>
-  </si>
-  <si>
-    <t>wraith</t>
-  </si>
-  <si>
-    <t>レイス</t>
-  </si>
-  <si>
-    <t>WIGHT</t>
-  </si>
-  <si>
-    <t>wight</t>
-  </si>
-  <si>
-    <t>ワイト</t>
-  </si>
-  <si>
-    <t>GNOLE2</t>
-  </si>
-  <si>
-    <t>gnole2</t>
-  </si>
-  <si>
-    <t>ノール2</t>
-  </si>
-  <si>
-    <t>ノール戦士</t>
-  </si>
-  <si>
-    <t>OGRE1</t>
-  </si>
-  <si>
-    <t>ogre1</t>
-  </si>
-  <si>
-    <t>オーガ</t>
-  </si>
-  <si>
-    <t>ORC2</t>
-  </si>
-  <si>
-    <t>orc2</t>
-  </si>
-  <si>
-    <t>オーク2</t>
-  </si>
-  <si>
-    <t>オーク戦士</t>
-  </si>
-  <si>
-    <t>RATMAN2</t>
-  </si>
-  <si>
-    <t>ratman2</t>
-  </si>
-  <si>
-    <t>ラットマン2</t>
-  </si>
-  <si>
-    <t>ラットマン戦士</t>
-  </si>
-  <si>
-    <t>LIZARDMAN1</t>
-  </si>
-  <si>
-    <t>lizardman1</t>
-  </si>
-  <si>
-    <t>リザードマン1</t>
-  </si>
-  <si>
-    <t>リザードマン</t>
-  </si>
-  <si>
-    <t>GOBLIN2</t>
-  </si>
-  <si>
-    <t>goblin2</t>
-  </si>
-  <si>
-    <t>ゴブリン2</t>
-  </si>
-  <si>
-    <t>ゴブリン戦士</t>
-  </si>
-  <si>
-    <t>WEREWOLF</t>
-  </si>
-  <si>
-    <t>werewolf</t>
-  </si>
-  <si>
-    <t>ワーウルフ</t>
-  </si>
-  <si>
-    <t>HOMUNCULUS</t>
-  </si>
-  <si>
-    <t>homunculus</t>
-  </si>
-  <si>
-    <t>ホムンクルス</t>
-  </si>
-  <si>
-    <t>LIZARD</t>
-  </si>
-  <si>
-    <t>lizard</t>
-  </si>
-  <si>
-    <t>リザード</t>
-  </si>
-  <si>
-    <t>FROG</t>
-  </si>
-  <si>
-    <t>frog</t>
-  </si>
-  <si>
-    <t>カエル</t>
-  </si>
-  <si>
-    <t>TOAD</t>
-  </si>
-  <si>
-    <t>toad</t>
-  </si>
-  <si>
-    <t>ヒキガエル</t>
-  </si>
-  <si>
-    <t>MUMMY</t>
-  </si>
-  <si>
-    <t>mummy</t>
-  </si>
-  <si>
-    <t>マミー</t>
-  </si>
-  <si>
-    <t>SKELETON3</t>
-  </si>
-  <si>
-    <t>skeleton3</t>
-  </si>
-  <si>
-    <t>スケルトン3</t>
-  </si>
-  <si>
-    <t>がいこつ弓使い</t>
-  </si>
-  <si>
-    <t>OGRE2</t>
-  </si>
-  <si>
-    <t>ogre2</t>
-  </si>
-  <si>
-    <t>トロル</t>
-  </si>
-  <si>
-    <t>HARPY_FLY</t>
-  </si>
-  <si>
-    <t>harpy_fly</t>
-  </si>
-  <si>
-    <t>ハーピー(空)</t>
-  </si>
-  <si>
-    <t>ハーピー</t>
-  </si>
-  <si>
-    <t>SNAKE_MAN</t>
-  </si>
-  <si>
-    <t>snake_man</t>
-  </si>
-  <si>
-    <t>スネークマン</t>
-  </si>
-  <si>
-    <t>蛇男</t>
-  </si>
-  <si>
-    <t>LIZARDMAN2</t>
-  </si>
-  <si>
-    <t>lizardman2</t>
-  </si>
-  <si>
-    <t>リザードマン2</t>
-  </si>
-  <si>
-    <t>リザードマン戦士</t>
-  </si>
-  <si>
-    <t>GOBLIN3</t>
-  </si>
-  <si>
-    <t>goblin3</t>
-  </si>
-  <si>
-    <t>ゴブリン3</t>
-  </si>
-  <si>
-    <t>ゴブリンファイター</t>
-  </si>
-  <si>
-    <t>MINOTAUR1</t>
-  </si>
-  <si>
-    <t>minotaur1</t>
-  </si>
-  <si>
-    <t>ミノタウロス1</t>
-  </si>
-  <si>
-    <t>ミノタウロス</t>
-  </si>
-  <si>
-    <t>ARACHNE</t>
-  </si>
-  <si>
-    <t>arachne</t>
-  </si>
-  <si>
-    <t>アラクネ</t>
-  </si>
-  <si>
-    <t>MEDOUSA</t>
-  </si>
-  <si>
-    <t>medousa</t>
-  </si>
-  <si>
-    <t>メドゥーサ</t>
-  </si>
-  <si>
-    <t>INVADER</t>
-  </si>
-  <si>
-    <t>invader</t>
-  </si>
-  <si>
-    <t>インベーダー</t>
-  </si>
-  <si>
-    <t>宇宙からの使者</t>
-  </si>
-  <si>
-    <t>DARK_ELF1</t>
-  </si>
-  <si>
-    <t>dark_elf1</t>
-  </si>
-  <si>
-    <t>ダークエルフ1</t>
-  </si>
-  <si>
-    <t>ダークエルフ</t>
-  </si>
-  <si>
-    <t>DARK_ELF2</t>
-  </si>
-  <si>
-    <t>dark_elf2</t>
-  </si>
-  <si>
-    <t>ダークエルフ2</t>
-  </si>
-  <si>
-    <t>地下エルフ</t>
-  </si>
-  <si>
-    <t>LEGION</t>
-  </si>
-  <si>
-    <t>legion</t>
-  </si>
-  <si>
-    <t>レギオン</t>
-  </si>
-  <si>
-    <t>HARPY_WALK</t>
-  </si>
-  <si>
-    <t>harpy_walk</t>
-  </si>
-  <si>
-    <t>ハーピー(地面)</t>
-  </si>
-  <si>
-    <t>グラウンドハーピー</t>
-  </si>
-  <si>
-    <t>GOBLIN4</t>
-  </si>
-  <si>
-    <t>goblin4</t>
-  </si>
-  <si>
-    <t>ゴブリン4</t>
-  </si>
-  <si>
-    <t>ダークゴブリン</t>
-  </si>
-  <si>
-    <t>LICHE</t>
-  </si>
-  <si>
-    <t>liche</t>
-  </si>
-  <si>
-    <t>リッチ</t>
-  </si>
-  <si>
-    <t>VAMPIRE</t>
-  </si>
-  <si>
-    <t>vampire</t>
-  </si>
-  <si>
-    <t>バンパイア</t>
-  </si>
-  <si>
-    <t>MINOTAUR2</t>
-  </si>
-  <si>
-    <t>minotaur2</t>
-  </si>
-  <si>
-    <t>ミノタウロス2</t>
-  </si>
-  <si>
-    <t>メガタウロス</t>
-  </si>
-  <si>
-    <t>YETI</t>
-  </si>
-  <si>
-    <t>yeti</t>
-  </si>
-  <si>
-    <t>イエティ</t>
-  </si>
-  <si>
-    <t>DARK_ELF3</t>
-  </si>
-  <si>
-    <t>dark_elf3</t>
-  </si>
-  <si>
-    <t>ダークエルフ3</t>
-  </si>
-  <si>
-    <t>ブラックエルフ</t>
-  </si>
-  <si>
-    <t>DARK_ELF4</t>
-  </si>
-  <si>
-    <t>dark_elf4</t>
-  </si>
-  <si>
-    <t>ダークエルフ4</t>
-  </si>
-  <si>
-    <t>暗黒エルフ</t>
-  </si>
-  <si>
-    <t>MINDFLAYER</t>
-  </si>
-  <si>
-    <t>mindflayer</t>
-  </si>
-  <si>
-    <t>悪魔</t>
-  </si>
-  <si>
-    <t>マインドフレイヤー</t>
-  </si>
-  <si>
-    <t>イリシッド</t>
-  </si>
-  <si>
-    <t>GOLEM</t>
-  </si>
-  <si>
-    <t>golem</t>
-  </si>
-  <si>
-    <t>ゴーレム</t>
-  </si>
-  <si>
-    <t>CRYSTAL_GOLEM</t>
-  </si>
-  <si>
-    <t>crystal_golem</t>
-  </si>
-  <si>
-    <t>水晶ゴーレム</t>
-  </si>
-  <si>
-    <t>IRON_GOLEM</t>
-  </si>
-  <si>
-    <t>iron_golem</t>
-  </si>
-  <si>
-    <t>鉄のゴーレム</t>
-  </si>
-  <si>
-    <t>FAIRY</t>
-  </si>
-  <si>
-    <t>fairy</t>
-  </si>
-  <si>
-    <t>フェアリー</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>CAT1</t>
-  </si>
-  <si>
-    <t>cat1</t>
-  </si>
-  <si>
-    <t>猫1</t>
-  </si>
-  <si>
-    <t>猫</t>
-  </si>
-  <si>
-    <t>CAT2</t>
-  </si>
-  <si>
-    <t>cat2</t>
-  </si>
-  <si>
-    <t>猫2</t>
-  </si>
-  <si>
-    <t>黒猫</t>
-  </si>
-  <si>
-    <t>RAT</t>
-  </si>
-  <si>
-    <t>rat</t>
-  </si>
-  <si>
-    <t>ネズミ</t>
-  </si>
-  <si>
-    <t>針ネズミ</t>
-  </si>
-  <si>
-    <t>DOG1</t>
-  </si>
-  <si>
-    <t>dog1</t>
-  </si>
-  <si>
-    <t>犬1</t>
-  </si>
-  <si>
-    <t>赤い犬</t>
-  </si>
-  <si>
-    <t>DOG2</t>
-  </si>
-  <si>
-    <t>dog2</t>
-  </si>
-  <si>
-    <t>犬2</t>
-  </si>
-  <si>
-    <t>狂犬</t>
-  </si>
-  <si>
-    <t>WOLF</t>
-  </si>
-  <si>
-    <t>wolf</t>
-  </si>
-  <si>
-    <t>ウルフ</t>
-  </si>
-  <si>
-    <t>SNOW_WOLF</t>
-  </si>
-  <si>
-    <t>snow_wolf</t>
-  </si>
-  <si>
-    <t>スノーウルフ</t>
-  </si>
-  <si>
-    <t>PIG</t>
-  </si>
-  <si>
-    <t>pig</t>
-  </si>
-  <si>
-    <t>豚</t>
-  </si>
-  <si>
-    <t>ピッグ</t>
-  </si>
-  <si>
-    <t>BOAR</t>
-  </si>
-  <si>
-    <t>boar</t>
-  </si>
-  <si>
-    <t>イノシシ</t>
-  </si>
-  <si>
-    <t>BEAR</t>
-  </si>
-  <si>
-    <t>bear</t>
-  </si>
-  <si>
-    <t>ベア</t>
-  </si>
-  <si>
-    <t>POLAR_BEAR</t>
-  </si>
-  <si>
-    <t>polar_bear</t>
-  </si>
-  <si>
-    <t>シロクマ</t>
-  </si>
-  <si>
-    <t>GRIZZY_BEAR</t>
-  </si>
-  <si>
-    <t>grizzy_bear</t>
-  </si>
-  <si>
-    <t>グリズリー</t>
-  </si>
-  <si>
-    <t>STAG</t>
-  </si>
-  <si>
-    <t>stag</t>
-  </si>
-  <si>
-    <t>シカ</t>
-  </si>
-  <si>
-    <t>DOE</t>
-  </si>
-  <si>
-    <t>doe</t>
-  </si>
-  <si>
-    <t>牝鹿</t>
-  </si>
-  <si>
-    <t>PANTHER</t>
-  </si>
-  <si>
-    <t>panther</t>
-  </si>
-  <si>
-    <t>ヒョウ</t>
-  </si>
-  <si>
-    <t>SNOW_PANTHER</t>
-  </si>
-  <si>
-    <t>snow_panther</t>
-  </si>
-  <si>
-    <t>白ヒョウ</t>
-  </si>
-  <si>
-    <t>SABER_TIGER</t>
-  </si>
-  <si>
-    <t>saber_tiger</t>
-  </si>
-  <si>
-    <t>サーベルタイガー</t>
-  </si>
-  <si>
-    <t>TIGER</t>
-  </si>
-  <si>
-    <t>tiger</t>
-  </si>
-  <si>
-    <t>タイガー</t>
-  </si>
-  <si>
-    <t>GORILLA</t>
-  </si>
-  <si>
-    <t>gorilla</t>
-  </si>
-  <si>
-    <t>ゴリラ</t>
-  </si>
-  <si>
-    <t>HORSE1</t>
-  </si>
-  <si>
-    <t>horse1</t>
-  </si>
-  <si>
-    <t>馬1</t>
-  </si>
-  <si>
-    <t>マダーホース</t>
-  </si>
-  <si>
-    <t>HORSE2</t>
-  </si>
-  <si>
-    <t>horse2</t>
-  </si>
-  <si>
-    <t>馬2</t>
-  </si>
-  <si>
-    <t>クリムゾンホース</t>
-  </si>
-  <si>
-    <t>HORSE3</t>
-  </si>
-  <si>
-    <t>horse3</t>
-  </si>
-  <si>
-    <t>馬3</t>
-  </si>
-  <si>
-    <t>アイアンホース</t>
-  </si>
-  <si>
-    <t>HORSE4</t>
-  </si>
-  <si>
-    <t>horse4</t>
-  </si>
-  <si>
-    <t>馬4</t>
-  </si>
-  <si>
-    <t>ブラックホース</t>
-  </si>
-  <si>
-    <t>GOAT</t>
-  </si>
-  <si>
-    <t>goat</t>
-  </si>
-  <si>
-    <t>ヤギ</t>
-  </si>
-  <si>
-    <t>SHEEP</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>ヒツジ</t>
-  </si>
-  <si>
-    <t>BULL</t>
-  </si>
-  <si>
-    <t>bull</t>
-  </si>
-  <si>
-    <t>雌牛</t>
-  </si>
-  <si>
-    <t>COW</t>
-  </si>
-  <si>
-    <t>cow</t>
-  </si>
-  <si>
-    <t>雄牛</t>
-  </si>
-  <si>
-    <t>WYVERN</t>
-  </si>
-  <si>
-    <t>wyvern</t>
-  </si>
-  <si>
-    <t>ワイバーン</t>
-  </si>
-  <si>
-    <t>BIRD</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>鳥</t>
-  </si>
-  <si>
-    <t>CHICKEN</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>ニワトリ</t>
-  </si>
-  <si>
-    <t>JELLY</t>
-  </si>
-  <si>
-    <t>jelly</t>
-  </si>
-  <si>
-    <t>軟体生物</t>
-  </si>
-  <si>
-    <t>ジェリー</t>
-  </si>
-  <si>
-    <t>スライム</t>
-  </si>
-  <si>
-    <t>SLIME</t>
-  </si>
-  <si>
-    <t>slime</t>
-  </si>
-  <si>
-    <t>毒スライム</t>
-  </si>
-  <si>
-    <t>SLUG</t>
-  </si>
-  <si>
-    <t>slug</t>
-  </si>
-  <si>
-    <t>なめくじ</t>
-  </si>
-  <si>
-    <t>SNAIL</t>
-  </si>
-  <si>
-    <t>snail</t>
-  </si>
-  <si>
-    <t>カタツムリ</t>
-  </si>
-  <si>
-    <t>TENTACLE</t>
-  </si>
-  <si>
-    <t>tentacle</t>
-  </si>
-  <si>
-    <t>触手</t>
-  </si>
-  <si>
-    <t>GELATINOUS_CUBE</t>
-  </si>
-  <si>
-    <t>gelatinous_cube</t>
-  </si>
-  <si>
-    <t>ゼラチン状立方体</t>
-  </si>
-  <si>
-    <t>WORM</t>
-  </si>
-  <si>
-    <t>worm</t>
-  </si>
-  <si>
-    <t>虫</t>
-  </si>
-  <si>
-    <t>ワーム</t>
-  </si>
-  <si>
-    <t>MAGOT</t>
-  </si>
-  <si>
-    <t>magot</t>
-  </si>
-  <si>
-    <t>ウジ虫</t>
-  </si>
-  <si>
-    <t>SEA_SERPENT</t>
-  </si>
-  <si>
-    <t>sea_serpent</t>
-  </si>
-  <si>
-    <t>海洋生物</t>
-  </si>
-  <si>
-    <t>サーペント</t>
-  </si>
-  <si>
-    <t>OCTOPUS_GROUND</t>
-  </si>
-  <si>
-    <t>octopus_ground</t>
-  </si>
-  <si>
-    <t>オクトパス</t>
-  </si>
-  <si>
-    <t>OCTOPUS_WATER</t>
-  </si>
-  <si>
-    <t>octopus_water</t>
-  </si>
-  <si>
-    <t>オクトパス（水中）</t>
-  </si>
-  <si>
-    <t>JELLYFISH</t>
-  </si>
-  <si>
-    <t>jellyfish</t>
-  </si>
-  <si>
-    <t>ジェリーフィッシュ</t>
-  </si>
-  <si>
-    <t>EEL_GROUND</t>
-  </si>
-  <si>
-    <t>eel_ground</t>
-  </si>
-  <si>
-    <t>電気ウナギ</t>
-  </si>
-  <si>
-    <t>EEL_WATER</t>
-  </si>
-  <si>
-    <t>eel_water</t>
-  </si>
-  <si>
-    <t>電気ウナギ（水中）</t>
-  </si>
-  <si>
-    <t>CRAB_GROUND</t>
-  </si>
-  <si>
-    <t>crab_ground</t>
-  </si>
-  <si>
-    <t>クラブ</t>
-  </si>
-  <si>
-    <t>シザースクラブ</t>
-  </si>
-  <si>
-    <t>CRAB_WATER</t>
-  </si>
-  <si>
-    <t>crab_water</t>
-  </si>
-  <si>
-    <t>クラブ（水中）</t>
-  </si>
-  <si>
-    <t>シザースクラブ（水中）</t>
-  </si>
-  <si>
-    <t>GILLMAN_GROUND</t>
-  </si>
-  <si>
-    <t>gillman_ground</t>
-  </si>
-  <si>
-    <t>ギルマン</t>
-  </si>
-  <si>
-    <t>GILLMAN_WATER</t>
-  </si>
-  <si>
-    <t>gillman_water</t>
-  </si>
-  <si>
-    <t>ギルマン（水中）</t>
-  </si>
-  <si>
-    <t>SHELLFISH</t>
-  </si>
-  <si>
-    <t>shellfish</t>
-  </si>
-  <si>
-    <t>ヤドカリ</t>
-  </si>
-  <si>
-    <t>FLY</t>
-  </si>
-  <si>
-    <t>ハエ</t>
-  </si>
-  <si>
-    <t>寄生ハエ</t>
-  </si>
-  <si>
-    <t>MOSQUITO</t>
-  </si>
-  <si>
-    <t>mosquito</t>
-  </si>
-  <si>
-    <t>モスキート</t>
-  </si>
-  <si>
-    <t>SCORPION</t>
-  </si>
-  <si>
-    <t>scorpion</t>
-  </si>
-  <si>
-    <t>スコーピオン</t>
-  </si>
-  <si>
-    <t>SPIDER</t>
-  </si>
-  <si>
-    <t>spider</t>
-  </si>
-  <si>
-    <t>スパイダー</t>
-  </si>
-  <si>
-    <t>SOLDIER_ANT</t>
-  </si>
-  <si>
-    <t>soldier_ant</t>
-  </si>
-  <si>
-    <t>キラーアント</t>
-  </si>
-  <si>
-    <t>COCKROACH</t>
-  </si>
-  <si>
-    <t>cockroach</t>
-  </si>
-  <si>
-    <t>ゴキブリ</t>
-  </si>
-  <si>
-    <t>コックローチ</t>
-  </si>
-  <si>
-    <t>TICK</t>
-  </si>
-  <si>
-    <t>tick</t>
-  </si>
-  <si>
-    <t>マダニ</t>
-  </si>
-  <si>
-    <t>PILLBUG</t>
-  </si>
-  <si>
-    <t>pillbug</t>
-  </si>
-  <si>
-    <t>ダンゴムシ</t>
-  </si>
-  <si>
-    <t>MANTIS</t>
-  </si>
-  <si>
-    <t>mantis</t>
-  </si>
-  <si>
-    <t>カマキリ</t>
-  </si>
-  <si>
-    <t>REAPER</t>
-  </si>
-  <si>
-    <t>reaper</t>
-  </si>
-  <si>
-    <t>死神</t>
-  </si>
-  <si>
-    <t>刈り取るもの</t>
-  </si>
-  <si>
-    <t>VINE</t>
-  </si>
-  <si>
-    <t>vine</t>
-  </si>
-  <si>
-    <t>植物</t>
-  </si>
-  <si>
-    <t>ツル</t>
-  </si>
-  <si>
-    <t>奇妙なツル</t>
-  </si>
-  <si>
-    <t>FUNGUS</t>
-  </si>
-  <si>
-    <t>fungus</t>
-  </si>
-  <si>
-    <t>菌類</t>
-  </si>
-  <si>
-    <t>危険な菌類</t>
-  </si>
-  <si>
-    <t>MYCONID</t>
-  </si>
-  <si>
-    <t>myconid</t>
-  </si>
-  <si>
-    <t>人面キノコ</t>
-  </si>
-  <si>
-    <t>SHRIEKER</t>
-  </si>
-  <si>
-    <t>shrieker</t>
-  </si>
-  <si>
-    <t>紫のキノコ</t>
-  </si>
-  <si>
-    <t>GAS_SPORE</t>
-  </si>
-  <si>
-    <t>gas_spore</t>
-  </si>
-  <si>
-    <t>キノコの胞子ガス</t>
-  </si>
-  <si>
-    <t>INSECTIVOROUS_PLANT</t>
-  </si>
-  <si>
-    <t>insectivorous_plant</t>
-  </si>
-  <si>
-    <t>食虫植物</t>
-  </si>
-  <si>
-    <t>MANDRAGORA</t>
-  </si>
-  <si>
-    <t>mandragora</t>
-  </si>
-  <si>
-    <t>マンドラゴラ</t>
-  </si>
-  <si>
-    <t>BEETLE</t>
-  </si>
-  <si>
-    <t>beetle</t>
-  </si>
-  <si>
-    <t>ビートル</t>
-  </si>
-  <si>
-    <t>EVIL_EYE</t>
-  </si>
-  <si>
-    <t>evil_eye</t>
-  </si>
-  <si>
-    <t>イーヴィルアイ</t>
-  </si>
-  <si>
-    <t>IMP</t>
-  </si>
-  <si>
-    <t>imp</t>
-  </si>
-  <si>
-    <t>インプ</t>
-  </si>
-  <si>
-    <t>GOATMAN1</t>
-  </si>
-  <si>
-    <t>goatman1</t>
-  </si>
-  <si>
-    <t>羊男1</t>
-  </si>
-  <si>
-    <t>羊男</t>
-  </si>
-  <si>
-    <t>GOATMAN2</t>
-  </si>
-  <si>
-    <t>goatman2</t>
-  </si>
-  <si>
-    <t>羊男2</t>
-  </si>
-  <si>
-    <t>羊戦士</t>
-  </si>
-  <si>
-    <t>LESSER_FIEND1</t>
-  </si>
-  <si>
-    <t>lesser_fiend1</t>
-  </si>
-  <si>
-    <t>レッサーデーモン1</t>
-  </si>
-  <si>
-    <t>レッサーデーモン</t>
-  </si>
-  <si>
-    <t>LESSER_FIEND2</t>
-  </si>
-  <si>
-    <t>lesser_fiend2</t>
-  </si>
-  <si>
-    <t>レッサーデーモン2</t>
-  </si>
-  <si>
-    <t>マッドストーカー</t>
-  </si>
-  <si>
-    <t>GARGOYLE_WALK</t>
-  </si>
-  <si>
-    <t>gargoyle_walk</t>
-  </si>
-  <si>
-    <t>ガーゴイル</t>
-  </si>
-  <si>
-    <t>GARGOYLE_FLY</t>
-  </si>
-  <si>
-    <t>gargoyle_fly</t>
-  </si>
-  <si>
-    <t>スターガーゴイル</t>
-  </si>
-  <si>
-    <t>VULTURE_DEMON</t>
-  </si>
-  <si>
-    <t>vulture_demon</t>
-  </si>
-  <si>
-    <t>ハゲタカの悪魔</t>
-  </si>
-  <si>
-    <t>SUCCUBUS</t>
-  </si>
-  <si>
-    <t>succubus</t>
-  </si>
-  <si>
-    <t>サキュバス</t>
-  </si>
-  <si>
-    <t>NIGHTMARE</t>
-  </si>
-  <si>
     <t>ナイトメア</t>
   </si>
   <si>
+    <t>INSECT_DEMON</t>
+  </si>
+  <si>
+    <t>insect_demon</t>
+  </si>
+  <si>
+    <t>昆虫デーモン</t>
+  </si>
+  <si>
+    <t>EMPUSA</t>
+  </si>
+  <si>
+    <t>empusa</t>
+  </si>
+  <si>
+    <t>エンプーサ</t>
+  </si>
+  <si>
+    <t>HAIRY_DEMON</t>
+  </si>
+  <si>
+    <t>hairy_demon</t>
+  </si>
+  <si>
+    <t>毛むくじゃらの悪魔</t>
+  </si>
+  <si>
+    <t>FIRE_DEMON</t>
+  </si>
+  <si>
+    <t>fire_demon</t>
+  </si>
+  <si>
+    <t>炎の悪魔</t>
+  </si>
+  <si>
+    <t>WATER_DEMON</t>
+  </si>
+  <si>
+    <t>water_demon</t>
+  </si>
+  <si>
+    <t>水の悪魔</t>
+  </si>
+  <si>
+    <t>EARTH_DEMON</t>
+  </si>
+  <si>
+    <t>earth_demon</t>
+  </si>
+  <si>
+    <t>土の悪魔</t>
+  </si>
+  <si>
+    <t>WIND_DEMON</t>
+  </si>
+  <si>
+    <t>wind_demon</t>
+  </si>
+  <si>
+    <t>風の悪魔</t>
+  </si>
+  <si>
+    <t>POISON_DEMON</t>
+  </si>
+  <si>
+    <t>poison_demon</t>
+  </si>
+  <si>
+    <t>毒の悪魔</t>
+  </si>
+  <si>
+    <t>SHADOW_DEMON</t>
+  </si>
+  <si>
+    <t>shadow_demon</t>
+  </si>
+  <si>
+    <t>影の悪魔</t>
+  </si>
+  <si>
+    <t>ICE_DEMON</t>
+  </si>
+  <si>
+    <t>ice_demon</t>
+  </si>
+  <si>
+    <t>氷の悪魔</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>cnt</t>
+  </si>
+  <si>
+    <t>e0</t>
+  </si>
+  <si>
+    <t>e0_r</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e1_r</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e2_r</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e3_r</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e4_r</t>
+  </si>
+  <si>
+    <t>enemy_id</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
     <t>auto_recover</t>
   </si>
   <si>
-    <t>INSECT_DEMON</t>
-  </si>
-  <si>
-    <t>insect_demon</t>
-  </si>
-  <si>
-    <t>昆虫デーモン</t>
-  </si>
-  <si>
-    <t>EMPUSA</t>
-  </si>
-  <si>
-    <t>empusa</t>
-  </si>
-  <si>
-    <t>エンプーサ</t>
-  </si>
-  <si>
-    <t>HAIRY_DEMON</t>
-  </si>
-  <si>
-    <t>hairy_demon</t>
-  </si>
-  <si>
-    <t>毛むくじゃらの悪魔</t>
-  </si>
-  <si>
-    <t>FIRE_DEMON</t>
-  </si>
-  <si>
-    <t>fire_demon</t>
-  </si>
-  <si>
-    <t>炎の悪魔</t>
-  </si>
-  <si>
     <t>hungry</t>
   </si>
   <si>
-    <t>WATER_DEMON</t>
-  </si>
-  <si>
-    <t>water_demon</t>
-  </si>
-  <si>
-    <t>水の悪魔</t>
-  </si>
-  <si>
     <t>weapon_break</t>
   </si>
   <si>
-    <t>EARTH_DEMON</t>
-  </si>
-  <si>
-    <t>earth_demon</t>
-  </si>
-  <si>
-    <t>土の悪魔</t>
-  </si>
-  <si>
     <t>wand</t>
   </si>
   <si>
-    <t>WIND_DEMON</t>
-  </si>
-  <si>
-    <t>wind_demon</t>
-  </si>
-  <si>
-    <t>風の悪魔</t>
-  </si>
-  <si>
     <t>ring</t>
   </si>
   <si>
-    <t>POISON_DEMON</t>
-  </si>
-  <si>
-    <t>poison_demon</t>
-  </si>
-  <si>
-    <t>毒の悪魔</t>
-  </si>
-  <si>
     <t>attack</t>
   </si>
   <si>
-    <t>SHADOW_DEMON</t>
-  </si>
-  <si>
-    <t>shadow_demon</t>
-  </si>
-  <si>
-    <t>影の悪魔</t>
-  </si>
-  <si>
     <t>potion</t>
   </si>
   <si>
-    <t>ICE_DEMON</t>
-  </si>
-  <si>
-    <t>ice_demon</t>
-  </si>
-  <si>
-    <t>氷の悪魔</t>
-  </si>
-  <si>
     <t>scroll</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>cnt</t>
-  </si>
-  <si>
-    <t>e0</t>
-  </si>
-  <si>
-    <t>e0_r</t>
-  </si>
-  <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>e1_r</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>e2_r</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>e3_r</t>
-  </si>
-  <si>
-    <t>e4</t>
-  </si>
-  <si>
-    <t>e4_r</t>
-  </si>
-  <si>
-    <t>enemy_id</t>
-  </si>
-  <si>
-    <t>add</t>
   </si>
 </sst>
 </file>
@@ -3153,7 +3156,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S150"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3176,9 +3179,8 @@
     <col min="15" max="15" width="3.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.40625" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="36.6328" style="1" customWidth="1"/>
-    <col min="20" max="256" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6328" style="1" customWidth="1"/>
+    <col min="19" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -3236,13 +3238,10 @@
       <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -3260,16 +3259,16 @@
         <v>8</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="4">
         <v>8</v>
@@ -3284,36 +3283,33 @@
         <v>8</v>
       </c>
       <c r="O2" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="S2" t="s" s="4">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="C3" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="D3" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="4">
-        <v>23</v>
-      </c>
       <c r="E3" t="s" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -3339,26 +3335,25 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
-      <c r="S3" t="s" s="4">
-        <v>24</v>
+      <c r="R3" t="s" s="4">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="C4" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="D4" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="D4" t="s" s="4">
-        <v>28</v>
-      </c>
       <c r="E4" t="s" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -3377,33 +3372,32 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" t="s" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" t="s" s="4">
-        <v>30</v>
+      <c r="R4" t="s" s="4">
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="4">
         <v>31</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="C5" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="C5" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s" s="4">
-        <v>33</v>
-      </c>
       <c r="E5" t="s" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -3429,26 +3423,25 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
-      <c r="S5" t="s" s="4">
-        <v>34</v>
+      <c r="R5" t="s" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="C6" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="C6" t="s" s="4">
+      <c r="D6" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="4">
-        <v>38</v>
-      </c>
       <c r="E6" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -3470,34 +3463,33 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" t="s" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s" s="4">
         <v>40</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" t="s" s="4">
-        <v>41</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="C7" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="4">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s" s="4">
+      <c r="E7" t="s" s="4">
         <v>44</v>
-      </c>
-      <c r="E7" t="s" s="4">
-        <v>45</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -3521,26 +3513,25 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
-      <c r="S7" t="s" s="4">
-        <v>46</v>
+      <c r="R7" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="C8" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="4">
         <v>48</v>
       </c>
-      <c r="C8" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s" s="4">
+      <c r="E8" t="s" s="4">
         <v>49</v>
-      </c>
-      <c r="E8" t="s" s="4">
-        <v>50</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -3564,26 +3555,25 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
-      <c r="S8" t="s" s="4">
-        <v>46</v>
+      <c r="R8" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s" s="4">
         <v>51</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="C9" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>52</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="E9" t="s" s="4">
         <v>53</v>
-      </c>
-      <c r="E9" t="s" s="4">
-        <v>54</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -3602,33 +3592,32 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" t="s" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
-      <c r="S9" t="s" s="4">
-        <v>46</v>
+      <c r="R9" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s" s="4">
         <v>56</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="C10" t="s" s="4">
         <v>57</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="D10" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="D10" t="s" s="4">
+      <c r="E10" t="s" s="4">
         <v>59</v>
-      </c>
-      <c r="E10" t="s" s="4">
-        <v>60</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3652,26 +3641,25 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
-      <c r="S10" t="s" s="4">
-        <v>46</v>
+      <c r="R10" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s" s="4">
         <v>61</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="C11" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>62</v>
       </c>
-      <c r="C11" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s" s="4">
+      <c r="E11" t="s" s="4">
         <v>63</v>
-      </c>
-      <c r="E11" t="s" s="4">
-        <v>64</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -3695,26 +3683,25 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
-      <c r="S11" t="s" s="4">
-        <v>46</v>
+      <c r="R11" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s" s="4">
         <v>65</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="C12" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>66</v>
       </c>
-      <c r="C12" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s" s="4">
+      <c r="E12" t="s" s="4">
         <v>67</v>
-      </c>
-      <c r="E12" t="s" s="4">
-        <v>68</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3738,26 +3725,25 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="6"/>
-      <c r="S12" t="s" s="4">
-        <v>46</v>
+      <c r="R12" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s" s="4">
         <v>69</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="C13" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>70</v>
       </c>
-      <c r="C13" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s" s="4">
-        <v>71</v>
-      </c>
       <c r="E13" t="s" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -3778,33 +3764,32 @@
       <c r="L13" s="6"/>
       <c r="M13" s="5"/>
       <c r="N13" t="s" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O13" s="5">
         <v>20</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
-      <c r="S13" t="s" s="4">
-        <v>46</v>
+      <c r="R13" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s" s="4">
         <v>73</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="C14" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>74</v>
       </c>
-      <c r="C14" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s" s="4">
-        <v>75</v>
-      </c>
       <c r="E14" t="s" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3828,26 +3813,25 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
-      <c r="S14" t="s" s="4">
-        <v>46</v>
+      <c r="R14" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s" s="4">
         <v>76</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="C15" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>77</v>
       </c>
-      <c r="C15" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s" s="4">
-        <v>78</v>
-      </c>
       <c r="E15" t="s" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3871,26 +3855,25 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-      <c r="S15" t="s" s="4">
-        <v>46</v>
+      <c r="R15" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s" s="4">
         <v>79</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="C16" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>80</v>
       </c>
-      <c r="C16" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s" s="4">
-        <v>81</v>
-      </c>
       <c r="E16" t="s" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -3914,26 +3897,25 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
-      <c r="S16" t="s" s="4">
-        <v>46</v>
+      <c r="R16" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s" s="4">
         <v>82</v>
       </c>
-      <c r="B17" t="s" s="4">
+      <c r="C17" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>83</v>
       </c>
-      <c r="C17" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s" s="4">
+      <c r="E17" t="s" s="4">
         <v>84</v>
-      </c>
-      <c r="E17" t="s" s="4">
-        <v>85</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3957,26 +3939,25 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
-      <c r="S17" t="s" s="4">
-        <v>46</v>
+      <c r="R17" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s" s="4">
         <v>86</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="C18" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>87</v>
       </c>
-      <c r="C18" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="4">
-        <v>88</v>
-      </c>
       <c r="E18" t="s" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -3994,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="5"/>
@@ -4002,26 +3983,25 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
-      <c r="S18" t="s" s="4">
-        <v>46</v>
+      <c r="R18" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s" s="4">
         <v>90</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="C19" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>91</v>
       </c>
-      <c r="C19" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s" s="4">
-        <v>92</v>
-      </c>
       <c r="E19" t="s" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -4045,26 +4025,25 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="6"/>
-      <c r="S19" t="s" s="4">
-        <v>46</v>
+      <c r="R19" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s" s="4">
         <v>93</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="C20" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>94</v>
       </c>
-      <c r="C20" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="4">
+      <c r="E20" t="s" s="4">
         <v>95</v>
-      </c>
-      <c r="E20" t="s" s="4">
-        <v>96</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -4088,26 +4067,25 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="6"/>
-      <c r="S20" t="s" s="4">
-        <v>46</v>
+      <c r="R20" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s" s="4">
         <v>97</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="C21" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>98</v>
       </c>
-      <c r="C21" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s" s="4">
-        <v>99</v>
-      </c>
       <c r="E21" t="s" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -4131,26 +4109,25 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="6"/>
-      <c r="S21" t="s" s="4">
-        <v>46</v>
+      <c r="R21" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>101</v>
       </c>
-      <c r="C22" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s" s="4">
-        <v>102</v>
-      </c>
       <c r="E22" t="s" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -4174,26 +4151,25 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="6"/>
-      <c r="S22" t="s" s="4">
-        <v>46</v>
+      <c r="R22" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s" s="4">
         <v>103</v>
       </c>
-      <c r="B23" t="s" s="4">
+      <c r="C23" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>104</v>
       </c>
-      <c r="C23" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s" s="4">
-        <v>105</v>
-      </c>
       <c r="E23" t="s" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -4217,26 +4193,25 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="6"/>
-      <c r="S23" t="s" s="4">
-        <v>46</v>
+      <c r="R23" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s" s="4">
         <v>106</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="C24" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="C24" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s" s="4">
+      <c r="E24" t="s" s="4">
         <v>108</v>
-      </c>
-      <c r="E24" t="s" s="4">
-        <v>109</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -4260,26 +4235,25 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="6"/>
-      <c r="S24" t="s" s="4">
-        <v>46</v>
+      <c r="R24" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s" s="4">
         <v>110</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="C25" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>111</v>
       </c>
-      <c r="C25" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s" s="4">
-        <v>112</v>
-      </c>
       <c r="E25" t="s" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
@@ -4303,26 +4277,25 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="6"/>
-      <c r="S25" t="s" s="4">
-        <v>46</v>
+      <c r="R25" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s" s="4">
         <v>113</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="C26" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>114</v>
       </c>
-      <c r="C26" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s" s="4">
+      <c r="E26" t="s" s="4">
         <v>115</v>
-      </c>
-      <c r="E26" t="s" s="4">
-        <v>116</v>
       </c>
       <c r="F26" s="4">
         <v>2</v>
@@ -4346,26 +4319,25 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="6"/>
-      <c r="S26" t="s" s="4">
-        <v>46</v>
+      <c r="R26" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" t="s" s="3">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s" s="4">
         <v>117</v>
       </c>
-      <c r="B27" t="s" s="4">
+      <c r="C27" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>118</v>
       </c>
-      <c r="C27" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s" s="4">
+      <c r="E27" t="s" s="4">
         <v>119</v>
-      </c>
-      <c r="E27" t="s" s="4">
-        <v>120</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -4389,26 +4361,25 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="6"/>
-      <c r="S27" t="s" s="4">
-        <v>46</v>
+      <c r="R27" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s" s="4">
         <v>121</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="C28" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>122</v>
       </c>
-      <c r="C28" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s" s="4">
+      <c r="E28" t="s" s="4">
         <v>123</v>
-      </c>
-      <c r="E28" t="s" s="4">
-        <v>124</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
@@ -4432,26 +4403,25 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="6"/>
-      <c r="S28" t="s" s="4">
-        <v>46</v>
+      <c r="R28" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s" s="4">
         <v>125</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="C29" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>126</v>
       </c>
-      <c r="C29" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s" s="4">
+      <c r="E29" t="s" s="4">
         <v>127</v>
-      </c>
-      <c r="E29" t="s" s="4">
-        <v>128</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -4475,26 +4445,25 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="6"/>
-      <c r="S29" t="s" s="4">
-        <v>46</v>
+      <c r="R29" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" t="s" s="3">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s" s="4">
         <v>129</v>
       </c>
-      <c r="B30" t="s" s="4">
+      <c r="C30" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>130</v>
       </c>
-      <c r="C30" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s" s="4">
-        <v>131</v>
-      </c>
       <c r="E30" t="s" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -4518,26 +4487,25 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="6"/>
-      <c r="S30" t="s" s="4">
-        <v>46</v>
+      <c r="R30" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" t="s" s="3">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s" s="4">
         <v>132</v>
       </c>
-      <c r="B31" t="s" s="4">
+      <c r="C31" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>133</v>
       </c>
-      <c r="C31" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s" s="4">
-        <v>134</v>
-      </c>
       <c r="E31" t="s" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
@@ -4561,26 +4529,25 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="6"/>
-      <c r="S31" t="s" s="4">
-        <v>46</v>
+      <c r="R31" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s" s="4">
         <v>135</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="C32" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>136</v>
       </c>
-      <c r="C32" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s" s="4">
-        <v>137</v>
-      </c>
       <c r="E32" t="s" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -4604,26 +4571,25 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="6"/>
-      <c r="S32" t="s" s="4">
-        <v>46</v>
+      <c r="R32" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" t="s" s="3">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s" s="4">
         <v>138</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="C33" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>139</v>
       </c>
-      <c r="C33" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s" s="4">
-        <v>140</v>
-      </c>
       <c r="E33" t="s" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -4647,26 +4613,25 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="6"/>
-      <c r="S33" t="s" s="4">
-        <v>46</v>
+      <c r="R33" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" t="s" s="3">
+        <v>140</v>
+      </c>
+      <c r="B34" t="s" s="4">
         <v>141</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="C34" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>142</v>
       </c>
-      <c r="C34" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D34" t="s" s="4">
-        <v>143</v>
-      </c>
       <c r="E34" t="s" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -4690,26 +4655,25 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="6"/>
-      <c r="S34" t="s" s="4">
-        <v>46</v>
+      <c r="R34" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" t="s" s="3">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s" s="4">
         <v>144</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="C35" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>145</v>
       </c>
-      <c r="C35" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s" s="4">
-        <v>146</v>
-      </c>
       <c r="E35" t="s" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F35" s="4">
         <v>3</v>
@@ -4733,26 +4697,25 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="6"/>
-      <c r="S35" t="s" s="4">
-        <v>46</v>
+      <c r="R35" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s" s="4">
         <v>147</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="C36" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>148</v>
       </c>
-      <c r="C36" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s" s="4">
+      <c r="E36" t="s" s="4">
         <v>149</v>
-      </c>
-      <c r="E36" t="s" s="4">
-        <v>150</v>
       </c>
       <c r="F36" s="4">
         <v>3</v>
@@ -4776,26 +4739,25 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="6"/>
-      <c r="S36" t="s" s="4">
-        <v>46</v>
+      <c r="R36" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" t="s" s="3">
+        <v>150</v>
+      </c>
+      <c r="B37" t="s" s="4">
         <v>151</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="C37" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>152</v>
       </c>
-      <c r="C37" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s" s="4">
-        <v>153</v>
-      </c>
       <c r="E37" t="s" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F37" s="4">
         <v>3</v>
@@ -4819,26 +4781,25 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="6"/>
-      <c r="S37" t="s" s="4">
-        <v>46</v>
+      <c r="R37" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" t="s" s="3">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s" s="4">
         <v>154</v>
       </c>
-      <c r="B38" t="s" s="4">
+      <c r="C38" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>155</v>
       </c>
-      <c r="C38" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D38" t="s" s="4">
+      <c r="E38" t="s" s="4">
         <v>156</v>
-      </c>
-      <c r="E38" t="s" s="4">
-        <v>157</v>
       </c>
       <c r="F38" s="4">
         <v>3</v>
@@ -4862,26 +4823,25 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="6"/>
-      <c r="S38" t="s" s="4">
-        <v>46</v>
+      <c r="R38" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="B39" t="s" s="4">
         <v>158</v>
       </c>
-      <c r="B39" t="s" s="4">
+      <c r="C39" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>159</v>
       </c>
-      <c r="C39" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D39" t="s" s="4">
+      <c r="E39" t="s" s="4">
         <v>160</v>
-      </c>
-      <c r="E39" t="s" s="4">
-        <v>161</v>
       </c>
       <c r="F39" s="4">
         <v>3</v>
@@ -4905,26 +4865,25 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="6"/>
-      <c r="S39" t="s" s="4">
-        <v>46</v>
+      <c r="R39" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" t="s" s="3">
+        <v>161</v>
+      </c>
+      <c r="B40" t="s" s="4">
         <v>162</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="C40" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="C40" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D40" t="s" s="4">
+      <c r="E40" t="s" s="4">
         <v>164</v>
-      </c>
-      <c r="E40" t="s" s="4">
-        <v>165</v>
       </c>
       <c r="F40" s="4">
         <v>3</v>
@@ -4948,26 +4907,25 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="6"/>
-      <c r="S40" t="s" s="4">
-        <v>46</v>
+      <c r="R40" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" t="s" s="3">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s" s="4">
         <v>166</v>
       </c>
-      <c r="B41" t="s" s="4">
+      <c r="C41" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>167</v>
       </c>
-      <c r="C41" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D41" t="s" s="4">
+      <c r="E41" t="s" s="4">
         <v>168</v>
-      </c>
-      <c r="E41" t="s" s="4">
-        <v>169</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
@@ -4991,26 +4949,25 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="6"/>
-      <c r="S41" t="s" s="4">
-        <v>46</v>
+      <c r="R41" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" t="s" s="3">
+        <v>169</v>
+      </c>
+      <c r="B42" t="s" s="4">
         <v>170</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="C42" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>171</v>
       </c>
-      <c r="C42" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D42" t="s" s="4">
+      <c r="E42" t="s" s="4">
         <v>172</v>
-      </c>
-      <c r="E42" t="s" s="4">
-        <v>173</v>
       </c>
       <c r="F42" s="4">
         <v>3</v>
@@ -5034,26 +4991,25 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="6"/>
-      <c r="S42" t="s" s="4">
-        <v>46</v>
+      <c r="R42" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="B43" t="s" s="4">
         <v>174</v>
       </c>
-      <c r="B43" t="s" s="4">
+      <c r="C43" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>175</v>
       </c>
-      <c r="C43" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D43" t="s" s="4">
-        <v>176</v>
-      </c>
       <c r="E43" t="s" s="4">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F43" s="4">
         <v>3</v>
@@ -5077,26 +5033,25 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="6"/>
-      <c r="S43" t="s" s="4">
-        <v>46</v>
+      <c r="R43" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" t="s" s="3">
+        <v>176</v>
+      </c>
+      <c r="B44" t="s" s="4">
         <v>177</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="C44" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>178</v>
       </c>
-      <c r="C44" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D44" t="s" s="4">
-        <v>179</v>
-      </c>
       <c r="E44" t="s" s="4">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F44" s="4">
         <v>3</v>
@@ -5120,26 +5075,25 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="6"/>
-      <c r="S44" t="s" s="4">
-        <v>46</v>
+      <c r="R44" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" t="s" s="3">
+        <v>179</v>
+      </c>
+      <c r="B45" t="s" s="4">
         <v>180</v>
       </c>
-      <c r="B45" t="s" s="4">
+      <c r="C45" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>181</v>
       </c>
-      <c r="C45" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D45" t="s" s="4">
+      <c r="E45" t="s" s="4">
         <v>182</v>
-      </c>
-      <c r="E45" t="s" s="4">
-        <v>183</v>
       </c>
       <c r="F45" s="4">
         <v>3</v>
@@ -5163,26 +5117,25 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="6"/>
-      <c r="S45" t="s" s="4">
-        <v>46</v>
+      <c r="R45" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" t="s" s="3">
+        <v>183</v>
+      </c>
+      <c r="B46" t="s" s="4">
         <v>184</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="C46" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>185</v>
       </c>
-      <c r="C46" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D46" t="s" s="4">
+      <c r="E46" t="s" s="4">
         <v>186</v>
-      </c>
-      <c r="E46" t="s" s="4">
-        <v>187</v>
       </c>
       <c r="F46" s="4">
         <v>3</v>
@@ -5206,26 +5159,25 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
-      <c r="R46" s="6"/>
-      <c r="S46" t="s" s="4">
-        <v>46</v>
+      <c r="R46" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" t="s" s="3">
+        <v>187</v>
+      </c>
+      <c r="B47" t="s" s="4">
         <v>188</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="C47" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>189</v>
       </c>
-      <c r="C47" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D47" t="s" s="4">
+      <c r="E47" t="s" s="4">
         <v>190</v>
-      </c>
-      <c r="E47" t="s" s="4">
-        <v>191</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
@@ -5249,26 +5201,25 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="6"/>
-      <c r="S47" t="s" s="4">
-        <v>46</v>
+      <c r="R47" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" t="s" s="3">
+        <v>191</v>
+      </c>
+      <c r="B48" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="C48" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>193</v>
       </c>
-      <c r="C48" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D48" t="s" s="4">
-        <v>194</v>
-      </c>
       <c r="E48" t="s" s="4">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F48" s="4">
         <v>4</v>
@@ -5292,26 +5243,25 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
-      <c r="R48" s="6"/>
-      <c r="S48" t="s" s="4">
-        <v>46</v>
+      <c r="R48" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" t="s" s="3">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s" s="4">
         <v>195</v>
       </c>
-      <c r="B49" t="s" s="4">
+      <c r="C49" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>196</v>
       </c>
-      <c r="C49" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D49" t="s" s="4">
+      <c r="E49" t="s" s="4">
         <v>197</v>
-      </c>
-      <c r="E49" t="s" s="4">
-        <v>198</v>
       </c>
       <c r="F49" s="4">
         <v>4</v>
@@ -5335,26 +5285,25 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
-      <c r="R49" s="6"/>
-      <c r="S49" t="s" s="4">
-        <v>46</v>
+      <c r="R49" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" t="s" s="3">
+        <v>198</v>
+      </c>
+      <c r="B50" t="s" s="4">
         <v>199</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="C50" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>200</v>
       </c>
-      <c r="C50" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D50" t="s" s="4">
+      <c r="E50" t="s" s="4">
         <v>201</v>
-      </c>
-      <c r="E50" t="s" s="4">
-        <v>202</v>
       </c>
       <c r="F50" s="4">
         <v>4</v>
@@ -5378,26 +5327,25 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
-      <c r="R50" s="6"/>
-      <c r="S50" t="s" s="4">
-        <v>46</v>
+      <c r="R50" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="B51" t="s" s="4">
         <v>203</v>
       </c>
-      <c r="B51" t="s" s="4">
+      <c r="C51" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>204</v>
       </c>
-      <c r="C51" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D51" t="s" s="4">
-        <v>205</v>
-      </c>
       <c r="E51" t="s" s="4">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
@@ -5421,26 +5369,25 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-      <c r="R51" s="6"/>
-      <c r="S51" t="s" s="4">
-        <v>46</v>
+      <c r="R51" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" t="s" s="3">
+        <v>205</v>
+      </c>
+      <c r="B52" t="s" s="4">
         <v>206</v>
       </c>
-      <c r="B52" t="s" s="4">
+      <c r="C52" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>207</v>
       </c>
-      <c r="C52" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="D52" t="s" s="4">
-        <v>208</v>
-      </c>
       <c r="E52" t="s" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F52" s="4">
         <v>5</v>
@@ -5464,26 +5411,25 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
-      <c r="R52" s="6"/>
-      <c r="S52" t="s" s="4">
-        <v>46</v>
+      <c r="R52" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" t="s" s="3">
+        <v>208</v>
+      </c>
+      <c r="B53" t="s" s="4">
         <v>209</v>
       </c>
-      <c r="B53" t="s" s="4">
+      <c r="C53" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="C53" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D53" t="s" s="4">
+      <c r="E53" t="s" s="4">
         <v>211</v>
-      </c>
-      <c r="E53" t="s" s="4">
-        <v>212</v>
       </c>
       <c r="F53" s="4">
         <v>4</v>
@@ -5507,26 +5453,25 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-      <c r="R53" s="6"/>
-      <c r="S53" t="s" s="4">
-        <v>46</v>
+      <c r="R53" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" t="s" s="3">
+        <v>212</v>
+      </c>
+      <c r="B54" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="C54" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>214</v>
       </c>
-      <c r="C54" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D54" t="s" s="4">
-        <v>215</v>
-      </c>
       <c r="E54" t="s" s="4">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F54" s="4">
         <v>4</v>
@@ -5550,26 +5495,25 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
-      <c r="R54" s="6"/>
-      <c r="S54" t="s" s="4">
-        <v>46</v>
+      <c r="R54" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" t="s" s="3">
+        <v>215</v>
+      </c>
+      <c r="B55" t="s" s="4">
         <v>216</v>
       </c>
-      <c r="B55" t="s" s="4">
+      <c r="C55" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>217</v>
       </c>
-      <c r="C55" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D55" t="s" s="4">
+      <c r="E55" t="s" s="4">
         <v>218</v>
-      </c>
-      <c r="E55" t="s" s="4">
-        <v>219</v>
       </c>
       <c r="F55" s="4">
         <v>4</v>
@@ -5593,26 +5537,25 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
-      <c r="R55" s="6"/>
-      <c r="S55" t="s" s="4">
-        <v>46</v>
+      <c r="R55" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" t="s" s="3">
+        <v>219</v>
+      </c>
+      <c r="B56" t="s" s="4">
         <v>220</v>
       </c>
-      <c r="B56" t="s" s="4">
+      <c r="C56" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>221</v>
       </c>
-      <c r="C56" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D56" t="s" s="4">
+      <c r="E56" t="s" s="4">
         <v>222</v>
-      </c>
-      <c r="E56" t="s" s="4">
-        <v>223</v>
       </c>
       <c r="F56" s="4">
         <v>4</v>
@@ -5636,26 +5579,25 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-      <c r="R56" s="6"/>
-      <c r="S56" t="s" s="4">
-        <v>46</v>
+      <c r="R56" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" t="s" s="3">
+        <v>223</v>
+      </c>
+      <c r="B57" t="s" s="4">
         <v>224</v>
       </c>
-      <c r="B57" t="s" s="4">
+      <c r="C57" t="s" s="4">
         <v>225</v>
       </c>
-      <c r="C57" t="s" s="4">
+      <c r="D57" t="s" s="4">
         <v>226</v>
       </c>
-      <c r="D57" t="s" s="4">
+      <c r="E57" t="s" s="4">
         <v>227</v>
-      </c>
-      <c r="E57" t="s" s="4">
-        <v>228</v>
       </c>
       <c r="F57" s="4">
         <v>5</v>
@@ -5679,26 +5621,25 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="6"/>
-      <c r="S57" t="s" s="4">
-        <v>46</v>
+      <c r="R57" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" t="s" s="3">
+        <v>228</v>
+      </c>
+      <c r="B58" t="s" s="4">
         <v>229</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="C58" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>230</v>
       </c>
-      <c r="C58" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D58" t="s" s="4">
-        <v>231</v>
-      </c>
       <c r="E58" t="s" s="4">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F58" s="4">
         <v>5</v>
@@ -5722,26 +5663,25 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
-      <c r="R58" s="6"/>
-      <c r="S58" t="s" s="4">
-        <v>46</v>
+      <c r="R58" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" t="s" s="3">
+        <v>231</v>
+      </c>
+      <c r="B59" t="s" s="4">
         <v>232</v>
       </c>
-      <c r="B59" t="s" s="4">
+      <c r="C59" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>233</v>
       </c>
-      <c r="C59" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D59" t="s" s="4">
-        <v>234</v>
-      </c>
       <c r="E59" t="s" s="4">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F59" s="4">
         <v>5</v>
@@ -5765,26 +5705,25 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
-      <c r="R59" s="6"/>
-      <c r="S59" t="s" s="4">
-        <v>46</v>
+      <c r="R59" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" t="s" s="3">
+        <v>234</v>
+      </c>
+      <c r="B60" t="s" s="4">
         <v>235</v>
       </c>
-      <c r="B60" t="s" s="4">
+      <c r="C60" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>236</v>
       </c>
-      <c r="C60" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D60" t="s" s="4">
-        <v>237</v>
-      </c>
       <c r="E60" t="s" s="4">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F60" s="4">
         <v>5</v>
@@ -5808,29 +5747,28 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="6"/>
-      <c r="S60" t="s" s="4">
-        <v>46</v>
+      <c r="R60" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" t="s" s="3">
+        <v>237</v>
+      </c>
+      <c r="B61" t="s" s="4">
         <v>238</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="C61" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>239</v>
       </c>
-      <c r="C61" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D61" t="s" s="4">
+      <c r="E61" t="s" s="4">
+        <v>239</v>
+      </c>
+      <c r="F61" t="s" s="4">
         <v>240</v>
-      </c>
-      <c r="E61" t="s" s="4">
-        <v>240</v>
-      </c>
-      <c r="F61" t="s" s="4">
-        <v>241</v>
       </c>
       <c r="G61" s="4">
         <v>100</v>
@@ -5851,29 +5789,28 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="6"/>
-      <c r="S61" t="s" s="4">
-        <v>46</v>
+      <c r="R61" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" t="s" s="3">
+        <v>241</v>
+      </c>
+      <c r="B62" t="s" s="4">
         <v>242</v>
       </c>
-      <c r="B62" t="s" s="4">
+      <c r="C62" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>243</v>
       </c>
-      <c r="C62" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D62" t="s" s="4">
+      <c r="E62" t="s" s="4">
         <v>244</v>
       </c>
-      <c r="E62" t="s" s="4">
-        <v>245</v>
-      </c>
       <c r="F62" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G62" s="4">
         <v>100</v>
@@ -5894,29 +5831,28 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
-      <c r="R62" s="6"/>
-      <c r="S62" t="s" s="4">
-        <v>46</v>
+      <c r="R62" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" t="s" s="3">
+        <v>245</v>
+      </c>
+      <c r="B63" t="s" s="4">
         <v>246</v>
       </c>
-      <c r="B63" t="s" s="4">
+      <c r="C63" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>247</v>
       </c>
-      <c r="C63" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D63" t="s" s="4">
+      <c r="E63" t="s" s="4">
         <v>248</v>
       </c>
-      <c r="E63" t="s" s="4">
-        <v>249</v>
-      </c>
       <c r="F63" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G63" s="4">
         <v>100</v>
@@ -5937,29 +5873,28 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-      <c r="R63" s="6"/>
-      <c r="S63" t="s" s="4">
-        <v>46</v>
+      <c r="R63" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" t="s" s="3">
+        <v>249</v>
+      </c>
+      <c r="B64" t="s" s="4">
         <v>250</v>
       </c>
-      <c r="B64" t="s" s="4">
+      <c r="C64" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>251</v>
       </c>
-      <c r="C64" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D64" t="s" s="4">
+      <c r="E64" t="s" s="4">
         <v>252</v>
       </c>
-      <c r="E64" t="s" s="4">
-        <v>253</v>
-      </c>
       <c r="F64" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G64" s="4">
         <v>100</v>
@@ -5980,29 +5915,28 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
-      <c r="R64" s="6"/>
-      <c r="S64" t="s" s="4">
-        <v>46</v>
+      <c r="R64" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" t="s" s="3">
+        <v>253</v>
+      </c>
+      <c r="B65" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="C65" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>255</v>
       </c>
-      <c r="C65" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D65" t="s" s="4">
+      <c r="E65" t="s" s="4">
         <v>256</v>
       </c>
-      <c r="E65" t="s" s="4">
-        <v>257</v>
-      </c>
       <c r="F65" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G65" s="4">
         <v>100</v>
@@ -6023,29 +5957,28 @@
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-      <c r="R65" s="6"/>
-      <c r="S65" t="s" s="4">
-        <v>46</v>
+      <c r="R65" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" t="s" s="3">
+        <v>257</v>
+      </c>
+      <c r="B66" t="s" s="4">
         <v>258</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="C66" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="C66" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D66" t="s" s="4">
+      <c r="E66" t="s" s="4">
         <v>260</v>
       </c>
-      <c r="E66" t="s" s="4">
-        <v>261</v>
-      </c>
       <c r="F66" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G66" s="4">
         <v>100</v>
@@ -6066,29 +5999,28 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-      <c r="R66" s="6"/>
-      <c r="S66" t="s" s="4">
-        <v>46</v>
+      <c r="R66" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" t="s" s="3">
+        <v>261</v>
+      </c>
+      <c r="B67" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="B67" t="s" s="4">
+      <c r="C67" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>263</v>
       </c>
-      <c r="C67" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D67" t="s" s="4">
-        <v>264</v>
-      </c>
       <c r="E67" t="s" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F67" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G67" s="4">
         <v>100</v>
@@ -6109,29 +6041,28 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-      <c r="R67" s="6"/>
-      <c r="S67" t="s" s="4">
-        <v>46</v>
+      <c r="R67" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" t="s" s="3">
+        <v>264</v>
+      </c>
+      <c r="B68" t="s" s="4">
         <v>265</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="C68" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>266</v>
       </c>
-      <c r="C68" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D68" t="s" s="4">
-        <v>267</v>
-      </c>
       <c r="E68" t="s" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F68" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G68" s="4">
         <v>100</v>
@@ -6152,29 +6083,28 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-      <c r="R68" s="6"/>
-      <c r="S68" t="s" s="4">
-        <v>46</v>
+      <c r="R68" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" t="s" s="3">
+        <v>267</v>
+      </c>
+      <c r="B69" t="s" s="4">
         <v>268</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="C69" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>269</v>
       </c>
-      <c r="C69" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D69" t="s" s="4">
+      <c r="E69" t="s" s="4">
         <v>270</v>
       </c>
-      <c r="E69" t="s" s="4">
-        <v>271</v>
-      </c>
       <c r="F69" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G69" s="4">
         <v>100</v>
@@ -6195,29 +6125,28 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
-      <c r="R69" s="6"/>
-      <c r="S69" t="s" s="4">
-        <v>46</v>
+      <c r="R69" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" t="s" s="3">
+        <v>271</v>
+      </c>
+      <c r="B70" t="s" s="4">
         <v>272</v>
       </c>
-      <c r="B70" t="s" s="4">
+      <c r="C70" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>273</v>
       </c>
-      <c r="C70" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D70" t="s" s="4">
-        <v>274</v>
-      </c>
       <c r="E70" t="s" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G70" s="4">
         <v>100</v>
@@ -6238,26 +6167,25 @@
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
-      <c r="R70" s="6"/>
-      <c r="S70" t="s" s="4">
-        <v>46</v>
+      <c r="R70" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" t="s" s="3">
+        <v>274</v>
+      </c>
+      <c r="B71" t="s" s="4">
         <v>275</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="C71" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>276</v>
       </c>
-      <c r="C71" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D71" t="s" s="4">
-        <v>277</v>
-      </c>
       <c r="E71" t="s" s="4">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F71" s="4">
         <v>3</v>
@@ -6281,26 +6209,25 @@
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
-      <c r="R71" s="6"/>
-      <c r="S71" t="s" s="4">
-        <v>46</v>
+      <c r="R71" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" t="s" s="3">
+        <v>277</v>
+      </c>
+      <c r="B72" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="B72" t="s" s="4">
+      <c r="C72" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>279</v>
       </c>
-      <c r="C72" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D72" t="s" s="4">
-        <v>280</v>
-      </c>
       <c r="E72" t="s" s="4">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F72" s="4">
         <v>3</v>
@@ -6324,26 +6251,25 @@
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
-      <c r="R72" s="6"/>
-      <c r="S72" t="s" s="4">
-        <v>46</v>
+      <c r="R72" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" t="s" s="3">
+        <v>280</v>
+      </c>
+      <c r="B73" t="s" s="4">
         <v>281</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="C73" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="C73" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D73" t="s" s="4">
-        <v>283</v>
-      </c>
       <c r="E73" t="s" s="4">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F73" s="4">
         <v>4</v>
@@ -6367,26 +6293,25 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
-      <c r="R73" s="6"/>
-      <c r="S73" t="s" s="4">
-        <v>46</v>
+      <c r="R73" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" t="s" s="3">
+        <v>283</v>
+      </c>
+      <c r="B74" t="s" s="4">
         <v>284</v>
       </c>
-      <c r="B74" t="s" s="4">
+      <c r="C74" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>285</v>
       </c>
-      <c r="C74" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D74" t="s" s="4">
-        <v>286</v>
-      </c>
       <c r="E74" t="s" s="4">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
@@ -6410,26 +6335,25 @@
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
-      <c r="R74" s="6"/>
-      <c r="S74" t="s" s="4">
-        <v>46</v>
+      <c r="R74" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" t="s" s="3">
+        <v>286</v>
+      </c>
+      <c r="B75" t="s" s="4">
         <v>287</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="C75" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>288</v>
       </c>
-      <c r="C75" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D75" t="s" s="4">
-        <v>289</v>
-      </c>
       <c r="E75" t="s" s="4">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F75" s="4">
         <v>2</v>
@@ -6453,26 +6377,25 @@
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-      <c r="R75" s="6"/>
-      <c r="S75" t="s" s="4">
-        <v>46</v>
+      <c r="R75" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" t="s" s="3">
+        <v>289</v>
+      </c>
+      <c r="B76" t="s" s="4">
         <v>290</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="C76" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>291</v>
       </c>
-      <c r="C76" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D76" t="s" s="4">
-        <v>292</v>
-      </c>
       <c r="E76" t="s" s="4">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F76" s="4">
         <v>2</v>
@@ -6496,26 +6419,25 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-      <c r="R76" s="6"/>
-      <c r="S76" t="s" s="4">
-        <v>46</v>
+      <c r="R76" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" t="s" s="3">
+        <v>292</v>
+      </c>
+      <c r="B77" t="s" s="4">
         <v>293</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="C77" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>294</v>
       </c>
-      <c r="C77" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D77" t="s" s="4">
-        <v>295</v>
-      </c>
       <c r="E77" t="s" s="4">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F77" s="4">
         <v>3</v>
@@ -6539,26 +6461,25 @@
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
-      <c r="R77" s="6"/>
-      <c r="S77" t="s" s="4">
-        <v>46</v>
+      <c r="R77" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" t="s" s="3">
+        <v>295</v>
+      </c>
+      <c r="B78" t="s" s="4">
         <v>296</v>
       </c>
-      <c r="B78" t="s" s="4">
+      <c r="C78" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="C78" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D78" t="s" s="4">
-        <v>298</v>
-      </c>
       <c r="E78" t="s" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F78" s="4">
         <v>3</v>
@@ -6582,26 +6503,25 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
-      <c r="R78" s="6"/>
-      <c r="S78" t="s" s="4">
-        <v>46</v>
+      <c r="R78" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" t="s" s="3">
+        <v>298</v>
+      </c>
+      <c r="B79" t="s" s="4">
         <v>299</v>
       </c>
-      <c r="B79" t="s" s="4">
+      <c r="C79" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>300</v>
       </c>
-      <c r="C79" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D79" t="s" s="4">
-        <v>301</v>
-      </c>
       <c r="E79" t="s" s="4">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F79" s="4">
         <v>3</v>
@@ -6625,26 +6545,25 @@
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-      <c r="R79" s="6"/>
-      <c r="S79" t="s" s="4">
-        <v>46</v>
+      <c r="R79" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" t="s" s="3">
+        <v>301</v>
+      </c>
+      <c r="B80" t="s" s="4">
         <v>302</v>
       </c>
-      <c r="B80" t="s" s="4">
+      <c r="C80" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>303</v>
       </c>
-      <c r="C80" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D80" t="s" s="4">
-        <v>304</v>
-      </c>
       <c r="E80" t="s" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F80" s="4">
         <v>3</v>
@@ -6668,29 +6587,28 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
-      <c r="R80" s="6"/>
-      <c r="S80" t="s" s="4">
-        <v>46</v>
+      <c r="R80" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="B81" t="s" s="4">
         <v>305</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="C81" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>306</v>
       </c>
-      <c r="C81" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D81" t="s" s="4">
+      <c r="E81" t="s" s="4">
         <v>307</v>
       </c>
-      <c r="E81" t="s" s="4">
-        <v>308</v>
-      </c>
       <c r="F81" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G81" s="4">
         <v>100</v>
@@ -6711,29 +6629,28 @@
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-      <c r="R81" s="6"/>
-      <c r="S81" t="s" s="4">
-        <v>46</v>
+      <c r="R81" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" t="s" s="3">
+        <v>308</v>
+      </c>
+      <c r="B82" t="s" s="4">
         <v>309</v>
       </c>
-      <c r="B82" t="s" s="4">
+      <c r="C82" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>310</v>
       </c>
-      <c r="C82" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D82" t="s" s="4">
+      <c r="E82" t="s" s="4">
         <v>311</v>
       </c>
-      <c r="E82" t="s" s="4">
-        <v>312</v>
-      </c>
       <c r="F82" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G82" s="4">
         <v>100</v>
@@ -6754,29 +6671,28 @@
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
-      <c r="R82" s="6"/>
-      <c r="S82" t="s" s="4">
-        <v>46</v>
+      <c r="R82" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" t="s" s="3">
+        <v>312</v>
+      </c>
+      <c r="B83" t="s" s="4">
         <v>313</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="C83" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>314</v>
       </c>
-      <c r="C83" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D83" t="s" s="4">
+      <c r="E83" t="s" s="4">
         <v>315</v>
       </c>
-      <c r="E83" t="s" s="4">
-        <v>316</v>
-      </c>
       <c r="F83" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G83" s="4">
         <v>100</v>
@@ -6797,29 +6713,28 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="6"/>
-      <c r="S83" t="s" s="4">
-        <v>46</v>
+      <c r="R83" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" t="s" s="3">
+        <v>316</v>
+      </c>
+      <c r="B84" t="s" s="4">
         <v>317</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="C84" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>318</v>
       </c>
-      <c r="C84" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D84" t="s" s="4">
+      <c r="E84" t="s" s="4">
         <v>319</v>
       </c>
-      <c r="E84" t="s" s="4">
-        <v>320</v>
-      </c>
       <c r="F84" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G84" s="4">
         <v>100</v>
@@ -6840,29 +6755,28 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="6"/>
-      <c r="S84" t="s" s="4">
-        <v>46</v>
+      <c r="R84" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" t="s" s="3">
+        <v>320</v>
+      </c>
+      <c r="B85" t="s" s="4">
         <v>321</v>
       </c>
-      <c r="B85" t="s" s="4">
+      <c r="C85" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s" s="4">
         <v>322</v>
       </c>
-      <c r="C85" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D85" t="s" s="4">
-        <v>323</v>
-      </c>
       <c r="E85" t="s" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F85" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G85" s="4">
         <v>100</v>
@@ -6883,29 +6797,28 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-      <c r="R85" s="6"/>
-      <c r="S85" t="s" s="4">
-        <v>46</v>
+      <c r="R85" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" t="s" s="3">
+        <v>323</v>
+      </c>
+      <c r="B86" t="s" s="4">
         <v>324</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="C86" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>325</v>
       </c>
-      <c r="C86" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D86" t="s" s="4">
-        <v>326</v>
-      </c>
       <c r="E86" t="s" s="4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F86" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G86" s="4">
         <v>100</v>
@@ -6926,29 +6839,28 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-      <c r="R86" s="6"/>
-      <c r="S86" t="s" s="4">
-        <v>46</v>
+      <c r="R86" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" t="s" s="3">
+        <v>326</v>
+      </c>
+      <c r="B87" t="s" s="4">
         <v>327</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="C87" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>328</v>
       </c>
-      <c r="C87" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D87" t="s" s="4">
-        <v>329</v>
-      </c>
       <c r="E87" t="s" s="4">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F87" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G87" s="4">
         <v>100</v>
@@ -6969,29 +6881,28 @@
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
-      <c r="R87" s="6"/>
-      <c r="S87" t="s" s="4">
-        <v>46</v>
+      <c r="R87" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" t="s" s="3">
+        <v>329</v>
+      </c>
+      <c r="B88" t="s" s="4">
         <v>330</v>
       </c>
-      <c r="B88" t="s" s="4">
+      <c r="C88" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>331</v>
       </c>
-      <c r="C88" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D88" t="s" s="4">
-        <v>332</v>
-      </c>
       <c r="E88" t="s" s="4">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F88" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G88" s="4">
         <v>100</v>
@@ -7012,26 +6923,25 @@
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
-      <c r="R88" s="6"/>
-      <c r="S88" t="s" s="4">
-        <v>46</v>
+      <c r="R88" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" t="s" s="3">
+        <v>332</v>
+      </c>
+      <c r="B89" t="s" s="4">
         <v>333</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="C89" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>334</v>
       </c>
-      <c r="C89" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D89" t="s" s="4">
-        <v>335</v>
-      </c>
       <c r="E89" t="s" s="4">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F89" s="4">
         <v>3</v>
@@ -7055,29 +6965,28 @@
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
-      <c r="R89" s="6"/>
-      <c r="S89" t="s" s="4">
-        <v>46</v>
+      <c r="R89" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" t="s" s="3">
+        <v>335</v>
+      </c>
+      <c r="B90" t="s" s="4">
         <v>336</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="C90" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>337</v>
       </c>
-      <c r="C90" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D90" t="s" s="4">
-        <v>338</v>
-      </c>
       <c r="E90" t="s" s="4">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F90" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G90" s="4">
         <v>100</v>
@@ -7098,29 +7007,28 @@
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
-      <c r="R90" s="6"/>
-      <c r="S90" t="s" s="4">
-        <v>46</v>
+      <c r="R90" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" t="s" s="3">
+        <v>338</v>
+      </c>
+      <c r="B91" t="s" s="4">
         <v>339</v>
       </c>
-      <c r="B91" t="s" s="4">
+      <c r="C91" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>340</v>
       </c>
-      <c r="C91" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="D91" t="s" s="4">
-        <v>341</v>
-      </c>
       <c r="E91" t="s" s="4">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F91" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G91" s="4">
         <v>100</v>
@@ -7141,26 +7049,25 @@
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
-      <c r="R91" s="6"/>
-      <c r="S91" t="s" s="4">
-        <v>46</v>
+      <c r="R91" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" t="s" s="3">
+        <v>341</v>
+      </c>
+      <c r="B92" t="s" s="4">
         <v>342</v>
       </c>
-      <c r="B92" t="s" s="4">
+      <c r="C92" t="s" s="4">
         <v>343</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="D92" t="s" s="4">
         <v>344</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="E92" t="s" s="4">
         <v>345</v>
-      </c>
-      <c r="E92" t="s" s="4">
-        <v>346</v>
       </c>
       <c r="F92" s="4">
         <v>2</v>
@@ -7184,26 +7091,25 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
-      <c r="R92" s="6"/>
-      <c r="S92" t="s" s="4">
-        <v>46</v>
+      <c r="R92" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" t="s" s="3">
+        <v>346</v>
+      </c>
+      <c r="B93" t="s" s="4">
         <v>347</v>
       </c>
-      <c r="B93" t="s" s="4">
+      <c r="C93" t="s" s="4">
+        <v>343</v>
+      </c>
+      <c r="D93" t="s" s="4">
+        <v>345</v>
+      </c>
+      <c r="E93" t="s" s="4">
         <v>348</v>
-      </c>
-      <c r="C93" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="D93" t="s" s="4">
-        <v>346</v>
-      </c>
-      <c r="E93" t="s" s="4">
-        <v>349</v>
       </c>
       <c r="F93" s="4">
         <v>2</v>
@@ -7227,29 +7133,28 @@
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
-      <c r="R93" s="6"/>
-      <c r="S93" t="s" s="4">
-        <v>46</v>
+      <c r="R93" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" t="s" s="3">
+        <v>349</v>
+      </c>
+      <c r="B94" t="s" s="4">
         <v>350</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="C94" t="s" s="4">
+        <v>343</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>351</v>
       </c>
-      <c r="C94" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="D94" t="s" s="4">
-        <v>352</v>
-      </c>
       <c r="E94" t="s" s="4">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F94" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G94" s="4">
         <v>100</v>
@@ -7270,29 +7175,28 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-      <c r="R94" s="6"/>
-      <c r="S94" t="s" s="4">
-        <v>46</v>
+      <c r="R94" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" t="s" s="3">
+        <v>352</v>
+      </c>
+      <c r="B95" t="s" s="4">
         <v>353</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="C95" t="s" s="4">
+        <v>343</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>354</v>
       </c>
-      <c r="C95" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="D95" t="s" s="4">
-        <v>355</v>
-      </c>
       <c r="E95" t="s" s="4">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F95" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G95" s="4">
         <v>100</v>
@@ -7313,26 +7217,25 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
-      <c r="R95" s="6"/>
-      <c r="S95" t="s" s="4">
-        <v>46</v>
+      <c r="R95" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" t="s" s="3">
+        <v>355</v>
+      </c>
+      <c r="B96" t="s" s="4">
         <v>356</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="C96" t="s" s="4">
+        <v>343</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>357</v>
       </c>
-      <c r="C96" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="D96" t="s" s="4">
-        <v>358</v>
-      </c>
       <c r="E96" t="s" s="4">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F96" s="4">
         <v>4</v>
@@ -7356,26 +7259,25 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
-      <c r="R96" s="6"/>
-      <c r="S96" t="s" s="4">
-        <v>46</v>
+      <c r="R96" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="97" ht="20" customHeight="1">
       <c r="A97" t="s" s="3">
+        <v>358</v>
+      </c>
+      <c r="B97" t="s" s="4">
         <v>359</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="C97" t="s" s="4">
+        <v>343</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>360</v>
       </c>
-      <c r="C97" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="D97" t="s" s="4">
-        <v>361</v>
-      </c>
       <c r="E97" t="s" s="4">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F97" s="4">
         <v>3</v>
@@ -7399,26 +7301,25 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
-      <c r="R97" s="6"/>
-      <c r="S97" t="s" s="4">
-        <v>46</v>
+      <c r="R97" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="20" customHeight="1">
       <c r="A98" t="s" s="3">
+        <v>361</v>
+      </c>
+      <c r="B98" t="s" s="4">
         <v>362</v>
       </c>
-      <c r="B98" t="s" s="4">
+      <c r="C98" t="s" s="4">
         <v>363</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="D98" t="s" s="4">
         <v>364</v>
       </c>
-      <c r="D98" t="s" s="4">
-        <v>365</v>
-      </c>
       <c r="E98" t="s" s="4">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F98" s="4">
         <v>2</v>
@@ -7442,29 +7343,28 @@
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
-      <c r="R98" s="6"/>
-      <c r="S98" t="s" s="4">
-        <v>46</v>
+      <c r="R98" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="20" customHeight="1">
       <c r="A99" t="s" s="3">
+        <v>365</v>
+      </c>
+      <c r="B99" t="s" s="4">
         <v>366</v>
       </c>
-      <c r="B99" t="s" s="4">
+      <c r="C99" t="s" s="4">
+        <v>363</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>367</v>
       </c>
-      <c r="C99" t="s" s="4">
-        <v>364</v>
-      </c>
-      <c r="D99" t="s" s="4">
-        <v>368</v>
-      </c>
       <c r="E99" t="s" s="4">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F99" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G99" s="4">
         <v>100</v>
@@ -7485,26 +7385,25 @@
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
-      <c r="R99" s="6"/>
-      <c r="S99" t="s" s="4">
-        <v>46</v>
+      <c r="R99" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="20" customHeight="1">
       <c r="A100" t="s" s="3">
+        <v>368</v>
+      </c>
+      <c r="B100" t="s" s="4">
         <v>369</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="C100" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C100" t="s" s="4">
+      <c r="D100" t="s" s="4">
         <v>371</v>
       </c>
-      <c r="D100" t="s" s="4">
-        <v>372</v>
-      </c>
       <c r="E100" t="s" s="4">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F100" s="4">
         <v>3</v>
@@ -7528,26 +7427,25 @@
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
-      <c r="R100" s="6"/>
-      <c r="S100" t="s" s="4">
-        <v>46</v>
+      <c r="R100" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="101" ht="20" customHeight="1">
       <c r="A101" t="s" s="3">
+        <v>372</v>
+      </c>
+      <c r="B101" t="s" s="4">
         <v>373</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="C101" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>374</v>
       </c>
-      <c r="C101" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D101" t="s" s="4">
-        <v>375</v>
-      </c>
       <c r="E101" t="s" s="4">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F101" s="4">
         <v>4</v>
@@ -7571,26 +7469,25 @@
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
-      <c r="R101" s="6"/>
-      <c r="S101" t="s" s="4">
-        <v>46</v>
+      <c r="R101" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="102" ht="20" customHeight="1">
       <c r="A102" t="s" s="3">
+        <v>375</v>
+      </c>
+      <c r="B102" t="s" s="4">
         <v>376</v>
       </c>
-      <c r="B102" t="s" s="4">
+      <c r="C102" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>377</v>
       </c>
-      <c r="C102" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D102" t="s" s="4">
-        <v>378</v>
-      </c>
       <c r="E102" t="s" s="4">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F102" s="4">
         <v>4</v>
@@ -7614,26 +7511,25 @@
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
-      <c r="R102" s="6"/>
-      <c r="S102" t="s" s="4">
-        <v>46</v>
+      <c r="R102" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="103" ht="20" customHeight="1">
       <c r="A103" t="s" s="3">
+        <v>378</v>
+      </c>
+      <c r="B103" t="s" s="4">
         <v>379</v>
       </c>
-      <c r="B103" t="s" s="4">
+      <c r="C103" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>380</v>
       </c>
-      <c r="C103" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D103" t="s" s="4">
-        <v>381</v>
-      </c>
       <c r="E103" t="s" s="4">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F103" s="4">
         <v>2</v>
@@ -7657,26 +7553,25 @@
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
-      <c r="R103" s="6"/>
-      <c r="S103" t="s" s="4">
-        <v>46</v>
+      <c r="R103" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="104" ht="20" customHeight="1">
       <c r="A104" t="s" s="3">
+        <v>381</v>
+      </c>
+      <c r="B104" t="s" s="4">
         <v>382</v>
       </c>
-      <c r="B104" t="s" s="4">
+      <c r="C104" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>383</v>
       </c>
-      <c r="C104" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D104" t="s" s="4">
-        <v>384</v>
-      </c>
       <c r="E104" t="s" s="4">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F104" s="4">
         <v>3</v>
@@ -7700,26 +7595,25 @@
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
-      <c r="R104" s="6"/>
-      <c r="S104" t="s" s="4">
-        <v>46</v>
+      <c r="R104" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="105" ht="20" customHeight="1">
       <c r="A105" t="s" s="3">
+        <v>384</v>
+      </c>
+      <c r="B105" t="s" s="4">
         <v>385</v>
       </c>
-      <c r="B105" t="s" s="4">
+      <c r="C105" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>386</v>
       </c>
-      <c r="C105" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D105" t="s" s="4">
-        <v>387</v>
-      </c>
       <c r="E105" t="s" s="4">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F105" s="4">
         <v>3</v>
@@ -7743,26 +7637,25 @@
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
-      <c r="R105" s="6"/>
-      <c r="S105" t="s" s="4">
-        <v>46</v>
+      <c r="R105" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1">
       <c r="A106" t="s" s="3">
+        <v>387</v>
+      </c>
+      <c r="B106" t="s" s="4">
         <v>388</v>
       </c>
-      <c r="B106" t="s" s="4">
+      <c r="C106" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>389</v>
       </c>
-      <c r="C106" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D106" t="s" s="4">
+      <c r="E106" t="s" s="4">
         <v>390</v>
-      </c>
-      <c r="E106" t="s" s="4">
-        <v>391</v>
       </c>
       <c r="F106" s="4">
         <v>4</v>
@@ -7786,26 +7679,25 @@
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
-      <c r="R106" s="6"/>
-      <c r="S106" t="s" s="4">
-        <v>46</v>
+      <c r="R106" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="107" ht="20" customHeight="1">
       <c r="A107" t="s" s="3">
+        <v>391</v>
+      </c>
+      <c r="B107" t="s" s="4">
         <v>392</v>
       </c>
-      <c r="B107" t="s" s="4">
+      <c r="C107" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>393</v>
       </c>
-      <c r="C107" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D107" t="s" s="4">
+      <c r="E107" t="s" s="4">
         <v>394</v>
-      </c>
-      <c r="E107" t="s" s="4">
-        <v>395</v>
       </c>
       <c r="F107" s="4">
         <v>4</v>
@@ -7829,26 +7721,25 @@
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
-      <c r="R107" s="6"/>
-      <c r="S107" t="s" s="4">
-        <v>46</v>
+      <c r="R107" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1">
       <c r="A108" t="s" s="3">
+        <v>395</v>
+      </c>
+      <c r="B108" t="s" s="4">
         <v>396</v>
       </c>
-      <c r="B108" t="s" s="4">
+      <c r="C108" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>397</v>
       </c>
-      <c r="C108" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D108" t="s" s="4">
-        <v>398</v>
-      </c>
       <c r="E108" t="s" s="4">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F108" s="4">
         <v>2</v>
@@ -7872,26 +7763,25 @@
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
-      <c r="R108" s="6"/>
-      <c r="S108" t="s" s="4">
-        <v>46</v>
+      <c r="R108" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="109" ht="20" customHeight="1">
       <c r="A109" t="s" s="3">
+        <v>398</v>
+      </c>
+      <c r="B109" t="s" s="4">
         <v>399</v>
       </c>
-      <c r="B109" t="s" s="4">
+      <c r="C109" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="C109" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D109" t="s" s="4">
-        <v>401</v>
-      </c>
       <c r="E109" t="s" s="4">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F109" s="4">
         <v>2</v>
@@ -7915,29 +7805,28 @@
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
-      <c r="R109" s="6"/>
-      <c r="S109" t="s" s="4">
-        <v>46</v>
+      <c r="R109" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="110" ht="20" customHeight="1">
       <c r="A110" t="s" s="3">
+        <v>401</v>
+      </c>
+      <c r="B110" t="s" s="4">
         <v>402</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="C110" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>403</v>
       </c>
-      <c r="C110" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D110" t="s" s="4">
-        <v>404</v>
-      </c>
       <c r="E110" t="s" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F110" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G110" s="4">
         <v>100</v>
@@ -7958,29 +7847,28 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
-      <c r="R110" s="6"/>
-      <c r="S110" t="s" s="4">
-        <v>46</v>
+      <c r="R110" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="111" ht="20" customHeight="1">
       <c r="A111" t="s" s="3">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
       <c r="C111" t="s" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D111" t="s" s="4">
+        <v>405</v>
+      </c>
+      <c r="E111" t="s" s="4">
         <v>406</v>
       </c>
-      <c r="E111" t="s" s="4">
-        <v>407</v>
-      </c>
       <c r="F111" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G111" s="4">
         <v>100</v>
@@ -8001,26 +7889,25 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
-      <c r="R111" s="6"/>
-      <c r="S111" t="s" s="4">
-        <v>46</v>
+      <c r="R111" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="112" ht="20" customHeight="1">
       <c r="A112" t="s" s="3">
+        <v>407</v>
+      </c>
+      <c r="B112" t="s" s="4">
         <v>408</v>
       </c>
-      <c r="B112" t="s" s="4">
+      <c r="C112" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>409</v>
       </c>
-      <c r="C112" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D112" t="s" s="4">
-        <v>410</v>
-      </c>
       <c r="E112" t="s" s="4">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F112" s="4">
         <v>2</v>
@@ -8044,26 +7931,25 @@
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
-      <c r="R112" s="6"/>
-      <c r="S112" t="s" s="4">
-        <v>46</v>
+      <c r="R112" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="113" ht="20" customHeight="1">
       <c r="A113" t="s" s="3">
+        <v>410</v>
+      </c>
+      <c r="B113" t="s" s="4">
         <v>411</v>
       </c>
-      <c r="B113" t="s" s="4">
+      <c r="C113" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>412</v>
       </c>
-      <c r="C113" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D113" t="s" s="4">
-        <v>413</v>
-      </c>
       <c r="E113" t="s" s="4">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F113" s="4">
         <v>2</v>
@@ -8087,26 +7973,25 @@
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
-      <c r="R113" s="6"/>
-      <c r="S113" t="s" s="4">
-        <v>46</v>
+      <c r="R113" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="114" ht="20" customHeight="1">
       <c r="A114" t="s" s="3">
+        <v>413</v>
+      </c>
+      <c r="B114" t="s" s="4">
         <v>414</v>
       </c>
-      <c r="B114" t="s" s="4">
+      <c r="C114" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>415</v>
       </c>
-      <c r="C114" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D114" t="s" s="4">
-        <v>416</v>
-      </c>
       <c r="E114" t="s" s="4">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F114" s="4">
         <v>2</v>
@@ -8130,26 +8015,25 @@
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
-      <c r="R114" s="6"/>
-      <c r="S114" t="s" s="4">
-        <v>46</v>
+      <c r="R114" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="115" ht="20" customHeight="1">
       <c r="A115" t="s" s="3">
+        <v>416</v>
+      </c>
+      <c r="B115" t="s" s="4">
         <v>417</v>
       </c>
-      <c r="B115" t="s" s="4">
+      <c r="C115" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>418</v>
       </c>
-      <c r="C115" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D115" t="s" s="4">
-        <v>419</v>
-      </c>
       <c r="E115" t="s" s="4">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F115" s="4">
         <v>2</v>
@@ -8173,29 +8057,28 @@
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
-      <c r="R115" s="6"/>
-      <c r="S115" t="s" s="4">
-        <v>46</v>
+      <c r="R115" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="116" ht="20" customHeight="1">
       <c r="A116" t="s" s="3">
+        <v>419</v>
+      </c>
+      <c r="B116" t="s" s="4">
         <v>420</v>
       </c>
-      <c r="B116" t="s" s="4">
+      <c r="C116" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>421</v>
       </c>
-      <c r="C116" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D116" t="s" s="4">
+      <c r="E116" t="s" s="4">
         <v>422</v>
       </c>
-      <c r="E116" t="s" s="4">
-        <v>423</v>
-      </c>
       <c r="F116" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G116" s="4">
         <v>100</v>
@@ -8216,29 +8099,28 @@
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
-      <c r="R116" s="6"/>
-      <c r="S116" t="s" s="4">
-        <v>46</v>
+      <c r="R116" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="117" ht="20" customHeight="1">
       <c r="A117" t="s" s="3">
+        <v>423</v>
+      </c>
+      <c r="B117" t="s" s="4">
         <v>424</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="C117" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>425</v>
       </c>
-      <c r="C117" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D117" t="s" s="4">
-        <v>426</v>
-      </c>
       <c r="E117" t="s" s="4">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F117" t="s" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G117" s="4">
         <v>100</v>
@@ -8259,26 +8141,25 @@
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
-      <c r="R117" s="6"/>
-      <c r="S117" t="s" s="4">
-        <v>46</v>
+      <c r="R117" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="118" ht="20" customHeight="1">
       <c r="A118" t="s" s="3">
+        <v>426</v>
+      </c>
+      <c r="B118" t="s" s="4">
         <v>427</v>
       </c>
-      <c r="B118" t="s" s="4">
+      <c r="C118" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>428</v>
       </c>
-      <c r="C118" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D118" t="s" s="4">
-        <v>429</v>
-      </c>
       <c r="E118" t="s" s="4">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F118" s="4">
         <v>2</v>
@@ -8302,26 +8183,25 @@
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
-      <c r="R118" s="6"/>
-      <c r="S118" t="s" s="4">
-        <v>46</v>
+      <c r="R118" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="119" ht="20" customHeight="1">
       <c r="A119" t="s" s="3">
+        <v>429</v>
+      </c>
+      <c r="B119" t="s" s="4">
         <v>430</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="C119" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>431</v>
       </c>
-      <c r="C119" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D119" t="s" s="4">
-        <v>432</v>
-      </c>
       <c r="E119" t="s" s="4">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F119" s="4">
         <v>3</v>
@@ -8345,26 +8225,25 @@
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
-      <c r="R119" s="6"/>
-      <c r="S119" t="s" s="4">
-        <v>46</v>
+      <c r="R119" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="120" ht="20" customHeight="1">
       <c r="A120" t="s" s="3">
+        <v>432</v>
+      </c>
+      <c r="B120" t="s" s="4">
         <v>433</v>
       </c>
-      <c r="B120" t="s" s="4">
+      <c r="C120" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>434</v>
       </c>
-      <c r="C120" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D120" t="s" s="4">
+      <c r="E120" t="s" s="4">
         <v>435</v>
-      </c>
-      <c r="E120" t="s" s="4">
-        <v>436</v>
       </c>
       <c r="F120" s="4">
         <v>4</v>
@@ -8388,26 +8267,25 @@
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
-      <c r="R120" s="6"/>
-      <c r="S120" t="s" s="4">
-        <v>46</v>
+      <c r="R120" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="121" ht="20" customHeight="1">
       <c r="A121" t="s" s="3">
+        <v>436</v>
+      </c>
+      <c r="B121" t="s" s="4">
         <v>437</v>
       </c>
-      <c r="B121" t="s" s="4">
+      <c r="C121" t="s" s="4">
         <v>438</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="D121" t="s" s="4">
         <v>439</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="E121" t="s" s="4">
         <v>440</v>
-      </c>
-      <c r="E121" t="s" s="4">
-        <v>441</v>
       </c>
       <c r="F121" s="4">
         <v>3</v>
@@ -8431,26 +8309,25 @@
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
-      <c r="R121" s="6"/>
-      <c r="S121" t="s" s="4">
-        <v>46</v>
+      <c r="R121" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="122" ht="20" customHeight="1">
       <c r="A122" t="s" s="3">
+        <v>441</v>
+      </c>
+      <c r="B122" t="s" s="4">
         <v>442</v>
       </c>
-      <c r="B122" t="s" s="4">
+      <c r="C122" t="s" s="4">
+        <v>438</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>443</v>
       </c>
-      <c r="C122" t="s" s="4">
-        <v>439</v>
-      </c>
-      <c r="D122" t="s" s="4">
+      <c r="E122" t="s" s="4">
         <v>444</v>
-      </c>
-      <c r="E122" t="s" s="4">
-        <v>445</v>
       </c>
       <c r="F122" s="4">
         <v>2</v>
@@ -8474,26 +8351,25 @@
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
-      <c r="R122" s="6"/>
-      <c r="S122" t="s" s="4">
-        <v>46</v>
+      <c r="R122" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="123" ht="20" customHeight="1">
       <c r="A123" t="s" s="3">
+        <v>445</v>
+      </c>
+      <c r="B123" t="s" s="4">
         <v>446</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="C123" t="s" s="4">
+        <v>438</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>447</v>
       </c>
-      <c r="C123" t="s" s="4">
-        <v>439</v>
-      </c>
-      <c r="D123" t="s" s="4">
-        <v>448</v>
-      </c>
       <c r="E123" t="s" s="4">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F123" s="4">
         <v>2</v>
@@ -8517,26 +8393,25 @@
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
-      <c r="R123" s="6"/>
-      <c r="S123" t="s" s="4">
-        <v>46</v>
+      <c r="R123" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="124" ht="20" customHeight="1">
       <c r="A124" t="s" s="3">
+        <v>448</v>
+      </c>
+      <c r="B124" t="s" s="4">
         <v>449</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="C124" t="s" s="4">
+        <v>438</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="C124" t="s" s="4">
-        <v>439</v>
-      </c>
-      <c r="D124" t="s" s="4">
-        <v>451</v>
-      </c>
       <c r="E124" t="s" s="4">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F124" s="4">
         <v>3</v>
@@ -8560,26 +8435,25 @@
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
-      <c r="R124" s="6"/>
-      <c r="S124" t="s" s="4">
-        <v>46</v>
+      <c r="R124" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="125" ht="20" customHeight="1">
       <c r="A125" t="s" s="3">
+        <v>451</v>
+      </c>
+      <c r="B125" t="s" s="4">
         <v>452</v>
       </c>
-      <c r="B125" t="s" s="4">
+      <c r="C125" t="s" s="4">
+        <v>438</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>453</v>
       </c>
-      <c r="C125" t="s" s="4">
-        <v>439</v>
-      </c>
-      <c r="D125" t="s" s="4">
-        <v>454</v>
-      </c>
       <c r="E125" t="s" s="4">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F125" s="4">
         <v>2</v>
@@ -8603,26 +8477,25 @@
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
-      <c r="R125" s="6"/>
-      <c r="S125" t="s" s="4">
-        <v>46</v>
+      <c r="R125" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="126" ht="20" customHeight="1">
       <c r="A126" t="s" s="3">
+        <v>454</v>
+      </c>
+      <c r="B126" t="s" s="4">
         <v>455</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="C126" t="s" s="4">
+        <v>438</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>456</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>439</v>
-      </c>
-      <c r="D126" t="s" s="4">
-        <v>457</v>
-      </c>
       <c r="E126" t="s" s="4">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F126" s="4">
         <v>3</v>
@@ -8646,26 +8519,25 @@
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
-      <c r="R126" s="6"/>
-      <c r="S126" t="s" s="4">
-        <v>46</v>
+      <c r="R126" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="127" ht="20" customHeight="1">
       <c r="A127" t="s" s="3">
+        <v>457</v>
+      </c>
+      <c r="B127" t="s" s="4">
         <v>458</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="C127" t="s" s="4">
+        <v>438</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>459</v>
       </c>
-      <c r="C127" t="s" s="4">
-        <v>439</v>
-      </c>
-      <c r="D127" t="s" s="4">
-        <v>460</v>
-      </c>
       <c r="E127" t="s" s="4">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F127" s="4">
         <v>2</v>
@@ -8689,26 +8561,25 @@
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
-      <c r="R127" s="6"/>
-      <c r="S127" t="s" s="4">
-        <v>46</v>
+      <c r="R127" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="128" ht="20" customHeight="1">
       <c r="A128" t="s" s="3">
+        <v>460</v>
+      </c>
+      <c r="B128" t="s" s="4">
         <v>461</v>
       </c>
-      <c r="B128" t="s" s="4">
+      <c r="C128" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>462</v>
       </c>
-      <c r="C128" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D128" t="s" s="4">
-        <v>463</v>
-      </c>
       <c r="E128" t="s" s="4">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F128" s="4">
         <v>2</v>
@@ -8732,26 +8603,25 @@
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
-      <c r="R128" s="6"/>
-      <c r="S128" t="s" s="4">
-        <v>46</v>
+      <c r="R128" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="129" ht="20" customHeight="1">
       <c r="A129" t="s" s="3">
+        <v>463</v>
+      </c>
+      <c r="B129" t="s" s="4">
         <v>464</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="C129" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>465</v>
       </c>
-      <c r="C129" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D129" t="s" s="4">
-        <v>466</v>
-      </c>
       <c r="E129" t="s" s="4">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F129" s="4">
         <v>3</v>
@@ -8775,26 +8645,25 @@
       <c r="O129" s="5"/>
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
-      <c r="R129" s="6"/>
-      <c r="S129" t="s" s="4">
-        <v>46</v>
+      <c r="R129" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="130" ht="20" customHeight="1">
       <c r="A130" t="s" s="3">
+        <v>466</v>
+      </c>
+      <c r="B130" t="s" s="4">
         <v>467</v>
       </c>
-      <c r="B130" t="s" s="4">
+      <c r="C130" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>468</v>
       </c>
-      <c r="C130" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D130" t="s" s="4">
-        <v>469</v>
-      </c>
       <c r="E130" t="s" s="4">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F130" s="4">
         <v>3</v>
@@ -8818,26 +8687,25 @@
       <c r="O130" s="5"/>
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
-      <c r="R130" s="6"/>
-      <c r="S130" t="s" s="4">
-        <v>46</v>
+      <c r="R130" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="131" ht="20" customHeight="1">
       <c r="A131" t="s" s="3">
+        <v>469</v>
+      </c>
+      <c r="B131" t="s" s="4">
         <v>470</v>
       </c>
-      <c r="B131" t="s" s="4">
+      <c r="C131" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>471</v>
       </c>
-      <c r="C131" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D131" t="s" s="4">
+      <c r="E131" t="s" s="4">
         <v>472</v>
-      </c>
-      <c r="E131" t="s" s="4">
-        <v>473</v>
       </c>
       <c r="F131" s="4">
         <v>3</v>
@@ -8861,26 +8729,25 @@
       <c r="O131" s="5"/>
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
-      <c r="R131" s="6"/>
-      <c r="S131" t="s" s="4">
-        <v>46</v>
+      <c r="R131" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="132" ht="20" customHeight="1">
       <c r="A132" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="B132" t="s" s="4">
         <v>474</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="C132" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>475</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="E132" t="s" s="4">
         <v>476</v>
-      </c>
-      <c r="E132" t="s" s="4">
-        <v>477</v>
       </c>
       <c r="F132" s="4">
         <v>3</v>
@@ -8904,26 +8771,25 @@
       <c r="O132" s="5"/>
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
-      <c r="R132" s="6"/>
-      <c r="S132" t="s" s="4">
-        <v>46</v>
+      <c r="R132" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="133" ht="20" customHeight="1">
       <c r="A133" t="s" s="3">
+        <v>477</v>
+      </c>
+      <c r="B133" t="s" s="4">
         <v>478</v>
       </c>
-      <c r="B133" t="s" s="4">
+      <c r="C133" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>479</v>
       </c>
-      <c r="C133" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D133" t="s" s="4">
+      <c r="E133" t="s" s="4">
         <v>480</v>
-      </c>
-      <c r="E133" t="s" s="4">
-        <v>481</v>
       </c>
       <c r="F133" s="4">
         <v>4</v>
@@ -8947,26 +8813,25 @@
       <c r="O133" s="5"/>
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
-      <c r="R133" s="6"/>
-      <c r="S133" t="s" s="4">
-        <v>46</v>
+      <c r="R133" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="134" ht="20" customHeight="1">
       <c r="A134" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="B134" t="s" s="4">
         <v>482</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="C134" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>483</v>
       </c>
-      <c r="C134" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D134" t="s" s="4">
+      <c r="E134" t="s" s="4">
         <v>484</v>
-      </c>
-      <c r="E134" t="s" s="4">
-        <v>485</v>
       </c>
       <c r="F134" s="4">
         <v>5</v>
@@ -8990,26 +8855,25 @@
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
-      <c r="R134" s="6"/>
-      <c r="S134" t="s" s="4">
-        <v>46</v>
+      <c r="R134" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="135" ht="20" customHeight="1">
       <c r="A135" t="s" s="3">
+        <v>485</v>
+      </c>
+      <c r="B135" t="s" s="4">
         <v>486</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="C135" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>487</v>
       </c>
-      <c r="C135" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D135" t="s" s="4">
-        <v>488</v>
-      </c>
       <c r="E135" t="s" s="4">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F135" s="4">
         <v>4</v>
@@ -9033,26 +8897,25 @@
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
-      <c r="R135" s="6"/>
-      <c r="S135" t="s" s="4">
-        <v>46</v>
+      <c r="R135" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="136" ht="20" customHeight="1">
       <c r="A136" t="s" s="3">
+        <v>488</v>
+      </c>
+      <c r="B136" t="s" s="4">
         <v>489</v>
       </c>
-      <c r="B136" t="s" s="4">
+      <c r="C136" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>490</v>
       </c>
-      <c r="C136" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D136" t="s" s="4">
-        <v>491</v>
-      </c>
       <c r="E136" t="s" s="4">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F136" s="4">
         <v>5</v>
@@ -9076,26 +8939,25 @@
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
-      <c r="R136" s="6"/>
-      <c r="S136" t="s" s="4">
-        <v>46</v>
+      <c r="R136" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="137" ht="20" customHeight="1">
       <c r="A137" t="s" s="3">
+        <v>491</v>
+      </c>
+      <c r="B137" t="s" s="4">
         <v>492</v>
       </c>
-      <c r="B137" t="s" s="4">
+      <c r="C137" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>493</v>
       </c>
-      <c r="C137" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D137" t="s" s="4">
-        <v>494</v>
-      </c>
       <c r="E137" t="s" s="4">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F137" s="4">
         <v>3</v>
@@ -9119,26 +8981,25 @@
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
-      <c r="R137" s="6"/>
-      <c r="S137" t="s" s="4">
-        <v>46</v>
+      <c r="R137" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="138" ht="20" customHeight="1">
       <c r="A138" t="s" s="3">
+        <v>494</v>
+      </c>
+      <c r="B138" t="s" s="4">
         <v>495</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="C138" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>496</v>
       </c>
-      <c r="C138" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D138" t="s" s="4">
-        <v>497</v>
-      </c>
       <c r="E138" t="s" s="4">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F138" s="4">
         <v>4</v>
@@ -9162,20 +9023,19 @@
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
-      <c r="R138" s="6"/>
-      <c r="S138" t="s" s="4">
-        <v>46</v>
+      <c r="R138" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="139" ht="20" customHeight="1">
       <c r="A139" t="s" s="3">
+        <v>497</v>
+      </c>
+      <c r="B139" t="s" s="4">
         <v>498</v>
       </c>
-      <c r="B139" t="s" s="4">
-        <v>17</v>
-      </c>
       <c r="C139" t="s" s="4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D139" t="s" s="4">
         <v>499</v>
@@ -9206,27 +9066,24 @@
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
       <c r="R139" t="s" s="4">
-        <v>500</v>
-      </c>
-      <c r="S139" t="s" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" ht="20" customHeight="1">
       <c r="A140" t="s" s="3">
+        <v>500</v>
+      </c>
+      <c r="B140" t="s" s="4">
         <v>501</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="C140" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>502</v>
       </c>
-      <c r="C140" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D140" t="s" s="4">
-        <v>503</v>
-      </c>
       <c r="E140" t="s" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F140" s="4">
         <v>3</v>
@@ -9250,26 +9107,25 @@
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
-      <c r="R140" s="6"/>
-      <c r="S140" t="s" s="4">
-        <v>46</v>
+      <c r="R140" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="141" ht="20" customHeight="1">
       <c r="A141" t="s" s="3">
+        <v>503</v>
+      </c>
+      <c r="B141" t="s" s="4">
         <v>504</v>
       </c>
-      <c r="B141" t="s" s="4">
+      <c r="C141" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>505</v>
       </c>
-      <c r="C141" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D141" t="s" s="4">
-        <v>506</v>
-      </c>
       <c r="E141" t="s" s="4">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F141" s="4">
         <v>3</v>
@@ -9293,26 +9149,25 @@
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
-      <c r="R141" s="6"/>
-      <c r="S141" t="s" s="4">
-        <v>46</v>
+      <c r="R141" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="142" ht="20" customHeight="1">
       <c r="A142" t="s" s="3">
+        <v>506</v>
+      </c>
+      <c r="B142" t="s" s="4">
         <v>507</v>
       </c>
-      <c r="B142" t="s" s="4">
+      <c r="C142" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>508</v>
       </c>
-      <c r="C142" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D142" t="s" s="4">
-        <v>509</v>
-      </c>
       <c r="E142" t="s" s="4">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F142" s="4">
         <v>4</v>
@@ -9336,26 +9191,25 @@
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
-      <c r="R142" s="6"/>
-      <c r="S142" t="s" s="4">
-        <v>46</v>
+      <c r="R142" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="143" ht="20" customHeight="1">
       <c r="A143" t="s" s="3">
+        <v>509</v>
+      </c>
+      <c r="B143" t="s" s="4">
         <v>510</v>
       </c>
-      <c r="B143" t="s" s="4">
+      <c r="C143" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>511</v>
       </c>
-      <c r="C143" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D143" t="s" s="4">
-        <v>512</v>
-      </c>
       <c r="E143" t="s" s="4">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F143" s="4">
         <v>5</v>
@@ -9380,27 +9234,24 @@
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" t="s" s="4">
-        <v>513</v>
-      </c>
-      <c r="S143" t="s" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" ht="20" customHeight="1">
       <c r="A144" t="s" s="3">
+        <v>512</v>
+      </c>
+      <c r="B144" t="s" s="4">
+        <v>513</v>
+      </c>
+      <c r="C144" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>514</v>
       </c>
-      <c r="B144" t="s" s="4">
-        <v>515</v>
-      </c>
-      <c r="C144" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="D144" t="s" s="4">
-        <v>516</v>
-      </c>
       <c r="E144" t="s" s="4">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F144" s="4">
         <v>5</v>
@@ -9425,27 +9276,24 @@
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" t="s" s="4">
-        <v>517</v>
-      </c>
-      <c r="S144" t="s" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" ht="20" customHeight="1">
       <c r="A145" t="s" s="3">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B145" t="s" s="4">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C145" t="s" s="4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D145" t="s" s="4">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E145" t="s" s="4">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F145" s="4">
         <v>5</v>
@@ -9470,27 +9318,24 @@
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" t="s" s="4">
-        <v>521</v>
-      </c>
-      <c r="S145" t="s" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" ht="20" customHeight="1">
       <c r="A146" t="s" s="3">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B146" t="s" s="4">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C146" t="s" s="4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D146" t="s" s="4">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E146" t="s" s="4">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F146" s="4">
         <v>5</v>
@@ -9515,27 +9360,24 @@
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" t="s" s="4">
-        <v>525</v>
-      </c>
-      <c r="S146" t="s" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" ht="20" customHeight="1">
       <c r="A147" t="s" s="3">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B147" t="s" s="4">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C147" t="s" s="4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D147" t="s" s="4">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E147" t="s" s="4">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F147" s="4">
         <v>5</v>
@@ -9560,27 +9402,24 @@
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" t="s" s="4">
-        <v>529</v>
-      </c>
-      <c r="S147" t="s" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" ht="20" customHeight="1">
       <c r="A148" t="s" s="3">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B148" t="s" s="4">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C148" t="s" s="4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D148" t="s" s="4">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E148" t="s" s="4">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F148" s="4">
         <v>5</v>
@@ -9605,27 +9444,24 @@
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" t="s" s="4">
-        <v>533</v>
-      </c>
-      <c r="S148" t="s" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" ht="20" customHeight="1">
       <c r="A149" t="s" s="3">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B149" t="s" s="4">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C149" t="s" s="4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D149" t="s" s="4">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E149" t="s" s="4">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F149" s="4">
         <v>5</v>
@@ -9650,10 +9486,7 @@
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" t="s" s="4">
-        <v>537</v>
-      </c>
-      <c r="S149" t="s" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" ht="20" customHeight="1">
@@ -9674,9 +9507,8 @@
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
-      <c r="R150" s="6"/>
-      <c r="S150" t="s" s="4">
-        <v>46</v>
+      <c r="R150" t="s" s="4">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -9724,105 +9556,105 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="J1" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="K1" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="L1" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="M1" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="N1" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="O1" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="P1" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="Q1" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="K1" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N1" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="Q1" t="s" s="2">
-        <v>553</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s" s="15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s" s="15">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -9874,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="18">
         <v>100</v>
@@ -9911,13 +9743,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="18">
         <v>100</v>
       </c>
       <c r="J5" t="s" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="19">
         <v>50</v>
@@ -9952,19 +9784,19 @@
         <v>2</v>
       </c>
       <c r="H6" t="s" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="18">
         <v>30</v>
       </c>
       <c r="J6" t="s" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="19">
         <v>10</v>
       </c>
       <c r="L6" t="s" s="13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="20">
         <v>200</v>
@@ -9998,25 +9830,25 @@
         <v>1</v>
       </c>
       <c r="H7" t="s" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="18">
         <v>30</v>
       </c>
       <c r="J7" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="19">
         <v>80</v>
       </c>
       <c r="L7" t="s" s="13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" s="20">
         <v>50</v>
       </c>
       <c r="N7" t="s" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="21">
         <v>50</v>
@@ -10048,25 +9880,25 @@
         <v>2</v>
       </c>
       <c r="H8" t="s" s="25">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="18">
         <v>50</v>
       </c>
       <c r="J8" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="19">
         <v>70</v>
       </c>
       <c r="L8" t="s" s="13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8" s="20">
         <v>50</v>
       </c>
       <c r="N8" t="s" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O8" s="21">
         <v>50</v>
@@ -10836,7 +10668,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -10846,7 +10678,8 @@
     <col min="2" max="2" width="10.4922" style="26" customWidth="1"/>
     <col min="3" max="3" width="4.75" style="26" customWidth="1"/>
     <col min="4" max="4" width="4.75" style="26" customWidth="1"/>
-    <col min="5" max="256" width="12.25" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="26" customWidth="1"/>
+    <col min="6" max="256" width="12.25" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -10854,27 +10687,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>548</v>
       </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -10882,13 +10721,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C3" s="4">
         <v>120</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
+      </c>
+      <c r="E3" t="s" s="4">
+        <v>549</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -10896,13 +10738,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C4" s="4">
         <v>150</v>
       </c>
       <c r="D4" s="4">
         <v>10</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>550</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -10910,13 +10755,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C5" s="4">
         <v>160</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>551</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -10924,13 +10772,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C6" s="4">
         <v>165</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
+      </c>
+      <c r="E6" t="s" s="4">
+        <v>552</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -10938,13 +10789,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C7" s="4">
         <v>170</v>
       </c>
       <c r="D7" s="4">
         <v>10</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>553</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -10952,13 +10806,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C8" s="4">
         <v>50</v>
       </c>
       <c r="D8" s="4">
         <v>10</v>
+      </c>
+      <c r="E8" t="s" s="4">
+        <v>554</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -10966,13 +10823,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C9" s="4">
         <v>120</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
+      </c>
+      <c r="E9" t="s" s="4">
+        <v>555</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -10980,13 +10840,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C10" s="4">
         <v>140</v>
       </c>
       <c r="D10" s="4">
         <v>10</v>
+      </c>
+      <c r="E10" t="s" s="4">
+        <v>556</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -10994,13 +10857,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C11" s="4">
         <v>150</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
+      </c>
+      <c r="E11" t="s" s="4">
+        <v>550</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -11008,13 +10874,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C12" s="4">
         <v>50</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
+      </c>
+      <c r="E12" t="s" s="4">
+        <v>551</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -11022,13 +10891,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C13" s="4">
         <v>120</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
+      </c>
+      <c r="E13" t="s" s="4">
+        <v>552</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -11036,13 +10908,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C14" s="4">
         <v>150</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
+      </c>
+      <c r="E14" t="s" s="4">
+        <v>553</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -11050,13 +10925,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C15" s="4">
         <v>180</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
+      </c>
+      <c r="E15" t="s" s="4">
+        <v>554</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -11064,13 +10942,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C16" s="4">
         <v>200</v>
       </c>
       <c r="D16" s="4">
         <v>10</v>
+      </c>
+      <c r="E16" t="s" s="4">
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/docs/enemy.xlsx
+++ b/docs/enemy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>fly</t>
+  </si>
+  <si>
+    <t>pit</t>
   </si>
   <si>
     <t>move</t>
@@ -3156,7 +3159,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R150"/>
+  <dimension ref="A1:S150"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3164,7 +3167,7 @@
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.58594" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.57031" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.75" style="1" customWidth="1"/>
@@ -3173,14 +3176,15 @@
     <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.36719" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.40625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="36.6328" style="1" customWidth="1"/>
-    <col min="19" max="256" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.36719" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.40625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="36.6328" style="1" customWidth="1"/>
+    <col min="20" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -3238,10 +3242,13 @@
       <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -3259,22 +3266,22 @@
         <v>8</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="4">
         <v>8</v>
       </c>
       <c r="L2" t="s" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s" s="4">
         <v>8</v>
@@ -3283,33 +3290,36 @@
         <v>8</v>
       </c>
       <c r="O2" t="s" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -3330,30 +3340,31 @@
         <v>10</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" t="s" s="4">
-        <v>23</v>
+      <c r="R3" s="5"/>
+      <c r="S3" t="s" s="4">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -3371,33 +3382,34 @@
         <v>1</v>
       </c>
       <c r="K4" s="6"/>
-      <c r="L4" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="M4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" t="s" s="4">
+        <v>29</v>
+      </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" t="s" s="4">
-        <v>29</v>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
+      <c r="S4" t="s" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -3418,30 +3430,31 @@
         <v>10</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="6"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" t="s" s="4">
-        <v>33</v>
+      <c r="R5" s="5"/>
+      <c r="S5" t="s" s="4">
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -3462,34 +3475,35 @@
         <v>10</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="O6" s="5"/>
       <c r="P6" s="6"/>
-      <c r="Q6" t="s" s="4">
-        <v>39</v>
-      </c>
+      <c r="Q6" s="6"/>
       <c r="R6" t="s" s="4">
         <v>40</v>
       </c>
+      <c r="S6" t="s" s="4">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -3508,30 +3522,31 @@
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" t="s" s="4">
-        <v>45</v>
+      <c r="R7" s="5"/>
+      <c r="S7" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -3550,30 +3565,31 @@
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" t="s" s="4">
-        <v>45</v>
+      <c r="R8" s="5"/>
+      <c r="S8" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -3591,33 +3607,34 @@
         <v>1</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" t="s" s="4">
-        <v>54</v>
-      </c>
-      <c r="M9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" t="s" s="4">
+        <v>55</v>
+      </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" t="s" s="4">
-        <v>45</v>
+      <c r="R9" s="5"/>
+      <c r="S9" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -3636,30 +3653,31 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" t="s" s="4">
-        <v>45</v>
+      <c r="R10" s="5"/>
+      <c r="S10" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -3678,30 +3696,31 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" t="s" s="4">
-        <v>45</v>
+      <c r="R11" s="5"/>
+      <c r="S11" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -3720,30 +3739,31 @@
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" t="s" s="4">
-        <v>45</v>
+      <c r="R12" s="5"/>
+      <c r="S12" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -3762,34 +3782,35 @@
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="N13" t="s" s="4">
-        <v>71</v>
-      </c>
-      <c r="O13" s="5">
+      <c r="M13" s="6"/>
+      <c r="N13" s="5"/>
+      <c r="O13" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="P13" s="5">
         <v>20</v>
       </c>
-      <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" t="s" s="4">
-        <v>45</v>
+      <c r="R13" s="5"/>
+      <c r="S13" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -3808,30 +3829,31 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" t="s" s="4">
-        <v>45</v>
+      <c r="R14" s="5"/>
+      <c r="S14" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -3850,30 +3872,31 @@
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" t="s" s="4">
-        <v>45</v>
+      <c r="R15" s="5"/>
+      <c r="S15" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -3892,30 +3915,31 @@
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="6"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" t="s" s="4">
-        <v>45</v>
+      <c r="R16" s="5"/>
+      <c r="S16" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -3934,30 +3958,31 @@
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" t="s" s="4">
-        <v>45</v>
+      <c r="R17" s="5"/>
+      <c r="S17" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -3975,33 +4000,34 @@
         <v>1</v>
       </c>
       <c r="K18" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" t="s" s="4">
-        <v>45</v>
+      <c r="R18" s="5"/>
+      <c r="S18" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -4020,30 +4046,31 @@
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" t="s" s="4">
-        <v>45</v>
+      <c r="R19" s="5"/>
+      <c r="S19" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -4062,30 +4089,31 @@
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" t="s" s="4">
-        <v>45</v>
+      <c r="R20" s="5"/>
+      <c r="S20" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -4104,30 +4132,31 @@
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" t="s" s="4">
-        <v>45</v>
+      <c r="R21" s="5"/>
+      <c r="S21" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -4146,30 +4175,31 @@
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="6"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" t="s" s="4">
-        <v>45</v>
+      <c r="R22" s="5"/>
+      <c r="S22" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -4188,30 +4218,31 @@
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-      <c r="R23" t="s" s="4">
-        <v>45</v>
+      <c r="R23" s="5"/>
+      <c r="S23" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -4230,30 +4261,31 @@
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-      <c r="R24" t="s" s="4">
-        <v>45</v>
+      <c r="R24" s="5"/>
+      <c r="S24" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" t="s" s="3">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
@@ -4272,30 +4304,31 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" t="s" s="4">
-        <v>45</v>
+      <c r="R25" s="5"/>
+      <c r="S25" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" s="4">
         <v>2</v>
@@ -4314,30 +4347,31 @@
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" t="s" s="4">
-        <v>45</v>
+      <c r="R26" s="5"/>
+      <c r="S26" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -4356,30 +4390,31 @@
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" t="s" s="4">
-        <v>45</v>
+      <c r="R27" s="5"/>
+      <c r="S27" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
@@ -4398,30 +4433,31 @@
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="5"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-      <c r="R28" t="s" s="4">
-        <v>45</v>
+      <c r="R28" s="5"/>
+      <c r="S28" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -4440,30 +4476,31 @@
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="6"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" t="s" s="4">
-        <v>45</v>
+      <c r="R29" s="5"/>
+      <c r="S29" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -4482,30 +4519,31 @@
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="5"/>
+      <c r="M30" s="6"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" t="s" s="4">
-        <v>45</v>
+      <c r="R30" s="5"/>
+      <c r="S30" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
@@ -4524,30 +4562,31 @@
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="5"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" t="s" s="4">
-        <v>45</v>
+      <c r="R31" s="5"/>
+      <c r="S31" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
@@ -4566,30 +4605,31 @@
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="5"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" t="s" s="4">
-        <v>45</v>
+      <c r="R32" s="5"/>
+      <c r="S32" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -4608,30 +4648,31 @@
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="5"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" t="s" s="4">
-        <v>45</v>
+      <c r="R33" s="5"/>
+      <c r="S33" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -4650,30 +4691,31 @@
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="5"/>
+      <c r="M34" s="6"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" t="s" s="4">
-        <v>45</v>
+      <c r="R34" s="5"/>
+      <c r="S34" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" t="s" s="3">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F35" s="4">
         <v>3</v>
@@ -4692,30 +4734,31 @@
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="5"/>
+      <c r="M35" s="6"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-      <c r="R35" t="s" s="4">
-        <v>45</v>
+      <c r="R35" s="5"/>
+      <c r="S35" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F36" s="4">
         <v>3</v>
@@ -4734,30 +4777,31 @@
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="5"/>
+      <c r="M36" s="6"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" t="s" s="4">
-        <v>45</v>
+      <c r="R36" s="5"/>
+      <c r="S36" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" t="s" s="3">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F37" s="4">
         <v>3</v>
@@ -4776,30 +4820,31 @@
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="5"/>
+      <c r="M37" s="6"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" t="s" s="4">
-        <v>45</v>
+      <c r="R37" s="5"/>
+      <c r="S37" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" t="s" s="3">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" s="4">
         <v>3</v>
@@ -4818,30 +4863,31 @@
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="5"/>
+      <c r="M38" s="6"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" t="s" s="4">
-        <v>45</v>
+      <c r="R38" s="5"/>
+      <c r="S38" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" t="s" s="3">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F39" s="4">
         <v>3</v>
@@ -4860,30 +4906,31 @@
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="5"/>
+      <c r="M39" s="6"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" t="s" s="4">
-        <v>45</v>
+      <c r="R39" s="5"/>
+      <c r="S39" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" t="s" s="3">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F40" s="4">
         <v>3</v>
@@ -4902,30 +4949,31 @@
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="5"/>
+      <c r="M40" s="6"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" t="s" s="4">
-        <v>45</v>
+      <c r="R40" s="5"/>
+      <c r="S40" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" t="s" s="3">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
@@ -4944,30 +4992,31 @@
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="5"/>
+      <c r="M41" s="6"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" t="s" s="4">
-        <v>45</v>
+      <c r="R41" s="5"/>
+      <c r="S41" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F42" s="4">
         <v>3</v>
@@ -4986,30 +5035,31 @@
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="5"/>
+      <c r="M42" s="6"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" t="s" s="4">
-        <v>45</v>
+      <c r="R42" s="5"/>
+      <c r="S42" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F43" s="4">
         <v>3</v>
@@ -5028,30 +5078,31 @@
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="5"/>
+      <c r="M43" s="6"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" t="s" s="4">
-        <v>45</v>
+      <c r="R43" s="5"/>
+      <c r="S43" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" t="s" s="3">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F44" s="4">
         <v>3</v>
@@ -5070,30 +5121,31 @@
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="5"/>
+      <c r="M44" s="6"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" t="s" s="4">
-        <v>45</v>
+      <c r="R44" s="5"/>
+      <c r="S44" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" t="s" s="3">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F45" s="4">
         <v>3</v>
@@ -5112,30 +5164,31 @@
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="5"/>
+      <c r="M45" s="6"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" t="s" s="4">
-        <v>45</v>
+      <c r="R45" s="5"/>
+      <c r="S45" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" t="s" s="3">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E46" t="s" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F46" s="4">
         <v>3</v>
@@ -5154,30 +5207,31 @@
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="5"/>
+      <c r="M46" s="6"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
-      <c r="R46" t="s" s="4">
-        <v>45</v>
+      <c r="R46" s="5"/>
+      <c r="S46" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" t="s" s="3">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
@@ -5196,30 +5250,31 @@
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="5"/>
+      <c r="M47" s="6"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-      <c r="R47" t="s" s="4">
-        <v>45</v>
+      <c r="R47" s="5"/>
+      <c r="S47" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" t="s" s="3">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E48" t="s" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F48" s="4">
         <v>4</v>
@@ -5238,30 +5293,31 @@
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="5"/>
+      <c r="M48" s="6"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
-      <c r="R48" t="s" s="4">
-        <v>45</v>
+      <c r="R48" s="5"/>
+      <c r="S48" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" t="s" s="3">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F49" s="4">
         <v>4</v>
@@ -5280,30 +5336,31 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="5"/>
+      <c r="M49" s="6"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
-      <c r="R49" t="s" s="4">
-        <v>45</v>
+      <c r="R49" s="5"/>
+      <c r="S49" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s" s="4">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F50" s="4">
         <v>4</v>
@@ -5322,30 +5379,31 @@
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="5"/>
+      <c r="M50" s="6"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
-      <c r="R50" t="s" s="4">
-        <v>45</v>
+      <c r="R50" s="5"/>
+      <c r="S50" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" t="s" s="3">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s" s="4">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s" s="4">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
@@ -5364,30 +5422,31 @@
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="5"/>
+      <c r="M51" s="6"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-      <c r="R51" t="s" s="4">
-        <v>45</v>
+      <c r="R51" s="5"/>
+      <c r="S51" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" t="s" s="3">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F52" s="4">
         <v>5</v>
@@ -5406,30 +5465,31 @@
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="5"/>
+      <c r="M52" s="6"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
-      <c r="R52" t="s" s="4">
-        <v>45</v>
+      <c r="R52" s="5"/>
+      <c r="S52" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" t="s" s="3">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s" s="4">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F53" s="4">
         <v>4</v>
@@ -5448,30 +5508,31 @@
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="5"/>
+      <c r="M53" s="6"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-      <c r="R53" t="s" s="4">
-        <v>45</v>
+      <c r="R53" s="5"/>
+      <c r="S53" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" t="s" s="3">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E54" t="s" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F54" s="4">
         <v>4</v>
@@ -5490,30 +5551,31 @@
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="5"/>
+      <c r="M54" s="6"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
-      <c r="R54" t="s" s="4">
-        <v>45</v>
+      <c r="R54" s="5"/>
+      <c r="S54" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" t="s" s="3">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s" s="4">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F55" s="4">
         <v>4</v>
@@ -5532,30 +5594,31 @@
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="5"/>
+      <c r="M55" s="6"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
-      <c r="R55" t="s" s="4">
-        <v>45</v>
+      <c r="R55" s="5"/>
+      <c r="S55" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" t="s" s="3">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s" s="4">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s" s="4">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F56" s="4">
         <v>4</v>
@@ -5574,30 +5637,31 @@
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="5"/>
+      <c r="M56" s="6"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-      <c r="R56" t="s" s="4">
-        <v>45</v>
+      <c r="R56" s="5"/>
+      <c r="S56" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D57" t="s" s="4">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F57" s="4">
         <v>5</v>
@@ -5616,30 +5680,31 @@
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="5"/>
+      <c r="M57" s="6"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
-      <c r="R57" t="s" s="4">
-        <v>45</v>
+      <c r="R57" s="5"/>
+      <c r="S57" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" t="s" s="3">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F58" s="4">
         <v>5</v>
@@ -5658,30 +5723,31 @@
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="5"/>
+      <c r="M58" s="6"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
-      <c r="R58" t="s" s="4">
-        <v>45</v>
+      <c r="R58" s="5"/>
+      <c r="S58" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" t="s" s="3">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s" s="4">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s" s="4">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F59" s="4">
         <v>5</v>
@@ -5700,30 +5766,31 @@
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="5"/>
+      <c r="M59" s="6"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
-      <c r="R59" t="s" s="4">
-        <v>45</v>
+      <c r="R59" s="5"/>
+      <c r="S59" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" t="s" s="3">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C60" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s" s="4">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F60" s="4">
         <v>5</v>
@@ -5742,33 +5809,34 @@
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="5"/>
+      <c r="M60" s="6"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" t="s" s="4">
-        <v>45</v>
+      <c r="R60" s="5"/>
+      <c r="S60" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" t="s" s="3">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F61" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G61" s="4">
         <v>100</v>
@@ -5784,33 +5852,34 @@
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="5"/>
+      <c r="M61" s="6"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" t="s" s="4">
-        <v>45</v>
+      <c r="R61" s="5"/>
+      <c r="S61" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" t="s" s="3">
+        <v>242</v>
+      </c>
+      <c r="B62" t="s" s="4">
+        <v>243</v>
+      </c>
+      <c r="C62" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="D62" t="s" s="4">
+        <v>244</v>
+      </c>
+      <c r="E62" t="s" s="4">
+        <v>245</v>
+      </c>
+      <c r="F62" t="s" s="4">
         <v>241</v>
-      </c>
-      <c r="B62" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="C62" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s" s="4">
-        <v>243</v>
-      </c>
-      <c r="E62" t="s" s="4">
-        <v>244</v>
-      </c>
-      <c r="F62" t="s" s="4">
-        <v>240</v>
       </c>
       <c r="G62" s="4">
         <v>100</v>
@@ -5826,33 +5895,34 @@
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="5"/>
+      <c r="M62" s="6"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
-      <c r="R62" t="s" s="4">
-        <v>45</v>
+      <c r="R62" s="5"/>
+      <c r="S62" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" t="s" s="3">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s" s="4">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E63" t="s" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F63" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G63" s="4">
         <v>100</v>
@@ -5868,33 +5938,34 @@
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="5"/>
+      <c r="M63" s="6"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-      <c r="R63" t="s" s="4">
-        <v>45</v>
+      <c r="R63" s="5"/>
+      <c r="S63" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" t="s" s="3">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C64" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E64" t="s" s="4">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F64" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G64" s="4">
         <v>100</v>
@@ -5910,33 +5981,34 @@
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="5"/>
+      <c r="M64" s="6"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
-      <c r="R64" t="s" s="4">
-        <v>45</v>
+      <c r="R64" s="5"/>
+      <c r="S64" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" t="s" s="3">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C65" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s" s="4">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s" s="4">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G65" s="4">
         <v>100</v>
@@ -5952,33 +6024,34 @@
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="5"/>
+      <c r="M65" s="6"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-      <c r="R65" t="s" s="4">
-        <v>45</v>
+      <c r="R65" s="5"/>
+      <c r="S65" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" t="s" s="3">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E66" t="s" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F66" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G66" s="4">
         <v>100</v>
@@ -5994,33 +6067,34 @@
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="5"/>
+      <c r="M66" s="6"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-      <c r="R66" t="s" s="4">
-        <v>45</v>
+      <c r="R66" s="5"/>
+      <c r="S66" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F67" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G67" s="4">
         <v>100</v>
@@ -6036,33 +6110,34 @@
       </c>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="5"/>
+      <c r="M67" s="6"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-      <c r="R67" t="s" s="4">
-        <v>45</v>
+      <c r="R67" s="5"/>
+      <c r="S67" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E68" t="s" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F68" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G68" s="4">
         <v>100</v>
@@ -6078,33 +6153,34 @@
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="5"/>
+      <c r="M68" s="6"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-      <c r="R68" t="s" s="4">
-        <v>45</v>
+      <c r="R68" s="5"/>
+      <c r="S68" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
       <c r="A69" t="s" s="3">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C69" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E69" t="s" s="4">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F69" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G69" s="4">
         <v>100</v>
@@ -6120,33 +6196,34 @@
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="5"/>
+      <c r="M69" s="6"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
-      <c r="R69" t="s" s="4">
-        <v>45</v>
+      <c r="R69" s="5"/>
+      <c r="S69" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C70" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E70" t="s" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G70" s="4">
         <v>100</v>
@@ -6162,30 +6239,31 @@
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="5"/>
+      <c r="M70" s="6"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
-      <c r="R70" t="s" s="4">
-        <v>45</v>
+      <c r="R70" s="5"/>
+      <c r="S70" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
       <c r="A71" t="s" s="3">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C71" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F71" s="4">
         <v>3</v>
@@ -6204,30 +6282,31 @@
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="5"/>
+      <c r="M71" s="6"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
-      <c r="R71" t="s" s="4">
-        <v>45</v>
+      <c r="R71" s="5"/>
+      <c r="S71" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
       <c r="A72" t="s" s="3">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C72" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E72" t="s" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F72" s="4">
         <v>3</v>
@@ -6246,30 +6325,31 @@
       </c>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="5"/>
+      <c r="M72" s="6"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
-      <c r="R72" t="s" s="4">
-        <v>45</v>
+      <c r="R72" s="5"/>
+      <c r="S72" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
       <c r="A73" t="s" s="3">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C73" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E73" t="s" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F73" s="4">
         <v>4</v>
@@ -6288,30 +6368,31 @@
       </c>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="5"/>
+      <c r="M73" s="6"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
-      <c r="R73" t="s" s="4">
-        <v>45</v>
+      <c r="R73" s="5"/>
+      <c r="S73" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
       <c r="A74" t="s" s="3">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C74" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s" s="4">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s" s="4">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
@@ -6330,30 +6411,31 @@
       </c>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="5"/>
+      <c r="M74" s="6"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
-      <c r="R74" t="s" s="4">
-        <v>45</v>
+      <c r="R74" s="5"/>
+      <c r="S74" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
       <c r="A75" t="s" s="3">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C75" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E75" t="s" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F75" s="4">
         <v>2</v>
@@ -6372,30 +6454,31 @@
       </c>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="5"/>
+      <c r="M75" s="6"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-      <c r="R75" t="s" s="4">
-        <v>45</v>
+      <c r="R75" s="5"/>
+      <c r="S75" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
       <c r="A76" t="s" s="3">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C76" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F76" s="4">
         <v>2</v>
@@ -6414,30 +6497,31 @@
       </c>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="5"/>
+      <c r="M76" s="6"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-      <c r="R76" t="s" s="4">
-        <v>45</v>
+      <c r="R76" s="5"/>
+      <c r="S76" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" t="s" s="3">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C77" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s" s="4">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E77" t="s" s="4">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F77" s="4">
         <v>3</v>
@@ -6456,30 +6540,31 @@
       </c>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="5"/>
+      <c r="M77" s="6"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
-      <c r="R77" t="s" s="4">
-        <v>45</v>
+      <c r="R77" s="5"/>
+      <c r="S77" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
       <c r="A78" t="s" s="3">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C78" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s" s="4">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s" s="4">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F78" s="4">
         <v>3</v>
@@ -6498,30 +6583,31 @@
       </c>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="5"/>
+      <c r="M78" s="6"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
-      <c r="R78" t="s" s="4">
-        <v>45</v>
+      <c r="R78" s="5"/>
+      <c r="S78" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
       <c r="A79" t="s" s="3">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C79" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E79" t="s" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F79" s="4">
         <v>3</v>
@@ -6540,30 +6626,31 @@
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="5"/>
+      <c r="M79" s="6"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-      <c r="R79" t="s" s="4">
-        <v>45</v>
+      <c r="R79" s="5"/>
+      <c r="S79" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
       <c r="A80" t="s" s="3">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C80" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E80" t="s" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F80" s="4">
         <v>3</v>
@@ -6582,33 +6669,34 @@
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="5"/>
+      <c r="M80" s="6"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
-      <c r="R80" t="s" s="4">
-        <v>45</v>
+      <c r="R80" s="5"/>
+      <c r="S80" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
       <c r="A81" t="s" s="3">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C81" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E81" t="s" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F81" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G81" s="4">
         <v>100</v>
@@ -6624,33 +6712,34 @@
       </c>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="5"/>
+      <c r="M81" s="6"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-      <c r="R81" t="s" s="4">
-        <v>45</v>
+      <c r="R81" s="5"/>
+      <c r="S81" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
       <c r="A82" t="s" s="3">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C82" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s" s="4">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E82" t="s" s="4">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F82" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G82" s="4">
         <v>100</v>
@@ -6666,33 +6755,34 @@
       </c>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="5"/>
+      <c r="M82" s="6"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
-      <c r="R82" t="s" s="4">
-        <v>45</v>
+      <c r="R82" s="5"/>
+      <c r="S82" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" t="s" s="3">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B83" t="s" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C83" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s" s="4">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E83" t="s" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F83" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G83" s="4">
         <v>100</v>
@@ -6708,33 +6798,34 @@
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="5"/>
+      <c r="M83" s="6"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" t="s" s="4">
-        <v>45</v>
+      <c r="R83" s="5"/>
+      <c r="S83" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="84" ht="20" customHeight="1">
       <c r="A84" t="s" s="3">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B84" t="s" s="4">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C84" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s" s="4">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E84" t="s" s="4">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F84" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G84" s="4">
         <v>100</v>
@@ -6750,33 +6841,34 @@
       </c>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="5"/>
+      <c r="M84" s="6"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-      <c r="R84" t="s" s="4">
-        <v>45</v>
+      <c r="R84" s="5"/>
+      <c r="S84" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="85" ht="20" customHeight="1">
       <c r="A85" t="s" s="3">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B85" t="s" s="4">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C85" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s" s="4">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E85" t="s" s="4">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F85" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G85" s="4">
         <v>100</v>
@@ -6792,33 +6884,34 @@
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="5"/>
+      <c r="M85" s="6"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-      <c r="R85" t="s" s="4">
-        <v>45</v>
+      <c r="R85" s="5"/>
+      <c r="S85" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="86" ht="20" customHeight="1">
       <c r="A86" t="s" s="3">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B86" t="s" s="4">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C86" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s" s="4">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E86" t="s" s="4">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F86" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G86" s="4">
         <v>100</v>
@@ -6834,33 +6927,34 @@
       </c>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="5"/>
+      <c r="M86" s="6"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-      <c r="R86" t="s" s="4">
-        <v>45</v>
+      <c r="R86" s="5"/>
+      <c r="S86" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="87" ht="20" customHeight="1">
       <c r="A87" t="s" s="3">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B87" t="s" s="4">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C87" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s" s="4">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E87" t="s" s="4">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F87" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G87" s="4">
         <v>100</v>
@@ -6876,33 +6970,34 @@
       </c>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="5"/>
+      <c r="M87" s="6"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
-      <c r="R87" t="s" s="4">
-        <v>45</v>
+      <c r="R87" s="5"/>
+      <c r="S87" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="88" ht="20" customHeight="1">
       <c r="A88" t="s" s="3">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B88" t="s" s="4">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C88" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E88" t="s" s="4">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F88" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G88" s="4">
         <v>100</v>
@@ -6918,30 +7013,31 @@
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="5"/>
+      <c r="M88" s="6"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
-      <c r="R88" t="s" s="4">
-        <v>45</v>
+      <c r="R88" s="5"/>
+      <c r="S88" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="89" ht="20" customHeight="1">
       <c r="A89" t="s" s="3">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B89" t="s" s="4">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C89" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s" s="4">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E89" t="s" s="4">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F89" s="4">
         <v>3</v>
@@ -6960,33 +7056,34 @@
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="5"/>
+      <c r="M89" s="6"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
-      <c r="R89" t="s" s="4">
-        <v>45</v>
+      <c r="R89" s="5"/>
+      <c r="S89" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="90" ht="20" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B90" t="s" s="4">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C90" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s" s="4">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E90" t="s" s="4">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F90" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G90" s="4">
         <v>100</v>
@@ -7002,33 +7099,34 @@
       </c>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="5"/>
+      <c r="M90" s="6"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
-      <c r="R90" t="s" s="4">
-        <v>45</v>
+      <c r="R90" s="5"/>
+      <c r="S90" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="91" ht="20" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B91" t="s" s="4">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C91" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s" s="4">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E91" t="s" s="4">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F91" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G91" s="4">
         <v>100</v>
@@ -7044,30 +7142,31 @@
       </c>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="5"/>
+      <c r="M91" s="6"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
-      <c r="R91" t="s" s="4">
-        <v>45</v>
+      <c r="R91" s="5"/>
+      <c r="S91" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="92" ht="20" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B92" t="s" s="4">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C92" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D92" t="s" s="4">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E92" t="s" s="4">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F92" s="4">
         <v>2</v>
@@ -7086,30 +7185,31 @@
       </c>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="5"/>
+      <c r="M92" s="6"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
-      <c r="R92" t="s" s="4">
-        <v>45</v>
+      <c r="R92" s="5"/>
+      <c r="S92" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="93" ht="20" customHeight="1">
       <c r="A93" t="s" s="3">
+        <v>347</v>
+      </c>
+      <c r="B93" t="s" s="4">
+        <v>348</v>
+      </c>
+      <c r="C93" t="s" s="4">
+        <v>344</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>346</v>
       </c>
-      <c r="B93" t="s" s="4">
-        <v>347</v>
-      </c>
-      <c r="C93" t="s" s="4">
-        <v>343</v>
-      </c>
-      <c r="D93" t="s" s="4">
-        <v>345</v>
-      </c>
       <c r="E93" t="s" s="4">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F93" s="4">
         <v>2</v>
@@ -7128,33 +7228,34 @@
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="5"/>
+      <c r="M93" s="6"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
-      <c r="R93" t="s" s="4">
-        <v>45</v>
+      <c r="R93" s="5"/>
+      <c r="S93" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="94" ht="20" customHeight="1">
       <c r="A94" t="s" s="3">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B94" t="s" s="4">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D94" t="s" s="4">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E94" t="s" s="4">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F94" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G94" s="4">
         <v>100</v>
@@ -7170,33 +7271,34 @@
       </c>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="5"/>
+      <c r="M94" s="6"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-      <c r="R94" t="s" s="4">
-        <v>45</v>
+      <c r="R94" s="5"/>
+      <c r="S94" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="95" ht="20" customHeight="1">
       <c r="A95" t="s" s="3">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B95" t="s" s="4">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C95" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D95" t="s" s="4">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E95" t="s" s="4">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F95" t="s" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G95" s="4">
         <v>100</v>
@@ -7212,30 +7314,31 @@
       </c>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="5"/>
+      <c r="M95" s="6"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
-      <c r="R95" t="s" s="4">
-        <v>45</v>
+      <c r="R95" s="5"/>
+      <c r="S95" t="s" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="96" ht="20" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B96" t="s" s="4">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C96" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D96" t="s" s="4">
-        <v>357</v>
+      